--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15CFB13D-B035-4113-AAFE-63B39D797BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{340D042C-E89A-4D0B-B262-7EFD4E0BB180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
+    <sheet name="languages" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="314">
   <si>
     <t>name</t>
   </si>
@@ -646,9 +650,6 @@
     <t>Street connectivity is an important aspect of walkability, as it affects proximity and convenient routes to destinations.</t>
   </si>
   <si>
-    <t>Walkable neighbourhoods underpin a liveable city, providing opportunities for healthy sustainable lifestyles.  Walkability encompasses accessibility of services and amenities and is influenced by policies determining land use mix and population density, as well as street connectivity.  Sufficient density of dwellings and population is critical for walkability, because it determines the viability of local destinations and adequate public transport service.</t>
-  </si>
-  <si>
     <t>infographic</t>
   </si>
   <si>
@@ -668,6 +669,306 @@
   </si>
   <si>
     <t>Insert some content here maybe??</t>
+  </si>
+  <si>
+    <t>El informe completo, incluidos los datos y los métodos, se ha publicado en INSERTAR LA CITA DE LA SERIE Y LA URL | Datos de población: Schiavina, M. et al. (2019): GHS population grid multitemporal (1975, 1990, 2000, 2015) R2019A. European Commission, Joint Research Centre (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 | Límites urbanos: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporal and multidimensional attributes, R2019A. European Commission, Joint Research Centre (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e | Características urbanas: OpenStreetMap contributors. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent | Escala de colores: Crameri, F. (2018). Scientific colour-maps (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763</t>
+  </si>
+  <si>
+    <t>Las estrategias de diseño urbano pueden crear vecindarios aptos para caminar y andar en bicicleta con espacios públicos abiertos accesibles, que se asocian con mayores niveles de actividad física y menor riesgo de enfermedades crónicas. Un objetivo de política para el acceso residencial a espacios públicos abiertos dentro de los 400 m es ampliamente consistente con la evidencia sobre el fomento de caminar. Sin embargo, el acceso a parques más grandes también puede ser importante, y se deben considerar diferentes velocidades y habilidades para caminar.</t>
+  </si>
+  <si>
+    <t>Objetivos para el uso del transporte público</t>
+  </si>
+  <si>
+    <t>Requisitos mínimos para acceder al transporte público</t>
+  </si>
+  <si>
+    <t>Requisitos para la distribución del empleo en la ciudad</t>
+  </si>
+  <si>
+    <t>Requisitos para el acceso del transporte público al empleo y las infraestructuras</t>
+  </si>
+  <si>
+    <t>Evidencia de salud respaldada</t>
+  </si>
+  <si>
+    <t>Objetivo medible</t>
+  </si>
+  <si>
+    <t>Estándar específico</t>
+  </si>
+  <si>
+    <t>Política identificada</t>
+  </si>
+  <si>
+    <t>El fácil acceso al transporte público frecuente es un determinante clave de los sistemas de transporte saludables y sostenibles. La ubicación de la vivienda y el empleo cerca del transporte público aumenta la participación modal de los viajes en transporte público, lo que fomenta la caminata relacionada con el transporte; ofrecer acceso a empleos y servicios regionales; mejorar la salud, el desarrollo económico y la inclusión social; y reducir la contaminación y las emisiones de carbono.</t>
+  </si>
+  <si>
+    <t>Easy access to frequent public transport is a key determinant of healthy and sustainable transport systems. Placing housing and employment near public transport increases the mode share of public transport trips, thus encouraging transport-related walking; offering access to regional jobs and services; improving health, economic development, and social inclusiveness; and reducing pollution and carbon emissions.</t>
+  </si>
+  <si>
+    <t>¿Insertar algún contenido aquí tal vez?</t>
+  </si>
+  <si>
+    <t>La conectividad de las calles es un aspecto importante de la caminabilidad, ya que afecta la proximidad y las rutas convenientes a los destinos.</t>
+  </si>
+  <si>
+    <t>Acceso al transporte público entre semana a 500 m</t>
+  </si>
+  <si>
+    <t>Densidad de intersección de calles</t>
+  </si>
+  <si>
+    <t>Objetivos de participación ciclista</t>
+  </si>
+  <si>
+    <t>Objetivos de participación a pie</t>
+  </si>
+  <si>
+    <t>Provisión de infraestructura ciclista</t>
+  </si>
+  <si>
+    <t>Provisión de infraestructura peatonal</t>
+  </si>
+  <si>
+    <t>Restricciones de estacionamiento para desalentar el uso del automóvil</t>
+  </si>
+  <si>
+    <t>Conectividad de calles o proporción de pedshed</t>
+  </si>
+  <si>
+    <t>Requisitos de densidad de vivienda</t>
+  </si>
+  <si>
+    <t>Políticas de contaminación del aire relacionadas con el transporte y la planificación del uso del suelo</t>
+  </si>
+  <si>
+    <t>¿Información sobre el gasto público en infraestructura para diferentes modos de transporte?</t>
+  </si>
+  <si>
+    <t>¿Se ha incorporado la evaluación del impacto en la salud en la política o legislación urbana/de transporte?</t>
+  </si>
+  <si>
+    <t>¿Las políticas metropolitanas de transporte  especifica acciones enfocadas en la salud?</t>
+  </si>
+  <si>
+    <t>¿Las políticas urbanas metropolitanas especifica acciones enfocadas en la salud?</t>
+  </si>
+  <si>
+    <t>¿La transporte y planificación urbana combinados en un departamento gubernamental?</t>
+  </si>
+  <si>
+    <t>Comparación de 25 ciudades</t>
+  </si>
+  <si>
+    <t>La presencia de las politícas de transporte</t>
+  </si>
+  <si>
+    <t>¹ La clasificacíon de la calidad de las políticas se recompensa las políticas específicas, mensurables y alineados con evidencia de consenso de las ciudades saludes</t>
+  </si>
+  <si>
+    <t>La calidad de las políticas ¹</t>
+  </si>
+  <si>
+    <t>La presencia de las políticas</t>
+  </si>
+  <si>
+    <t>Políticas Urbanas y Salud</t>
+  </si>
+  <si>
+    <t>Densidad poblacional</t>
+  </si>
+  <si>
+    <t>Caminabilidad</t>
+  </si>
+  <si>
+    <t>(arriba) Las estimaciones de la ciudad para el porcentaje de población con acceso a servicios dentro de los 500 metros (m) se pueden comparar con el desempeño de otras ciudades en nuestro estudio global.</t>
+  </si>
+  <si>
+    <t>Diseño urbano y características del transporte.</t>
+  </si>
+  <si>
+    <t>Infografía para insertar aquí…</t>
+  </si>
+  <si>
+    <t>Urban Policy and Built Environment Scorecard 2020</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Walkable neighbourhoods underpin a liveable city, providing opportunities for healthy sustainable lifestyles.  Walkability encompasses accessibility of services and amenities and is influenced by policies determining land use mix and population density, as well as street connectivity. Sufficient density of dwellings and population is critical for walkability, because it determines the viability of local destinations and adequate public transport service.\n\nThe below checklist reports on an analysis of {city} urban policies supporting walkable neighbourhoods, evaluating: policy presence; whether the policy had a specific aim or standard; whether it had a measurable target; and whether it was consistent with evidence on health supportive environments.</t>
+  </si>
+  <si>
+    <t>Walkable neighbourhoods underpin a liveable city, providing opportunities for healthy sustainable lifestyles.  Walkability encompasses accessibility of services and amenities and is influenced by policies determining land use mix and population density, as well as street connectivity. Sufficient density of dwellings and population is critical for walkability, because it determines the viability of local destinations and adequate public transport service.
+The below checklist reports on an analysis of {city} urban policies supporting walkable neighbourhoods, evaluating: policy presence; whether the policy had a specific aim or standard; whether it had a measurable target; and whether it was consistent with evidence on health supportive environments.</t>
+  </si>
+  <si>
+    <t>Los vecindarios transitables sustentan una ciudad habitable y brindan oportunidades para estilos de vida sostenibles y saludables. La accesibilidad para peatones abarca la accesibilidad de los servicios y las comodidades y está influenciada por las políticas que determinan la combinación de usos del suelo y la densidad de población, así como la conectividad de las calles. Una densidad suficiente de viviendas y población es fundamental para la transitabilidad, ya que determina la viabilidad de los destinos locales y un servicio de transporte público adecuado.
+La siguiente lista de verificación informa sobre un análisis de las políticas urbanas de {city} que apoyan los vecindarios transitables, evaluando: la presencia de políticas; si la política tenía un objetivo o estándar específico; si tenía un objetivo medible; y si era consistente con la evidencia sobre entornos de apoyo a la salud.</t>
+  </si>
+  <si>
+    <t>Large public open space access within 500m</t>
+  </si>
+  <si>
+    <t>Acceso a gran espacio público abierto a 500 m</t>
+  </si>
+  <si>
+    <t>Please provide a high resolution 'hero image' for this city, ideally with dimensions in the ratio of 21:10 (e.g. 2100px by 1000px)</t>
+  </si>
+  <si>
+    <t>Citation: Global Healthy &amp; Sustainable Cities Indicators Collaboration. 2022. Urban Policy and Built Environment Scorecard 2020: {city}. https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>Tanteador de Política Urbana y Entorno Construido 2020</t>
+  </si>
+  <si>
+    <t>Ciudades Globales Saludables y Sostenibles</t>
+  </si>
+  <si>
+    <t>Citación: Global Healthy &amp; Sustainable Cities Indicators Collaboration. 2022. Urban Policy and Built Environment Scorecard 2020: {city}  (Spanish). https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>全球健康与可持续城市</t>
+  </si>
+  <si>
+    <t>城市政策和建筑环境记分卡2020</t>
+  </si>
+  <si>
+    <t>信息图将在此处插入...</t>
+  </si>
+  <si>
+    <t>城市设计和交通特色</t>
+  </si>
+  <si>
+    <t>（上图）在我们的全球研究中，城市估计的500米（m）范围内获得便利设施的人口百分比可以与其他城市的表现进行比较。</t>
+  </si>
+  <si>
+    <t>步行性</t>
+  </si>
+  <si>
+    <t>人口密度</t>
+  </si>
+  <si>
+    <t>与卫生相关的城市政策</t>
+  </si>
+  <si>
+    <t>策略存在</t>
+  </si>
+  <si>
+    <t>政策质量¹</t>
+  </si>
+  <si>
+    <t>¹ 政策质量评级奖励与健康城市共识证据相一致的特定、可衡量的政策</t>
+  </si>
+  <si>
+    <t>传输策略清单</t>
+  </si>
+  <si>
+    <t>25 城市比较</t>
+  </si>
+  <si>
+    <t>交通和规划合并在一个政府部门？</t>
+  </si>
+  <si>
+    <t>大都市城市政策具体规定了以卫生为重点的行动？</t>
+  </si>
+  <si>
+    <t>大都市交通政策规定了以卫生为重点的行动？</t>
+  </si>
+  <si>
+    <t>将健康影响评估纳入城市/交通政策或立法？</t>
+  </si>
+  <si>
+    <t>关于政府对不同运输方式的基础设施支出的信息？</t>
+  </si>
+  <si>
+    <t>与运输和土地使用规划有关的空气污染政策</t>
+  </si>
+  <si>
+    <t>已确定策略</t>
+  </si>
+  <si>
+    <t>具体标准</t>
+  </si>
+  <si>
+    <t>可衡量的目标</t>
+  </si>
+  <si>
+    <t>健康证据支持</t>
+  </si>
+  <si>
+    <t>外壳密度要求</t>
+  </si>
+  <si>
+    <t>街道连通性或 附装 比例</t>
+  </si>
+  <si>
+    <t>停车限制，以阻止汽车使用</t>
+  </si>
+  <si>
+    <t>提供行人基础设施</t>
+  </si>
+  <si>
+    <t>提供自行车基础设施</t>
+  </si>
+  <si>
+    <t>步行参与目标</t>
+  </si>
+  <si>
+    <t>自行车参与目标</t>
+  </si>
+  <si>
+    <t>街道交叉口密度</t>
+  </si>
+  <si>
+    <t>500米范围内的平日公共交通</t>
+  </si>
+  <si>
+    <t>500米范围内的大型公共开放空间通道</t>
+  </si>
+  <si>
+    <t>街道连通性是可步行性的一个重要方面，因为它会影响到目的地的距离和便捷路线。</t>
+  </si>
+  <si>
+    <t>在这里插入一些内容也许？？</t>
+  </si>
+  <si>
+    <t>方便使用频繁的公共交通工具是健康和可持续交通系统的关键决定因素。 将住房和就业安置在公共交通工具附近会增加公共交通旅行的方式份额，从而鼓励与交通相关的步行;提供获得区域工作和服务的机会;改善健康，经济发展和社会包容性;减少污染和碳排放。</t>
+  </si>
+  <si>
+    <t>公共交通获得就业和基础设施的要求</t>
+  </si>
+  <si>
+    <t>全市就业分配要求</t>
+  </si>
+  <si>
+    <t>公共交通的最低要求</t>
+  </si>
+  <si>
+    <t>公共交通使用目标</t>
+  </si>
+  <si>
+    <t>城市设计策略可以创建步行和骑自行车友好的社区，拥有无障碍的公共开放空间，这与增加身体活动水平和降低慢性病风险有关。   住宅进入400米以内公共开放空间的政策目标与鼓励步行的证据大致一致。 但是，进入较大的公园可能也很重要，应该考虑不同的步行速度和能力。</t>
+  </si>
+  <si>
+    <t>公共开放空间出入的最低要求</t>
+  </si>
+  <si>
+    <t>包括数据和方法的完整报告已发表在INSERT SERIES CITATION &amp; URL |人口数据：Schiavina，M. et al. （2019）： GHS人口网格多期（1975， 1990， 2000， 2015） R2019A.欧盟委员会，联合研究中心（JRC）。https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |城市边界：Florczyk， A. et al. （2019）：GHS城市中心数据库2015，多时间和多维属性，R2019A。欧盟委员会，联合研究中心（JRC）。https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |城市特色： OpenStreetMap 贡献者.打开街道地图 （2020）.https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |色阶： 克拉梅里， F. （2018）.科学色图 （3.0.4）.泽诺多.https://doi.org/10.5281/zenodo.1287763</t>
+  </si>
+  <si>
+    <t>适合步行的社区支撑着一个宜居的城市，为健康的可持续生活方式提供了机会。 步行性包括服务和便利设施的可访问性，并受到确定土地使用组合和人口密度以及街道连通性的政策的影响。 足够的住宅密度和人口对于 步行能力至关重要，因为它 决定了当地目的地的可行性和足够的公共交通服务。
+下面的清单报告了对支持步行社区的{city}城市政策的分析， 评估： 政策存在;政策是否有特定的目标或标准;它是否有可衡量的目标;以及它是否与健康支持环境的证据一致。</t>
+  </si>
+  <si>
+    <t>引文：全球健康与可持续城市指标合作。 城市政策与建筑环境记分卡2020：{city}. https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>Chinese (NOT SUPPORTED)</t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1452,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1201,7 +1521,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1513,8 +1844,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S155"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P155" sqref="P155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,62 +1855,62 @@
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1841,8 +2173,11 @@
       <c r="O6" t="s">
         <v>29</v>
       </c>
+      <c r="P6" t="s">
+        <v>263</v>
+      </c>
       <c r="Q6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" t="b">
         <v>1</v>
@@ -1903,7 +2238,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1945,7 +2280,7 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -3881,7 +4216,7 @@
         <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -3995,7 +4330,7 @@
         <v>29</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -6697,7 +7032,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -6910,7 +7245,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -6952,7 +7287,7 @@
         <v>42</v>
       </c>
       <c r="P96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -10208,7 +10543,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -10250,7 +10585,9 @@
       <c r="O155" t="s">
         <v>29</v>
       </c>
-      <c r="P155" s="1"/>
+      <c r="P155" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="Q155">
         <v>2</v>
       </c>
@@ -10265,4 +10602,674 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" style="2" customWidth="1"/>
+    <col min="2" max="4" width="55" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{340D042C-E89A-4D0B-B262-7EFD4E0BB180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FE8A986C-F92C-4587-9DC8-05FDAEBC2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="2145" yWindow="4905" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
     <sheet name="languages" sheetId="2" r:id="rId2"/>
+    <sheet name="fonts" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$A$1:$C$1</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="328">
   <si>
     <t>name</t>
   </si>
@@ -961,6 +962,9 @@
     <t>包括数据和方法的完整报告已发表在INSERT SERIES CITATION &amp; URL |人口数据：Schiavina，M. et al. （2019）： GHS人口网格多期（1975， 1990， 2000， 2015） R2019A.欧盟委员会，联合研究中心（JRC）。https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 |城市边界：Florczyk， A. et al. （2019）：GHS城市中心数据库2015，多时间和多维属性，R2019A。欧盟委员会，联合研究中心（JRC）。https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e |城市特色： OpenStreetMap 贡献者.打开街道地图 （2020）.https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent |色阶： 克拉梅里， F. （2018）.科学色图 （3.0.4）.泽诺多.https://doi.org/10.5281/zenodo.1287763</t>
   </si>
   <si>
+    <t>Chinese</t>
+  </si>
+  <si>
     <t>适合步行的社区支撑着一个宜居的城市，为健康的可持续生活方式提供了机会。 步行性包括服务和便利设施的可访问性，并受到确定土地使用组合和人口密度以及街道连通性的政策的影响。 足够的住宅密度和人口对于 步行能力至关重要，因为它 决定了当地目的地的可行性和足够的公共交通服务。
 下面的清单报告了对支持步行社区的{city}城市政策的分析， 评估： 政策存在;政策是否有特定的目标或标准;它是否有可衡量的目标;以及它是否与健康支持环境的证据一致。</t>
   </si>
@@ -968,7 +972,46 @@
     <t>引文：全球健康与可持续城市指标合作。 城市政策与建筑环境记分卡2020：{city}. https://doi.org/INSERT-DOI-HERE</t>
   </si>
   <si>
-    <t>Chinese (NOT SUPPORTED)</t>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonts/dejavu-fonts-ttf-2.37/ttf/DejaVuSansCondensed.ttf         </t>
+  </si>
+  <si>
+    <t>fonts/dejavu-fonts-ttf-2.37/ttf/DejaVuSansCondensed-Bold.ttf</t>
+  </si>
+  <si>
+    <t>fonts/dejavu-fonts-ttf-2.37/ttf/DejaVuSansCondensed-Oblique.ttf</t>
+  </si>
+  <si>
+    <t>fonts/dejavu-fonts-ttf-2.37/ttf/DejaVuSansCondensed-BoldOblique.ttf</t>
+  </si>
+  <si>
+    <t>fonts/Noto_Sans_SC/NotoSansSC-Black.otf</t>
+  </si>
+  <si>
+    <t>fonts/Noto_Sans_SC/NotoSansSC-Bold.otf</t>
+  </si>
+  <si>
+    <t>fonts/Noto_Sans_SC/NotoSansSC-Regular.otf</t>
+  </si>
+  <si>
+    <t>fonts/Noto_Sans_SC/NotoSansSC-Thin.otf</t>
+  </si>
+  <si>
+    <t>noto_sans_sc</t>
   </si>
 </sst>
 </file>
@@ -10608,7 +10651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -10633,7 +10676,7 @@
         <v>256</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10913,7 +10956,7 @@
         <v>260</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -11263,7 +11306,7 @@
         <v>267</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -11272,4 +11315,196 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="A1:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FE8A986C-F92C-4587-9DC8-05FDAEBC2714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{665B66F4-9D96-4137-98BE-EA1E7F48C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="4905" windowWidth="21600" windowHeight="11505" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="fonts" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="545">
   <si>
     <t>name</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>global_comparison_header</t>
+  </si>
+  <si>
+    <t>Global comparison</t>
   </si>
   <si>
     <t>policy2_text1</t>
@@ -1012,6 +1015,670 @@
   </si>
   <si>
     <t>noto_sans_sc</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Doesn't work!  Doesn't support postscript outlines…</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>Cidades Saudáveis &amp; Sustentáveis Globais</t>
+  </si>
+  <si>
+    <t>Placar de Política Urbana e Ambiente Construído 2020</t>
+  </si>
+  <si>
+    <t>Infográfico a ser inserido aqui...</t>
+  </si>
+  <si>
+    <t>Recursos de design urbano e transporte</t>
+  </si>
+  <si>
+    <t>(acima) As estimativas da cidade para a porcentagem da população com acesso a comodidades dentro de 500 metros (m) podem ser comparadas com o desempenho de outras cidades em nosso estudo global.</t>
+  </si>
+  <si>
+    <t>Caminhabilidade</t>
+  </si>
+  <si>
+    <t>Densidade demográfica</t>
+  </si>
+  <si>
+    <t>Política urbana relacionada à saúde</t>
+  </si>
+  <si>
+    <t>Presença política</t>
+  </si>
+  <si>
+    <t>Qualidade da política ¹</t>
+  </si>
+  <si>
+    <t>¹ Classificação de qualidade de políticas recompensa políticas específicas e mensuráveis alinhadas com evidências de consenso em cidades saudáveis</t>
+  </si>
+  <si>
+    <t>Lista de verificação da política de transporte</t>
+  </si>
+  <si>
+    <t>25 Comparação da Cidade</t>
+  </si>
+  <si>
+    <t>Transporte e planejamento combinados em um departamento do governo?</t>
+  </si>
+  <si>
+    <t>A política urbana metropolitana especifica ações voltadas para a saúde?</t>
+  </si>
+  <si>
+    <t>A política de transporte metropolitano especifica ações voltadas para a saúde?</t>
+  </si>
+  <si>
+    <t>Avaliação do Impacto na Saúde incorporada à política ou legislação urbana/transporte?</t>
+  </si>
+  <si>
+    <t>Informações sobre os gastos do governo com infraestrutura para diferentes modos de transporte?</t>
+  </si>
+  <si>
+    <t>Políticas de poluição do ar relacionadas ao planejamento de transporte e uso da terra</t>
+  </si>
+  <si>
+    <t>Os bairros walkable sustentam uma cidade viva, proporcionando oportunidades para estilos de vida sustentáveis e saudáveis.  A caminhabilidade abrange a acessibilidade de serviços e comodidades e é influenciada por políticas que determinam o mix de uso da terra e a densidade populacional, bem como a conectividade derua. A densidade suficiente de moradias e população é fundamental para a caminhabilidade, pois determina a viabilidade dos destinos locais e o serviço adequado de transporte público.
+A lista de verificação abaixo relata uma análise das políticas urbanas {city} que apoiam bairros andáveis, avaliando:  presença de políticas; se a política tinha um objetivo ou padrão específico; se tinha um alvo mensurável; e se era consistente com evidências em ambientes de apoio à saúde.</t>
+  </si>
+  <si>
+    <t>Padrão específico</t>
+  </si>
+  <si>
+    <t>Alvo mensurável</t>
+  </si>
+  <si>
+    <t>Evidências de saúde apoiadas</t>
+  </si>
+  <si>
+    <t>Requisitos de densidade habitacional</t>
+  </si>
+  <si>
+    <t>Conectividade de rua ou relação pedshed</t>
+  </si>
+  <si>
+    <t>Restrições de estacionamento para desencorajar o uso do carro</t>
+  </si>
+  <si>
+    <t>Provisão de infraestrutura para pedestres</t>
+  </si>
+  <si>
+    <t>Provisão de infraestrutura de ciclismo</t>
+  </si>
+  <si>
+    <t>Metas de participação ambulante</t>
+  </si>
+  <si>
+    <t>Metas de participação do ciclismo</t>
+  </si>
+  <si>
+    <t>Densidade de cruzamento de rua</t>
+  </si>
+  <si>
+    <t>Acesso ao transporte público durante a semana dentro de 500m</t>
+  </si>
+  <si>
+    <t>Grande acesso a espaço público aberto dentro de 500m</t>
+  </si>
+  <si>
+    <t>A conectividade de rua é um aspecto importante da caminhabilidade, pois afeta a proximidade e rotas convenientes para destinos.</t>
+  </si>
+  <si>
+    <t>Inserir algum conteúdo aqui talvez??</t>
+  </si>
+  <si>
+    <t>O fácil acesso ao transporte público frequente é um determinante fundamental dos sistemas de transporte saudáveis esustentáveis. Colocar moradia e emprego perto do transporte público aumenta a parcela de meios de viagens de transporte público, incentivando a caminhada relacionada ao transporte; oferecendo acesso a empregos e serviços regionais; melhorando a saúde, o desenvolvimento econômico e a inclusão social; e reduzindo a poluição e as emissões de carbono.</t>
+  </si>
+  <si>
+    <t>Requisitos para o acesso do transporte público ao emprego e infraestrutura</t>
+  </si>
+  <si>
+    <t>Requisitos para distribuição de emprego em toda a cidade</t>
+  </si>
+  <si>
+    <t>Requisitos mínimos para acesso ao transporte público</t>
+  </si>
+  <si>
+    <t>Metas para o uso do transporte público</t>
+  </si>
+  <si>
+    <t>Estratégias de design urbano podem criar bairros amigáveis à caminhada e ao ciclismo com espaço público acessível, que estão associados ao aumento dos níveis de atividade física e à redução do risco de doenças crônicas.    Uma meta política para o acesso residencial ao espaço público aberto dentro de 400 m é amplamente consistente com evidências de incentivo à caminhada.  No entanto, o acesso a parques maiores também pode ser importante, e diferentes velocidades e habilidades de caminhada devem ser consideradas.</t>
+  </si>
+  <si>
+    <t>Requisitos mínimos para acesso ao espaço público</t>
+  </si>
+  <si>
+    <t>O relatório completo, incluindo dados e métodos, foi publicado no INSERT SERIES CITATION &amp; URL | Dados populacionais: Schiavina, M. et al. (2019): Grade populacional de GHS multitemporal (1975, 1990, 2000, 2015) R2019A. Comissão Europeia, Centro Conjunto de Pesquisa (CCR). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 | Fronteiras urbanas: Florczyk, A. et al. (2019): GhS Urban Centre Database 2015, atributos multitemporais e multidimensionais, R2019A. Comissão Europeia, Centro Conjunto de Pesquisa (CCR). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e | Características urbanas: colaboradores do OpenStreetMap. Openstreetmap  (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent | Escala de cores:  Crameri, F. (2018). Mapas de cores científicas (3.0.4).  Zenodo. https://doi.org/10.5281/zenodo.1287763</t>
+  </si>
+  <si>
+    <t>Citação: Global Healthy &amp; Sustainable Cities Indicators Collaboration. 2022. Urban Policy and Built Environment Scorecard 2020: {city}  (Portuguese, Brazil). https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>Portuguese - Brazil</t>
+  </si>
+  <si>
+    <t>Cidades Globais Saudáveis e Sustentáveis</t>
+  </si>
+  <si>
+    <t>Política Urbana e Cartão de Pontuação do Ambiente Construído 2020</t>
+  </si>
+  <si>
+    <t>Design urbano e características de transporte</t>
+  </si>
+  <si>
+    <t>(acima) As estimativas da cidade para a percentagem de população com acesso a comodidades dentro de 500 metros (m) podem ser comparadas com o desempenho de outras cidades no nosso estudo global.</t>
+  </si>
+  <si>
+    <t>Densidade populacional</t>
+  </si>
+  <si>
+    <t>Política urbana relacionada com a saúde</t>
+  </si>
+  <si>
+    <t>Qualidade da política</t>
+  </si>
+  <si>
+    <t>Embora a classificação de qualidade da política recompensa políticas específicas e mensuráveis alinhadas com evidências consensuais em cidades saudáveis</t>
+  </si>
+  <si>
+    <t>Lista de verificação da política de transportes</t>
+  </si>
+  <si>
+    <t>25 City Compare</t>
+  </si>
+  <si>
+    <t>Transportes e planeamento combinados num departamento do governo?</t>
+  </si>
+  <si>
+    <t>A política urbana metropolitana especifica ações centradas na saúde?</t>
+  </si>
+  <si>
+    <t>A política metropolitana de transportes especifica ações centradas na saúde?</t>
+  </si>
+  <si>
+    <t>Avaliação do impacto da saúde incorporada na política ou legislação urbana/transportes?</t>
+  </si>
+  <si>
+    <t>Informação sobre as despesas públicas relativas às infraestruturas para diferentes modos de transporte?</t>
+  </si>
+  <si>
+    <t>Políticas de poluição atmosférica relacionadas tanto com o planeamento dos transportes como com o ordenamento do território</t>
+  </si>
+  <si>
+    <t>Os bairros ambulantes sustentam uma cidade habitável, proporcionando oportunidades para estilos de vida sustentáveis saudáveis.  A walkability engloba a acessibilidade de serviços e comodidades e é influenciada por políticas que determinam a mistura de uso do terreno e a densidade populacional, bem como a conectividade derua. A densidade suficiente das habitações e da população é fundamental para a walkability, pois determina a viabilidade dos destinos locais e o serviço de transporte público adequado.
+A lista de verificação abaixo relata uma análise das políticas urbanas {city} que apoiam os bairros ambulantes, avaliando:  presença política; se a política tinha um objetivo ou padrão específico; se tinha um alvo mensurável; e se era consistente com evidências em ambientes de apoio à saúde.</t>
+  </si>
+  <si>
+    <t>Provas de saúde apoiadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relação de conectividade de rua ou pedshed  </t>
+  </si>
+  <si>
+    <t>Provisão de infraestruturas pedonais</t>
+  </si>
+  <si>
+    <t>Provisão de infraestruturas cicláveis</t>
+  </si>
+  <si>
+    <t>Alvos de participação ambulante</t>
+  </si>
+  <si>
+    <t>Metas de participação no ciclismo</t>
+  </si>
+  <si>
+    <t>Acesso de transporte público durante a semana dentro de 500m</t>
+  </si>
+  <si>
+    <t>Grande acesso ao espaço aberto público dentro de 500m</t>
+  </si>
+  <si>
+    <t>A conectividade de rua é um aspeto importante da walkability, uma vez que afeta a proximidade e as rotas convenientes para os destinos.</t>
+  </si>
+  <si>
+    <t>Inserir algum conteúdo aqui, talvez?</t>
+  </si>
+  <si>
+    <t>O fácil acesso aos transportes públicos frequentes é um determinante fundamental dos sistemas de transporte saudáveis esustentáveis. Colocar a habitação e o emprego perto dos transportes públicos aumenta a quota de modo das viagens de transportes públicos, incentivando assim a caminhada relacionada com os transportes; oferecendo acesso a empregos e serviços regionais; melhoria da saúde, desenvolvimento económico e inclusão social; e redução da poluição e emissões de carbono.</t>
+  </si>
+  <si>
+    <t>Requisitos para o acesso dos transportes públicos ao emprego e às infraestruturas</t>
+  </si>
+  <si>
+    <t>Requisitos para a distribuição do emprego em toda a cidade</t>
+  </si>
+  <si>
+    <t>Requisitos mínimos para o acesso aos transportes públicos</t>
+  </si>
+  <si>
+    <t>Metas para a utilização dos transportes públicos</t>
+  </si>
+  <si>
+    <t>As estratégias de design urbano podem criar bairros a pé e de bicicleta com espaço aberto público acessível, que estão associados ao aumento dos níveis de atividade física e ao risco reduzido de doenças crónicas.    Um objetivo político para o acesso residencial ao espaço público aberto dentro de 400 m é amplamente consistente com evidências de incentivar a caminhada.  No entanto, o acesso a parques maiores também pode ser importante, e devem ser consideradas diferentes velocidades e habilidades de caminhada.</t>
+  </si>
+  <si>
+    <t>Requisitos mínimos para acesso público a espaços abertos</t>
+  </si>
+  <si>
+    <t>O relatório completo, incluindo dados e métodos, foi publicado no INSERT SERIES CITATION &amp; URL | Dados populacionais: Schiavina, M. et al. (2019): Rede populacional de GHS multitemporal (1975, 1990, 2000, 2015) R2019A. Comissão Europeia, Centro Comum de Investigação (CCI). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 | Fronteiras urbanas: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, atributos multitemporais e multidimensionais, R2019A. Comissão Europeia, Centro Comum de Investigação (CCI). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e | Características urbanas: Colaboradores openStreetMap. Openstreetmap  (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent | Escala de cor:  Crameri,F. (2018). Mapas científicos de cores (3.0.4).  Zenodo. https://doi.org/10.5281/zenodo.1287763</t>
+  </si>
+  <si>
+    <t>Portuguese - Portugal</t>
+  </si>
+  <si>
+    <t>Citação: Global Healthy &amp; Sustainable Cities Indicators Collaboration. 2022. Urban Policy and Built Environment Scorecard 2020: {city}  (Portuguese, Portugal). https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>Food market</t>
+  </si>
+  <si>
+    <t>Convenience</t>
+  </si>
+  <si>
+    <t>Any public open space</t>
+  </si>
+  <si>
+    <t>Large public open space</t>
+  </si>
+  <si>
+    <t>Public transport stop</t>
+  </si>
+  <si>
+    <t>Public transport with regular service (not evaluated)</t>
+  </si>
+  <si>
+    <t>Mercado de comida</t>
+  </si>
+  <si>
+    <t>Conveniencia</t>
+  </si>
+  <si>
+    <t>Cualquier espacio público abierto</t>
+  </si>
+  <si>
+    <t>Gran espacio público abierto</t>
+  </si>
+  <si>
+    <t>Parada de transporte público</t>
+  </si>
+  <si>
+    <t>Transporte público con servicio regular (no evaluado)</t>
+  </si>
+  <si>
+    <t>Public transport with regular service</t>
+  </si>
+  <si>
+    <t>Transporte público con servicio regular</t>
+  </si>
+  <si>
+    <t>Neighbourhood walkability relative to 25 global cities</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to public transport</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to public transport with service frequency of 20 minutes or less</t>
+  </si>
+  <si>
+    <t>Percentage of population with access to public transport 
+with service frequency of 20 minutes or less</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of population with access to public open
+space of area 1.5 hectares or larger </t>
+  </si>
+  <si>
+    <t>Percentage of population with access to public open space of area 1.5 hectares or larger</t>
+  </si>
+  <si>
+    <t>% of population within target threshold</t>
+  </si>
+  <si>
+    <t>Policies identified</t>
+  </si>
+  <si>
+    <t>Population %
+with access
+within
+500m to…</t>
+  </si>
+  <si>
+    <t>Caminabilidad del vecindario en relación con 25 ciudades globales</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Porcentaje de población con acceso a transporte público</t>
+  </si>
+  <si>
+    <t>% de la población dentro del umbral objetivo</t>
+  </si>
+  <si>
+    <t>Políticas identificadas</t>
+  </si>
+  <si>
+    <t>Porcentaje de población con acceso a transporte público
+con frecuencia de servicio de 20 minutos o menos</t>
+  </si>
+  <si>
+    <t>Porcentaje de población con acceso a servicios espacios públicos abiertos  de superficie 1,5 hectáreas o mayor</t>
+  </si>
+  <si>
+    <t>población %
+con acceso
+dentro
+500m a…</t>
+  </si>
+  <si>
+    <t>Neighbourhood population density (per km²)</t>
+  </si>
+  <si>
+    <t>Neighbourhood intersection density (per km²)</t>
+  </si>
+  <si>
+    <t>Population % with access within 500m to...</t>
+  </si>
+  <si>
+    <t>Densidad de población del barrio (por km²)</t>
+  </si>
+  <si>
+    <t>Densidad de intersección de vecindarios (por km²)</t>
+  </si>
+  <si>
+    <t>Comparación mundial</t>
+  </si>
+  <si>
+    <t>Mercado de alimentos</t>
+  </si>
+  <si>
+    <t>Conveniência</t>
+  </si>
+  <si>
+    <t>Qualquer espaço aberto público</t>
+  </si>
+  <si>
+    <t>Grande espaço público aberto</t>
+  </si>
+  <si>
+    <t>Transporte público com serviço regular (não avaliado)</t>
+  </si>
+  <si>
+    <t>Caminhada de bairro em relação a 25 cidades globais</t>
+  </si>
+  <si>
+    <t>Baixo</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Percentual da população com acesso ao transporte público</t>
+  </si>
+  <si>
+    <t>% da população dentro do limite desejado</t>
+  </si>
+  <si>
+    <t>Densidade populacional do bairro (por km²)</t>
+  </si>
+  <si>
+    <t>Densidade de interseção de bairro (por km²)</t>
+  </si>
+  <si>
+    <t>Comparação globa</t>
+  </si>
+  <si>
+    <t>Percentagem da população com acesso ao transporte público
+com frequência de serviço de 20 minutos ou menos</t>
+  </si>
+  <si>
+    <t>Percentagem da população com acesso a
+espaço de área de 1,5 hectares ou maior</t>
+  </si>
+  <si>
+    <t>População %
+com acesso
+dentro de
+500m para…</t>
+  </si>
+  <si>
+    <t>Chinese (not supported…  need to install TrueType font)</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>ตลาดอาหาร</t>
+  </si>
+  <si>
+    <t>ความสะดวก</t>
+  </si>
+  <si>
+    <t>พื้นที่เปิดโล่งสาธารณะใด ๆ</t>
+  </si>
+  <si>
+    <t>พื้นที่เปิดโล่งสาธารณะขนาดใหญ่</t>
+  </si>
+  <si>
+    <t>จุดแวะพักระบบขนส่งสาธารณะ</t>
+  </si>
+  <si>
+    <t>ระบบขนส่งสาธารณะที่มีบริการปกติ (ไม่ได้รับการประเมิน)</t>
+  </si>
+  <si>
+    <t>ความสามารถในการเดินของย่านเมื่อเทียบกับ 25 เมืองทั่วโลก</t>
+  </si>
+  <si>
+    <t>ต่ํา</t>
+  </si>
+  <si>
+    <t>เฉลี่ย</t>
+  </si>
+  <si>
+    <t>สูง</t>
+  </si>
+  <si>
+    <t>ร้อยละของประชากรที่สามารถเข้าถึงระบบขนส่งสาธารณะได้</t>
+  </si>
+  <si>
+    <t>ร้อยละของประชากรที่สามารถเข้าถึงระบบขนส่งสาธารณะที่มีความถี่ในการให้บริการไม่เกิน 20 นาที</t>
+  </si>
+  <si>
+    <t>ร้อยละของประชากรที่สามารถเข้าถึงพื้นที่เปิดโล่งสาธารณะของพื้นที่ 1.5 เฮกตาร์หรือใหญ่กว่า</t>
+  </si>
+  <si>
+    <t>% ของประชากรภายในเกณฑ์เป้าหมาย</t>
+  </si>
+  <si>
+    <t>นโยบายที่ระบุ</t>
+  </si>
+  <si>
+    <t>ประชากร %ที่มีการเข้าถึงwithin500mเพื่อ ...</t>
+  </si>
+  <si>
+    <t>ความหนาแน่นของประชากรเพื่อนบ้าน (ต่อตร.กม.)</t>
+  </si>
+  <si>
+    <t>ความหนาแน่นของจุดตัดเพื่อนบ้าน (ต่อตร.กม.)</t>
+  </si>
+  <si>
+    <t>การเปรียบเทียบทั่วโลก</t>
+  </si>
+  <si>
+    <t>เมืองที่มีสุขภาพดีและยั่งยืนทั่วโลก</t>
+  </si>
+  <si>
+    <t>นโยบายเมืองและดัชนีชี้วัดสภาพแวดล้อมที่สร้างขึ้น 2020</t>
+  </si>
+  <si>
+    <t>อินโฟกราฟิกที่จะแทรกที่นี่...</t>
+  </si>
+  <si>
+    <t>คุณสมบัติการออกแบบและการขนส่งในเมือง</t>
+  </si>
+  <si>
+    <t>(ด้านบน) การประมาณการเมืองสําหรับเปอร์เซ็นต์ของประชากรที่สามารถเข้าถึงสิ่งอํานวยความสะดวกภายใน 500 เมตร (เมตร) สามารถเปรียบเทียบกับประสิทธิภาพของเมืองอื่น ๆ ในการศึกษาทั่วโลกของเรา</t>
+  </si>
+  <si>
+    <t>ความสามารถในการเดิน</t>
+  </si>
+  <si>
+    <t>ความหนาแน่นของประชากร</t>
+  </si>
+  <si>
+    <t>นโยบายเมืองที่เกี่ยวข้องกับสุขภาพ</t>
+  </si>
+  <si>
+    <t>การมีนโยบายอยู่</t>
+  </si>
+  <si>
+    <t>คุณภาพนโยบาย ¹</t>
+  </si>
+  <si>
+    <t>¹ การให้คะแนนคุณภาพนโยบายให้รางวัลเฉพาะนโยบายที่วัดได้ซึ่งสอดคล้องกับหลักฐานฉันทามติในเมืองที่มีสุขภาพดี</t>
+  </si>
+  <si>
+    <t>รายการตรวจสอบนโยบายการขนส่ง</t>
+  </si>
+  <si>
+    <t>25 การเปรียบเทียบเมือง</t>
+  </si>
+  <si>
+    <t>การขนส่งและการวางแผนรวมกันในหน่วยงานของรัฐหนึ่ง?</t>
+  </si>
+  <si>
+    <t>นโยบายเมืองนครหลวงระบุการกระทําที่เน้นสุขภาพ?</t>
+  </si>
+  <si>
+    <t>นโยบายการขนส่งของมหานครระบุการกระทําที่เน้นสุขภาพหรือไม่?</t>
+  </si>
+  <si>
+    <t>การประเมินผลกระทบด้านสุขภาพที่รวมอยู่ในนโยบายหรือกฎหมายในเมือง / การขนส่ง?</t>
+  </si>
+  <si>
+    <t>ข้อมูลเกี่ยวกับค่าใช้จ่ายของรัฐบาลเกี่ยวกับโครงสร้างพื้นฐานสําหรับโหมดการขนส่งที่แตกต่างกัน?</t>
+  </si>
+  <si>
+    <t>นโยบายมลพิษทางอากาศที่เกี่ยวข้องกับการวางแผนการขนส่งและการใช้ที่ดิน</t>
+  </si>
+  <si>
+    <t>ย่านที่เดินได้หนุนเมืองที่น่าอยู่ให้โอกาสสําหรับวิถีชีวิตที่ยั่งยืน  ความสามารถในการเดินครอบคลุมการเข้าถึงบริการและสิ่งอํานวยความสะดวกและได้รับอิทธิพลจากนโยบายที่กําหนดการผสมผสานการใช้ที่ดินและความหนาแน่นของประชากรรวมถึงการเชื่อมต่อถนน ความหนาแน่นของที่อยู่อาศัยและประชากรที่เพียงพอมีความสําคัญต่อความสามารถในการเดินได้เนื่องจากเป็นตัวกําหนดความมีชีวิตของจุดหมายปลายทางในท้องถิ่นและบริการขนส่งสาธารณะที่เพียงพอ รายการตรวจสอบด้านล่างรายงานเกี่ยวกับการวิเคราะห์นโยบายเมือง {city} ที่สนับสนุนย่านที่เดินได้ประเมิน: การปรากฏตัวของนโยบาย นโยบายมีจุดมุ่งหมายหรือมาตรฐานเฉพาะหรือไม่ ไม่ว่าจะมีเป้าหมายที่วัดได้หรือไม่ และสอดคล้องกับหลักฐานเกี่ยวกับสภาพแวดล้อมที่สนับสนุนสุขภาพหรือไม่</t>
+  </si>
+  <si>
+    <t>มาตรฐานเฉพาะ</t>
+  </si>
+  <si>
+    <t>เป้าหมายที่วัดได้</t>
+  </si>
+  <si>
+    <t>หลักฐานด้านสุขภาพที่ได้รับการสนับสนุน</t>
+  </si>
+  <si>
+    <t>ข้อกําหนดความหนาแน่นของที่อยู่อาศัย</t>
+  </si>
+  <si>
+    <t>การเชื่อมต่อถนนหรืออัตราส่วนการเหยียบย่ํา</t>
+  </si>
+  <si>
+    <t>ข้อจํากัดที่จอดรถเพื่อกีดกันการใช้รถยนต์</t>
+  </si>
+  <si>
+    <t>การจัดหาโครงสร้างพื้นฐานคนเดินเท้า</t>
+  </si>
+  <si>
+    <t>การจัดหาโครงสร้างพื้นฐานการขี่จักรยาน</t>
+  </si>
+  <si>
+    <t>เป้าหมายการมีส่วนร่วมในการเดิน</t>
+  </si>
+  <si>
+    <t>เป้าหมายการมีส่วนร่วมในการขี่จักรยาน</t>
+  </si>
+  <si>
+    <t>ความหนาแน่นของสี่แยกถนน</t>
+  </si>
+  <si>
+    <t>การเข้าถึงระบบขนส่งสาธารณะในวันธรรมดาภายใน 500 เมตร</t>
+  </si>
+  <si>
+    <t>การเข้าถึงพื้นที่เปิดโล่งสาธารณะขนาดใหญ่ภายใน 500 เมตร</t>
+  </si>
+  <si>
+    <t>การเชื่อมต่อถนนเป็นสิ่งสําคัญของความสามารถในการเดินเนื่องจากมีผลต่อความใกล้ชิดและเส้นทางที่สะดวกไปยังจุดหมายปลายทาง</t>
+  </si>
+  <si>
+    <t>แทรกเนื้อหาบางอย่างที่นี่อาจจะ??</t>
+  </si>
+  <si>
+    <t>การเข้าถึงระบบขนส่งสาธารณะบ่อยครั้งเป็นเรื่องง่ายเป็นปัจจัยสําคัญของระบบการขนส่งที่มีสุขภาพดีและยั่งยืน การวางที่อยู่อาศัยและการจ้างงานใกล้กับระบบขนส่งสาธารณะจะเพิ่มส่วนแบ่งโหมดของการเดินทางด้วยระบบขนส่งสาธารณะจึงส่งเสริมการเดินที่เกี่ยวข้องกับการขนส่ง เสนอการเข้าถึงงานและบริการในภูมิภาค การปรับปรุงสุขภาพการพัฒนาเศรษฐกิจและการรวมสังคม และลดมลพิษและการปล่อยก๊าซคาร์บอน</t>
+  </si>
+  <si>
+    <t>ข้อกําหนดสําหรับการเข้าถึงระบบขนส่งสาธารณะไปยังการจ้างงานและโครงสร้างพื้นฐาน</t>
+  </si>
+  <si>
+    <t>ข้อกําหนดสําหรับการกระจายการจ้างงานทั่วเมือง</t>
+  </si>
+  <si>
+    <t>ข้อกําหนดขั้นต่ําสําหรับการเข้าถึงระบบขนส่งสาธารณะ</t>
+  </si>
+  <si>
+    <t>เป้าหมายสําหรับการใช้ระบบขนส่งสาธารณะ</t>
+  </si>
+  <si>
+    <t>กลยุทธ์การออกแบบเมืองสามารถสร้างย่านที่เป็นมิตรกับการเดินและการขี่จักรยานด้วยพื้นที่เปิดโล่งสาธารณะที่สามารถเข้าถึงได้ซึ่งเกี่ยวข้องกับระดับการออกกําลังกายที่เพิ่มขึ้นและลดความเสี่ยงของโรคเรื้อรัง    เป้าหมายนโยบายสําหรับการเข้าถึงที่อยู่อาศัยในพื้นที่เปิดโล่งสาธารณะภายใน 400 เมตรสอดคล้องกับหลักฐานในการส่งเสริมการเดิน  อย่างไรก็ตามการเข้าถึงสวนสาธารณะขนาดใหญ่อาจมีความสําคัญและควรพิจารณาความเร็วในการเดินและความสามารถที่แตกต่างกัน</t>
+  </si>
+  <si>
+    <t>ข้อกําหนดขั้นต่ําสําหรับการเข้าถึงพื้นที่เปิดโล่งสาธารณะ</t>
+  </si>
+  <si>
+    <t>รายงานฉบับเต็มรวมทั้งข้อมูลและวิธีการได้รับการเผยแพร่ใน| INSERT ข้อมูลอ้างอิงและ URL ข้อมูลประชากร: Schiavina, M. et al. (2019): GHS ตารางประชากรหลายชั้น (1975, 1990, 2000, 2015) R2019A คณะกรรมาธิการยุโรป, ศูนย์วิจัยร่วม (JRC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 | ขอบเขตเมือง: Florczyk, A. et al. (2019): ฐานข้อมูลศูนย์เมือง GHS 2015, คุณลักษณะหลายมิติและหลายมิติ, R2019A คณะกรรมาธิการยุโรป, ศูนย์วิจัยร่วม (JRC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e | คุณสมบัติในเมือง: ผู้มีส่วนร่วม OpenStreetMap โอเพ่นทรีทแมป (2020) https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent | ระดับสี: Crameri, F. (2018) แผนที่สีทางวิทยาศาสตร์ (3.0.4) เซโนโดะ https://doi.org/10.5281/zenodo.1287763</t>
+  </si>
+  <si>
+    <t>ข้อมูลอ้างอิง: ความร่วมมือตัวชี้วัดเมืองที่มีสุขภาพดีและยั่งยืนทั่วโลก นโยบายเมืองและดัชนีชี้วัดสภาพแวดล้อมที่สร้างขึ้น 2020: {city} https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>https://linux.thai.net/pub/thailinux/software/fonts-tlwg/fonts/</t>
+  </si>
+  <si>
+    <t>fonts/ttf-tlwg-0.7.3/waree.ttf</t>
+  </si>
+  <si>
+    <t>fonts/ttf-tlwg-0.7.3/waree-Bold.ttf</t>
+  </si>
+  <si>
+    <t>fonts/ttf-tlwg-0.7.3/waree-Oblique.ttf</t>
+  </si>
+  <si>
+    <t>fonts/ttf-tlwg-0.7.3/waree-BoldOblique.ttf</t>
+  </si>
+  <si>
+    <t>waree</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +2162,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1518,6 +2185,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1564,7 +2237,87 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1954,7 +2707,7 @@
         <v>17</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -2174,7 +2927,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2217,7 +2970,7 @@
         <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2281,7 +3034,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2323,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q8">
         <v>2</v>
@@ -2823,7 +3576,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2933,7 +3686,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -3030,7 +3783,7 @@
         <v>29</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2</v>
@@ -3078,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
@@ -3137,7 +3890,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
@@ -3196,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O24" t="s">
         <v>42</v>
       </c>
       <c r="P24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -3216,7 +3969,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -3251,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
@@ -3268,7 +4021,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -3308,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O26" t="s">
         <v>29</v>
       </c>
       <c r="P26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -3328,7 +4081,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -3368,13 +4121,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O27" t="s">
         <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -3388,7 +4141,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3428,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O28" t="s">
         <v>29</v>
@@ -3445,7 +4198,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3485,13 +4238,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O29" t="s">
         <v>29</v>
       </c>
       <c r="P29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -3505,7 +4258,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3545,13 +4298,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O30" t="s">
         <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -3565,7 +4318,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -3605,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O31" t="s">
         <v>29</v>
@@ -3622,7 +4375,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3662,13 +4415,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O32" t="s">
         <v>29</v>
       </c>
       <c r="P32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -3682,7 +4435,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -3722,13 +4475,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O33" t="s">
         <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -3742,7 +4495,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -3782,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O34" t="s">
         <v>29</v>
@@ -3799,7 +4552,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -3839,13 +4592,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O35" t="s">
         <v>29</v>
       </c>
       <c r="P35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -3859,7 +4612,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -3899,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O36" t="s">
         <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -3919,7 +4672,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3959,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O37" t="s">
         <v>29</v>
@@ -3976,7 +4729,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -4016,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O38" t="s">
         <v>29</v>
       </c>
       <c r="P38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -4036,7 +4789,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4076,13 +4829,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O39" t="s">
         <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -4096,7 +4849,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -4136,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" t="s">
         <v>29</v>
@@ -4153,7 +4906,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -4193,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" t="s">
         <v>29</v>
       </c>
       <c r="P41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -4213,7 +4966,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -4253,13 +5006,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" t="s">
         <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -4273,7 +5026,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -4313,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O43" t="s">
         <v>29</v>
@@ -4330,7 +5083,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -4373,7 +5126,7 @@
         <v>29</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>2</v>
@@ -4387,7 +5140,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -4422,10 +5175,10 @@
         <v>0</v>
       </c>
       <c r="M45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N45" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O45" t="s">
         <v>29</v>
@@ -4442,7 +5195,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -4482,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O46" t="s">
         <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -4502,7 +5255,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -4542,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O47" t="s">
         <v>42</v>
       </c>
       <c r="P47" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -4562,7 +5315,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4602,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="N48" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O48" t="s">
         <v>42</v>
       </c>
       <c r="P48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -4622,7 +5375,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -4662,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="N49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O49" t="s">
         <v>42</v>
       </c>
       <c r="P49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -4682,7 +5435,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -4719,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O50" t="s">
         <v>29</v>
@@ -4736,7 +5489,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -4773,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O51" t="s">
         <v>29</v>
@@ -4790,7 +5543,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -4827,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="N52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O52" t="s">
         <v>29</v>
@@ -4844,7 +5597,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4880,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O53" t="s">
         <v>29</v>
@@ -4897,7 +5650,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -4937,13 +5690,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O54" t="s">
         <v>29</v>
       </c>
       <c r="P54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -4957,7 +5710,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -4997,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O55" t="s">
         <v>29</v>
@@ -5014,7 +5767,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -5054,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O56" t="s">
         <v>29</v>
@@ -5071,7 +5824,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -5111,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O57" t="s">
         <v>29</v>
@@ -5128,7 +5881,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -5168,7 +5921,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O58" t="s">
         <v>29</v>
@@ -5185,7 +5938,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -5225,13 +5978,13 @@
         <v>0</v>
       </c>
       <c r="N59" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O59" t="s">
         <v>29</v>
       </c>
       <c r="P59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -5245,7 +5998,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -5285,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O60" t="s">
         <v>29</v>
@@ -5302,7 +6055,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -5342,7 +6095,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O61" t="s">
         <v>29</v>
@@ -5359,7 +6112,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -5399,7 +6152,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O62" t="s">
         <v>29</v>
@@ -5416,7 +6169,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -5456,7 +6209,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O63" t="s">
         <v>29</v>
@@ -5473,7 +6226,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -5513,13 +6266,13 @@
         <v>0</v>
       </c>
       <c r="N64" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O64" t="s">
         <v>29</v>
       </c>
       <c r="P64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -5533,7 +6286,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -5573,7 +6326,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O65" t="s">
         <v>29</v>
@@ -5590,7 +6343,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -5630,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="N66" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O66" t="s">
         <v>29</v>
@@ -5647,7 +6400,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -5687,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O67" t="s">
         <v>29</v>
@@ -5704,7 +6457,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -5744,7 +6497,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O68" t="s">
         <v>29</v>
@@ -5761,7 +6514,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -5801,13 +6554,13 @@
         <v>0</v>
       </c>
       <c r="N69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O69" t="s">
         <v>29</v>
       </c>
       <c r="P69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -5821,7 +6574,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -5861,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O70" t="s">
         <v>29</v>
@@ -5878,7 +6631,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -5918,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O71" t="s">
         <v>29</v>
@@ -5935,7 +6688,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -5975,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O72" t="s">
         <v>29</v>
@@ -5992,7 +6745,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -6032,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O73" t="s">
         <v>29</v>
@@ -6049,7 +6802,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -6089,13 +6842,13 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O74" t="s">
         <v>29</v>
       </c>
       <c r="P74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -6109,7 +6862,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -6149,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O75" t="s">
         <v>29</v>
@@ -6166,7 +6919,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -6206,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O76" t="s">
         <v>29</v>
@@ -6223,7 +6976,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -6263,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O77" t="s">
         <v>29</v>
@@ -6280,7 +7033,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -6320,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O78" t="s">
         <v>29</v>
@@ -6337,7 +7090,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -6377,13 +7130,13 @@
         <v>0</v>
       </c>
       <c r="N79" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O79" t="s">
         <v>29</v>
       </c>
       <c r="P79" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -6397,7 +7150,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -6437,7 +7190,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O80" t="s">
         <v>29</v>
@@ -6454,7 +7207,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -6494,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O81" t="s">
         <v>29</v>
@@ -6511,7 +7264,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -6551,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O82" t="s">
         <v>29</v>
@@ -6568,7 +7321,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -6608,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="N83" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O83" t="s">
         <v>29</v>
@@ -6625,7 +7378,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -6665,13 +7418,13 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
+        <v>120</v>
+      </c>
+      <c r="O84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P84" t="s">
         <v>119</v>
-      </c>
-      <c r="O84" t="s">
-        <v>29</v>
-      </c>
-      <c r="P84" t="s">
-        <v>118</v>
       </c>
       <c r="Q84">
         <v>3</v>
@@ -6685,7 +7438,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B85">
         <v>3</v>
@@ -6725,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O85" t="s">
         <v>29</v>
@@ -6742,7 +7495,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B86">
         <v>3</v>
@@ -6782,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O86" t="s">
         <v>29</v>
@@ -6799,7 +7552,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B87">
         <v>3</v>
@@ -6839,7 +7592,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O87" t="s">
         <v>29</v>
@@ -6856,7 +7609,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -6896,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="N88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O88" t="s">
         <v>29</v>
@@ -6913,7 +7666,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>4</v>
@@ -6955,7 +7708,7 @@
         <v>29</v>
       </c>
       <c r="P89" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q89">
         <v>2</v>
@@ -6969,7 +7722,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -7019,7 +7772,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -7061,7 +7814,7 @@
         <v>29</v>
       </c>
       <c r="P91" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -7075,7 +7828,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -7125,7 +7878,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -7167,7 +7920,7 @@
         <v>29</v>
       </c>
       <c r="P93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q93">
         <v>2</v>
@@ -7181,7 +7934,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B94">
         <v>4</v>
@@ -7231,7 +7984,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -7274,7 +8027,7 @@
         <v>29</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>2</v>
@@ -7288,7 +8041,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -7330,7 +8083,7 @@
         <v>42</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q96">
         <v>2</v>
@@ -7344,7 +8097,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B97">
         <v>4</v>
@@ -7387,7 +8140,7 @@
         <v>29</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q97">
         <v>2</v>
@@ -7401,7 +8154,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -7436,10 +8189,10 @@
         <v>0</v>
       </c>
       <c r="M98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O98" t="s">
         <v>29</v>
@@ -7456,7 +8209,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>4</v>
@@ -7496,13 +8249,13 @@
         <v>0</v>
       </c>
       <c r="N99" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O99" t="s">
         <v>42</v>
       </c>
       <c r="P99" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q99">
         <v>3</v>
@@ -7516,7 +8269,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -7556,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="N100" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O100" t="s">
         <v>42</v>
       </c>
       <c r="P100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -7576,7 +8329,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -7616,13 +8369,13 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O101" t="s">
         <v>42</v>
       </c>
       <c r="P101" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q101">
         <v>3</v>
@@ -7636,7 +8389,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -7676,13 +8429,13 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O102" t="s">
         <v>42</v>
       </c>
       <c r="P102" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -7696,7 +8449,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -7733,7 +8486,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O103" t="s">
         <v>29</v>
@@ -7750,7 +8503,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -7787,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="N104" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O104" t="s">
         <v>29</v>
@@ -7804,7 +8557,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -7841,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="N105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O105" t="s">
         <v>29</v>
@@ -7858,7 +8611,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -7894,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O106" t="s">
         <v>29</v>
@@ -7911,7 +8664,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -7951,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O107" t="s">
         <v>29</v>
       </c>
       <c r="P107" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -7971,7 +8724,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -8011,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O108" t="s">
         <v>29</v>
@@ -8028,7 +8781,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -8068,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O109" t="s">
         <v>29</v>
@@ -8085,7 +8838,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -8125,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="N110" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O110" t="s">
         <v>29</v>
@@ -8142,7 +8895,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -8182,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O111" t="s">
         <v>29</v>
@@ -8199,7 +8952,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -8239,13 +8992,13 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O112" t="s">
         <v>29</v>
       </c>
       <c r="P112" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -8259,7 +9012,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -8299,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O113" t="s">
         <v>29</v>
@@ -8316,7 +9069,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -8356,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O114" t="s">
         <v>29</v>
@@ -8373,7 +9126,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -8413,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O115" t="s">
         <v>29</v>
@@ -8430,7 +9183,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -8470,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O116" t="s">
         <v>29</v>
@@ -8487,7 +9240,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -8527,13 +9280,13 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O117" t="s">
         <v>29</v>
       </c>
       <c r="P117" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -8547,7 +9300,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -8587,7 +9340,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O118" t="s">
         <v>29</v>
@@ -8604,7 +9357,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -8644,7 +9397,7 @@
         <v>0</v>
       </c>
       <c r="N119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O119" t="s">
         <v>29</v>
@@ -8661,7 +9414,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -8701,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="N120" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O120" t="s">
         <v>29</v>
@@ -8718,7 +9471,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -8758,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O121" t="s">
         <v>29</v>
@@ -8775,7 +9528,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -8815,13 +9568,13 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O122" t="s">
         <v>29</v>
       </c>
       <c r="P122" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -8835,7 +9588,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -8875,7 +9628,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O123" t="s">
         <v>29</v>
@@ -8892,7 +9645,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -8932,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O124" t="s">
         <v>29</v>
@@ -8949,7 +9702,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -8989,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="N125" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O125" t="s">
         <v>29</v>
@@ -9006,7 +9759,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -9046,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="N126" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O126" t="s">
         <v>29</v>
@@ -9063,7 +9816,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -9106,7 +9859,7 @@
         <v>29</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -9120,7 +9873,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -9155,10 +9908,10 @@
         <v>0</v>
       </c>
       <c r="M128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N128" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O128" t="s">
         <v>29</v>
@@ -9175,7 +9928,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -9215,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O129" t="s">
         <v>42</v>
       </c>
       <c r="P129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q129">
         <v>3</v>
@@ -9235,7 +9988,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -9275,13 +10028,13 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O130" t="s">
         <v>42</v>
       </c>
       <c r="P130" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -9295,7 +10048,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -9335,13 +10088,13 @@
         <v>0</v>
       </c>
       <c r="N131" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O131" t="s">
         <v>42</v>
       </c>
       <c r="P131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -9355,7 +10108,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -9395,13 +10148,13 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O132" t="s">
         <v>42</v>
       </c>
       <c r="P132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -9415,7 +10168,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -9452,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="N133" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O133" t="s">
         <v>29</v>
@@ -9469,7 +10222,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -9506,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="N134" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O134" t="s">
         <v>29</v>
@@ -9523,7 +10276,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -9560,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O135" t="s">
         <v>29</v>
@@ -9577,7 +10330,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -9613,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O136" t="s">
         <v>29</v>
@@ -9630,7 +10383,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -9670,13 +10423,13 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O137" t="s">
         <v>29</v>
       </c>
       <c r="P137" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q137">
         <v>3</v>
@@ -9690,7 +10443,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -9730,7 +10483,7 @@
         <v>0</v>
       </c>
       <c r="N138" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O138" t="s">
         <v>29</v>
@@ -9747,7 +10500,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -9787,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="N139" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O139" t="s">
         <v>29</v>
@@ -9804,7 +10557,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -9844,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N140" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O140" t="s">
         <v>29</v>
@@ -9861,7 +10614,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -9901,7 +10654,7 @@
         <v>0</v>
       </c>
       <c r="N141" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O141" t="s">
         <v>29</v>
@@ -9918,7 +10671,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -9961,7 +10714,7 @@
         <v>29</v>
       </c>
       <c r="P142" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -10586,7 +11339,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -10629,7 +11382,7 @@
         <v>29</v>
       </c>
       <c r="P155" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>2</v>
@@ -10649,669 +11402,1726 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
-    <col min="2" max="4" width="55" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" style="2" customWidth="1"/>
+    <col min="3" max="8" width="55" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="255" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="H65" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="66" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="270" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="255" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>313</v>
+      <c r="E66" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:B1048576 B1:B2">
+    <cfRule type="duplicateValues" dxfId="5" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6 B8:B21">
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6 C8 C14:C20">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11319,46 +13129,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A1:D13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67" customWidth="1"/>
+    <col min="5" max="5" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -11367,12 +13182,12 @@
         <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
@@ -11381,37 +13196,37 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -11420,12 +13235,12 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
@@ -11434,74 +13249,151 @@
         <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="E11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="E12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D13" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="E13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D14" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>541</v>
+      </c>
+      <c r="E15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>542</v>
+      </c>
+      <c r="E16" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B17" t="s">
+        <v>544</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" t="s">
+        <v>543</v>
+      </c>
+      <c r="E17" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{665B66F4-9D96-4137-98BE-EA1E7F48C416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2E0B9225-0DEF-4228-B351-4C5AC8167E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="549">
   <si>
     <t>name</t>
   </si>
@@ -1679,6 +1679,18 @@
   </si>
   <si>
     <t>waree</t>
+  </si>
+  <si>
+    <t>Install</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Portuguese - Brazilian</t>
   </si>
 </sst>
 </file>
@@ -11404,11 +11416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G63" sqref="G63"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13129,270 +13141,451 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="67" customWidth="1"/>
-    <col min="5" max="5" width="78.7109375" customWidth="1"/>
+    <col min="1" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="67" customWidth="1"/>
+    <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>315</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>258</v>
       </c>
       <c r="B2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>258</v>
       </c>
       <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>258</v>
       </c>
       <c r="B4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>258</v>
       </c>
       <c r="B5" t="s">
+        <v>546</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>319</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>257</v>
       </c>
       <c r="B6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>257</v>
       </c>
       <c r="B7" t="s">
+        <v>546</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
       <c r="B8" t="s">
+        <v>546</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>257</v>
       </c>
       <c r="B9" t="s">
+        <v>546</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>319</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>548</v>
+      </c>
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B11" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B13" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>319</v>
+      </c>
+      <c r="E13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>312</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C18" t="s">
         <v>328</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E18" t="s">
         <v>326</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>312</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
+        <v>546</v>
+      </c>
+      <c r="C19" t="s">
         <v>328</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D19" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E19" t="s">
         <v>325</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F19" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>312</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B20" t="s">
+        <v>546</v>
+      </c>
+      <c r="C20" t="s">
         <v>328</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E20" t="s">
         <v>327</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F20" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>312</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C21" t="s">
         <v>328</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D21" t="s">
         <v>319</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E21" t="s">
         <v>324</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F21" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>475</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
+        <v>547</v>
+      </c>
+      <c r="C22" t="s">
         <v>544</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E22" t="s">
         <v>540</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>475</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B23" t="s">
+        <v>547</v>
+      </c>
+      <c r="C23" t="s">
         <v>544</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E23" t="s">
         <v>541</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F23" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>475</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B24" t="s">
+        <v>547</v>
+      </c>
+      <c r="C24" t="s">
         <v>544</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E24" t="s">
         <v>542</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F24" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>475</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
+        <v>547</v>
+      </c>
+      <c r="C25" t="s">
         <v>544</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D25" t="s">
         <v>319</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E25" t="s">
         <v>543</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F25" t="s">
         <v>539</v>
       </c>
     </row>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A26D6AD-98D8-4E22-9919-4EAD655DA65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794C7A5-C553-4727-84BF-641DA870728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="3930" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="562">
   <si>
     <t>name</t>
   </si>
@@ -1731,6 +1731,15 @@
   </si>
   <si>
     <t>Public transport policy</t>
+  </si>
+  <si>
+    <t>Citation: Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. Scorecard 2020: {city}. https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>Employment distribution requirements</t>
+  </si>
+  <si>
+    <t>Employment/infrastructure access requirements</t>
   </si>
 </sst>
 </file>
@@ -2054,7 +2063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2169,6 +2178,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2214,7 +2232,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2244,6 +2262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2720,11 +2739,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S159"/>
+  <dimension ref="A1:S158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,53 +4017,56 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G24">
-        <f>G45+3</f>
-        <v>146</v>
+        <f>E24+4</f>
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>20</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="M24" t="s">
-        <v>128</v>
-      </c>
       <c r="N24" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="O24" t="s">
         <v>27</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -4052,34 +4074,31 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D25">
-        <f>D24+1</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E25">
-        <f>E24+2</f>
-        <v>72</v>
+        <f>E24+38</f>
+        <v>153</v>
       </c>
       <c r="F25">
-        <v>174</v>
+        <f>F30</f>
+        <v>208</v>
       </c>
       <c r="G25">
-        <f>E25+3</f>
-        <v>75</v>
-      </c>
-      <c r="H25" t="s">
-        <v>20</v>
+        <f>G69+5</f>
+        <v>247</v>
       </c>
       <c r="I25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -4090,17 +4109,17 @@
       <c r="L25">
         <v>0</v>
       </c>
+      <c r="M25" t="s">
+        <v>118</v>
+      </c>
       <c r="N25" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O25" t="s">
         <v>27</v>
       </c>
-      <c r="P25" t="s">
-        <v>63</v>
-      </c>
       <c r="Q25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R25" t="b">
         <v>0</v>
@@ -4111,7 +4130,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>548</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -4120,28 +4139,28 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <f>F30+2</f>
-        <v>182</v>
+        <f>D25+1</f>
+        <v>106</v>
       </c>
       <c r="E26">
-        <f>E24+3</f>
-        <v>73</v>
+        <f>E25+2</f>
+        <v>155</v>
       </c>
       <c r="F26">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G26">
         <f>E26+3</f>
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -4150,19 +4169,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O26" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>549</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -4170,30 +4189,35 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D27">
-        <v>105</v>
+        <f>D25+30</f>
+        <v>135</v>
       </c>
       <c r="E27">
-        <f>E28-2</f>
-        <v>80</v>
+        <f>E25+7</f>
+        <v>160</v>
       </c>
       <c r="F27">
-        <v>208</v>
+        <f>D27+18</f>
+        <v>153</v>
       </c>
       <c r="G27">
-        <f>E27</f>
-        <v>80</v>
+        <f>E27+3</f>
+        <v>163</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4208,13 +4232,16 @@
         <v>118</v>
       </c>
       <c r="O27" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P27" t="s">
+        <v>126</v>
       </c>
       <c r="Q27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -4222,7 +4249,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -4231,20 +4258,20 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <f>$D$25</f>
-        <v>106</v>
+        <f>D31</f>
+        <v>154</v>
       </c>
       <c r="E28">
-        <f>E25+10</f>
-        <v>82</v>
+        <f>E27</f>
+        <v>160</v>
       </c>
       <c r="F28">
-        <f>D28+68</f>
-        <v>174</v>
+        <f>D32-1</f>
+        <v>171</v>
       </c>
       <c r="G28">
-        <f>E28+4</f>
-        <v>86</v>
+        <f>E28+3</f>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -4262,13 +4289,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O28" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -4282,7 +4309,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -4291,20 +4318,20 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <f>F30+2</f>
-        <v>182</v>
+        <f>D32-1</f>
+        <v>171</v>
       </c>
       <c r="E29">
-        <f>E28</f>
-        <v>82</v>
+        <f t="shared" ref="E29:E33" si="0">E28</f>
+        <v>160</v>
       </c>
       <c r="F29">
-        <f>$F$24</f>
-        <v>208</v>
+        <f>D33+1</f>
+        <v>191</v>
       </c>
       <c r="G29">
-        <f>G28</f>
-        <v>86</v>
+        <f>E29+3</f>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -4322,13 +4349,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -4342,7 +4369,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4351,47 +4378,50 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <f>D28+70</f>
-        <v>176</v>
+        <f>D33</f>
+        <v>190</v>
       </c>
       <c r="E30">
-        <f>E29</f>
-        <v>82</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="F30">
-        <f>D30+4</f>
-        <v>180</v>
+        <f>D30+18</f>
+        <v>208</v>
       </c>
       <c r="G30">
-        <f>E30+6</f>
-        <v>88</v>
+        <f>E30+3</f>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>118</v>
+      </c>
+      <c r="O30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30" t="b">
         <v>1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30">
-        <v>2</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -4399,35 +4429,32 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D31">
-        <f>$D$25</f>
-        <v>106</v>
+        <f>F27+1</f>
+        <v>154</v>
       </c>
       <c r="E31">
-        <f>E30+11</f>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="F31">
-        <f>D31+68</f>
-        <v>174</v>
+        <f>F27+1</f>
+        <v>154</v>
       </c>
       <c r="G31">
-        <f t="shared" ref="G31" si="0">E31+4</f>
-        <v>97</v>
-      </c>
-      <c r="H31" t="s">
-        <v>20</v>
+        <f>G69+3</f>
+        <v>245</v>
       </c>
       <c r="I31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4439,19 +4466,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O31" t="s">
         <v>27</v>
       </c>
-      <c r="P31" t="s">
-        <v>72</v>
-      </c>
       <c r="Q31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4459,35 +4483,32 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D32">
-        <f>F33+2</f>
-        <v>182</v>
+        <f>D31+18</f>
+        <v>172</v>
       </c>
       <c r="E32">
-        <f>E31</f>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="F32">
-        <f>$F$24</f>
-        <v>208</v>
+        <f t="shared" ref="F32:F33" si="1">D32</f>
+        <v>172</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32" si="1">G31</f>
-        <v>97</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
+        <f>G31</f>
+        <v>245</v>
       </c>
       <c r="I32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4499,19 +4520,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O32" t="s">
-        <v>40</v>
-      </c>
-      <c r="P32" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4519,38 +4537,35 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <f>D31+70</f>
-        <v>176</v>
+        <f>D32+18</f>
+        <v>190</v>
       </c>
       <c r="E33">
-        <f>E32</f>
-        <v>93</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="F33">
-        <f>D33+4</f>
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>190</v>
       </c>
       <c r="G33">
-        <f t="shared" ref="G33" si="2">E33+6</f>
-        <v>99</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
+        <f>G32</f>
+        <v>245</v>
       </c>
       <c r="I33">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4559,13 +4574,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O33" t="s">
         <v>27</v>
       </c>
       <c r="Q33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R33" t="b">
         <v>0</v>
@@ -4576,35 +4591,31 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <f>$D$25</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34">
-        <f>E33+11</f>
-        <v>104</v>
+        <f>E27+10</f>
+        <v>170</v>
       </c>
       <c r="F34">
-        <f>D34+68</f>
-        <v>174</v>
+        <f>F25</f>
+        <v>208</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="3">E34+4</f>
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
+        <f>E34</f>
+        <v>170</v>
       </c>
       <c r="I34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4616,19 +4627,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O34" t="s">
         <v>27</v>
       </c>
-      <c r="P34" t="s">
-        <v>77</v>
-      </c>
       <c r="Q34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4636,7 +4644,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -4645,20 +4653,20 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <f>F36+2</f>
-        <v>182</v>
+        <f>D25+1</f>
+        <v>106</v>
       </c>
       <c r="E35">
-        <f>E34</f>
-        <v>104</v>
+        <f>E34+2</f>
+        <v>172</v>
       </c>
       <c r="F35">
-        <f>$F$24</f>
-        <v>208</v>
+        <f>D35+36</f>
+        <v>142</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35" si="4">G34</f>
-        <v>108</v>
+        <f>E35+4</f>
+        <v>176</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -4676,13 +4684,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O35" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P35" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -4696,7 +4704,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -4705,20 +4713,20 @@
         <v>19</v>
       </c>
       <c r="D36">
-        <f>D34+70</f>
-        <v>176</v>
+        <f>D27+6</f>
+        <v>141</v>
       </c>
       <c r="E36">
-        <f>E35</f>
-        <v>104</v>
+        <f>E35+1</f>
+        <v>173</v>
       </c>
       <c r="F36">
         <f>D36+4</f>
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="G36">
-        <f t="shared" ref="G36" si="5">E36+6</f>
-        <v>110</v>
+        <f>E36+3</f>
+        <v>176</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -4736,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O36" t="s">
         <v>27</v>
@@ -4753,7 +4761,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -4762,29 +4770,29 @@
         <v>19</v>
       </c>
       <c r="D37">
-        <f>$D$25</f>
-        <v>106</v>
+        <f>D36+18</f>
+        <v>159</v>
       </c>
       <c r="E37">
-        <f>E36+11</f>
-        <v>115</v>
+        <f>E36</f>
+        <v>173</v>
       </c>
       <c r="F37">
-        <f>D37+68</f>
-        <v>174</v>
+        <f>D37+4</f>
+        <v>163</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37" si="6">E37+4</f>
-        <v>119</v>
+        <f>E37+3</f>
+        <v>176</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
       </c>
       <c r="I37">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -4793,19 +4801,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O37" t="s">
         <v>27</v>
       </c>
-      <c r="P37" t="s">
-        <v>82</v>
-      </c>
       <c r="Q37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4813,7 +4818,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -4822,29 +4827,29 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <f>F39+2</f>
-        <v>182</v>
+        <f>D37+18</f>
+        <v>177</v>
       </c>
       <c r="E38">
         <f>E37</f>
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="F38">
-        <f>$F$24</f>
-        <v>208</v>
+        <f>D38+4</f>
+        <v>181</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38" si="7">G37</f>
-        <v>119</v>
+        <f>E38+3</f>
+        <v>176</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
       </c>
       <c r="I38">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4853,19 +4858,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O38" t="s">
-        <v>40</v>
-      </c>
-      <c r="P38" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="Q38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4873,7 +4875,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4882,20 +4884,20 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <f>D37+70</f>
-        <v>176</v>
+        <f>D38+18</f>
+        <v>195</v>
       </c>
       <c r="E39">
         <f>E38</f>
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="F39">
         <f>D39+4</f>
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G39">
-        <f t="shared" ref="G39" si="8">E39+6</f>
-        <v>121</v>
+        <f>E39+3</f>
+        <v>176</v>
       </c>
       <c r="H39" t="s">
         <v>20</v>
@@ -4913,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O39" t="s">
         <v>27</v>
@@ -4930,7 +4932,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -4939,20 +4941,20 @@
         <v>19</v>
       </c>
       <c r="D40">
-        <f>$D$25</f>
+        <f t="shared" ref="D40:D69" si="2">D35</f>
         <v>106</v>
       </c>
       <c r="E40">
-        <f>E37+11</f>
-        <v>126</v>
+        <f>E35+11</f>
+        <v>183</v>
       </c>
       <c r="F40">
-        <f>D40+68</f>
-        <v>174</v>
+        <f>F35</f>
+        <v>142</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40" si="9">E40+4</f>
-        <v>130</v>
+        <f>E40+4</f>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -4970,13 +4972,13 @@
         <v>0</v>
       </c>
       <c r="N40" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O40" t="s">
         <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -4990,7 +4992,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -4999,29 +5001,29 @@
         <v>19</v>
       </c>
       <c r="D41">
-        <f>F42+2</f>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="E41">
-        <f>E40</f>
-        <v>126</v>
+        <f>E40+1</f>
+        <v>184</v>
       </c>
       <c r="F41">
-        <f>$F$24</f>
-        <v>208</v>
+        <f>D41+4</f>
+        <v>145</v>
       </c>
       <c r="G41">
-        <f t="shared" ref="G41" si="10">G40</f>
-        <v>130</v>
+        <f>E41+3</f>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -5030,19 +5032,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O41" t="s">
-        <v>40</v>
-      </c>
-      <c r="P41" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="Q41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5050,7 +5049,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5059,20 +5058,20 @@
         <v>19</v>
       </c>
       <c r="D42">
-        <f>D40+70</f>
-        <v>176</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="E42">
         <f>E41</f>
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="F42">
         <f>D42+4</f>
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G42">
-        <f t="shared" ref="G42" si="11">E42+6</f>
-        <v>132</v>
+        <f>E42+3</f>
+        <v>187</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
@@ -5090,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O42" t="s">
         <v>27</v>
@@ -5107,7 +5106,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5116,29 +5115,29 @@
         <v>19</v>
       </c>
       <c r="D43">
-        <f>$D$25</f>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="E43">
-        <f>E40+11</f>
-        <v>137</v>
+        <f>E42</f>
+        <v>184</v>
       </c>
       <c r="F43">
-        <f>D43+68</f>
-        <v>174</v>
+        <f>D43+4</f>
+        <v>181</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43" si="12">E43+4</f>
-        <v>141</v>
+        <f>E43+3</f>
+        <v>187</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
       </c>
       <c r="I43">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -5147,19 +5146,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O43" t="s">
         <v>27</v>
       </c>
-      <c r="P43" t="s">
-        <v>92</v>
-      </c>
       <c r="Q43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5167,7 +5163,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -5176,29 +5172,29 @@
         <v>19</v>
       </c>
       <c r="D44">
-        <f>F45+2</f>
-        <v>182</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="E44">
         <f>E43</f>
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="F44">
-        <f>$F$24</f>
-        <v>208</v>
+        <f>D44+4</f>
+        <v>199</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44" si="13">G43</f>
-        <v>141</v>
+        <f>E44+3</f>
+        <v>187</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
       </c>
       <c r="I44">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5207,19 +5203,16 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O44" t="s">
-        <v>40</v>
-      </c>
-      <c r="P44" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="Q44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5227,7 +5220,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -5236,47 +5229,50 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <f>D43+70</f>
-        <v>176</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="E45">
-        <f>E44</f>
-        <v>137</v>
+        <f>E40+11</f>
+        <v>194</v>
       </c>
       <c r="F45">
-        <f>D45+4</f>
-        <v>180</v>
+        <f>F40</f>
+        <v>142</v>
       </c>
       <c r="G45">
-        <f>E45+6</f>
-        <v>143</v>
+        <f>E45+4</f>
+        <v>198</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
       </c>
       <c r="I45">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P45" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45" t="b">
         <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>128</v>
-      </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="R45" t="b">
-        <v>0</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -5284,7 +5280,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -5293,47 +5289,47 @@
         <v>19</v>
       </c>
       <c r="D46">
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="E46">
-        <v>149</v>
+        <f>E45+1</f>
+        <v>195</v>
       </c>
       <c r="F46">
-        <v>205</v>
+        <f>D46+4</f>
+        <v>145</v>
       </c>
       <c r="G46">
-        <f>E46+4</f>
-        <v>153</v>
+        <f>E46+3</f>
+        <v>198</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="O46" t="s">
         <v>27</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="Q46">
         <v>2</v>
       </c>
       <c r="R46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5341,31 +5337,35 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="E47">
-        <f>E46+38</f>
-        <v>187</v>
+        <f>E46</f>
+        <v>195</v>
       </c>
       <c r="F47">
-        <f>F52</f>
-        <v>208</v>
+        <f>D47+4</f>
+        <v>163</v>
       </c>
       <c r="G47">
-        <f>G91+5</f>
-        <v>280</v>
+        <f>E47+3</f>
+        <v>198</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -5376,9 +5376,6 @@
       <c r="L47">
         <v>0</v>
       </c>
-      <c r="M47" t="s">
-        <v>118</v>
-      </c>
       <c r="N47" t="s">
         <v>118</v>
       </c>
@@ -5386,7 +5383,7 @@
         <v>27</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R47" t="b">
         <v>0</v>
@@ -5397,7 +5394,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>548</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5406,25 +5403,26 @@
         <v>19</v>
       </c>
       <c r="D48">
-        <f>D47+1</f>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="E48">
-        <f>E47+2</f>
-        <v>189</v>
+        <f>E47</f>
+        <v>195</v>
       </c>
       <c r="F48">
-        <v>174</v>
+        <f>D48+4</f>
+        <v>181</v>
       </c>
       <c r="G48">
         <f>E48+3</f>
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="H48" t="s">
         <v>20</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -5441,11 +5439,8 @@
       <c r="O48" t="s">
         <v>27</v>
       </c>
-      <c r="P48" t="s">
-        <v>549</v>
-      </c>
       <c r="Q48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
@@ -5456,7 +5451,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -5465,29 +5460,29 @@
         <v>19</v>
       </c>
       <c r="D49">
-        <f>D47+30</f>
-        <v>135</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="E49">
-        <f>E47+7</f>
-        <v>194</v>
+        <f>E48</f>
+        <v>195</v>
       </c>
       <c r="F49">
-        <f>D49+18</f>
-        <v>153</v>
+        <f>D49+4</f>
+        <v>199</v>
       </c>
       <c r="G49">
         <f>E49+3</f>
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H49" t="s">
         <v>20</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5499,16 +5494,13 @@
         <v>118</v>
       </c>
       <c r="O49" t="s">
-        <v>40</v>
-      </c>
-      <c r="P49" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="Q49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -5516,7 +5508,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -5525,20 +5517,20 @@
         <v>19</v>
       </c>
       <c r="D50">
-        <f>D53</f>
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="E50">
-        <f>E49</f>
-        <v>194</v>
+        <f>E45+11</f>
+        <v>205</v>
       </c>
       <c r="F50">
-        <f>D54-1</f>
-        <v>171</v>
+        <f>F45</f>
+        <v>142</v>
       </c>
       <c r="G50">
-        <f>E50+3</f>
-        <v>197</v>
+        <f>E50+4</f>
+        <v>209</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -5559,10 +5551,10 @@
         <v>118</v>
       </c>
       <c r="O50" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P50" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -5576,7 +5568,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -5585,29 +5577,29 @@
         <v>19</v>
       </c>
       <c r="D51">
-        <f>D54-1</f>
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="E51">
-        <f t="shared" ref="E51:E55" si="14">E50</f>
-        <v>194</v>
+        <f>E50+1</f>
+        <v>206</v>
       </c>
       <c r="F51">
-        <f>D55+1</f>
-        <v>191</v>
+        <f>D51+4</f>
+        <v>145</v>
       </c>
       <c r="G51">
         <f>E51+3</f>
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H51" t="s">
         <v>20</v>
       </c>
       <c r="I51">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -5619,16 +5611,13 @@
         <v>118</v>
       </c>
       <c r="O51" t="s">
-        <v>40</v>
-      </c>
-      <c r="P51" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="Q51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S51">
         <v>0</v>
@@ -5636,7 +5625,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -5645,29 +5634,29 @@
         <v>19</v>
       </c>
       <c r="D52">
-        <f>D55</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="E52">
-        <f t="shared" si="14"/>
-        <v>194</v>
+        <f>E51</f>
+        <v>206</v>
       </c>
       <c r="F52">
-        <f>D52+18</f>
-        <v>208</v>
+        <f>D52+4</f>
+        <v>163</v>
       </c>
       <c r="G52">
         <f>E52+3</f>
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H52" t="s">
         <v>20</v>
       </c>
       <c r="I52">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -5679,16 +5668,13 @@
         <v>118</v>
       </c>
       <c r="O52" t="s">
-        <v>40</v>
-      </c>
-      <c r="P52" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="Q52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <v>0</v>
@@ -5696,35 +5682,38 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <f>F49+1</f>
-        <v>154</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="E53">
-        <f t="shared" si="14"/>
-        <v>194</v>
+        <f>E52</f>
+        <v>206</v>
       </c>
       <c r="F53">
-        <f>F49+1</f>
-        <v>154</v>
+        <f>D53+4</f>
+        <v>181</v>
       </c>
       <c r="G53">
-        <f>G91+3</f>
-        <v>278</v>
+        <f>E53+3</f>
+        <v>209</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -5739,7 +5728,7 @@
         <v>27</v>
       </c>
       <c r="Q53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R53" t="b">
         <v>0</v>
@@ -5750,35 +5739,38 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <f>D53+18</f>
-        <v>172</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="E54">
-        <f t="shared" si="14"/>
-        <v>194</v>
+        <f>E53</f>
+        <v>206</v>
       </c>
       <c r="F54">
-        <f t="shared" ref="F54:F55" si="15">D54</f>
-        <v>172</v>
+        <f>D54+4</f>
+        <v>199</v>
       </c>
       <c r="G54">
-        <f>G53</f>
-        <v>278</v>
+        <f>E54+3</f>
+        <v>209</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -5793,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R54" t="b">
         <v>0</v>
@@ -5804,32 +5796,35 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <f>D54+18</f>
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="E55">
-        <f t="shared" si="14"/>
-        <v>194</v>
+        <f>E50+11</f>
+        <v>216</v>
       </c>
       <c r="F55">
-        <f t="shared" si="15"/>
-        <v>190</v>
+        <f>F50</f>
+        <v>142</v>
       </c>
       <c r="G55">
-        <f>G54</f>
-        <v>278</v>
+        <f>E55+4</f>
+        <v>220</v>
+      </c>
+      <c r="H55" t="s">
+        <v>20</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5846,11 +5841,14 @@
       <c r="O55" t="s">
         <v>27</v>
       </c>
+      <c r="P55" t="s">
+        <v>115</v>
+      </c>
       <c r="Q55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55">
         <v>0</v>
@@ -5858,34 +5856,38 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="E56">
-        <f>E49+10</f>
-        <v>204</v>
+        <f>E55+1</f>
+        <v>217</v>
       </c>
       <c r="F56">
-        <f>F47</f>
-        <v>208</v>
+        <f>D56+4</f>
+        <v>145</v>
       </c>
       <c r="G56">
-        <f>E56</f>
-        <v>204</v>
+        <f>E56+3</f>
+        <v>220</v>
+      </c>
+      <c r="H56" t="s">
+        <v>20</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -5900,7 +5902,7 @@
         <v>27</v>
       </c>
       <c r="Q56">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R56" t="b">
         <v>0</v>
@@ -5911,7 +5913,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -5920,29 +5922,29 @@
         <v>19</v>
       </c>
       <c r="D57">
-        <f>D47+1</f>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="E57">
-        <f>E56+2</f>
-        <v>206</v>
+        <f>E56</f>
+        <v>217</v>
       </c>
       <c r="F57">
-        <f>D57+36</f>
-        <v>142</v>
+        <f>D57+4</f>
+        <v>163</v>
       </c>
       <c r="G57">
-        <f>E57+4</f>
-        <v>210</v>
+        <f>E57+3</f>
+        <v>220</v>
       </c>
       <c r="H57" t="s">
         <v>20</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -5956,14 +5958,11 @@
       <c r="O57" t="s">
         <v>27</v>
       </c>
-      <c r="P57" t="s">
-        <v>111</v>
-      </c>
       <c r="Q57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S57">
         <v>0</v>
@@ -5971,7 +5970,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -5980,20 +5979,20 @@
         <v>19</v>
       </c>
       <c r="D58">
-        <f>D49+6</f>
-        <v>141</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="E58">
         <f>E57</f>
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F58">
         <f>D58+4</f>
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G58">
         <f>E58+3</f>
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H58" t="s">
         <v>20</v>
@@ -6028,7 +6027,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -6037,20 +6036,20 @@
         <v>19</v>
       </c>
       <c r="D59">
-        <f>D58+18</f>
-        <v>159</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="E59">
         <f>E58</f>
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="F59">
         <f>D59+4</f>
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G59">
         <f>E59+3</f>
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
@@ -6085,7 +6084,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -6094,29 +6093,29 @@
         <v>19</v>
       </c>
       <c r="D60">
-        <f>D59+18</f>
-        <v>177</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="E60">
-        <f>E59</f>
-        <v>206</v>
+        <f>E55+11</f>
+        <v>227</v>
       </c>
       <c r="F60">
-        <f>D60+4</f>
-        <v>181</v>
+        <f>F55</f>
+        <v>142</v>
       </c>
       <c r="G60">
-        <f>E60+3</f>
-        <v>209</v>
+        <f>E60+4</f>
+        <v>231</v>
       </c>
       <c r="H60" t="s">
         <v>20</v>
       </c>
       <c r="I60">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -6130,11 +6129,14 @@
       <c r="O60" t="s">
         <v>27</v>
       </c>
+      <c r="P60" t="s">
+        <v>116</v>
+      </c>
       <c r="Q60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60">
         <v>0</v>
@@ -6142,7 +6144,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B61">
         <v>3</v>
@@ -6151,20 +6153,20 @@
         <v>19</v>
       </c>
       <c r="D61">
-        <f>D60+18</f>
-        <v>195</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="E61">
-        <f>E60</f>
-        <v>206</v>
+        <f>E60+1</f>
+        <v>228</v>
       </c>
       <c r="F61">
         <f>D61+4</f>
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="G61">
         <f>E61+3</f>
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
@@ -6199,7 +6201,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -6208,29 +6210,29 @@
         <v>19</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:D91" si="16">D57</f>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="E62">
-        <f>E57+11</f>
-        <v>217</v>
+        <f>E61</f>
+        <v>228</v>
       </c>
       <c r="F62">
-        <f>F57</f>
-        <v>142</v>
+        <f>D62+4</f>
+        <v>163</v>
       </c>
       <c r="G62">
-        <f>E62+4</f>
-        <v>221</v>
+        <f>E62+3</f>
+        <v>231</v>
       </c>
       <c r="H62" t="s">
         <v>20</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -6244,14 +6246,11 @@
       <c r="O62" t="s">
         <v>27</v>
       </c>
-      <c r="P62" t="s">
-        <v>112</v>
-      </c>
       <c r="Q62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S62">
         <v>0</v>
@@ -6259,7 +6258,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -6268,20 +6267,20 @@
         <v>19</v>
       </c>
       <c r="D63">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="E63">
         <f>E62</f>
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F63">
         <f>D63+4</f>
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G63">
         <f>E63+3</f>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
@@ -6316,7 +6315,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -6325,20 +6324,20 @@
         <v>19</v>
       </c>
       <c r="D64">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="E64">
         <f>E63</f>
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F64">
         <f>D64+4</f>
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G64">
         <f>E64+3</f>
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="H64" t="s">
         <v>20</v>
@@ -6373,7 +6372,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B65">
         <v>3</v>
@@ -6382,29 +6381,29 @@
         <v>19</v>
       </c>
       <c r="D65">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="E65">
-        <f>E64</f>
-        <v>217</v>
+        <f>E60+11</f>
+        <v>238</v>
       </c>
       <c r="F65">
-        <f>D65+4</f>
-        <v>181</v>
+        <f>F60</f>
+        <v>142</v>
       </c>
       <c r="G65">
-        <f>E65+3</f>
-        <v>220</v>
+        <f>E65+4</f>
+        <v>242</v>
       </c>
       <c r="H65" t="s">
         <v>20</v>
       </c>
       <c r="I65">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -6418,11 +6417,14 @@
       <c r="O65" t="s">
         <v>27</v>
       </c>
+      <c r="P65" t="s">
+        <v>117</v>
+      </c>
       <c r="Q65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65">
         <v>0</v>
@@ -6430,7 +6432,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -6439,20 +6441,20 @@
         <v>19</v>
       </c>
       <c r="D66">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <f t="shared" si="2"/>
+        <v>141</v>
       </c>
       <c r="E66">
-        <f>E65</f>
-        <v>217</v>
+        <f>E65+1</f>
+        <v>239</v>
       </c>
       <c r="F66">
         <f>D66+4</f>
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="G66">
         <f>E66+3</f>
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="H66" t="s">
         <v>20</v>
@@ -6487,7 +6489,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B67">
         <v>3</v>
@@ -6496,29 +6498,29 @@
         <v>19</v>
       </c>
       <c r="D67">
-        <f t="shared" si="16"/>
-        <v>106</v>
+        <f t="shared" si="2"/>
+        <v>159</v>
       </c>
       <c r="E67">
-        <f>E62+11</f>
-        <v>228</v>
+        <f>E66</f>
+        <v>239</v>
       </c>
       <c r="F67">
-        <f>F62</f>
-        <v>142</v>
+        <f>D67+4</f>
+        <v>163</v>
       </c>
       <c r="G67">
-        <f>E67+4</f>
-        <v>232</v>
+        <f>E67+3</f>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
         <v>20</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -6532,14 +6534,11 @@
       <c r="O67" t="s">
         <v>27</v>
       </c>
-      <c r="P67" t="s">
-        <v>113</v>
-      </c>
       <c r="Q67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>0</v>
@@ -6547,7 +6546,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -6556,20 +6555,20 @@
         <v>19</v>
       </c>
       <c r="D68">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="E68">
         <f>E67</f>
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F68">
         <f>D68+4</f>
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="G68">
         <f>E68+3</f>
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
@@ -6604,7 +6603,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B69">
         <v>3</v>
@@ -6613,20 +6612,20 @@
         <v>19</v>
       </c>
       <c r="D69">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f t="shared" si="2"/>
+        <v>195</v>
       </c>
       <c r="E69">
         <f>E68</f>
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F69">
         <f>D69+4</f>
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="G69">
         <f>E69+3</f>
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
@@ -6661,35 +6660,31 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
         <v>19</v>
       </c>
       <c r="D70">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="E70">
-        <f>E69</f>
-        <v>228</v>
+        <v>13</v>
       </c>
       <c r="F70">
-        <f>D70+4</f>
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="G70">
-        <f>E70+3</f>
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s">
         <v>20</v>
       </c>
       <c r="I70">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -6701,10 +6696,13 @@
         <v>0</v>
       </c>
       <c r="N70" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="O70" t="s">
         <v>27</v>
+      </c>
+      <c r="P70" t="s">
+        <v>97</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -6718,38 +6716,31 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="E71">
-        <f>E70</f>
-        <v>228</v>
+        <v>18</v>
       </c>
       <c r="F71">
-        <f>D71+4</f>
-        <v>199</v>
+        <v>98</v>
       </c>
       <c r="G71">
-        <f>E71+3</f>
-        <v>231</v>
-      </c>
-      <c r="H71" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I71">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -6758,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="O71" t="s">
         <v>27</v>
@@ -6775,38 +6766,32 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D72">
-        <f t="shared" si="16"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E72">
-        <f>E67+11</f>
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="F72">
-        <f>F67</f>
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="G72">
-        <f>E72+4</f>
-        <v>243</v>
-      </c>
-      <c r="H72" t="s">
-        <v>20</v>
+        <f>G93+3</f>
+        <v>87</v>
       </c>
       <c r="I72">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -6814,20 +6799,20 @@
       <c r="L72">
         <v>0</v>
       </c>
+      <c r="M72" t="s">
+        <v>128</v>
+      </c>
       <c r="N72" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O72" t="s">
         <v>27</v>
       </c>
-      <c r="P72" t="s">
-        <v>114</v>
-      </c>
       <c r="Q72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72">
         <v>0</v>
@@ -6835,35 +6820,34 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>19</v>
       </c>
       <c r="D73">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f>D72+1</f>
+        <v>106</v>
       </c>
       <c r="E73">
-        <f>E72</f>
-        <v>239</v>
+        <f>E72+2</f>
+        <v>13</v>
       </c>
       <c r="F73">
-        <f>D73+4</f>
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="G73">
         <f>E73+3</f>
-        <v>242</v>
+        <v>16</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
       <c r="I73">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -6875,13 +6859,16 @@
         <v>0</v>
       </c>
       <c r="N73" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O73" t="s">
         <v>27</v>
       </c>
+      <c r="P73" t="s">
+        <v>63</v>
+      </c>
       <c r="Q73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R73" t="b">
         <v>0</v>
@@ -6892,38 +6879,37 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74" t="s">
         <v>19</v>
       </c>
       <c r="D74">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f>F78+2</f>
+        <v>182</v>
       </c>
       <c r="E74">
-        <f>E73</f>
-        <v>239</v>
+        <f>E72+3</f>
+        <v>14</v>
       </c>
       <c r="F74">
-        <f>D74+4</f>
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="G74">
         <f>E74+3</f>
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
       <c r="I74">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -6932,16 +6918,19 @@
         <v>0</v>
       </c>
       <c r="N74" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O74" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P74" t="s">
+        <v>129</v>
       </c>
       <c r="Q74">
         <v>2</v>
       </c>
       <c r="R74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -6949,38 +6938,33 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D75">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="E75">
-        <f>E74</f>
-        <v>239</v>
+        <f>E76-2</f>
+        <v>21</v>
       </c>
       <c r="F75">
-        <f>D75+4</f>
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G75">
-        <f>E75+3</f>
-        <v>242</v>
-      </c>
-      <c r="H75" t="s">
-        <v>20</v>
+        <f>E75</f>
+        <v>21</v>
       </c>
       <c r="I75">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -6995,7 +6979,7 @@
         <v>27</v>
       </c>
       <c r="Q75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R75" t="b">
         <v>0</v>
@@ -7006,56 +6990,59 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" t="s">
         <v>19</v>
       </c>
       <c r="D76">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <f>$D$73</f>
+        <v>106</v>
       </c>
       <c r="E76">
-        <f>E75</f>
-        <v>239</v>
+        <f>E73+10</f>
+        <v>23</v>
       </c>
       <c r="F76">
-        <f>D76+4</f>
-        <v>199</v>
+        <f>D76+68</f>
+        <v>174</v>
       </c>
       <c r="G76">
-        <f>E76+3</f>
-        <v>242</v>
+        <f>E76+4</f>
+        <v>27</v>
       </c>
       <c r="H76" t="s">
         <v>20</v>
       </c>
       <c r="I76">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
+        <v>128</v>
+      </c>
+      <c r="O76" t="s">
+        <v>27</v>
+      </c>
+      <c r="P76" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76" t="b">
         <v>1</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
-        <v>118</v>
-      </c>
-      <c r="O76" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q76">
-        <v>2</v>
-      </c>
-      <c r="R76" t="b">
-        <v>0</v>
       </c>
       <c r="S76">
         <v>0</v>
@@ -7063,29 +7050,29 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>19</v>
       </c>
       <c r="D77">
-        <f t="shared" si="16"/>
-        <v>106</v>
+        <f>F78+2</f>
+        <v>182</v>
       </c>
       <c r="E77">
-        <f>E72+11</f>
-        <v>250</v>
+        <f>E76</f>
+        <v>23</v>
       </c>
       <c r="F77">
-        <f>F72</f>
-        <v>142</v>
+        <f>$F$72</f>
+        <v>208</v>
       </c>
       <c r="G77">
-        <f>E77+4</f>
-        <v>254</v>
+        <f>G76</f>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
@@ -7103,13 +7090,13 @@
         <v>0</v>
       </c>
       <c r="N77" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O77" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P77" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -7123,29 +7110,29 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>19</v>
       </c>
       <c r="D78">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f>D76+70</f>
+        <v>176</v>
       </c>
       <c r="E78">
         <f>E77</f>
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="F78">
         <f>D78+4</f>
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="G78">
-        <f>E78+3</f>
-        <v>253</v>
+        <f>E78+6</f>
+        <v>29</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
@@ -7163,7 +7150,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O78" t="s">
         <v>27</v>
@@ -7180,56 +7167,59 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>19</v>
       </c>
       <c r="D79">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f>$D$73</f>
+        <v>106</v>
       </c>
       <c r="E79">
-        <f>E78</f>
-        <v>250</v>
+        <f>E78+11</f>
+        <v>34</v>
       </c>
       <c r="F79">
-        <f>D79+4</f>
-        <v>163</v>
+        <f>D79+68</f>
+        <v>174</v>
       </c>
       <c r="G79">
-        <f>E79+3</f>
-        <v>253</v>
+        <f t="shared" ref="G79" si="3">E79+4</f>
+        <v>38</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
+        <v>128</v>
+      </c>
+      <c r="O79" t="s">
+        <v>27</v>
+      </c>
+      <c r="P79" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q79">
+        <v>3</v>
+      </c>
+      <c r="R79" t="b">
         <v>1</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>118</v>
-      </c>
-      <c r="O79" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q79">
-        <v>2</v>
-      </c>
-      <c r="R79" t="b">
-        <v>0</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7237,56 +7227,59 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C80" t="s">
         <v>19</v>
       </c>
       <c r="D80">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <f>F81+2</f>
+        <v>182</v>
       </c>
       <c r="E80">
         <f>E79</f>
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="F80">
-        <f>D80+4</f>
-        <v>181</v>
+        <f>$F$72</f>
+        <v>208</v>
       </c>
       <c r="G80">
-        <f>E80+3</f>
-        <v>253</v>
+        <f t="shared" ref="G80" si="4">G79</f>
+        <v>38</v>
       </c>
       <c r="H80" t="s">
         <v>20</v>
       </c>
       <c r="I80">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
+        <v>128</v>
+      </c>
+      <c r="O80" t="s">
+        <v>40</v>
+      </c>
+      <c r="P80" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q80">
+        <v>3</v>
+      </c>
+      <c r="R80" t="b">
         <v>1</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="N80" t="s">
-        <v>118</v>
-      </c>
-      <c r="O80" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q80">
-        <v>2</v>
-      </c>
-      <c r="R80" t="b">
-        <v>0</v>
       </c>
       <c r="S80">
         <v>0</v>
@@ -7294,29 +7287,29 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
       </c>
       <c r="D81">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <f>D79+70</f>
+        <v>176</v>
       </c>
       <c r="E81">
         <f>E80</f>
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="F81">
         <f>D81+4</f>
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="G81">
-        <f>E81+3</f>
-        <v>253</v>
+        <f t="shared" ref="G81" si="5">E81+6</f>
+        <v>40</v>
       </c>
       <c r="H81" t="s">
         <v>20</v>
@@ -7334,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O81" t="s">
         <v>27</v>
@@ -7351,29 +7344,29 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>19</v>
       </c>
       <c r="D82">
-        <f t="shared" si="16"/>
+        <f>$D$73</f>
         <v>106</v>
       </c>
       <c r="E82">
-        <f>E77+11</f>
-        <v>261</v>
+        <f>E81+11</f>
+        <v>45</v>
       </c>
       <c r="F82">
-        <f>F77</f>
-        <v>142</v>
+        <f>D82+68</f>
+        <v>174</v>
       </c>
       <c r="G82">
-        <f>E82+4</f>
-        <v>265</v>
+        <f t="shared" ref="G82" si="6">E82+4</f>
+        <v>49</v>
       </c>
       <c r="H82" t="s">
         <v>20</v>
@@ -7391,13 +7384,13 @@
         <v>0</v>
       </c>
       <c r="N82" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O82" t="s">
         <v>27</v>
       </c>
       <c r="P82" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="Q82">
         <v>3</v>
@@ -7411,56 +7404,59 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
         <v>19</v>
       </c>
       <c r="D83">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f>F84+2</f>
+        <v>182</v>
       </c>
       <c r="E83">
         <f>E82</f>
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="F83">
-        <f>D83+4</f>
-        <v>145</v>
+        <f>$F$72</f>
+        <v>208</v>
       </c>
       <c r="G83">
-        <f>E83+3</f>
-        <v>264</v>
+        <f t="shared" ref="G83" si="7">G82</f>
+        <v>49</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
       </c>
       <c r="I83">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
+        <v>128</v>
+      </c>
+      <c r="O83" t="s">
+        <v>40</v>
+      </c>
+      <c r="P83" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q83">
+        <v>3</v>
+      </c>
+      <c r="R83" t="b">
         <v>1</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
-        <v>118</v>
-      </c>
-      <c r="O83" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
-      <c r="R83" t="b">
-        <v>0</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -7468,29 +7464,29 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>19</v>
       </c>
       <c r="D84">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f>D82+70</f>
+        <v>176</v>
       </c>
       <c r="E84">
         <f>E83</f>
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="F84">
         <f>D84+4</f>
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G84">
-        <f>E84+3</f>
-        <v>264</v>
+        <f t="shared" ref="G84" si="8">E84+6</f>
+        <v>51</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
@@ -7508,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="N84" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O84" t="s">
         <v>27</v>
@@ -7525,56 +7521,59 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="B85">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C85" t="s">
         <v>19</v>
       </c>
       <c r="D85">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <f>$D$73</f>
+        <v>106</v>
       </c>
       <c r="E85">
-        <f>E84</f>
-        <v>261</v>
+        <f>E84+11</f>
+        <v>56</v>
       </c>
       <c r="F85">
-        <f>D85+4</f>
-        <v>181</v>
+        <f>D85+68</f>
+        <v>174</v>
       </c>
       <c r="G85">
-        <f>E85+3</f>
-        <v>264</v>
+        <f t="shared" ref="G85" si="9">E85+4</f>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
         <v>20</v>
       </c>
       <c r="I85">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
+        <v>128</v>
+      </c>
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q85">
+        <v>3</v>
+      </c>
+      <c r="R85" t="b">
         <v>1</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
-        <v>118</v>
-      </c>
-      <c r="O85" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q85">
-        <v>2</v>
-      </c>
-      <c r="R85" t="b">
-        <v>0</v>
       </c>
       <c r="S85">
         <v>0</v>
@@ -7582,56 +7581,59 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
         <v>19</v>
       </c>
       <c r="D86">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <f>F87+2</f>
+        <v>182</v>
       </c>
       <c r="E86">
         <f>E85</f>
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="F86">
-        <f>D86+4</f>
-        <v>199</v>
+        <f>$F$72</f>
+        <v>208</v>
       </c>
       <c r="G86">
-        <f>E86+3</f>
-        <v>264</v>
+        <f t="shared" ref="G86" si="10">G85</f>
+        <v>60</v>
       </c>
       <c r="H86" t="s">
         <v>20</v>
       </c>
       <c r="I86">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
+        <v>128</v>
+      </c>
+      <c r="O86" t="s">
+        <v>40</v>
+      </c>
+      <c r="P86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86" t="b">
         <v>1</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>118</v>
-      </c>
-      <c r="O86" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q86">
-        <v>2</v>
-      </c>
-      <c r="R86" t="b">
-        <v>0</v>
       </c>
       <c r="S86">
         <v>0</v>
@@ -7639,38 +7641,38 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
         <v>19</v>
       </c>
       <c r="D87">
-        <f t="shared" si="16"/>
-        <v>106</v>
+        <f>D85+70</f>
+        <v>176</v>
       </c>
       <c r="E87">
-        <f>E82+11</f>
-        <v>272</v>
+        <f>E86</f>
+        <v>56</v>
       </c>
       <c r="F87">
-        <f>F82</f>
-        <v>142</v>
+        <f>D87+4</f>
+        <v>180</v>
       </c>
       <c r="G87">
-        <f>E87+4</f>
-        <v>276</v>
+        <f t="shared" ref="G87" si="11">E87+6</f>
+        <v>62</v>
       </c>
       <c r="H87" t="s">
         <v>20</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -7679,19 +7681,16 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O87" t="s">
         <v>27</v>
       </c>
-      <c r="P87" t="s">
-        <v>117</v>
-      </c>
       <c r="Q87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S87">
         <v>0</v>
@@ -7699,56 +7698,59 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>86</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
         <v>19</v>
       </c>
       <c r="D88">
-        <f t="shared" si="16"/>
-        <v>141</v>
+        <f>$D$73</f>
+        <v>106</v>
       </c>
       <c r="E88">
-        <f>E87</f>
-        <v>272</v>
+        <f>E85+11</f>
+        <v>67</v>
       </c>
       <c r="F88">
-        <f>D88+4</f>
-        <v>145</v>
+        <f>D88+68</f>
+        <v>174</v>
       </c>
       <c r="G88">
-        <f>E88+3</f>
-        <v>275</v>
+        <f t="shared" ref="G88" si="12">E88+4</f>
+        <v>71</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
       </c>
       <c r="I88">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
+        <v>128</v>
+      </c>
+      <c r="O88" t="s">
+        <v>27</v>
+      </c>
+      <c r="P88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q88">
+        <v>3</v>
+      </c>
+      <c r="R88" t="b">
         <v>1</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="N88" t="s">
-        <v>118</v>
-      </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q88">
-        <v>2</v>
-      </c>
-      <c r="R88" t="b">
-        <v>0</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -7756,56 +7758,59 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
         <v>19</v>
       </c>
       <c r="D89">
-        <f t="shared" si="16"/>
-        <v>159</v>
+        <f>F90+2</f>
+        <v>182</v>
       </c>
       <c r="E89">
         <f>E88</f>
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="F89">
-        <f>D89+4</f>
-        <v>163</v>
+        <f>$F$72</f>
+        <v>208</v>
       </c>
       <c r="G89">
-        <f>E89+3</f>
-        <v>275</v>
+        <f t="shared" ref="G89" si="13">G88</f>
+        <v>71</v>
       </c>
       <c r="H89" t="s">
         <v>20</v>
       </c>
       <c r="I89">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
+        <v>128</v>
+      </c>
+      <c r="O89" t="s">
+        <v>40</v>
+      </c>
+      <c r="P89" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q89">
+        <v>3</v>
+      </c>
+      <c r="R89" t="b">
         <v>1</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="N89" t="s">
-        <v>118</v>
-      </c>
-      <c r="O89" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q89">
-        <v>2</v>
-      </c>
-      <c r="R89" t="b">
-        <v>0</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -7813,29 +7818,29 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>19</v>
       </c>
       <c r="D90">
-        <f t="shared" si="16"/>
-        <v>177</v>
+        <f>D88+70</f>
+        <v>176</v>
       </c>
       <c r="E90">
         <f>E89</f>
-        <v>272</v>
+        <v>67</v>
       </c>
       <c r="F90">
         <f>D90+4</f>
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G90">
-        <f>E90+3</f>
-        <v>275</v>
+        <f t="shared" ref="G90" si="14">E90+6</f>
+        <v>73</v>
       </c>
       <c r="H90" t="s">
         <v>20</v>
@@ -7853,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O90" t="s">
         <v>27</v>
@@ -7870,56 +7875,59 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>19</v>
       </c>
       <c r="D91">
-        <f t="shared" si="16"/>
-        <v>195</v>
+        <f>$D$73</f>
+        <v>106</v>
       </c>
       <c r="E91">
-        <f>E90</f>
-        <v>272</v>
+        <f>E88+11</f>
+        <v>78</v>
       </c>
       <c r="F91">
-        <f>D91+4</f>
-        <v>199</v>
+        <f>D91+68</f>
+        <v>174</v>
       </c>
       <c r="G91">
-        <f>E91+3</f>
-        <v>275</v>
+        <f t="shared" ref="G91" si="15">E91+4</f>
+        <v>82</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
+        <v>128</v>
+      </c>
+      <c r="O91" t="s">
+        <v>27</v>
+      </c>
+      <c r="P91" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q91">
+        <v>3</v>
+      </c>
+      <c r="R91" t="b">
         <v>1</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="N91" t="s">
-        <v>118</v>
-      </c>
-      <c r="O91" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q91">
-        <v>2</v>
-      </c>
-      <c r="R91" t="b">
-        <v>0</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -7927,7 +7935,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -7936,46 +7944,50 @@
         <v>19</v>
       </c>
       <c r="D92">
-        <v>12</v>
+        <f>F93+2</f>
+        <v>182</v>
       </c>
       <c r="E92">
-        <v>13</v>
+        <f>E91</f>
+        <v>78</v>
       </c>
       <c r="F92">
-        <v>94</v>
+        <f>$F$72</f>
+        <v>208</v>
       </c>
       <c r="G92">
-        <v>16</v>
+        <f t="shared" ref="G92" si="16">G91</f>
+        <v>82</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
       </c>
       <c r="I92">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
+        <v>128</v>
+      </c>
+      <c r="O92" t="s">
+        <v>40</v>
+      </c>
+      <c r="P92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q92">
+        <v>3</v>
+      </c>
+      <c r="R92" t="b">
         <v>1</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="N92" t="s">
-        <v>21</v>
-      </c>
-      <c r="O92" t="s">
-        <v>27</v>
-      </c>
-      <c r="P92" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q92">
-        <v>2</v>
-      </c>
-      <c r="R92" t="b">
-        <v>0</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -7983,31 +7995,38 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <f>D91+70</f>
+        <v>176</v>
       </c>
       <c r="E93">
-        <v>18</v>
+        <f>E92</f>
+        <v>78</v>
       </c>
       <c r="F93">
-        <v>98</v>
+        <f>D93+4</f>
+        <v>180</v>
       </c>
       <c r="G93">
-        <v>98</v>
+        <f>E93+6</f>
+        <v>84</v>
+      </c>
+      <c r="H93" t="s">
+        <v>20</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -8016,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="O93" t="s">
         <v>27</v>
@@ -8245,7 +8264,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -8254,22 +8273,24 @@
         <v>19</v>
       </c>
       <c r="D98">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E98">
-        <v>90</v>
+        <f>G72+4</f>
+        <v>91</v>
       </c>
       <c r="F98">
         <v>205</v>
       </c>
       <c r="G98">
-        <v>88</v>
+        <f>E98+4</f>
+        <v>95</v>
       </c>
       <c r="H98" t="s">
         <v>20</v>
       </c>
       <c r="I98">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -8284,10 +8305,10 @@
         <v>21</v>
       </c>
       <c r="O98" t="s">
-        <v>40</v>
-      </c>
-      <c r="P98" t="s">
-        <v>211</v>
+        <v>27</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="Q98">
         <v>2</v>
@@ -8296,61 +8317,60 @@
         <v>1</v>
       </c>
       <c r="S98">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B99">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D99">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E99">
-        <v>98</v>
+        <f>E98+34</f>
+        <v>125</v>
       </c>
       <c r="F99">
-        <v>205</v>
+        <f>F104</f>
+        <v>210</v>
       </c>
       <c r="G99">
-        <f>E99+4</f>
-        <v>102</v>
-      </c>
-      <c r="H99" t="s">
-        <v>20</v>
+        <f>G128+5</f>
+        <v>186</v>
       </c>
       <c r="I99">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
+      <c r="M99" t="s">
+        <v>118</v>
+      </c>
       <c r="N99" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="O99" t="s">
         <v>27</v>
       </c>
-      <c r="P99" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="Q99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -8358,31 +8378,34 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>555</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>105</v>
+        <f>D99+1</f>
+        <v>106</v>
       </c>
       <c r="E100">
-        <f>E99+34</f>
-        <v>132</v>
+        <f>E99+2</f>
+        <v>127</v>
       </c>
       <c r="F100">
-        <f>F105</f>
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G100">
-        <f>G129+5</f>
-        <v>192</v>
+        <f>E100+3</f>
+        <v>130</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J100">
         <v>1</v>
@@ -8393,17 +8416,17 @@
       <c r="L100">
         <v>0</v>
       </c>
-      <c r="M100" t="s">
-        <v>118</v>
-      </c>
       <c r="N100" t="s">
         <v>118</v>
       </c>
       <c r="O100" t="s">
         <v>27</v>
       </c>
+      <c r="P100" t="s">
+        <v>554</v>
+      </c>
       <c r="Q100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R100" t="b">
         <v>0</v>
@@ -8414,7 +8437,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>555</v>
+        <v>119</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -8423,28 +8446,29 @@
         <v>19</v>
       </c>
       <c r="D101">
-        <f>D100+1</f>
-        <v>106</v>
+        <f>D99+32</f>
+        <v>137</v>
       </c>
       <c r="E101">
-        <f>E100+2</f>
-        <v>134</v>
+        <f>E99+7</f>
+        <v>132</v>
       </c>
       <c r="F101">
-        <v>174</v>
+        <f>D101+18</f>
+        <v>155</v>
       </c>
       <c r="G101">
         <f>E101+3</f>
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H101" t="s">
         <v>20</v>
       </c>
       <c r="I101">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8456,16 +8480,16 @@
         <v>118</v>
       </c>
       <c r="O101" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P101" t="s">
-        <v>554</v>
+        <v>126</v>
       </c>
       <c r="Q101">
         <v>3</v>
       </c>
       <c r="R101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -8473,7 +8497,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -8482,20 +8506,20 @@
         <v>19</v>
       </c>
       <c r="D102">
-        <f>D100+30</f>
-        <v>135</v>
+        <f>D105</f>
+        <v>156</v>
       </c>
       <c r="E102">
-        <f>E100+7</f>
-        <v>139</v>
+        <f>E101</f>
+        <v>132</v>
       </c>
       <c r="F102">
-        <f>D102+18</f>
-        <v>153</v>
+        <f>D106-1</f>
+        <v>173</v>
       </c>
       <c r="G102">
         <f>E102+3</f>
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H102" t="s">
         <v>20</v>
@@ -8519,7 +8543,7 @@
         <v>40</v>
       </c>
       <c r="P102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q102">
         <v>3</v>
@@ -8533,7 +8557,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -8542,20 +8566,20 @@
         <v>19</v>
       </c>
       <c r="D103">
-        <f>D106</f>
-        <v>154</v>
+        <f>D106-1</f>
+        <v>173</v>
       </c>
       <c r="E103">
         <f>E102</f>
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F103">
-        <f>D107-1</f>
-        <v>171</v>
+        <f>D107+1</f>
+        <v>193</v>
       </c>
       <c r="G103">
         <f>E103+3</f>
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
@@ -8579,7 +8603,7 @@
         <v>40</v>
       </c>
       <c r="P103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -8593,7 +8617,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -8602,20 +8626,20 @@
         <v>19</v>
       </c>
       <c r="D104">
-        <f>D107-1</f>
-        <v>171</v>
+        <f>D107</f>
+        <v>192</v>
       </c>
       <c r="E104">
         <f>E103</f>
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F104">
-        <f>D108+1</f>
-        <v>191</v>
+        <f>D104+18</f>
+        <v>210</v>
       </c>
       <c r="G104">
         <f>E104+3</f>
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
@@ -8639,7 +8663,7 @@
         <v>40</v>
       </c>
       <c r="P104" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -8653,35 +8677,32 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B105">
         <v>4</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D105">
-        <f>D108</f>
-        <v>190</v>
+        <f>F101+1</f>
+        <v>156</v>
       </c>
       <c r="E105">
-        <f>E104</f>
-        <v>139</v>
+        <f>E101</f>
+        <v>132</v>
       </c>
       <c r="F105">
-        <f>D105+18</f>
-        <v>208</v>
+        <f>F101+1</f>
+        <v>156</v>
       </c>
       <c r="G105">
-        <f>E105+3</f>
-        <v>142</v>
-      </c>
-      <c r="H105" t="s">
-        <v>20</v>
+        <f>G128+3</f>
+        <v>184</v>
       </c>
       <c r="I105">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -8696,16 +8717,13 @@
         <v>118</v>
       </c>
       <c r="O105" t="s">
-        <v>40</v>
-      </c>
-      <c r="P105" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="Q105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -8713,7 +8731,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -8722,20 +8740,20 @@
         <v>27</v>
       </c>
       <c r="D106">
-        <f>F102+1</f>
-        <v>154</v>
+        <f>D105+18</f>
+        <v>174</v>
       </c>
       <c r="E106">
-        <f>E102</f>
-        <v>139</v>
+        <f>E101</f>
+        <v>132</v>
       </c>
       <c r="F106">
-        <f>F102+1</f>
-        <v>154</v>
+        <f t="shared" ref="F106:F107" si="17">D106</f>
+        <v>174</v>
       </c>
       <c r="G106">
-        <f>G129+3</f>
-        <v>190</v>
+        <f>G105</f>
+        <v>184</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -8767,7 +8785,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -8777,19 +8795,19 @@
       </c>
       <c r="D107">
         <f>D106+18</f>
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E107">
-        <f>E102</f>
-        <v>139</v>
+        <f>E101</f>
+        <v>132</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="F107:F108" si="17">D107</f>
-        <v>172</v>
+        <f t="shared" si="17"/>
+        <v>192</v>
       </c>
       <c r="G107">
         <f>G106</f>
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -8821,7 +8839,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -8830,20 +8848,19 @@
         <v>27</v>
       </c>
       <c r="D108">
-        <f>D107+18</f>
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="E108">
-        <f>E102</f>
-        <v>139</v>
+        <f>E101+10</f>
+        <v>142</v>
       </c>
       <c r="F108">
-        <f t="shared" si="17"/>
-        <v>190</v>
+        <f>F99</f>
+        <v>210</v>
       </c>
       <c r="G108">
-        <f>G107</f>
-        <v>190</v>
+        <f>E108</f>
+        <v>142</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -8875,31 +8892,35 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D109">
-        <v>105</v>
+        <f>D99+1</f>
+        <v>106</v>
       </c>
       <c r="E109">
-        <f>E102+10</f>
-        <v>149</v>
+        <f>E108+2</f>
+        <v>144</v>
       </c>
       <c r="F109">
-        <f>F100</f>
-        <v>208</v>
+        <f>D109+37</f>
+        <v>143</v>
       </c>
       <c r="G109">
-        <f>E109</f>
-        <v>149</v>
+        <f>E109+4</f>
+        <v>148</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -8916,11 +8937,14 @@
       <c r="O109" t="s">
         <v>27</v>
       </c>
+      <c r="P109" t="s">
+        <v>190</v>
+      </c>
       <c r="Q109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -8928,7 +8952,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -8937,29 +8961,29 @@
         <v>19</v>
       </c>
       <c r="D110">
-        <f>D100+1</f>
-        <v>106</v>
+        <f>D101+6</f>
+        <v>143</v>
       </c>
       <c r="E110">
-        <f>E109+2</f>
-        <v>151</v>
+        <f>E109+1</f>
+        <v>145</v>
       </c>
       <c r="F110">
-        <f>D110+36</f>
-        <v>142</v>
+        <f>D110+4</f>
+        <v>147</v>
       </c>
       <c r="G110">
-        <f>E110+4</f>
-        <v>155</v>
+        <f>E110+3</f>
+        <v>148</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
       </c>
       <c r="I110">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -8973,14 +8997,11 @@
       <c r="O110" t="s">
         <v>27</v>
       </c>
-      <c r="P110" t="s">
-        <v>190</v>
-      </c>
       <c r="Q110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S110">
         <v>0</v>
@@ -8988,7 +9009,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -8997,20 +9018,20 @@
         <v>19</v>
       </c>
       <c r="D111">
-        <f>D102+6</f>
-        <v>141</v>
+        <f>D110+18</f>
+        <v>161</v>
       </c>
       <c r="E111">
         <f>E110</f>
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F111">
         <f>D111+4</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G111">
         <f>E111+3</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H111" t="s">
         <v>20</v>
@@ -9045,7 +9066,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -9055,19 +9076,19 @@
       </c>
       <c r="D112">
         <f>D111+18</f>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E112">
         <f>E111</f>
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F112">
         <f>D112+4</f>
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G112">
         <f>E112+3</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H112" t="s">
         <v>20</v>
@@ -9102,7 +9123,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -9112,19 +9133,19 @@
       </c>
       <c r="D113">
         <f>D112+18</f>
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E113">
         <f>E112</f>
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F113">
         <f>D113+4</f>
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G113">
         <f>E113+3</f>
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H113" t="s">
         <v>20</v>
@@ -9159,7 +9180,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -9168,29 +9189,29 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <f>D113+18</f>
-        <v>195</v>
+        <f t="shared" ref="D114:D128" si="18">D109</f>
+        <v>106</v>
       </c>
       <c r="E114">
-        <f>E113</f>
-        <v>151</v>
+        <f>E109+11</f>
+        <v>155</v>
       </c>
       <c r="F114">
-        <f>D114+4</f>
-        <v>199</v>
+        <f>F109</f>
+        <v>143</v>
       </c>
       <c r="G114">
-        <f>E114+3</f>
-        <v>154</v>
+        <f>E114+4</f>
+        <v>159</v>
       </c>
       <c r="H114" t="s">
         <v>20</v>
       </c>
       <c r="I114">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -9204,11 +9225,14 @@
       <c r="O114" t="s">
         <v>27</v>
       </c>
+      <c r="P114" t="s">
+        <v>191</v>
+      </c>
       <c r="Q114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -9216,7 +9240,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -9225,29 +9249,29 @@
         <v>19</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115:D129" si="18">D110</f>
-        <v>106</v>
+        <f t="shared" si="18"/>
+        <v>143</v>
       </c>
       <c r="E115">
-        <f>E110+11</f>
-        <v>162</v>
+        <f>E114+1</f>
+        <v>156</v>
       </c>
       <c r="F115">
-        <f>F110</f>
-        <v>142</v>
+        <f>D115+4</f>
+        <v>147</v>
       </c>
       <c r="G115">
-        <f>E115+4</f>
-        <v>166</v>
+        <f>E115+3</f>
+        <v>159</v>
       </c>
       <c r="H115" t="s">
         <v>20</v>
       </c>
       <c r="I115">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -9261,14 +9285,11 @@
       <c r="O115" t="s">
         <v>27</v>
       </c>
-      <c r="P115" t="s">
-        <v>191</v>
-      </c>
       <c r="Q115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S115">
         <v>0</v>
@@ -9276,7 +9297,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -9286,19 +9307,19 @@
       </c>
       <c r="D116">
         <f t="shared" si="18"/>
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E116">
         <f>E115</f>
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F116">
         <f>D116+4</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G116">
         <f>E116+3</f>
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H116" t="s">
         <v>20</v>
@@ -9333,7 +9354,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -9343,19 +9364,19 @@
       </c>
       <c r="D117">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E117">
         <f>E116</f>
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F117">
         <f>D117+4</f>
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G117">
         <f>E117+3</f>
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H117" t="s">
         <v>20</v>
@@ -9390,7 +9411,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -9400,19 +9421,19 @@
       </c>
       <c r="D118">
         <f t="shared" si="18"/>
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E118">
         <f>E117</f>
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F118">
         <f>D118+4</f>
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G118">
         <f>E118+3</f>
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H118" t="s">
         <v>20</v>
@@ -9447,7 +9468,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -9457,28 +9478,28 @@
       </c>
       <c r="D119">
         <f t="shared" si="18"/>
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="E119">
-        <f>E118</f>
-        <v>162</v>
+        <f>E114+11</f>
+        <v>166</v>
       </c>
       <c r="F119">
-        <f>D119+4</f>
-        <v>199</v>
+        <f>F114</f>
+        <v>143</v>
       </c>
       <c r="G119">
-        <f>E119+3</f>
-        <v>165</v>
+        <f>E119+4</f>
+        <v>170</v>
       </c>
       <c r="H119" t="s">
         <v>20</v>
       </c>
       <c r="I119">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -9492,11 +9513,14 @@
       <c r="O119" t="s">
         <v>27</v>
       </c>
+      <c r="P119" t="s">
+        <v>192</v>
+      </c>
       <c r="Q119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -9504,7 +9528,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -9514,28 +9538,28 @@
       </c>
       <c r="D120">
         <f t="shared" si="18"/>
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E120">
-        <f>E115+11</f>
-        <v>173</v>
+        <f>E119+1</f>
+        <v>167</v>
       </c>
       <c r="F120">
-        <f>F115</f>
-        <v>142</v>
+        <f>D120+4</f>
+        <v>147</v>
       </c>
       <c r="G120">
-        <f>E120+4</f>
-        <v>177</v>
+        <f>E120+3</f>
+        <v>170</v>
       </c>
       <c r="H120" t="s">
         <v>20</v>
       </c>
       <c r="I120">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -9549,14 +9573,11 @@
       <c r="O120" t="s">
         <v>27</v>
       </c>
-      <c r="P120" t="s">
-        <v>192</v>
-      </c>
       <c r="Q120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S120">
         <v>0</v>
@@ -9564,7 +9585,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -9574,19 +9595,19 @@
       </c>
       <c r="D121">
         <f t="shared" si="18"/>
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E121">
         <f>E120</f>
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F121">
         <f>D121+4</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G121">
         <f>E121+3</f>
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H121" t="s">
         <v>20</v>
@@ -9621,7 +9642,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -9631,19 +9652,19 @@
       </c>
       <c r="D122">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E122">
         <f>E121</f>
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F122">
         <f>D122+4</f>
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G122">
         <f>E122+3</f>
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H122" t="s">
         <v>20</v>
@@ -9678,7 +9699,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -9688,19 +9709,19 @@
       </c>
       <c r="D123">
         <f t="shared" si="18"/>
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E123">
         <f>E122</f>
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F123">
         <f>D123+4</f>
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G123">
         <f>E123+3</f>
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H123" t="s">
         <v>20</v>
@@ -9735,7 +9756,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -9745,28 +9766,28 @@
       </c>
       <c r="D124">
         <f t="shared" si="18"/>
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="E124">
-        <f>E123</f>
-        <v>173</v>
+        <f>E119+11</f>
+        <v>177</v>
       </c>
       <c r="F124">
-        <f>D124+4</f>
-        <v>199</v>
+        <f>F119</f>
+        <v>143</v>
       </c>
       <c r="G124">
-        <f>E124+3</f>
-        <v>176</v>
+        <f>E124+4</f>
+        <v>181</v>
       </c>
       <c r="H124" t="s">
         <v>20</v>
       </c>
       <c r="I124">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -9780,11 +9801,14 @@
       <c r="O124" t="s">
         <v>27</v>
       </c>
+      <c r="P124" t="s">
+        <v>193</v>
+      </c>
       <c r="Q124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -9792,7 +9816,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -9802,28 +9826,28 @@
       </c>
       <c r="D125">
         <f t="shared" si="18"/>
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E125">
-        <f>E120+11</f>
-        <v>184</v>
+        <f>E124+1</f>
+        <v>178</v>
       </c>
       <c r="F125">
-        <f>F120</f>
-        <v>142</v>
+        <f>D125+4</f>
+        <v>147</v>
       </c>
       <c r="G125">
-        <f>E125+4</f>
-        <v>188</v>
+        <f>E125+3</f>
+        <v>181</v>
       </c>
       <c r="H125" t="s">
         <v>20</v>
       </c>
       <c r="I125">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -9837,14 +9861,11 @@
       <c r="O125" t="s">
         <v>27</v>
       </c>
-      <c r="P125" t="s">
-        <v>193</v>
-      </c>
       <c r="Q125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S125">
         <v>0</v>
@@ -9852,7 +9873,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -9862,19 +9883,19 @@
       </c>
       <c r="D126">
         <f t="shared" si="18"/>
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E126">
         <f>E125</f>
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F126">
         <f>D126+4</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G126">
         <f>E126+3</f>
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H126" t="s">
         <v>20</v>
@@ -9909,7 +9930,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -9919,19 +9940,19 @@
       </c>
       <c r="D127">
         <f t="shared" si="18"/>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E127">
         <f>E126</f>
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F127">
         <f>D127+4</f>
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G127">
         <f>E127+3</f>
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
@@ -9966,7 +9987,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -9976,19 +9997,19 @@
       </c>
       <c r="D128">
         <f t="shared" si="18"/>
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E128">
         <f>E127</f>
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F128">
         <f>D128+4</f>
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G128">
         <f>E128+3</f>
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
@@ -10023,7 +10044,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -10032,47 +10053,47 @@
         <v>19</v>
       </c>
       <c r="D129">
-        <f t="shared" si="18"/>
+        <v>106</v>
+      </c>
+      <c r="E129">
         <v>195</v>
       </c>
-      <c r="E129">
-        <f>E128</f>
-        <v>184</v>
-      </c>
       <c r="F129">
-        <f>D129+4</f>
+        <v>205</v>
+      </c>
+      <c r="G129">
+        <f>E129+4</f>
         <v>199</v>
-      </c>
-      <c r="G129">
-        <f>E129+3</f>
-        <v>187</v>
       </c>
       <c r="H129" t="s">
         <v>20</v>
       </c>
       <c r="I129">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
         <v>1</v>
       </c>
-      <c r="K129">
-        <v>0</v>
-      </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="O129" t="s">
         <v>27</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>203</v>
       </c>
       <c r="Q129">
         <v>2</v>
       </c>
       <c r="R129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -10080,56 +10101,55 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B130">
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D130">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130">
-        <v>195</v>
+        <f>E129+30</f>
+        <v>225</v>
       </c>
       <c r="F130">
-        <v>205</v>
+        <f>F135</f>
+        <v>210</v>
       </c>
       <c r="G130">
-        <f>E130+4</f>
-        <v>199</v>
-      </c>
-      <c r="H130" t="s">
-        <v>20</v>
+        <f>G144+5</f>
+        <v>253</v>
       </c>
       <c r="I130">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
+      <c r="M130" t="s">
+        <v>118</v>
+      </c>
       <c r="N130" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="O130" t="s">
         <v>27</v>
       </c>
-      <c r="P130" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="Q130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S130">
         <v>0</v>
@@ -10137,31 +10157,34 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>556</v>
       </c>
       <c r="B131">
         <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D131">
-        <v>105</v>
+        <f>D130+1</f>
+        <v>106</v>
       </c>
       <c r="E131">
-        <f>E130+30</f>
-        <v>225</v>
+        <f>E130+2</f>
+        <v>227</v>
       </c>
       <c r="F131">
-        <f>F136</f>
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="G131">
-        <f>G145+5</f>
-        <v>252</v>
+        <f>E131+3</f>
+        <v>230</v>
+      </c>
+      <c r="H131" t="s">
+        <v>20</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J131">
         <v>1</v>
@@ -10172,17 +10195,17 @@
       <c r="L131">
         <v>0</v>
       </c>
-      <c r="M131" t="s">
-        <v>118</v>
-      </c>
       <c r="N131" t="s">
         <v>118</v>
       </c>
       <c r="O131" t="s">
         <v>27</v>
       </c>
+      <c r="P131" t="s">
+        <v>554</v>
+      </c>
       <c r="Q131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R131" t="b">
         <v>0</v>
@@ -10193,7 +10216,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>556</v>
+        <v>119</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -10202,28 +10225,29 @@
         <v>19</v>
       </c>
       <c r="D132">
-        <f>D131+1</f>
-        <v>106</v>
+        <f>D130+32</f>
+        <v>137</v>
       </c>
       <c r="E132">
-        <f>E131+2</f>
-        <v>227</v>
+        <f>E130+7</f>
+        <v>232</v>
       </c>
       <c r="F132">
-        <v>174</v>
+        <f>D132+18</f>
+        <v>155</v>
       </c>
       <c r="G132">
         <f>E132+3</f>
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -10235,16 +10259,16 @@
         <v>118</v>
       </c>
       <c r="O132" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P132" t="s">
-        <v>554</v>
+        <v>126</v>
       </c>
       <c r="Q132">
         <v>3</v>
       </c>
       <c r="R132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132">
         <v>0</v>
@@ -10252,7 +10276,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -10261,16 +10285,16 @@
         <v>19</v>
       </c>
       <c r="D133">
-        <f>D131+30</f>
-        <v>135</v>
+        <f>D136</f>
+        <v>156</v>
       </c>
       <c r="E133">
-        <f>E131+7</f>
+        <f>E132</f>
         <v>232</v>
       </c>
       <c r="F133">
-        <f>D133+18</f>
-        <v>153</v>
+        <f>D137-1</f>
+        <v>173</v>
       </c>
       <c r="G133">
         <f>E133+3</f>
@@ -10298,7 +10322,7 @@
         <v>40</v>
       </c>
       <c r="P133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -10312,7 +10336,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -10321,16 +10345,16 @@
         <v>19</v>
       </c>
       <c r="D134">
-        <f>D137</f>
-        <v>154</v>
+        <f>D137-1</f>
+        <v>173</v>
       </c>
       <c r="E134">
         <f>E133</f>
         <v>232</v>
       </c>
       <c r="F134">
-        <f>D138-1</f>
-        <v>171</v>
+        <f>D138+1</f>
+        <v>193</v>
       </c>
       <c r="G134">
         <f>E134+3</f>
@@ -10358,7 +10382,7 @@
         <v>40</v>
       </c>
       <c r="P134" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -10372,7 +10396,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -10381,16 +10405,16 @@
         <v>19</v>
       </c>
       <c r="D135">
-        <f>D138-1</f>
-        <v>171</v>
+        <f>D138</f>
+        <v>192</v>
       </c>
       <c r="E135">
         <f>E134</f>
         <v>232</v>
       </c>
       <c r="F135">
-        <f>D139+1</f>
-        <v>191</v>
+        <f>D135+18</f>
+        <v>210</v>
       </c>
       <c r="G135">
         <f>E135+3</f>
@@ -10418,7 +10442,7 @@
         <v>40</v>
       </c>
       <c r="P135" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -10432,35 +10456,32 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D136">
-        <f>D139</f>
-        <v>190</v>
+        <f>F132+1</f>
+        <v>156</v>
       </c>
       <c r="E136">
-        <f>E135</f>
+        <f>E132</f>
         <v>232</v>
       </c>
       <c r="F136">
-        <f>D136+18</f>
-        <v>208</v>
+        <f>F132+1</f>
+        <v>156</v>
       </c>
       <c r="G136">
-        <f>E136+3</f>
-        <v>235</v>
-      </c>
-      <c r="H136" t="s">
-        <v>20</v>
+        <f>G144+3</f>
+        <v>251</v>
       </c>
       <c r="I136">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -10475,16 +10496,13 @@
         <v>118</v>
       </c>
       <c r="O136" t="s">
-        <v>40</v>
-      </c>
-      <c r="P136" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="Q136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S136">
         <v>0</v>
@@ -10492,7 +10510,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -10501,20 +10519,20 @@
         <v>27</v>
       </c>
       <c r="D137">
-        <f>F133+1</f>
-        <v>154</v>
+        <f>D136+18</f>
+        <v>174</v>
       </c>
       <c r="E137">
-        <f>E133</f>
+        <f>E132</f>
         <v>232</v>
       </c>
       <c r="F137">
-        <f>F133+1</f>
-        <v>154</v>
+        <f t="shared" ref="F137:F138" si="19">D137</f>
+        <v>174</v>
       </c>
       <c r="G137">
-        <f>G145+3</f>
-        <v>250</v>
+        <f>G136</f>
+        <v>251</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -10546,7 +10564,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -10556,19 +10574,19 @@
       </c>
       <c r="D138">
         <f>D137+18</f>
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="E138">
-        <f>E133</f>
+        <f>E132</f>
         <v>232</v>
       </c>
       <c r="F138">
-        <f t="shared" ref="F138:F139" si="19">D138</f>
-        <v>172</v>
+        <f t="shared" si="19"/>
+        <v>192</v>
       </c>
       <c r="G138">
         <f>G137</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -10600,7 +10618,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -10609,20 +10627,19 @@
         <v>27</v>
       </c>
       <c r="D139">
-        <f>D138+18</f>
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="E139">
-        <f>E133</f>
-        <v>232</v>
+        <f>E132+10</f>
+        <v>242</v>
       </c>
       <c r="F139">
-        <f t="shared" si="19"/>
-        <v>190</v>
+        <f>F130</f>
+        <v>210</v>
       </c>
       <c r="G139">
-        <f>G138</f>
-        <v>250</v>
+        <f>E139</f>
+        <v>242</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -10654,31 +10671,35 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="B140">
         <v>4</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D140">
-        <v>105</v>
+        <f>D130+1</f>
+        <v>106</v>
       </c>
       <c r="E140">
-        <f>E133+10</f>
-        <v>242</v>
+        <f>E139+2</f>
+        <v>244</v>
       </c>
       <c r="F140">
-        <f>F131</f>
-        <v>208</v>
+        <f>D140+36</f>
+        <v>142</v>
       </c>
       <c r="G140">
-        <f>E140</f>
-        <v>242</v>
+        <f>E140+4</f>
+        <v>248</v>
+      </c>
+      <c r="H140" t="s">
+        <v>20</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -10695,11 +10716,14 @@
       <c r="O140" t="s">
         <v>27</v>
       </c>
+      <c r="P140" t="s">
+        <v>199</v>
+      </c>
       <c r="Q140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S140">
         <v>0</v>
@@ -10707,7 +10731,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -10716,29 +10740,29 @@
         <v>19</v>
       </c>
       <c r="D141">
-        <f>D131+1</f>
-        <v>106</v>
+        <f>D132+6</f>
+        <v>143</v>
       </c>
       <c r="E141">
-        <f>E140+2</f>
-        <v>244</v>
+        <f>E140+1</f>
+        <v>245</v>
       </c>
       <c r="F141">
-        <f>D141+36</f>
-        <v>142</v>
+        <f>D141+4</f>
+        <v>147</v>
       </c>
       <c r="G141">
-        <f>E141+4</f>
+        <f>E141+3</f>
         <v>248</v>
       </c>
       <c r="H141" t="s">
         <v>20</v>
       </c>
       <c r="I141">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -10752,14 +10776,11 @@
       <c r="O141" t="s">
         <v>27</v>
       </c>
-      <c r="P141" t="s">
-        <v>199</v>
-      </c>
       <c r="Q141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -10767,7 +10788,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -10776,20 +10797,20 @@
         <v>19</v>
       </c>
       <c r="D142">
-        <f>D133+6</f>
-        <v>141</v>
+        <f>D141+18</f>
+        <v>161</v>
       </c>
       <c r="E142">
         <f>E141</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F142">
         <f>D142+4</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G142">
         <f>E142+3</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H142" t="s">
         <v>20</v>
@@ -10824,7 +10845,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -10834,19 +10855,19 @@
       </c>
       <c r="D143">
         <f>D142+18</f>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E143">
         <f>E142</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F143">
         <f>D143+4</f>
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="G143">
         <f>E143+3</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H143" t="s">
         <v>20</v>
@@ -10881,7 +10902,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -10891,19 +10912,19 @@
       </c>
       <c r="D144">
         <f>D143+18</f>
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E144">
         <f>E143</f>
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F144">
         <f>D144+4</f>
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="G144">
         <f>E144+3</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H144" t="s">
         <v>20</v>
@@ -10938,7 +10959,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>198</v>
+        <v>104</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -10947,47 +10968,47 @@
         <v>19</v>
       </c>
       <c r="D145">
-        <f>D144+18</f>
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="E145">
-        <f>E144</f>
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F145">
-        <f>D145+4</f>
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G145">
         <f>E145+3</f>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="H145" t="s">
         <v>20</v>
       </c>
       <c r="I145">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
+        <v>21</v>
+      </c>
+      <c r="O145" t="s">
+        <v>27</v>
+      </c>
+      <c r="P145" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q145">
+        <v>3</v>
+      </c>
+      <c r="R145" t="b">
         <v>1</v>
-      </c>
-      <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
-        <v>118</v>
-      </c>
-      <c r="O145" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q145">
-        <v>2</v>
-      </c>
-      <c r="R145" t="b">
-        <v>0</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -10995,32 +11016,29 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D146">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="E146">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F146">
-        <v>206</v>
+        <f>D146+40</f>
+        <v>108</v>
       </c>
       <c r="G146">
-        <f>E146+3</f>
-        <v>263</v>
-      </c>
-      <c r="H146" t="s">
-        <v>20</v>
+        <v>276</v>
       </c>
       <c r="I146">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -11037,14 +11055,11 @@
       <c r="O146" t="s">
         <v>27</v>
       </c>
-      <c r="P146" t="s">
-        <v>105</v>
-      </c>
       <c r="Q146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -11052,7 +11067,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -11061,14 +11076,14 @@
         <v>26</v>
       </c>
       <c r="D147">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E147">
         <v>262</v>
       </c>
       <c r="F147">
-        <f>D147+40</f>
-        <v>108</v>
+        <f t="shared" ref="F147:F152" si="20">D147+15</f>
+        <v>127</v>
       </c>
       <c r="G147">
         <v>276</v>
@@ -11103,7 +11118,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -11112,14 +11127,14 @@
         <v>26</v>
       </c>
       <c r="D148">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E148">
         <v>262</v>
       </c>
       <c r="F148">
-        <f t="shared" ref="F148:F153" si="20">D148+15</f>
-        <v>127</v>
+        <f t="shared" si="20"/>
+        <v>146</v>
       </c>
       <c r="G148">
         <v>276</v>
@@ -11154,7 +11169,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -11163,14 +11178,14 @@
         <v>26</v>
       </c>
       <c r="D149">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="E149">
         <v>262</v>
       </c>
       <c r="F149">
         <f t="shared" si="20"/>
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G149">
         <v>276</v>
@@ -11205,7 +11220,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -11214,14 +11229,14 @@
         <v>26</v>
       </c>
       <c r="D150">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="E150">
         <v>262</v>
       </c>
       <c r="F150">
         <f t="shared" si="20"/>
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G150">
         <v>276</v>
@@ -11256,7 +11271,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -11265,14 +11280,14 @@
         <v>26</v>
       </c>
       <c r="D151">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E151">
         <v>262</v>
       </c>
       <c r="F151">
         <f t="shared" si="20"/>
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G151">
         <v>276</v>
@@ -11307,7 +11322,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -11316,17 +11331,17 @@
         <v>26</v>
       </c>
       <c r="D152">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="E152">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="F152">
         <f t="shared" si="20"/>
-        <v>203</v>
+        <v>84</v>
       </c>
       <c r="G152">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -11358,7 +11373,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -11367,14 +11382,14 @@
         <v>26</v>
       </c>
       <c r="D153">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E153">
         <v>280</v>
       </c>
       <c r="F153">
-        <f t="shared" si="20"/>
-        <v>84</v>
+        <f>D153+40</f>
+        <v>126</v>
       </c>
       <c r="G153">
         <v>295</v>
@@ -11409,7 +11424,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -11418,14 +11433,14 @@
         <v>26</v>
       </c>
       <c r="D154">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E154">
         <v>280</v>
       </c>
       <c r="F154">
-        <f>D154+40</f>
-        <v>126</v>
+        <f>D154+15</f>
+        <v>144</v>
       </c>
       <c r="G154">
         <v>295</v>
@@ -11460,7 +11475,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -11469,14 +11484,14 @@
         <v>26</v>
       </c>
       <c r="D155">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E155">
         <v>280</v>
       </c>
       <c r="F155">
-        <f>D155+15</f>
-        <v>144</v>
+        <f>D155+40</f>
+        <v>186</v>
       </c>
       <c r="G155">
         <v>295</v>
@@ -11511,7 +11526,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -11520,14 +11535,14 @@
         <v>26</v>
       </c>
       <c r="D156">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="E156">
         <v>280</v>
       </c>
       <c r="F156">
-        <f>D156+40</f>
-        <v>186</v>
+        <f>D156+15</f>
+        <v>204</v>
       </c>
       <c r="G156">
         <v>295</v>
@@ -11562,26 +11577,25 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D157">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="E157">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="F157">
-        <f>D157+15</f>
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G157">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -11613,28 +11627,32 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="B158">
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D158">
         <v>68</v>
       </c>
       <c r="E158">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="F158">
         <v>205</v>
       </c>
       <c r="G158">
-        <v>255</v>
+        <f>E158+4</f>
+        <v>241</v>
+      </c>
+      <c r="H158" t="s">
+        <v>20</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -11651,70 +11669,16 @@
       <c r="O158" t="s">
         <v>27</v>
       </c>
+      <c r="P158" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="Q158">
         <v>2</v>
       </c>
       <c r="R158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>207</v>
-      </c>
-      <c r="B159">
-        <v>5</v>
-      </c>
-      <c r="C159" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159">
-        <v>68</v>
-      </c>
-      <c r="E159">
-        <v>237</v>
-      </c>
-      <c r="F159">
-        <v>205</v>
-      </c>
-      <c r="G159">
-        <f>E159+4</f>
-        <v>241</v>
-      </c>
-      <c r="H159" t="s">
-        <v>20</v>
-      </c>
-      <c r="I159">
-        <v>12</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="N159" t="s">
-        <v>21</v>
-      </c>
-      <c r="O159" t="s">
-        <v>27</v>
-      </c>
-      <c r="P159" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q159">
-        <v>2</v>
-      </c>
-      <c r="R159" t="b">
-        <v>1</v>
-      </c>
-      <c r="S159">
         <v>0</v>
       </c>
     </row>
@@ -11729,10 +11693,10 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13270,8 +13234,8 @@
       <c r="B61" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>190</v>
+      <c r="C61" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>217</v>
@@ -13289,15 +13253,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>322</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>191</v>
+      <c r="C62" t="s">
+        <v>560</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>216</v>
@@ -13453,7 +13417,7 @@
         <v>207</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>256</v>
+        <v>559</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>259</v>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794C7A5-C553-4727-84BF-641DA870728B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D4FC14-5359-4DF7-9406-9C81A223326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="3930" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="563">
   <si>
     <t>name</t>
   </si>
@@ -1739,7 +1739,10 @@
     <t>Employment distribution requirements</t>
   </si>
   <si>
-    <t>Employment/infrastructure access requirements</t>
+    <t>Policy checklist for walkable urban neighbourhoods</t>
+  </si>
+  <si>
+    <t>Access requirements for employment/infrastructure</t>
   </si>
 </sst>
 </file>
@@ -2742,8 +2745,8 @@
   <dimension ref="A1:S158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E99" sqref="E99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>121</v>
@@ -2917,7 +2920,7 @@
         <v>Global Healthy &amp; Sustainable City-Indicators Collaboration</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="b">
         <v>0</v>
@@ -3155,14 +3158,14 @@
         <v>170</v>
       </c>
       <c r="E8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F8">
         <v>201</v>
       </c>
       <c r="G8">
         <f>E8+3</f>
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H8" t="s">
         <v>20</v>
@@ -3209,7 +3212,7 @@
         <v>39</v>
       </c>
       <c r="D9">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E9">
         <v>268</v>
@@ -3218,7 +3221,6 @@
         <v>201</v>
       </c>
       <c r="G9">
-        <f>E9+21</f>
         <v>289</v>
       </c>
       <c r="H9" t="s">
@@ -3425,13 +3427,14 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>98</v>
       </c>
       <c r="F13">
-        <v>103</v>
+        <f>D13+92</f>
+        <v>104</v>
       </c>
       <c r="G13">
         <v>102</v>
@@ -3472,7 +3475,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3481,22 +3484,22 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E14">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="G14">
-        <v>118</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -3514,10 +3517,10 @@
         <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R14" t="b">
         <v>0</v>
@@ -3528,31 +3531,34 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F15">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="G15">
-        <v>200</v>
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3566,8 +3572,11 @@
       <c r="O15" t="s">
         <v>27</v>
       </c>
+      <c r="P15" t="s">
+        <v>57</v>
+      </c>
       <c r="Q15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R15" t="b">
         <v>0</v>
@@ -3578,34 +3587,34 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="E16">
-        <v>204</v>
+        <f>G15</f>
+        <v>24</v>
       </c>
       <c r="F16">
-        <v>94</v>
+        <f>D16+70</f>
+        <v>190</v>
       </c>
       <c r="G16">
-        <v>207</v>
-      </c>
-      <c r="H16" t="s">
-        <v>20</v>
+        <f>E16+15</f>
+        <v>39</v>
       </c>
       <c r="I16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -3619,11 +3628,8 @@
       <c r="O16" t="s">
         <v>27</v>
       </c>
-      <c r="P16" t="s">
-        <v>52</v>
-      </c>
       <c r="Q16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -3634,31 +3640,35 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="E17">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>98</v>
+        <v>199</v>
       </c>
       <c r="G17">
-        <v>288</v>
+        <f>E17+3</f>
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3672,8 +3682,11 @@
       <c r="O17" t="s">
         <v>27</v>
       </c>
+      <c r="P17" t="s">
+        <v>59</v>
+      </c>
       <c r="Q17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R17" t="b">
         <v>0</v>
@@ -3684,34 +3697,34 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <f>G17-2</f>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>210</v>
+        <f>D18+70</f>
+        <v>190</v>
       </c>
       <c r="G18">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
+        <f>E18+15</f>
+        <v>56</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3725,11 +3738,8 @@
       <c r="O18" t="s">
         <v>27</v>
       </c>
-      <c r="P18" t="s">
-        <v>55</v>
-      </c>
       <c r="Q18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" t="b">
         <v>0</v>
@@ -3740,7 +3750,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3752,25 +3762,27 @@
         <v>106</v>
       </c>
       <c r="E19">
-        <v>21</v>
+        <f>G18</f>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>199</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <f>E19+3</f>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>20</v>
       </c>
       <c r="I19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>1</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -3782,13 +3794,13 @@
         <v>27</v>
       </c>
       <c r="P19" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3796,34 +3808,33 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E20">
-        <f>G19</f>
-        <v>24</v>
+        <f>G19+15</f>
+        <v>74</v>
       </c>
       <c r="F20">
-        <f>D20+70</f>
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G20">
-        <f>E20+15</f>
-        <v>39</v>
+        <f>G41+3</f>
+        <v>150</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -3831,14 +3842,17 @@
       <c r="L20">
         <v>0</v>
       </c>
+      <c r="M20" t="s">
+        <v>128</v>
+      </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="O20" t="s">
         <v>27</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" t="b">
         <v>0</v>
@@ -3849,7 +3863,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -3858,17 +3872,19 @@
         <v>19</v>
       </c>
       <c r="D21">
+        <f>D20+1</f>
         <v>106</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <f>E20+2</f>
+        <v>76</v>
       </c>
       <c r="F21">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="G21">
         <f>E21+3</f>
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s">
         <v>20</v>
@@ -3886,13 +3902,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="O21" t="s">
         <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -3906,31 +3922,34 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>120</v>
+        <f>F26+2</f>
+        <v>182</v>
       </c>
       <c r="E22">
-        <f>G21-2</f>
-        <v>41</v>
+        <f>E20+3</f>
+        <v>77</v>
       </c>
       <c r="F22">
-        <f>D22+70</f>
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="G22">
-        <f>E22+15</f>
-        <v>56</v>
+        <f>E22+3</f>
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>20</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3942,16 +3961,19 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="O22" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P22" t="s">
+        <v>129</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3959,57 +3981,51 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23">
-        <f>G22</f>
-        <v>56</v>
+        <f>E24-2</f>
+        <v>84</v>
       </c>
       <c r="F23">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="G23">
-        <f>E23+3</f>
-        <v>59</v>
-      </c>
-      <c r="H23" t="s">
-        <v>20</v>
+        <f>E23</f>
+        <v>84</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="O23" t="s">
         <v>27</v>
       </c>
-      <c r="P23" t="s">
-        <v>132</v>
-      </c>
       <c r="Q23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -4017,7 +4033,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -4026,17 +4042,20 @@
         <v>19</v>
       </c>
       <c r="D24">
+        <f>$D$21</f>
         <v>106</v>
       </c>
       <c r="E24">
-        <v>115</v>
+        <f>E21+10</f>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>205</v>
+        <f>D24+68</f>
+        <v>174</v>
       </c>
       <c r="G24">
         <f>E24+4</f>
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
@@ -4048,22 +4067,22 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="O24" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>252</v>
+      <c r="P24" t="s">
+        <v>67</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24" t="b">
         <v>1</v>
@@ -4074,55 +4093,59 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>105</v>
+        <f>F26+2</f>
+        <v>182</v>
       </c>
       <c r="E25">
-        <f>E24+38</f>
-        <v>153</v>
+        <f>E24</f>
+        <v>86</v>
       </c>
       <c r="F25">
-        <f>F30</f>
+        <f>$F$20</f>
         <v>208</v>
       </c>
       <c r="G25">
-        <f>G69+5</f>
-        <v>247</v>
+        <f>G24</f>
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>20</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>128</v>
+      </c>
+      <c r="O25" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q25">
+        <v>3</v>
+      </c>
+      <c r="R25" t="b">
         <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25" t="s">
-        <v>118</v>
-      </c>
-      <c r="N25" t="s">
-        <v>118</v>
-      </c>
-      <c r="O25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -4130,7 +4153,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>548</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -4139,25 +4162,26 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <f>D25+1</f>
-        <v>106</v>
+        <f>D24+70</f>
+        <v>176</v>
       </c>
       <c r="E26">
-        <f>E25+2</f>
-        <v>155</v>
+        <f>E25</f>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>174</v>
+        <f>D26+4</f>
+        <v>180</v>
       </c>
       <c r="G26">
-        <f>E26+3</f>
-        <v>158</v>
+        <f>E26+6</f>
+        <v>92</v>
       </c>
       <c r="H26" t="s">
         <v>20</v>
       </c>
       <c r="I26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -4169,16 +4193,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O26" t="s">
         <v>27</v>
       </c>
-      <c r="P26" t="s">
-        <v>549</v>
-      </c>
       <c r="Q26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R26" t="b">
         <v>0</v>
@@ -4189,7 +4210,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -4198,20 +4219,20 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <f>D25+30</f>
-        <v>135</v>
+        <f>$D$21</f>
+        <v>106</v>
       </c>
       <c r="E27">
-        <f>E25+7</f>
-        <v>160</v>
+        <f>E26+11</f>
+        <v>97</v>
       </c>
       <c r="F27">
-        <f>D27+18</f>
-        <v>153</v>
+        <f>D27+68</f>
+        <v>174</v>
       </c>
       <c r="G27">
-        <f>E27+3</f>
-        <v>163</v>
+        <f>E27+4</f>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -4229,13 +4250,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -4249,7 +4270,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -4258,20 +4279,20 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <f>D31</f>
-        <v>154</v>
+        <f>F29+2</f>
+        <v>182</v>
       </c>
       <c r="E28">
         <f>E27</f>
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="F28">
-        <f>D32-1</f>
-        <v>171</v>
+        <f>$F$20</f>
+        <v>208</v>
       </c>
       <c r="G28">
-        <f>E28+3</f>
-        <v>163</v>
+        <f>G27</f>
+        <v>101</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -4289,13 +4310,13 @@
         <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O28" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -4309,7 +4330,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -4318,29 +4339,29 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <f>D32-1</f>
-        <v>171</v>
+        <f>D27+70</f>
+        <v>176</v>
       </c>
       <c r="E29">
-        <f t="shared" ref="E29:E33" si="0">E28</f>
-        <v>160</v>
+        <f>E28</f>
+        <v>97</v>
       </c>
       <c r="F29">
-        <f>D33+1</f>
-        <v>191</v>
+        <f>D29+4</f>
+        <v>180</v>
       </c>
       <c r="G29">
-        <f>E29+3</f>
-        <v>163</v>
+        <f>E29+6</f>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
       </c>
       <c r="I29">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4349,19 +4370,16 @@
         <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O29" t="s">
-        <v>40</v>
-      </c>
-      <c r="P29" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="Q29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4369,7 +4387,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4378,20 +4396,20 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <f>D33</f>
-        <v>190</v>
+        <f>$D$21</f>
+        <v>106</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>E29+11</f>
+        <v>108</v>
       </c>
       <c r="F30">
-        <f>D30+18</f>
-        <v>208</v>
+        <f>D30+68</f>
+        <v>174</v>
       </c>
       <c r="G30">
-        <f>E30+3</f>
-        <v>163</v>
+        <f>E30+4</f>
+        <v>112</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -4409,13 +4427,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O30" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -4429,32 +4447,35 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <f>F27+1</f>
-        <v>154</v>
+        <f>F32+2</f>
+        <v>182</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>E30</f>
+        <v>108</v>
       </c>
       <c r="F31">
-        <f>F27+1</f>
-        <v>154</v>
+        <f>$F$20</f>
+        <v>208</v>
       </c>
       <c r="G31">
-        <f>G69+3</f>
-        <v>245</v>
+        <f>G30</f>
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4466,16 +4487,19 @@
         <v>0</v>
       </c>
       <c r="N31" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O31" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P31" t="s">
+        <v>79</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4483,35 +4507,38 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D32">
-        <f>D31+18</f>
-        <v>172</v>
+        <f>D30+70</f>
+        <v>176</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
-        <v>160</v>
+        <f>E31</f>
+        <v>108</v>
       </c>
       <c r="F32">
-        <f t="shared" ref="F32:F33" si="1">D32</f>
-        <v>172</v>
+        <f>D32+4</f>
+        <v>180</v>
       </c>
       <c r="G32">
-        <f>G31</f>
-        <v>245</v>
+        <f>E32+6</f>
+        <v>114</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4520,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="O32" t="s">
         <v>27</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R32" t="b">
         <v>0</v>
@@ -4537,3376 +4564,3381 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <f>D32+18</f>
+        <f>$D$21</f>
+        <v>106</v>
+      </c>
+      <c r="E33">
+        <f>E32+11</f>
+        <v>119</v>
+      </c>
+      <c r="F33">
+        <f>D33+68</f>
+        <v>174</v>
+      </c>
+      <c r="G33">
+        <f>E33+4</f>
+        <v>123</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>8</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>128</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="P33" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33" t="b">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
+        <f>F35+2</f>
+        <v>182</v>
+      </c>
+      <c r="E34">
+        <f>E33</f>
+        <v>119</v>
+      </c>
+      <c r="F34">
+        <f>$F$20</f>
+        <v>208</v>
+      </c>
+      <c r="G34">
+        <f>G33</f>
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
+        <v>128</v>
+      </c>
+      <c r="O34" t="s">
+        <v>40</v>
+      </c>
+      <c r="P34" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q34">
+        <v>3</v>
+      </c>
+      <c r="R34" t="b">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35">
+        <f>D33+70</f>
+        <v>176</v>
+      </c>
+      <c r="E35">
+        <f>E34</f>
+        <v>119</v>
+      </c>
+      <c r="F35">
+        <f>D35+4</f>
+        <v>180</v>
+      </c>
+      <c r="G35">
+        <f>E35+6</f>
+        <v>125</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
+        <v>128</v>
+      </c>
+      <c r="O35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35" t="b">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36">
+        <f>$D$21</f>
+        <v>106</v>
+      </c>
+      <c r="E36">
+        <f>E33+11</f>
+        <v>130</v>
+      </c>
+      <c r="F36">
+        <f>D36+68</f>
+        <v>174</v>
+      </c>
+      <c r="G36">
+        <f>E36+4</f>
+        <v>134</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>128</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="P36" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36" t="b">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <f>F38+2</f>
+        <v>182</v>
+      </c>
+      <c r="E37">
+        <f>E36</f>
+        <v>130</v>
+      </c>
+      <c r="F37">
+        <f>$F$20</f>
+        <v>208</v>
+      </c>
+      <c r="G37">
+        <f>G36</f>
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>128</v>
+      </c>
+      <c r="O37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P37" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37" t="b">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <f>D36+70</f>
+        <v>176</v>
+      </c>
+      <c r="E38">
+        <f>E37</f>
+        <v>130</v>
+      </c>
+      <c r="F38">
+        <f>D38+4</f>
+        <v>180</v>
+      </c>
+      <c r="G38">
+        <f>E38+6</f>
+        <v>136</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38">
+        <v>15</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="N38" t="s">
+        <v>128</v>
+      </c>
+      <c r="O38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38">
+        <v>2</v>
+      </c>
+      <c r="R38" t="b">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <f>$D$21</f>
+        <v>106</v>
+      </c>
+      <c r="E39">
+        <f>E36+11</f>
+        <v>141</v>
+      </c>
+      <c r="F39">
+        <f>D39+68</f>
+        <v>174</v>
+      </c>
+      <c r="G39">
+        <f>E39+4</f>
+        <v>145</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>8</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>128</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="P39" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q39">
+        <v>3</v>
+      </c>
+      <c r="R39" t="b">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <f>F41+2</f>
+        <v>182</v>
+      </c>
+      <c r="E40">
+        <f>E39</f>
+        <v>141</v>
+      </c>
+      <c r="F40">
+        <f>$F$20</f>
+        <v>208</v>
+      </c>
+      <c r="G40">
+        <f>G39</f>
+        <v>145</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="N40" t="s">
+        <v>128</v>
+      </c>
+      <c r="O40" t="s">
+        <v>40</v>
+      </c>
+      <c r="P40" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40">
+        <v>3</v>
+      </c>
+      <c r="R40" t="b">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <f>D39+70</f>
+        <v>176</v>
+      </c>
+      <c r="E41">
+        <f>E40</f>
+        <v>141</v>
+      </c>
+      <c r="F41">
+        <f>D41+4</f>
+        <v>180</v>
+      </c>
+      <c r="G41">
+        <f>E41+6</f>
+        <v>147</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
+        <v>128</v>
+      </c>
+      <c r="O41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41" t="b">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <f>G20+6</f>
+        <v>156</v>
+      </c>
+      <c r="F42">
+        <v>94</v>
+      </c>
+      <c r="G42">
+        <f>E42+3</f>
+        <v>159</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>12</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>21</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="P42" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <f>E42+55</f>
+        <v>211</v>
+      </c>
+      <c r="F43">
+        <f>D43+88</f>
+        <v>98</v>
+      </c>
+      <c r="G43">
+        <f>E43+80</f>
+        <v>291</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43">
+        <v>2</v>
+      </c>
+      <c r="R43" t="b">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>-999</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>12</v>
+      </c>
+      <c r="E44">
+        <v>204</v>
+      </c>
+      <c r="F44">
+        <v>94</v>
+      </c>
+      <c r="G44">
+        <v>207</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44">
+        <v>12</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
+        <v>21</v>
+      </c>
+      <c r="O44" t="s">
+        <v>27</v>
+      </c>
+      <c r="P44" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="R44" t="b">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>-999</v>
+      </c>
+      <c r="C45" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45">
+        <f>D43</f>
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <f>G43+3</f>
+        <v>294</v>
+      </c>
+      <c r="F45">
+        <f>D45+88</f>
+        <v>98</v>
+      </c>
+      <c r="G45">
+        <f>E45+80</f>
+        <v>374</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <f>D42</f>
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <f>G42+4</f>
+        <v>163</v>
+      </c>
+      <c r="F46">
+        <f>D46+92</f>
+        <v>104</v>
+      </c>
+      <c r="G46">
+        <f>E46+4</f>
+        <v>167</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46">
+        <v>8</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46" t="b">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>105</v>
+      </c>
+      <c r="E47">
+        <f>E46-2</f>
+        <v>161</v>
+      </c>
+      <c r="F47">
+        <f>F52</f>
+        <v>208</v>
+      </c>
+      <c r="G47">
+        <f>G91+5</f>
+        <v>255</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>118</v>
+      </c>
+      <c r="N47" t="s">
+        <v>118</v>
+      </c>
+      <c r="O47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47" t="b">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>548</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48">
+        <f>D47+1</f>
+        <v>106</v>
+      </c>
+      <c r="E48">
+        <f>E47+2</f>
+        <v>163</v>
+      </c>
+      <c r="F48">
+        <f>D48+68</f>
+        <v>174</v>
+      </c>
+      <c r="G48">
+        <f>E48+3</f>
+        <v>166</v>
+      </c>
+      <c r="H48" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48">
+        <v>8</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" t="s">
+        <v>27</v>
+      </c>
+      <c r="P48" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q48">
+        <v>3</v>
+      </c>
+      <c r="R48" t="b">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49">
+        <f>D47+30</f>
+        <v>135</v>
+      </c>
+      <c r="E49">
+        <f>E47+7</f>
+        <v>168</v>
+      </c>
+      <c r="F49">
+        <f>D49+18</f>
+        <v>153</v>
+      </c>
+      <c r="G49">
+        <f>E49+3</f>
+        <v>171</v>
+      </c>
+      <c r="H49" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q49">
+        <v>3</v>
+      </c>
+      <c r="R49" t="b">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <f>D53</f>
+        <v>154</v>
+      </c>
+      <c r="E50">
+        <f>E49</f>
+        <v>168</v>
+      </c>
+      <c r="F50">
+        <f>D54-1</f>
+        <v>171</v>
+      </c>
+      <c r="G50">
+        <f>E50+3</f>
+        <v>171</v>
+      </c>
+      <c r="H50" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>8</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q50">
+        <v>3</v>
+      </c>
+      <c r="R50" t="b">
+        <v>1</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51">
+        <f>D54-1</f>
+        <v>171</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:E55" si="0">E50</f>
+        <v>168</v>
+      </c>
+      <c r="F51">
+        <f>D55+1</f>
+        <v>191</v>
+      </c>
+      <c r="G51">
+        <f>E51+3</f>
+        <v>171</v>
+      </c>
+      <c r="H51" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51">
+        <v>8</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51" t="b">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52">
+        <f>D55</f>
         <v>190</v>
       </c>
-      <c r="E33">
+      <c r="E52">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="F33">
+        <v>168</v>
+      </c>
+      <c r="F52">
+        <f>D52+18</f>
+        <v>208</v>
+      </c>
+      <c r="G52">
+        <f>E52+3</f>
+        <v>171</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52" t="b">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53">
+        <f>F49+1</f>
+        <v>154</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F53">
+        <f>F49+1</f>
+        <v>154</v>
+      </c>
+      <c r="G53">
+        <f>G91+3</f>
+        <v>253</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53">
+        <v>4</v>
+      </c>
+      <c r="R53" t="b">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <f>D53+18</f>
+        <v>172</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:F55" si="1">D54</f>
+        <v>172</v>
+      </c>
+      <c r="G54">
+        <f>G53</f>
+        <v>253</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54">
+        <v>4</v>
+      </c>
+      <c r="R54" t="b">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <f>D54+18</f>
+        <v>190</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F55">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="G33">
-        <f>G32</f>
-        <v>245</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="G55">
+        <f>G54</f>
+        <v>253</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>118</v>
       </c>
-      <c r="O33" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33">
+      <c r="O55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55">
         <v>4</v>
       </c>
-      <c r="R33" t="b">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="R55" t="b">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>127</v>
       </c>
-      <c r="B34">
+      <c r="B56">
         <v>3</v>
       </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34">
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56">
+        <f>D47</f>
         <v>105</v>
       </c>
-      <c r="E34">
-        <f>E27+10</f>
-        <v>170</v>
-      </c>
-      <c r="F34">
-        <f>F25</f>
+      <c r="E56">
+        <f>E49+10</f>
+        <v>178</v>
+      </c>
+      <c r="F56">
+        <f>F47</f>
         <v>208</v>
       </c>
-      <c r="G34">
-        <f>E34</f>
-        <v>170</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="N34" t="s">
+      <c r="G56">
+        <f>E56</f>
+        <v>178</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>118</v>
       </c>
-      <c r="O34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34">
+      <c r="O56" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q56">
         <v>4</v>
       </c>
-      <c r="R34" t="b">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="R56" t="b">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>134</v>
       </c>
-      <c r="B35">
+      <c r="B57">
         <v>3</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C57" t="s">
         <v>19</v>
       </c>
-      <c r="D35">
-        <f>D25+1</f>
+      <c r="D57">
+        <f>D47+1</f>
         <v>106</v>
       </c>
-      <c r="E35">
-        <f>E34+2</f>
-        <v>172</v>
-      </c>
-      <c r="F35">
-        <f>D35+36</f>
+      <c r="E57">
+        <f>E56+2</f>
+        <v>180</v>
+      </c>
+      <c r="F57">
+        <f>D57+36</f>
         <v>142</v>
       </c>
-      <c r="G35">
-        <f>E35+4</f>
-        <v>176</v>
-      </c>
-      <c r="H35" t="s">
+      <c r="G57">
+        <f>E57+4</f>
+        <v>184</v>
+      </c>
+      <c r="H57" t="s">
         <v>20</v>
       </c>
-      <c r="I35">
+      <c r="I57">
         <v>8</v>
       </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>118</v>
       </c>
-      <c r="O35" t="s">
-        <v>27</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="O57" t="s">
+        <v>27</v>
+      </c>
+      <c r="P57" t="s">
         <v>111</v>
       </c>
-      <c r="Q35">
+      <c r="Q57">
         <v>3</v>
       </c>
-      <c r="R35" t="b">
+      <c r="R57" t="b">
         <v>1</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="S57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>135</v>
       </c>
-      <c r="B36">
+      <c r="B58">
         <v>3</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C58" t="s">
         <v>19</v>
       </c>
-      <c r="D36">
-        <f>D27+6</f>
+      <c r="D58">
+        <f>D49+6</f>
         <v>141</v>
       </c>
-      <c r="E36">
-        <f>E35+1</f>
-        <v>173</v>
-      </c>
-      <c r="F36">
-        <f>D36+4</f>
+      <c r="E58">
+        <f>E57+1</f>
+        <v>181</v>
+      </c>
+      <c r="F58">
+        <f>D58+4</f>
         <v>145</v>
       </c>
-      <c r="G36">
-        <f>E36+3</f>
-        <v>176</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="G58">
+        <f>E58+3</f>
+        <v>184</v>
+      </c>
+      <c r="H58" t="s">
         <v>20</v>
       </c>
-      <c r="I36">
+      <c r="I58">
         <v>15</v>
       </c>
-      <c r="J36">
+      <c r="J58">
         <v>1</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>118</v>
       </c>
-      <c r="O36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36">
+      <c r="O58" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q58">
         <v>2</v>
       </c>
-      <c r="R36" t="b">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="R58" t="b">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>136</v>
       </c>
-      <c r="B37">
+      <c r="B59">
         <v>3</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C59" t="s">
         <v>19</v>
       </c>
-      <c r="D37">
-        <f>D36+18</f>
+      <c r="D59">
+        <f>D58+18</f>
         <v>159</v>
       </c>
-      <c r="E37">
-        <f>E36</f>
-        <v>173</v>
-      </c>
-      <c r="F37">
-        <f>D37+4</f>
+      <c r="E59">
+        <f>E58</f>
+        <v>181</v>
+      </c>
+      <c r="F59">
+        <f>D59+4</f>
         <v>163</v>
       </c>
-      <c r="G37">
-        <f>E37+3</f>
-        <v>176</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G59">
+        <f>E59+3</f>
+        <v>184</v>
+      </c>
+      <c r="H59" t="s">
         <v>20</v>
       </c>
-      <c r="I37">
+      <c r="I59">
         <v>15</v>
       </c>
-      <c r="J37">
+      <c r="J59">
         <v>1</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>118</v>
       </c>
-      <c r="O37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37">
+      <c r="O59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59">
         <v>2</v>
       </c>
-      <c r="R37" t="b">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="R59" t="b">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>137</v>
       </c>
-      <c r="B38">
+      <c r="B60">
         <v>3</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C60" t="s">
         <v>19</v>
       </c>
-      <c r="D38">
-        <f>D37+18</f>
+      <c r="D60">
+        <f>D59+18</f>
         <v>177</v>
       </c>
-      <c r="E38">
-        <f>E37</f>
-        <v>173</v>
-      </c>
-      <c r="F38">
-        <f>D38+4</f>
+      <c r="E60">
+        <f>E59</f>
         <v>181</v>
       </c>
-      <c r="G38">
-        <f>E38+3</f>
-        <v>176</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="F60">
+        <f>D60+4</f>
+        <v>181</v>
+      </c>
+      <c r="G60">
+        <f>E60+3</f>
+        <v>184</v>
+      </c>
+      <c r="H60" t="s">
         <v>20</v>
       </c>
-      <c r="I38">
+      <c r="I60">
         <v>15</v>
       </c>
-      <c r="J38">
+      <c r="J60">
         <v>1</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>118</v>
       </c>
-      <c r="O38" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38">
+      <c r="O60" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q60">
         <v>2</v>
       </c>
-      <c r="R38" t="b">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="R60" t="b">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>138</v>
       </c>
-      <c r="B39">
+      <c r="B61">
         <v>3</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C61" t="s">
         <v>19</v>
       </c>
-      <c r="D39">
-        <f>D38+18</f>
+      <c r="D61">
+        <f>D60+18</f>
         <v>195</v>
       </c>
-      <c r="E39">
-        <f>E38</f>
-        <v>173</v>
-      </c>
-      <c r="F39">
-        <f>D39+4</f>
+      <c r="E61">
+        <f>E60</f>
+        <v>181</v>
+      </c>
+      <c r="F61">
+        <f>D61+4</f>
         <v>199</v>
       </c>
-      <c r="G39">
-        <f>E39+3</f>
-        <v>176</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="G61">
+        <f>E61+3</f>
+        <v>184</v>
+      </c>
+      <c r="H61" t="s">
         <v>20</v>
       </c>
-      <c r="I39">
+      <c r="I61">
         <v>15</v>
       </c>
-      <c r="J39">
+      <c r="J61">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>118</v>
       </c>
-      <c r="O39" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39">
+      <c r="O61" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q61">
         <v>2</v>
       </c>
-      <c r="R39" t="b">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="R61" t="b">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>139</v>
       </c>
-      <c r="B40">
+      <c r="B62">
         <v>3</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C62" t="s">
         <v>19</v>
       </c>
-      <c r="D40">
-        <f t="shared" ref="D40:D69" si="2">D35</f>
+      <c r="D62">
+        <f t="shared" ref="D62:D91" si="2">D57</f>
         <v>106</v>
       </c>
-      <c r="E40">
-        <f>E35+11</f>
-        <v>183</v>
-      </c>
-      <c r="F40">
-        <f>F35</f>
+      <c r="E62">
+        <f>E57+11</f>
+        <v>191</v>
+      </c>
+      <c r="F62">
+        <f>F57</f>
         <v>142</v>
       </c>
-      <c r="G40">
-        <f>E40+4</f>
-        <v>187</v>
-      </c>
-      <c r="H40" t="s">
+      <c r="G62">
+        <f>E62+4</f>
+        <v>195</v>
+      </c>
+      <c r="H62" t="s">
         <v>20</v>
       </c>
-      <c r="I40">
+      <c r="I62">
         <v>8</v>
       </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="N40" t="s">
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>118</v>
       </c>
-      <c r="O40" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="O62" t="s">
+        <v>27</v>
+      </c>
+      <c r="P62" t="s">
         <v>112</v>
       </c>
-      <c r="Q40">
+      <c r="Q62">
         <v>3</v>
       </c>
-      <c r="R40" t="b">
+      <c r="R62" t="b">
         <v>1</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="S62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>140</v>
       </c>
-      <c r="B41">
+      <c r="B63">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C63" t="s">
         <v>19</v>
       </c>
-      <c r="D41">
+      <c r="D63">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E41">
-        <f>E40+1</f>
-        <v>184</v>
-      </c>
-      <c r="F41">
-        <f>D41+4</f>
+      <c r="E63">
+        <f>E62+1</f>
+        <v>192</v>
+      </c>
+      <c r="F63">
+        <f>D63+4</f>
         <v>145</v>
       </c>
-      <c r="G41">
-        <f>E41+3</f>
-        <v>187</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="G63">
+        <f>E63+3</f>
+        <v>195</v>
+      </c>
+      <c r="H63" t="s">
         <v>20</v>
       </c>
-      <c r="I41">
+      <c r="I63">
         <v>15</v>
       </c>
-      <c r="J41">
+      <c r="J63">
         <v>1</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>118</v>
       </c>
-      <c r="O41" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41">
+      <c r="O63" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q63">
         <v>2</v>
       </c>
-      <c r="R41" t="b">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="R63" t="b">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>141</v>
       </c>
-      <c r="B42">
+      <c r="B64">
         <v>3</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C64" t="s">
         <v>19</v>
       </c>
-      <c r="D42">
+      <c r="D64">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="E42">
-        <f>E41</f>
-        <v>184</v>
-      </c>
-      <c r="F42">
-        <f>D42+4</f>
+      <c r="E64">
+        <f>E63</f>
+        <v>192</v>
+      </c>
+      <c r="F64">
+        <f>D64+4</f>
         <v>163</v>
       </c>
-      <c r="G42">
-        <f>E42+3</f>
-        <v>187</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="G64">
+        <f>E64+3</f>
+        <v>195</v>
+      </c>
+      <c r="H64" t="s">
         <v>20</v>
       </c>
-      <c r="I42">
+      <c r="I64">
         <v>15</v>
       </c>
-      <c r="J42">
+      <c r="J64">
         <v>1</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>118</v>
       </c>
-      <c r="O42" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q42">
+      <c r="O64" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q64">
         <v>2</v>
       </c>
-      <c r="R42" t="b">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="R64" t="b">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>142</v>
       </c>
-      <c r="B43">
+      <c r="B65">
         <v>3</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C65" t="s">
         <v>19</v>
       </c>
-      <c r="D43">
+      <c r="D65">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="E43">
-        <f>E42</f>
-        <v>184</v>
-      </c>
-      <c r="F43">
-        <f>D43+4</f>
+      <c r="E65">
+        <f>E64</f>
+        <v>192</v>
+      </c>
+      <c r="F65">
+        <f>D65+4</f>
         <v>181</v>
       </c>
-      <c r="G43">
-        <f>E43+3</f>
-        <v>187</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="G65">
+        <f>E65+3</f>
+        <v>195</v>
+      </c>
+      <c r="H65" t="s">
         <v>20</v>
       </c>
-      <c r="I43">
+      <c r="I65">
         <v>15</v>
       </c>
-      <c r="J43">
+      <c r="J65">
         <v>1</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>118</v>
       </c>
-      <c r="O43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q43">
+      <c r="O65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65">
         <v>2</v>
       </c>
-      <c r="R43" t="b">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="R65" t="b">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>143</v>
       </c>
-      <c r="B44">
+      <c r="B66">
         <v>3</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="D44">
+      <c r="D66">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E44">
-        <f>E43</f>
-        <v>184</v>
-      </c>
-      <c r="F44">
-        <f>D44+4</f>
+      <c r="E66">
+        <f>E65</f>
+        <v>192</v>
+      </c>
+      <c r="F66">
+        <f>D66+4</f>
         <v>199</v>
       </c>
-      <c r="G44">
-        <f>E44+3</f>
-        <v>187</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="G66">
+        <f>E66+3</f>
+        <v>195</v>
+      </c>
+      <c r="H66" t="s">
         <v>20</v>
       </c>
-      <c r="I44">
+      <c r="I66">
         <v>15</v>
       </c>
-      <c r="J44">
+      <c r="J66">
         <v>1</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>118</v>
       </c>
-      <c r="O44" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q44">
+      <c r="O66" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66">
         <v>2</v>
       </c>
-      <c r="R44" t="b">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="R66" t="b">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>144</v>
       </c>
-      <c r="B45">
+      <c r="B67">
         <v>3</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C67" t="s">
         <v>19</v>
       </c>
-      <c r="D45">
+      <c r="D67">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="E45">
-        <f>E40+11</f>
-        <v>194</v>
-      </c>
-      <c r="F45">
-        <f>F40</f>
+      <c r="E67">
+        <f>E62+11</f>
+        <v>202</v>
+      </c>
+      <c r="F67">
+        <f>F62</f>
         <v>142</v>
       </c>
-      <c r="G45">
-        <f>E45+4</f>
-        <v>198</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="G67">
+        <f>E67+4</f>
+        <v>206</v>
+      </c>
+      <c r="H67" t="s">
         <v>20</v>
       </c>
-      <c r="I45">
+      <c r="I67">
         <v>8</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>118</v>
       </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="O67" t="s">
+        <v>27</v>
+      </c>
+      <c r="P67" t="s">
         <v>113</v>
       </c>
-      <c r="Q45">
+      <c r="Q67">
         <v>3</v>
       </c>
-      <c r="R45" t="b">
+      <c r="R67" t="b">
         <v>1</v>
       </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>145</v>
       </c>
-      <c r="B46">
+      <c r="B68">
         <v>3</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C68" t="s">
         <v>19</v>
       </c>
-      <c r="D46">
+      <c r="D68">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E46">
-        <f>E45+1</f>
-        <v>195</v>
-      </c>
-      <c r="F46">
-        <f>D46+4</f>
+      <c r="E68">
+        <f>E67+1</f>
+        <v>203</v>
+      </c>
+      <c r="F68">
+        <f>D68+4</f>
         <v>145</v>
       </c>
-      <c r="G46">
-        <f>E46+3</f>
-        <v>198</v>
-      </c>
-      <c r="H46" t="s">
+      <c r="G68">
+        <f>E68+3</f>
+        <v>206</v>
+      </c>
+      <c r="H68" t="s">
         <v>20</v>
       </c>
-      <c r="I46">
+      <c r="I68">
         <v>15</v>
       </c>
-      <c r="J46">
+      <c r="J68">
         <v>1</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>118</v>
       </c>
-      <c r="O46" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46">
+      <c r="O68" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68">
         <v>2</v>
       </c>
-      <c r="R46" t="b">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="R68" t="b">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>146</v>
       </c>
-      <c r="B47">
+      <c r="B69">
         <v>3</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D47">
+      <c r="D69">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="E47">
-        <f>E46</f>
-        <v>195</v>
-      </c>
-      <c r="F47">
-        <f>D47+4</f>
+      <c r="E69">
+        <f>E68</f>
+        <v>203</v>
+      </c>
+      <c r="F69">
+        <f>D69+4</f>
         <v>163</v>
       </c>
-      <c r="G47">
-        <f>E47+3</f>
-        <v>198</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G69">
+        <f>E69+3</f>
+        <v>206</v>
+      </c>
+      <c r="H69" t="s">
         <v>20</v>
       </c>
-      <c r="I47">
+      <c r="I69">
         <v>15</v>
       </c>
-      <c r="J47">
+      <c r="J69">
         <v>1</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>118</v>
       </c>
-      <c r="O47" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q47">
+      <c r="O69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69">
         <v>2</v>
       </c>
-      <c r="R47" t="b">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="R69" t="b">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>147</v>
       </c>
-      <c r="B48">
+      <c r="B70">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D48">
+      <c r="D70">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="E48">
-        <f>E47</f>
-        <v>195</v>
-      </c>
-      <c r="F48">
-        <f>D48+4</f>
+      <c r="E70">
+        <f>E69</f>
+        <v>203</v>
+      </c>
+      <c r="F70">
+        <f>D70+4</f>
         <v>181</v>
       </c>
-      <c r="G48">
-        <f>E48+3</f>
-        <v>198</v>
-      </c>
-      <c r="H48" t="s">
+      <c r="G70">
+        <f>E70+3</f>
+        <v>206</v>
+      </c>
+      <c r="H70" t="s">
         <v>20</v>
       </c>
-      <c r="I48">
+      <c r="I70">
         <v>15</v>
       </c>
-      <c r="J48">
+      <c r="J70">
         <v>1</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="N48" t="s">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>118</v>
       </c>
-      <c r="O48" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q48">
+      <c r="O70" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70">
         <v>2</v>
       </c>
-      <c r="R48" t="b">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="R70" t="b">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>148</v>
       </c>
-      <c r="B49">
+      <c r="B71">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C71" t="s">
         <v>19</v>
       </c>
-      <c r="D49">
+      <c r="D71">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E49">
-        <f>E48</f>
-        <v>195</v>
-      </c>
-      <c r="F49">
-        <f>D49+4</f>
+      <c r="E71">
+        <f>E70</f>
+        <v>203</v>
+      </c>
+      <c r="F71">
+        <f>D71+4</f>
         <v>199</v>
       </c>
-      <c r="G49">
-        <f>E49+3</f>
-        <v>198</v>
-      </c>
-      <c r="H49" t="s">
+      <c r="G71">
+        <f>E71+3</f>
+        <v>206</v>
+      </c>
+      <c r="H71" t="s">
         <v>20</v>
       </c>
-      <c r="I49">
+      <c r="I71">
         <v>15</v>
       </c>
-      <c r="J49">
+      <c r="J71">
         <v>1</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="N49" t="s">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>118</v>
       </c>
-      <c r="O49" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q49">
+      <c r="O71" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71">
         <v>2</v>
       </c>
-      <c r="R49" t="b">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="R71" t="b">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>149</v>
       </c>
-      <c r="B50">
+      <c r="B72">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C72" t="s">
         <v>19</v>
       </c>
-      <c r="D50">
+      <c r="D72">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="E50">
-        <f>E45+11</f>
-        <v>205</v>
-      </c>
-      <c r="F50">
-        <f>F45</f>
+      <c r="E72">
+        <f>E67+11</f>
+        <v>213</v>
+      </c>
+      <c r="F72">
+        <f>F67</f>
         <v>142</v>
       </c>
-      <c r="G50">
-        <f>E50+4</f>
-        <v>209</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G72">
+        <f>E72+4</f>
+        <v>217</v>
+      </c>
+      <c r="H72" t="s">
         <v>20</v>
       </c>
-      <c r="I50">
+      <c r="I72">
         <v>8</v>
       </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="N50" t="s">
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>118</v>
       </c>
-      <c r="O50" t="s">
-        <v>27</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="O72" t="s">
+        <v>27</v>
+      </c>
+      <c r="P72" t="s">
         <v>114</v>
       </c>
-      <c r="Q50">
+      <c r="Q72">
         <v>3</v>
       </c>
-      <c r="R50" t="b">
+      <c r="R72" t="b">
         <v>1</v>
       </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="S72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>150</v>
       </c>
-      <c r="B51">
+      <c r="B73">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C73" t="s">
         <v>19</v>
       </c>
-      <c r="D51">
+      <c r="D73">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E51">
-        <f>E50+1</f>
-        <v>206</v>
-      </c>
-      <c r="F51">
-        <f>D51+4</f>
+      <c r="E73">
+        <f>E72+1</f>
+        <v>214</v>
+      </c>
+      <c r="F73">
+        <f>D73+4</f>
         <v>145</v>
       </c>
-      <c r="G51">
-        <f>E51+3</f>
-        <v>209</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="G73">
+        <f>E73+3</f>
+        <v>217</v>
+      </c>
+      <c r="H73" t="s">
         <v>20</v>
       </c>
-      <c r="I51">
+      <c r="I73">
         <v>15</v>
       </c>
-      <c r="J51">
+      <c r="J73">
         <v>1</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="N51" t="s">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>118</v>
       </c>
-      <c r="O51" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q51">
+      <c r="O73" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q73">
         <v>2</v>
       </c>
-      <c r="R51" t="b">
-        <v>0</v>
-      </c>
-      <c r="S51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="R73" t="b">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>151</v>
       </c>
-      <c r="B52">
+      <c r="B74">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C74" t="s">
         <v>19</v>
       </c>
-      <c r="D52">
+      <c r="D74">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="E52">
-        <f>E51</f>
-        <v>206</v>
-      </c>
-      <c r="F52">
-        <f>D52+4</f>
+      <c r="E74">
+        <f>E73</f>
+        <v>214</v>
+      </c>
+      <c r="F74">
+        <f>D74+4</f>
         <v>163</v>
       </c>
-      <c r="G52">
-        <f>E52+3</f>
-        <v>209</v>
-      </c>
-      <c r="H52" t="s">
+      <c r="G74">
+        <f>E74+3</f>
+        <v>217</v>
+      </c>
+      <c r="H74" t="s">
         <v>20</v>
       </c>
-      <c r="I52">
+      <c r="I74">
         <v>15</v>
       </c>
-      <c r="J52">
+      <c r="J74">
         <v>1</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="N52" t="s">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>118</v>
       </c>
-      <c r="O52" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q52">
+      <c r="O74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74">
         <v>2</v>
       </c>
-      <c r="R52" t="b">
-        <v>0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="R74" t="b">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>152</v>
       </c>
-      <c r="B53">
+      <c r="B75">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C75" t="s">
         <v>19</v>
       </c>
-      <c r="D53">
+      <c r="D75">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="E53">
-        <f>E52</f>
-        <v>206</v>
-      </c>
-      <c r="F53">
-        <f>D53+4</f>
+      <c r="E75">
+        <f>E74</f>
+        <v>214</v>
+      </c>
+      <c r="F75">
+        <f>D75+4</f>
         <v>181</v>
       </c>
-      <c r="G53">
-        <f>E53+3</f>
-        <v>209</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="G75">
+        <f>E75+3</f>
+        <v>217</v>
+      </c>
+      <c r="H75" t="s">
         <v>20</v>
       </c>
-      <c r="I53">
+      <c r="I75">
         <v>15</v>
       </c>
-      <c r="J53">
+      <c r="J75">
         <v>1</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>118</v>
       </c>
-      <c r="O53" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q53">
+      <c r="O75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q75">
         <v>2</v>
       </c>
-      <c r="R53" t="b">
-        <v>0</v>
-      </c>
-      <c r="S53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="R75" t="b">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>153</v>
       </c>
-      <c r="B54">
+      <c r="B76">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C76" t="s">
         <v>19</v>
       </c>
-      <c r="D54">
+      <c r="D76">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E54">
-        <f>E53</f>
-        <v>206</v>
-      </c>
-      <c r="F54">
-        <f>D54+4</f>
+      <c r="E76">
+        <f>E75</f>
+        <v>214</v>
+      </c>
+      <c r="F76">
+        <f>D76+4</f>
         <v>199</v>
       </c>
-      <c r="G54">
-        <f>E54+3</f>
-        <v>209</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="G76">
+        <f>E76+3</f>
+        <v>217</v>
+      </c>
+      <c r="H76" t="s">
         <v>20</v>
       </c>
-      <c r="I54">
+      <c r="I76">
         <v>15</v>
       </c>
-      <c r="J54">
+      <c r="J76">
         <v>1</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>118</v>
       </c>
-      <c r="O54" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q54">
+      <c r="O76" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q76">
         <v>2</v>
       </c>
-      <c r="R54" t="b">
-        <v>0</v>
-      </c>
-      <c r="S54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="R76" t="b">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B55">
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C77" t="s">
         <v>19</v>
       </c>
-      <c r="D55">
+      <c r="D77">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="E55">
-        <f>E50+11</f>
-        <v>216</v>
-      </c>
-      <c r="F55">
-        <f>F50</f>
+      <c r="E77">
+        <f>E72+11</f>
+        <v>224</v>
+      </c>
+      <c r="F77">
+        <f>F72</f>
         <v>142</v>
       </c>
-      <c r="G55">
-        <f>E55+4</f>
-        <v>220</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="G77">
+        <f>E77+4</f>
+        <v>228</v>
+      </c>
+      <c r="H77" t="s">
         <v>20</v>
       </c>
-      <c r="I55">
+      <c r="I77">
         <v>8</v>
       </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>118</v>
       </c>
-      <c r="O55" t="s">
-        <v>27</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="O77" t="s">
+        <v>27</v>
+      </c>
+      <c r="P77" t="s">
         <v>115</v>
       </c>
-      <c r="Q55">
+      <c r="Q77">
         <v>3</v>
       </c>
-      <c r="R55" t="b">
+      <c r="R77" t="b">
         <v>1</v>
       </c>
-      <c r="S55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="S77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>155</v>
       </c>
-      <c r="B56">
+      <c r="B78">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C78" t="s">
         <v>19</v>
       </c>
-      <c r="D56">
+      <c r="D78">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E56">
-        <f>E55+1</f>
-        <v>217</v>
-      </c>
-      <c r="F56">
-        <f>D56+4</f>
+      <c r="E78">
+        <f>E77+1</f>
+        <v>225</v>
+      </c>
+      <c r="F78">
+        <f>D78+4</f>
         <v>145</v>
       </c>
-      <c r="G56">
-        <f>E56+3</f>
-        <v>220</v>
-      </c>
-      <c r="H56" t="s">
+      <c r="G78">
+        <f>E78+3</f>
+        <v>228</v>
+      </c>
+      <c r="H78" t="s">
         <v>20</v>
       </c>
-      <c r="I56">
+      <c r="I78">
         <v>15</v>
       </c>
-      <c r="J56">
+      <c r="J78">
         <v>1</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>118</v>
       </c>
-      <c r="O56" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q56">
+      <c r="O78" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q78">
         <v>2</v>
       </c>
-      <c r="R56" t="b">
-        <v>0</v>
-      </c>
-      <c r="S56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="R78" t="b">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>156</v>
       </c>
-      <c r="B57">
+      <c r="B79">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C79" t="s">
         <v>19</v>
       </c>
-      <c r="D57">
+      <c r="D79">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="E57">
-        <f>E56</f>
-        <v>217</v>
-      </c>
-      <c r="F57">
-        <f>D57+4</f>
+      <c r="E79">
+        <f>E78</f>
+        <v>225</v>
+      </c>
+      <c r="F79">
+        <f>D79+4</f>
         <v>163</v>
       </c>
-      <c r="G57">
-        <f>E57+3</f>
-        <v>220</v>
-      </c>
-      <c r="H57" t="s">
+      <c r="G79">
+        <f>E79+3</f>
+        <v>228</v>
+      </c>
+      <c r="H79" t="s">
         <v>20</v>
       </c>
-      <c r="I57">
+      <c r="I79">
         <v>15</v>
       </c>
-      <c r="J57">
+      <c r="J79">
         <v>1</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>118</v>
       </c>
-      <c r="O57" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q57">
+      <c r="O79" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q79">
         <v>2</v>
       </c>
-      <c r="R57" t="b">
-        <v>0</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="R79" t="b">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>157</v>
       </c>
-      <c r="B58">
+      <c r="B80">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C80" t="s">
         <v>19</v>
       </c>
-      <c r="D58">
+      <c r="D80">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="E58">
-        <f>E57</f>
-        <v>217</v>
-      </c>
-      <c r="F58">
-        <f>D58+4</f>
+      <c r="E80">
+        <f>E79</f>
+        <v>225</v>
+      </c>
+      <c r="F80">
+        <f>D80+4</f>
         <v>181</v>
       </c>
-      <c r="G58">
-        <f>E58+3</f>
-        <v>220</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="G80">
+        <f>E80+3</f>
+        <v>228</v>
+      </c>
+      <c r="H80" t="s">
         <v>20</v>
       </c>
-      <c r="I58">
+      <c r="I80">
         <v>15</v>
       </c>
-      <c r="J58">
+      <c r="J80">
         <v>1</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="N58" t="s">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>118</v>
       </c>
-      <c r="O58" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q58">
+      <c r="O80" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q80">
         <v>2</v>
       </c>
-      <c r="R58" t="b">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="R80" t="b">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>158</v>
       </c>
-      <c r="B59">
+      <c r="B81">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C81" t="s">
         <v>19</v>
       </c>
-      <c r="D59">
+      <c r="D81">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E59">
-        <f>E58</f>
-        <v>217</v>
-      </c>
-      <c r="F59">
-        <f>D59+4</f>
+      <c r="E81">
+        <f>E80</f>
+        <v>225</v>
+      </c>
+      <c r="F81">
+        <f>D81+4</f>
         <v>199</v>
       </c>
-      <c r="G59">
-        <f>E59+3</f>
-        <v>220</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="G81">
+        <f>E81+3</f>
+        <v>228</v>
+      </c>
+      <c r="H81" t="s">
         <v>20</v>
       </c>
-      <c r="I59">
+      <c r="I81">
         <v>15</v>
       </c>
-      <c r="J59">
+      <c r="J81">
         <v>1</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="N59" t="s">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>118</v>
       </c>
-      <c r="O59" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q59">
+      <c r="O81" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q81">
         <v>2</v>
       </c>
-      <c r="R59" t="b">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="R81" t="b">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>159</v>
       </c>
-      <c r="B60">
+      <c r="B82">
         <v>3</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C82" t="s">
         <v>19</v>
       </c>
-      <c r="D60">
+      <c r="D82">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="E60">
-        <f>E55+11</f>
-        <v>227</v>
-      </c>
-      <c r="F60">
-        <f>F55</f>
+      <c r="E82">
+        <f>E77+11</f>
+        <v>235</v>
+      </c>
+      <c r="F82">
+        <f>F77</f>
         <v>142</v>
       </c>
-      <c r="G60">
-        <f>E60+4</f>
-        <v>231</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="G82">
+        <f>E82+4</f>
+        <v>239</v>
+      </c>
+      <c r="H82" t="s">
         <v>20</v>
       </c>
-      <c r="I60">
+      <c r="I82">
         <v>8</v>
       </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="N60" t="s">
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>118</v>
       </c>
-      <c r="O60" t="s">
-        <v>27</v>
-      </c>
-      <c r="P60" t="s">
+      <c r="O82" t="s">
+        <v>27</v>
+      </c>
+      <c r="P82" t="s">
         <v>116</v>
       </c>
-      <c r="Q60">
+      <c r="Q82">
         <v>3</v>
       </c>
-      <c r="R60" t="b">
+      <c r="R82" t="b">
         <v>1</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="S82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>160</v>
       </c>
-      <c r="B61">
+      <c r="B83">
         <v>3</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C83" t="s">
         <v>19</v>
       </c>
-      <c r="D61">
+      <c r="D83">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E61">
-        <f>E60+1</f>
-        <v>228</v>
-      </c>
-      <c r="F61">
-        <f>D61+4</f>
+      <c r="E83">
+        <f>E82+1</f>
+        <v>236</v>
+      </c>
+      <c r="F83">
+        <f>D83+4</f>
         <v>145</v>
       </c>
-      <c r="G61">
-        <f>E61+3</f>
-        <v>231</v>
-      </c>
-      <c r="H61" t="s">
+      <c r="G83">
+        <f>E83+3</f>
+        <v>239</v>
+      </c>
+      <c r="H83" t="s">
         <v>20</v>
       </c>
-      <c r="I61">
+      <c r="I83">
         <v>15</v>
       </c>
-      <c r="J61">
+      <c r="J83">
         <v>1</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="N61" t="s">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
         <v>118</v>
       </c>
-      <c r="O61" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q61">
+      <c r="O83" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q83">
         <v>2</v>
       </c>
-      <c r="R61" t="b">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="R83" t="b">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>161</v>
       </c>
-      <c r="B62">
+      <c r="B84">
         <v>3</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C84" t="s">
         <v>19</v>
       </c>
-      <c r="D62">
+      <c r="D84">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="E62">
-        <f>E61</f>
-        <v>228</v>
-      </c>
-      <c r="F62">
-        <f>D62+4</f>
+      <c r="E84">
+        <f>E83</f>
+        <v>236</v>
+      </c>
+      <c r="F84">
+        <f>D84+4</f>
         <v>163</v>
       </c>
-      <c r="G62">
-        <f>E62+3</f>
-        <v>231</v>
-      </c>
-      <c r="H62" t="s">
+      <c r="G84">
+        <f>E84+3</f>
+        <v>239</v>
+      </c>
+      <c r="H84" t="s">
         <v>20</v>
       </c>
-      <c r="I62">
+      <c r="I84">
         <v>15</v>
       </c>
-      <c r="J62">
+      <c r="J84">
         <v>1</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>118</v>
       </c>
-      <c r="O62" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q62">
+      <c r="O84" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q84">
         <v>2</v>
       </c>
-      <c r="R62" t="b">
-        <v>0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="R84" t="b">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>162</v>
       </c>
-      <c r="B63">
+      <c r="B85">
         <v>3</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C85" t="s">
         <v>19</v>
       </c>
-      <c r="D63">
+      <c r="D85">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="E63">
-        <f>E62</f>
-        <v>228</v>
-      </c>
-      <c r="F63">
-        <f>D63+4</f>
+      <c r="E85">
+        <f>E84</f>
+        <v>236</v>
+      </c>
+      <c r="F85">
+        <f>D85+4</f>
         <v>181</v>
       </c>
-      <c r="G63">
-        <f>E63+3</f>
-        <v>231</v>
-      </c>
-      <c r="H63" t="s">
+      <c r="G85">
+        <f>E85+3</f>
+        <v>239</v>
+      </c>
+      <c r="H85" t="s">
         <v>20</v>
       </c>
-      <c r="I63">
+      <c r="I85">
         <v>15</v>
       </c>
-      <c r="J63">
+      <c r="J85">
         <v>1</v>
       </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="N63" t="s">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>118</v>
       </c>
-      <c r="O63" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q63">
+      <c r="O85" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q85">
         <v>2</v>
       </c>
-      <c r="R63" t="b">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="R85" t="b">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>163</v>
       </c>
-      <c r="B64">
+      <c r="B86">
         <v>3</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C86" t="s">
         <v>19</v>
       </c>
-      <c r="D64">
+      <c r="D86">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E64">
-        <f>E63</f>
-        <v>228</v>
-      </c>
-      <c r="F64">
-        <f>D64+4</f>
+      <c r="E86">
+        <f>E85</f>
+        <v>236</v>
+      </c>
+      <c r="F86">
+        <f>D86+4</f>
         <v>199</v>
       </c>
-      <c r="G64">
-        <f>E64+3</f>
-        <v>231</v>
-      </c>
-      <c r="H64" t="s">
+      <c r="G86">
+        <f>E86+3</f>
+        <v>239</v>
+      </c>
+      <c r="H86" t="s">
         <v>20</v>
       </c>
-      <c r="I64">
+      <c r="I86">
         <v>15</v>
       </c>
-      <c r="J64">
+      <c r="J86">
         <v>1</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>118</v>
       </c>
-      <c r="O64" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q64">
+      <c r="O86" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q86">
         <v>2</v>
       </c>
-      <c r="R64" t="b">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="R86" t="b">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>164</v>
       </c>
-      <c r="B65">
+      <c r="B87">
         <v>3</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="D65">
+      <c r="D87">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="E65">
-        <f>E60+11</f>
-        <v>238</v>
-      </c>
-      <c r="F65">
-        <f>F60</f>
+      <c r="E87">
+        <f>E82+11</f>
+        <v>246</v>
+      </c>
+      <c r="F87">
+        <f>F82</f>
         <v>142</v>
       </c>
-      <c r="G65">
-        <f>E65+4</f>
-        <v>242</v>
-      </c>
-      <c r="H65" t="s">
+      <c r="G87">
+        <f>E87+4</f>
+        <v>250</v>
+      </c>
+      <c r="H87" t="s">
         <v>20</v>
       </c>
-      <c r="I65">
+      <c r="I87">
         <v>8</v>
       </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
         <v>118</v>
       </c>
-      <c r="O65" t="s">
-        <v>27</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="O87" t="s">
+        <v>27</v>
+      </c>
+      <c r="P87" t="s">
         <v>117</v>
       </c>
-      <c r="Q65">
+      <c r="Q87">
         <v>3</v>
       </c>
-      <c r="R65" t="b">
+      <c r="R87" t="b">
         <v>1</v>
       </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="S87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>165</v>
       </c>
-      <c r="B66">
+      <c r="B88">
         <v>3</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C88" t="s">
         <v>19</v>
       </c>
-      <c r="D66">
+      <c r="D88">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-      <c r="E66">
-        <f>E65+1</f>
-        <v>239</v>
-      </c>
-      <c r="F66">
-        <f>D66+4</f>
+      <c r="E88">
+        <f>E87+1</f>
+        <v>247</v>
+      </c>
+      <c r="F88">
+        <f>D88+4</f>
         <v>145</v>
       </c>
-      <c r="G66">
-        <f>E66+3</f>
-        <v>242</v>
-      </c>
-      <c r="H66" t="s">
+      <c r="G88">
+        <f>E88+3</f>
+        <v>250</v>
+      </c>
+      <c r="H88" t="s">
         <v>20</v>
       </c>
-      <c r="I66">
+      <c r="I88">
         <v>15</v>
       </c>
-      <c r="J66">
+      <c r="J88">
         <v>1</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="N66" t="s">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>118</v>
       </c>
-      <c r="O66" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q66">
+      <c r="O88" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q88">
         <v>2</v>
       </c>
-      <c r="R66" t="b">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="R88" t="b">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>166</v>
       </c>
-      <c r="B67">
+      <c r="B89">
         <v>3</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C89" t="s">
         <v>19</v>
       </c>
-      <c r="D67">
+      <c r="D89">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
-      <c r="E67">
-        <f>E66</f>
-        <v>239</v>
-      </c>
-      <c r="F67">
-        <f>D67+4</f>
+      <c r="E89">
+        <f>E88</f>
+        <v>247</v>
+      </c>
+      <c r="F89">
+        <f>D89+4</f>
         <v>163</v>
       </c>
-      <c r="G67">
-        <f>E67+3</f>
-        <v>242</v>
-      </c>
-      <c r="H67" t="s">
+      <c r="G89">
+        <f>E89+3</f>
+        <v>250</v>
+      </c>
+      <c r="H89" t="s">
         <v>20</v>
       </c>
-      <c r="I67">
+      <c r="I89">
         <v>15</v>
       </c>
-      <c r="J67">
+      <c r="J89">
         <v>1</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>118</v>
       </c>
-      <c r="O67" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q67">
+      <c r="O89" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q89">
         <v>2</v>
       </c>
-      <c r="R67" t="b">
-        <v>0</v>
-      </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="R89" t="b">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>167</v>
       </c>
-      <c r="B68">
+      <c r="B90">
         <v>3</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C90" t="s">
         <v>19</v>
       </c>
-      <c r="D68">
+      <c r="D90">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="E68">
-        <f>E67</f>
-        <v>239</v>
-      </c>
-      <c r="F68">
-        <f>D68+4</f>
+      <c r="E90">
+        <f>E89</f>
+        <v>247</v>
+      </c>
+      <c r="F90">
+        <f>D90+4</f>
         <v>181</v>
       </c>
-      <c r="G68">
-        <f>E68+3</f>
-        <v>242</v>
-      </c>
-      <c r="H68" t="s">
+      <c r="G90">
+        <f>E90+3</f>
+        <v>250</v>
+      </c>
+      <c r="H90" t="s">
         <v>20</v>
       </c>
-      <c r="I68">
+      <c r="I90">
         <v>15</v>
       </c>
-      <c r="J68">
+      <c r="J90">
         <v>1</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>118</v>
       </c>
-      <c r="O68" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q68">
+      <c r="O90" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q90">
         <v>2</v>
       </c>
-      <c r="R68" t="b">
-        <v>0</v>
-      </c>
-      <c r="S68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="R90" t="b">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>168</v>
       </c>
-      <c r="B69">
+      <c r="B91">
         <v>3</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C91" t="s">
         <v>19</v>
       </c>
-      <c r="D69">
+      <c r="D91">
         <f t="shared" si="2"/>
         <v>195</v>
       </c>
-      <c r="E69">
-        <f>E68</f>
-        <v>239</v>
-      </c>
-      <c r="F69">
-        <f>D69+4</f>
+      <c r="E91">
+        <f>E90</f>
+        <v>247</v>
+      </c>
+      <c r="F91">
+        <f>D91+4</f>
         <v>199</v>
       </c>
-      <c r="G69">
-        <f>E69+3</f>
-        <v>242</v>
-      </c>
-      <c r="H69" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69">
-        <v>15</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="N69" t="s">
-        <v>118</v>
-      </c>
-      <c r="O69" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q69">
-        <v>2</v>
-      </c>
-      <c r="R69" t="b">
-        <v>0</v>
-      </c>
-      <c r="S69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70">
-        <v>12</v>
-      </c>
-      <c r="E70">
-        <v>13</v>
-      </c>
-      <c r="F70">
-        <v>94</v>
-      </c>
-      <c r="G70">
-        <v>16</v>
-      </c>
-      <c r="H70" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70">
-        <v>12</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="N70" t="s">
-        <v>21</v>
-      </c>
-      <c r="O70" t="s">
-        <v>27</v>
-      </c>
-      <c r="P70" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q70">
-        <v>2</v>
-      </c>
-      <c r="R70" t="b">
-        <v>0</v>
-      </c>
-      <c r="S70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-      <c r="C71" t="s">
-        <v>26</v>
-      </c>
-      <c r="D71">
-        <v>10</v>
-      </c>
-      <c r="E71">
-        <v>18</v>
-      </c>
-      <c r="F71">
-        <v>98</v>
-      </c>
-      <c r="G71">
-        <v>98</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="N71" t="s">
-        <v>21</v>
-      </c>
-      <c r="O71" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q71">
-        <v>2</v>
-      </c>
-      <c r="R71" t="b">
-        <v>0</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72">
-        <v>105</v>
-      </c>
-      <c r="E72">
-        <v>11</v>
-      </c>
-      <c r="F72">
-        <v>208</v>
-      </c>
-      <c r="G72">
-        <f>G93+3</f>
-        <v>87</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72" t="s">
-        <v>128</v>
-      </c>
-      <c r="N72" t="s">
-        <v>128</v>
-      </c>
-      <c r="O72" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q72">
-        <v>2</v>
-      </c>
-      <c r="R72" t="b">
-        <v>0</v>
-      </c>
-      <c r="S72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73">
-        <f>D72+1</f>
-        <v>106</v>
-      </c>
-      <c r="E73">
-        <f>E72+2</f>
-        <v>13</v>
-      </c>
-      <c r="F73">
-        <v>174</v>
-      </c>
-      <c r="G73">
-        <f>E73+3</f>
-        <v>16</v>
-      </c>
-      <c r="H73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73">
-        <v>12</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="N73" t="s">
-        <v>128</v>
-      </c>
-      <c r="O73" t="s">
-        <v>27</v>
-      </c>
-      <c r="P73" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q73">
-        <v>3</v>
-      </c>
-      <c r="R73" t="b">
-        <v>0</v>
-      </c>
-      <c r="S73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-      <c r="C74" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74">
-        <f>F78+2</f>
-        <v>182</v>
-      </c>
-      <c r="E74">
-        <f>E72+3</f>
-        <v>14</v>
-      </c>
-      <c r="F74">
-        <v>208</v>
-      </c>
-      <c r="G74">
-        <f>E74+3</f>
-        <v>17</v>
-      </c>
-      <c r="H74" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74">
-        <v>8</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="N74" t="s">
-        <v>128</v>
-      </c>
-      <c r="O74" t="s">
-        <v>40</v>
-      </c>
-      <c r="P74" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q74">
-        <v>2</v>
-      </c>
-      <c r="R74" t="b">
-        <v>1</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>127</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-      <c r="C75" t="s">
-        <v>27</v>
-      </c>
-      <c r="D75">
-        <v>105</v>
-      </c>
-      <c r="E75">
-        <f>E76-2</f>
-        <v>21</v>
-      </c>
-      <c r="F75">
-        <v>208</v>
-      </c>
-      <c r="G75">
-        <f>E75</f>
-        <v>21</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="N75" t="s">
-        <v>118</v>
-      </c>
-      <c r="O75" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q75">
-        <v>4</v>
-      </c>
-      <c r="R75" t="b">
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76">
-        <f>$D$73</f>
-        <v>106</v>
-      </c>
-      <c r="E76">
-        <f>E73+10</f>
-        <v>23</v>
-      </c>
-      <c r="F76">
-        <f>D76+68</f>
-        <v>174</v>
-      </c>
-      <c r="G76">
-        <f>E76+4</f>
-        <v>27</v>
-      </c>
-      <c r="H76" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76">
-        <v>8</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="N76" t="s">
-        <v>128</v>
-      </c>
-      <c r="O76" t="s">
-        <v>27</v>
-      </c>
-      <c r="P76" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76" t="b">
-        <v>1</v>
-      </c>
-      <c r="S76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>68</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77">
-        <f>F78+2</f>
-        <v>182</v>
-      </c>
-      <c r="E77">
-        <f>E76</f>
-        <v>23</v>
-      </c>
-      <c r="F77">
-        <f>$F$72</f>
-        <v>208</v>
-      </c>
-      <c r="G77">
-        <f>G76</f>
-        <v>27</v>
-      </c>
-      <c r="H77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77">
-        <v>8</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>128</v>
-      </c>
-      <c r="O77" t="s">
-        <v>40</v>
-      </c>
-      <c r="P77" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q77">
-        <v>3</v>
-      </c>
-      <c r="R77" t="b">
-        <v>1</v>
-      </c>
-      <c r="S77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78">
-        <f>D76+70</f>
-        <v>176</v>
-      </c>
-      <c r="E78">
-        <f>E77</f>
-        <v>23</v>
-      </c>
-      <c r="F78">
-        <f>D78+4</f>
-        <v>180</v>
-      </c>
-      <c r="G78">
-        <f>E78+6</f>
-        <v>29</v>
-      </c>
-      <c r="H78" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78">
-        <v>15</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="N78" t="s">
-        <v>128</v>
-      </c>
-      <c r="O78" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
-      <c r="R78" t="b">
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79">
-        <f>$D$73</f>
-        <v>106</v>
-      </c>
-      <c r="E79">
-        <f>E78+11</f>
-        <v>34</v>
-      </c>
-      <c r="F79">
-        <f>D79+68</f>
-        <v>174</v>
-      </c>
-      <c r="G79">
-        <f t="shared" ref="G79" si="3">E79+4</f>
-        <v>38</v>
-      </c>
-      <c r="H79" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79">
-        <v>8</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="N79" t="s">
-        <v>128</v>
-      </c>
-      <c r="O79" t="s">
-        <v>27</v>
-      </c>
-      <c r="P79" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q79">
-        <v>3</v>
-      </c>
-      <c r="R79" t="b">
-        <v>1</v>
-      </c>
-      <c r="S79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80">
-        <f>F81+2</f>
-        <v>182</v>
-      </c>
-      <c r="E80">
-        <f>E79</f>
-        <v>34</v>
-      </c>
-      <c r="F80">
-        <f>$F$72</f>
-        <v>208</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ref="G80" si="4">G79</f>
-        <v>38</v>
-      </c>
-      <c r="H80" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80">
-        <v>8</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="N80" t="s">
-        <v>128</v>
-      </c>
-      <c r="O80" t="s">
-        <v>40</v>
-      </c>
-      <c r="P80" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q80">
-        <v>3</v>
-      </c>
-      <c r="R80" t="b">
-        <v>1</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81">
-        <f>D79+70</f>
-        <v>176</v>
-      </c>
-      <c r="E81">
-        <f>E80</f>
-        <v>34</v>
-      </c>
-      <c r="F81">
-        <f>D81+4</f>
-        <v>180</v>
-      </c>
-      <c r="G81">
-        <f t="shared" ref="G81" si="5">E81+6</f>
-        <v>40</v>
-      </c>
-      <c r="H81" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81">
-        <v>15</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="N81" t="s">
-        <v>128</v>
-      </c>
-      <c r="O81" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q81">
-        <v>2</v>
-      </c>
-      <c r="R81" t="b">
-        <v>0</v>
-      </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>76</v>
-      </c>
-      <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82">
-        <f>$D$73</f>
-        <v>106</v>
-      </c>
-      <c r="E82">
-        <f>E81+11</f>
-        <v>45</v>
-      </c>
-      <c r="F82">
-        <f>D82+68</f>
-        <v>174</v>
-      </c>
-      <c r="G82">
-        <f t="shared" ref="G82" si="6">E82+4</f>
-        <v>49</v>
-      </c>
-      <c r="H82" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82">
-        <v>8</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="N82" t="s">
-        <v>128</v>
-      </c>
-      <c r="O82" t="s">
-        <v>27</v>
-      </c>
-      <c r="P82" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q82">
-        <v>3</v>
-      </c>
-      <c r="R82" t="b">
-        <v>1</v>
-      </c>
-      <c r="S82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>78</v>
-      </c>
-      <c r="B83">
-        <v>4</v>
-      </c>
-      <c r="C83" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83">
-        <f>F84+2</f>
-        <v>182</v>
-      </c>
-      <c r="E83">
-        <f>E82</f>
-        <v>45</v>
-      </c>
-      <c r="F83">
-        <f>$F$72</f>
-        <v>208</v>
-      </c>
-      <c r="G83">
-        <f t="shared" ref="G83" si="7">G82</f>
-        <v>49</v>
-      </c>
-      <c r="H83" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83">
-        <v>8</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="N83" t="s">
-        <v>128</v>
-      </c>
-      <c r="O83" t="s">
-        <v>40</v>
-      </c>
-      <c r="P83" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q83">
-        <v>3</v>
-      </c>
-      <c r="R83" t="b">
-        <v>1</v>
-      </c>
-      <c r="S83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>80</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84">
-        <f>D82+70</f>
-        <v>176</v>
-      </c>
-      <c r="E84">
-        <f>E83</f>
-        <v>45</v>
-      </c>
-      <c r="F84">
-        <f>D84+4</f>
-        <v>180</v>
-      </c>
-      <c r="G84">
-        <f t="shared" ref="G84" si="8">E84+6</f>
-        <v>51</v>
-      </c>
-      <c r="H84" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84">
-        <v>15</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="N84" t="s">
-        <v>128</v>
-      </c>
-      <c r="O84" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
-      <c r="R84" t="b">
-        <v>0</v>
-      </c>
-      <c r="S84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>81</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85">
-        <f>$D$73</f>
-        <v>106</v>
-      </c>
-      <c r="E85">
-        <f>E84+11</f>
-        <v>56</v>
-      </c>
-      <c r="F85">
-        <f>D85+68</f>
-        <v>174</v>
-      </c>
-      <c r="G85">
-        <f t="shared" ref="G85" si="9">E85+4</f>
-        <v>60</v>
-      </c>
-      <c r="H85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85">
-        <v>8</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="N85" t="s">
-        <v>128</v>
-      </c>
-      <c r="O85" t="s">
-        <v>27</v>
-      </c>
-      <c r="P85" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q85">
-        <v>3</v>
-      </c>
-      <c r="R85" t="b">
-        <v>1</v>
-      </c>
-      <c r="S85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86">
-        <v>4</v>
-      </c>
-      <c r="C86" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86">
-        <f>F87+2</f>
-        <v>182</v>
-      </c>
-      <c r="E86">
-        <f>E85</f>
-        <v>56</v>
-      </c>
-      <c r="F86">
-        <f>$F$72</f>
-        <v>208</v>
-      </c>
-      <c r="G86">
-        <f t="shared" ref="G86" si="10">G85</f>
-        <v>60</v>
-      </c>
-      <c r="H86" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86">
-        <v>8</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="N86" t="s">
-        <v>128</v>
-      </c>
-      <c r="O86" t="s">
-        <v>40</v>
-      </c>
-      <c r="P86" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q86">
-        <v>3</v>
-      </c>
-      <c r="R86" t="b">
-        <v>1</v>
-      </c>
-      <c r="S86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87">
-        <f>D85+70</f>
-        <v>176</v>
-      </c>
-      <c r="E87">
-        <f>E86</f>
-        <v>56</v>
-      </c>
-      <c r="F87">
-        <f>D87+4</f>
-        <v>180</v>
-      </c>
-      <c r="G87">
-        <f t="shared" ref="G87" si="11">E87+6</f>
-        <v>62</v>
-      </c>
-      <c r="H87" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87">
-        <v>15</v>
-      </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="N87" t="s">
-        <v>128</v>
-      </c>
-      <c r="O87" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
-      <c r="R87" t="b">
-        <v>0</v>
-      </c>
-      <c r="S87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>4</v>
-      </c>
-      <c r="C88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88">
-        <f>$D$73</f>
-        <v>106</v>
-      </c>
-      <c r="E88">
-        <f>E85+11</f>
-        <v>67</v>
-      </c>
-      <c r="F88">
-        <f>D88+68</f>
-        <v>174</v>
-      </c>
-      <c r="G88">
-        <f t="shared" ref="G88" si="12">E88+4</f>
-        <v>71</v>
-      </c>
-      <c r="H88" t="s">
-        <v>20</v>
-      </c>
-      <c r="I88">
-        <v>8</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="N88" t="s">
-        <v>128</v>
-      </c>
-      <c r="O88" t="s">
-        <v>27</v>
-      </c>
-      <c r="P88" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q88">
-        <v>3</v>
-      </c>
-      <c r="R88" t="b">
-        <v>1</v>
-      </c>
-      <c r="S88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-      <c r="C89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89">
-        <f>F90+2</f>
-        <v>182</v>
-      </c>
-      <c r="E89">
-        <f>E88</f>
-        <v>67</v>
-      </c>
-      <c r="F89">
-        <f>$F$72</f>
-        <v>208</v>
-      </c>
-      <c r="G89">
-        <f t="shared" ref="G89" si="13">G88</f>
-        <v>71</v>
-      </c>
-      <c r="H89" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89">
-        <v>8</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="N89" t="s">
-        <v>128</v>
-      </c>
-      <c r="O89" t="s">
-        <v>40</v>
-      </c>
-      <c r="P89" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q89">
-        <v>3</v>
-      </c>
-      <c r="R89" t="b">
-        <v>1</v>
-      </c>
-      <c r="S89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90">
-        <f>D88+70</f>
-        <v>176</v>
-      </c>
-      <c r="E90">
-        <f>E89</f>
-        <v>67</v>
-      </c>
-      <c r="F90">
-        <f>D90+4</f>
-        <v>180</v>
-      </c>
-      <c r="G90">
-        <f t="shared" ref="G90" si="14">E90+6</f>
-        <v>73</v>
-      </c>
-      <c r="H90" t="s">
-        <v>20</v>
-      </c>
-      <c r="I90">
-        <v>15</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="N90" t="s">
-        <v>128</v>
-      </c>
-      <c r="O90" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q90">
-        <v>2</v>
-      </c>
-      <c r="R90" t="b">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91">
-        <v>4</v>
-      </c>
-      <c r="C91" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91">
-        <f>$D$73</f>
-        <v>106</v>
-      </c>
-      <c r="E91">
-        <f>E88+11</f>
-        <v>78</v>
-      </c>
-      <c r="F91">
-        <f>D91+68</f>
-        <v>174</v>
-      </c>
       <c r="G91">
-        <f t="shared" ref="G91" si="15">E91+4</f>
-        <v>82</v>
+        <f>E91+3</f>
+        <v>250</v>
       </c>
       <c r="H91" t="s">
         <v>20</v>
       </c>
       <c r="I91">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -7915,19 +7947,16 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O91" t="s">
         <v>27</v>
       </c>
-      <c r="P91" t="s">
-        <v>92</v>
-      </c>
       <c r="Q91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -7935,38 +7964,34 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>4</v>
+        <v>-999</v>
       </c>
       <c r="C92" t="s">
         <v>19</v>
       </c>
       <c r="D92">
-        <f>F93+2</f>
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="E92">
-        <f>E91</f>
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F92">
-        <f>$F$72</f>
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="G92">
-        <f t="shared" ref="G92" si="16">G91</f>
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s">
         <v>20</v>
       </c>
       <c r="I92">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -7975,19 +8000,19 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="O92" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>97</v>
       </c>
       <c r="Q92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S92">
         <v>0</v>
@@ -7995,38 +8020,31 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>4</v>
+        <v>-999</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D93">
-        <f>D91+70</f>
-        <v>176</v>
+        <v>10</v>
       </c>
       <c r="E93">
-        <f>E92</f>
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="F93">
-        <f>D93+4</f>
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="G93">
-        <f>E93+6</f>
-        <v>84</v>
-      </c>
-      <c r="H93" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I93">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -8035,7 +8053,7 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="O93" t="s">
         <v>27</v>
@@ -8064,13 +8082,13 @@
         <v>12</v>
       </c>
       <c r="E94">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F94">
         <v>94</v>
       </c>
       <c r="G94">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s">
         <v>20</v>
@@ -8120,13 +8138,16 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <v>109</v>
+        <f>G94+4</f>
+        <v>20</v>
       </c>
       <c r="F95">
+        <f>D95+88</f>
         <v>98</v>
       </c>
       <c r="G95">
-        <v>189</v>
+        <f>E95+90</f>
+        <v>110</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -8170,13 +8191,15 @@
         <v>12</v>
       </c>
       <c r="E96">
-        <v>195</v>
+        <f>G99+11</f>
+        <v>126</v>
       </c>
       <c r="F96">
         <v>94</v>
       </c>
       <c r="G96">
-        <v>198</v>
+        <f>E96+3</f>
+        <v>129</v>
       </c>
       <c r="H96" t="s">
         <v>20</v>
@@ -8226,13 +8249,16 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <v>199</v>
+        <f>G96+4</f>
+        <v>133</v>
       </c>
       <c r="F97">
+        <f>D97+88</f>
         <v>98</v>
       </c>
       <c r="G97">
-        <v>279</v>
+        <f>E97+90</f>
+        <v>223</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -8276,15 +8302,15 @@
         <v>106</v>
       </c>
       <c r="E98">
-        <f>G72+4</f>
-        <v>91</v>
+        <f>G94+4</f>
+        <v>20</v>
       </c>
       <c r="F98">
         <v>205</v>
       </c>
       <c r="G98">
         <f>E98+4</f>
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="H98" t="s">
         <v>20</v>
@@ -8335,15 +8361,15 @@
       </c>
       <c r="E99">
         <f>E98+34</f>
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F99">
         <f>F104</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G99">
         <f>G128+5</f>
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -8392,14 +8418,15 @@
       </c>
       <c r="E100">
         <f>E99+2</f>
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F100">
+        <f>D100+68</f>
         <v>174</v>
       </c>
       <c r="G100">
         <f>E100+3</f>
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
@@ -8446,20 +8473,20 @@
         <v>19</v>
       </c>
       <c r="D101">
-        <f>D99+32</f>
-        <v>137</v>
+        <f>D99+30</f>
+        <v>135</v>
       </c>
       <c r="E101">
         <f>E99+7</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F101">
         <f>D101+18</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G101">
         <f>E101+3</f>
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H101" t="s">
         <v>20</v>
@@ -8507,19 +8534,19 @@
       </c>
       <c r="D102">
         <f>D105</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E102">
         <f>E101</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F102">
         <f>D106-1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G102">
         <f>E102+3</f>
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H102" t="s">
         <v>20</v>
@@ -8567,19 +8594,19 @@
       </c>
       <c r="D103">
         <f>D106-1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E103">
         <f>E102</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F103">
         <f>D107+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G103">
         <f>E103+3</f>
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
@@ -8627,19 +8654,19 @@
       </c>
       <c r="D104">
         <f>D107</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E104">
         <f>E103</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F104">
         <f>D104+18</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G104">
         <f>E104+3</f>
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
@@ -8687,19 +8714,19 @@
       </c>
       <c r="D105">
         <f>F101+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E105">
         <f>E101</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F105">
         <f>F101+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G105">
         <f>G128+3</f>
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -8741,19 +8768,19 @@
       </c>
       <c r="D106">
         <f>D105+18</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E106">
         <f>E101</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F106">
-        <f t="shared" ref="F106:F107" si="17">D106</f>
-        <v>174</v>
+        <f t="shared" ref="F106:F107" si="3">D106</f>
+        <v>172</v>
       </c>
       <c r="G106">
         <f>G105</f>
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -8795,19 +8822,19 @@
       </c>
       <c r="D107">
         <f>D106+18</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E107">
         <f>E101</f>
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="F107">
-        <f t="shared" si="17"/>
-        <v>192</v>
+        <f t="shared" si="3"/>
+        <v>190</v>
       </c>
       <c r="G107">
         <f>G106</f>
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -8852,15 +8879,15 @@
       </c>
       <c r="E108">
         <f>E101+10</f>
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F108">
         <f>F99</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108">
         <f>E108</f>
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -8906,7 +8933,7 @@
       </c>
       <c r="E109">
         <f>E108+2</f>
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F109">
         <f>D109+37</f>
@@ -8914,7 +8941,7 @@
       </c>
       <c r="G109">
         <f>E109+4</f>
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H109" t="s">
         <v>20</v>
@@ -8962,19 +8989,19 @@
       </c>
       <c r="D110">
         <f>D101+6</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E110">
         <f>E109+1</f>
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F110">
         <f>D110+4</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G110">
         <f>E110+3</f>
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H110" t="s">
         <v>20</v>
@@ -9019,19 +9046,19 @@
       </c>
       <c r="D111">
         <f>D110+18</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E111">
         <f>E110</f>
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F111">
         <f>D111+4</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G111">
         <f>E111+3</f>
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H111" t="s">
         <v>20</v>
@@ -9076,19 +9103,19 @@
       </c>
       <c r="D112">
         <f>D111+18</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E112">
         <f>E111</f>
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F112">
         <f>D112+4</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G112">
         <f>E112+3</f>
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
         <v>20</v>
@@ -9133,19 +9160,19 @@
       </c>
       <c r="D113">
         <f>D112+18</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E113">
         <f>E112</f>
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="F113">
         <f>D113+4</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G113">
         <f>E113+3</f>
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="H113" t="s">
         <v>20</v>
@@ -9189,12 +9216,12 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:D128" si="18">D109</f>
+        <f t="shared" ref="D114:D128" si="4">D109</f>
         <v>106</v>
       </c>
       <c r="E114">
         <f>E109+11</f>
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="F114">
         <f>F109</f>
@@ -9202,7 +9229,7 @@
       </c>
       <c r="G114">
         <f>E114+4</f>
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="H114" t="s">
         <v>20</v>
@@ -9249,20 +9276,20 @@
         <v>19</v>
       </c>
       <c r="D115">
-        <f t="shared" si="18"/>
-        <v>143</v>
+        <f t="shared" si="4"/>
+        <v>141</v>
       </c>
       <c r="E115">
         <f>E114+1</f>
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F115">
         <f>D115+4</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G115">
         <f>E115+3</f>
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="H115" t="s">
         <v>20</v>
@@ -9306,20 +9333,20 @@
         <v>19</v>
       </c>
       <c r="D116">
-        <f t="shared" si="18"/>
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>159</v>
       </c>
       <c r="E116">
         <f>E115</f>
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F116">
         <f>D116+4</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G116">
         <f>E116+3</f>
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="H116" t="s">
         <v>20</v>
@@ -9363,20 +9390,20 @@
         <v>19</v>
       </c>
       <c r="D117">
-        <f t="shared" si="18"/>
-        <v>179</v>
+        <f t="shared" si="4"/>
+        <v>177</v>
       </c>
       <c r="E117">
         <f>E116</f>
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F117">
         <f>D117+4</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G117">
         <f>E117+3</f>
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="H117" t="s">
         <v>20</v>
@@ -9420,20 +9447,20 @@
         <v>19</v>
       </c>
       <c r="D118">
-        <f t="shared" si="18"/>
-        <v>197</v>
+        <f t="shared" si="4"/>
+        <v>195</v>
       </c>
       <c r="E118">
         <f>E117</f>
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="F118">
         <f>D118+4</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G118">
         <f>E118+3</f>
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="H118" t="s">
         <v>20</v>
@@ -9477,12 +9504,12 @@
         <v>19</v>
       </c>
       <c r="D119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="E119">
         <f>E114+11</f>
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="F119">
         <f>F114</f>
@@ -9490,7 +9517,7 @@
       </c>
       <c r="G119">
         <f>E119+4</f>
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="H119" t="s">
         <v>20</v>
@@ -9537,20 +9564,20 @@
         <v>19</v>
       </c>
       <c r="D120">
-        <f t="shared" si="18"/>
-        <v>143</v>
+        <f t="shared" si="4"/>
+        <v>141</v>
       </c>
       <c r="E120">
         <f>E119+1</f>
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="F120">
         <f>D120+4</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G120">
         <f>E120+3</f>
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="H120" t="s">
         <v>20</v>
@@ -9594,20 +9621,20 @@
         <v>19</v>
       </c>
       <c r="D121">
-        <f t="shared" si="18"/>
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>159</v>
       </c>
       <c r="E121">
         <f>E120</f>
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="F121">
         <f>D121+4</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G121">
         <f>E121+3</f>
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="H121" t="s">
         <v>20</v>
@@ -9651,20 +9678,20 @@
         <v>19</v>
       </c>
       <c r="D122">
-        <f t="shared" si="18"/>
-        <v>179</v>
+        <f t="shared" si="4"/>
+        <v>177</v>
       </c>
       <c r="E122">
         <f>E121</f>
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="F122">
         <f>D122+4</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G122">
         <f>E122+3</f>
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="H122" t="s">
         <v>20</v>
@@ -9708,20 +9735,20 @@
         <v>19</v>
       </c>
       <c r="D123">
-        <f t="shared" si="18"/>
-        <v>197</v>
+        <f t="shared" si="4"/>
+        <v>195</v>
       </c>
       <c r="E123">
         <f>E122</f>
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="F123">
         <f>D123+4</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G123">
         <f>E123+3</f>
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="H123" t="s">
         <v>20</v>
@@ -9765,12 +9792,12 @@
         <v>19</v>
       </c>
       <c r="D124">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="E124">
         <f>E119+11</f>
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="F124">
         <f>F119</f>
@@ -9778,7 +9805,7 @@
       </c>
       <c r="G124">
         <f>E124+4</f>
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H124" t="s">
         <v>20</v>
@@ -9825,20 +9852,20 @@
         <v>19</v>
       </c>
       <c r="D125">
-        <f t="shared" si="18"/>
-        <v>143</v>
+        <f t="shared" si="4"/>
+        <v>141</v>
       </c>
       <c r="E125">
         <f>E124+1</f>
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="F125">
         <f>D125+4</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G125">
         <f>E125+3</f>
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H125" t="s">
         <v>20</v>
@@ -9882,20 +9909,20 @@
         <v>19</v>
       </c>
       <c r="D126">
-        <f t="shared" si="18"/>
-        <v>161</v>
+        <f t="shared" si="4"/>
+        <v>159</v>
       </c>
       <c r="E126">
         <f>E125</f>
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="F126">
         <f>D126+4</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G126">
         <f>E126+3</f>
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H126" t="s">
         <v>20</v>
@@ -9939,20 +9966,20 @@
         <v>19</v>
       </c>
       <c r="D127">
-        <f t="shared" si="18"/>
-        <v>179</v>
+        <f t="shared" si="4"/>
+        <v>177</v>
       </c>
       <c r="E127">
         <f>E126</f>
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="F127">
         <f>D127+4</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G127">
         <f>E127+3</f>
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
@@ -9996,20 +10023,20 @@
         <v>19</v>
       </c>
       <c r="D128">
-        <f t="shared" si="18"/>
-        <v>197</v>
+        <f t="shared" si="4"/>
+        <v>195</v>
       </c>
       <c r="E128">
         <f>E127</f>
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="F128">
         <f>D128+4</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G128">
         <f>E128+3</f>
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
@@ -10056,14 +10083,15 @@
         <v>106</v>
       </c>
       <c r="E129">
-        <v>195</v>
+        <f>G96+4</f>
+        <v>133</v>
       </c>
       <c r="F129">
         <v>205</v>
       </c>
       <c r="G129">
         <f>E129+4</f>
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="H129" t="s">
         <v>20</v>
@@ -10114,15 +10142,15 @@
       </c>
       <c r="E130">
         <f>E129+30</f>
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="F130">
         <f>F135</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G130">
         <f>G144+5</f>
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -10171,14 +10199,14 @@
       </c>
       <c r="E131">
         <f>E130+2</f>
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="F131">
         <v>174</v>
       </c>
       <c r="G131">
         <f>E131+3</f>
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="H131" t="s">
         <v>20</v>
@@ -10225,20 +10253,20 @@
         <v>19</v>
       </c>
       <c r="D132">
-        <f>D130+32</f>
-        <v>137</v>
+        <f>D130+30</f>
+        <v>135</v>
       </c>
       <c r="E132">
         <f>E130+7</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F132">
         <f>D132+18</f>
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G132">
         <f>E132+3</f>
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
@@ -10286,19 +10314,19 @@
       </c>
       <c r="D133">
         <f>D136</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E133">
         <f>E132</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F133">
         <f>D137-1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G133">
         <f>E133+3</f>
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
@@ -10346,19 +10374,19 @@
       </c>
       <c r="D134">
         <f>D137-1</f>
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E134">
         <f>E133</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F134">
         <f>D138+1</f>
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G134">
         <f>E134+3</f>
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="H134" t="s">
         <v>20</v>
@@ -10406,19 +10434,19 @@
       </c>
       <c r="D135">
         <f>D138</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E135">
         <f>E134</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F135">
         <f>D135+18</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G135">
         <f>E135+3</f>
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="H135" t="s">
         <v>20</v>
@@ -10466,19 +10494,19 @@
       </c>
       <c r="D136">
         <f>F132+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E136">
         <f>E132</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F136">
         <f>F132+1</f>
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G136">
         <f>G144+3</f>
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -10520,19 +10548,19 @@
       </c>
       <c r="D137">
         <f>D136+18</f>
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E137">
         <f>E132</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F137">
-        <f t="shared" ref="F137:F138" si="19">D137</f>
-        <v>174</v>
+        <f t="shared" ref="F137:F138" si="5">D137</f>
+        <v>172</v>
       </c>
       <c r="G137">
         <f>G136</f>
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -10574,19 +10602,19 @@
       </c>
       <c r="D138">
         <f>D137+18</f>
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E138">
         <f>E132</f>
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="F138">
-        <f t="shared" si="19"/>
-        <v>192</v>
+        <f t="shared" si="5"/>
+        <v>190</v>
       </c>
       <c r="G138">
         <f>G137</f>
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -10631,15 +10659,15 @@
       </c>
       <c r="E139">
         <f>E132+10</f>
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="F139">
         <f>F130</f>
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G139">
         <f>E139</f>
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -10685,7 +10713,7 @@
       </c>
       <c r="E140">
         <f>E139+2</f>
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="F140">
         <f>D140+36</f>
@@ -10693,7 +10721,7 @@
       </c>
       <c r="G140">
         <f>E140+4</f>
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
@@ -10741,19 +10769,19 @@
       </c>
       <c r="D141">
         <f>D132+6</f>
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E141">
         <f>E140+1</f>
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="F141">
         <f>D141+4</f>
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G141">
         <f>E141+3</f>
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="H141" t="s">
         <v>20</v>
@@ -10798,19 +10826,19 @@
       </c>
       <c r="D142">
         <f>D141+18</f>
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E142">
         <f>E141</f>
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="F142">
         <f>D142+4</f>
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G142">
         <f>E142+3</f>
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="H142" t="s">
         <v>20</v>
@@ -10855,19 +10883,19 @@
       </c>
       <c r="D143">
         <f>D142+18</f>
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E143">
         <f>E142</f>
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="F143">
         <f>D143+4</f>
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G143">
         <f>E143+3</f>
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="H143" t="s">
         <v>20</v>
@@ -10912,19 +10940,19 @@
       </c>
       <c r="D144">
         <f>D143+18</f>
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E144">
         <f>E143</f>
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="F144">
         <f>D144+4</f>
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G144">
         <f>E144+3</f>
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="H144" t="s">
         <v>20</v>
@@ -11082,7 +11110,7 @@
         <v>262</v>
       </c>
       <c r="F147">
-        <f t="shared" ref="F147:F152" si="20">D147+15</f>
+        <f t="shared" ref="F147:F152" si="6">D147+15</f>
         <v>127</v>
       </c>
       <c r="G147">
@@ -11133,7 +11161,7 @@
         <v>262</v>
       </c>
       <c r="F148">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="G148">
@@ -11184,7 +11212,7 @@
         <v>262</v>
       </c>
       <c r="F149">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="G149">
@@ -11235,7 +11263,7 @@
         <v>262</v>
       </c>
       <c r="F150">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="G150">
@@ -11286,7 +11314,7 @@
         <v>262</v>
       </c>
       <c r="F151">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="G151">
@@ -11337,7 +11365,7 @@
         <v>280</v>
       </c>
       <c r="F152">
-        <f t="shared" si="20"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="G152">
@@ -11693,10 +11721,10 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12741,7 +12769,7 @@
         <v>548</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>240</v>
@@ -13235,7 +13263,7 @@
         <v>169</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>217</v>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6BBEA4-25D2-4758-B4C2-D0D908A7A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE1C40B-3404-4D21-9A54-B172DD4C76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2797,7 +2797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E14">
         <f>E22-7</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <f>D14+90</f>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G14">
         <f>E14+90</f>
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3612,8 +3612,8 @@
         <v>7</v>
       </c>
       <c r="E15">
-        <f>E21+3</f>
-        <v>62</v>
+        <f>E14-3</f>
+        <v>63</v>
       </c>
       <c r="F15">
         <f>D15+92</f>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="G15">
         <f>E15+3</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -3954,7 +3954,7 @@
         <v>59</v>
       </c>
       <c r="F21">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G21">
         <f>E21+3</f>
@@ -4008,16 +4008,15 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <f>G21+10</f>
-        <v>72</v>
+        <f>G21+11</f>
+        <v>73</v>
       </c>
       <c r="F22">
-        <f>D22+103</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G22">
         <f>G44+3</f>
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -4066,14 +4065,14 @@
       </c>
       <c r="E23">
         <f>E22+2</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>174</v>
       </c>
       <c r="G23">
         <f>E23+3</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s">
         <v>20</v>
@@ -4125,7 +4124,7 @@
       </c>
       <c r="E24">
         <f>E25+6</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24">
         <f>D25</f>
@@ -4133,7 +4132,7 @@
       </c>
       <c r="G24">
         <f>E24+3</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
@@ -4185,15 +4184,15 @@
       </c>
       <c r="E25">
         <f>E22+3</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25">
         <f>F22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G25">
         <f>E25+3</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s">
         <v>20</v>
@@ -4244,15 +4243,15 @@
       </c>
       <c r="E26">
         <f>E25+10</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F26">
         <f>F25</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G26">
         <f>E26</f>
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -4298,7 +4297,7 @@
       </c>
       <c r="E27">
         <f>E26+2</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F27">
         <f>D27+68</f>
@@ -4306,7 +4305,7 @@
       </c>
       <c r="G27">
         <f>E27+4</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s">
         <v>20</v>
@@ -4358,15 +4357,15 @@
       </c>
       <c r="E28">
         <f>E27</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F28">
         <f>$F$22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28">
         <f>G27</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s">
         <v>20</v>
@@ -4418,7 +4417,7 @@
       </c>
       <c r="E29">
         <f>E28</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29">
         <f>D29+4</f>
@@ -4426,7 +4425,7 @@
       </c>
       <c r="G29">
         <f>E29+6</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
@@ -4475,7 +4474,7 @@
       </c>
       <c r="E30">
         <f>E29+11</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F30">
         <f>D30+68</f>
@@ -4483,7 +4482,7 @@
       </c>
       <c r="G30">
         <f>E30+4</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -4535,15 +4534,15 @@
       </c>
       <c r="E31">
         <f>E30</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F31">
         <f>$F$22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31">
         <f>G30</f>
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
@@ -4595,7 +4594,7 @@
       </c>
       <c r="E32">
         <f>E31</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F32">
         <f>D32+4</f>
@@ -4603,7 +4602,7 @@
       </c>
       <c r="G32">
         <f>E32+6</f>
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
@@ -4652,7 +4651,7 @@
       </c>
       <c r="E33">
         <f>E32+11</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F33">
         <f>D33+68</f>
@@ -4660,7 +4659,7 @@
       </c>
       <c r="G33">
         <f>E33+4</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
         <v>20</v>
@@ -4712,15 +4711,15 @@
       </c>
       <c r="E34">
         <f>E33</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F34">
         <f>$F$22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G34">
         <f>G33</f>
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
@@ -4772,7 +4771,7 @@
       </c>
       <c r="E35">
         <f>E34</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F35">
         <f>D35+4</f>
@@ -4780,7 +4779,7 @@
       </c>
       <c r="G35">
         <f>E35+6</f>
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
@@ -4829,7 +4828,7 @@
       </c>
       <c r="E36">
         <f>E35+11</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F36">
         <f>D36+68</f>
@@ -4837,7 +4836,7 @@
       </c>
       <c r="G36">
         <f>E36+4</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -4889,15 +4888,15 @@
       </c>
       <c r="E37">
         <f>E36</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F37">
         <f>$F$22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G37">
         <f>G36</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H37" t="s">
         <v>20</v>
@@ -4949,7 +4948,7 @@
       </c>
       <c r="E38">
         <f>E37</f>
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F38">
         <f>D38+4</f>
@@ -4957,7 +4956,7 @@
       </c>
       <c r="G38">
         <f>E38+6</f>
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
@@ -5006,7 +5005,7 @@
       </c>
       <c r="E39">
         <f>E36+11</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39">
         <f>D39+68</f>
@@ -5014,7 +5013,7 @@
       </c>
       <c r="G39">
         <f>E39+4</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H39" t="s">
         <v>20</v>
@@ -5066,15 +5065,15 @@
       </c>
       <c r="E40">
         <f>E39</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F40">
         <f>$F$22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G40">
         <f>G39</f>
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H40" t="s">
         <v>20</v>
@@ -5126,7 +5125,7 @@
       </c>
       <c r="E41">
         <f>E40</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F41">
         <f>D41+4</f>
@@ -5134,7 +5133,7 @@
       </c>
       <c r="G41">
         <f>E41+6</f>
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
@@ -5183,7 +5182,7 @@
       </c>
       <c r="E42">
         <f>E39+11</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F42">
         <f>D42+68</f>
@@ -5191,7 +5190,7 @@
       </c>
       <c r="G42">
         <f>E42+4</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H42" t="s">
         <v>20</v>
@@ -5243,15 +5242,15 @@
       </c>
       <c r="E43">
         <f>E42</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F43">
         <f>$F$22</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G43">
         <f>G42</f>
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H43" t="s">
         <v>20</v>
@@ -5303,7 +5302,7 @@
       </c>
       <c r="E44">
         <f>E43</f>
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F44">
         <f>D44+4</f>
@@ -5311,7 +5310,7 @@
       </c>
       <c r="G44">
         <f>E44+6</f>
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
@@ -5359,14 +5358,14 @@
       </c>
       <c r="E45">
         <f>G22+6</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F45">
         <v>94</v>
       </c>
       <c r="G45">
         <f>E45+3</f>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
@@ -5418,14 +5417,14 @@
       </c>
       <c r="E46">
         <f>G45+4</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F46">
         <v>208</v>
       </c>
       <c r="G46">
         <f>E46+4</f>
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
@@ -5588,7 +5587,8 @@
         <v>195</v>
       </c>
       <c r="F49">
-        <v>208</v>
+        <f>F48</f>
+        <v>203</v>
       </c>
       <c r="G49">
         <f>E49+3</f>
@@ -8486,31 +8486,33 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E100">
         <f>G99+4</f>
         <v>20</v>
       </c>
       <c r="F100">
-        <f>D100+88</f>
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="G100">
-        <f>E100+90</f>
-        <v>110</v>
+        <f>E100+4</f>
+        <v>24</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -8527,11 +8529,14 @@
       <c r="O100" t="s">
         <v>27</v>
       </c>
+      <c r="P100" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="Q100">
         <v>2</v>
       </c>
       <c r="R100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -8539,36 +8544,34 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>208</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <f>G104+11</f>
-        <v>132</v>
+        <f>G99+4</f>
+        <v>20</v>
       </c>
       <c r="F101">
-        <v>94</v>
+        <f>D101+88</f>
+        <v>93</v>
       </c>
       <c r="G101">
-        <f>E101+3</f>
-        <v>135</v>
-      </c>
-      <c r="H101" t="s">
-        <v>20</v>
+        <f>E101+80</f>
+        <v>100</v>
       </c>
       <c r="I101">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -8582,9 +8585,6 @@
       <c r="O101" t="s">
         <v>27</v>
       </c>
-      <c r="P101" t="s">
-        <v>101</v>
-      </c>
       <c r="Q101">
         <v>2</v>
       </c>
@@ -8597,34 +8597,34 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E102">
-        <f>G101+4</f>
-        <v>139</v>
+        <f>E100+40</f>
+        <v>60</v>
       </c>
       <c r="F102">
-        <f>D102+88</f>
-        <v>93</v>
+        <f>F107</f>
+        <v>203</v>
       </c>
       <c r="G102">
-        <f>E102+90</f>
-        <v>229</v>
+        <f>G131+5</f>
+        <v>121</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8632,14 +8632,17 @@
       <c r="L102">
         <v>0</v>
       </c>
+      <c r="M102" t="s">
+        <v>117</v>
+      </c>
       <c r="N102" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O102" t="s">
         <v>27</v>
       </c>
       <c r="Q102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R102" t="b">
         <v>0</v>
@@ -8650,7 +8653,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>551</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -8659,27 +8662,29 @@
         <v>19</v>
       </c>
       <c r="D103">
+        <f>D102+1</f>
         <v>101</v>
       </c>
       <c r="E103">
-        <f>G99+4</f>
-        <v>20</v>
+        <f>E102+2</f>
+        <v>62</v>
       </c>
       <c r="F103">
-        <v>205</v>
+        <f>D103+68</f>
+        <v>169</v>
       </c>
       <c r="G103">
-        <f>E103+4</f>
-        <v>24</v>
+        <f>E103+3</f>
+        <v>65</v>
       </c>
       <c r="H103" t="s">
         <v>20</v>
       </c>
       <c r="I103">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -8688,19 +8693,19 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O103" t="s">
         <v>27</v>
       </c>
-      <c r="P103" s="1" t="s">
-        <v>203</v>
+      <c r="P103" t="s">
+        <v>550</v>
       </c>
       <c r="Q103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S103">
         <v>0</v>
@@ -8708,55 +8713,59 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D104">
-        <v>100</v>
+        <f>D102+30</f>
+        <v>130</v>
       </c>
       <c r="E104">
-        <f>E103+40</f>
-        <v>60</v>
+        <f>E102+7</f>
+        <v>67</v>
       </c>
       <c r="F104">
-        <f>F109</f>
-        <v>203</v>
+        <f>D104+18</f>
+        <v>148</v>
       </c>
       <c r="G104">
-        <f>G133+5</f>
-        <v>121</v>
+        <f>E104+3</f>
+        <v>70</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104">
         <v>0</v>
       </c>
       <c r="L104">
         <v>0</v>
-      </c>
-      <c r="M104" t="s">
-        <v>117</v>
       </c>
       <c r="N104" t="s">
         <v>117</v>
       </c>
       <c r="O104" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P104" t="s">
+        <v>125</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -8764,7 +8773,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>551</v>
+        <v>119</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -8773,29 +8782,29 @@
         <v>19</v>
       </c>
       <c r="D105">
-        <f>D104+1</f>
-        <v>101</v>
+        <f>D108</f>
+        <v>149</v>
       </c>
       <c r="E105">
-        <f>E104+2</f>
-        <v>62</v>
+        <f>E104</f>
+        <v>67</v>
       </c>
       <c r="F105">
-        <f>D105+68</f>
-        <v>169</v>
+        <f>D109-1</f>
+        <v>166</v>
       </c>
       <c r="G105">
         <f>E105+3</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H105" t="s">
         <v>20</v>
       </c>
       <c r="I105">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -8807,16 +8816,16 @@
         <v>117</v>
       </c>
       <c r="O105" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P105" t="s">
-        <v>550</v>
+        <v>124</v>
       </c>
       <c r="Q105">
         <v>3</v>
       </c>
       <c r="R105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S105">
         <v>0</v>
@@ -8824,7 +8833,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -8833,16 +8842,16 @@
         <v>19</v>
       </c>
       <c r="D106">
-        <f>D104+30</f>
-        <v>130</v>
+        <f>D109-1</f>
+        <v>166</v>
       </c>
       <c r="E106">
-        <f>E104+7</f>
+        <f>E105</f>
         <v>67</v>
       </c>
       <c r="F106">
-        <f>D106+18</f>
-        <v>148</v>
+        <f>D110+1</f>
+        <v>186</v>
       </c>
       <c r="G106">
         <f>E106+3</f>
@@ -8870,7 +8879,7 @@
         <v>40</v>
       </c>
       <c r="P106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -8884,7 +8893,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -8894,15 +8903,15 @@
       </c>
       <c r="D107">
         <f>D110</f>
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="E107">
         <f>E106</f>
         <v>67</v>
       </c>
       <c r="F107">
-        <f>D111-1</f>
-        <v>166</v>
+        <f>D107+18</f>
+        <v>203</v>
       </c>
       <c r="G107">
         <f>E107+3</f>
@@ -8930,7 +8939,7 @@
         <v>40</v>
       </c>
       <c r="P107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -8944,35 +8953,32 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D108">
-        <f>D111-1</f>
-        <v>166</v>
+        <f>F104+1</f>
+        <v>149</v>
       </c>
       <c r="E108">
-        <f>E107</f>
+        <f>E104</f>
         <v>67</v>
       </c>
       <c r="F108">
-        <f>D112+1</f>
-        <v>186</v>
+        <f>F104+1</f>
+        <v>149</v>
       </c>
       <c r="G108">
-        <f>E108+3</f>
-        <v>70</v>
-      </c>
-      <c r="H108" t="s">
-        <v>20</v>
+        <f>G131+3</f>
+        <v>119</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -8987,16 +8993,13 @@
         <v>117</v>
       </c>
       <c r="O108" t="s">
-        <v>40</v>
-      </c>
-      <c r="P108" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="Q108">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -9004,35 +9007,32 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B109">
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D109">
-        <f>D112</f>
-        <v>185</v>
+        <f>D108+18</f>
+        <v>167</v>
       </c>
       <c r="E109">
-        <f>E108</f>
+        <f>E104</f>
         <v>67</v>
       </c>
       <c r="F109">
-        <f>D109+18</f>
-        <v>203</v>
+        <f t="shared" ref="F109:F110" si="3">D109</f>
+        <v>167</v>
       </c>
       <c r="G109">
-        <f>E109+3</f>
-        <v>70</v>
-      </c>
-      <c r="H109" t="s">
-        <v>20</v>
+        <f>G108</f>
+        <v>119</v>
       </c>
       <c r="I109">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -9047,16 +9047,13 @@
         <v>117</v>
       </c>
       <c r="O109" t="s">
-        <v>40</v>
-      </c>
-      <c r="P109" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="Q109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S109">
         <v>0</v>
@@ -9064,7 +9061,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -9073,19 +9070,19 @@
         <v>27</v>
       </c>
       <c r="D110">
-        <f>F106+1</f>
-        <v>149</v>
+        <f>D109+18</f>
+        <v>185</v>
       </c>
       <c r="E110">
-        <f>E106</f>
+        <f>E104</f>
         <v>67</v>
       </c>
       <c r="F110">
-        <f>F106+1</f>
-        <v>149</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="G110">
-        <f>G133+3</f>
+        <f>G109</f>
         <v>119</v>
       </c>
       <c r="I110">
@@ -9118,7 +9115,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -9127,20 +9124,19 @@
         <v>27</v>
       </c>
       <c r="D111">
-        <f>D110+18</f>
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="E111">
-        <f>E106</f>
-        <v>67</v>
+        <f>E104+10</f>
+        <v>77</v>
       </c>
       <c r="F111">
-        <f t="shared" ref="F111:F112" si="3">D111</f>
-        <v>167</v>
+        <f>F102</f>
+        <v>203</v>
       </c>
       <c r="G111">
-        <f>G110</f>
-        <v>119</v>
+        <f>E111</f>
+        <v>77</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -9172,32 +9168,35 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D112">
-        <f>D111+18</f>
-        <v>185</v>
+        <f>D102+1</f>
+        <v>101</v>
       </c>
       <c r="E112">
-        <f>E106</f>
-        <v>67</v>
+        <f>E111+2</f>
+        <v>79</v>
       </c>
       <c r="F112">
-        <f t="shared" si="3"/>
-        <v>185</v>
+        <f>D112+37</f>
+        <v>138</v>
       </c>
       <c r="G112">
-        <f>G111</f>
-        <v>119</v>
+        <f>E112+4</f>
+        <v>83</v>
+      </c>
+      <c r="H112" t="s">
+        <v>20</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -9214,11 +9213,14 @@
       <c r="O112" t="s">
         <v>27</v>
       </c>
+      <c r="P112" t="s">
+        <v>189</v>
+      </c>
       <c r="Q112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -9226,34 +9228,38 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="B113">
         <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D113">
-        <v>105</v>
+        <f>D104+6</f>
+        <v>136</v>
       </c>
       <c r="E113">
-        <f>E106+10</f>
-        <v>77</v>
+        <f>E112+1</f>
+        <v>80</v>
       </c>
       <c r="F113">
-        <f>F104</f>
-        <v>203</v>
+        <f>D113+4</f>
+        <v>140</v>
       </c>
       <c r="G113">
-        <f>E113</f>
-        <v>77</v>
+        <f>E113+3</f>
+        <v>83</v>
+      </c>
+      <c r="H113" t="s">
+        <v>20</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -9268,7 +9274,7 @@
         <v>27</v>
       </c>
       <c r="Q113">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R113" t="b">
         <v>0</v>
@@ -9279,7 +9285,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -9288,29 +9294,29 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <f>D104+1</f>
-        <v>101</v>
+        <f>D113+18</f>
+        <v>154</v>
       </c>
       <c r="E114">
-        <f>E113+2</f>
-        <v>79</v>
+        <f>E113</f>
+        <v>80</v>
       </c>
       <c r="F114">
-        <f>D114+37</f>
-        <v>138</v>
+        <f>D114+4</f>
+        <v>158</v>
       </c>
       <c r="G114">
-        <f>E114+4</f>
+        <f>E114+3</f>
         <v>83</v>
       </c>
       <c r="H114" t="s">
         <v>20</v>
       </c>
       <c r="I114">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -9324,14 +9330,11 @@
       <c r="O114" t="s">
         <v>27</v>
       </c>
-      <c r="P114" t="s">
-        <v>189</v>
-      </c>
       <c r="Q114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -9339,7 +9342,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -9348,16 +9351,16 @@
         <v>19</v>
       </c>
       <c r="D115">
-        <f>D106+6</f>
-        <v>136</v>
+        <f>D114+18</f>
+        <v>172</v>
       </c>
       <c r="E115">
-        <f>E114+1</f>
+        <f>E114</f>
         <v>80</v>
       </c>
       <c r="F115">
         <f>D115+4</f>
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="G115">
         <f>E115+3</f>
@@ -9396,7 +9399,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -9406,7 +9409,7 @@
       </c>
       <c r="D116">
         <f>D115+18</f>
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E116">
         <f>E115</f>
@@ -9414,7 +9417,7 @@
       </c>
       <c r="F116">
         <f>D116+4</f>
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G116">
         <f>E116+3</f>
@@ -9453,7 +9456,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -9462,29 +9465,29 @@
         <v>19</v>
       </c>
       <c r="D117">
-        <f>D116+18</f>
-        <v>172</v>
+        <f t="shared" ref="D117:D131" si="4">D112</f>
+        <v>101</v>
       </c>
       <c r="E117">
-        <f>E116</f>
-        <v>80</v>
+        <f>E112+11</f>
+        <v>90</v>
       </c>
       <c r="F117">
-        <f>D117+4</f>
-        <v>176</v>
+        <f>F112</f>
+        <v>138</v>
       </c>
       <c r="G117">
-        <f>E117+3</f>
-        <v>83</v>
+        <f>E117+4</f>
+        <v>94</v>
       </c>
       <c r="H117" t="s">
         <v>20</v>
       </c>
       <c r="I117">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -9498,11 +9501,14 @@
       <c r="O117" t="s">
         <v>27</v>
       </c>
+      <c r="P117" t="s">
+        <v>190</v>
+      </c>
       <c r="Q117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -9510,7 +9516,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -9519,20 +9525,20 @@
         <v>19</v>
       </c>
       <c r="D118">
-        <f>D117+18</f>
-        <v>190</v>
+        <f t="shared" si="4"/>
+        <v>136</v>
       </c>
       <c r="E118">
-        <f>E117</f>
-        <v>80</v>
+        <f>E117+1</f>
+        <v>91</v>
       </c>
       <c r="F118">
         <f>D118+4</f>
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="G118">
         <f>E118+3</f>
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="H118" t="s">
         <v>20</v>
@@ -9567,7 +9573,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -9576,29 +9582,29 @@
         <v>19</v>
       </c>
       <c r="D119">
-        <f t="shared" ref="D119:D133" si="4">D114</f>
-        <v>101</v>
+        <f t="shared" si="4"/>
+        <v>154</v>
       </c>
       <c r="E119">
-        <f>E114+11</f>
-        <v>90</v>
+        <f>E118</f>
+        <v>91</v>
       </c>
       <c r="F119">
-        <f>F114</f>
-        <v>138</v>
+        <f>D119+4</f>
+        <v>158</v>
       </c>
       <c r="G119">
-        <f>E119+4</f>
+        <f>E119+3</f>
         <v>94</v>
       </c>
       <c r="H119" t="s">
         <v>20</v>
       </c>
       <c r="I119">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -9612,14 +9618,11 @@
       <c r="O119" t="s">
         <v>27</v>
       </c>
-      <c r="P119" t="s">
-        <v>190</v>
-      </c>
       <c r="Q119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S119">
         <v>0</v>
@@ -9627,7 +9630,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -9637,15 +9640,15 @@
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E120">
-        <f>E119+1</f>
+        <f>E119</f>
         <v>91</v>
       </c>
       <c r="F120">
         <f>D120+4</f>
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="G120">
         <f>E120+3</f>
@@ -9684,7 +9687,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -9694,7 +9697,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E121">
         <f>E120</f>
@@ -9702,7 +9705,7 @@
       </c>
       <c r="F121">
         <f>D121+4</f>
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G121">
         <f>E121+3</f>
@@ -9741,7 +9744,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -9751,28 +9754,28 @@
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E122">
-        <f>E121</f>
-        <v>91</v>
+        <f>E117+11</f>
+        <v>101</v>
       </c>
       <c r="F122">
-        <f>D122+4</f>
-        <v>176</v>
+        <f>F117</f>
+        <v>138</v>
       </c>
       <c r="G122">
-        <f>E122+3</f>
-        <v>94</v>
+        <f>E122+4</f>
+        <v>105</v>
       </c>
       <c r="H122" t="s">
         <v>20</v>
       </c>
       <c r="I122">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -9786,11 +9789,14 @@
       <c r="O122" t="s">
         <v>27</v>
       </c>
+      <c r="P122" t="s">
+        <v>191</v>
+      </c>
       <c r="Q122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -9798,7 +9804,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -9808,19 +9814,19 @@
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="E123">
-        <f>E122</f>
-        <v>91</v>
+        <f>E122+1</f>
+        <v>102</v>
       </c>
       <c r="F123">
         <f>D123+4</f>
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="G123">
         <f>E123+3</f>
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H123" t="s">
         <v>20</v>
@@ -9855,7 +9861,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -9865,28 +9871,28 @@
       </c>
       <c r="D124">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E124">
-        <f>E119+11</f>
-        <v>101</v>
+        <f>E123</f>
+        <v>102</v>
       </c>
       <c r="F124">
-        <f>F119</f>
-        <v>138</v>
+        <f>D124+4</f>
+        <v>158</v>
       </c>
       <c r="G124">
-        <f>E124+4</f>
+        <f>E124+3</f>
         <v>105</v>
       </c>
       <c r="H124" t="s">
         <v>20</v>
       </c>
       <c r="I124">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -9900,14 +9906,11 @@
       <c r="O124" t="s">
         <v>27</v>
       </c>
-      <c r="P124" t="s">
-        <v>191</v>
-      </c>
       <c r="Q124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S124">
         <v>0</v>
@@ -9915,7 +9918,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -9925,15 +9928,15 @@
       </c>
       <c r="D125">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E125">
-        <f>E124+1</f>
+        <f>E124</f>
         <v>102</v>
       </c>
       <c r="F125">
         <f>D125+4</f>
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="G125">
         <f>E125+3</f>
@@ -9972,7 +9975,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -9982,7 +9985,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E126">
         <f>E125</f>
@@ -9990,7 +9993,7 @@
       </c>
       <c r="F126">
         <f>D126+4</f>
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G126">
         <f>E126+3</f>
@@ -10029,7 +10032,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -10039,28 +10042,28 @@
       </c>
       <c r="D127">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E127">
-        <f>E126</f>
-        <v>102</v>
+        <f>E122+11</f>
+        <v>112</v>
       </c>
       <c r="F127">
-        <f>D127+4</f>
-        <v>176</v>
+        <f>F122</f>
+        <v>138</v>
       </c>
       <c r="G127">
-        <f>E127+3</f>
-        <v>105</v>
+        <f>E127+4</f>
+        <v>116</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
       </c>
       <c r="I127">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -10074,11 +10077,14 @@
       <c r="O127" t="s">
         <v>27</v>
       </c>
+      <c r="P127" t="s">
+        <v>192</v>
+      </c>
       <c r="Q127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -10086,7 +10092,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -10096,19 +10102,19 @@
       </c>
       <c r="D128">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="E128">
-        <f>E127</f>
-        <v>102</v>
+        <f>E127+1</f>
+        <v>113</v>
       </c>
       <c r="F128">
         <f>D128+4</f>
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="G128">
         <f>E128+3</f>
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
@@ -10143,7 +10149,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -10153,28 +10159,28 @@
       </c>
       <c r="D129">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="E129">
-        <f>E124+11</f>
-        <v>112</v>
+        <f>E128</f>
+        <v>113</v>
       </c>
       <c r="F129">
-        <f>F124</f>
-        <v>138</v>
+        <f>D129+4</f>
+        <v>158</v>
       </c>
       <c r="G129">
-        <f>E129+4</f>
+        <f>E129+3</f>
         <v>116</v>
       </c>
       <c r="H129" t="s">
         <v>20</v>
       </c>
       <c r="I129">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -10188,14 +10194,11 @@
       <c r="O129" t="s">
         <v>27</v>
       </c>
-      <c r="P129" t="s">
-        <v>192</v>
-      </c>
       <c r="Q129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S129">
         <v>0</v>
@@ -10203,7 +10206,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -10213,15 +10216,15 @@
       </c>
       <c r="D130">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="E130">
-        <f>E129+1</f>
+        <f>E129</f>
         <v>113</v>
       </c>
       <c r="F130">
         <f>D130+4</f>
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="G130">
         <f>E130+3</f>
@@ -10260,7 +10263,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -10270,7 +10273,7 @@
       </c>
       <c r="D131">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="E131">
         <f>E130</f>
@@ -10278,7 +10281,7 @@
       </c>
       <c r="F131">
         <f>D131+4</f>
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="G131">
         <f>E131+3</f>
@@ -10317,7 +10320,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>186</v>
+        <v>100</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -10326,26 +10329,24 @@
         <v>19</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <f>E131</f>
-        <v>113</v>
+        <f>G102+11</f>
+        <v>132</v>
       </c>
       <c r="F132">
-        <f>D132+4</f>
-        <v>176</v>
+        <v>94</v>
       </c>
       <c r="G132">
         <f>E132+3</f>
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
       </c>
       <c r="I132">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -10357,10 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="O132" t="s">
         <v>27</v>
+      </c>
+      <c r="P132" t="s">
+        <v>101</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -10374,7 +10378,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -10383,47 +10387,48 @@
         <v>19</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="E133">
-        <f>E132</f>
-        <v>113</v>
+        <f>G132+4</f>
+        <v>139</v>
       </c>
       <c r="F133">
-        <f>D133+4</f>
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G133">
-        <f>E133+3</f>
-        <v>116</v>
+        <f>E133+4</f>
+        <v>143</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
       </c>
       <c r="I133">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
+        <v>21</v>
+      </c>
+      <c r="O133" t="s">
+        <v>27</v>
+      </c>
+      <c r="P133" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q133">
+        <v>2</v>
+      </c>
+      <c r="R133" t="b">
         <v>1</v>
-      </c>
-      <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="N133" t="s">
-        <v>117</v>
-      </c>
-      <c r="O133" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q133">
-        <v>2</v>
-      </c>
-      <c r="R133" t="b">
-        <v>0</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -10431,33 +10436,31 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D134">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="E134">
-        <f>G101+4</f>
+        <f>G132+4</f>
         <v>139</v>
       </c>
       <c r="F134">
-        <v>205</v>
+        <f>D134+88</f>
+        <v>93</v>
       </c>
       <c r="G134">
-        <f>E134+4</f>
-        <v>143</v>
-      </c>
-      <c r="H134" t="s">
-        <v>20</v>
+        <f>E134+80</f>
+        <v>219</v>
       </c>
       <c r="I134">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -10474,14 +10477,11 @@
       <c r="O134" t="s">
         <v>27</v>
       </c>
-      <c r="P134" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="Q134">
         <v>2</v>
       </c>
       <c r="R134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -10501,16 +10501,16 @@
         <v>100</v>
       </c>
       <c r="E135">
-        <f>E134+40</f>
-        <v>179</v>
+        <f>G135-28</f>
+        <v>191</v>
       </c>
       <c r="F135">
         <f>F140</f>
         <v>203</v>
       </c>
       <c r="G135">
-        <f>G149+5</f>
-        <v>207</v>
+        <f>G134</f>
+        <v>219</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -10559,14 +10559,14 @@
       </c>
       <c r="E136">
         <f>E135+2</f>
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="F136">
         <v>174</v>
       </c>
       <c r="G136">
         <f>E136+3</f>
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="H136" t="s">
         <v>20</v>
@@ -10618,7 +10618,7 @@
       </c>
       <c r="E137">
         <f>E135+7</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F137">
         <f>D137+18</f>
@@ -10626,7 +10626,7 @@
       </c>
       <c r="G137">
         <f>E137+3</f>
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H137" t="s">
         <v>20</v>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="E138">
         <f>E137</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F138">
         <f>D142-1</f>
@@ -10686,7 +10686,7 @@
       </c>
       <c r="G138">
         <f>E138+3</f>
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H138" t="s">
         <v>20</v>
@@ -10738,7 +10738,7 @@
       </c>
       <c r="E139">
         <f>E138</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F139">
         <f>D143+1</f>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="G139">
         <f>E139+3</f>
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H139" t="s">
         <v>20</v>
@@ -10798,7 +10798,7 @@
       </c>
       <c r="E140">
         <f>E139</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F140">
         <f>D140+18</f>
@@ -10806,7 +10806,7 @@
       </c>
       <c r="G140">
         <f>E140+3</f>
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="H140" t="s">
         <v>20</v>
@@ -10858,7 +10858,7 @@
       </c>
       <c r="E141">
         <f>E137</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F141">
         <f>F137+1</f>
@@ -10866,7 +10866,7 @@
       </c>
       <c r="G141">
         <f>G149+3</f>
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -10912,7 +10912,7 @@
       </c>
       <c r="E142">
         <f>E137</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F142">
         <f t="shared" ref="F142:F143" si="5">D142</f>
@@ -10920,7 +10920,7 @@
       </c>
       <c r="G142">
         <f>G141</f>
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="E143">
         <f>E137</f>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="F143">
         <f t="shared" si="5"/>
@@ -10974,7 +10974,7 @@
       </c>
       <c r="G143">
         <f>G142</f>
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -11020,7 +11020,7 @@
       </c>
       <c r="E144">
         <f>E137+10</f>
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F144">
         <f>F135</f>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="G144">
         <f>E144</f>
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -11074,7 +11074,7 @@
       </c>
       <c r="E145">
         <f>E144+2</f>
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F145">
         <f>D145+36</f>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="G145">
         <f>E145+4</f>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H145" t="s">
         <v>20</v>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="E146">
         <f>E145+1</f>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F146">
         <f>D146+4</f>
@@ -11142,7 +11142,7 @@
       </c>
       <c r="G146">
         <f>E146+3</f>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H146" t="s">
         <v>20</v>
@@ -11191,7 +11191,7 @@
       </c>
       <c r="E147">
         <f>E146</f>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F147">
         <f>D147+4</f>
@@ -11199,7 +11199,7 @@
       </c>
       <c r="G147">
         <f>E147+3</f>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H147" t="s">
         <v>20</v>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="E148">
         <f>E147</f>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F148">
         <f>D148+4</f>
@@ -11256,7 +11256,7 @@
       </c>
       <c r="G148">
         <f>E148+3</f>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H148" t="s">
         <v>20</v>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="E149">
         <f>E148</f>
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F149">
         <f>D149+4</f>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="G149">
         <f>E149+3</f>
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H149" t="s">
         <v>20</v>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE1C40B-3404-4D21-9A54-B172DD4C76CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC60DA-AC39-436B-9C6D-630C37D544A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="603">
   <si>
     <t>name</t>
   </si>
@@ -1757,9 +1757,6 @@
     <t>This policy report presents findings for {city} arising from a collaborative study of 25 cities from diverse settings globally.  An analysis of policies supporting urban and transport features contributing which contribute to health, wellbeing and sustainability was conducted, and their presence in local neighbourhoods was also evaluated.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Urban Design and Transport Features and Policy for Health Report, {year}</t>
   </si>
   <si>
@@ -1772,9 +1769,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>Melbourne is a coastal Australian port city developed through the nineteenth to twenty-first centuries with temperate climate, rapid population growth and sprawling growth extending from relatively flat, moderately dense and well-serviced inner suburbs to peri-urban rural and bush fringe areas challenged with a lack of amenities, local employment opportunities and transport infrastructure.</t>
-  </si>
-  <si>
     <t>This policy report presents findings for {city} arising from a collaborative study of 25 cities from diverse settings globally.  An analysis of policies supporting urban and transport features which contribute to health, wellbeing and sustainability was conducted, and their presence in local neighbourhoods was also evaluated.</t>
   </si>
   <si>
@@ -1794,6 +1788,81 @@
   </si>
   <si>
     <t>(below) City estimates for percentage of population with access to amenities within 500 metres (m).</t>
+  </si>
+  <si>
+    <t>Transporte público com serviço regular</t>
+  </si>
+  <si>
+    <t>ระบบขนส่งสาธารณะที่มีบริการปกติ</t>
+  </si>
+  <si>
+    <t>Maiduguri</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Hanoi</t>
+  </si>
+  <si>
+    <t>Graz</t>
+  </si>
+  <si>
+    <t>Ghent</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Olomouc</t>
+  </si>
+  <si>
+    <t>Cologne</t>
+  </si>
+  <si>
+    <t>Odense</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Vic</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Lisbon</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Melbourne is a coastal Australian port city developed through the nineteenth to twenty-first centuries with temperate climate with rapid population growth, sprawling from relatively flat, moderately dense and well-serviced inner suburbs to peri-urban rural and bush fringe areas challenged with a lack of amenities, local employment opportunities and transport infrastructure.</t>
   </si>
 </sst>
 </file>
@@ -2307,16 +2376,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2793,11 +2864,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U163"/>
+  <dimension ref="A1:U164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3041,7 +3112,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3085,7 +3156,7 @@
         <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3558,8 +3629,8 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <f>E22-7</f>
-        <v>66</v>
+        <f>E22-5</f>
+        <v>68</v>
       </c>
       <c r="F14">
         <f>D14+90</f>
@@ -3567,7 +3638,7 @@
       </c>
       <c r="G14">
         <f>E14+90</f>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -3613,7 +3684,7 @@
       </c>
       <c r="E15">
         <f>E14-3</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F15">
         <f>D15+92</f>
@@ -3621,7 +3692,7 @@
       </c>
       <c r="G15">
         <f>E15+3</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -4015,7 +4086,7 @@
         <v>204</v>
       </c>
       <c r="G22">
-        <f>G44+3</f>
+        <f>G45+3</f>
         <v>152</v>
       </c>
       <c r="I22">
@@ -4110,7 +4181,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4156,7 +4227,7 @@
         <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -4179,7 +4250,7 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <f>F29+2</f>
+        <f>F30+2</f>
         <v>177</v>
       </c>
       <c r="E25">
@@ -4230,141 +4301,135 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <f>F24+2</f>
+        <v>179</v>
+      </c>
+      <c r="E26">
+        <f>E25</f>
+        <v>76</v>
+      </c>
+      <c r="F26">
+        <f>D26</f>
+        <v>179</v>
+      </c>
+      <c r="G26">
+        <f>G22-2</f>
+        <v>150</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
+        <v>117</v>
+      </c>
+      <c r="O26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26" t="b">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>126</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>100</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <f>E25+10</f>
         <v>86</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <f>F25</f>
         <v>204</v>
       </c>
-      <c r="G26">
-        <f>E26</f>
+      <c r="G27">
+        <f>E27</f>
         <v>86</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>117</v>
       </c>
-      <c r="O26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26">
+      <c r="O27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27">
         <v>4</v>
       </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="R27" t="b">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <f>$D$23</f>
         <v>101</v>
       </c>
-      <c r="E27">
-        <f>E26+2</f>
+      <c r="E28">
+        <f>E27+2</f>
         <v>88</v>
       </c>
-      <c r="F27">
-        <f>D27+68</f>
+      <c r="F28">
+        <f>D28+68</f>
         <v>169</v>
       </c>
-      <c r="G27">
-        <f>E27+4</f>
-        <v>92</v>
-      </c>
-      <c r="H27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>127</v>
-      </c>
-      <c r="O27" t="s">
-        <v>27</v>
-      </c>
-      <c r="P27" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27" t="b">
-        <v>1</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <f>F29+2</f>
-        <v>177</v>
-      </c>
-      <c r="E28">
-        <f>E27</f>
-        <v>88</v>
-      </c>
-      <c r="F28">
-        <f>$F$22</f>
-        <v>204</v>
-      </c>
       <c r="G28">
-        <f>G27</f>
+        <f>E28+4</f>
         <v>92</v>
       </c>
       <c r="H28" t="s">
@@ -4386,10 +4451,10 @@
         <v>127</v>
       </c>
       <c r="O28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q28">
         <v>3</v>
@@ -4403,7 +4468,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -4412,29 +4477,29 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <f>D27+70</f>
-        <v>171</v>
+        <f>F30+2</f>
+        <v>177</v>
       </c>
       <c r="E29">
         <f>E28</f>
         <v>88</v>
       </c>
       <c r="F29">
-        <f>D29+4</f>
-        <v>175</v>
+        <f>$F$22</f>
+        <v>204</v>
       </c>
       <c r="G29">
-        <f>E29+6</f>
-        <v>94</v>
+        <f>G28</f>
+        <v>92</v>
       </c>
       <c r="H29" t="s">
         <v>20</v>
       </c>
       <c r="I29">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4446,13 +4511,16 @@
         <v>127</v>
       </c>
       <c r="O29" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P29" t="s">
+        <v>68</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4460,7 +4528,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -4469,79 +4537,76 @@
         <v>19</v>
       </c>
       <c r="D30">
+        <f>D28+70</f>
+        <v>171</v>
+      </c>
+      <c r="E30">
+        <f>E29</f>
+        <v>88</v>
+      </c>
+      <c r="F30">
+        <f>D30+4</f>
+        <v>175</v>
+      </c>
+      <c r="G30">
+        <f>E30+6</f>
+        <v>94</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>15</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+      <c r="R30" t="b">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
         <f>$D$23</f>
         <v>101</v>
       </c>
-      <c r="E30">
-        <f>E29+11</f>
+      <c r="E31">
+        <f>E30+11</f>
         <v>99</v>
       </c>
-      <c r="F30">
-        <f>D30+68</f>
+      <c r="F31">
+        <f>D31+68</f>
         <v>169</v>
       </c>
-      <c r="G30">
-        <f>E30+4</f>
-        <v>103</v>
-      </c>
-      <c r="H30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30">
-        <v>8</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="N30" t="s">
-        <v>127</v>
-      </c>
-      <c r="O30" t="s">
-        <v>27</v>
-      </c>
-      <c r="P30" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="R30" t="b">
-        <v>1</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31">
-        <f>F32+2</f>
-        <v>177</v>
-      </c>
-      <c r="E31">
-        <f>E30</f>
-        <v>99</v>
-      </c>
-      <c r="F31">
-        <f>$F$22</f>
-        <v>204</v>
-      </c>
       <c r="G31">
-        <f>G30</f>
+        <f>E31+4</f>
         <v>103</v>
       </c>
       <c r="H31" t="s">
@@ -4563,10 +4628,10 @@
         <v>127</v>
       </c>
       <c r="O31" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q31">
         <v>3</v>
@@ -4580,7 +4645,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>2</v>
@@ -4589,29 +4654,29 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <f>D30+70</f>
-        <v>171</v>
+        <f>F33+2</f>
+        <v>177</v>
       </c>
       <c r="E32">
         <f>E31</f>
         <v>99</v>
       </c>
       <c r="F32">
-        <f>D32+4</f>
-        <v>175</v>
+        <f>$F$22</f>
+        <v>204</v>
       </c>
       <c r="G32">
-        <f>E32+6</f>
-        <v>105</v>
+        <f>G31</f>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
         <v>20</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -4623,13 +4688,16 @@
         <v>127</v>
       </c>
       <c r="O32" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P32" t="s">
+        <v>73</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4637,7 +4705,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -4646,79 +4714,76 @@
         <v>19</v>
       </c>
       <c r="D33">
+        <f>D31+70</f>
+        <v>171</v>
+      </c>
+      <c r="E33">
+        <f>E32</f>
+        <v>99</v>
+      </c>
+      <c r="F33">
+        <f>D33+4</f>
+        <v>175</v>
+      </c>
+      <c r="G33">
+        <f>E33+6</f>
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
+        <v>127</v>
+      </c>
+      <c r="O33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33" t="b">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34">
         <f>$D$23</f>
         <v>101</v>
       </c>
-      <c r="E33">
-        <f>E32+11</f>
+      <c r="E34">
+        <f>E33+11</f>
         <v>110</v>
       </c>
-      <c r="F33">
-        <f>D33+68</f>
+      <c r="F34">
+        <f>D34+68</f>
         <v>169</v>
       </c>
-      <c r="G33">
-        <f>E33+4</f>
-        <v>114</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33">
-        <v>8</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" t="s">
-        <v>27</v>
-      </c>
-      <c r="P33" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33" t="b">
-        <v>1</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34">
-        <f>F35+2</f>
-        <v>177</v>
-      </c>
-      <c r="E34">
-        <f>E33</f>
-        <v>110</v>
-      </c>
-      <c r="F34">
-        <f>$F$22</f>
-        <v>204</v>
-      </c>
       <c r="G34">
-        <f>G33</f>
+        <f>E34+4</f>
         <v>114</v>
       </c>
       <c r="H34" t="s">
@@ -4740,10 +4805,10 @@
         <v>127</v>
       </c>
       <c r="O34" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -4757,7 +4822,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -4766,29 +4831,29 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <f>D33+70</f>
-        <v>171</v>
+        <f>F36+2</f>
+        <v>177</v>
       </c>
       <c r="E35">
         <f>E34</f>
         <v>110</v>
       </c>
       <c r="F35">
-        <f>D35+4</f>
-        <v>175</v>
+        <f>$F$22</f>
+        <v>204</v>
       </c>
       <c r="G35">
-        <f>E35+6</f>
-        <v>116</v>
+        <f>G34</f>
+        <v>114</v>
       </c>
       <c r="H35" t="s">
         <v>20</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -4800,13 +4865,16 @@
         <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P35" t="s">
+        <v>78</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4814,7 +4882,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -4823,79 +4891,76 @@
         <v>19</v>
       </c>
       <c r="D36">
+        <f>D34+70</f>
+        <v>171</v>
+      </c>
+      <c r="E36">
+        <f>E35</f>
+        <v>110</v>
+      </c>
+      <c r="F36">
+        <f>D36+4</f>
+        <v>175</v>
+      </c>
+      <c r="G36">
+        <f>E36+6</f>
+        <v>116</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="N36" t="s">
+        <v>127</v>
+      </c>
+      <c r="O36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36" t="b">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37">
         <f>$D$23</f>
         <v>101</v>
       </c>
-      <c r="E36">
-        <f>E35+11</f>
+      <c r="E37">
+        <f>E36+11</f>
         <v>121</v>
       </c>
-      <c r="F36">
-        <f>D36+68</f>
+      <c r="F37">
+        <f>D37+68</f>
         <v>169</v>
       </c>
-      <c r="G36">
-        <f>E36+4</f>
-        <v>125</v>
-      </c>
-      <c r="H36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="N36" t="s">
-        <v>127</v>
-      </c>
-      <c r="O36" t="s">
-        <v>27</v>
-      </c>
-      <c r="P36" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q36">
-        <v>3</v>
-      </c>
-      <c r="R36" t="b">
-        <v>1</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37">
-        <f>F38+2</f>
-        <v>177</v>
-      </c>
-      <c r="E37">
-        <f>E36</f>
-        <v>121</v>
-      </c>
-      <c r="F37">
-        <f>$F$22</f>
-        <v>204</v>
-      </c>
       <c r="G37">
-        <f>G36</f>
+        <f>E37+4</f>
         <v>125</v>
       </c>
       <c r="H37" t="s">
@@ -4917,10 +4982,10 @@
         <v>127</v>
       </c>
       <c r="O37" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -4934,7 +4999,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -4943,29 +5008,29 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <f>D36+70</f>
-        <v>171</v>
+        <f>F39+2</f>
+        <v>177</v>
       </c>
       <c r="E38">
         <f>E37</f>
         <v>121</v>
       </c>
       <c r="F38">
-        <f>D38+4</f>
-        <v>175</v>
+        <f>$F$22</f>
+        <v>204</v>
       </c>
       <c r="G38">
-        <f>E38+6</f>
-        <v>127</v>
+        <f>G37</f>
+        <v>125</v>
       </c>
       <c r="H38" t="s">
         <v>20</v>
       </c>
       <c r="I38">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4977,13 +5042,16 @@
         <v>127</v>
       </c>
       <c r="O38" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P38" t="s">
+        <v>83</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -4991,7 +5059,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -5000,79 +5068,76 @@
         <v>19</v>
       </c>
       <c r="D39">
+        <f>D37+70</f>
+        <v>171</v>
+      </c>
+      <c r="E39">
+        <f>E38</f>
+        <v>121</v>
+      </c>
+      <c r="F39">
+        <f>D39+4</f>
+        <v>175</v>
+      </c>
+      <c r="G39">
+        <f>E39+6</f>
+        <v>127</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="N39" t="s">
+        <v>127</v>
+      </c>
+      <c r="O39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39">
+        <v>2</v>
+      </c>
+      <c r="R39" t="b">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
         <f>$D$23</f>
         <v>101</v>
       </c>
-      <c r="E39">
-        <f>E36+11</f>
+      <c r="E40">
+        <f>E37+11</f>
         <v>132</v>
       </c>
-      <c r="F39">
-        <f>D39+68</f>
+      <c r="F40">
+        <f>D40+68</f>
         <v>169</v>
       </c>
-      <c r="G39">
-        <f>E39+4</f>
-        <v>136</v>
-      </c>
-      <c r="H39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39">
-        <v>8</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>127</v>
-      </c>
-      <c r="O39" t="s">
-        <v>27</v>
-      </c>
-      <c r="P39" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q39">
-        <v>3</v>
-      </c>
-      <c r="R39" t="b">
-        <v>1</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40">
-        <f>F41+2</f>
-        <v>177</v>
-      </c>
-      <c r="E40">
-        <f>E39</f>
-        <v>132</v>
-      </c>
-      <c r="F40">
-        <f>$F$22</f>
-        <v>204</v>
-      </c>
       <c r="G40">
-        <f>G39</f>
+        <f>E40+4</f>
         <v>136</v>
       </c>
       <c r="H40" t="s">
@@ -5094,10 +5159,10 @@
         <v>127</v>
       </c>
       <c r="O40" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -5111,7 +5176,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -5120,29 +5185,29 @@
         <v>19</v>
       </c>
       <c r="D41">
-        <f>D39+70</f>
-        <v>171</v>
+        <f>F42+2</f>
+        <v>177</v>
       </c>
       <c r="E41">
         <f>E40</f>
         <v>132</v>
       </c>
       <c r="F41">
-        <f>D41+4</f>
-        <v>175</v>
+        <f>$F$22</f>
+        <v>204</v>
       </c>
       <c r="G41">
-        <f>E41+6</f>
-        <v>138</v>
+        <f>G40</f>
+        <v>136</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
       </c>
       <c r="I41">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -5154,13 +5219,16 @@
         <v>127</v>
       </c>
       <c r="O41" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P41" t="s">
+        <v>88</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -5168,7 +5236,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -5177,79 +5245,76 @@
         <v>19</v>
       </c>
       <c r="D42">
+        <f>D40+70</f>
+        <v>171</v>
+      </c>
+      <c r="E42">
+        <f>E41</f>
+        <v>132</v>
+      </c>
+      <c r="F42">
+        <f>D42+4</f>
+        <v>175</v>
+      </c>
+      <c r="G42">
+        <f>E42+6</f>
+        <v>138</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>127</v>
+      </c>
+      <c r="O42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+      <c r="R42" t="b">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
         <f>$D$23</f>
         <v>101</v>
       </c>
-      <c r="E42">
-        <f>E39+11</f>
+      <c r="E43">
+        <f>E40+11</f>
         <v>143</v>
       </c>
-      <c r="F42">
-        <f>D42+68</f>
+      <c r="F43">
+        <f>D43+68</f>
         <v>169</v>
       </c>
-      <c r="G42">
-        <f>E42+4</f>
-        <v>147</v>
-      </c>
-      <c r="H42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42">
-        <v>8</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>127</v>
-      </c>
-      <c r="O42" t="s">
-        <v>27</v>
-      </c>
-      <c r="P42" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q42">
-        <v>3</v>
-      </c>
-      <c r="R42" t="b">
-        <v>1</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43">
-        <f>F44+2</f>
-        <v>177</v>
-      </c>
-      <c r="E43">
-        <f>E42</f>
-        <v>143</v>
-      </c>
-      <c r="F43">
-        <f>$F$22</f>
-        <v>204</v>
-      </c>
       <c r="G43">
-        <f>G42</f>
+        <f>E43+4</f>
         <v>147</v>
       </c>
       <c r="H43" t="s">
@@ -5271,10 +5336,10 @@
         <v>127</v>
       </c>
       <c r="O43" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>91</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -5288,7 +5353,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -5297,29 +5362,29 @@
         <v>19</v>
       </c>
       <c r="D44">
-        <f>D42+70</f>
-        <v>171</v>
+        <f>F45+2</f>
+        <v>177</v>
       </c>
       <c r="E44">
         <f>E43</f>
         <v>143</v>
       </c>
       <c r="F44">
-        <f>D44+4</f>
-        <v>175</v>
+        <f>$F$22</f>
+        <v>204</v>
       </c>
       <c r="G44">
-        <f>E44+6</f>
-        <v>149</v>
+        <f>G43</f>
+        <v>147</v>
       </c>
       <c r="H44" t="s">
         <v>20</v>
       </c>
       <c r="I44">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -5331,13 +5396,16 @@
         <v>127</v>
       </c>
       <c r="O44" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P44" t="s">
+        <v>207</v>
       </c>
       <c r="Q44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5345,7 +5413,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -5354,86 +5422,84 @@
         <v>19</v>
       </c>
       <c r="D45">
+        <f>D43+70</f>
+        <v>171</v>
+      </c>
+      <c r="E45">
+        <f>E44</f>
+        <v>143</v>
+      </c>
+      <c r="F45">
+        <f>D45+4</f>
+        <v>175</v>
+      </c>
+      <c r="G45">
+        <f>E45+6</f>
+        <v>149</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
+        <v>127</v>
+      </c>
+      <c r="O45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+      <c r="R45" t="b">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
         <v>7</v>
       </c>
-      <c r="E45">
+      <c r="E46">
         <f>G22+6</f>
         <v>158</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>94</v>
       </c>
-      <c r="G45">
-        <f>E45+3</f>
+      <c r="G46">
+        <f>E46+3</f>
         <v>161</v>
-      </c>
-      <c r="H45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45">
-        <v>12</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>21</v>
-      </c>
-      <c r="O45" t="s">
-        <v>27</v>
-      </c>
-      <c r="P45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="R45" t="b">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46">
-        <f>D45</f>
-        <v>7</v>
-      </c>
-      <c r="E46">
-        <f>G45+4</f>
-        <v>165</v>
-      </c>
-      <c r="F46">
-        <v>208</v>
-      </c>
-      <c r="G46">
-        <f>E46+4</f>
-        <v>169</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -5447,14 +5513,14 @@
       <c r="O46" t="s">
         <v>27</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>251</v>
+      <c r="P46" t="s">
+        <v>49</v>
       </c>
       <c r="Q46">
         <v>2</v>
       </c>
       <c r="R46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -5462,31 +5528,34 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="B47">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <f>D46</f>
+        <v>7</v>
       </c>
       <c r="E47">
-        <f>E48+8</f>
-        <v>201</v>
+        <f>G46+4</f>
+        <v>165</v>
       </c>
       <c r="F47">
-        <f>D47+88</f>
-        <v>93</v>
+        <v>208</v>
       </c>
       <c r="G47">
-        <f>E47+80</f>
-        <v>281</v>
+        <f>E47+4</f>
+        <v>169</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -5503,11 +5572,14 @@
       <c r="O47" t="s">
         <v>27</v>
       </c>
+      <c r="P47" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="Q47">
         <v>2</v>
       </c>
       <c r="R47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
         <v>0</v>
@@ -5515,33 +5587,34 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>193</v>
+        <f>E49+8</f>
+        <v>201</v>
       </c>
       <c r="F48">
-        <f>F53</f>
-        <v>203</v>
+        <f>D48+88</f>
+        <v>93</v>
       </c>
       <c r="G48">
-        <f>G92+5</f>
-        <v>287</v>
+        <f>E48+80</f>
+        <v>281</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5549,17 +5622,14 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="M48" t="s">
-        <v>117</v>
-      </c>
       <c r="N48" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="O48" t="s">
         <v>27</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R48" t="b">
         <v>0</v>
@@ -5570,35 +5640,30 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>544</v>
+        <v>94</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <f>D48+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49">
-        <f>E48+2</f>
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F49">
-        <f>F48</f>
+        <f>F54</f>
         <v>203</v>
       </c>
       <c r="G49">
-        <f>E49+3</f>
-        <v>198</v>
-      </c>
-      <c r="H49" t="s">
-        <v>20</v>
+        <f>G93+5</f>
+        <v>287</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -5609,17 +5674,17 @@
       <c r="L49">
         <v>0</v>
       </c>
+      <c r="M49" t="s">
+        <v>117</v>
+      </c>
       <c r="N49" t="s">
         <v>117</v>
       </c>
       <c r="O49" t="s">
         <v>27</v>
       </c>
-      <c r="P49" t="s">
-        <v>545</v>
-      </c>
       <c r="Q49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R49" t="b">
         <v>0</v>
@@ -5630,7 +5695,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>544</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -5639,20 +5704,20 @@
         <v>19</v>
       </c>
       <c r="D50">
-        <f>D48+30</f>
-        <v>130</v>
+        <f>D49+1</f>
+        <v>101</v>
       </c>
       <c r="E50">
-        <f>E48+7</f>
-        <v>200</v>
+        <f>E49+2</f>
+        <v>195</v>
       </c>
       <c r="F50">
-        <f>D50+18</f>
-        <v>148</v>
+        <f>F49</f>
+        <v>203</v>
       </c>
       <c r="G50">
         <f>E50+3</f>
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H50" t="s">
         <v>20</v>
@@ -5661,7 +5726,7 @@
         <v>8</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5673,16 +5738,16 @@
         <v>117</v>
       </c>
       <c r="O50" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P50" t="s">
-        <v>125</v>
+        <v>545</v>
       </c>
       <c r="Q50">
         <v>3</v>
       </c>
       <c r="R50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S50">
         <v>0</v>
@@ -5690,7 +5755,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -5699,16 +5764,16 @@
         <v>19</v>
       </c>
       <c r="D51">
-        <f>D54</f>
-        <v>149</v>
+        <f>D49+30</f>
+        <v>130</v>
       </c>
       <c r="E51">
-        <f>E50</f>
+        <f>E49+7</f>
         <v>200</v>
       </c>
       <c r="F51">
-        <f>D55-1</f>
-        <v>166</v>
+        <f>D51+18</f>
+        <v>148</v>
       </c>
       <c r="G51">
         <f>E51+3</f>
@@ -5736,7 +5801,7 @@
         <v>40</v>
       </c>
       <c r="P51" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -5750,7 +5815,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -5759,16 +5824,16 @@
         <v>19</v>
       </c>
       <c r="D52">
-        <f>D55-1</f>
+        <f>D55</f>
+        <v>149</v>
+      </c>
+      <c r="E52">
+        <f>E51</f>
+        <v>200</v>
+      </c>
+      <c r="F52">
+        <f>D56-1</f>
         <v>166</v>
-      </c>
-      <c r="E52">
-        <f t="shared" ref="E52:E56" si="0">E51</f>
-        <v>200</v>
-      </c>
-      <c r="F52">
-        <f>D56+1</f>
-        <v>186</v>
       </c>
       <c r="G52">
         <f>E52+3</f>
@@ -5796,7 +5861,7 @@
         <v>40</v>
       </c>
       <c r="P52" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -5810,7 +5875,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -5819,16 +5884,16 @@
         <v>19</v>
       </c>
       <c r="D53">
-        <f>D56</f>
-        <v>185</v>
+        <f>D56-1</f>
+        <v>166</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E53:E57" si="0">E52</f>
         <v>200</v>
       </c>
       <c r="F53">
-        <f>D53+18</f>
-        <v>203</v>
+        <f>D57+1</f>
+        <v>186</v>
       </c>
       <c r="G53">
         <f>E53+3</f>
@@ -5856,7 +5921,7 @@
         <v>40</v>
       </c>
       <c r="P53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -5870,32 +5935,35 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <f>F50+1</f>
-        <v>149</v>
+        <f>D57</f>
+        <v>185</v>
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F54">
-        <f>F50+1</f>
-        <v>149</v>
+        <f>D54+18</f>
+        <v>203</v>
       </c>
       <c r="G54">
-        <f>G92+3</f>
-        <v>285</v>
+        <f>E54+3</f>
+        <v>203</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5910,13 +5978,16 @@
         <v>117</v>
       </c>
       <c r="O54" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P54" t="s">
+        <v>123</v>
       </c>
       <c r="Q54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -5924,7 +5995,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -5933,19 +6004,19 @@
         <v>27</v>
       </c>
       <c r="D55">
-        <f>D54+18</f>
-        <v>167</v>
+        <f>F51+1</f>
+        <v>149</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:F56" si="1">D55</f>
-        <v>167</v>
+        <f>F51+1</f>
+        <v>149</v>
       </c>
       <c r="G55">
-        <f>G54</f>
+        <f>G93+3</f>
         <v>285</v>
       </c>
       <c r="I55">
@@ -5978,7 +6049,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -5988,15 +6059,15 @@
       </c>
       <c r="D56">
         <f>D55+18</f>
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
-        <v>185</v>
+        <f t="shared" ref="F56:F57" si="1">D56</f>
+        <v>167</v>
       </c>
       <c r="G56">
         <f>G55</f>
@@ -6032,7 +6103,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -6041,20 +6112,20 @@
         <v>27</v>
       </c>
       <c r="D57">
-        <f>D48</f>
-        <v>100</v>
+        <f>D56+18</f>
+        <v>185</v>
       </c>
       <c r="E57">
-        <f>E50+10</f>
-        <v>210</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="F57">
-        <f>F48</f>
-        <v>203</v>
+        <f t="shared" si="1"/>
+        <v>185</v>
       </c>
       <c r="G57">
-        <f>E57</f>
-        <v>210</v>
+        <f>G56</f>
+        <v>285</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6086,35 +6157,32 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D58">
-        <f>D48+1</f>
-        <v>101</v>
+        <f>D49</f>
+        <v>100</v>
       </c>
       <c r="E58">
-        <f>E57+2</f>
-        <v>212</v>
+        <f>E51+10</f>
+        <v>210</v>
       </c>
       <c r="F58">
-        <f>D58+36</f>
-        <v>137</v>
+        <f>F49</f>
+        <v>203</v>
       </c>
       <c r="G58">
-        <f>E58+4</f>
-        <v>216</v>
-      </c>
-      <c r="H58" t="s">
-        <v>20</v>
+        <f>E58</f>
+        <v>210</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -6131,14 +6199,11 @@
       <c r="O58" t="s">
         <v>27</v>
       </c>
-      <c r="P58" t="s">
-        <v>110</v>
-      </c>
       <c r="Q58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <v>0</v>
@@ -6146,7 +6211,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B59">
         <v>2</v>
@@ -6155,29 +6220,29 @@
         <v>19</v>
       </c>
       <c r="D59">
-        <f>D50+6</f>
-        <v>136</v>
+        <f>D49+1</f>
+        <v>101</v>
       </c>
       <c r="E59">
-        <f>E58+1</f>
-        <v>213</v>
+        <f>E58+2</f>
+        <v>212</v>
       </c>
       <c r="F59">
-        <f>D59+4</f>
-        <v>140</v>
+        <f>D59+36</f>
+        <v>137</v>
       </c>
       <c r="G59">
-        <f>E59+3</f>
+        <f>E59+4</f>
         <v>216</v>
       </c>
       <c r="H59" t="s">
         <v>20</v>
       </c>
       <c r="I59">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -6191,11 +6256,14 @@
       <c r="O59" t="s">
         <v>27</v>
       </c>
+      <c r="P59" t="s">
+        <v>110</v>
+      </c>
       <c r="Q59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59">
         <v>0</v>
@@ -6203,7 +6271,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -6212,16 +6280,16 @@
         <v>19</v>
       </c>
       <c r="D60">
-        <f>D59+18</f>
-        <v>154</v>
+        <f>D51+6</f>
+        <v>136</v>
       </c>
       <c r="E60">
-        <f>E59</f>
+        <f>E59+1</f>
         <v>213</v>
       </c>
       <c r="F60">
         <f>D60+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G60">
         <f>E60+3</f>
@@ -6260,7 +6328,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -6270,7 +6338,7 @@
       </c>
       <c r="D61">
         <f>D60+18</f>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E61">
         <f>E60</f>
@@ -6278,7 +6346,7 @@
       </c>
       <c r="F61">
         <f>D61+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G61">
         <f>E61+3</f>
@@ -6317,7 +6385,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -6327,7 +6395,7 @@
       </c>
       <c r="D62">
         <f>D61+18</f>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E62">
         <f>E61</f>
@@ -6335,7 +6403,7 @@
       </c>
       <c r="F62">
         <f>D62+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G62">
         <f>E62+3</f>
@@ -6374,7 +6442,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -6383,29 +6451,29 @@
         <v>19</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D92" si="2">D58</f>
-        <v>101</v>
+        <f>D62+18</f>
+        <v>190</v>
       </c>
       <c r="E63">
-        <f>E58+11</f>
-        <v>223</v>
+        <f>E62</f>
+        <v>213</v>
       </c>
       <c r="F63">
-        <f>F58</f>
-        <v>137</v>
+        <f>D63+4</f>
+        <v>194</v>
       </c>
       <c r="G63">
-        <f>E63+4</f>
-        <v>227</v>
+        <f>E63+3</f>
+        <v>216</v>
       </c>
       <c r="H63" t="s">
         <v>20</v>
       </c>
       <c r="I63">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -6419,14 +6487,11 @@
       <c r="O63" t="s">
         <v>27</v>
       </c>
-      <c r="P63" t="s">
-        <v>111</v>
-      </c>
       <c r="Q63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <v>0</v>
@@ -6434,7 +6499,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -6443,73 +6508,76 @@
         <v>19</v>
       </c>
       <c r="D64">
+        <f t="shared" ref="D64:D93" si="2">D59</f>
+        <v>101</v>
+      </c>
+      <c r="E64">
+        <f>E59+11</f>
+        <v>223</v>
+      </c>
+      <c r="F64">
+        <f>F59</f>
+        <v>137</v>
+      </c>
+      <c r="G64">
+        <f>E64+4</f>
+        <v>227</v>
+      </c>
+      <c r="H64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64">
+        <v>8</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
+        <v>117</v>
+      </c>
+      <c r="O64" t="s">
+        <v>27</v>
+      </c>
+      <c r="P64" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q64">
+        <v>3</v>
+      </c>
+      <c r="R64" t="b">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="E64">
-        <f>E63+1</f>
-        <v>224</v>
-      </c>
-      <c r="F64">
-        <f>D64+4</f>
-        <v>140</v>
-      </c>
-      <c r="G64">
-        <f>E64+3</f>
-        <v>227</v>
-      </c>
-      <c r="H64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64">
-        <v>15</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="N64" t="s">
-        <v>117</v>
-      </c>
-      <c r="O64" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q64">
-        <v>2</v>
-      </c>
-      <c r="R64" t="b">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
       <c r="E65">
-        <f>E64</f>
+        <f>E64+1</f>
         <v>224</v>
       </c>
       <c r="F65">
         <f>D65+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G65">
         <f>E65+3</f>
@@ -6548,7 +6616,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -6558,7 +6626,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E66">
         <f>E65</f>
@@ -6566,7 +6634,7 @@
       </c>
       <c r="F66">
         <f>D66+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G66">
         <f>E66+3</f>
@@ -6605,7 +6673,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -6615,7 +6683,7 @@
       </c>
       <c r="D67">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E67">
         <f>E66</f>
@@ -6623,7 +6691,7 @@
       </c>
       <c r="F67">
         <f>D67+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G67">
         <f>E67+3</f>
@@ -6662,7 +6730,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -6672,28 +6740,28 @@
       </c>
       <c r="D68">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E68">
-        <f>E63+11</f>
-        <v>234</v>
+        <f>E67</f>
+        <v>224</v>
       </c>
       <c r="F68">
-        <f>F63</f>
-        <v>137</v>
+        <f>D68+4</f>
+        <v>194</v>
       </c>
       <c r="G68">
-        <f>E68+4</f>
-        <v>238</v>
+        <f>E68+3</f>
+        <v>227</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -6707,14 +6775,11 @@
       <c r="O68" t="s">
         <v>27</v>
       </c>
-      <c r="P68" t="s">
-        <v>112</v>
-      </c>
       <c r="Q68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S68">
         <v>0</v>
@@ -6722,7 +6787,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -6732,28 +6797,28 @@
       </c>
       <c r="D69">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E69">
-        <f>E68+1</f>
-        <v>235</v>
+        <f>E64+11</f>
+        <v>234</v>
       </c>
       <c r="F69">
-        <f>D69+4</f>
-        <v>140</v>
+        <f>F64</f>
+        <v>137</v>
       </c>
       <c r="G69">
-        <f>E69+3</f>
+        <f>E69+4</f>
         <v>238</v>
       </c>
       <c r="H69" t="s">
         <v>20</v>
       </c>
       <c r="I69">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -6767,11 +6832,14 @@
       <c r="O69" t="s">
         <v>27</v>
       </c>
+      <c r="P69" t="s">
+        <v>112</v>
+      </c>
       <c r="Q69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -6779,7 +6847,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -6789,15 +6857,15 @@
       </c>
       <c r="D70">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E70">
-        <f>E69</f>
+        <f>E69+1</f>
         <v>235</v>
       </c>
       <c r="F70">
         <f>D70+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G70">
         <f>E70+3</f>
@@ -6836,7 +6904,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -6846,7 +6914,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E71">
         <f>E70</f>
@@ -6854,7 +6922,7 @@
       </c>
       <c r="F71">
         <f>D71+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G71">
         <f>E71+3</f>
@@ -6893,7 +6961,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B72">
         <v>2</v>
@@ -6903,7 +6971,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E72">
         <f>E71</f>
@@ -6911,7 +6979,7 @@
       </c>
       <c r="F72">
         <f>D72+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G72">
         <f>E72+3</f>
@@ -6950,7 +7018,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -6960,28 +7028,28 @@
       </c>
       <c r="D73">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E73">
-        <f>E68+11</f>
-        <v>245</v>
+        <f>E72</f>
+        <v>235</v>
       </c>
       <c r="F73">
-        <f>F68</f>
-        <v>137</v>
+        <f>D73+4</f>
+        <v>194</v>
       </c>
       <c r="G73">
-        <f>E73+4</f>
-        <v>249</v>
+        <f>E73+3</f>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
         <v>20</v>
       </c>
       <c r="I73">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -6995,14 +7063,11 @@
       <c r="O73" t="s">
         <v>27</v>
       </c>
-      <c r="P73" t="s">
-        <v>113</v>
-      </c>
       <c r="Q73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S73">
         <v>0</v>
@@ -7010,7 +7075,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -7020,28 +7085,28 @@
       </c>
       <c r="D74">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E74">
-        <f>E73+1</f>
-        <v>246</v>
+        <f>E69+11</f>
+        <v>245</v>
       </c>
       <c r="F74">
-        <f>D74+4</f>
-        <v>140</v>
+        <f>F69</f>
+        <v>137</v>
       </c>
       <c r="G74">
-        <f>E74+3</f>
+        <f>E74+4</f>
         <v>249</v>
       </c>
       <c r="H74" t="s">
         <v>20</v>
       </c>
       <c r="I74">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -7055,11 +7120,14 @@
       <c r="O74" t="s">
         <v>27</v>
       </c>
+      <c r="P74" t="s">
+        <v>113</v>
+      </c>
       <c r="Q74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -7067,7 +7135,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -7077,15 +7145,15 @@
       </c>
       <c r="D75">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E75">
-        <f>E74</f>
+        <f>E74+1</f>
         <v>246</v>
       </c>
       <c r="F75">
         <f>D75+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G75">
         <f>E75+3</f>
@@ -7124,7 +7192,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -7134,7 +7202,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E76">
         <f>E75</f>
@@ -7142,7 +7210,7 @@
       </c>
       <c r="F76">
         <f>D76+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G76">
         <f>E76+3</f>
@@ -7181,7 +7249,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -7191,7 +7259,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E77">
         <f>E76</f>
@@ -7199,7 +7267,7 @@
       </c>
       <c r="F77">
         <f>D77+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G77">
         <f>E77+3</f>
@@ -7238,7 +7306,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -7248,28 +7316,28 @@
       </c>
       <c r="D78">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E78">
-        <f>E73+11</f>
-        <v>256</v>
+        <f>E77</f>
+        <v>246</v>
       </c>
       <c r="F78">
-        <f>F73</f>
-        <v>137</v>
+        <f>D78+4</f>
+        <v>194</v>
       </c>
       <c r="G78">
-        <f>E78+4</f>
-        <v>260</v>
+        <f>E78+3</f>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
         <v>20</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -7283,14 +7351,11 @@
       <c r="O78" t="s">
         <v>27</v>
       </c>
-      <c r="P78" t="s">
-        <v>114</v>
-      </c>
       <c r="Q78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -7298,7 +7363,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -7308,28 +7373,28 @@
       </c>
       <c r="D79">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E79">
-        <f>E78+1</f>
-        <v>257</v>
+        <f>E74+11</f>
+        <v>256</v>
       </c>
       <c r="F79">
-        <f>D79+4</f>
-        <v>140</v>
+        <f>F74</f>
+        <v>137</v>
       </c>
       <c r="G79">
-        <f>E79+3</f>
+        <f>E79+4</f>
         <v>260</v>
       </c>
       <c r="H79" t="s">
         <v>20</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -7343,11 +7408,14 @@
       <c r="O79" t="s">
         <v>27</v>
       </c>
+      <c r="P79" t="s">
+        <v>114</v>
+      </c>
       <c r="Q79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S79">
         <v>0</v>
@@ -7355,7 +7423,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -7365,15 +7433,15 @@
       </c>
       <c r="D80">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E80">
-        <f>E79</f>
+        <f>E79+1</f>
         <v>257</v>
       </c>
       <c r="F80">
         <f>D80+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G80">
         <f>E80+3</f>
@@ -7412,7 +7480,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -7422,7 +7490,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E81">
         <f>E80</f>
@@ -7430,7 +7498,7 @@
       </c>
       <c r="F81">
         <f>D81+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G81">
         <f>E81+3</f>
@@ -7469,7 +7537,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -7479,7 +7547,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E82">
         <f>E81</f>
@@ -7487,7 +7555,7 @@
       </c>
       <c r="F82">
         <f>D82+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G82">
         <f>E82+3</f>
@@ -7526,7 +7594,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -7536,28 +7604,28 @@
       </c>
       <c r="D83">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E83">
-        <f>E78+11</f>
-        <v>267</v>
+        <f>E82</f>
+        <v>257</v>
       </c>
       <c r="F83">
-        <f>F78</f>
-        <v>137</v>
+        <f>D83+4</f>
+        <v>194</v>
       </c>
       <c r="G83">
-        <f>E83+4</f>
-        <v>271</v>
+        <f>E83+3</f>
+        <v>260</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
       </c>
       <c r="I83">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -7571,14 +7639,11 @@
       <c r="O83" t="s">
         <v>27</v>
       </c>
-      <c r="P83" t="s">
-        <v>115</v>
-      </c>
       <c r="Q83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S83">
         <v>0</v>
@@ -7586,7 +7651,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B84">
         <v>2</v>
@@ -7596,28 +7661,28 @@
       </c>
       <c r="D84">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E84">
-        <f>E83+1</f>
-        <v>268</v>
+        <f>E79+11</f>
+        <v>267</v>
       </c>
       <c r="F84">
-        <f>D84+4</f>
-        <v>140</v>
+        <f>F79</f>
+        <v>137</v>
       </c>
       <c r="G84">
-        <f>E84+3</f>
+        <f>E84+4</f>
         <v>271</v>
       </c>
       <c r="H84" t="s">
         <v>20</v>
       </c>
       <c r="I84">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -7631,11 +7696,14 @@
       <c r="O84" t="s">
         <v>27</v>
       </c>
+      <c r="P84" t="s">
+        <v>115</v>
+      </c>
       <c r="Q84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -7643,7 +7711,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -7653,15 +7721,15 @@
       </c>
       <c r="D85">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E85">
-        <f>E84</f>
+        <f>E84+1</f>
         <v>268</v>
       </c>
       <c r="F85">
         <f>D85+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G85">
         <f>E85+3</f>
@@ -7700,7 +7768,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -7710,7 +7778,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E86">
         <f>E85</f>
@@ -7718,7 +7786,7 @@
       </c>
       <c r="F86">
         <f>D86+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G86">
         <f>E86+3</f>
@@ -7757,7 +7825,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -7767,7 +7835,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E87">
         <f>E86</f>
@@ -7775,7 +7843,7 @@
       </c>
       <c r="F87">
         <f>D87+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G87">
         <f>E87+3</f>
@@ -7814,7 +7882,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -7824,28 +7892,28 @@
       </c>
       <c r="D88">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E88">
-        <f>E83+11</f>
-        <v>278</v>
+        <f>E87</f>
+        <v>268</v>
       </c>
       <c r="F88">
-        <f>F83</f>
-        <v>137</v>
+        <f>D88+4</f>
+        <v>194</v>
       </c>
       <c r="G88">
-        <f>E88+4</f>
-        <v>282</v>
+        <f>E88+3</f>
+        <v>271</v>
       </c>
       <c r="H88" t="s">
         <v>20</v>
       </c>
       <c r="I88">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -7859,14 +7927,11 @@
       <c r="O88" t="s">
         <v>27</v>
       </c>
-      <c r="P88" t="s">
-        <v>116</v>
-      </c>
       <c r="Q88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S88">
         <v>0</v>
@@ -7874,7 +7939,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B89">
         <v>2</v>
@@ -7884,28 +7949,28 @@
       </c>
       <c r="D89">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E89">
-        <f>E88+1</f>
-        <v>279</v>
+        <f>E84+11</f>
+        <v>278</v>
       </c>
       <c r="F89">
-        <f>D89+4</f>
-        <v>140</v>
+        <f>F84</f>
+        <v>137</v>
       </c>
       <c r="G89">
-        <f>E89+3</f>
+        <f>E89+4</f>
         <v>282</v>
       </c>
       <c r="H89" t="s">
         <v>20</v>
       </c>
       <c r="I89">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -7919,11 +7984,14 @@
       <c r="O89" t="s">
         <v>27</v>
       </c>
+      <c r="P89" t="s">
+        <v>116</v>
+      </c>
       <c r="Q89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S89">
         <v>0</v>
@@ -7931,7 +7999,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -7941,15 +8009,15 @@
       </c>
       <c r="D90">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E90">
-        <f>E89</f>
+        <f>E89+1</f>
         <v>279</v>
       </c>
       <c r="F90">
         <f>D90+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G90">
         <f>E90+3</f>
@@ -7988,7 +8056,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -7998,7 +8066,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E91">
         <f>E90</f>
@@ -8006,7 +8074,7 @@
       </c>
       <c r="F91">
         <f>D91+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G91">
         <f>E91+3</f>
@@ -8045,7 +8113,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -8055,7 +8123,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E92">
         <f>E91</f>
@@ -8063,7 +8131,7 @@
       </c>
       <c r="F92">
         <f>D92+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G92">
         <f>E92+3</f>
@@ -8102,32 +8170,35 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C93" t="s">
         <v>19</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>190</v>
       </c>
       <c r="E93">
-        <v>13</v>
+        <f>E92</f>
+        <v>279</v>
       </c>
       <c r="F93">
-        <f>D93+82</f>
-        <v>89</v>
+        <f>D93+4</f>
+        <v>194</v>
       </c>
       <c r="G93">
-        <v>16</v>
+        <f>E93+3</f>
+        <v>282</v>
       </c>
       <c r="H93" t="s">
         <v>20</v>
       </c>
       <c r="I93">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J93">
         <v>1</v>
@@ -8139,13 +8210,10 @@
         <v>0</v>
       </c>
       <c r="N93" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O93" t="s">
         <v>27</v>
-      </c>
-      <c r="P93" t="s">
-        <v>52</v>
       </c>
       <c r="Q93">
         <v>2</v>
@@ -8159,33 +8227,35 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B94">
         <v>3</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F94">
-        <f>D94+88</f>
-        <v>93</v>
+        <f>D94+82</f>
+        <v>89</v>
       </c>
       <c r="G94">
-        <f>E94+80</f>
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
+        <v>20</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -8199,6 +8269,9 @@
       <c r="O94" t="s">
         <v>27</v>
       </c>
+      <c r="P94" t="s">
+        <v>52</v>
+      </c>
       <c r="Q94">
         <v>2</v>
       </c>
@@ -8211,35 +8284,33 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>3</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D95">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="E95">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F95">
-        <f>D95+82</f>
-        <v>193</v>
+        <f>D95+88</f>
+        <v>93</v>
       </c>
       <c r="G95">
-        <v>16</v>
-      </c>
-      <c r="H95" t="s">
-        <v>20</v>
+        <f>E95+80</f>
+        <v>98</v>
       </c>
       <c r="I95">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -8253,9 +8324,6 @@
       <c r="O95" t="s">
         <v>27</v>
       </c>
-      <c r="P95" t="s">
-        <v>96</v>
-      </c>
       <c r="Q95">
         <v>2</v>
       </c>
@@ -8268,34 +8336,35 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B96">
         <v>3</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D96">
-        <f>D95-2</f>
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E96">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F96">
-        <f>D96+88</f>
-        <v>197</v>
+        <f>D96+82</f>
+        <v>193</v>
       </c>
       <c r="G96">
-        <f>E96+80</f>
-        <v>98</v>
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -8309,6 +8378,9 @@
       <c r="O96" t="s">
         <v>27</v>
       </c>
+      <c r="P96" t="s">
+        <v>96</v>
+      </c>
       <c r="Q96">
         <v>2</v>
       </c>
@@ -8321,7 +8393,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>576</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -8330,18 +8402,19 @@
         <v>26</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <f>D96-2</f>
+        <v>109</v>
       </c>
       <c r="E97">
-        <f>G96+5</f>
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="F97">
-        <v>210</v>
+        <f>D97+88</f>
+        <v>197</v>
       </c>
       <c r="G97">
-        <f>E97+210</f>
-        <v>313</v>
+        <f>E97+80</f>
+        <v>98</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -8373,38 +8446,36 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
       <c r="C98" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D98">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>211</v>
+        <f>G97+5</f>
+        <v>103</v>
       </c>
       <c r="F98">
         <v>210</v>
       </c>
       <c r="G98">
-        <f>E98+4</f>
-        <v>215</v>
-      </c>
-      <c r="H98" t="s">
-        <v>20</v>
+        <f>E98+210</f>
+        <v>313</v>
       </c>
       <c r="I98">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
@@ -8415,14 +8486,11 @@
       <c r="O98" t="s">
         <v>27</v>
       </c>
-      <c r="P98" t="s">
-        <v>578</v>
-      </c>
       <c r="Q98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
         <v>0</v>
@@ -8430,25 +8498,26 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>575</v>
       </c>
       <c r="B99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" t="s">
         <v>19</v>
       </c>
       <c r="D99">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="E99">
-        <v>13</v>
+        <v>211</v>
       </c>
       <c r="F99">
-        <v>94</v>
+        <v>210</v>
       </c>
       <c r="G99">
-        <v>16</v>
+        <f>E99+4</f>
+        <v>215</v>
       </c>
       <c r="H99" t="s">
         <v>20</v>
@@ -8457,10 +8526,10 @@
         <v>12</v>
       </c>
       <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
         <v>1</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -8472,13 +8541,13 @@
         <v>27</v>
       </c>
       <c r="P99" t="s">
-        <v>99</v>
+        <v>576</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99">
         <v>0</v>
@@ -8486,7 +8555,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>4</v>
@@ -8495,27 +8564,25 @@
         <v>19</v>
       </c>
       <c r="D100">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <f>G99+4</f>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F100">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="G100">
-        <f>E100+4</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H100" t="s">
         <v>20</v>
       </c>
       <c r="I100">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -8529,14 +8596,14 @@
       <c r="O100" t="s">
         <v>27</v>
       </c>
-      <c r="P100" s="1" t="s">
-        <v>203</v>
+      <c r="P100" t="s">
+        <v>99</v>
       </c>
       <c r="Q100">
         <v>2</v>
       </c>
       <c r="R100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100">
         <v>0</v>
@@ -8544,31 +8611,33 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="B101">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D101">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E101">
-        <f>G99+4</f>
+        <f>G100+4</f>
         <v>20</v>
       </c>
       <c r="F101">
-        <f>D101+88</f>
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="G101">
-        <f>E101+80</f>
-        <v>100</v>
+        <f>E101+4</f>
+        <v>24</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -8585,11 +8654,14 @@
       <c r="O101" t="s">
         <v>27</v>
       </c>
+      <c r="P101" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="Q101">
         <v>2</v>
       </c>
       <c r="R101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S101">
         <v>0</v>
@@ -8597,34 +8669,34 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <f>G100+4</f>
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <f>D102+88</f>
+        <v>93</v>
+      </c>
+      <c r="G102">
+        <f>E102+80</f>
         <v>100</v>
       </c>
-      <c r="E102">
-        <f>E100+40</f>
-        <v>60</v>
-      </c>
-      <c r="F102">
-        <f>F107</f>
-        <v>203</v>
-      </c>
-      <c r="G102">
-        <f>G131+5</f>
-        <v>121</v>
-      </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -8632,17 +8704,14 @@
       <c r="L102">
         <v>0</v>
       </c>
-      <c r="M102" t="s">
-        <v>117</v>
-      </c>
       <c r="N102" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="O102" t="s">
         <v>27</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R102" t="b">
         <v>0</v>
@@ -8653,35 +8722,31 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>551</v>
+        <v>199</v>
       </c>
       <c r="B103">
         <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D103">
-        <f>D102+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E103">
-        <f>E102+2</f>
-        <v>62</v>
+        <f>E101+40</f>
+        <v>60</v>
       </c>
       <c r="F103">
-        <f>D103+68</f>
-        <v>169</v>
+        <f>F108</f>
+        <v>203</v>
       </c>
       <c r="G103">
-        <f>E103+3</f>
-        <v>65</v>
-      </c>
-      <c r="H103" t="s">
-        <v>20</v>
+        <f>G132+5</f>
+        <v>121</v>
       </c>
       <c r="I103">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J103">
         <v>1</v>
@@ -8692,17 +8757,17 @@
       <c r="L103">
         <v>0</v>
       </c>
+      <c r="M103" t="s">
+        <v>117</v>
+      </c>
       <c r="N103" t="s">
         <v>117</v>
       </c>
       <c r="O103" t="s">
         <v>27</v>
       </c>
-      <c r="P103" t="s">
-        <v>550</v>
-      </c>
       <c r="Q103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R103" t="b">
         <v>0</v>
@@ -8713,7 +8778,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>551</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -8722,29 +8787,29 @@
         <v>19</v>
       </c>
       <c r="D104">
-        <f>D102+30</f>
-        <v>130</v>
+        <f>D103+1</f>
+        <v>101</v>
       </c>
       <c r="E104">
-        <f>E102+7</f>
-        <v>67</v>
+        <f>E103+2</f>
+        <v>62</v>
       </c>
       <c r="F104">
-        <f>D104+18</f>
-        <v>148</v>
+        <f>D104+68</f>
+        <v>169</v>
       </c>
       <c r="G104">
         <f>E104+3</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H104" t="s">
         <v>20</v>
       </c>
       <c r="I104">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -8756,16 +8821,16 @@
         <v>117</v>
       </c>
       <c r="O104" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P104" t="s">
-        <v>125</v>
+        <v>550</v>
       </c>
       <c r="Q104">
         <v>3</v>
       </c>
       <c r="R104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104">
         <v>0</v>
@@ -8773,7 +8838,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -8782,16 +8847,16 @@
         <v>19</v>
       </c>
       <c r="D105">
-        <f>D108</f>
-        <v>149</v>
+        <f>D103+30</f>
+        <v>130</v>
       </c>
       <c r="E105">
-        <f>E104</f>
+        <f>E103+7</f>
         <v>67</v>
       </c>
       <c r="F105">
-        <f>D109-1</f>
-        <v>166</v>
+        <f>D105+18</f>
+        <v>148</v>
       </c>
       <c r="G105">
         <f>E105+3</f>
@@ -8819,7 +8884,7 @@
         <v>40</v>
       </c>
       <c r="P105" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -8833,7 +8898,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -8842,16 +8907,16 @@
         <v>19</v>
       </c>
       <c r="D106">
-        <f>D109-1</f>
-        <v>166</v>
+        <f>D109</f>
+        <v>149</v>
       </c>
       <c r="E106">
         <f>E105</f>
         <v>67</v>
       </c>
       <c r="F106">
-        <f>D110+1</f>
-        <v>186</v>
+        <f>D110-1</f>
+        <v>166</v>
       </c>
       <c r="G106">
         <f>E106+3</f>
@@ -8879,7 +8944,7 @@
         <v>40</v>
       </c>
       <c r="P106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -8893,7 +8958,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -8902,16 +8967,16 @@
         <v>19</v>
       </c>
       <c r="D107">
-        <f>D110</f>
-        <v>185</v>
+        <f>D110-1</f>
+        <v>166</v>
       </c>
       <c r="E107">
         <f>E106</f>
         <v>67</v>
       </c>
       <c r="F107">
-        <f>D107+18</f>
-        <v>203</v>
+        <f>D111+1</f>
+        <v>186</v>
       </c>
       <c r="G107">
         <f>E107+3</f>
@@ -8939,7 +9004,7 @@
         <v>40</v>
       </c>
       <c r="P107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -8953,32 +9018,35 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B108">
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D108">
-        <f>F104+1</f>
-        <v>149</v>
+        <f>D111</f>
+        <v>185</v>
       </c>
       <c r="E108">
-        <f>E104</f>
+        <f>E107</f>
         <v>67</v>
       </c>
       <c r="F108">
-        <f>F104+1</f>
-        <v>149</v>
+        <f>D108+18</f>
+        <v>203</v>
       </c>
       <c r="G108">
-        <f>G131+3</f>
-        <v>119</v>
+        <f>E108+3</f>
+        <v>70</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -8993,13 +9061,16 @@
         <v>117</v>
       </c>
       <c r="O108" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P108" t="s">
+        <v>123</v>
       </c>
       <c r="Q108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -9007,7 +9078,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -9016,19 +9087,19 @@
         <v>27</v>
       </c>
       <c r="D109">
-        <f>D108+18</f>
-        <v>167</v>
+        <f>F105+1</f>
+        <v>149</v>
       </c>
       <c r="E109">
-        <f>E104</f>
+        <f>E105</f>
         <v>67</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109:F110" si="3">D109</f>
-        <v>167</v>
+        <f>F105+1</f>
+        <v>149</v>
       </c>
       <c r="G109">
-        <f>G108</f>
+        <f>G132+3</f>
         <v>119</v>
       </c>
       <c r="I109">
@@ -9061,7 +9132,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -9071,15 +9142,15 @@
       </c>
       <c r="D110">
         <f>D109+18</f>
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E110">
-        <f>E104</f>
+        <f>E105</f>
         <v>67</v>
       </c>
       <c r="F110">
-        <f t="shared" si="3"/>
-        <v>185</v>
+        <f t="shared" ref="F110:F111" si="3">D110</f>
+        <v>167</v>
       </c>
       <c r="G110">
         <f>G109</f>
@@ -9115,7 +9186,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -9124,19 +9195,20 @@
         <v>27</v>
       </c>
       <c r="D111">
-        <v>105</v>
+        <f>D110+18</f>
+        <v>185</v>
       </c>
       <c r="E111">
-        <f>E104+10</f>
-        <v>77</v>
+        <f>E105</f>
+        <v>67</v>
       </c>
       <c r="F111">
-        <f>F102</f>
-        <v>203</v>
+        <f t="shared" si="3"/>
+        <v>185</v>
       </c>
       <c r="G111">
-        <f>E111</f>
-        <v>77</v>
+        <f>G110</f>
+        <v>119</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -9168,35 +9240,31 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="B112">
         <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D112">
-        <f>D102+1</f>
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E112">
-        <f>E111+2</f>
-        <v>79</v>
+        <f>E105+10</f>
+        <v>77</v>
       </c>
       <c r="F112">
-        <f>D112+37</f>
-        <v>138</v>
+        <f>F103</f>
+        <v>203</v>
       </c>
       <c r="G112">
-        <f>E112+4</f>
-        <v>83</v>
-      </c>
-      <c r="H112" t="s">
-        <v>20</v>
+        <f>E112</f>
+        <v>77</v>
       </c>
       <c r="I112">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -9213,14 +9281,11 @@
       <c r="O112" t="s">
         <v>27</v>
       </c>
-      <c r="P112" t="s">
-        <v>189</v>
-      </c>
       <c r="Q112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S112">
         <v>0</v>
@@ -9228,7 +9293,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -9237,29 +9302,29 @@
         <v>19</v>
       </c>
       <c r="D113">
-        <f>D104+6</f>
-        <v>136</v>
+        <f>D103+1</f>
+        <v>101</v>
       </c>
       <c r="E113">
-        <f>E112+1</f>
-        <v>80</v>
+        <f>E112+2</f>
+        <v>79</v>
       </c>
       <c r="F113">
-        <f>D113+4</f>
-        <v>140</v>
+        <f>D113+37</f>
+        <v>138</v>
       </c>
       <c r="G113">
-        <f>E113+3</f>
+        <f>E113+4</f>
         <v>83</v>
       </c>
       <c r="H113" t="s">
         <v>20</v>
       </c>
       <c r="I113">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -9273,11 +9338,14 @@
       <c r="O113" t="s">
         <v>27</v>
       </c>
+      <c r="P113" t="s">
+        <v>189</v>
+      </c>
       <c r="Q113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S113">
         <v>0</v>
@@ -9285,7 +9353,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -9294,16 +9362,16 @@
         <v>19</v>
       </c>
       <c r="D114">
-        <f>D113+18</f>
-        <v>154</v>
+        <f>D105+6</f>
+        <v>136</v>
       </c>
       <c r="E114">
-        <f>E113</f>
+        <f>E113+1</f>
         <v>80</v>
       </c>
       <c r="F114">
         <f>D114+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G114">
         <f>E114+3</f>
@@ -9342,7 +9410,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -9352,7 +9420,7 @@
       </c>
       <c r="D115">
         <f>D114+18</f>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E115">
         <f>E114</f>
@@ -9360,7 +9428,7 @@
       </c>
       <c r="F115">
         <f>D115+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G115">
         <f>E115+3</f>
@@ -9399,7 +9467,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -9409,7 +9477,7 @@
       </c>
       <c r="D116">
         <f>D115+18</f>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E116">
         <f>E115</f>
@@ -9417,7 +9485,7 @@
       </c>
       <c r="F116">
         <f>D116+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G116">
         <f>E116+3</f>
@@ -9456,7 +9524,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -9465,29 +9533,29 @@
         <v>19</v>
       </c>
       <c r="D117">
-        <f t="shared" ref="D117:D131" si="4">D112</f>
-        <v>101</v>
+        <f>D116+18</f>
+        <v>190</v>
       </c>
       <c r="E117">
-        <f>E112+11</f>
-        <v>90</v>
+        <f>E116</f>
+        <v>80</v>
       </c>
       <c r="F117">
-        <f>F112</f>
-        <v>138</v>
+        <f>D117+4</f>
+        <v>194</v>
       </c>
       <c r="G117">
-        <f>E117+4</f>
-        <v>94</v>
+        <f>E117+3</f>
+        <v>83</v>
       </c>
       <c r="H117" t="s">
         <v>20</v>
       </c>
       <c r="I117">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -9501,14 +9569,11 @@
       <c r="O117" t="s">
         <v>27</v>
       </c>
-      <c r="P117" t="s">
-        <v>190</v>
-      </c>
       <c r="Q117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S117">
         <v>0</v>
@@ -9516,7 +9581,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -9525,73 +9590,76 @@
         <v>19</v>
       </c>
       <c r="D118">
+        <f t="shared" ref="D118:D132" si="4">D113</f>
+        <v>101</v>
+      </c>
+      <c r="E118">
+        <f>E113+11</f>
+        <v>90</v>
+      </c>
+      <c r="F118">
+        <f>F113</f>
+        <v>138</v>
+      </c>
+      <c r="G118">
+        <f>E118+4</f>
+        <v>94</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118">
+        <v>8</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>117</v>
+      </c>
+      <c r="O118" t="s">
+        <v>27</v>
+      </c>
+      <c r="P118" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q118">
+        <v>3</v>
+      </c>
+      <c r="R118" t="b">
+        <v>1</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>174</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="E118">
-        <f>E117+1</f>
-        <v>91</v>
-      </c>
-      <c r="F118">
-        <f>D118+4</f>
-        <v>140</v>
-      </c>
-      <c r="G118">
-        <f>E118+3</f>
-        <v>94</v>
-      </c>
-      <c r="H118" t="s">
-        <v>20</v>
-      </c>
-      <c r="I118">
-        <v>15</v>
-      </c>
-      <c r="J118">
-        <v>1</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="N118" t="s">
-        <v>117</v>
-      </c>
-      <c r="O118" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q118">
-        <v>2</v>
-      </c>
-      <c r="R118" t="b">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>175</v>
-      </c>
-      <c r="B119">
-        <v>4</v>
-      </c>
-      <c r="C119" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="4"/>
-        <v>154</v>
-      </c>
       <c r="E119">
-        <f>E118</f>
+        <f>E118+1</f>
         <v>91</v>
       </c>
       <c r="F119">
         <f>D119+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G119">
         <f>E119+3</f>
@@ -9630,7 +9698,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -9640,7 +9708,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E120">
         <f>E119</f>
@@ -9648,7 +9716,7 @@
       </c>
       <c r="F120">
         <f>D120+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G120">
         <f>E120+3</f>
@@ -9687,7 +9755,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -9697,7 +9765,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E121">
         <f>E120</f>
@@ -9705,7 +9773,7 @@
       </c>
       <c r="F121">
         <f>D121+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G121">
         <f>E121+3</f>
@@ -9744,7 +9812,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -9754,28 +9822,28 @@
       </c>
       <c r="D122">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E122">
-        <f>E117+11</f>
-        <v>101</v>
+        <f>E121</f>
+        <v>91</v>
       </c>
       <c r="F122">
-        <f>F117</f>
-        <v>138</v>
+        <f>D122+4</f>
+        <v>194</v>
       </c>
       <c r="G122">
-        <f>E122+4</f>
-        <v>105</v>
+        <f>E122+3</f>
+        <v>94</v>
       </c>
       <c r="H122" t="s">
         <v>20</v>
       </c>
       <c r="I122">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -9789,14 +9857,11 @@
       <c r="O122" t="s">
         <v>27</v>
       </c>
-      <c r="P122" t="s">
-        <v>191</v>
-      </c>
       <c r="Q122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S122">
         <v>0</v>
@@ -9804,7 +9869,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -9814,28 +9879,28 @@
       </c>
       <c r="D123">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E123">
-        <f>E122+1</f>
-        <v>102</v>
+        <f>E118+11</f>
+        <v>101</v>
       </c>
       <c r="F123">
-        <f>D123+4</f>
-        <v>140</v>
+        <f>F118</f>
+        <v>138</v>
       </c>
       <c r="G123">
-        <f>E123+3</f>
+        <f>E123+4</f>
         <v>105</v>
       </c>
       <c r="H123" t="s">
         <v>20</v>
       </c>
       <c r="I123">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -9849,11 +9914,14 @@
       <c r="O123" t="s">
         <v>27</v>
       </c>
+      <c r="P123" t="s">
+        <v>191</v>
+      </c>
       <c r="Q123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -9861,7 +9929,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -9871,15 +9939,15 @@
       </c>
       <c r="D124">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E124">
-        <f>E123</f>
+        <f>E123+1</f>
         <v>102</v>
       </c>
       <c r="F124">
         <f>D124+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G124">
         <f>E124+3</f>
@@ -9918,7 +9986,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -9928,7 +9996,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E125">
         <f>E124</f>
@@ -9936,7 +10004,7 @@
       </c>
       <c r="F125">
         <f>D125+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G125">
         <f>E125+3</f>
@@ -9975,7 +10043,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -9985,7 +10053,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E126">
         <f>E125</f>
@@ -9993,7 +10061,7 @@
       </c>
       <c r="F126">
         <f>D126+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G126">
         <f>E126+3</f>
@@ -10032,7 +10100,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -10042,28 +10110,28 @@
       </c>
       <c r="D127">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>190</v>
       </c>
       <c r="E127">
-        <f>E122+11</f>
-        <v>112</v>
+        <f>E126</f>
+        <v>102</v>
       </c>
       <c r="F127">
-        <f>F122</f>
-        <v>138</v>
+        <f>D127+4</f>
+        <v>194</v>
       </c>
       <c r="G127">
-        <f>E127+4</f>
-        <v>116</v>
+        <f>E127+3</f>
+        <v>105</v>
       </c>
       <c r="H127" t="s">
         <v>20</v>
       </c>
       <c r="I127">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -10077,14 +10145,11 @@
       <c r="O127" t="s">
         <v>27</v>
       </c>
-      <c r="P127" t="s">
-        <v>192</v>
-      </c>
       <c r="Q127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S127">
         <v>0</v>
@@ -10092,7 +10157,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -10102,28 +10167,28 @@
       </c>
       <c r="D128">
         <f t="shared" si="4"/>
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E128">
-        <f>E127+1</f>
-        <v>113</v>
+        <f>E123+11</f>
+        <v>112</v>
       </c>
       <c r="F128">
-        <f>D128+4</f>
-        <v>140</v>
+        <f>F123</f>
+        <v>138</v>
       </c>
       <c r="G128">
-        <f>E128+3</f>
+        <f>E128+4</f>
         <v>116</v>
       </c>
       <c r="H128" t="s">
         <v>20</v>
       </c>
       <c r="I128">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -10137,11 +10202,14 @@
       <c r="O128" t="s">
         <v>27</v>
       </c>
+      <c r="P128" t="s">
+        <v>192</v>
+      </c>
       <c r="Q128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S128">
         <v>0</v>
@@ -10149,7 +10217,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -10159,15 +10227,15 @@
       </c>
       <c r="D129">
         <f t="shared" si="4"/>
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E129">
-        <f>E128</f>
+        <f>E128+1</f>
         <v>113</v>
       </c>
       <c r="F129">
         <f>D129+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G129">
         <f>E129+3</f>
@@ -10206,7 +10274,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -10216,7 +10284,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="4"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E130">
         <f>E129</f>
@@ -10224,7 +10292,7 @@
       </c>
       <c r="F130">
         <f>D130+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G130">
         <f>E130+3</f>
@@ -10263,7 +10331,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -10273,7 +10341,7 @@
       </c>
       <c r="D131">
         <f t="shared" si="4"/>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E131">
         <f>E130</f>
@@ -10281,7 +10349,7 @@
       </c>
       <c r="F131">
         <f>D131+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G131">
         <f>E131+3</f>
@@ -10320,7 +10388,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -10329,24 +10397,26 @@
         <v>19</v>
       </c>
       <c r="D132">
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>190</v>
       </c>
       <c r="E132">
-        <f>G102+11</f>
-        <v>132</v>
+        <f>E131</f>
+        <v>113</v>
       </c>
       <c r="F132">
-        <v>94</v>
+        <f>D132+4</f>
+        <v>194</v>
       </c>
       <c r="G132">
         <f>E132+3</f>
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="H132" t="s">
         <v>20</v>
       </c>
       <c r="I132">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J132">
         <v>1</v>
@@ -10358,13 +10428,10 @@
         <v>0</v>
       </c>
       <c r="N132" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O132" t="s">
         <v>27</v>
-      </c>
-      <c r="P132" t="s">
-        <v>101</v>
       </c>
       <c r="Q132">
         <v>2</v>
@@ -10378,7 +10445,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -10387,27 +10454,27 @@
         <v>19</v>
       </c>
       <c r="D133">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E133">
-        <f>G132+4</f>
-        <v>139</v>
+        <f>G103+11</f>
+        <v>132</v>
       </c>
       <c r="F133">
-        <v>205</v>
+        <v>94</v>
       </c>
       <c r="G133">
-        <f>E133+4</f>
-        <v>143</v>
+        <f>E133+3</f>
+        <v>135</v>
       </c>
       <c r="H133" t="s">
         <v>20</v>
       </c>
       <c r="I133">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -10421,14 +10488,14 @@
       <c r="O133" t="s">
         <v>27</v>
       </c>
-      <c r="P133" s="1" t="s">
-        <v>202</v>
+      <c r="P133" t="s">
+        <v>101</v>
       </c>
       <c r="Q133">
         <v>2</v>
       </c>
       <c r="R133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -10436,31 +10503,33 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="B134">
         <v>4</v>
       </c>
       <c r="C134" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E134">
-        <f>G132+4</f>
+        <f>G133+4</f>
         <v>139</v>
       </c>
       <c r="F134">
-        <f>D134+88</f>
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="G134">
-        <f>E134+80</f>
-        <v>219</v>
+        <f>E134+4</f>
+        <v>143</v>
+      </c>
+      <c r="H134" t="s">
+        <v>20</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -10477,11 +10546,14 @@
       <c r="O134" t="s">
         <v>27</v>
       </c>
+      <c r="P134" s="1" t="s">
+        <v>202</v>
+      </c>
       <c r="Q134">
         <v>2</v>
       </c>
       <c r="R134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S134">
         <v>0</v>
@@ -10489,34 +10561,34 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D135">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <f>G135-28</f>
-        <v>191</v>
+        <f>G133+4</f>
+        <v>139</v>
       </c>
       <c r="F135">
-        <f>F140</f>
-        <v>203</v>
+        <f>D135+88</f>
+        <v>93</v>
       </c>
       <c r="G135">
-        <f>G134</f>
+        <f>E135+80</f>
         <v>219</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -10524,17 +10596,14 @@
       <c r="L135">
         <v>0</v>
       </c>
-      <c r="M135" t="s">
-        <v>117</v>
-      </c>
       <c r="N135" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="O135" t="s">
         <v>27</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R135" t="b">
         <v>0</v>
@@ -10545,34 +10614,31 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>552</v>
+        <v>200</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D136">
-        <f>D135+1</f>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E136">
-        <f>E135+2</f>
-        <v>193</v>
+        <f>G136-28</f>
+        <v>191</v>
       </c>
       <c r="F136">
-        <v>174</v>
+        <f>F141</f>
+        <v>203</v>
       </c>
       <c r="G136">
-        <f>E136+3</f>
-        <v>196</v>
-      </c>
-      <c r="H136" t="s">
-        <v>20</v>
+        <f>G135</f>
+        <v>219</v>
       </c>
       <c r="I136">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J136">
         <v>1</v>
@@ -10583,17 +10649,17 @@
       <c r="L136">
         <v>0</v>
       </c>
+      <c r="M136" t="s">
+        <v>117</v>
+      </c>
       <c r="N136" t="s">
         <v>117</v>
       </c>
       <c r="O136" t="s">
         <v>27</v>
       </c>
-      <c r="P136" t="s">
-        <v>550</v>
-      </c>
       <c r="Q136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R136" t="b">
         <v>0</v>
@@ -10604,7 +10670,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>552</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -10613,29 +10679,28 @@
         <v>19</v>
       </c>
       <c r="D137">
-        <f>D135+30</f>
-        <v>130</v>
+        <f>D136+1</f>
+        <v>101</v>
       </c>
       <c r="E137">
-        <f>E135+7</f>
-        <v>198</v>
+        <f>E136+2</f>
+        <v>193</v>
       </c>
       <c r="F137">
-        <f>D137+18</f>
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G137">
         <f>E137+3</f>
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H137" t="s">
         <v>20</v>
       </c>
       <c r="I137">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -10647,16 +10712,16 @@
         <v>117</v>
       </c>
       <c r="O137" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="P137" t="s">
-        <v>125</v>
+        <v>550</v>
       </c>
       <c r="Q137">
         <v>3</v>
       </c>
       <c r="R137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S137">
         <v>0</v>
@@ -10664,7 +10729,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -10673,16 +10738,16 @@
         <v>19</v>
       </c>
       <c r="D138">
-        <f>D141</f>
-        <v>149</v>
+        <f>D136+30</f>
+        <v>130</v>
       </c>
       <c r="E138">
-        <f>E137</f>
+        <f>E136+7</f>
         <v>198</v>
       </c>
       <c r="F138">
-        <f>D142-1</f>
-        <v>166</v>
+        <f>D138+18</f>
+        <v>148</v>
       </c>
       <c r="G138">
         <f>E138+3</f>
@@ -10710,7 +10775,7 @@
         <v>40</v>
       </c>
       <c r="P138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -10724,7 +10789,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -10733,16 +10798,16 @@
         <v>19</v>
       </c>
       <c r="D139">
-        <f>D142-1</f>
-        <v>166</v>
+        <f>D142</f>
+        <v>149</v>
       </c>
       <c r="E139">
         <f>E138</f>
         <v>198</v>
       </c>
       <c r="F139">
-        <f>D143+1</f>
-        <v>186</v>
+        <f>D143-1</f>
+        <v>166</v>
       </c>
       <c r="G139">
         <f>E139+3</f>
@@ -10770,7 +10835,7 @@
         <v>40</v>
       </c>
       <c r="P139" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -10784,7 +10849,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -10793,16 +10858,16 @@
         <v>19</v>
       </c>
       <c r="D140">
-        <f>D143</f>
-        <v>185</v>
+        <f>D143-1</f>
+        <v>166</v>
       </c>
       <c r="E140">
         <f>E139</f>
         <v>198</v>
       </c>
       <c r="F140">
-        <f>D140+18</f>
-        <v>203</v>
+        <f>D144+1</f>
+        <v>186</v>
       </c>
       <c r="G140">
         <f>E140+3</f>
@@ -10830,7 +10895,7 @@
         <v>40</v>
       </c>
       <c r="P140" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -10844,32 +10909,35 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D141">
-        <f>F137+1</f>
-        <v>149</v>
+        <f>D144</f>
+        <v>185</v>
       </c>
       <c r="E141">
-        <f>E137</f>
+        <f>E140</f>
         <v>198</v>
       </c>
       <c r="F141">
-        <f>F137+1</f>
-        <v>149</v>
+        <f>D141+18</f>
+        <v>203</v>
       </c>
       <c r="G141">
-        <f>G149+3</f>
-        <v>217</v>
+        <f>E141+3</f>
+        <v>201</v>
+      </c>
+      <c r="H141" t="s">
+        <v>20</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -10884,13 +10952,16 @@
         <v>117</v>
       </c>
       <c r="O141" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="P141" t="s">
+        <v>123</v>
       </c>
       <c r="Q141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S141">
         <v>0</v>
@@ -10898,7 +10969,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -10907,19 +10978,19 @@
         <v>27</v>
       </c>
       <c r="D142">
-        <f>D141+18</f>
-        <v>167</v>
+        <f>F138+1</f>
+        <v>149</v>
       </c>
       <c r="E142">
-        <f>E137</f>
+        <f>E138</f>
         <v>198</v>
       </c>
       <c r="F142">
-        <f t="shared" ref="F142:F143" si="5">D142</f>
-        <v>167</v>
+        <f>F138+1</f>
+        <v>149</v>
       </c>
       <c r="G142">
-        <f>G141</f>
+        <f>G150+3</f>
         <v>217</v>
       </c>
       <c r="I142">
@@ -10952,7 +11023,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -10962,15 +11033,15 @@
       </c>
       <c r="D143">
         <f>D142+18</f>
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="E143">
-        <f>E137</f>
+        <f>E138</f>
         <v>198</v>
       </c>
       <c r="F143">
-        <f t="shared" si="5"/>
-        <v>185</v>
+        <f t="shared" ref="F143:F144" si="5">D143</f>
+        <v>167</v>
       </c>
       <c r="G143">
         <f>G142</f>
@@ -11006,7 +11077,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -11015,20 +11086,20 @@
         <v>27</v>
       </c>
       <c r="D144">
-        <f>D135</f>
-        <v>100</v>
+        <f>D143+18</f>
+        <v>185</v>
       </c>
       <c r="E144">
-        <f>E137+10</f>
-        <v>208</v>
+        <f>E138</f>
+        <v>198</v>
       </c>
       <c r="F144">
-        <f>F135</f>
-        <v>203</v>
+        <f t="shared" si="5"/>
+        <v>185</v>
       </c>
       <c r="G144">
-        <f>E144</f>
-        <v>208</v>
+        <f>G143</f>
+        <v>217</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -11060,35 +11131,32 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="B145">
         <v>4</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D145">
-        <f>D135+1</f>
-        <v>101</v>
+        <f>D136</f>
+        <v>100</v>
       </c>
       <c r="E145">
-        <f>E144+2</f>
-        <v>210</v>
+        <f>E138+10</f>
+        <v>208</v>
       </c>
       <c r="F145">
-        <f>D145+36</f>
-        <v>137</v>
+        <f>F136</f>
+        <v>203</v>
       </c>
       <c r="G145">
-        <f>E145+4</f>
-        <v>214</v>
-      </c>
-      <c r="H145" t="s">
-        <v>20</v>
+        <f>E145</f>
+        <v>208</v>
       </c>
       <c r="I145">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -11105,14 +11173,11 @@
       <c r="O145" t="s">
         <v>27</v>
       </c>
-      <c r="P145" t="s">
-        <v>198</v>
-      </c>
       <c r="Q145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S145">
         <v>0</v>
@@ -11120,7 +11185,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -11129,29 +11194,29 @@
         <v>19</v>
       </c>
       <c r="D146">
-        <f>D137+6</f>
-        <v>136</v>
+        <f>D136+1</f>
+        <v>101</v>
       </c>
       <c r="E146">
-        <f>E145+1</f>
-        <v>211</v>
+        <f>E145+2</f>
+        <v>210</v>
       </c>
       <c r="F146">
-        <f>D146+4</f>
-        <v>140</v>
+        <f>D146+36</f>
+        <v>137</v>
       </c>
       <c r="G146">
-        <f>E146+3</f>
+        <f>E146+4</f>
         <v>214</v>
       </c>
       <c r="H146" t="s">
         <v>20</v>
       </c>
       <c r="I146">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -11165,11 +11230,14 @@
       <c r="O146" t="s">
         <v>27</v>
       </c>
+      <c r="P146" t="s">
+        <v>198</v>
+      </c>
       <c r="Q146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S146">
         <v>0</v>
@@ -11177,7 +11245,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -11186,16 +11254,16 @@
         <v>19</v>
       </c>
       <c r="D147">
-        <f>D146+18</f>
-        <v>154</v>
+        <f>D138+6</f>
+        <v>136</v>
       </c>
       <c r="E147">
-        <f>E146</f>
+        <f>E146+1</f>
         <v>211</v>
       </c>
       <c r="F147">
         <f>D147+4</f>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="G147">
         <f>E147+3</f>
@@ -11234,7 +11302,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -11244,7 +11312,7 @@
       </c>
       <c r="D148">
         <f>D147+18</f>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E148">
         <f>E147</f>
@@ -11252,7 +11320,7 @@
       </c>
       <c r="F148">
         <f>D148+4</f>
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G148">
         <f>E148+3</f>
@@ -11291,7 +11359,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -11301,7 +11369,7 @@
       </c>
       <c r="D149">
         <f>D148+18</f>
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E149">
         <f>E148</f>
@@ -11309,7 +11377,7 @@
       </c>
       <c r="F149">
         <f>D149+4</f>
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="G149">
         <f>E149+3</f>
@@ -11348,35 +11416,38 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="B150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>19</v>
       </c>
       <c r="D150">
-        <v>101</v>
+        <f>D149+18</f>
+        <v>190</v>
       </c>
       <c r="E150">
-        <v>20</v>
+        <f>E149</f>
+        <v>211</v>
       </c>
       <c r="F150">
-        <v>206</v>
+        <f>D150+4</f>
+        <v>194</v>
       </c>
       <c r="G150">
         <f>E150+3</f>
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="H150" t="s">
         <v>20</v>
       </c>
       <c r="I150">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -11385,19 +11456,16 @@
         <v>0</v>
       </c>
       <c r="N150" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="O150" t="s">
         <v>27</v>
       </c>
-      <c r="P150" t="s">
-        <v>104</v>
-      </c>
       <c r="Q150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S150">
         <v>0</v>
@@ -11405,29 +11473,32 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D151">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="E151">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="F151">
-        <f>D151+40</f>
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="G151">
-        <v>276</v>
+        <f>E151+3</f>
+        <v>23</v>
+      </c>
+      <c r="H151" t="s">
+        <v>20</v>
       </c>
       <c r="I151">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -11444,11 +11515,14 @@
       <c r="O151" t="s">
         <v>27</v>
       </c>
+      <c r="P151" t="s">
+        <v>104</v>
+      </c>
       <c r="Q151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S151">
         <v>0</v>
@@ -11456,7 +11530,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -11465,14 +11539,14 @@
         <v>26</v>
       </c>
       <c r="D152">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="E152">
         <v>262</v>
       </c>
       <c r="F152">
-        <f t="shared" ref="F152:F157" si="6">D152+15</f>
-        <v>127</v>
+        <f>D152+40</f>
+        <v>108</v>
       </c>
       <c r="G152">
         <v>276</v>
@@ -11507,7 +11581,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -11516,270 +11590,270 @@
         <v>26</v>
       </c>
       <c r="D153">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E153">
         <v>262</v>
       </c>
       <c r="F153">
+        <f t="shared" ref="F153:F158" si="6">D153+15</f>
+        <v>127</v>
+      </c>
+      <c r="G153">
+        <v>276</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
+        <v>21</v>
+      </c>
+      <c r="O153" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153" t="b">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154">
+        <v>131</v>
+      </c>
+      <c r="E154">
+        <v>262</v>
+      </c>
+      <c r="F154">
         <f t="shared" si="6"/>
         <v>146</v>
       </c>
-      <c r="G153">
+      <c r="G154">
         <v>276</v>
       </c>
-      <c r="I153">
-        <v>0</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="N153" t="s">
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>21</v>
       </c>
-      <c r="O153" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q153">
-        <v>2</v>
-      </c>
-      <c r="R153" t="b">
-        <v>0</v>
-      </c>
-      <c r="S153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="O154" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q154">
+        <v>2</v>
+      </c>
+      <c r="R154" t="b">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>31</v>
       </c>
-      <c r="B154">
+      <c r="B155">
         <v>5</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>26</v>
       </c>
-      <c r="D154">
+      <c r="D155">
         <v>150</v>
       </c>
-      <c r="E154">
+      <c r="E155">
         <v>262</v>
       </c>
-      <c r="F154">
+      <c r="F155">
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="G154">
+      <c r="G155">
         <v>276</v>
       </c>
-      <c r="I154">
-        <v>0</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="N154" t="s">
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
         <v>21</v>
       </c>
-      <c r="O154" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q154">
-        <v>2</v>
-      </c>
-      <c r="R154" t="b">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+      <c r="O155" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+      <c r="R155" t="b">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>32</v>
       </c>
-      <c r="B155">
+      <c r="B156">
         <v>5</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C156" t="s">
         <v>26</v>
       </c>
-      <c r="D155">
+      <c r="D156">
         <v>169</v>
       </c>
-      <c r="E155">
+      <c r="E156">
         <v>262</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <f t="shared" si="6"/>
         <v>184</v>
       </c>
-      <c r="G155">
+      <c r="G156">
         <v>276</v>
       </c>
-      <c r="I155">
-        <v>0</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="N155" t="s">
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>21</v>
       </c>
-      <c r="O155" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q155">
-        <v>2</v>
-      </c>
-      <c r="R155" t="b">
-        <v>0</v>
-      </c>
-      <c r="S155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+      <c r="O156" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q156">
+        <v>2</v>
+      </c>
+      <c r="R156" t="b">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>33</v>
       </c>
-      <c r="B156">
+      <c r="B157">
         <v>5</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C157" t="s">
         <v>26</v>
       </c>
-      <c r="D156">
+      <c r="D157">
         <v>188</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>262</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <f t="shared" si="6"/>
         <v>203</v>
       </c>
-      <c r="G156">
+      <c r="G157">
         <v>276</v>
       </c>
-      <c r="I156">
-        <v>0</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="N156" t="s">
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>21</v>
       </c>
-      <c r="O156" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q156">
-        <v>2</v>
-      </c>
-      <c r="R156" t="b">
-        <v>0</v>
-      </c>
-      <c r="S156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="O157" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+      <c r="R157" t="b">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>34</v>
       </c>
-      <c r="B157">
+      <c r="B158">
         <v>5</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>26</v>
       </c>
-      <c r="D157">
+      <c r="D158">
         <v>69</v>
       </c>
-      <c r="E157">
+      <c r="E158">
         <v>280</v>
       </c>
-      <c r="F157">
+      <c r="F158">
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="G157">
-        <v>295</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="N157" t="s">
-        <v>21</v>
-      </c>
-      <c r="O157" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q157">
-        <v>2</v>
-      </c>
-      <c r="R157" t="b">
-        <v>0</v>
-      </c>
-      <c r="S157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158">
-        <v>5</v>
-      </c>
-      <c r="C158" t="s">
-        <v>26</v>
-      </c>
-      <c r="D158">
-        <v>86</v>
-      </c>
-      <c r="E158">
-        <v>280</v>
-      </c>
-      <c r="F158">
-        <f>D158+40</f>
-        <v>126</v>
-      </c>
       <c r="G158">
         <v>295</v>
       </c>
@@ -11813,7 +11887,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B159">
         <v>5</v>
@@ -11822,14 +11896,14 @@
         <v>26</v>
       </c>
       <c r="D159">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="E159">
         <v>280</v>
       </c>
       <c r="F159">
-        <f>D159+15</f>
-        <v>144</v>
+        <f>D159+40</f>
+        <v>126</v>
       </c>
       <c r="G159">
         <v>295</v>
@@ -11864,7 +11938,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -11873,14 +11947,14 @@
         <v>26</v>
       </c>
       <c r="D160">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E160">
         <v>280</v>
       </c>
       <c r="F160">
-        <f>D160+40</f>
-        <v>186</v>
+        <f>D160+15</f>
+        <v>144</v>
       </c>
       <c r="G160">
         <v>295</v>
@@ -11915,7 +11989,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B161">
         <v>5</v>
@@ -11924,14 +11998,14 @@
         <v>26</v>
       </c>
       <c r="D161">
-        <v>189</v>
+        <v>146</v>
       </c>
       <c r="E161">
         <v>280</v>
       </c>
       <c r="F161">
-        <f>D161+15</f>
-        <v>204</v>
+        <f>D161+40</f>
+        <v>186</v>
       </c>
       <c r="G161">
         <v>295</v>
@@ -11966,25 +12040,26 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B162">
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D162">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E162">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="F162">
-        <v>205</v>
+        <f>D162+15</f>
+        <v>204</v>
       </c>
       <c r="G162">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -12016,32 +12091,28 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="B163">
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D163">
         <v>68</v>
       </c>
       <c r="E163">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F163">
         <v>205</v>
       </c>
       <c r="G163">
-        <f>E163+4</f>
-        <v>241</v>
-      </c>
-      <c r="H163" t="s">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="I163">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -12058,16 +12129,70 @@
       <c r="O163" t="s">
         <v>27</v>
       </c>
-      <c r="P163" s="1" t="s">
+      <c r="Q163">
+        <v>2</v>
+      </c>
+      <c r="R163" t="b">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164">
+        <v>68</v>
+      </c>
+      <c r="E164">
+        <v>237</v>
+      </c>
+      <c r="F164">
+        <v>205</v>
+      </c>
+      <c r="G164">
+        <f>E164+4</f>
+        <v>241</v>
+      </c>
+      <c r="H164" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164">
+        <v>12</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
+        <v>21</v>
+      </c>
+      <c r="O164" t="s">
+        <v>27</v>
+      </c>
+      <c r="P164" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q163">
-        <v>2</v>
-      </c>
-      <c r="R163" t="b">
+      <c r="Q164">
+        <v>2</v>
+      </c>
+      <c r="R164" t="b">
         <v>1</v>
       </c>
-      <c r="S163">
+      <c r="S164">
         <v>0</v>
       </c>
     </row>
@@ -12079,13 +12204,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12122,485 +12247,485 @@
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="C8" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="B11" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="B14" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="B15" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="B16" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="H21" s="10"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
@@ -12609,7 +12734,7 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>533</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -12636,7 +12761,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>256</v>
@@ -12688,7 +12813,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>247</v>
@@ -12714,7 +12839,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>246</v>
@@ -13115,7 +13240,7 @@
       <c r="G41" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H41" s="3" t="s">
         <v>302</v>
       </c>
     </row>
@@ -13620,7 +13745,7 @@
       <c r="B61" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>558</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -13646,7 +13771,7 @@
       <c r="B62" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>556</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -13829,18 +13954,15 @@
         <v>565</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>572</v>
+      <c r="B70" s="11" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -13848,10 +13970,7 @@
         <v>321</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -13859,47 +13978,223 @@
         <v>321</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>567</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:B1048576 B22:B41 B1:B2">
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C12">
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B6 B8:B21">
+    <cfRule type="duplicateValues" dxfId="5" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C6 C8 C14:C20">
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45:B1048576 B22:B41 B1:B2">
-    <cfRule type="duplicateValues" dxfId="8" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C12">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6 B8:B21">
-    <cfRule type="duplicateValues" dxfId="4" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6 C8 C14:C20">
-    <cfRule type="duplicateValues" dxfId="3" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B42">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC60DA-AC39-436B-9C6D-630C37D544A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B2551C-216C-4905-B445-D63E2A866D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -2866,9 +2866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U164"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3810,7 +3810,7 @@
         <v>20</v>
       </c>
       <c r="I17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>20</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -12206,11 +12206,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B2551C-216C-4905-B445-D63E2A866D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355F3C38-11E9-49D6-B7C5-148140E2728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="605">
   <si>
     <t>name</t>
   </si>
@@ -1862,7 +1862,13 @@
     <t>Auckland</t>
   </si>
   <si>
-    <t>Melbourne is a coastal Australian port city developed through the nineteenth to twenty-first centuries with temperate climate with rapid population growth, sprawling from relatively flat, moderately dense and well-serviced inner suburbs to peri-urban rural and bush fringe areas challenged with a lack of amenities, local employment opportunities and transport infrastructure.</t>
+    <t>Melbourne is a coastal Australian port city developed through the nineteenth to twenty-first centuries with temperate climate experiencing rapid population growth, sprawling from relatively flat, moderately dense and well-serviced inner suburbs to peri-urban rural and bush fringe areas challenged with a lack of amenities, local employment opportunities and transport infrastructure.</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Thailand's capital city Bangkok has a long history as a vibrant cultural and economic hub of the South East Asian region, undergoing dramatic growth and development since the late 20th century.</t>
   </si>
 </sst>
 </file>
@@ -2866,9 +2872,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,7 +3542,7 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="P12" t="s">
         <v>566</v>
@@ -3599,7 +3605,7 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="P13" t="s">
         <v>564</v>
@@ -3810,7 +3816,7 @@
         <v>20</v>
       </c>
       <c r="I17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -3922,7 +3928,7 @@
         <v>20</v>
       </c>
       <c r="I19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -5545,7 +5551,7 @@
         <v>165</v>
       </c>
       <c r="F47">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G47">
         <f>E47+4</f>
@@ -5570,7 +5576,7 @@
         <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>251</v>
@@ -8652,7 +8658,7 @@
         <v>21</v>
       </c>
       <c r="O101" t="s">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>203</v>
@@ -10544,7 +10550,7 @@
         <v>21</v>
       </c>
       <c r="O134" t="s">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>202</v>
@@ -12181,7 +12187,7 @@
         <v>21</v>
       </c>
       <c r="O164" t="s">
-        <v>27</v>
+        <v>603</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>255</v>
@@ -12206,11 +12212,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14021,12 +14027,15 @@
         <v>586</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>562</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355F3C38-11E9-49D6-B7C5-148140E2728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA81A23-DF04-4318-85DA-CFEA8CF9BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scorecard_template_elements!$A$1:$S$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="607">
   <si>
     <t>name</t>
   </si>
@@ -1757,21 +1758,12 @@
     <t>This policy report presents findings for {city} arising from a collaborative study of 25 cities from diverse settings globally.  An analysis of policies supporting urban and transport features contributing which contribute to health, wellbeing and sustainability was conducted, and their presence in local neighbourhoods was also evaluated.</t>
   </si>
   <si>
-    <t>Urban Design and Transport Features and Policy for Health Report, {year}</t>
-  </si>
-  <si>
-    <t>Urban design and transport for health in {city}, {year}</t>
-  </si>
-  <si>
     <t>title_year</t>
   </si>
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>This policy report presents findings for {city} arising from a collaborative study of 25 cities from diverse settings globally.  An analysis of policies supporting urban and transport features which contribute to health, wellbeing and sustainability was conducted, and their presence in local neighbourhoods was also evaluated.</t>
-  </si>
-  <si>
     <t>city_header</t>
   </si>
   <si>
@@ -1862,13 +1854,28 @@
     <t>Auckland</t>
   </si>
   <si>
-    <t>Melbourne is a coastal Australian port city developed through the nineteenth to twenty-first centuries with temperate climate experiencing rapid population growth, sprawling from relatively flat, moderately dense and well-serviced inner suburbs to peri-urban rural and bush fringe areas challenged with a lack of amenities, local employment opportunities and transport infrastructure.</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
-    <t>Thailand's capital city Bangkok has a long history as a vibrant cultural and economic hub of the South East Asian region, undergoing dramatic growth and development since the late 20th century.</t>
+    <t>*Please provide executive summary in Languages configuration sheet for this city*</t>
+  </si>
+  <si>
+    <t>Urban Design and Transport Indicators for Healthy and Sustainable Cities</t>
+  </si>
+  <si>
+    <t>Urban design and transport for health in {city}</t>
+  </si>
+  <si>
+    <t>This policy report presents findings for {city} arising from a collaborative study of 25 cities from diverse settings globally in {year}.  An analysis of policies supporting urban and transport features which contribute to health, wellbeing and sustainability was conducted, and their presence in local neighbourhoods was also evaluated.</t>
+  </si>
+  <si>
+    <t>25 city median</t>
+  </si>
+  <si>
+    <t>TO DO: translate series_intro</t>
+  </si>
+  <si>
+    <t>custom</t>
   </si>
 </sst>
 </file>
@@ -2872,9 +2879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U164"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H162" sqref="H162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2972,7 @@
         <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -3023,7 +3030,7 @@
         <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -3082,7 +3089,7 @@
         <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -3104,7 +3111,7 @@
       </c>
       <c r="P4" t="str">
         <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(scorecard_template_elements!A4,languages!B:B,0)),"")</f>
-        <v>Urban Design and Transport Features and Policy for Health Report, {year}</v>
+        <v>Urban Design and Transport Indicators for Healthy and Sustainable Cities</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3118,7 +3125,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3141,7 +3148,7 @@
         <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -3162,7 +3169,7 @@
         <v>22</v>
       </c>
       <c r="P5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -3248,7 +3255,7 @@
         <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -3355,7 +3362,7 @@
         <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3410,9 +3417,6 @@
       <c r="G10">
         <v>289</v>
       </c>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -3524,7 +3528,7 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -3542,7 +3546,7 @@
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P12" t="s">
         <v>566</v>
@@ -3587,7 +3591,7 @@
         <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -3605,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P13" t="s">
         <v>564</v>
@@ -3701,7 +3705,7 @@
         <v>68</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -3757,7 +3761,7 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -3813,7 +3817,7 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -3925,7 +3929,7 @@
         <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I19">
         <v>8</v>
@@ -4038,7 +4042,7 @@
         <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4152,7 +4156,7 @@
         <v>78</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I23">
         <v>8</v>
@@ -4187,7 +4191,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -4212,7 +4216,7 @@
         <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -4233,7 +4237,7 @@
         <v>22</v>
       </c>
       <c r="P24" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -4272,7 +4276,7 @@
         <v>79</v>
       </c>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I25">
         <v>8</v>
@@ -4439,7 +4443,7 @@
         <v>92</v>
       </c>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -4499,7 +4503,7 @@
         <v>92</v>
       </c>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I29">
         <v>8</v>
@@ -4616,7 +4620,7 @@
         <v>103</v>
       </c>
       <c r="H31" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I31">
         <v>8</v>
@@ -4676,7 +4680,7 @@
         <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I32">
         <v>8</v>
@@ -4793,7 +4797,7 @@
         <v>114</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -4853,7 +4857,7 @@
         <v>114</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I35">
         <v>8</v>
@@ -4970,7 +4974,7 @@
         <v>125</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -5030,7 +5034,7 @@
         <v>125</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I38">
         <v>8</v>
@@ -5147,7 +5151,7 @@
         <v>136</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -5207,7 +5211,7 @@
         <v>136</v>
       </c>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I41">
         <v>8</v>
@@ -5324,7 +5328,7 @@
         <v>147</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I43">
         <v>8</v>
@@ -5384,7 +5388,7 @@
         <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I44">
         <v>8</v>
@@ -5499,7 +5503,7 @@
         <v>161</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I46">
         <v>12</v>
@@ -5558,7 +5562,7 @@
         <v>169</v>
       </c>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I47">
         <v>9</v>
@@ -5576,7 +5580,7 @@
         <v>21</v>
       </c>
       <c r="O47" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>251</v>
@@ -5726,7 +5730,7 @@
         <v>198</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I50">
         <v>8</v>
@@ -5786,7 +5790,7 @@
         <v>203</v>
       </c>
       <c r="H51" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I51">
         <v>8</v>
@@ -5846,7 +5850,7 @@
         <v>203</v>
       </c>
       <c r="H52" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I52">
         <v>8</v>
@@ -5906,7 +5910,7 @@
         <v>203</v>
       </c>
       <c r="H53" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I53">
         <v>8</v>
@@ -5966,7 +5970,7 @@
         <v>203</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I54">
         <v>8</v>
@@ -6242,7 +6246,7 @@
         <v>216</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I59">
         <v>8</v>
@@ -6530,7 +6534,7 @@
         <v>227</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I64">
         <v>8</v>
@@ -6818,7 +6822,7 @@
         <v>238</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I69">
         <v>8</v>
@@ -7106,7 +7110,7 @@
         <v>249</v>
       </c>
       <c r="H74" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I74">
         <v>8</v>
@@ -7394,7 +7398,7 @@
         <v>260</v>
       </c>
       <c r="H79" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I79">
         <v>8</v>
@@ -7682,7 +7686,7 @@
         <v>271</v>
       </c>
       <c r="H84" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I84">
         <v>8</v>
@@ -7970,7 +7974,7 @@
         <v>282</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I89">
         <v>8</v>
@@ -8255,7 +8259,7 @@
         <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I94">
         <v>12</v>
@@ -8364,7 +8368,7 @@
         <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I96">
         <v>12</v>
@@ -8452,7 +8456,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -8504,7 +8508,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -8526,7 +8530,7 @@
         <v>215</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I99">
         <v>12</v>
@@ -8547,7 +8551,7 @@
         <v>27</v>
       </c>
       <c r="P99" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q99">
         <v>0</v>
@@ -8582,7 +8586,7 @@
         <v>16</v>
       </c>
       <c r="H100" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I100">
         <v>12</v>
@@ -8640,7 +8644,7 @@
         <v>24</v>
       </c>
       <c r="H101" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I101">
         <v>9</v>
@@ -8658,7 +8662,7 @@
         <v>21</v>
       </c>
       <c r="O101" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P101" s="1" t="s">
         <v>203</v>
@@ -8809,7 +8813,7 @@
         <v>65</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I104">
         <v>12</v>
@@ -8869,7 +8873,7 @@
         <v>70</v>
       </c>
       <c r="H105" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I105">
         <v>8</v>
@@ -8929,7 +8933,7 @@
         <v>70</v>
       </c>
       <c r="H106" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I106">
         <v>8</v>
@@ -8989,7 +8993,7 @@
         <v>70</v>
       </c>
       <c r="H107" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I107">
         <v>8</v>
@@ -9049,7 +9053,7 @@
         <v>70</v>
       </c>
       <c r="H108" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I108">
         <v>8</v>
@@ -9324,7 +9328,7 @@
         <v>83</v>
       </c>
       <c r="H113" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I113">
         <v>8</v>
@@ -9612,7 +9616,7 @@
         <v>94</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I118">
         <v>8</v>
@@ -9900,7 +9904,7 @@
         <v>105</v>
       </c>
       <c r="H123" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I123">
         <v>8</v>
@@ -10188,7 +10192,7 @@
         <v>116</v>
       </c>
       <c r="H128" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I128">
         <v>8</v>
@@ -10474,7 +10478,7 @@
         <v>135</v>
       </c>
       <c r="H133" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I133">
         <v>12</v>
@@ -10532,7 +10536,7 @@
         <v>143</v>
       </c>
       <c r="H134" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I134">
         <v>9</v>
@@ -10550,7 +10554,7 @@
         <v>21</v>
       </c>
       <c r="O134" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P134" s="1" t="s">
         <v>202</v>
@@ -10700,7 +10704,7 @@
         <v>196</v>
       </c>
       <c r="H137" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I137">
         <v>12</v>
@@ -10760,7 +10764,7 @@
         <v>201</v>
       </c>
       <c r="H138" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I138">
         <v>8</v>
@@ -10820,7 +10824,7 @@
         <v>201</v>
       </c>
       <c r="H139" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I139">
         <v>8</v>
@@ -10880,7 +10884,7 @@
         <v>201</v>
       </c>
       <c r="H140" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I140">
         <v>8</v>
@@ -10940,7 +10944,7 @@
         <v>201</v>
       </c>
       <c r="H141" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I141">
         <v>8</v>
@@ -11216,7 +11220,7 @@
         <v>214</v>
       </c>
       <c r="H146" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I146">
         <v>8</v>
@@ -11501,7 +11505,7 @@
         <v>23</v>
       </c>
       <c r="H151" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I151">
         <v>6</v>
@@ -12169,7 +12173,7 @@
         <v>241</v>
       </c>
       <c r="H164" t="s">
-        <v>20</v>
+        <v>606</v>
       </c>
       <c r="I164">
         <v>12</v>
@@ -12187,7 +12191,7 @@
         <v>21</v>
       </c>
       <c r="O164" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="P164" s="1" t="s">
         <v>255</v>
@@ -12203,6 +12207,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S164" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -12212,11 +12217,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12387,13 +12392,13 @@
         <v>416</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H7" s="9"/>
     </row>
@@ -12717,7 +12722,7 @@
         <v>64</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>64</v>
+        <v>604</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>442</v>
@@ -12767,7 +12772,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>256</v>
@@ -12819,7 +12824,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>247</v>
@@ -12845,7 +12850,7 @@
         <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>246</v>
@@ -13960,74 +13965,233 @@
         <v>565</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>321</v>
       </c>
@@ -14035,114 +14199,363 @@
         <v>562</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>321</v>
       </c>
@@ -14150,23 +14563,74 @@
         <v>560</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C93" s="3" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>321</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>601</v>
+        <v>598</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A5DA16-8E7A-4B3B-8159-560AD56FE200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF553B6A-AB0C-49C8-A41D-F06839C2E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="625">
   <si>
     <t>name</t>
   </si>
@@ -1818,9 +1818,6 @@
     <t>*Please provide executive summary in Languages configuration sheet for this city*</t>
   </si>
   <si>
-    <t>Urban Design and Transport Indicators for Healthy and Sustainable Cities</t>
-  </si>
-  <si>
     <t>Urban design and transport for health in {city}</t>
   </si>
   <si>
@@ -1869,9 +1866,6 @@
     <t>การให้คะแนนคุณภาพนโยบายให้รางวัลเฉพาะนโยบายที่วัดได้ซึ่งสอดคล้องกับหลักฐานฉันทามติในเมืองที่มีสุขภาพดี</t>
   </si>
   <si>
-    <t>Policy quality rating for having specific, measurable policies aligned with consensus evidence on healthy cities</t>
-  </si>
-  <si>
     <t>La clasificacíon de la calidad de las políticas se recompensa las políticas específicas, mensurables y alineados con evidencia de consenso de las ciudades saludes</t>
   </si>
   <si>
@@ -1896,40 +1890,51 @@
     <t>25 cities comparison by income group</t>
   </si>
   <si>
-    <t>Middle</t>
-  </si>
-  <si>
-    <t>Upper</t>
-  </si>
-  <si>
-    <t>0/6</t>
-  </si>
-  <si>
-    <t>7/19</t>
-  </si>
-  <si>
-    <t>16/19</t>
-  </si>
-  <si>
-    <t>18/19</t>
-  </si>
-  <si>
-    <t>5/6</t>
-  </si>
-  <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>2/19</t>
-  </si>
-  <si>
     <t xml:space="preserve">44% (11/25) </t>
   </si>
   <si>
-    <t>9/19</t>
-  </si>
-  <si>
-    <t>15/19</t>
+    <t>Upper
+/19</t>
+  </si>
+  <si>
+    <t>Middle
+/6</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>28%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>Urban Indicators and Policy for Healthy, Sustainable Cities</t>
+  </si>
+  <si>
+    <t>% of population in target range</t>
+  </si>
+  <si>
+    <t>Policy quality rating for specific, measurable policies aligned with consensus evidence on healthy cities</t>
   </si>
 </sst>
 </file>
@@ -2422,7 +2427,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2456,8 +2461,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2957,8 +2961,8 @@
   <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P62" sqref="P62"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3053,7 @@
         <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -3107,7 +3111,7 @@
         <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I3">
         <v>12</v>
@@ -3166,7 +3170,7 @@
         <v>134</v>
       </c>
       <c r="H4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I4">
         <v>12</v>
@@ -3188,7 +3192,7 @@
       </c>
       <c r="P4" t="str">
         <f>_xlfn.IFNA(INDEX(languages!C:C,MATCH(scorecard_template_elements!A4,languages!B:B,0)),"")</f>
-        <v>Urban Design and Transport Indicators for Healthy and Sustainable Cities</v>
+        <v>Urban Indicators and Policy for Healthy, Sustainable Cities</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3205,7 +3209,7 @@
         <v>553</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-666</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3225,7 +3229,7 @@
         <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -3332,7 +3336,7 @@
         <v>215</v>
       </c>
       <c r="H7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I7">
         <v>12</v>
@@ -3439,7 +3443,7 @@
         <v>280</v>
       </c>
       <c r="H9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -3545,7 +3549,7 @@
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I11">
         <v>14</v>
@@ -3605,7 +3609,7 @@
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I12">
         <v>9</v>
@@ -3668,7 +3672,7 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I13">
         <v>9</v>
@@ -3782,7 +3786,7 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I15">
         <v>8</v>
@@ -3838,7 +3842,7 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -3894,7 +3898,7 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I17">
         <v>8</v>
@@ -3929,7 +3933,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -3946,14 +3950,14 @@
         <v>25</v>
       </c>
       <c r="F18">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G18">
         <f>E18+3</f>
         <v>28</v>
       </c>
       <c r="H18" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -3971,7 +3975,7 @@
         <v>21</v>
       </c>
       <c r="O18" t="s">
-        <v>27</v>
+        <v>585</v>
       </c>
       <c r="P18" t="s">
         <v>128</v>
@@ -4066,7 +4070,7 @@
         <v>50</v>
       </c>
       <c r="H20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I20">
         <v>8</v>
@@ -4101,7 +4105,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -4118,14 +4122,14 @@
         <v>51</v>
       </c>
       <c r="F21">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G21">
         <f>E21+3</f>
         <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -4143,7 +4147,7 @@
         <v>21</v>
       </c>
       <c r="O21" t="s">
-        <v>27</v>
+        <v>585</v>
       </c>
       <c r="P21" t="s">
         <v>128</v>
@@ -4234,7 +4238,7 @@
       </c>
       <c r="G23">
         <f>G61+3</f>
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -4293,7 +4297,7 @@
         <v>80</v>
       </c>
       <c r="H24" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I24">
         <v>8</v>
@@ -4353,7 +4357,7 @@
         <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I25">
         <v>8</v>
@@ -4413,7 +4417,7 @@
         <v>81</v>
       </c>
       <c r="H26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I26">
         <v>8</v>
@@ -4446,123 +4450,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>610</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <f>D29</f>
         <v>179</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <f>E25</f>
         <v>88</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <f>D30</f>
         <v>192</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <f>G25</f>
         <v>91</v>
       </c>
-      <c r="H27" t="s">
-        <v>592</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
+      <c r="H27" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O27" t="s">
+      <c r="O27" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="Q27">
-        <v>2</v>
-      </c>
-      <c r="R27" t="b">
+      <c r="Q27" s="2">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>609</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="S27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <f>D30</f>
         <v>192</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <f>E27</f>
         <v>88</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <f>F23</f>
         <v>204</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <f>G27</f>
         <v>91</v>
       </c>
-      <c r="H28" t="s">
-        <v>592</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="N28" t="s">
+      <c r="H28" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="I28" s="2">
+        <v>7</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="O28" t="s">
+      <c r="O28" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P28" t="s">
-        <v>613</v>
-      </c>
-      <c r="Q28">
-        <v>2</v>
-      </c>
-      <c r="R28" t="b">
+      <c r="P28" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2</v>
+      </c>
+      <c r="R28" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4590,7 +4596,7 @@
       </c>
       <c r="G29">
         <f>G23-2</f>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -4643,7 +4649,7 @@
       </c>
       <c r="G30">
         <f>G29</f>
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -4687,8 +4693,8 @@
         <v>100</v>
       </c>
       <c r="E31">
-        <f>E26+13</f>
-        <v>91</v>
+        <f>E26+16</f>
+        <v>94</v>
       </c>
       <c r="F31">
         <f>F26</f>
@@ -4696,7 +4702,7 @@
       </c>
       <c r="G31">
         <f>E31</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4742,7 +4748,7 @@
       </c>
       <c r="E32">
         <f>E31+2</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <f>D32+68</f>
@@ -4750,10 +4756,10 @@
       </c>
       <c r="G32">
         <f>E32+4</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I32">
         <v>8</v>
@@ -4802,7 +4808,7 @@
       </c>
       <c r="E33">
         <f>E32</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <f>$F$23</f>
@@ -4810,10 +4816,10 @@
       </c>
       <c r="G33">
         <f>G32</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I33">
         <v>8</v>
@@ -4863,7 +4869,7 @@
       </c>
       <c r="E34">
         <f>E33</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F34">
         <f>$F$27</f>
@@ -4871,10 +4877,10 @@
       </c>
       <c r="G34">
         <f>G33</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -4894,8 +4900,8 @@
       <c r="O34" t="s">
         <v>40</v>
       </c>
-      <c r="P34" t="s">
-        <v>614</v>
+      <c r="P34" s="12" t="s">
+        <v>613</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -4924,7 +4930,7 @@
       </c>
       <c r="E35">
         <f>E34</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F35">
         <f>$F$28</f>
@@ -4932,10 +4938,10 @@
       </c>
       <c r="G35">
         <f>G34</f>
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I35">
         <v>8</v>
@@ -4955,8 +4961,8 @@
       <c r="O35" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="12" t="s">
-        <v>615</v>
+      <c r="P35" s="13" t="s">
+        <v>614</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -4984,7 +4990,7 @@
       </c>
       <c r="E36">
         <f>E33</f>
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F36">
         <f>D36+4</f>
@@ -4992,7 +4998,7 @@
       </c>
       <c r="G36">
         <f>E36+6</f>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H36" t="s">
         <v>20</v>
@@ -5041,7 +5047,7 @@
       </c>
       <c r="E37">
         <f>E36+11</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F37">
         <f>D37+68</f>
@@ -5049,10 +5055,10 @@
       </c>
       <c r="G37">
         <f>E37+4</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I37">
         <v>8</v>
@@ -5101,7 +5107,7 @@
       </c>
       <c r="E38">
         <f>E37</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F38">
         <f>$F$23</f>
@@ -5109,10 +5115,10 @@
       </c>
       <c r="G38">
         <f>G37</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H38" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I38">
         <v>8</v>
@@ -5162,7 +5168,7 @@
       </c>
       <c r="E39">
         <f>E38</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F39">
         <f>$F$27</f>
@@ -5170,10 +5176,10 @@
       </c>
       <c r="G39">
         <f>G38</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I39">
         <v>8</v>
@@ -5193,8 +5199,8 @@
       <c r="O39" t="s">
         <v>40</v>
       </c>
-      <c r="P39" t="s">
-        <v>614</v>
+      <c r="P39" s="12" t="s">
+        <v>613</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -5223,7 +5229,7 @@
       </c>
       <c r="E40">
         <f>E39</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <f>$F$28</f>
@@ -5231,10 +5237,10 @@
       </c>
       <c r="G40">
         <f>G39</f>
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I40">
         <v>8</v>
@@ -5254,8 +5260,8 @@
       <c r="O40" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="12" t="s">
-        <v>616</v>
+      <c r="P40" s="13" t="s">
+        <v>615</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -5283,7 +5289,7 @@
       </c>
       <c r="E41">
         <f>E38</f>
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F41">
         <f>D41+4</f>
@@ -5291,7 +5297,7 @@
       </c>
       <c r="G41">
         <f>E41+6</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
         <v>20</v>
@@ -5340,7 +5346,7 @@
       </c>
       <c r="E42">
         <f>E41+11</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F42">
         <f>D42+68</f>
@@ -5348,10 +5354,10 @@
       </c>
       <c r="G42">
         <f>E42+4</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H42" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I42">
         <v>8</v>
@@ -5400,7 +5406,7 @@
       </c>
       <c r="E43">
         <f>E42</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F43">
         <f>$F$23</f>
@@ -5408,10 +5414,10 @@
       </c>
       <c r="G43">
         <f>G42</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H43" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I43">
         <v>8</v>
@@ -5461,7 +5467,7 @@
       </c>
       <c r="E44">
         <f>E43</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F44">
         <f>$F$27</f>
@@ -5469,10 +5475,10 @@
       </c>
       <c r="G44">
         <f>G43</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I44">
         <v>8</v>
@@ -5493,7 +5499,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -5522,7 +5528,7 @@
       </c>
       <c r="E45">
         <f>E44</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F45">
         <f>$F$28</f>
@@ -5530,10 +5536,10 @@
       </c>
       <c r="G45">
         <f>G44</f>
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H45" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I45">
         <v>8</v>
@@ -5553,7 +5559,7 @@
       <c r="O45" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="P45" s="13" t="s">
         <v>617</v>
       </c>
       <c r="Q45">
@@ -5582,7 +5588,7 @@
       </c>
       <c r="E46">
         <f>E43</f>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F46">
         <f>D46+4</f>
@@ -5590,7 +5596,7 @@
       </c>
       <c r="G46">
         <f>E46+6</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H46" t="s">
         <v>20</v>
@@ -5639,7 +5645,7 @@
       </c>
       <c r="E47">
         <f>E46+11</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F47">
         <f>D47+68</f>
@@ -5647,10 +5653,10 @@
       </c>
       <c r="G47">
         <f>E47+4</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I47">
         <v>8</v>
@@ -5699,7 +5705,7 @@
       </c>
       <c r="E48">
         <f>E47</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F48">
         <f>$F$23</f>
@@ -5707,10 +5713,10 @@
       </c>
       <c r="G48">
         <f>G47</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I48">
         <v>8</v>
@@ -5760,7 +5766,7 @@
       </c>
       <c r="E49">
         <f>E48</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F49">
         <f>$F$27</f>
@@ -5768,10 +5774,10 @@
       </c>
       <c r="G49">
         <f>G48</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I49">
         <v>8</v>
@@ -5792,7 +5798,7 @@
         <v>40</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -5821,7 +5827,7 @@
       </c>
       <c r="E50">
         <f>E49</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F50">
         <f>$F$28</f>
@@ -5829,10 +5835,10 @@
       </c>
       <c r="G50">
         <f>G49</f>
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I50">
         <v>8</v>
@@ -5852,8 +5858,8 @@
       <c r="O50" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="12" t="s">
-        <v>620</v>
+      <c r="P50" s="13" t="s">
+        <v>619</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -5881,7 +5887,7 @@
       </c>
       <c r="E51">
         <f>E48</f>
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F51">
         <f>D51+4</f>
@@ -5889,7 +5895,7 @@
       </c>
       <c r="G51">
         <f>E51+6</f>
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H51" t="s">
         <v>20</v>
@@ -5938,7 +5944,7 @@
       </c>
       <c r="E52">
         <f>E47+11</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F52">
         <f>D52+68</f>
@@ -5946,10 +5952,10 @@
       </c>
       <c r="G52">
         <f>E52+4</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H52" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I52">
         <v>8</v>
@@ -5998,7 +6004,7 @@
       </c>
       <c r="E53">
         <f>E52</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F53">
         <f>$F$23</f>
@@ -6006,10 +6012,10 @@
       </c>
       <c r="G53">
         <f>G52</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H53" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I53">
         <v>8</v>
@@ -6030,7 +6036,7 @@
         <v>40</v>
       </c>
       <c r="P53" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -6059,7 +6065,7 @@
       </c>
       <c r="E54">
         <f>E53</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F54">
         <f>$F$27</f>
@@ -6067,10 +6073,10 @@
       </c>
       <c r="G54">
         <f>G53</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I54">
         <v>8</v>
@@ -6091,7 +6097,7 @@
         <v>40</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -6120,7 +6126,7 @@
       </c>
       <c r="E55">
         <f>E54</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F55">
         <f>$F$28</f>
@@ -6128,10 +6134,10 @@
       </c>
       <c r="G55">
         <f>G54</f>
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H55" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I55">
         <v>8</v>
@@ -6151,8 +6157,8 @@
       <c r="O55" t="s">
         <v>40</v>
       </c>
-      <c r="P55" s="14" t="s">
-        <v>622</v>
+      <c r="P55" s="13" t="s">
+        <v>620</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -6180,7 +6186,7 @@
       </c>
       <c r="E56">
         <f>E53</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F56">
         <f>D56+4</f>
@@ -6188,7 +6194,7 @@
       </c>
       <c r="G56">
         <f>E56+6</f>
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H56" t="s">
         <v>20</v>
@@ -6237,7 +6243,7 @@
       </c>
       <c r="E57">
         <f>E52+11</f>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F57">
         <f>D57+68</f>
@@ -6245,10 +6251,10 @@
       </c>
       <c r="G57">
         <f>E57+4</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H57" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I57">
         <v>8</v>
@@ -6297,7 +6303,7 @@
       </c>
       <c r="E58">
         <f>E57</f>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F58">
         <f>$F$23</f>
@@ -6305,10 +6311,10 @@
       </c>
       <c r="G58">
         <f>G57</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H58" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I58">
         <v>8</v>
@@ -6358,7 +6364,7 @@
       </c>
       <c r="E59">
         <f>E58</f>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F59">
         <f>$F$27</f>
@@ -6366,10 +6372,10 @@
       </c>
       <c r="G59">
         <f>G58</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H59" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I59">
         <v>8</v>
@@ -6389,8 +6395,8 @@
       <c r="O59" t="s">
         <v>40</v>
       </c>
-      <c r="P59" s="12" t="s">
-        <v>619</v>
+      <c r="P59" s="13" t="s">
+        <v>618</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -6419,7 +6425,7 @@
       </c>
       <c r="E60">
         <f>E59</f>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F60">
         <f>$F$28</f>
@@ -6427,10 +6433,10 @@
       </c>
       <c r="G60">
         <f>G59</f>
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H60" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I60">
         <v>8</v>
@@ -6450,8 +6456,8 @@
       <c r="O60" t="s">
         <v>40</v>
       </c>
-      <c r="P60" s="12" t="s">
-        <v>623</v>
+      <c r="P60" s="13" t="s">
+        <v>621</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -6479,7 +6485,7 @@
       </c>
       <c r="E61">
         <f>E58</f>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F61">
         <f>D61+4</f>
@@ -6487,7 +6493,7 @@
       </c>
       <c r="G61">
         <f>E61+6</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H61" t="s">
         <v>20</v>
@@ -6535,17 +6541,17 @@
       </c>
       <c r="E62">
         <f>G23+6</f>
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F62">
         <v>94</v>
       </c>
       <c r="G62">
         <f>E62+3</f>
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H62" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I62">
         <v>12</v>
@@ -6594,17 +6600,17 @@
       </c>
       <c r="E63">
         <f>G62+4</f>
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F63">
         <v>203</v>
       </c>
       <c r="G63">
         <f>E63+4</f>
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I63">
         <v>9</v>
@@ -6772,7 +6778,7 @@
         <v>198</v>
       </c>
       <c r="H66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I66">
         <v>8</v>
@@ -6832,7 +6838,7 @@
         <v>203</v>
       </c>
       <c r="H67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I67">
         <v>8</v>
@@ -6892,7 +6898,7 @@
         <v>203</v>
       </c>
       <c r="H68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I68">
         <v>8</v>
@@ -6952,7 +6958,7 @@
         <v>203</v>
       </c>
       <c r="H69" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I69">
         <v>8</v>
@@ -7012,7 +7018,7 @@
         <v>203</v>
       </c>
       <c r="H70" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I70">
         <v>8</v>
@@ -7288,7 +7294,7 @@
         <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I75">
         <v>8</v>
@@ -7576,7 +7582,7 @@
         <v>227</v>
       </c>
       <c r="H80" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I80">
         <v>8</v>
@@ -7864,7 +7870,7 @@
         <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I85">
         <v>8</v>
@@ -8152,7 +8158,7 @@
         <v>249</v>
       </c>
       <c r="H90" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I90">
         <v>8</v>
@@ -8440,7 +8446,7 @@
         <v>260</v>
       </c>
       <c r="H95" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I95">
         <v>8</v>
@@ -8728,7 +8734,7 @@
         <v>271</v>
       </c>
       <c r="H100" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I100">
         <v>8</v>
@@ -9016,7 +9022,7 @@
         <v>282</v>
       </c>
       <c r="H105" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I105">
         <v>8</v>
@@ -9301,7 +9307,7 @@
         <v>16</v>
       </c>
       <c r="H110" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I110">
         <v>12</v>
@@ -9410,7 +9416,7 @@
         <v>16</v>
       </c>
       <c r="H112" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I112">
         <v>12</v>
@@ -9572,7 +9578,7 @@
         <v>215</v>
       </c>
       <c r="H115" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I115">
         <v>12</v>
@@ -9628,7 +9634,7 @@
         <v>16</v>
       </c>
       <c r="H116" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I116">
         <v>12</v>
@@ -9686,7 +9692,7 @@
         <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I117">
         <v>9</v>
@@ -9855,7 +9861,7 @@
         <v>65</v>
       </c>
       <c r="H120" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I120">
         <v>12</v>
@@ -9915,7 +9921,7 @@
         <v>70</v>
       </c>
       <c r="H121" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I121">
         <v>8</v>
@@ -9975,7 +9981,7 @@
         <v>70</v>
       </c>
       <c r="H122" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I122">
         <v>8</v>
@@ -10035,7 +10041,7 @@
         <v>70</v>
       </c>
       <c r="H123" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I123">
         <v>8</v>
@@ -10095,7 +10101,7 @@
         <v>70</v>
       </c>
       <c r="H124" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I124">
         <v>8</v>
@@ -10370,7 +10376,7 @@
         <v>83</v>
       </c>
       <c r="H129" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I129">
         <v>8</v>
@@ -10658,7 +10664,7 @@
         <v>94</v>
       </c>
       <c r="H134" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I134">
         <v>8</v>
@@ -10946,7 +10952,7 @@
         <v>105</v>
       </c>
       <c r="H139" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I139">
         <v>8</v>
@@ -11234,7 +11240,7 @@
         <v>116</v>
       </c>
       <c r="H144" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I144">
         <v>8</v>
@@ -11520,7 +11526,7 @@
         <v>135</v>
       </c>
       <c r="H149" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I149">
         <v>12</v>
@@ -11578,7 +11584,7 @@
         <v>143</v>
       </c>
       <c r="H150" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I150">
         <v>9</v>
@@ -11746,7 +11752,7 @@
         <v>196</v>
       </c>
       <c r="H153" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I153">
         <v>12</v>
@@ -11806,7 +11812,7 @@
         <v>201</v>
       </c>
       <c r="H154" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -11866,7 +11872,7 @@
         <v>201</v>
       </c>
       <c r="H155" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I155">
         <v>8</v>
@@ -11926,7 +11932,7 @@
         <v>201</v>
       </c>
       <c r="H156" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I156">
         <v>8</v>
@@ -11986,7 +11992,7 @@
         <v>201</v>
       </c>
       <c r="H157" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I157">
         <v>8</v>
@@ -12262,7 +12268,7 @@
         <v>214</v>
       </c>
       <c r="H162" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I162">
         <v>8</v>
@@ -12547,7 +12553,7 @@
         <v>23</v>
       </c>
       <c r="H167" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I167">
         <v>6</v>
@@ -13215,7 +13221,7 @@
         <v>241</v>
       </c>
       <c r="H180" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I180">
         <v>12</v>
@@ -13260,10 +13266,10 @@
   <dimension ref="A1:H97"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13644,7 +13650,7 @@
         <v>415</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>415</v>
+        <v>623</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>423</v>
@@ -13704,7 +13710,7 @@
         <v>449</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H18" s="9"/>
     </row>
@@ -13761,10 +13767,10 @@
         <v>315</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>433</v>
@@ -13814,7 +13820,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>251</v>
@@ -13866,7 +13872,7 @@
         <v>43</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>242</v>
@@ -14016,25 +14022,25 @@
         <v>314</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>365</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -14045,10 +14051,10 @@
         <v>58</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>364</v>
@@ -14057,10 +14063,10 @@
         <v>364</v>
       </c>
       <c r="G32" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14068,25 +14074,25 @@
         <v>314</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>365</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -14123,7 +14129,7 @@
         <v>62</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>235</v>
@@ -14141,56 +14147,56 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>612</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>314</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15085,22 +15091,22 @@
         <v>551</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF553B6A-AB0C-49C8-A41D-F06839C2E480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C41A6B-ABDB-4B6C-924D-B18A9BD60A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
     <sheet name="languages" sheetId="2" r:id="rId2"/>
     <sheet name="fonts" sheetId="3" r:id="rId3"/>
+    <sheet name="translations" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$D$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="640">
   <si>
     <t>name</t>
   </si>
@@ -1901,9 +1902,6 @@
 /6</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>28%</t>
   </si>
   <si>
@@ -1935,13 +1933,61 @@
   </si>
   <si>
     <t>Policy quality rating for specific, measurable policies aligned with consensus evidence on healthy cities</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese </t>
+  </si>
+  <si>
+    <t>Māori</t>
+  </si>
+  <si>
+    <t>Kanuri</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Gaelic</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>Chinese (traditional)</t>
+  </si>
+  <si>
+    <t>Catalan / Valencian</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2072,6 +2118,26 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2258,7 +2324,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2382,6 +2448,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2427,7 +2508,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2460,8 +2541,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2960,9 +3073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4900,8 +5013,8 @@
       <c r="O34" t="s">
         <v>40</v>
       </c>
-      <c r="P34" s="12" t="s">
-        <v>613</v>
+      <c r="P34" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="Q34">
         <v>3</v>
@@ -4962,7 +5075,7 @@
         <v>40</v>
       </c>
       <c r="P35" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -5199,8 +5312,8 @@
       <c r="O39" t="s">
         <v>40</v>
       </c>
-      <c r="P39" s="12" t="s">
-        <v>613</v>
+      <c r="P39" s="13" t="s">
+        <v>624</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -5261,7 +5374,7 @@
         <v>40</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -5499,7 +5612,7 @@
         <v>40</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -5560,7 +5673,7 @@
         <v>40</v>
       </c>
       <c r="P45" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -5798,7 +5911,7 @@
         <v>40</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -5859,7 +5972,7 @@
         <v>40</v>
       </c>
       <c r="P50" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -6097,7 +6210,7 @@
         <v>40</v>
       </c>
       <c r="P54" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q54">
         <v>3</v>
@@ -6158,7 +6271,7 @@
         <v>40</v>
       </c>
       <c r="P55" s="13" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -6396,7 +6509,7 @@
         <v>40</v>
       </c>
       <c r="P59" s="13" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -6457,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="P60" s="13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q60">
         <v>3</v>
@@ -6540,15 +6653,15 @@
         <v>7</v>
       </c>
       <c r="E62">
-        <f>G23+6</f>
-        <v>166</v>
+        <f>G23+3</f>
+        <v>163</v>
       </c>
       <c r="F62">
         <v>94</v>
       </c>
       <c r="G62">
         <f>E62+3</f>
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H62" t="s">
         <v>591</v>
@@ -6600,14 +6713,14 @@
       </c>
       <c r="E63">
         <f>G62+4</f>
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F63">
         <v>203</v>
       </c>
       <c r="G63">
         <f>E63+4</f>
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H63" t="s">
         <v>591</v>
@@ -13269,7 +13382,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13650,7 +13763,7 @@
         <v>415</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>423</v>
@@ -13820,7 +13933,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>251</v>
@@ -14077,7 +14190,7 @@
         <v>595</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>602</v>
@@ -16259,4 +16372,695 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4326381-5013-44C7-92E7-E6B9FE8B43CF}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="2" max="17" width="11.42578125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="22" t="s">
+        <v>639</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="P1" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>579</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>574</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="s">
+        <v>626</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B3E700-DF6C-47BB-8283-955B59C25026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593496A3-A0EC-42A6-96B1-7251CDBE959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="translations" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scorecard_template_elements!$A$1:$T$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="393">
   <si>
     <t>name</t>
   </si>
@@ -1231,7 +1231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1382,6 +1382,21 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1568,7 +1583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1684,15 +1699,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1705,6 +1711,117 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1752,7 +1869,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1763,64 +1880,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1867,7 +2038,301 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2330,7 +2795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
@@ -2341,65 +2806,65 @@
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4369,7 +4834,7 @@
       <c r="O34" t="s">
         <v>40</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="8" t="s">
         <v>342</v>
       </c>
       <c r="Q34">
@@ -4433,7 +4898,7 @@
       <c r="O35" t="s">
         <v>40</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="8" t="s">
         <v>333</v>
       </c>
       <c r="Q35">
@@ -4683,7 +5148,7 @@
       <c r="O39" t="s">
         <v>40</v>
       </c>
-      <c r="P39" s="13" t="s">
+      <c r="P39" s="8" t="s">
         <v>342</v>
       </c>
       <c r="Q39">
@@ -4747,7 +5212,7 @@
       <c r="O40" t="s">
         <v>40</v>
       </c>
-      <c r="P40" s="13" t="s">
+      <c r="P40" s="8" t="s">
         <v>334</v>
       </c>
       <c r="Q40">
@@ -4997,7 +5462,7 @@
       <c r="O44" t="s">
         <v>40</v>
       </c>
-      <c r="P44" s="13" t="s">
+      <c r="P44" s="8" t="s">
         <v>335</v>
       </c>
       <c r="Q44">
@@ -5061,7 +5526,7 @@
       <c r="O45" t="s">
         <v>40</v>
       </c>
-      <c r="P45" s="13" t="s">
+      <c r="P45" s="8" t="s">
         <v>336</v>
       </c>
       <c r="Q45">
@@ -5311,7 +5776,7 @@
       <c r="O49" t="s">
         <v>40</v>
       </c>
-      <c r="P49" s="13" t="s">
+      <c r="P49" s="8" t="s">
         <v>337</v>
       </c>
       <c r="Q49">
@@ -5375,7 +5840,7 @@
       <c r="O50" t="s">
         <v>40</v>
       </c>
-      <c r="P50" s="13" t="s">
+      <c r="P50" s="8" t="s">
         <v>338</v>
       </c>
       <c r="Q50">
@@ -5625,7 +6090,7 @@
       <c r="O54" t="s">
         <v>40</v>
       </c>
-      <c r="P54" s="13" t="s">
+      <c r="P54" s="8" t="s">
         <v>337</v>
       </c>
       <c r="Q54">
@@ -5689,7 +6154,7 @@
       <c r="O55" t="s">
         <v>40</v>
       </c>
-      <c r="P55" s="13" t="s">
+      <c r="P55" s="8" t="s">
         <v>339</v>
       </c>
       <c r="Q55">
@@ -5939,7 +6404,7 @@
       <c r="O59" t="s">
         <v>40</v>
       </c>
-      <c r="P59" s="13" t="s">
+      <c r="P59" s="8" t="s">
         <v>337</v>
       </c>
       <c r="Q59">
@@ -6003,7 +6468,7 @@
       <c r="O60" t="s">
         <v>40</v>
       </c>
-      <c r="P60" s="13" t="s">
+      <c r="P60" s="8" t="s">
         <v>340</v>
       </c>
       <c r="Q60">
@@ -12679,7 +13144,7 @@
       <c r="O171" t="s">
         <v>318</v>
       </c>
-      <c r="P171" s="24"/>
+      <c r="P171" s="19"/>
       <c r="Q171">
         <v>2</v>
       </c>
@@ -12739,7 +13204,7 @@
       <c r="O172" t="s">
         <v>318</v>
       </c>
-      <c r="P172" s="24" t="s">
+      <c r="P172" s="19" t="s">
         <v>382</v>
       </c>
       <c r="Q172">
@@ -13353,7 +13818,7 @@
   </sheetData>
   <autoFilter ref="A1:T170" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A114">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13362,1239 +13827,2099 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C64" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="55" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="21" customWidth="1"/>
+    <col min="3" max="9" width="55" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="24" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+    </row>
+    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="30"/>
+    </row>
+    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="27" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="30"/>
+    </row>
+    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="30"/>
+    </row>
+    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="27" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="30"/>
+    </row>
+    <row r="14" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="30"/>
+    </row>
+    <row r="15" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="30"/>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="30"/>
+    </row>
+    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="30"/>
+    </row>
+    <row r="18" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="30"/>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="30"/>
+    </row>
+    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="31" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="32" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="32" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="36" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="36" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="36" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="36" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="35"/>
+    </row>
+    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="36" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="35"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="B30" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="B31" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="B32" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="35"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="B33" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="35"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="B34" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="35"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="B35" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="35"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="B36" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="B37" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="35"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="B38" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="35"/>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="B39" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="B40" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="B41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="B42" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="B43" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="35"/>
+    </row>
+    <row r="44" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="B44" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B45" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="B46" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B47" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="35"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="B48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="35"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="B49" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="35"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="B50" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="35"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="35"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B52" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="35"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="B53" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="35"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="B54" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="35"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="B55" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="35"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="B56" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="35"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="B57" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="35"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="B58" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="35"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="B59" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="35"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="B60" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="38"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="35"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="B61" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="35"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="B62" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="35"/>
+    </row>
+    <row r="63" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B63" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="35"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B64" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="35"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="B65" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D65" s="33"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="35"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="B66" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="38"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="35"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="B67" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="34"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="35"/>
+    </row>
+    <row r="68" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="B68" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D68" s="38"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="35"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="B69" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="35"/>
+    </row>
+    <row r="70" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="B70" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C70" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="35"/>
+    </row>
+    <row r="71" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="B71" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="35"/>
+    </row>
+    <row r="72" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="B72" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="35"/>
+    </row>
+    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="B73" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="35"/>
+    </row>
+    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B74" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C74" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="35"/>
+    </row>
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C75" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="35"/>
+    </row>
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C76" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="35"/>
+    </row>
+    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C77" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="D77" s="34"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="35"/>
+    </row>
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="35"/>
+    </row>
+    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="C79" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="D79" s="34"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="34"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="34"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="35"/>
+    </row>
+    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="33"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="35"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="33"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="35"/>
+    </row>
+    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="33"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="35"/>
+    </row>
+    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="34"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="35"/>
+    </row>
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="35"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="33"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="35"/>
+    </row>
+    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="35"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="B87" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="35"/>
+    </row>
+    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="33"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="35"/>
+    </row>
+    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="35"/>
+    </row>
+    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C90" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="35"/>
+    </row>
+    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C91" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="33"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="35"/>
+    </row>
+    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C92" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="35"/>
+    </row>
+    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C93" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="35"/>
+    </row>
+    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C94" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="35"/>
+    </row>
+    <row r="95" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B95" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="C95" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="33"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="35"/>
+    </row>
+    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C96" s="36" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="33"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="35"/>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="39" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="D97" s="40"/>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40"/>
+      <c r="G97" s="40"/>
+      <c r="H97" s="40"/>
+      <c r="I97" s="40"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="42"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="13" priority="13"/>
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49:B1048576 B22:B31 B1:B2 B33:B37 B39:B45">
-    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
+  <conditionalFormatting sqref="B48:B1048576 B22:B30 B1:B2 B32:B36 B38:B44">
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C12">
+  <conditionalFormatting sqref="C9:D12">
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D13">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="C21:D21">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+  <conditionalFormatting sqref="B3:B6 B8:B21">
+    <cfRule type="duplicateValues" dxfId="8" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B6 B8:B21">
-    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+  <conditionalFormatting sqref="C3:D6 C8:D8 C14:D20">
+    <cfRule type="duplicateValues" dxfId="7" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6 C8 C14:C20">
-    <cfRule type="duplicateValues" dxfId="6" priority="24"/>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
     <cfRule type="duplicateValues" dxfId="5" priority="6"/>
@@ -14602,17 +15927,19 @@
   <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B48">
+  <conditionalFormatting sqref="C7:D7">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
+  <conditionalFormatting sqref="B31">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32">
+  <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="D1:M97">
+    <cfRule type="containsBlanks" dxfId="0" priority="26">
+      <formula>LEN(TRIM(D1))=0</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14635,22 +15962,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -15087,677 +16414,677 @@
     <col min="2" max="17" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="18"/>
+      <c r="B1" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="16" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14" t="s">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14" t="s">
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14" t="s">
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14" t="s">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14" t="s">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14" t="s">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14" t="s">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14" t="s">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14" t="s">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14" t="s">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14" t="s">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14" t="s">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
+      <c r="B26" s="10"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14" t="s">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593496A3-A0EC-42A6-96B1-7251CDBE959F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489A25F1-3DB0-4502-A15E-BCA43FAD251B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="4365" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="translations" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">languages!$B$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scorecard_template_elements!$A$1:$T$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="466">
   <si>
     <t>name</t>
   </si>
@@ -1225,6 +1225,225 @@
   </si>
   <si>
     <t>Please provide a high resolution 'hero image' for this city, ideally in .jpg format with dimensions in the ratio of 21:10 (e.g. 2100px by 1000px)</t>
+  </si>
+  <si>
+    <t>Fødevaremarkedet</t>
+  </si>
+  <si>
+    <t>Bekvemmelighed</t>
+  </si>
+  <si>
+    <t>Ethvert offentligt åbent rum</t>
+  </si>
+  <si>
+    <t>Stort offentligt åbent rum</t>
+  </si>
+  <si>
+    <t>Stop for offentlig transport</t>
+  </si>
+  <si>
+    <t>Offentlig transport med rutekørsel</t>
+  </si>
+  <si>
+    <t>Offentlig transport med rutekørsel (ikke evalueret)</t>
+  </si>
+  <si>
+    <t>Nabolag walkability i forhold til 25 byer</t>
+  </si>
+  <si>
+    <t>Lav</t>
+  </si>
+  <si>
+    <t>Gennemsnitlig</t>
+  </si>
+  <si>
+    <t>Høj</t>
+  </si>
+  <si>
+    <t>Procentdel af befolkningen med adgang til offentlig transport</t>
+  </si>
+  <si>
+    <t>% befolkning inden for 500 mio. offentlig transport med 20 min eller bedre gennemsnitlig ugedagsfrekvens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% befolkning inden for 500 m af det offentlige åbne område på 1,5 ha eller derover </t>
+  </si>
+  <si>
+    <t>% af befolkningen i optimalt interval</t>
+  </si>
+  <si>
+    <t>Identificerede politikker</t>
+  </si>
+  <si>
+    <t>Befolkning %med adgangmed i500m til...</t>
+  </si>
+  <si>
+    <t>Befolkningstætheden i nabolaget (pr. km²)</t>
+  </si>
+  <si>
+    <t>Tæthed i vejkryds i nabolaget (pr. km²)</t>
+  </si>
+  <si>
+    <t>25 by median</t>
+  </si>
+  <si>
+    <t>Globalt samarbejde om sunde og bæredygtige byindikatorer</t>
+  </si>
+  <si>
+    <t>Indikatorer for sunde og bæredygtige byer: Kort rapport</t>
+  </si>
+  <si>
+    <t>Infografik, der skal indsættes her ...</t>
+  </si>
+  <si>
+    <t>Indikatorer for sunde og bæredygtige byer: {city}</t>
+  </si>
+  <si>
+    <t>(nedenfor) By skøn for procentdel af befolkningen med adgang til faciliteter inden for 500 meter (m).</t>
+  </si>
+  <si>
+    <t>Befolkningstæthed</t>
+  </si>
+  <si>
+    <t>Optimale intervaller, der er nævnt i ovenstående plottekster, er baseret på modellering af Cerin et al. (2022) af de byggede miljøfunktioner, der er nødvendige for at nå Verdenssundhedsorganisationens mål om en ≥15% relativ reduktion i utilstrækkelig fysisk aktivitet gennem gang (se https://www.who.int/news-room/initiatives/gappa ).</t>
+  </si>
+  <si>
+    <t>Politisk tilstedeværelse</t>
+  </si>
+  <si>
+    <t>Bydesign- og transportpolitik, der støtter sundhed og sustinabilitet, og som er</t>
+  </si>
+  <si>
+    <t>Politikkvalitet</t>
+  </si>
+  <si>
+    <t>Politikkvalitetsvurdering for specifikke, målbare politikker, der er i overensstemmelse med konsensusbevis om sunde byer</t>
+  </si>
+  <si>
+    <t>Krav til byplanlægning</t>
+  </si>
+  <si>
+    <t>25 byer sammenligning efter indkomstgruppe</t>
+  </si>
+  <si>
+    <t>Midt/6</t>
+  </si>
+  <si>
+    <t>Høj/19</t>
+  </si>
+  <si>
+    <t>Specifikke sundhedsfokuserede foranstaltninger i storbyens bypolitik</t>
+  </si>
+  <si>
+    <t>Specifikke sundhedsfokuserede foranstaltninger i storbyens transportpolitik</t>
+  </si>
+  <si>
+    <t>Krav til sundhedskonsekvensanalyse i by-/transportpolitik/lovgivning</t>
+  </si>
+  <si>
+    <t>Oplysninger om de offentlige udgifter til infrastruktur for forskellige transportformer</t>
+  </si>
+  <si>
+    <t>Luftforureningspolitikker i forbindelse med transportplanlægning</t>
+  </si>
+  <si>
+    <t>Luftforureningspolitikker i forbindelse med fysisk planlægning</t>
+  </si>
+  <si>
+    <t>Walkable kvarterer giver muligheder for en sund, bæredygtig livsstil og opfyldelse af retningslinjer for fysisk aktivitet. Walkable neighourhoods har tilstrækkelig tæthed af boliger og befolkning (men ikke hyper-tæthed) til at støtte lokale destinationer og passende offentlig transport. Walkable kvarterer har også blandet arealanvendelse og high street tilslutningsmuligheder, for at sikre nærliggende og bekvem adgang til destinationer. Fodgængerinfrastruktur af høj kvalitet og reduktion af trafikken gennem styring af efterspørgslen efter brug af biler kan også tilskynde til at gå til transport.</t>
+  </si>
+  <si>
+    <t>Gangbarhedspolitik</t>
+  </si>
+  <si>
+    <t>Politik for offentlig transport</t>
+  </si>
+  <si>
+    <t>Politik for offentligt åbent rum</t>
+  </si>
+  <si>
+    <t>Politik identificeret</t>
+  </si>
+  <si>
+    <t>Specifik standard eller mål</t>
+  </si>
+  <si>
+    <t>Målbart mål</t>
+  </si>
+  <si>
+    <t>I overensstemmelse med sundhedsbeviser</t>
+  </si>
+  <si>
+    <t>Krav til boligtæthed</t>
+  </si>
+  <si>
+    <t>Krav til gadeforbindelse</t>
+  </si>
+  <si>
+    <t>Parkeringsrestriktioner for at modvirke bilbrug</t>
+  </si>
+  <si>
+    <t>Levering af fodgængerinfrastruktur</t>
+  </si>
+  <si>
+    <t>Levering af cykelinfrastruktur</t>
+  </si>
+  <si>
+    <t>Gå deltagelse mål</t>
+  </si>
+  <si>
+    <t>Mål for cykeldeltagelse</t>
+  </si>
+  <si>
+    <t>Vejkryds tæthed</t>
+  </si>
+  <si>
+    <t>Adgang til offentlig transport</t>
+  </si>
+  <si>
+    <t>Adgang til offentlige åbne rum</t>
+  </si>
+  <si>
+    <t>Indsæt noget indhold her måske?</t>
+  </si>
+  <si>
+    <t>Nem adgang til hyppig offentlig transport er en afgørende faktor for sunde og bæredygtige transportsystemer. Offentlig transport i nærheden af boliger og beskæftigelse øger andelen af offentlige transporter og tilskynder dermed til transportrelateret gang. at tilbyde adgang til regionale job og tjenester; forbedring af sundhed, økonomisk udvikling og social inklusion; og reducere forurening og CO2-emissioner. Hyppigheden af tjenester tilskynder også til brug af offentlig transport ud over nærheden af stationer eller stop.</t>
+  </si>
+  <si>
+    <t>Krav til offentlig transport adgang til beskæftigelse/infrastruktur</t>
+  </si>
+  <si>
+    <t>Krav til fordeling af beskæftigelsen</t>
+  </si>
+  <si>
+    <t>Minimumskrav til adgang til offentlig transport</t>
+  </si>
+  <si>
+    <t>Mål for brug af offentlig transport</t>
+  </si>
+  <si>
+    <t>Lokal adgang til offentlige åbne rum af høj kvalitet fremmer rekreativ fysisk aktivitet og mental sundhed. Nærliggende offentlige åbne rum skaber hyggelige, attraktive miljøer, hjælper med at afkøle byen og beskytter biodiversiteten. Som byer fortætne og private åbne rum falder, giver mere offentlige åbne rum er afgørende for befolkningens sundhed. At have offentligt åbent rum inden for 400 m fra hjemmet kan tilskynde til at gå. Adgang til større parker kan også være vigtig.</t>
+  </si>
+  <si>
+    <t>Minimumskrav til adgang til offentlige åbne områder</t>
+  </si>
+  <si>
+    <t>Den fulde rapport med data, metoder og begrænsninger er blevet offentliggjort i INSERT SERIES CITATION &amp;URL | Befolkningsdata: Schiavina, M. et al. (2019): GHS-befolkningsgitter multitemporal (1975, 1990, 2000, 2015) R2019A. Europa-Kommissionen, Det Fælles Forskningscenter (FFC). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 | Bygrænser: Florczyk, A. et al. (2019): GHS Urban Centre Database 2015, multitemporale og flerdimensionelle egenskaber, R2019A. Europa-Kommissionen, Det Fælles Forskningscenter (FFC). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e | Urban funktioner: OpenStreetMap bidragydere. Openstreetmap (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent | Farveskala: Crameri, F. (2018). Videnskabelige farvekort (3.0.4). Zenodo. https://doi.org/10.5281/zenodo.1287763</t>
+  </si>
+  <si>
+    <t>Citat: Globalt samarbejde om sunde og bæredygtige byindikatorer. 2022. Indikatorer for sunde og bæredygtige byer: Kort rapport, {city}. https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t>Denne korte rapport skitserer, hvordan {city} klarer sig på rumlige og politiske indikatorer for sunde og bæredygtige byer. Global Healthy and Sustainable City-Indicators Collaboration-undersøgelsen undersøgte den rumlige fordeling af bydesign og transportfunktioner og tilstedeværelsen og kvaliteten af byplanlægningspolitikker, der fremmer sundhed og bæredygtighed for 25 byer på tværs af 19 lande internationalt. Yderligere oplysninger om undersøgelsen kan fås på https://doi.org/INSERT-DOI-HERE.</t>
+  </si>
+  <si>
+    <t>*Angiv en oversigt i konfigurationsarket Sprog for denne by*</t>
+  </si>
+  <si>
+    <t>Melbourne havde relativt god adgang til offentlige transportstop og åbne rum og en række byplanlægningspolitikker, der støttede walkable kvarterer med god adgang til offentlige åbne rum. Men walkability og adgang til hyppig offentlig transport blev uretfærdigt fordelt, til fordel for indre byområder. Kravene til boligtæthed skulle øges for bedre at kunne understøtte walkability.</t>
+  </si>
+  <si>
+    <t>Danish - Word translation</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +2088,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1945,9 +2164,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1959,9 +2175,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2038,298 +2251,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13827,24 +13753,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="C1:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="21" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="21" customWidth="1"/>
-    <col min="3" max="9" width="55" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="31.5703125" style="21" hidden="1" customWidth="1"/>
+    <col min="3" max="10" width="55" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>229</v>
       </c>
@@ -13854,2047 +13780,2338 @@
       <c r="C1" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>354</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="F1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="25"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
-      <c r="M1" s="26"/>
-    </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="30"/>
-    </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="30"/>
-    </row>
-    <row r="4" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="30" t="s">
         <v>236</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="30"/>
-    </row>
-    <row r="5" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="30"/>
-    </row>
-    <row r="6" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="30"/>
-    </row>
-    <row r="7" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="29"/>
+    </row>
+    <row r="7" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="30"/>
-    </row>
-    <row r="8" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="30"/>
-    </row>
-    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="30" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="30"/>
-    </row>
-    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="30"/>
-    </row>
-    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="30" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="30"/>
-    </row>
-    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="30"/>
-    </row>
-    <row r="14" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>368</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
       <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
       <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="30"/>
-    </row>
-    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="30"/>
-    </row>
-    <row r="17" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="30"/>
-    </row>
-    <row r="18" spans="1:13" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
       <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="30"/>
-    </row>
-    <row r="19" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
       <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="30"/>
-    </row>
-    <row r="20" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="30"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="34"/>
+      <c r="E22" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="33"/>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="34" t="s">
         <v>358</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="34"/>
+      <c r="E23" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="33"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>202</v>
       </c>
       <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="33"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="34" t="s">
         <v>359</v>
       </c>
       <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="33"/>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="36" t="s">
+      <c r="C26" s="34" t="s">
         <v>295</v>
       </c>
       <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="33"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="33"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>52</v>
       </c>
       <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="E28" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="33"/>
+    </row>
+    <row r="29" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>376</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="33"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>57</v>
       </c>
       <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="35"/>
-    </row>
-    <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="36" t="s">
+      <c r="C31" s="34" t="s">
         <v>326</v>
       </c>
       <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="33"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>325</v>
       </c>
       <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="35"/>
-    </row>
-    <row r="33" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="33"/>
+    </row>
+    <row r="33" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>341</v>
       </c>
       <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="35"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E33" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="33"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>268</v>
       </c>
       <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="35"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E34" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="33"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B35" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>329</v>
       </c>
       <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="35"/>
-    </row>
-    <row r="36" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E35" s="32" t="s">
+        <v>425</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="33"/>
+    </row>
+    <row r="36" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B36" s="21" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>332</v>
       </c>
       <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="35"/>
-    </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="33"/>
+    </row>
+    <row r="37" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="C37" s="36" t="s">
+      <c r="C37" s="34" t="s">
         <v>361</v>
       </c>
       <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="35"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="33"/>
+    </row>
+    <row r="38" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>387</v>
       </c>
       <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="35"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E38" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="33"/>
+    </row>
+    <row r="39" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="C39" s="34" t="s">
         <v>388</v>
       </c>
       <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="35"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E39" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="40" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B40" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="34" t="s">
         <v>389</v>
       </c>
       <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="35"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E40" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="33"/>
+    </row>
+    <row r="41" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B41" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>390</v>
       </c>
       <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="35"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E41" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="33"/>
+    </row>
+    <row r="42" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="34" t="s">
         <v>362</v>
       </c>
       <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="35"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E42" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="34" t="s">
         <v>373</v>
       </c>
       <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="35"/>
-    </row>
-    <row r="44" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="E43" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="35" t="s">
         <v>363</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="35"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="35"/>
+      <c r="E44" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="33"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="34" t="s">
         <v>273</v>
       </c>
       <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="35"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E45" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="33"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="34" t="s">
         <v>280</v>
       </c>
       <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="35"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E46" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="33"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="34" t="s">
         <v>279</v>
       </c>
       <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="35"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E47" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="33"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="34" t="s">
         <v>122</v>
       </c>
       <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="35"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E48" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="33"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="34" t="s">
         <v>274</v>
       </c>
       <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="35"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E49" s="32" t="s">
+        <v>439</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="33"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="34" t="s">
         <v>119</v>
       </c>
       <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="35"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E50" s="32" t="s">
+        <v>440</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="33"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="34" t="s">
         <v>275</v>
       </c>
       <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="35"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E51" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="33"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="34" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="35"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E52" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="33"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="34" t="s">
         <v>385</v>
       </c>
       <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="35"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E53" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="33"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B54" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="34" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="35"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E54" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="33"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B55" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="34" t="s">
         <v>110</v>
       </c>
       <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="33"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="35"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E55" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="33"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="34" t="s">
         <v>111</v>
       </c>
       <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="33"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="35"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E56" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="33"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="34" t="s">
         <v>112</v>
       </c>
       <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="33"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="35"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E57" s="32" t="s">
+        <v>447</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="33"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="34" t="s">
         <v>113</v>
       </c>
       <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="35"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E58" s="32" t="s">
+        <v>448</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="33"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="34" t="s">
         <v>93</v>
       </c>
       <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="33"/>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="35"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E59" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="33"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B60" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="34" t="s">
         <v>269</v>
       </c>
       <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="33"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="35"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E60" s="32" t="s">
+        <v>450</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="33"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B61" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="34" t="s">
         <v>270</v>
       </c>
       <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="35"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E61" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="33"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B62" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="34" t="s">
         <v>207</v>
       </c>
       <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="35"/>
-    </row>
-    <row r="63" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="E62" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="33"/>
+    </row>
+    <row r="63" spans="1:14" ht="150" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B63" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="C63" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" s="33"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="35"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D63" s="35"/>
+      <c r="E63" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="33"/>
+    </row>
+    <row r="64" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B64" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="D64" s="33"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" s="33"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="35"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D64" s="34"/>
+      <c r="E64" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="33"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B65" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="C65" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="D65" s="33"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="35"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D65" s="34"/>
+      <c r="E65" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="33"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B66" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="34" t="s">
         <v>188</v>
       </c>
       <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="35"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E66" s="32" t="s">
+        <v>456</v>
+      </c>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="31"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="33"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B67" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="34" t="s">
         <v>189</v>
       </c>
       <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="33"/>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="35"/>
-    </row>
-    <row r="68" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="E67" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="33"/>
+    </row>
+    <row r="68" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B68" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="33"/>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="35"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="35"/>
+      <c r="E68" s="36" t="s">
+        <v>458</v>
+      </c>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="33"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B69" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="34" t="s">
         <v>195</v>
       </c>
       <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="33"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="35"/>
-    </row>
-    <row r="70" spans="1:13" ht="255" x14ac:dyDescent="0.25">
+      <c r="E69" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="31"/>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="33"/>
+    </row>
+    <row r="70" spans="1:14" ht="240" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B70" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="34" t="s">
         <v>271</v>
       </c>
       <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="33"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="35"/>
-    </row>
-    <row r="71" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E70" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="31"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="33"/>
+    </row>
+    <row r="71" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B71" s="21" t="s">
         <v>203</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="34" t="s">
         <v>371</v>
       </c>
       <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="33"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="35"/>
-    </row>
-    <row r="72" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="33"/>
+    </row>
+    <row r="72" spans="1:14" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B72" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="34" t="s">
         <v>372</v>
       </c>
       <c r="D72" s="34"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="33"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="35"/>
-    </row>
-    <row r="73" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E72" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="31"/>
+      <c r="L72" s="31"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="33"/>
+    </row>
+    <row r="73" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B73" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="33"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="35"/>
-    </row>
-    <row r="74" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E73" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="33"/>
+    </row>
+    <row r="74" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="34"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="35"/>
-    </row>
-    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E74" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="31"/>
+      <c r="L74" s="31"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="33"/>
+    </row>
+    <row r="75" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
-      <c r="F75" s="34"/>
-      <c r="G75" s="34"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="34"/>
-      <c r="J75" s="33"/>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33"/>
-      <c r="M75" s="35"/>
-    </row>
-    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E75" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
+      <c r="K75" s="31"/>
+      <c r="L75" s="31"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="33"/>
+    </row>
+    <row r="76" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="33"/>
-      <c r="K76" s="33"/>
-      <c r="L76" s="33"/>
-      <c r="M76" s="35"/>
-    </row>
-    <row r="77" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E76" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="31"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="33"/>
+    </row>
+    <row r="77" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="33"/>
-      <c r="K77" s="33"/>
-      <c r="L77" s="33"/>
-      <c r="M77" s="35"/>
-    </row>
-    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E77" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="33"/>
+    </row>
+    <row r="78" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33"/>
-      <c r="L78" s="33"/>
-      <c r="M78" s="35"/>
-    </row>
-    <row r="79" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E78" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="33"/>
+    </row>
+    <row r="79" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="35"/>
-    </row>
-    <row r="80" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E79" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="33"/>
+    </row>
+    <row r="80" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B80" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="35"/>
-    </row>
-    <row r="81" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
+      <c r="K80" s="31"/>
+      <c r="L80" s="31"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="33"/>
+    </row>
+    <row r="81" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="33"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="33"/>
-      <c r="M81" s="35"/>
-    </row>
-    <row r="82" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E81" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
+      <c r="K81" s="31"/>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="33"/>
+    </row>
+    <row r="82" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="33"/>
-      <c r="K82" s="33"/>
-      <c r="L82" s="33"/>
-      <c r="M82" s="35"/>
-    </row>
-    <row r="83" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E82" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="33"/>
+    </row>
+    <row r="83" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="35"/>
-    </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E83" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
+      <c r="K83" s="31"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="33"/>
+    </row>
+    <row r="84" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="35"/>
-    </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E84" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
+      <c r="K84" s="31"/>
+      <c r="L84" s="31"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="33"/>
+    </row>
+    <row r="85" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="35"/>
-    </row>
-    <row r="86" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E85" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
+      <c r="K85" s="31"/>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="33"/>
+    </row>
+    <row r="86" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="35"/>
-    </row>
-    <row r="87" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E86" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="33"/>
+    </row>
+    <row r="87" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="35"/>
-    </row>
-    <row r="88" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E87" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="33"/>
+    </row>
+    <row r="88" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="35"/>
-    </row>
-    <row r="89" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E88" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="33"/>
+    </row>
+    <row r="89" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C89" s="36" t="s">
+      <c r="C89" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
-      <c r="I89" s="34"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="35"/>
-    </row>
-    <row r="90" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E89" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="33"/>
+    </row>
+    <row r="90" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D90" s="34"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="H90" s="34"/>
-      <c r="I90" s="34"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="35"/>
-    </row>
-    <row r="91" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E90" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="33"/>
+    </row>
+    <row r="91" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="36" t="s">
+      <c r="C91" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D91" s="34"/>
-      <c r="E91" s="34"/>
-      <c r="F91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="H91" s="34"/>
-      <c r="I91" s="34"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="35"/>
-    </row>
-    <row r="92" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E91" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="31"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="33"/>
+    </row>
+    <row r="92" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C92" s="36" t="s">
+      <c r="C92" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="35"/>
-    </row>
-    <row r="93" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E92" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="33"/>
+    </row>
+    <row r="93" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B93" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C93" s="36" t="s">
+      <c r="C93" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="33"/>
-      <c r="K93" s="33"/>
-      <c r="L93" s="33"/>
-      <c r="M93" s="35"/>
-    </row>
-    <row r="94" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E93" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="33"/>
+    </row>
+    <row r="94" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B94" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="36" t="s">
+      <c r="C94" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
-      <c r="M94" s="35"/>
-    </row>
-    <row r="95" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="E94" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="31"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="33"/>
+    </row>
+    <row r="95" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="34" t="s">
         <v>360</v>
       </c>
       <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
-      <c r="M95" s="35"/>
-    </row>
-    <row r="96" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E95" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
+      <c r="K95" s="31"/>
+      <c r="L95" s="31"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="33"/>
+    </row>
+    <row r="96" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="34" t="s">
         <v>319</v>
       </c>
       <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
-      <c r="M96" s="35"/>
-    </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E96" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
+      <c r="K96" s="31"/>
+      <c r="L96" s="31"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="33"/>
+    </row>
+    <row r="97" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C97" s="39" t="s">
+      <c r="C97" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="D97" s="40"/>
-      <c r="E97" s="40"/>
-      <c r="F97" s="40"/>
-      <c r="G97" s="40"/>
-      <c r="H97" s="40"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="42"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="40"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:D2">
+  <conditionalFormatting sqref="C2:E2">
     <cfRule type="duplicateValues" dxfId="14" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
@@ -15903,19 +16120,19 @@
   <conditionalFormatting sqref="B48:B1048576 B22:B30 B1:B2 B32:B36 B38:B44">
     <cfRule type="duplicateValues" dxfId="12" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:D12">
+  <conditionalFormatting sqref="C9:E12">
     <cfRule type="duplicateValues" dxfId="11" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13:D13">
+  <conditionalFormatting sqref="C13:E13">
     <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D21">
+  <conditionalFormatting sqref="C21:E21">
     <cfRule type="duplicateValues" dxfId="9" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B6 B8:B21">
     <cfRule type="duplicateValues" dxfId="8" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D6 C8:D8 C14:D20">
+  <conditionalFormatting sqref="C3:E6 C8:E8 C14:E20">
     <cfRule type="duplicateValues" dxfId="7" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
@@ -15927,7 +16144,7 @@
   <conditionalFormatting sqref="B47">
     <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D7">
+  <conditionalFormatting sqref="C7:E7">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
@@ -15936,21 +16153,22 @@
   <conditionalFormatting sqref="B37">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:M97">
+  <conditionalFormatting sqref="E1:N97">
     <cfRule type="containsBlanks" dxfId="0" priority="26">
-      <formula>LEN(TRIM(D1))=0</formula>
+      <formula>LEN(TRIM(E1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16048,7 +16266,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>263</v>
@@ -16062,7 +16280,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="B7" t="s">
         <v>263</v>
@@ -16079,7 +16297,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
         <v>263</v>
@@ -16096,7 +16314,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
         <v>263</v>
@@ -16113,7 +16331,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>263</v>
@@ -16127,7 +16345,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
@@ -16144,7 +16362,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
         <v>263</v>
@@ -16161,7 +16379,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
         <v>263</v>
@@ -16178,7 +16396,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>263</v>
@@ -16192,7 +16410,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B15" t="s">
         <v>263</v>
@@ -16209,7 +16427,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
         <v>263</v>
@@ -16226,7 +16444,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="B17" t="s">
         <v>263</v>
@@ -16243,155 +16461,220 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
         <v>263</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F18" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B19" t="s">
         <v>263</v>
       </c>
       <c r="C19" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
-      </c>
-      <c r="F19" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
         <v>263</v>
       </c>
       <c r="C20" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
-      </c>
-      <c r="F20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="B21" t="s">
         <v>263</v>
       </c>
       <c r="C21" t="s">
-        <v>226</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
         <v>217</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
-      </c>
-      <c r="F21" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C22" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F22" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C24" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
         <v>217</v>
       </c>
       <c r="E25" t="s">
+        <v>222</v>
+      </c>
+      <c r="F25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
+      <c r="E26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" t="s">
+        <v>264</v>
+      </c>
+      <c r="C28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" t="s">
+        <v>264</v>
+      </c>
+      <c r="C29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" t="s">
         <v>260</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F29" t="s">
         <v>256</v>
       </c>
     </row>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560733C4-A623-4ED5-BF1B-96458A513174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20F2D7B-3A81-4D7F-9788-106976FB7277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2717" uniqueCount="1138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2725" uniqueCount="1140">
   <si>
     <t>name</t>
   </si>
@@ -2868,9 +2868,6 @@
     <t>இன்போ இங்கே செருகப்பட வேண்டும் ...</t>
   </si>
   <si>
-    <t>ஆரோக்கியமான மற்றும் நிலையான நகரங்களின் குறிகாட்டிகள்: {நகரம்}</t>
-  </si>
-  <si>
     <t>நடைப்பயணம்</t>
   </si>
   <si>
@@ -2989,12 +2986,6 @@
   </si>
   <si>
     <t>தரவு, முறைகள் மற்றும் வரம்புகள் உள்ளிட்ட முழு அறிக்கை செருகு தொடர் மேற்கோள் &amp; | மக்கள் தொகை தரவு: ஷியாவினா, எம் மற்றும் பலர். (2019): ஜிஹெச்எஸ் மக்கள் தொகை கட்டம் மல்டிடெம்போரல் (1975, 1990, 2000, 2015) ஆர் 2019ஏ. ஐரோப்பிய ஆணையம், கூட்டு ஆராய்ச்சி மையம் (ஜே.ஆர்.சி.). https://doi.org/10.2905/42E8BE89-54FF-464E-BE7B-BF9E64DA5218 | நகர்ப்புற எல்லைகள்: ஃப்ளோர்சிக், ஏ. மற்றும் பலர். (2019): ஜிஹெச்எஸ் நகர்ப்புற மையம் தரவுத்தளம் 2015, மல்டிடெம்போரல் மற்றும் பல பரிமாண பண்புகள், ஆர்2019ஏ. ஐரோப்பிய ஆணையம், கூட்டு ஆராய்ச்சி மையம் (ஜே.ஆர்.சி.). https://data.jrc.ec.europa.eu/dataset/53473144-b88c-44bc-b4a3-4583ed1f547e | நகர்ப்புற அம்சங்கள்: ஓபன்ஸ்ட்ரீட்மேப் பங்களிப்பாளர்கள். ஓபன்ஸ்ட்ரீட்மேப் (2020). https://planet.osm.org/pbf/planet-200803.osm.pbf.torrent | வண்ண அளவு: க்ராமரி, எஃப் (2018). அறிவியல் வண்ண வரைபடங்கள் (3.0.4). ஜெனோடோ. https://doi.org/10.5281/zenodo.1287763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">இந்த சுருக்கமான அறிக்கை {நகரம்} ஆரோக்கியமான மற்றும் நிலையான நகரங்களின் இடம் சார்ந்த மற்றும் கொள்கை குறிகாட்டிகளின் தேர்வை எவ்வாறு செய்கிறது என்பதை கோடிட்டுக் காட்டுகிறது. எங்கள் கூட்டு ஆய்வு நகர்ப்புற வடிவமைப்பு மற்றும் போக்குவரத்து அம்சங்கள் இடம் சார்ந்த விநியோகம் மற்றும் சர்வதேச அளவில் 19 நாடுகளில் 25 நகரங்களில் சுகாதார மற்றும் நிலைத்தன்மை ஊக்குவிக்கும் நகர திட்டமிடல் கொள்கைகள் முன்னிலையில் மற்றும் தரம் ஆய்வு. ஆய்வின் கூடுதல் விவரங்கள் https://doi.org/INSERT-DOI-HERE கிடைக்கின்றன.  </t>
-  </si>
-  <si>
-    <t>ஆய்வில் சேர்க்கப்பட்டுள்ள நகரங்கள் முழுவதும் சராசரி (வழக்கமான கவனிக்கப்பட்ட மதிப்பு) ஒப்பீடுகள் நகர கொள்கைகளை தெரிவிக்க பயன்படுத்தப்படலாம். {நகரம்}முழுவதும் சுற்றுச்சூழல் அம்சங்களின் விநியோகத்தை வரைபடங்கள் காட்டுகின்றன, இது மிகவும் சமமான சூழல்களை வழங்கும் மாற்றங்களிலிருந்து மிகவும் பயனடையக்கூடிய பகுதிகளை அடையாளம் காண பயன்படுத்தப்படலாம்.</t>
   </si>
   <si>
     <t>நிர்வாக சுருக்கம்</t>
@@ -3494,35 +3485,50 @@
     <t>மக்கள் தொகையில் % குறைந்தபட்ச வரம்பை பூர்த்தி செய்யுங்கள்*</t>
   </si>
   <si>
-    <t>(கீழே) {நகரம்} 500 மீட்டர் (மீ) க்குள் வசதிகளை அணுகுவதற்கான மக்கள் தொகை சதவீதத்திற்கான மதிப்பீடுகள்.</t>
-  </si>
-  <si>
     <t>* வரம்புகள் நடைபயிற்சி (https://www.who.int/news-room/initiatives/gappa) மூலம் போதுமான பொதுஜன முன்னணி 15% ஒப்பீட்டளவில் குறைப்பு உலக சுகாதார அமைப்பின் இலக்கை அடைய தேவைகளை எங்கள் மாடலிங் அடிப்படையாக கொண்டது.  அதிஅடர்த்தியான சுற்றுப்புறங்கள் (எ.கா. &gt;15,000 நபர்கள் ஒரு கி.மீ²) உடல் செயல்பாடுகளுக்கான நன்மைகளைக் குறைக்கலாம்; இது எதிர்கால ஆராய்ச்சிக்கு ஒரு முக்கியமான தலைப்பு.</t>
   </si>
   <si>
-    <t>{நகரத்தில்} நடைப்பயணக் கொள்கை</t>
-  </si>
-  <si>
-    <t>{நகரத்தில்} பொது போக்குவரத்து கொள்கை</t>
-  </si>
-  <si>
-    <t>{நகரத்தில்} பொது திறந்த வெளி கொள்கை</t>
-  </si>
-  <si>
-    <t>மேற்கோள்: உலகளாவிய ஆரோக்கியமான மற்றும் நிலையான நகரம்-குறிகாட்டிகள் ஒத்துழைப்பு. 2022. ஆரோக்கியமான மற்றும் நிலையான நகரம் குறிகாட்டிகள் சர்வதேச ஒப்பீடு அறிக்கை: {நகரம்}. https://doi.org/INSERT-DOI-HERE</t>
-  </si>
-  <si>
-    <t>fonts/fpdf_unicode_font_pack/font/gargi.ttf</t>
-  </si>
-  <si>
-    <t>gargi</t>
+    <t>ஆரோக்கியமான மற்றும் நிலையான நகரங்களின் குறிகாட்டிகள்: {city}</t>
+  </si>
+  <si>
+    <t>(கீழே) {city} 500 மீட்டர் (மீ) க்குள் வசதிகளை அணுகுவதற்கான மக்கள் தொகை சதவீதத்திற்கான மதிப்பீடுகள்.</t>
+  </si>
+  <si>
+    <t>மேற்கோள்: உலகளாவிய ஆரோக்கியமான மற்றும் நிலையான நகரம்-குறிகாட்டிகள் ஒத்துழைப்பு. 2022. ஆரோக்கியமான மற்றும் நிலையான நகரம் குறிகாட்டிகள் சர்வதேச ஒப்பீடு அறிக்கை: {city}. https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">இந்த சுருக்கமான அறிக்கை {city} ஆரோக்கியமான மற்றும் நிலையான நகரங்களின் இடம் சார்ந்த மற்றும் கொள்கை குறிகாட்டிகளின் தேர்வை எவ்வாறு செய்கிறது என்பதை கோடிட்டுக் காட்டுகிறது. எங்கள் கூட்டு ஆய்வு நகர்ப்புற வடிவமைப்பு மற்றும் போக்குவரத்து அம்சங்கள் இடம் சார்ந்த விநியோகம் மற்றும் சர்வதேச அளவில் 19 நாடுகளில் 25 நகரங்களில் சுகாதார மற்றும் நிலைத்தன்மை ஊக்குவிக்கும் நகர திட்டமிடல் கொள்கைகள் முன்னிலையில் மற்றும் தரம் ஆய்வு. ஆய்வின் கூடுதல் விவரங்கள் https://doi.org/INSERT-DOI-HERE கிடைக்கின்றன.  </t>
+  </si>
+  <si>
+    <t>ஆய்வில் சேர்க்கப்பட்டுள்ள நகரங்கள் முழுவதும் சராசரி (வழக்கமான கவனிக்கப்பட்ட மதிப்பு) ஒப்பீடுகள் நகர கொள்கைகளை தெரிவிக்க பயன்படுத்தப்படலாம். {city}முழுவதும் சுற்றுச்சூழல் அம்சங்களின் விநியோகத்தை வரைபடங்கள் காட்டுகின்றன, இது மிகவும் சமமான சூழல்களை வழங்கும் மாற்றங்களிலிருந்து மிகவும் பயனடையக்கூடிய பகுதிகளை அடையாளம் காண பயன்படுத்தப்படலாம்.</t>
+  </si>
+  <si>
+    <t>{city} நடைப்பயணக் கொள்கை</t>
+  </si>
+  <si>
+    <t>{city} பொது போக்குவரத்து கொள்கை</t>
+  </si>
+  <si>
+    <t>{city} பொது திறந்த வெளி கொள்கை</t>
+  </si>
+  <si>
+    <t>noto_sans_tamil</t>
+  </si>
+  <si>
+    <t>fonts/Aaram-Regular.ttf</t>
+  </si>
+  <si>
+    <t>https://github.com/dejavu-fonts/dejavu-fonts/releases</t>
+  </si>
+  <si>
+    <t>https://github.com/enathu/aaram/blob/gh-pages/build/Aaram-Regular.ttf  (may have a missing glyph; unclear which)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3717,6 +3723,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans Tamil"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans Tamil"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4186,7 +4205,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4307,6 +4326,25 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4389,19 +4427,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -15945,20 +15983,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="P43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="T100" sqref="T100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="33" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="33" customWidth="1"/>
     <col min="3" max="8" width="55" style="3" customWidth="1"/>
     <col min="9" max="9" width="67" style="3" customWidth="1"/>
-    <col min="10" max="20" width="55" style="3" customWidth="1"/>
+    <col min="10" max="19" width="55" style="3" customWidth="1"/>
+    <col min="20" max="20" width="55" style="47" customWidth="1"/>
     <col min="21" max="24" width="43.140625" style="3" customWidth="1"/>
     <col min="25" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -15983,13 +16022,13 @@
         <v>305</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>185</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>787</v>
@@ -16021,7 +16060,7 @@
       <c r="S1" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="42" t="s">
         <v>909</v>
       </c>
       <c r="U1" s="19" t="s">
@@ -16031,10 +16070,10 @@
         <v>826</v>
       </c>
       <c r="W1" s="19" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="X1" s="19" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="Y1" s="19"/>
       <c r="Z1" s="31"/>
@@ -16061,7 +16100,7 @@
         <v>786</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>793</v>
@@ -16091,8 +16130,8 @@
         <v>801</v>
       </c>
       <c r="S2" s="29"/>
-      <c r="T2" s="29" t="s">
-        <v>1125</v>
+      <c r="T2" s="43" t="s">
+        <v>1122</v>
       </c>
       <c r="U2" s="29"/>
       <c r="V2" s="29" t="s">
@@ -16100,7 +16139,7 @@
       </c>
       <c r="W2" s="29"/>
       <c r="X2" s="29" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="Y2" s="29"/>
       <c r="Z2" s="34"/>
@@ -16113,7 +16152,7 @@
         <v>772</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="22" t="s">
@@ -16145,8 +16184,8 @@
         <v>774</v>
       </c>
       <c r="S3" s="22"/>
-      <c r="T3" s="22" t="s">
-        <v>1126</v>
+      <c r="T3" s="44" t="s">
+        <v>1123</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="22" t="s">
@@ -16154,7 +16193,7 @@
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="22" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="Y3" s="22"/>
       <c r="Z3" s="36"/>
@@ -16167,7 +16206,7 @@
         <v>773</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D4" s="23"/>
       <c r="E4" s="22" t="s">
@@ -16177,7 +16216,7 @@
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>781</v>
@@ -16199,8 +16238,8 @@
         <v>775</v>
       </c>
       <c r="S4" s="22"/>
-      <c r="T4" s="22" t="s">
-        <v>1127</v>
+      <c r="T4" s="44" t="s">
+        <v>1124</v>
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="22" t="s">
@@ -16208,12 +16247,12 @@
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="22" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="36"/>
     </row>
-    <row r="5" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>198</v>
       </c>
@@ -16231,7 +16270,7 @@
       <c r="G5" s="22"/>
       <c r="H5" s="22"/>
       <c r="I5" s="22" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>434</v>
@@ -16253,7 +16292,7 @@
         <v>682</v>
       </c>
       <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="44" t="s">
         <v>910</v>
       </c>
       <c r="U5" s="22"/>
@@ -16262,7 +16301,7 @@
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="22" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="Y5" s="22"/>
       <c r="Z5" s="36"/>
@@ -16293,7 +16332,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="22"/>
@@ -16331,7 +16370,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
       <c r="W7" s="22"/>
@@ -16365,7 +16404,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="T8" s="44"/>
       <c r="U8" s="22"/>
       <c r="V8" s="22"/>
       <c r="W8" s="22"/>
@@ -16399,7 +16438,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="T9" s="44"/>
       <c r="U9" s="22"/>
       <c r="V9" s="22"/>
       <c r="W9" s="22"/>
@@ -16433,7 +16472,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="T10" s="44"/>
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="W10" s="22"/>
@@ -16469,7 +16508,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="T11" s="44"/>
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="W11" s="22"/>
@@ -16505,7 +16544,7 @@
         <v>825</v>
       </c>
       <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="T12" s="44"/>
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="W12" s="22"/>
@@ -16539,7 +16578,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="44" t="s">
         <v>911</v>
       </c>
       <c r="U13" s="22"/>
@@ -16577,7 +16616,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="W14" s="22"/>
@@ -16611,7 +16650,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="T15" s="44"/>
       <c r="U15" s="22"/>
       <c r="V15" s="22" t="s">
         <v>831</v>
@@ -16649,7 +16688,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+      <c r="T16" s="44"/>
       <c r="U16" s="22"/>
       <c r="V16" s="22"/>
       <c r="W16" s="22"/>
@@ -16683,7 +16722,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="T17" s="44"/>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
       <c r="W17" s="22"/>
@@ -16719,7 +16758,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="T18" s="44"/>
       <c r="U18" s="22"/>
       <c r="V18" s="22"/>
       <c r="W18" s="22"/>
@@ -16753,7 +16792,7 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="T19" s="44"/>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
@@ -16775,7 +16814,7 @@
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -16789,7 +16828,7 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="T20" s="44"/>
       <c r="U20" s="22"/>
       <c r="V20" s="22"/>
       <c r="W20" s="22"/>
@@ -16823,7 +16862,7 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="T21" s="44"/>
       <c r="U21" s="22"/>
       <c r="V21" s="22"/>
       <c r="W21" s="22"/>
@@ -16861,7 +16900,7 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
+      <c r="T22" s="44"/>
       <c r="U22" s="22"/>
       <c r="V22" s="22"/>
       <c r="W22" s="22"/>
@@ -16901,12 +16940,12 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
+      <c r="T23" s="44"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
       <c r="W23" s="22"/>
       <c r="X23" s="22" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="Y23" s="22"/>
       <c r="Z23" s="36"/>
@@ -16941,7 +16980,7 @@
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
+      <c r="T24" s="44"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
       <c r="W24" s="22"/>
@@ -16977,7 +17016,7 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
+      <c r="T25" s="44"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
@@ -17013,7 +17052,7 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
+      <c r="T26" s="44"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
       <c r="W26" s="22"/>
@@ -17047,7 +17086,7 @@
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="T27" s="44"/>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
       <c r="W27" s="22"/>
@@ -17081,7 +17120,7 @@
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
+      <c r="T28" s="44"/>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
       <c r="W28" s="22"/>
@@ -17115,7 +17154,7 @@
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
+      <c r="T29" s="44"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
@@ -17149,7 +17188,7 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
+      <c r="T30" s="45"/>
       <c r="U30" s="27"/>
       <c r="V30" s="27"/>
       <c r="W30" s="27"/>
@@ -17175,7 +17214,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="22" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="J31" s="20" t="s">
         <v>417</v>
@@ -17197,7 +17236,7 @@
         <v>664</v>
       </c>
       <c r="S31" s="20"/>
-      <c r="T31" s="20" t="s">
+      <c r="T31" s="44" t="s">
         <v>912</v>
       </c>
       <c r="U31" s="20"/>
@@ -17206,7 +17245,7 @@
       </c>
       <c r="W31" s="20"/>
       <c r="X31" s="20" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="Y31" s="20"/>
       <c r="Z31" s="39"/>
@@ -17229,7 +17268,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="22" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="J32" s="20" t="s">
         <v>418</v>
@@ -17251,7 +17290,7 @@
         <v>665</v>
       </c>
       <c r="S32" s="20"/>
-      <c r="T32" s="20" t="s">
+      <c r="T32" s="44" t="s">
         <v>913</v>
       </c>
       <c r="U32" s="20"/>
@@ -17260,7 +17299,7 @@
       </c>
       <c r="W32" s="20"/>
       <c r="X32" s="20" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="Y32" s="20"/>
       <c r="Z32" s="39"/>
@@ -17305,7 +17344,7 @@
         <v>666</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="T33" s="20" t="s">
+      <c r="T33" s="44" t="s">
         <v>914</v>
       </c>
       <c r="U33" s="20"/>
@@ -17314,7 +17353,7 @@
       </c>
       <c r="W33" s="20"/>
       <c r="X33" s="20" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="Y33" s="20"/>
       <c r="Z33" s="39"/>
@@ -17337,7 +17376,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="22" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="J34" s="20" t="s">
         <v>420</v>
@@ -17359,7 +17398,7 @@
         <v>667</v>
       </c>
       <c r="S34" s="20"/>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="44" t="s">
         <v>915</v>
       </c>
       <c r="U34" s="20"/>
@@ -17368,7 +17407,7 @@
       </c>
       <c r="W34" s="20"/>
       <c r="X34" s="20" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="Y34" s="20"/>
       <c r="Z34" s="39"/>
@@ -17413,7 +17452,7 @@
         <v>668</v>
       </c>
       <c r="S35" s="20"/>
-      <c r="T35" s="20" t="s">
+      <c r="T35" s="44" t="s">
         <v>916</v>
       </c>
       <c r="U35" s="20"/>
@@ -17422,12 +17461,12 @@
       </c>
       <c r="W35" s="20"/>
       <c r="X35" s="20" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="Y35" s="20"/>
       <c r="Z35" s="39"/>
     </row>
-    <row r="36" spans="1:26" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>199</v>
       </c>
@@ -17467,7 +17506,7 @@
         <v>669</v>
       </c>
       <c r="S36" s="20"/>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="44" t="s">
         <v>917</v>
       </c>
       <c r="U36" s="20"/>
@@ -17476,12 +17515,12 @@
       </c>
       <c r="W36" s="20"/>
       <c r="X36" s="20" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="Y36" s="20"/>
       <c r="Z36" s="39"/>
     </row>
-    <row r="37" spans="1:26" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>199</v>
       </c>
@@ -17521,7 +17560,7 @@
         <v>670</v>
       </c>
       <c r="S37" s="20"/>
-      <c r="T37" s="20" t="s">
+      <c r="T37" s="44" t="s">
         <v>918</v>
       </c>
       <c r="U37" s="20"/>
@@ -17530,12 +17569,12 @@
       </c>
       <c r="W37" s="20"/>
       <c r="X37" s="20" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="Y37" s="20"/>
       <c r="Z37" s="39"/>
     </row>
-    <row r="38" spans="1:26" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>199</v>
       </c>
@@ -17553,7 +17592,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="22" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="J38" s="20" t="s">
         <v>424</v>
@@ -17575,7 +17614,7 @@
         <v>671</v>
       </c>
       <c r="S38" s="20"/>
-      <c r="T38" s="20" t="s">
+      <c r="T38" s="44" t="s">
         <v>919</v>
       </c>
       <c r="U38" s="20"/>
@@ -17584,7 +17623,7 @@
       </c>
       <c r="W38" s="20"/>
       <c r="X38" s="20" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="Y38" s="20"/>
       <c r="Z38" s="39"/>
@@ -17629,7 +17668,7 @@
         <v>672</v>
       </c>
       <c r="S39" s="20"/>
-      <c r="T39" s="20" t="s">
+      <c r="T39" s="44" t="s">
         <v>920</v>
       </c>
       <c r="U39" s="20"/>
@@ -17638,7 +17677,7 @@
       </c>
       <c r="W39" s="20"/>
       <c r="X39" s="20" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="Y39" s="20"/>
       <c r="Z39" s="39"/>
@@ -17683,7 +17722,7 @@
         <v>673</v>
       </c>
       <c r="S40" s="20"/>
-      <c r="T40" s="20" t="s">
+      <c r="T40" s="44" t="s">
         <v>921</v>
       </c>
       <c r="U40" s="20"/>
@@ -17692,7 +17731,7 @@
       </c>
       <c r="W40" s="20"/>
       <c r="X40" s="20" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="Y40" s="20"/>
       <c r="Z40" s="39"/>
@@ -17737,7 +17776,7 @@
         <v>674</v>
       </c>
       <c r="S41" s="20"/>
-      <c r="T41" s="20" t="s">
+      <c r="T41" s="44" t="s">
         <v>922</v>
       </c>
       <c r="U41" s="20"/>
@@ -17746,12 +17785,12 @@
       </c>
       <c r="W41" s="20"/>
       <c r="X41" s="20" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="Y41" s="20"/>
       <c r="Z41" s="39"/>
     </row>
-    <row r="42" spans="1:26" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>199</v>
       </c>
@@ -17759,7 +17798,7 @@
         <v>213</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="20" t="s">
@@ -17769,10 +17808,10 @@
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
       <c r="I42" s="22" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="J42" s="20" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="K42" s="20"/>
       <c r="L42" s="20" t="s">
@@ -17791,8 +17830,8 @@
         <v>675</v>
       </c>
       <c r="S42" s="20"/>
-      <c r="T42" s="20" t="s">
-        <v>1128</v>
+      <c r="T42" s="44" t="s">
+        <v>1125</v>
       </c>
       <c r="U42" s="20"/>
       <c r="V42" s="20" t="s">
@@ -17800,7 +17839,7 @@
       </c>
       <c r="W42" s="20"/>
       <c r="X42" s="20" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="39"/>
@@ -17823,7 +17862,7 @@
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
       <c r="I43" s="22" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="J43" s="20" t="s">
         <v>428</v>
@@ -17845,7 +17884,7 @@
         <v>676</v>
       </c>
       <c r="S43" s="20"/>
-      <c r="T43" s="20" t="s">
+      <c r="T43" s="44" t="s">
         <v>923</v>
       </c>
       <c r="U43" s="20"/>
@@ -17854,12 +17893,12 @@
       </c>
       <c r="W43" s="20"/>
       <c r="X43" s="20" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="Y43" s="20"/>
       <c r="Z43" s="39"/>
     </row>
-    <row r="44" spans="1:26" s="35" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" s="35" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>199</v>
       </c>
@@ -17877,7 +17916,7 @@
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="22" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="J44" s="20" t="s">
         <v>429</v>
@@ -17899,7 +17938,7 @@
         <v>677</v>
       </c>
       <c r="S44" s="20"/>
-      <c r="T44" s="20" t="s">
+      <c r="T44" s="44" t="s">
         <v>924</v>
       </c>
       <c r="U44" s="20"/>
@@ -17908,12 +17947,12 @@
       </c>
       <c r="W44" s="20"/>
       <c r="X44" s="20" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="Y44" s="20"/>
       <c r="Z44" s="39"/>
     </row>
-    <row r="45" spans="1:26" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>199</v>
       </c>
@@ -17921,7 +17960,7 @@
         <v>803</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="20" t="s">
@@ -17931,7 +17970,7 @@
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="22" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="J45" s="20" t="s">
         <v>804</v>
@@ -17953,8 +17992,8 @@
         <v>809</v>
       </c>
       <c r="S45" s="20"/>
-      <c r="T45" s="20" t="s">
-        <v>1129</v>
+      <c r="T45" s="44" t="s">
+        <v>1126</v>
       </c>
       <c r="U45" s="20"/>
       <c r="V45" s="20" t="s">
@@ -17962,7 +18001,7 @@
       </c>
       <c r="W45" s="20"/>
       <c r="X45" s="20" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="Y45" s="20"/>
       <c r="Z45" s="39"/>
@@ -18007,7 +18046,7 @@
         <v>678</v>
       </c>
       <c r="S46" s="20"/>
-      <c r="T46" s="20" t="s">
+      <c r="T46" s="44" t="s">
         <v>925</v>
       </c>
       <c r="U46" s="20"/>
@@ -18016,7 +18055,7 @@
       </c>
       <c r="W46" s="20"/>
       <c r="X46" s="20" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="Y46" s="20"/>
       <c r="Z46" s="39"/>
@@ -18039,7 +18078,7 @@
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
       <c r="I47" s="22" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="J47" s="20" t="s">
         <v>811</v>
@@ -18061,7 +18100,7 @@
         <v>815</v>
       </c>
       <c r="S47" s="20"/>
-      <c r="T47" s="20" t="s">
+      <c r="T47" s="44" t="s">
         <v>926</v>
       </c>
       <c r="U47" s="20"/>
@@ -18070,12 +18109,12 @@
       </c>
       <c r="W47" s="20"/>
       <c r="X47" s="20" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="39"/>
     </row>
-    <row r="48" spans="1:26" s="35" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" s="35" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>199</v>
       </c>
@@ -18093,7 +18132,7 @@
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
       <c r="I48" s="22" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="J48" s="20" t="s">
         <v>431</v>
@@ -18115,7 +18154,7 @@
         <v>679</v>
       </c>
       <c r="S48" s="20"/>
-      <c r="T48" s="20" t="s">
+      <c r="T48" s="44" t="s">
         <v>927</v>
       </c>
       <c r="U48" s="20"/>
@@ -18124,7 +18163,7 @@
       </c>
       <c r="W48" s="20"/>
       <c r="X48" s="20" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="Y48" s="20"/>
       <c r="Z48" s="39"/>
@@ -18147,7 +18186,7 @@
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
       <c r="I49" s="22" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="J49" s="20" t="s">
         <v>432</v>
@@ -18169,7 +18208,7 @@
         <v>680</v>
       </c>
       <c r="S49" s="20"/>
-      <c r="T49" s="20" t="s">
+      <c r="T49" s="44" t="s">
         <v>928</v>
       </c>
       <c r="U49" s="20"/>
@@ -18178,7 +18217,7 @@
       </c>
       <c r="W49" s="20"/>
       <c r="X49" s="20" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="Y49" s="20"/>
       <c r="Z49" s="39"/>
@@ -18201,7 +18240,7 @@
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
       <c r="I50" s="22" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="J50" s="20" t="s">
         <v>433</v>
@@ -18223,7 +18262,7 @@
         <v>681</v>
       </c>
       <c r="S50" s="20"/>
-      <c r="T50" s="20" t="s">
+      <c r="T50" s="44" t="s">
         <v>929</v>
       </c>
       <c r="U50" s="20"/>
@@ -18232,7 +18271,7 @@
       </c>
       <c r="W50" s="20"/>
       <c r="X50" s="20" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="Y50" s="20"/>
       <c r="Z50" s="39"/>
@@ -18255,7 +18294,7 @@
       <c r="G51" s="22"/>
       <c r="H51" s="22"/>
       <c r="I51" s="22" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="J51" s="22" t="s">
         <v>733</v>
@@ -18277,7 +18316,7 @@
         <v>748</v>
       </c>
       <c r="S51" s="22"/>
-      <c r="T51" s="22" t="s">
+      <c r="T51" s="44" t="s">
         <v>930</v>
       </c>
       <c r="U51" s="22"/>
@@ -18286,7 +18325,7 @@
       </c>
       <c r="W51" s="22"/>
       <c r="X51" s="22" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="Y51" s="22"/>
       <c r="Z51" s="36"/>
@@ -18309,7 +18348,7 @@
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
       <c r="I52" s="22" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="J52" s="22" t="s">
         <v>746</v>
@@ -18331,7 +18370,7 @@
         <v>749</v>
       </c>
       <c r="S52" s="22"/>
-      <c r="T52" s="22" t="s">
+      <c r="T52" s="44" t="s">
         <v>931</v>
       </c>
       <c r="U52" s="22"/>
@@ -18340,7 +18379,7 @@
       </c>
       <c r="W52" s="22"/>
       <c r="X52" s="22" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="Y52" s="22"/>
       <c r="Z52" s="36"/>
@@ -18385,7 +18424,7 @@
         <v>750</v>
       </c>
       <c r="S53" s="22"/>
-      <c r="T53" s="22" t="s">
+      <c r="T53" s="44" t="s">
         <v>932</v>
       </c>
       <c r="U53" s="22"/>
@@ -18394,7 +18433,7 @@
       </c>
       <c r="W53" s="22"/>
       <c r="X53" s="22" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="Y53" s="22"/>
       <c r="Z53" s="36"/>
@@ -18417,7 +18456,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="22"/>
       <c r="I54" s="22" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="J54" s="22" t="s">
         <v>435</v>
@@ -18439,7 +18478,7 @@
         <v>683</v>
       </c>
       <c r="S54" s="22"/>
-      <c r="T54" s="22" t="s">
+      <c r="T54" s="44" t="s">
         <v>933</v>
       </c>
       <c r="U54" s="22"/>
@@ -18448,12 +18487,12 @@
       </c>
       <c r="W54" s="22"/>
       <c r="X54" s="22" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="Y54" s="22"/>
       <c r="Z54" s="36"/>
     </row>
-    <row r="55" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>198</v>
       </c>
@@ -18493,8 +18532,8 @@
         <v>768</v>
       </c>
       <c r="S55" s="22"/>
-      <c r="T55" s="22" t="s">
-        <v>934</v>
+      <c r="T55" s="44" t="s">
+        <v>1128</v>
       </c>
       <c r="U55" s="22"/>
       <c r="V55" s="22" t="s">
@@ -18502,12 +18541,12 @@
       </c>
       <c r="W55" s="22"/>
       <c r="X55" s="22" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="Y55" s="22"/>
       <c r="Z55" s="36"/>
     </row>
-    <row r="56" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>198</v>
       </c>
@@ -18515,7 +18554,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D56" s="23"/>
       <c r="E56" s="22" t="s">
@@ -18525,7 +18564,7 @@
       <c r="G56" s="22"/>
       <c r="H56" s="22"/>
       <c r="I56" s="22" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="J56" s="22" t="s">
         <v>437</v>
@@ -18547,8 +18586,8 @@
         <v>684</v>
       </c>
       <c r="S56" s="22"/>
-      <c r="T56" s="22" t="s">
-        <v>1130</v>
+      <c r="T56" s="44" t="s">
+        <v>1129</v>
       </c>
       <c r="U56" s="22"/>
       <c r="V56" s="22" t="s">
@@ -18556,7 +18595,7 @@
       </c>
       <c r="W56" s="22"/>
       <c r="X56" s="22" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="Y56" s="22"/>
       <c r="Z56" s="36"/>
@@ -18579,7 +18618,7 @@
       <c r="G57" s="22"/>
       <c r="H57" s="22"/>
       <c r="I57" s="22" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="J57" s="22" t="s">
         <v>438</v>
@@ -18601,8 +18640,8 @@
         <v>685</v>
       </c>
       <c r="S57" s="22"/>
-      <c r="T57" s="22" t="s">
-        <v>935</v>
+      <c r="T57" s="44" t="s">
+        <v>934</v>
       </c>
       <c r="U57" s="22"/>
       <c r="V57" s="22" t="s">
@@ -18610,7 +18649,7 @@
       </c>
       <c r="W57" s="22"/>
       <c r="X57" s="22" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="Y57" s="22"/>
       <c r="Z57" s="36"/>
@@ -18655,8 +18694,8 @@
         <v>686</v>
       </c>
       <c r="S58" s="22"/>
-      <c r="T58" s="22" t="s">
-        <v>936</v>
+      <c r="T58" s="44" t="s">
+        <v>935</v>
       </c>
       <c r="U58" s="22"/>
       <c r="V58" s="22" t="s">
@@ -18664,12 +18703,12 @@
       </c>
       <c r="W58" s="22"/>
       <c r="X58" s="22" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="Y58" s="22"/>
       <c r="Z58" s="36"/>
     </row>
-    <row r="59" spans="1:26" ht="165" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>198</v>
       </c>
@@ -18677,7 +18716,7 @@
         <v>326</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="22" t="s">
@@ -18687,7 +18726,7 @@
       <c r="G59" s="22"/>
       <c r="H59" s="22"/>
       <c r="I59" s="22" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>817</v>
@@ -18709,8 +18748,8 @@
         <v>821</v>
       </c>
       <c r="S59" s="22"/>
-      <c r="T59" s="22" t="s">
-        <v>1131</v>
+      <c r="T59" s="44" t="s">
+        <v>1127</v>
       </c>
       <c r="U59" s="22"/>
       <c r="V59" s="22" t="s">
@@ -18718,7 +18757,7 @@
       </c>
       <c r="W59" s="22"/>
       <c r="X59" s="22" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="Y59" s="22"/>
       <c r="Z59" s="36"/>
@@ -18763,8 +18802,8 @@
         <v>687</v>
       </c>
       <c r="S60" s="22"/>
-      <c r="T60" s="22" t="s">
-        <v>937</v>
+      <c r="T60" s="44" t="s">
+        <v>936</v>
       </c>
       <c r="U60" s="22"/>
       <c r="V60" s="22" t="s">
@@ -18772,12 +18811,12 @@
       </c>
       <c r="W60" s="22"/>
       <c r="X60" s="22" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="Y60" s="22"/>
       <c r="Z60" s="36"/>
     </row>
-    <row r="61" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>198</v>
       </c>
@@ -18795,7 +18834,7 @@
       <c r="G61" s="22"/>
       <c r="H61" s="22"/>
       <c r="I61" s="22" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="J61" s="22" t="s">
         <v>441</v>
@@ -18817,8 +18856,8 @@
         <v>688</v>
       </c>
       <c r="S61" s="22"/>
-      <c r="T61" s="22" t="s">
-        <v>938</v>
+      <c r="T61" s="44" t="s">
+        <v>937</v>
       </c>
       <c r="U61" s="22"/>
       <c r="V61" s="22" t="s">
@@ -18826,7 +18865,7 @@
       </c>
       <c r="W61" s="22"/>
       <c r="X61" s="22" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="Y61" s="22"/>
       <c r="Z61" s="36"/>
@@ -18849,7 +18888,7 @@
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
       <c r="I62" s="22" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="J62" s="22" t="s">
         <v>442</v>
@@ -18871,8 +18910,8 @@
         <v>689</v>
       </c>
       <c r="S62" s="22"/>
-      <c r="T62" s="22" t="s">
-        <v>939</v>
+      <c r="T62" s="44" t="s">
+        <v>938</v>
       </c>
       <c r="U62" s="22"/>
       <c r="V62" s="22" t="s">
@@ -18880,12 +18919,12 @@
       </c>
       <c r="W62" s="22"/>
       <c r="X62" s="22" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="Y62" s="22"/>
       <c r="Z62" s="36"/>
     </row>
-    <row r="63" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="66" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>198</v>
       </c>
@@ -18903,7 +18942,7 @@
       <c r="G63" s="22"/>
       <c r="H63" s="22"/>
       <c r="I63" s="22" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="J63" s="22" t="s">
         <v>443</v>
@@ -18925,8 +18964,8 @@
         <v>690</v>
       </c>
       <c r="S63" s="22"/>
-      <c r="T63" s="22" t="s">
-        <v>940</v>
+      <c r="T63" s="44" t="s">
+        <v>939</v>
       </c>
       <c r="U63" s="22"/>
       <c r="V63" s="22" t="s">
@@ -18934,7 +18973,7 @@
       </c>
       <c r="W63" s="22"/>
       <c r="X63" s="22" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="Y63" s="22"/>
       <c r="Z63" s="36"/>
@@ -18957,7 +18996,7 @@
       <c r="G64" s="22"/>
       <c r="H64" s="22"/>
       <c r="I64" s="22" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="J64" s="22" t="s">
         <v>444</v>
@@ -18979,8 +19018,8 @@
         <v>691</v>
       </c>
       <c r="S64" s="22"/>
-      <c r="T64" s="22" t="s">
-        <v>941</v>
+      <c r="T64" s="44" t="s">
+        <v>940</v>
       </c>
       <c r="U64" s="22"/>
       <c r="V64" s="22" t="s">
@@ -18988,12 +19027,12 @@
       </c>
       <c r="W64" s="22"/>
       <c r="X64" s="22" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="Y64" s="22"/>
       <c r="Z64" s="36"/>
     </row>
-    <row r="65" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>198</v>
       </c>
@@ -19011,7 +19050,7 @@
       <c r="G65" s="22"/>
       <c r="H65" s="22"/>
       <c r="I65" s="22" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="J65" s="22" t="s">
         <v>445</v>
@@ -19033,8 +19072,8 @@
         <v>692</v>
       </c>
       <c r="S65" s="22"/>
-      <c r="T65" s="22" t="s">
-        <v>942</v>
+      <c r="T65" s="44" t="s">
+        <v>941</v>
       </c>
       <c r="U65" s="22"/>
       <c r="V65" s="22" t="s">
@@ -19042,7 +19081,7 @@
       </c>
       <c r="W65" s="22"/>
       <c r="X65" s="22" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="Y65" s="22"/>
       <c r="Z65" s="36"/>
@@ -19065,7 +19104,7 @@
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
       <c r="I66" s="23" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="J66" s="22" t="s">
         <v>446</v>
@@ -19087,8 +19126,8 @@
         <v>693</v>
       </c>
       <c r="S66" s="22"/>
-      <c r="T66" s="22" t="s">
-        <v>943</v>
+      <c r="T66" s="44" t="s">
+        <v>942</v>
       </c>
       <c r="U66" s="22"/>
       <c r="V66" s="22" t="s">
@@ -19096,7 +19135,7 @@
       </c>
       <c r="W66" s="22"/>
       <c r="X66" s="22" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="Y66" s="22"/>
       <c r="Z66" s="36"/>
@@ -19119,7 +19158,7 @@
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
       <c r="I67" s="23" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="J67" s="22" t="s">
         <v>447</v>
@@ -19141,8 +19180,8 @@
         <v>694</v>
       </c>
       <c r="S67" s="22"/>
-      <c r="T67" s="22" t="s">
-        <v>944</v>
+      <c r="T67" s="44" t="s">
+        <v>943</v>
       </c>
       <c r="U67" s="22"/>
       <c r="V67" s="22" t="s">
@@ -19150,12 +19189,12 @@
       </c>
       <c r="W67" s="22"/>
       <c r="X67" s="22" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="Y67" s="22"/>
       <c r="Z67" s="36"/>
     </row>
-    <row r="68" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>198</v>
       </c>
@@ -19173,7 +19212,7 @@
       <c r="G68" s="22"/>
       <c r="H68" s="22"/>
       <c r="I68" s="22" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="J68" s="22" t="s">
         <v>448</v>
@@ -19195,8 +19234,8 @@
         <v>695</v>
       </c>
       <c r="S68" s="22"/>
-      <c r="T68" s="22" t="s">
-        <v>945</v>
+      <c r="T68" s="44" t="s">
+        <v>944</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="22" t="s">
@@ -19204,12 +19243,12 @@
       </c>
       <c r="W68" s="22"/>
       <c r="X68" s="22" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="Y68" s="22"/>
       <c r="Z68" s="36"/>
     </row>
-    <row r="69" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>198</v>
       </c>
@@ -19227,7 +19266,7 @@
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
       <c r="I69" s="22" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="J69" s="22" t="s">
         <v>449</v>
@@ -19249,8 +19288,8 @@
         <v>696</v>
       </c>
       <c r="S69" s="22"/>
-      <c r="T69" s="22" t="s">
-        <v>946</v>
+      <c r="T69" s="44" t="s">
+        <v>945</v>
       </c>
       <c r="U69" s="22"/>
       <c r="V69" s="22" t="s">
@@ -19258,12 +19297,12 @@
       </c>
       <c r="W69" s="22"/>
       <c r="X69" s="22" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="Y69" s="22"/>
       <c r="Z69" s="36"/>
     </row>
-    <row r="70" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>198</v>
       </c>
@@ -19281,7 +19320,7 @@
       <c r="G70" s="22"/>
       <c r="H70" s="22"/>
       <c r="I70" s="22" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="J70" s="22" t="s">
         <v>450</v>
@@ -19303,8 +19342,8 @@
         <v>697</v>
       </c>
       <c r="S70" s="22"/>
-      <c r="T70" s="22" t="s">
-        <v>947</v>
+      <c r="T70" s="44" t="s">
+        <v>946</v>
       </c>
       <c r="U70" s="22"/>
       <c r="V70" s="22" t="s">
@@ -19312,12 +19351,12 @@
       </c>
       <c r="W70" s="22"/>
       <c r="X70" s="22" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="Y70" s="22"/>
       <c r="Z70" s="36"/>
     </row>
-    <row r="71" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>198</v>
       </c>
@@ -19357,8 +19396,8 @@
         <v>698</v>
       </c>
       <c r="S71" s="22"/>
-      <c r="T71" s="22" t="s">
-        <v>948</v>
+      <c r="T71" s="44" t="s">
+        <v>947</v>
       </c>
       <c r="U71" s="22"/>
       <c r="V71" s="22" t="s">
@@ -19366,12 +19405,12 @@
       </c>
       <c r="W71" s="22"/>
       <c r="X71" s="22" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="Y71" s="22"/>
       <c r="Z71" s="36"/>
     </row>
-    <row r="72" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>198</v>
       </c>
@@ -19411,8 +19450,8 @@
         <v>699</v>
       </c>
       <c r="S72" s="22"/>
-      <c r="T72" s="22" t="s">
-        <v>949</v>
+      <c r="T72" s="44" t="s">
+        <v>948</v>
       </c>
       <c r="U72" s="22"/>
       <c r="V72" s="22" t="s">
@@ -19420,12 +19459,12 @@
       </c>
       <c r="W72" s="22"/>
       <c r="X72" s="22" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="Y72" s="22"/>
       <c r="Z72" s="36"/>
     </row>
-    <row r="73" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
         <v>198</v>
       </c>
@@ -19465,8 +19504,8 @@
         <v>700</v>
       </c>
       <c r="S73" s="22"/>
-      <c r="T73" s="22" t="s">
-        <v>950</v>
+      <c r="T73" s="44" t="s">
+        <v>949</v>
       </c>
       <c r="U73" s="22"/>
       <c r="V73" s="22" t="s">
@@ -19474,12 +19513,12 @@
       </c>
       <c r="W73" s="22"/>
       <c r="X73" s="22" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="Y73" s="22"/>
       <c r="Z73" s="36"/>
     </row>
-    <row r="74" spans="1:26" ht="315" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="346.5" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
         <v>198</v>
       </c>
@@ -19497,7 +19536,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="22"/>
       <c r="I74" s="24" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="J74" s="22" t="s">
         <v>454</v>
@@ -19519,8 +19558,8 @@
         <v>701</v>
       </c>
       <c r="S74" s="22"/>
-      <c r="T74" s="22" t="s">
-        <v>951</v>
+      <c r="T74" s="44" t="s">
+        <v>950</v>
       </c>
       <c r="U74" s="22"/>
       <c r="V74" s="22" t="s">
@@ -19528,7 +19567,7 @@
       </c>
       <c r="W74" s="22"/>
       <c r="X74" s="22" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="Y74" s="22"/>
       <c r="Z74" s="36"/>
@@ -19541,7 +19580,7 @@
         <v>237</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D75" s="23"/>
       <c r="E75" s="22" t="s">
@@ -19551,7 +19590,7 @@
       <c r="G75" s="22"/>
       <c r="H75" s="22"/>
       <c r="I75" s="41" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="J75" s="22" t="s">
         <v>455</v>
@@ -19573,8 +19612,8 @@
         <v>702</v>
       </c>
       <c r="S75" s="22"/>
-      <c r="T75" s="22" t="s">
-        <v>1132</v>
+      <c r="T75" s="44" t="s">
+        <v>1133</v>
       </c>
       <c r="U75" s="22"/>
       <c r="V75" s="22" t="s">
@@ -19582,7 +19621,7 @@
       </c>
       <c r="W75" s="22"/>
       <c r="X75" s="22" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="Y75" s="22"/>
       <c r="Z75" s="36"/>
@@ -19595,7 +19634,7 @@
         <v>240</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D76" s="23"/>
       <c r="E76" s="22" t="s">
@@ -19627,8 +19666,8 @@
         <v>703</v>
       </c>
       <c r="S76" s="22"/>
-      <c r="T76" s="22" t="s">
-        <v>1133</v>
+      <c r="T76" s="44" t="s">
+        <v>1134</v>
       </c>
       <c r="U76" s="22"/>
       <c r="V76" s="22" t="s">
@@ -19636,7 +19675,7 @@
       </c>
       <c r="W76" s="22"/>
       <c r="X76" s="22" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="Y76" s="22"/>
       <c r="Z76" s="36"/>
@@ -19649,7 +19688,7 @@
         <v>241</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D77" s="23"/>
       <c r="E77" s="22" t="s">
@@ -19681,8 +19720,8 @@
         <v>704</v>
       </c>
       <c r="S77" s="22"/>
-      <c r="T77" s="22" t="s">
-        <v>1134</v>
+      <c r="T77" s="44" t="s">
+        <v>1135</v>
       </c>
       <c r="U77" s="22"/>
       <c r="V77" s="22" t="s">
@@ -19690,7 +19729,7 @@
       </c>
       <c r="W77" s="22"/>
       <c r="X77" s="22" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="Y77" s="22"/>
       <c r="Z77" s="36"/>
@@ -19735,8 +19774,8 @@
         <v>705</v>
       </c>
       <c r="S78" s="22"/>
-      <c r="T78" s="22" t="s">
-        <v>952</v>
+      <c r="T78" s="44" t="s">
+        <v>951</v>
       </c>
       <c r="U78" s="22"/>
       <c r="V78" s="22" t="s">
@@ -19767,7 +19806,7 @@
       <c r="G79" s="22"/>
       <c r="H79" s="22"/>
       <c r="I79" s="22" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="J79" s="22" t="s">
         <v>459</v>
@@ -19789,8 +19828,8 @@
         <v>706</v>
       </c>
       <c r="S79" s="22"/>
-      <c r="T79" s="22" t="s">
-        <v>953</v>
+      <c r="T79" s="44" t="s">
+        <v>952</v>
       </c>
       <c r="U79" s="22"/>
       <c r="V79" s="22" t="s">
@@ -19798,7 +19837,7 @@
       </c>
       <c r="W79" s="22"/>
       <c r="X79" s="22" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="Y79" s="22"/>
       <c r="Z79" s="36"/>
@@ -19843,8 +19882,8 @@
         <v>707</v>
       </c>
       <c r="S80" s="22"/>
-      <c r="T80" s="22" t="s">
-        <v>954</v>
+      <c r="T80" s="44" t="s">
+        <v>953</v>
       </c>
       <c r="U80" s="22"/>
       <c r="V80" s="22" t="s">
@@ -19852,7 +19891,7 @@
       </c>
       <c r="W80" s="22"/>
       <c r="X80" s="22" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="Y80" s="22"/>
       <c r="Z80" s="36"/>
@@ -19897,8 +19936,8 @@
         <v>708</v>
       </c>
       <c r="S81" s="22"/>
-      <c r="T81" s="22" t="s">
-        <v>955</v>
+      <c r="T81" s="44" t="s">
+        <v>954</v>
       </c>
       <c r="U81" s="22"/>
       <c r="V81" s="22" t="s">
@@ -19906,7 +19945,7 @@
       </c>
       <c r="W81" s="22"/>
       <c r="X81" s="22" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="Y81" s="22"/>
       <c r="Z81" s="36"/>
@@ -19929,7 +19968,7 @@
       <c r="G82" s="22"/>
       <c r="H82" s="22"/>
       <c r="I82" s="22" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="J82" s="22" t="s">
         <v>462</v>
@@ -19951,8 +19990,8 @@
         <v>709</v>
       </c>
       <c r="S82" s="22"/>
-      <c r="T82" s="22" t="s">
-        <v>956</v>
+      <c r="T82" s="44" t="s">
+        <v>955</v>
       </c>
       <c r="U82" s="22"/>
       <c r="V82" s="22" t="s">
@@ -19960,7 +19999,7 @@
       </c>
       <c r="W82" s="22"/>
       <c r="X82" s="22" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="Y82" s="22"/>
       <c r="Z82" s="36"/>
@@ -20005,8 +20044,8 @@
         <v>710</v>
       </c>
       <c r="S83" s="22"/>
-      <c r="T83" s="22" t="s">
-        <v>957</v>
+      <c r="T83" s="44" t="s">
+        <v>956</v>
       </c>
       <c r="U83" s="22"/>
       <c r="V83" s="22" t="s">
@@ -20014,12 +20053,12 @@
       </c>
       <c r="W83" s="22"/>
       <c r="X83" s="22" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="Y83" s="22"/>
       <c r="Z83" s="36"/>
     </row>
-    <row r="84" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>198</v>
       </c>
@@ -20059,8 +20098,8 @@
         <v>711</v>
       </c>
       <c r="S84" s="22"/>
-      <c r="T84" s="22" t="s">
-        <v>958</v>
+      <c r="T84" s="44" t="s">
+        <v>957</v>
       </c>
       <c r="U84" s="22"/>
       <c r="V84" s="22" t="s">
@@ -20068,7 +20107,7 @@
       </c>
       <c r="W84" s="22"/>
       <c r="X84" s="22" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="Y84" s="22"/>
       <c r="Z84" s="36"/>
@@ -20113,8 +20152,8 @@
         <v>712</v>
       </c>
       <c r="S85" s="22"/>
-      <c r="T85" s="22" t="s">
-        <v>959</v>
+      <c r="T85" s="44" t="s">
+        <v>958</v>
       </c>
       <c r="U85" s="22"/>
       <c r="V85" s="22" t="s">
@@ -20122,7 +20161,7 @@
       </c>
       <c r="W85" s="22"/>
       <c r="X85" s="22" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="Y85" s="22"/>
       <c r="Z85" s="36"/>
@@ -20167,8 +20206,8 @@
         <v>713</v>
       </c>
       <c r="S86" s="22"/>
-      <c r="T86" s="22" t="s">
-        <v>960</v>
+      <c r="T86" s="44" t="s">
+        <v>959</v>
       </c>
       <c r="U86" s="22"/>
       <c r="V86" s="22" t="s">
@@ -20176,7 +20215,7 @@
       </c>
       <c r="W86" s="22"/>
       <c r="X86" s="22" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="Y86" s="22"/>
       <c r="Z86" s="36"/>
@@ -20221,8 +20260,8 @@
         <v>714</v>
       </c>
       <c r="S87" s="22"/>
-      <c r="T87" s="22" t="s">
-        <v>961</v>
+      <c r="T87" s="44" t="s">
+        <v>960</v>
       </c>
       <c r="U87" s="22"/>
       <c r="V87" s="22" t="s">
@@ -20230,7 +20269,7 @@
       </c>
       <c r="W87" s="22"/>
       <c r="X87" s="22" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="Y87" s="22"/>
       <c r="Z87" s="36"/>
@@ -20275,8 +20314,8 @@
         <v>715</v>
       </c>
       <c r="S88" s="22"/>
-      <c r="T88" s="22" t="s">
-        <v>962</v>
+      <c r="T88" s="44" t="s">
+        <v>961</v>
       </c>
       <c r="U88" s="22"/>
       <c r="V88" s="22" t="s">
@@ -20284,7 +20323,7 @@
       </c>
       <c r="W88" s="22"/>
       <c r="X88" s="22" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="Y88" s="22"/>
       <c r="Z88" s="36"/>
@@ -20329,8 +20368,8 @@
         <v>716</v>
       </c>
       <c r="S89" s="22"/>
-      <c r="T89" s="22" t="s">
-        <v>963</v>
+      <c r="T89" s="44" t="s">
+        <v>962</v>
       </c>
       <c r="U89" s="22"/>
       <c r="V89" s="22" t="s">
@@ -20338,7 +20377,7 @@
       </c>
       <c r="W89" s="22"/>
       <c r="X89" s="22" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="Y89" s="22"/>
       <c r="Z89" s="36"/>
@@ -20361,7 +20400,7 @@
       <c r="G90" s="22"/>
       <c r="H90" s="22"/>
       <c r="I90" s="22" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="J90" s="22" t="s">
         <v>470</v>
@@ -20383,8 +20422,8 @@
         <v>717</v>
       </c>
       <c r="S90" s="25"/>
-      <c r="T90" s="25" t="s">
-        <v>964</v>
+      <c r="T90" s="46" t="s">
+        <v>963</v>
       </c>
       <c r="U90" s="22"/>
       <c r="V90" s="22" t="s">
@@ -20392,7 +20431,7 @@
       </c>
       <c r="W90" s="22"/>
       <c r="X90" s="22" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="Y90" s="22"/>
       <c r="Z90" s="36"/>
@@ -20415,7 +20454,7 @@
       <c r="G91" s="22"/>
       <c r="H91" s="22"/>
       <c r="I91" s="22" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="J91" s="22" t="s">
         <v>471</v>
@@ -20437,8 +20476,8 @@
         <v>718</v>
       </c>
       <c r="S91" s="22"/>
-      <c r="T91" s="22" t="s">
-        <v>965</v>
+      <c r="T91" s="44" t="s">
+        <v>964</v>
       </c>
       <c r="U91" s="22"/>
       <c r="V91" s="22" t="s">
@@ -20446,7 +20485,7 @@
       </c>
       <c r="W91" s="22"/>
       <c r="X91" s="22" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="Y91" s="22"/>
       <c r="Z91" s="36"/>
@@ -20491,8 +20530,8 @@
         <v>719</v>
       </c>
       <c r="S92" s="22"/>
-      <c r="T92" s="22" t="s">
-        <v>966</v>
+      <c r="T92" s="44" t="s">
+        <v>965</v>
       </c>
       <c r="U92" s="22"/>
       <c r="V92" s="22" t="s">
@@ -20500,12 +20539,12 @@
       </c>
       <c r="W92" s="22"/>
       <c r="X92" s="22" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="Y92" s="22"/>
       <c r="Z92" s="36"/>
     </row>
-    <row r="93" spans="1:26" ht="285" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="297" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>198</v>
       </c>
@@ -20523,7 +20562,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="22"/>
       <c r="I93" s="24" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="J93" s="22" t="s">
         <v>473</v>
@@ -20545,8 +20584,8 @@
         <v>720</v>
       </c>
       <c r="S93" s="22"/>
-      <c r="T93" s="22" t="s">
-        <v>967</v>
+      <c r="T93" s="44" t="s">
+        <v>966</v>
       </c>
       <c r="U93" s="22"/>
       <c r="V93" s="22" t="s">
@@ -20554,12 +20593,12 @@
       </c>
       <c r="W93" s="22"/>
       <c r="X93" s="22" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="Y93" s="22"/>
       <c r="Z93" s="36"/>
     </row>
-    <row r="94" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>198</v>
       </c>
@@ -20599,8 +20638,8 @@
         <v>721</v>
       </c>
       <c r="S94" s="22"/>
-      <c r="T94" s="22" t="s">
-        <v>968</v>
+      <c r="T94" s="44" t="s">
+        <v>967</v>
       </c>
       <c r="U94" s="22"/>
       <c r="V94" s="22" t="s">
@@ -20608,7 +20647,7 @@
       </c>
       <c r="W94" s="22"/>
       <c r="X94" s="22" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="Y94" s="22"/>
       <c r="Z94" s="36"/>
@@ -20653,8 +20692,8 @@
         <v>722</v>
       </c>
       <c r="S95" s="22"/>
-      <c r="T95" s="22" t="s">
-        <v>969</v>
+      <c r="T95" s="44" t="s">
+        <v>968</v>
       </c>
       <c r="U95" s="22"/>
       <c r="V95" s="22" t="s">
@@ -20662,12 +20701,12 @@
       </c>
       <c r="W95" s="22"/>
       <c r="X95" s="22" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="Y95" s="22"/>
       <c r="Z95" s="36"/>
     </row>
-    <row r="96" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>198</v>
       </c>
@@ -20707,8 +20746,8 @@
         <v>723</v>
       </c>
       <c r="S96" s="25"/>
-      <c r="T96" s="25" t="s">
-        <v>970</v>
+      <c r="T96" s="46" t="s">
+        <v>969</v>
       </c>
       <c r="U96" s="22"/>
       <c r="V96" s="22" t="s">
@@ -20716,12 +20755,12 @@
       </c>
       <c r="W96" s="22"/>
       <c r="X96" s="22" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="Y96" s="22"/>
       <c r="Z96" s="36"/>
     </row>
-    <row r="97" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>198</v>
       </c>
@@ -20761,8 +20800,8 @@
         <v>724</v>
       </c>
       <c r="S97" s="22"/>
-      <c r="T97" s="22" t="s">
-        <v>971</v>
+      <c r="T97" s="44" t="s">
+        <v>970</v>
       </c>
       <c r="U97" s="22"/>
       <c r="V97" s="22" t="s">
@@ -20770,12 +20809,12 @@
       </c>
       <c r="W97" s="22"/>
       <c r="X97" s="22" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="Y97" s="22"/>
       <c r="Z97" s="36"/>
     </row>
-    <row r="98" spans="1:26" ht="240" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="264" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>198</v>
       </c>
@@ -20793,7 +20832,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="22"/>
       <c r="I98" s="24" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="J98" s="22" t="s">
         <v>478</v>
@@ -20815,8 +20854,8 @@
         <v>725</v>
       </c>
       <c r="S98" s="22"/>
-      <c r="T98" s="22" t="s">
-        <v>972</v>
+      <c r="T98" s="44" t="s">
+        <v>971</v>
       </c>
       <c r="U98" s="22"/>
       <c r="V98" s="22" t="s">
@@ -20824,12 +20863,12 @@
       </c>
       <c r="W98" s="22"/>
       <c r="X98" s="22" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="Y98" s="22"/>
       <c r="Z98" s="36"/>
     </row>
-    <row r="99" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="33" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>198</v>
       </c>
@@ -20847,7 +20886,7 @@
       <c r="G99" s="22"/>
       <c r="H99" s="22"/>
       <c r="I99" s="22" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="J99" s="22" t="s">
         <v>479</v>
@@ -20869,8 +20908,8 @@
         <v>726</v>
       </c>
       <c r="S99" s="22"/>
-      <c r="T99" s="22" t="s">
-        <v>973</v>
+      <c r="T99" s="44" t="s">
+        <v>972</v>
       </c>
       <c r="U99" s="22"/>
       <c r="V99" s="22" t="s">
@@ -20878,12 +20917,12 @@
       </c>
       <c r="W99" s="22"/>
       <c r="X99" s="22" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="Y99" s="22"/>
       <c r="Z99" s="36"/>
     </row>
-    <row r="100" spans="1:26" ht="345" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="396" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>198</v>
       </c>
@@ -20901,7 +20940,7 @@
       <c r="G100" s="22"/>
       <c r="H100" s="22"/>
       <c r="I100" s="22" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="J100" s="22" t="s">
         <v>480</v>
@@ -20923,8 +20962,8 @@
         <v>727</v>
       </c>
       <c r="S100" s="22"/>
-      <c r="T100" s="22" t="s">
-        <v>974</v>
+      <c r="T100" s="44" t="s">
+        <v>973</v>
       </c>
       <c r="U100" s="22"/>
       <c r="V100" s="22" t="s">
@@ -20932,7 +20971,7 @@
       </c>
       <c r="W100" s="22"/>
       <c r="X100" s="22" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="Y100" s="22"/>
       <c r="Z100" s="36"/>
@@ -20945,7 +20984,7 @@
         <v>180</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D101" s="23"/>
       <c r="E101" s="22" t="s">
@@ -20955,7 +20994,7 @@
       <c r="G101" s="22"/>
       <c r="H101" s="22"/>
       <c r="I101" s="22" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="J101" s="22" t="s">
         <v>765</v>
@@ -20977,8 +21016,8 @@
         <v>769</v>
       </c>
       <c r="S101" s="22"/>
-      <c r="T101" s="22" t="s">
-        <v>1135</v>
+      <c r="T101" s="44" t="s">
+        <v>1130</v>
       </c>
       <c r="U101" s="22"/>
       <c r="V101" s="22" t="s">
@@ -20986,7 +21025,7 @@
       </c>
       <c r="W101" s="22"/>
       <c r="X101" s="22" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="Y101" s="22"/>
       <c r="Z101" s="36"/>
@@ -21009,7 +21048,7 @@
       <c r="G102" s="22"/>
       <c r="H102" s="22"/>
       <c r="I102" s="22" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="J102" s="22" t="s">
         <v>766</v>
@@ -21031,8 +21070,8 @@
         <v>770</v>
       </c>
       <c r="S102" s="22"/>
-      <c r="T102" s="22" t="s">
-        <v>975</v>
+      <c r="T102" s="44" t="s">
+        <v>1131</v>
       </c>
       <c r="U102" s="22"/>
       <c r="V102" s="22" t="s">
@@ -21040,7 +21079,7 @@
       </c>
       <c r="W102" s="22"/>
       <c r="X102" s="22" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="Y102" s="22"/>
       <c r="Z102" s="36"/>
@@ -21063,7 +21102,7 @@
       <c r="G103" s="22"/>
       <c r="H103" s="22"/>
       <c r="I103" s="22" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="J103" s="22" t="s">
         <v>767</v>
@@ -21085,8 +21124,8 @@
         <v>771</v>
       </c>
       <c r="S103" s="22"/>
-      <c r="T103" s="22" t="s">
-        <v>976</v>
+      <c r="T103" s="44" t="s">
+        <v>1132</v>
       </c>
       <c r="U103" s="22"/>
       <c r="V103" s="22" t="s">
@@ -21094,7 +21133,7 @@
       </c>
       <c r="W103" s="22"/>
       <c r="X103" s="22" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="Y103" s="22"/>
       <c r="Z103" s="36"/>
@@ -21139,8 +21178,8 @@
         <v>751</v>
       </c>
       <c r="S104" s="22"/>
-      <c r="T104" s="22" t="s">
-        <v>977</v>
+      <c r="T104" s="44" t="s">
+        <v>974</v>
       </c>
       <c r="U104" s="22"/>
       <c r="V104" s="22" t="s">
@@ -21148,7 +21187,7 @@
       </c>
       <c r="W104" s="22"/>
       <c r="X104" s="22" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="36"/>
@@ -21193,8 +21232,8 @@
         <v>757</v>
       </c>
       <c r="S105" s="22"/>
-      <c r="T105" s="22" t="s">
-        <v>978</v>
+      <c r="T105" s="44" t="s">
+        <v>975</v>
       </c>
       <c r="U105" s="22"/>
       <c r="V105" s="22" t="s">
@@ -21202,7 +21241,7 @@
       </c>
       <c r="W105" s="22"/>
       <c r="X105" s="22" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="36"/>
@@ -21248,14 +21287,14 @@
         <v>728</v>
       </c>
       <c r="S106" s="22"/>
-      <c r="T106" s="22"/>
+      <c r="T106" s="44"/>
       <c r="U106" s="22"/>
       <c r="V106" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W106" s="22"/>
       <c r="X106" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y106" s="22"/>
       <c r="Z106" s="36"/>
@@ -21301,14 +21340,14 @@
         <v>728</v>
       </c>
       <c r="S107" s="22"/>
-      <c r="T107" s="22"/>
+      <c r="T107" s="44"/>
       <c r="U107" s="22"/>
       <c r="V107" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W107" s="22"/>
       <c r="X107" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y107" s="22"/>
       <c r="Z107" s="36"/>
@@ -21354,14 +21393,14 @@
         <v>728</v>
       </c>
       <c r="S108" s="22"/>
-      <c r="T108" s="22"/>
+      <c r="T108" s="44"/>
       <c r="U108" s="22"/>
       <c r="V108" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W108" s="22"/>
       <c r="X108" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y108" s="22"/>
       <c r="Z108" s="36"/>
@@ -21407,14 +21446,14 @@
         <v>728</v>
       </c>
       <c r="S109" s="22"/>
-      <c r="T109" s="22"/>
+      <c r="T109" s="44"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W109" s="22"/>
       <c r="X109" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y109" s="22"/>
       <c r="Z109" s="36"/>
@@ -21460,14 +21499,14 @@
         <v>728</v>
       </c>
       <c r="S110" s="22"/>
-      <c r="T110" s="22"/>
+      <c r="T110" s="44"/>
       <c r="U110" s="22"/>
       <c r="V110" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W110" s="22"/>
       <c r="X110" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y110" s="22"/>
       <c r="Z110" s="36"/>
@@ -21513,14 +21552,14 @@
         <v>728</v>
       </c>
       <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
+      <c r="T111" s="44"/>
       <c r="U111" s="22"/>
       <c r="V111" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W111" s="22"/>
       <c r="X111" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y111" s="22"/>
       <c r="Z111" s="36"/>
@@ -21566,19 +21605,19 @@
         <v>728</v>
       </c>
       <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
+      <c r="T112" s="44"/>
       <c r="U112" s="22"/>
       <c r="V112" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W112" s="22"/>
       <c r="X112" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y112" s="22"/>
       <c r="Z112" s="36"/>
     </row>
-    <row r="113" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>198</v>
       </c>
@@ -21619,8 +21658,8 @@
         <v>728</v>
       </c>
       <c r="S113" s="22"/>
-      <c r="T113" s="22" t="s">
-        <v>979</v>
+      <c r="T113" s="44" t="s">
+        <v>976</v>
       </c>
       <c r="U113" s="22"/>
       <c r="V113" s="22" t="s">
@@ -21628,7 +21667,7 @@
       </c>
       <c r="W113" s="22"/>
       <c r="X113" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y113" s="22"/>
       <c r="Z113" s="36"/>
@@ -21674,14 +21713,14 @@
         <v>728</v>
       </c>
       <c r="S114" s="22"/>
-      <c r="T114" s="22"/>
+      <c r="T114" s="44"/>
       <c r="U114" s="22"/>
       <c r="V114" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W114" s="22"/>
       <c r="X114" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y114" s="22"/>
       <c r="Z114" s="36"/>
@@ -21727,14 +21766,14 @@
         <v>728</v>
       </c>
       <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
+      <c r="T115" s="44"/>
       <c r="U115" s="22"/>
       <c r="V115" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W115" s="22"/>
       <c r="X115" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y115" s="22"/>
       <c r="Z115" s="36"/>
@@ -21780,14 +21819,14 @@
         <v>728</v>
       </c>
       <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
+      <c r="T116" s="44"/>
       <c r="U116" s="22"/>
       <c r="V116" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W116" s="22"/>
       <c r="X116" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y116" s="22"/>
       <c r="Z116" s="36"/>
@@ -21833,14 +21872,14 @@
         <v>728</v>
       </c>
       <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
+      <c r="T117" s="44"/>
       <c r="U117" s="22"/>
       <c r="V117" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W117" s="22"/>
       <c r="X117" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y117" s="22"/>
       <c r="Z117" s="36"/>
@@ -21886,14 +21925,14 @@
         <v>728</v>
       </c>
       <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
+      <c r="T118" s="44"/>
       <c r="U118" s="22"/>
       <c r="V118" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W118" s="22"/>
       <c r="X118" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y118" s="22"/>
       <c r="Z118" s="36"/>
@@ -21939,14 +21978,14 @@
         <v>728</v>
       </c>
       <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
+      <c r="T119" s="44"/>
       <c r="U119" s="22"/>
       <c r="V119" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W119" s="22"/>
       <c r="X119" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y119" s="22"/>
       <c r="Z119" s="36"/>
@@ -21992,14 +22031,14 @@
         <v>728</v>
       </c>
       <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
+      <c r="T120" s="44"/>
       <c r="U120" s="22"/>
       <c r="V120" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W120" s="22"/>
       <c r="X120" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y120" s="22"/>
       <c r="Z120" s="36"/>
@@ -22045,14 +22084,14 @@
         <v>728</v>
       </c>
       <c r="S121" s="22"/>
-      <c r="T121" s="22"/>
+      <c r="T121" s="44"/>
       <c r="U121" s="22"/>
       <c r="V121" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W121" s="22"/>
       <c r="X121" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y121" s="22"/>
       <c r="Z121" s="36"/>
@@ -22098,14 +22137,14 @@
         <v>728</v>
       </c>
       <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
+      <c r="T122" s="44"/>
       <c r="U122" s="22"/>
       <c r="V122" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W122" s="22"/>
       <c r="X122" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y122" s="22"/>
       <c r="Z122" s="36"/>
@@ -22151,14 +22190,14 @@
         <v>728</v>
       </c>
       <c r="S123" s="22"/>
-      <c r="T123" s="22"/>
+      <c r="T123" s="44"/>
       <c r="U123" s="22"/>
       <c r="V123" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W123" s="22"/>
       <c r="X123" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y123" s="22"/>
       <c r="Z123" s="36"/>
@@ -22204,14 +22243,14 @@
         <v>728</v>
       </c>
       <c r="S124" s="22"/>
-      <c r="T124" s="22"/>
+      <c r="T124" s="44"/>
       <c r="U124" s="22"/>
       <c r="V124" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W124" s="22"/>
       <c r="X124" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y124" s="22"/>
       <c r="Z124" s="36"/>
@@ -22257,14 +22296,14 @@
         <v>728</v>
       </c>
       <c r="S125" s="22"/>
-      <c r="T125" s="22"/>
+      <c r="T125" s="44"/>
       <c r="U125" s="22"/>
       <c r="V125" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W125" s="22"/>
       <c r="X125" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y125" s="22"/>
       <c r="Z125" s="36"/>
@@ -22310,14 +22349,14 @@
         <v>728</v>
       </c>
       <c r="S126" s="22"/>
-      <c r="T126" s="22"/>
+      <c r="T126" s="44"/>
       <c r="U126" s="22"/>
       <c r="V126" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W126" s="22"/>
       <c r="X126" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y126" s="22"/>
       <c r="Z126" s="36"/>
@@ -22363,19 +22402,19 @@
         <v>728</v>
       </c>
       <c r="S127" s="22"/>
-      <c r="T127" s="22"/>
+      <c r="T127" s="44"/>
       <c r="U127" s="22"/>
       <c r="V127" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W127" s="22"/>
       <c r="X127" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y127" s="22"/>
       <c r="Z127" s="36"/>
     </row>
-    <row r="128" spans="1:26" ht="210" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="231" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>198</v>
       </c>
@@ -22416,8 +22455,8 @@
         <v>729</v>
       </c>
       <c r="S128" s="22"/>
-      <c r="T128" s="22" t="s">
-        <v>980</v>
+      <c r="T128" s="44" t="s">
+        <v>977</v>
       </c>
       <c r="U128" s="22"/>
       <c r="V128" s="22" t="s">
@@ -22425,7 +22464,7 @@
       </c>
       <c r="W128" s="22"/>
       <c r="X128" s="22" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="Y128" s="22"/>
       <c r="Z128" s="36"/>
@@ -22471,14 +22510,14 @@
         <v>728</v>
       </c>
       <c r="S129" s="22"/>
-      <c r="T129" s="22"/>
+      <c r="T129" s="44"/>
       <c r="U129" s="22"/>
       <c r="V129" s="22" t="s">
         <v>907</v>
       </c>
       <c r="W129" s="22"/>
       <c r="X129" s="22" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y129" s="22"/>
       <c r="Z129" s="36"/>
@@ -22524,14 +22563,14 @@
         <v>728</v>
       </c>
       <c r="S130" s="27"/>
-      <c r="T130" s="27"/>
+      <c r="T130" s="45"/>
       <c r="U130" s="27"/>
       <c r="V130" s="27" t="s">
         <v>907</v>
       </c>
       <c r="W130" s="27"/>
       <c r="X130" s="27" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="Y130" s="27"/>
       <c r="Z130" s="38"/>
@@ -22577,40 +22616,40 @@
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:H130 J1:Z130">
-    <cfRule type="containsBlanks" dxfId="6" priority="31">
+    <cfRule type="containsBlanks" dxfId="0" priority="31">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B66 B68:B74 B51:B60 B78:B1048576 B1:B31">
-    <cfRule type="duplicateValues" dxfId="5" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I44 I46:I73 I94:I97 I76:I92 I99:I130">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(I1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(I45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(I74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(I93))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(I98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22618,8 +22657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22664,6 +22703,9 @@
       <c r="E2" t="s">
         <v>192</v>
       </c>
+      <c r="F2" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -22681,6 +22723,9 @@
       <c r="E3" t="s">
         <v>193</v>
       </c>
+      <c r="F3" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -22698,6 +22743,9 @@
       <c r="E4" t="s">
         <v>194</v>
       </c>
+      <c r="F4" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -22715,6 +22763,9 @@
       <c r="E5" t="s">
         <v>195</v>
       </c>
+      <c r="F5" t="s">
+        <v>1138</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -22724,13 +22775,13 @@
         <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="E6" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F6" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -22741,16 +22792,16 @@
         <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>1065</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1066</v>
+        <v>1062</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -22761,16 +22812,16 @@
         <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F8" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -22781,16 +22832,16 @@
         <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D9" t="s">
         <v>191</v>
       </c>
       <c r="E9" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="F9" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -22872,67 +22923,79 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>909</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>230</v>
       </c>
       <c r="C14" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E14" t="s">
         <v>1137</v>
       </c>
-      <c r="E14" t="s">
-        <v>1136</v>
+      <c r="F14" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>909</v>
+        <v>301</v>
       </c>
       <c r="B15" t="s">
         <v>230</v>
       </c>
       <c r="C15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>1136</v>
+        <v>1137</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>909</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>230</v>
       </c>
       <c r="C16" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>909</v>
+        <v>301</v>
       </c>
       <c r="B17" t="s">
         <v>230</v>
       </c>
       <c r="C17" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D17" t="s">
         <v>191</v>
       </c>
       <c r="E17" t="s">
-        <v>1136</v>
+        <v>1137</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1139</v>
       </c>
     </row>
   </sheetData>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD9BF27-ECC8-4B06-B9C5-D51B6B5F550F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9A6243-87D4-4B4E-BEBD-FC9321574941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3083" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="1398">
   <si>
     <t>name</t>
   </si>
@@ -1964,7 +1964,7 @@
     <t>Proporcione una "imagen de héroe" de alta resolución para esta ciudad, idealmente en formato .jpg con dimensiones en la proporción de 21:10 (por ejemplo, 2100px por 1000px)</t>
   </si>
   <si>
-    <t>Resumen ejecutivo</t>
+    <t>Resumé</t>
   </si>
   <si>
     <t>แทรกโลโก้</t>
@@ -2853,6 +2853,9 @@
   </si>
   <si>
     <t>* Thresholds are based on our modelling  of built environment features requiremed to reach the World Health Organization's Global Action Plan for Physica Activity target of a 15% relative reduction in insufficient physical activity through walking.  We found preliminary evidence that street intersection density above xx and ultra-dense neighbourhoods ( &gt;15,000 persons per km²) may have decreasing benefits for physical activity.  This is an important topic for future research.</t>
+  </si>
+  <si>
+    <t>Summary</t>
   </si>
   <si>
     <t>Citation: Global Healthy &amp; Sustainable City-Indicators Collaboration. 2022. {city} Healthy and Sustainable City Indicators  Report: Comparisons with 25 cities internationally. https://doi.org/INSERT-DOI-HERE</t>
@@ -4285,6 +4288,36 @@
   </si>
   <si>
     <t>Trích dẫn: Hợp tác các Chỉ số Thành phố Bền vững &amp; Khỏe mạnh Toàn cầu. 2022. {city} Báo cáo Chỉ số Thành phố Bền vững và Khỏe mạnh: So sánh với 25 thành phố trên thế giới. https://doi.org/INSERT-DOI-HERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 概括</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> souhrn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overzicht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zusammenfassung</t>
+  </si>
+  <si>
+    <t>Resumen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resumo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சுருக்கம் </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> สรุป</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tóm lược</t>
   </si>
 </sst>
 </file>
@@ -5082,19 +5115,19 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16640,10 +16673,10 @@
   <dimension ref="A1:AD131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16687,7 +16720,7 @@
         <v>307</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>306</v>
@@ -16699,7 +16732,7 @@
         <v>305</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>302</v>
@@ -16711,7 +16744,7 @@
         <v>184</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>660</v>
@@ -16770,10 +16803,10 @@
         <v>674</v>
       </c>
       <c r="H2" s="27" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I2" s="27" t="s">
         <v>1175</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>1174</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>658</v>
@@ -16782,14 +16815,14 @@
         <v>667</v>
       </c>
       <c r="L2" s="20" t="s">
+        <v>1173</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>1172</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>1171</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="P2" s="20" t="s">
         <v>659</v>
@@ -16841,54 +16874,54 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="34" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="34" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="34" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="34" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="34" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="34" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -16905,54 +16938,54 @@
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="34" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L4" s="34"/>
       <c r="M4" s="34" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="34" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="34" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="34" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="34" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -16977,7 +17010,7 @@
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="34" t="s">
@@ -16985,11 +17018,11 @@
       </c>
       <c r="L5" s="34"/>
       <c r="M5" s="34" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="34" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22" t="s">
@@ -17475,7 +17508,7 @@
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
       <c r="M17" s="34" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="34"/>
@@ -17551,7 +17584,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="34"/>
@@ -18035,7 +18068,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
       <c r="I31" s="21" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="J31" s="20"/>
       <c r="K31" s="34" t="s">
@@ -18043,11 +18076,11 @@
       </c>
       <c r="L31" s="34"/>
       <c r="M31" s="34" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="N31" s="20"/>
       <c r="O31" s="34" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="P31" s="20"/>
       <c r="Q31" s="22" t="s">
@@ -18099,19 +18132,19 @@
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="J32" s="20"/>
       <c r="K32" s="34" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="L32" s="34"/>
       <c r="M32" s="34" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="N32" s="20"/>
       <c r="O32" s="34" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="P32" s="20"/>
       <c r="Q32" s="22" t="s">
@@ -18163,7 +18196,7 @@
       </c>
       <c r="H33" s="21"/>
       <c r="I33" s="21" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="J33" s="20"/>
       <c r="K33" s="34" t="s">
@@ -18171,11 +18204,11 @@
       </c>
       <c r="L33" s="34"/>
       <c r="M33" s="34" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="34" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="P33" s="20"/>
       <c r="Q33" s="22" t="s">
@@ -18227,7 +18260,7 @@
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="J34" s="20"/>
       <c r="K34" s="34" t="s">
@@ -18235,11 +18268,11 @@
       </c>
       <c r="L34" s="34"/>
       <c r="M34" s="34" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="34" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="P34" s="20"/>
       <c r="Q34" s="22" t="s">
@@ -18291,7 +18324,7 @@
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="J35" s="20"/>
       <c r="K35" s="34" t="s">
@@ -18299,11 +18332,11 @@
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="34" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="34" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="P35" s="20"/>
       <c r="Q35" s="22" t="s">
@@ -18355,7 +18388,7 @@
       </c>
       <c r="H36" s="21"/>
       <c r="I36" s="21" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="J36" s="20"/>
       <c r="K36" s="34" t="s">
@@ -18363,11 +18396,11 @@
       </c>
       <c r="L36" s="34"/>
       <c r="M36" s="34" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="N36" s="20"/>
       <c r="O36" s="34" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="P36" s="20"/>
       <c r="Q36" s="22" t="s">
@@ -18419,7 +18452,7 @@
       </c>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="34" t="s">
@@ -18427,11 +18460,11 @@
       </c>
       <c r="L37" s="34"/>
       <c r="M37" s="34" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="N37" s="20"/>
       <c r="O37" s="34" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="P37" s="20"/>
       <c r="Q37" s="22" t="s">
@@ -18483,7 +18516,7 @@
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="21" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="J38" s="20"/>
       <c r="K38" s="34" t="s">
@@ -18491,11 +18524,11 @@
       </c>
       <c r="L38" s="34"/>
       <c r="M38" s="34" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="N38" s="20"/>
       <c r="O38" s="34" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="P38" s="20"/>
       <c r="Q38" s="22" t="s">
@@ -18547,7 +18580,7 @@
       </c>
       <c r="H39" s="21"/>
       <c r="I39" s="21" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="J39" s="20"/>
       <c r="K39" s="34" t="s">
@@ -18555,11 +18588,11 @@
       </c>
       <c r="L39" s="34"/>
       <c r="M39" s="34" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="N39" s="20"/>
       <c r="O39" s="34" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="P39" s="20"/>
       <c r="Q39" s="22" t="s">
@@ -18611,7 +18644,7 @@
       </c>
       <c r="H40" s="21"/>
       <c r="I40" s="21" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="J40" s="20"/>
       <c r="K40" s="34" t="s">
@@ -18619,11 +18652,11 @@
       </c>
       <c r="L40" s="34"/>
       <c r="M40" s="34" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="N40" s="20"/>
       <c r="O40" s="34" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="P40" s="20"/>
       <c r="Q40" s="22" t="s">
@@ -18675,7 +18708,7 @@
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="J41" s="20"/>
       <c r="K41" s="34" t="s">
@@ -18683,11 +18716,11 @@
       </c>
       <c r="L41" s="34"/>
       <c r="M41" s="34" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="N41" s="20"/>
       <c r="O41" s="34" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="P41" s="20"/>
       <c r="Q41" s="22" t="s">
@@ -18731,7 +18764,7 @@
       </c>
       <c r="D42" s="20"/>
       <c r="E42" s="20" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="20" t="s">
@@ -18739,19 +18772,19 @@
       </c>
       <c r="H42" s="21"/>
       <c r="I42" s="21" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="J42" s="20"/>
       <c r="K42" s="34" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="L42" s="34"/>
       <c r="M42" s="34" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="34" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="P42" s="20"/>
       <c r="Q42" s="22" t="s">
@@ -18762,11 +18795,11 @@
       </c>
       <c r="S42" s="20"/>
       <c r="T42" s="34" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="U42" s="20"/>
       <c r="V42" s="34" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="W42" s="20"/>
       <c r="X42" s="34" t="s">
@@ -18774,11 +18807,11 @@
       </c>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="AC42" s="20"/>
       <c r="AD42" s="20"/>
@@ -18795,7 +18828,7 @@
       </c>
       <c r="D43" s="20"/>
       <c r="E43" s="20" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="20" t="s">
@@ -18803,26 +18836,26 @@
       </c>
       <c r="H43" s="21"/>
       <c r="I43" s="21" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="J43" s="20"/>
       <c r="K43" s="34" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="L43" s="34"/>
       <c r="M43" s="34" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="N43" s="20"/>
       <c r="O43" s="34" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="P43" s="20"/>
       <c r="Q43" s="22" t="s">
         <v>905</v>
       </c>
       <c r="R43" s="20" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="S43" s="20"/>
       <c r="T43" s="34" t="s">
@@ -18830,19 +18863,19 @@
       </c>
       <c r="U43" s="20"/>
       <c r="V43" s="34" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="W43" s="20"/>
       <c r="X43" s="34" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="AC43" s="20"/>
       <c r="AD43" s="20"/>
@@ -18859,7 +18892,7 @@
       </c>
       <c r="D44" s="20"/>
       <c r="E44" s="20" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="20" t="s">
@@ -18867,46 +18900,46 @@
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="J44" s="20"/>
       <c r="K44" s="34" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="L44" s="34"/>
       <c r="M44" s="34" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="N44" s="20"/>
       <c r="O44" s="34" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="P44" s="20"/>
       <c r="Q44" s="22" t="s">
         <v>904</v>
       </c>
       <c r="R44" s="20" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="S44" s="20"/>
       <c r="T44" s="34" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="U44" s="20"/>
       <c r="V44" s="34" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="W44" s="20"/>
       <c r="X44" s="34" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
@@ -18923,42 +18956,42 @@
       </c>
       <c r="D45" s="20"/>
       <c r="E45" s="20" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="20" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="J45" s="20"/>
       <c r="K45" s="34" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L45" s="34"/>
       <c r="M45" s="34" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="N45" s="20"/>
       <c r="O45" s="34" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="P45" s="20"/>
       <c r="Q45" s="22" t="s">
         <v>871</v>
       </c>
       <c r="R45" s="20" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="S45" s="20"/>
       <c r="T45" s="34" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="U45" s="20"/>
       <c r="V45" s="34" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="W45" s="20"/>
       <c r="X45" s="34" t="s">
@@ -18966,11 +18999,11 @@
       </c>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="AC45" s="20"/>
       <c r="AD45" s="20"/>
@@ -18995,7 +19028,7 @@
       </c>
       <c r="H46" s="21"/>
       <c r="I46" s="21" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="J46" s="20"/>
       <c r="K46" s="34" t="s">
@@ -19003,11 +19036,11 @@
       </c>
       <c r="L46" s="34"/>
       <c r="M46" s="34" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="N46" s="20"/>
       <c r="O46" s="34" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="P46" s="20"/>
       <c r="Q46" s="22" t="s">
@@ -19051,54 +19084,54 @@
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="20" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="20" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H47" s="21"/>
       <c r="I47" s="21" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="J47" s="20"/>
       <c r="K47" s="34" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="L47" s="34"/>
       <c r="M47" s="34" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="N47" s="20"/>
       <c r="O47" s="34" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="P47" s="20"/>
       <c r="Q47" s="22" t="s">
         <v>872</v>
       </c>
       <c r="R47" s="20" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="S47" s="20"/>
       <c r="T47" s="34" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="U47" s="20"/>
       <c r="V47" s="34" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="W47" s="20"/>
       <c r="X47" s="34" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="AC47" s="20"/>
       <c r="AD47" s="20"/>
@@ -19119,15 +19152,15 @@
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="20" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="21" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="J48" s="20"/>
       <c r="K48" s="34" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="L48" s="34"/>
       <c r="M48" s="34" t="s">
@@ -19135,32 +19168,34 @@
       </c>
       <c r="N48" s="20"/>
       <c r="O48" s="34" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="P48" s="20"/>
-      <c r="Q48" s="22"/>
+      <c r="Q48" s="20" t="s">
+        <v>1032</v>
+      </c>
       <c r="R48" s="20" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="S48" s="20"/>
       <c r="T48" s="34" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="U48" s="20"/>
       <c r="V48" s="34" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="W48" s="20"/>
       <c r="X48" s="34" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
@@ -19177,54 +19212,54 @@
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="20" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="J49" s="20"/>
       <c r="K49" s="34" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="L49" s="34"/>
       <c r="M49" s="34" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="N49" s="20"/>
       <c r="O49" s="34" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="P49" s="20"/>
       <c r="Q49" s="22" t="s">
         <v>873</v>
       </c>
       <c r="R49" s="20" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="S49" s="20"/>
       <c r="T49" s="34" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="U49" s="20"/>
       <c r="V49" s="34" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="W49" s="20"/>
       <c r="X49" s="34" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="AC49" s="20"/>
       <c r="AD49" s="20"/>
@@ -19241,54 +19276,54 @@
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="20" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="20" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="21" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J50" s="20"/>
       <c r="K50" s="34" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="L50" s="34"/>
       <c r="M50" s="34" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="N50" s="20"/>
       <c r="O50" s="34" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="P50" s="20"/>
       <c r="Q50" s="22" t="s">
         <v>874</v>
       </c>
       <c r="R50" s="20" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="S50" s="20"/>
       <c r="T50" s="34" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="U50" s="20"/>
       <c r="V50" s="34" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="W50" s="20"/>
       <c r="X50" s="34" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
@@ -19313,7 +19348,7 @@
       </c>
       <c r="H51" s="21"/>
       <c r="I51" s="21" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="J51" s="20"/>
       <c r="K51" s="34" t="s">
@@ -19321,11 +19356,11 @@
       </c>
       <c r="L51" s="34"/>
       <c r="M51" s="34" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="N51" s="20"/>
       <c r="O51" s="34" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="P51" s="20"/>
       <c r="Q51" s="22" t="s">
@@ -19373,23 +19408,23 @@
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="H52" s="23"/>
       <c r="I52" s="23" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="J52" s="22"/>
       <c r="K52" s="34" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="L52" s="34"/>
       <c r="M52" s="34" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="N52" s="22"/>
       <c r="O52" s="34" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="P52" s="22"/>
       <c r="Q52" s="22" t="s">
@@ -19400,7 +19435,7 @@
       </c>
       <c r="S52" s="22"/>
       <c r="T52" s="34" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="U52" s="22"/>
       <c r="V52" s="34" t="s">
@@ -19408,11 +19443,11 @@
       </c>
       <c r="W52" s="22"/>
       <c r="X52" s="34" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="AA52" s="22"/>
       <c r="AB52" s="22" t="s">
@@ -19437,23 +19472,23 @@
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="H53" s="23"/>
       <c r="I53" s="23" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="J53" s="22"/>
       <c r="K53" s="34" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L53" s="34"/>
       <c r="M53" s="34" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="N53" s="22"/>
       <c r="O53" s="34" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="P53" s="22"/>
       <c r="Q53" s="22" t="s">
@@ -19468,7 +19503,7 @@
       </c>
       <c r="U53" s="22"/>
       <c r="V53" s="34" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="W53" s="22"/>
       <c r="X53" s="34" t="s">
@@ -19476,7 +19511,7 @@
       </c>
       <c r="Y53" s="22"/>
       <c r="Z53" s="22" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="AA53" s="22"/>
       <c r="AB53" s="22" t="s">
@@ -19505,7 +19540,7 @@
       </c>
       <c r="H54" s="23"/>
       <c r="I54" s="23" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="J54" s="22"/>
       <c r="K54" s="34" t="s">
@@ -19513,11 +19548,11 @@
       </c>
       <c r="L54" s="34"/>
       <c r="M54" s="34" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="N54" s="22"/>
       <c r="O54" s="34" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="P54" s="22"/>
       <c r="Q54" s="22" t="s">
@@ -19569,7 +19604,7 @@
       </c>
       <c r="H55" s="23"/>
       <c r="I55" s="23" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="J55" s="22"/>
       <c r="K55" s="34" t="s">
@@ -19577,11 +19612,11 @@
       </c>
       <c r="L55" s="34"/>
       <c r="M55" s="34" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="N55" s="22"/>
       <c r="O55" s="34" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="P55" s="22"/>
       <c r="Q55" s="22" t="s">
@@ -19625,54 +19660,54 @@
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="22" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="J56" s="22"/>
       <c r="K56" s="34" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="L56" s="34"/>
       <c r="M56" s="34" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="34" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="P56" s="22"/>
       <c r="Q56" s="22" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="R56" s="22" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="S56" s="22"/>
       <c r="T56" s="34" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="U56" s="22"/>
       <c r="V56" s="34" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="W56" s="22"/>
       <c r="X56" s="34" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="Y56" s="22"/>
       <c r="Z56" s="22" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="AA56" s="22"/>
       <c r="AB56" s="22" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="AC56" s="22"/>
       <c r="AD56" s="22"/>
@@ -19689,54 +19724,54 @@
       </c>
       <c r="D57" s="22"/>
       <c r="E57" s="22" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="J57" s="22"/>
       <c r="K57" s="34" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="L57" s="34"/>
       <c r="M57" s="34" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="N57" s="22"/>
       <c r="O57" s="34" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="P57" s="22"/>
       <c r="Q57" s="22" t="s">
         <v>899</v>
       </c>
       <c r="R57" s="22" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="S57" s="22"/>
       <c r="T57" s="34" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="U57" s="22"/>
       <c r="V57" s="34" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="W57" s="22"/>
       <c r="X57" s="34" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="Y57" s="22"/>
       <c r="Z57" s="22" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="AA57" s="22"/>
       <c r="AB57" s="22" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="AC57" s="22"/>
       <c r="AD57" s="22"/>
@@ -19753,54 +19788,54 @@
       </c>
       <c r="D58" s="22"/>
       <c r="E58" s="22" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="23" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="J58" s="22"/>
       <c r="K58" s="34" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="L58" s="34"/>
       <c r="M58" s="34" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="N58" s="22"/>
       <c r="O58" s="34" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22" t="s">
         <v>900</v>
       </c>
       <c r="R58" s="22" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="S58" s="22"/>
       <c r="T58" s="34" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="U58" s="22"/>
       <c r="V58" s="34" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="W58" s="22"/>
       <c r="X58" s="34" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="Y58" s="22"/>
       <c r="Z58" s="22" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="AA58" s="22"/>
       <c r="AB58" s="22" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="AC58" s="22"/>
       <c r="AD58" s="22"/>
@@ -19817,42 +19852,42 @@
       </c>
       <c r="D59" s="22"/>
       <c r="E59" s="22" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="H59" s="23"/>
       <c r="I59" s="23" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="J59" s="22"/>
       <c r="K59" s="34" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="L59" s="34"/>
       <c r="M59" s="34" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="N59" s="22"/>
       <c r="O59" s="34" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="P59" s="22"/>
       <c r="Q59" s="22" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="R59" s="22" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="S59" s="22"/>
       <c r="T59" s="34" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="U59" s="22"/>
       <c r="V59" s="34" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="W59" s="22"/>
       <c r="X59" s="34" t="s">
@@ -19860,11 +19895,11 @@
       </c>
       <c r="Y59" s="22"/>
       <c r="Z59" s="22" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="AA59" s="22"/>
       <c r="AB59" s="22" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="AC59" s="22"/>
       <c r="AD59" s="22"/>
@@ -19889,7 +19924,7 @@
       </c>
       <c r="H60" s="23"/>
       <c r="I60" s="23" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="J60" s="22"/>
       <c r="K60" s="34" t="s">
@@ -19897,11 +19932,11 @@
       </c>
       <c r="L60" s="34"/>
       <c r="M60" s="34" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="N60" s="22"/>
       <c r="O60" s="34" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="P60" s="22"/>
       <c r="Q60" s="22" t="s">
@@ -19953,7 +19988,7 @@
       </c>
       <c r="H61" s="23"/>
       <c r="I61" s="23" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="J61" s="22"/>
       <c r="K61" s="34" t="s">
@@ -19961,11 +19996,11 @@
       </c>
       <c r="L61" s="34"/>
       <c r="M61" s="34" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="N61" s="22"/>
       <c r="O61" s="34" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="P61" s="22"/>
       <c r="Q61" s="22" t="s">
@@ -20009,54 +20044,54 @@
       </c>
       <c r="D62" s="22"/>
       <c r="E62" s="22" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="H62" s="23"/>
       <c r="I62" s="23" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="34" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="L62" s="34"/>
       <c r="M62" s="34" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="N62" s="22"/>
       <c r="O62" s="34" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="P62" s="22"/>
       <c r="Q62" s="22" t="s">
         <v>880</v>
       </c>
       <c r="R62" s="22" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="S62" s="22"/>
       <c r="T62" s="34" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="U62" s="22"/>
       <c r="V62" s="34" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="W62" s="22"/>
       <c r="X62" s="34" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="Y62" s="22"/>
       <c r="Z62" s="22" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="AA62" s="22"/>
       <c r="AB62" s="22" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="AC62" s="22"/>
       <c r="AD62" s="22"/>
@@ -20073,54 +20108,54 @@
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="22" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="J63" s="22"/>
       <c r="K63" s="34" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="L63" s="34"/>
       <c r="M63" s="34" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="N63" s="22"/>
       <c r="O63" s="34" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="P63" s="22"/>
       <c r="Q63" s="22" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="R63" s="22" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="S63" s="22"/>
       <c r="T63" s="34" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="U63" s="22"/>
       <c r="V63" s="34" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="W63" s="22"/>
       <c r="X63" s="34" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="Y63" s="22"/>
       <c r="Z63" s="22" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="AA63" s="22"/>
       <c r="AB63" s="22" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="AC63" s="22"/>
       <c r="AD63" s="22"/>
@@ -20145,7 +20180,7 @@
       </c>
       <c r="H64" s="23"/>
       <c r="I64" s="23" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="J64" s="22"/>
       <c r="K64" s="34" t="s">
@@ -20153,11 +20188,11 @@
       </c>
       <c r="L64" s="34"/>
       <c r="M64" s="34" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="N64" s="22"/>
       <c r="O64" s="34" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="P64" s="22"/>
       <c r="Q64" s="22" t="s">
@@ -20201,54 +20236,54 @@
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="22" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="J65" s="22"/>
       <c r="K65" s="34" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="L65" s="34"/>
       <c r="M65" s="34" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="N65" s="22"/>
       <c r="O65" s="34" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="P65" s="22"/>
       <c r="Q65" s="22" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="R65" s="22" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="S65" s="22"/>
       <c r="T65" s="34" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="U65" s="22"/>
       <c r="V65" s="34" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="W65" s="22"/>
       <c r="X65" s="34" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="Y65" s="22"/>
       <c r="Z65" s="22" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="AA65" s="22"/>
       <c r="AB65" s="22" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="AC65" s="22"/>
       <c r="AD65" s="22"/>
@@ -20273,7 +20308,7 @@
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="23" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="J66" s="22"/>
       <c r="K66" s="34" t="s">
@@ -20281,11 +20316,11 @@
       </c>
       <c r="L66" s="34"/>
       <c r="M66" s="34" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="N66" s="22"/>
       <c r="O66" s="34" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="P66" s="22"/>
       <c r="Q66" s="22" t="s">
@@ -20337,7 +20372,7 @@
       </c>
       <c r="H67" s="23"/>
       <c r="I67" s="23" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="J67" s="22"/>
       <c r="K67" s="34" t="s">
@@ -20345,11 +20380,11 @@
       </c>
       <c r="L67" s="34"/>
       <c r="M67" s="34" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="N67" s="22"/>
       <c r="O67" s="34" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="P67" s="22"/>
       <c r="Q67" s="22" t="s">
@@ -20393,54 +20428,54 @@
       </c>
       <c r="D68" s="22"/>
       <c r="E68" s="22" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="H68" s="23"/>
       <c r="I68" s="23" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="J68" s="22"/>
       <c r="K68" s="34" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="L68" s="34"/>
       <c r="M68" s="34" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="N68" s="22"/>
       <c r="O68" s="34" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="P68" s="22"/>
       <c r="Q68" s="22" t="s">
         <v>884</v>
       </c>
       <c r="R68" s="22" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="S68" s="22"/>
       <c r="T68" s="34" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="U68" s="22"/>
       <c r="V68" s="34" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="W68" s="22"/>
       <c r="X68" s="34" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="Y68" s="22"/>
       <c r="Z68" s="22" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="AA68" s="22"/>
       <c r="AB68" s="22" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="AC68" s="22"/>
       <c r="AD68" s="22"/>
@@ -20465,7 +20500,7 @@
       </c>
       <c r="H69" s="23"/>
       <c r="I69" s="23" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="J69" s="22"/>
       <c r="K69" s="34" t="s">
@@ -20473,11 +20508,11 @@
       </c>
       <c r="L69" s="34"/>
       <c r="M69" s="34" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="N69" s="22"/>
       <c r="O69" s="34" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="P69" s="22"/>
       <c r="Q69" s="22" t="s">
@@ -20529,7 +20564,7 @@
       </c>
       <c r="H70" s="23"/>
       <c r="I70" s="23" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="J70" s="22"/>
       <c r="K70" s="34" t="s">
@@ -20537,11 +20572,11 @@
       </c>
       <c r="L70" s="34"/>
       <c r="M70" s="34" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="N70" s="22"/>
       <c r="O70" s="34" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="P70" s="22"/>
       <c r="Q70" s="22" t="s">
@@ -20593,7 +20628,7 @@
       </c>
       <c r="H71" s="23"/>
       <c r="I71" s="23" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="J71" s="22"/>
       <c r="K71" s="34" t="s">
@@ -20601,11 +20636,11 @@
       </c>
       <c r="L71" s="34"/>
       <c r="M71" s="34" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="N71" s="22"/>
       <c r="O71" s="34" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="P71" s="22"/>
       <c r="Q71" s="22" t="s">
@@ -20657,7 +20692,7 @@
       </c>
       <c r="H72" s="23"/>
       <c r="I72" s="23" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="J72" s="22"/>
       <c r="K72" s="34" t="s">
@@ -20665,11 +20700,11 @@
       </c>
       <c r="L72" s="34"/>
       <c r="M72" s="34" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="N72" s="22"/>
       <c r="O72" s="34" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="P72" s="22"/>
       <c r="Q72" s="22" t="s">
@@ -20721,7 +20756,7 @@
       </c>
       <c r="H73" s="23"/>
       <c r="I73" s="23" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="J73" s="22"/>
       <c r="K73" s="34" t="s">
@@ -20729,11 +20764,11 @@
       </c>
       <c r="L73" s="34"/>
       <c r="M73" s="34" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N73" s="22"/>
       <c r="O73" s="34" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="P73" s="22"/>
       <c r="Q73" s="22" t="s">
@@ -20785,7 +20820,7 @@
       </c>
       <c r="H74" s="23"/>
       <c r="I74" s="23" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="J74" s="22"/>
       <c r="K74" s="34" t="s">
@@ -20793,11 +20828,11 @@
       </c>
       <c r="L74" s="34"/>
       <c r="M74" s="34" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="N74" s="22"/>
       <c r="O74" s="34" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="P74" s="22"/>
       <c r="Q74" s="22" t="s">
@@ -20849,7 +20884,7 @@
       </c>
       <c r="H75" s="23"/>
       <c r="I75" s="23" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="J75" s="22"/>
       <c r="K75" s="34" t="s">
@@ -20857,11 +20892,11 @@
       </c>
       <c r="L75" s="34"/>
       <c r="M75" s="34" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="N75" s="22"/>
       <c r="O75" s="34" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="P75" s="22"/>
       <c r="Q75" s="22" t="s">
@@ -20913,7 +20948,7 @@
       </c>
       <c r="H76" s="23"/>
       <c r="I76" s="23" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="J76" s="22"/>
       <c r="K76" s="34" t="s">
@@ -20921,11 +20956,11 @@
       </c>
       <c r="L76" s="34"/>
       <c r="M76" s="34" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="N76" s="22"/>
       <c r="O76" s="34" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="P76" s="22"/>
       <c r="Q76" s="22" t="s">
@@ -20965,58 +21000,58 @@
         <v>87</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="H77" s="24"/>
       <c r="I77" s="24" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="J77" s="25"/>
       <c r="K77" s="34" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="L77" s="34"/>
       <c r="M77" s="34" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="N77" s="25"/>
       <c r="O77" s="34" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="P77" s="22"/>
       <c r="Q77" s="25" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="R77" s="22" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="S77" s="22"/>
       <c r="T77" s="34" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="U77" s="22"/>
       <c r="V77" s="34" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="W77" s="22"/>
       <c r="X77" s="34" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="Y77" s="22"/>
       <c r="Z77" s="22" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="AA77" s="22"/>
       <c r="AB77" s="22" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="AC77" s="22"/>
       <c r="AD77" s="22"/>
@@ -21033,42 +21068,42 @@
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="J78" s="22"/>
       <c r="K78" s="34" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="L78" s="34"/>
       <c r="M78" s="34" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="34" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="P78" s="22"/>
       <c r="Q78" s="22" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="R78" s="22" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="S78" s="22"/>
       <c r="T78" s="34" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="U78" s="22"/>
       <c r="V78" s="34" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="W78" s="22"/>
       <c r="X78" s="34" t="s">
@@ -21076,11 +21111,11 @@
       </c>
       <c r="Y78" s="22"/>
       <c r="Z78" s="22" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="AA78" s="22"/>
       <c r="AB78" s="22" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="AC78" s="22"/>
       <c r="AD78" s="22"/>
@@ -21097,42 +21132,42 @@
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="34" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="L79" s="34"/>
       <c r="M79" s="34" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="34" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="P79" s="22"/>
       <c r="Q79" s="22" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="R79" s="22" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="S79" s="22"/>
       <c r="T79" s="34" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="U79" s="22"/>
       <c r="V79" s="34" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="W79" s="22"/>
       <c r="X79" s="34" t="s">
@@ -21140,11 +21175,11 @@
       </c>
       <c r="Y79" s="22"/>
       <c r="Z79" s="22" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AA79" s="22"/>
       <c r="AB79" s="22" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="AC79" s="22"/>
       <c r="AD79" s="22"/>
@@ -21161,42 +21196,42 @@
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="34" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="L80" s="34"/>
       <c r="M80" s="34" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="34" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="P80" s="22"/>
       <c r="Q80" s="22" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="R80" s="22" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="S80" s="22"/>
       <c r="T80" s="34" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="U80" s="22"/>
       <c r="V80" s="34" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="W80" s="22"/>
       <c r="X80" s="34" t="s">
@@ -21204,11 +21239,11 @@
       </c>
       <c r="Y80" s="22"/>
       <c r="Z80" s="22" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="AA80" s="22"/>
       <c r="AB80" s="22" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="AC80" s="22"/>
       <c r="AD80" s="22"/>
@@ -21233,7 +21268,7 @@
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="34" t="s">
@@ -21241,11 +21276,11 @@
       </c>
       <c r="L81" s="34"/>
       <c r="M81" s="34" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="34" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="P81" s="22"/>
       <c r="Q81" s="22" t="s">
@@ -21297,7 +21332,7 @@
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="J82" s="22"/>
       <c r="K82" s="34" t="s">
@@ -21305,11 +21340,11 @@
       </c>
       <c r="L82" s="34"/>
       <c r="M82" s="34" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="34" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="P82" s="22"/>
       <c r="Q82" s="22" t="s">
@@ -21361,7 +21396,7 @@
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="J83" s="22"/>
       <c r="K83" s="34" t="s">
@@ -21369,11 +21404,11 @@
       </c>
       <c r="L83" s="34"/>
       <c r="M83" s="34" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="34" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="P83" s="22"/>
       <c r="Q83" s="22" t="s">
@@ -21425,7 +21460,7 @@
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="34" t="s">
@@ -21433,11 +21468,11 @@
       </c>
       <c r="L84" s="34"/>
       <c r="M84" s="34" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="34" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="P84" s="22"/>
       <c r="Q84" s="22" t="s">
@@ -21489,7 +21524,7 @@
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="34" t="s">
@@ -21497,11 +21532,11 @@
       </c>
       <c r="L85" s="34"/>
       <c r="M85" s="34" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="34" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="P85" s="22"/>
       <c r="Q85" s="22" t="s">
@@ -21553,7 +21588,7 @@
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="34" t="s">
@@ -21561,11 +21596,11 @@
       </c>
       <c r="L86" s="34"/>
       <c r="M86" s="34" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="N86" s="22"/>
       <c r="O86" s="34" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="P86" s="22"/>
       <c r="Q86" s="22" t="s">
@@ -21617,7 +21652,7 @@
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="J87" s="22"/>
       <c r="K87" s="34" t="s">
@@ -21625,11 +21660,11 @@
       </c>
       <c r="L87" s="34"/>
       <c r="M87" s="34" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="34" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="P87" s="22"/>
       <c r="Q87" s="22" t="s">
@@ -21681,7 +21716,7 @@
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="J88" s="22"/>
       <c r="K88" s="34" t="s">
@@ -21689,11 +21724,11 @@
       </c>
       <c r="L88" s="34"/>
       <c r="M88" s="34" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="34" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="P88" s="22"/>
       <c r="Q88" s="22" t="s">
@@ -21745,7 +21780,7 @@
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="J89" s="22"/>
       <c r="K89" s="34" t="s">
@@ -21753,11 +21788,11 @@
       </c>
       <c r="L89" s="34"/>
       <c r="M89" s="34" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="N89" s="22"/>
       <c r="O89" s="34" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P89" s="22"/>
       <c r="Q89" s="22" t="s">
@@ -21809,7 +21844,7 @@
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="J90" s="22"/>
       <c r="K90" s="34" t="s">
@@ -21817,11 +21852,11 @@
       </c>
       <c r="L90" s="34"/>
       <c r="M90" s="34" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="N90" s="22"/>
       <c r="O90" s="34" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P90" s="22"/>
       <c r="Q90" s="22" t="s">
@@ -21873,7 +21908,7 @@
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="34" t="s">
@@ -21881,11 +21916,11 @@
       </c>
       <c r="L91" s="34"/>
       <c r="M91" s="34" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="N91" s="22"/>
       <c r="O91" s="34" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="P91" s="22"/>
       <c r="Q91" s="22" t="s">
@@ -21937,7 +21972,7 @@
       </c>
       <c r="H92" s="23"/>
       <c r="I92" s="23" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="34" t="s">
@@ -21945,11 +21980,11 @@
       </c>
       <c r="L92" s="34"/>
       <c r="M92" s="34" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="N92" s="22"/>
       <c r="O92" s="34" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="P92" s="22"/>
       <c r="Q92" s="22" t="s">
@@ -22001,7 +22036,7 @@
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="34" t="s">
@@ -22009,11 +22044,11 @@
       </c>
       <c r="L93" s="34"/>
       <c r="M93" s="34" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="N93" s="22"/>
       <c r="O93" s="34" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="P93" s="22"/>
       <c r="Q93" s="22" t="s">
@@ -22065,7 +22100,7 @@
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="23" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="34" t="s">
@@ -22073,11 +22108,11 @@
       </c>
       <c r="L94" s="34"/>
       <c r="M94" s="34" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="34" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="P94" s="22"/>
       <c r="Q94" s="22" t="s">
@@ -22129,7 +22164,7 @@
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="34" t="s">
@@ -22137,11 +22172,11 @@
       </c>
       <c r="L95" s="34"/>
       <c r="M95" s="34" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="34" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="P95" s="22"/>
       <c r="Q95" s="22" t="s">
@@ -22193,7 +22228,7 @@
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="J96" s="25"/>
       <c r="K96" s="34" t="s">
@@ -22201,11 +22236,11 @@
       </c>
       <c r="L96" s="34"/>
       <c r="M96" s="34" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="N96" s="25"/>
       <c r="O96" s="34" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="P96" s="22"/>
       <c r="Q96" s="25" t="s">
@@ -22257,7 +22292,7 @@
       </c>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="34" t="s">
@@ -22265,11 +22300,11 @@
       </c>
       <c r="L97" s="34"/>
       <c r="M97" s="34" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="N97" s="22"/>
       <c r="O97" s="34" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="P97" s="22"/>
       <c r="Q97" s="22" t="s">
@@ -22321,7 +22356,7 @@
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="J98" s="22"/>
       <c r="K98" s="34" t="s">
@@ -22329,11 +22364,11 @@
       </c>
       <c r="L98" s="34"/>
       <c r="M98" s="34" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="N98" s="22"/>
       <c r="O98" s="34" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="P98" s="22"/>
       <c r="Q98" s="22" t="s">
@@ -22385,7 +22420,7 @@
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="J99" s="22"/>
       <c r="K99" s="34" t="s">
@@ -22393,11 +22428,11 @@
       </c>
       <c r="L99" s="34"/>
       <c r="M99" s="34" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="N99" s="22"/>
       <c r="O99" s="34" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="P99" s="22"/>
       <c r="Q99" s="22" t="s">
@@ -22449,7 +22484,7 @@
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="J100" s="22"/>
       <c r="K100" s="34" t="s">
@@ -22457,11 +22492,11 @@
       </c>
       <c r="L100" s="34"/>
       <c r="M100" s="34" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="N100" s="22"/>
       <c r="O100" s="34" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="P100" s="22"/>
       <c r="Q100" s="22" t="s">
@@ -22513,7 +22548,7 @@
       </c>
       <c r="H101" s="24"/>
       <c r="I101" s="24" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="J101" s="25"/>
       <c r="K101" s="34" t="s">
@@ -22521,11 +22556,11 @@
       </c>
       <c r="L101" s="34"/>
       <c r="M101" s="34" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="N101" s="25"/>
       <c r="O101" s="34" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="P101" s="22"/>
       <c r="Q101" s="25" t="s">
@@ -22577,7 +22612,7 @@
       </c>
       <c r="H102" s="23"/>
       <c r="I102" s="23" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="J102" s="22"/>
       <c r="K102" s="34" t="s">
@@ -22585,11 +22620,11 @@
       </c>
       <c r="L102" s="34"/>
       <c r="M102" s="34" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="N102" s="22"/>
       <c r="O102" s="34" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="P102" s="22"/>
       <c r="Q102" s="22" t="s">
@@ -22641,7 +22676,7 @@
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="J103" s="22"/>
       <c r="K103" s="34" t="s">
@@ -22649,11 +22684,11 @@
       </c>
       <c r="L103" s="34"/>
       <c r="M103" s="34" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="N103" s="22"/>
       <c r="O103" s="34" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="P103" s="22"/>
       <c r="Q103" s="22" t="s">
@@ -22676,7 +22711,7 @@
       </c>
       <c r="Y103" s="22"/>
       <c r="Z103" s="22" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="AA103" s="22"/>
       <c r="AB103" s="22" t="s">
@@ -22693,58 +22728,58 @@
         <v>179</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="22" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="22" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="J104" s="22"/>
       <c r="K104" s="34" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="L104" s="34"/>
       <c r="M104" s="34" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="N104" s="22"/>
       <c r="O104" s="34" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="P104" s="22"/>
       <c r="Q104" s="22" t="s">
         <v>898</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="S104" s="22"/>
       <c r="T104" s="34" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="U104" s="22"/>
       <c r="V104" s="34" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="W104" s="22"/>
       <c r="X104" s="34" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="22" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="AA104" s="22"/>
       <c r="AB104" s="22" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="AC104" s="22"/>
       <c r="AD104" s="22"/>
@@ -22757,58 +22792,58 @@
         <v>391</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>325</v>
+        <v>934</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="22" t="s">
-        <v>325</v>
+        <v>1388</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22" t="s">
-        <v>325</v>
+        <v>1389</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23" t="s">
-        <v>325</v>
+        <v>1390</v>
       </c>
       <c r="J105" s="22"/>
       <c r="K105" s="35" t="s">
-        <v>325</v>
+        <v>639</v>
       </c>
       <c r="L105" s="35"/>
       <c r="M105" s="35" t="s">
-        <v>325</v>
+        <v>1391</v>
       </c>
       <c r="N105" s="22"/>
       <c r="O105" s="35" t="s">
-        <v>325</v>
+        <v>1392</v>
       </c>
       <c r="P105" s="22"/>
       <c r="Q105" s="22" t="s">
-        <v>639</v>
+        <v>1393</v>
       </c>
       <c r="R105" s="22" t="s">
-        <v>325</v>
+        <v>1393</v>
       </c>
       <c r="S105" s="22"/>
       <c r="T105" s="35" t="s">
-        <v>325</v>
+        <v>1394</v>
       </c>
       <c r="U105" s="22"/>
       <c r="V105" s="35" t="s">
-        <v>325</v>
+        <v>1394</v>
       </c>
       <c r="W105" s="22"/>
       <c r="X105" s="35" t="s">
-        <v>325</v>
+        <v>1395</v>
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="22" t="s">
-        <v>325</v>
+        <v>1396</v>
       </c>
       <c r="AA105" s="22"/>
       <c r="AB105" s="22" t="s">
-        <v>325</v>
+        <v>1397</v>
       </c>
       <c r="AC105" s="22"/>
       <c r="AD105" s="22"/>
@@ -22833,7 +22868,7 @@
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="34" t="s">
@@ -22841,11 +22876,11 @@
       </c>
       <c r="L106" s="34"/>
       <c r="M106" s="34" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="N106" s="22"/>
       <c r="O106" s="34" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="P106" s="22"/>
       <c r="Q106" s="22" t="s">
@@ -22898,7 +22933,7 @@
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J107" s="22"/>
       <c r="K107" s="34" t="s">
@@ -22906,11 +22941,11 @@
       </c>
       <c r="L107" s="34"/>
       <c r="M107" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N107" s="22"/>
       <c r="O107" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P107" s="22"/>
       <c r="Q107" s="22" t="s">
@@ -22963,7 +22998,7 @@
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J108" s="22"/>
       <c r="K108" s="34" t="s">
@@ -22971,11 +23006,11 @@
       </c>
       <c r="L108" s="34"/>
       <c r="M108" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N108" s="22"/>
       <c r="O108" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P108" s="22"/>
       <c r="Q108" s="22" t="s">
@@ -23028,7 +23063,7 @@
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J109" s="22"/>
       <c r="K109" s="34" t="s">
@@ -23036,11 +23071,11 @@
       </c>
       <c r="L109" s="34"/>
       <c r="M109" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N109" s="22"/>
       <c r="O109" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P109" s="22"/>
       <c r="Q109" s="22" t="s">
@@ -23093,7 +23128,7 @@
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J110" s="22"/>
       <c r="K110" s="34" t="s">
@@ -23101,11 +23136,11 @@
       </c>
       <c r="L110" s="34"/>
       <c r="M110" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N110" s="22"/>
       <c r="O110" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P110" s="22"/>
       <c r="Q110" s="22" t="s">
@@ -23158,7 +23193,7 @@
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J111" s="22"/>
       <c r="K111" s="34" t="s">
@@ -23166,11 +23201,11 @@
       </c>
       <c r="L111" s="34"/>
       <c r="M111" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N111" s="22"/>
       <c r="O111" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P111" s="22"/>
       <c r="Q111" s="22" t="s">
@@ -23223,7 +23258,7 @@
       </c>
       <c r="H112" s="23"/>
       <c r="I112" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J112" s="22"/>
       <c r="K112" s="34" t="s">
@@ -23231,11 +23266,11 @@
       </c>
       <c r="L112" s="34"/>
       <c r="M112" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N112" s="22"/>
       <c r="O112" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P112" s="22"/>
       <c r="Q112" s="22" t="s">
@@ -23288,7 +23323,7 @@
       </c>
       <c r="H113" s="23"/>
       <c r="I113" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J113" s="22"/>
       <c r="K113" s="34" t="s">
@@ -23296,11 +23331,11 @@
       </c>
       <c r="L113" s="34"/>
       <c r="M113" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N113" s="22"/>
       <c r="O113" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P113" s="22"/>
       <c r="Q113" s="22" t="s">
@@ -23353,7 +23388,7 @@
       </c>
       <c r="H114" s="23"/>
       <c r="I114" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J114" s="22"/>
       <c r="K114" s="34" t="s">
@@ -23361,11 +23396,11 @@
       </c>
       <c r="L114" s="34"/>
       <c r="M114" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N114" s="22"/>
       <c r="O114" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P114" s="22"/>
       <c r="Q114" s="22" t="s">
@@ -23418,7 +23453,7 @@
       </c>
       <c r="H115" s="23"/>
       <c r="I115" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J115" s="22"/>
       <c r="K115" s="34" t="s">
@@ -23426,11 +23461,11 @@
       </c>
       <c r="L115" s="34"/>
       <c r="M115" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N115" s="22"/>
       <c r="O115" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P115" s="22"/>
       <c r="Q115" s="22" t="s">
@@ -23483,7 +23518,7 @@
       </c>
       <c r="H116" s="23"/>
       <c r="I116" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J116" s="22"/>
       <c r="K116" s="34" t="s">
@@ -23491,11 +23526,11 @@
       </c>
       <c r="L116" s="34"/>
       <c r="M116" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N116" s="22"/>
       <c r="O116" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P116" s="22"/>
       <c r="Q116" s="22" t="s">
@@ -23548,7 +23583,7 @@
       </c>
       <c r="H117" s="23"/>
       <c r="I117" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J117" s="22"/>
       <c r="K117" s="34" t="s">
@@ -23556,11 +23591,11 @@
       </c>
       <c r="L117" s="34"/>
       <c r="M117" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N117" s="22"/>
       <c r="O117" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P117" s="22"/>
       <c r="Q117" s="22" t="s">
@@ -23613,7 +23648,7 @@
       </c>
       <c r="H118" s="23"/>
       <c r="I118" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J118" s="22"/>
       <c r="K118" s="34" t="s">
@@ -23621,11 +23656,11 @@
       </c>
       <c r="L118" s="34"/>
       <c r="M118" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N118" s="22"/>
       <c r="O118" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P118" s="22"/>
       <c r="Q118" s="22" t="s">
@@ -23678,7 +23713,7 @@
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J119" s="22"/>
       <c r="K119" s="34" t="s">
@@ -23686,11 +23721,11 @@
       </c>
       <c r="L119" s="34"/>
       <c r="M119" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N119" s="22"/>
       <c r="O119" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P119" s="22"/>
       <c r="Q119" s="22" t="s">
@@ -23743,7 +23778,7 @@
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="34" t="s">
@@ -23751,11 +23786,11 @@
       </c>
       <c r="L120" s="34"/>
       <c r="M120" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N120" s="22"/>
       <c r="O120" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P120" s="22"/>
       <c r="Q120" s="22" t="s">
@@ -23808,7 +23843,7 @@
       </c>
       <c r="H121" s="23"/>
       <c r="I121" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J121" s="22"/>
       <c r="K121" s="34" t="s">
@@ -23816,11 +23851,11 @@
       </c>
       <c r="L121" s="34"/>
       <c r="M121" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N121" s="22"/>
       <c r="O121" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P121" s="22"/>
       <c r="Q121" s="22" t="s">
@@ -23873,7 +23908,7 @@
       </c>
       <c r="H122" s="23"/>
       <c r="I122" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J122" s="22"/>
       <c r="K122" s="34" t="s">
@@ -23881,11 +23916,11 @@
       </c>
       <c r="L122" s="34"/>
       <c r="M122" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N122" s="22"/>
       <c r="O122" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P122" s="22"/>
       <c r="Q122" s="22" t="s">
@@ -23938,7 +23973,7 @@
       </c>
       <c r="H123" s="23"/>
       <c r="I123" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J123" s="22"/>
       <c r="K123" s="34" t="s">
@@ -23946,11 +23981,11 @@
       </c>
       <c r="L123" s="34"/>
       <c r="M123" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N123" s="22"/>
       <c r="O123" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P123" s="22"/>
       <c r="Q123" s="22" t="s">
@@ -24003,7 +24038,7 @@
       </c>
       <c r="H124" s="23"/>
       <c r="I124" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J124" s="22"/>
       <c r="K124" s="34" t="s">
@@ -24011,11 +24046,11 @@
       </c>
       <c r="L124" s="34"/>
       <c r="M124" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N124" s="22"/>
       <c r="O124" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P124" s="22"/>
       <c r="Q124" s="22" t="s">
@@ -24068,7 +24103,7 @@
       </c>
       <c r="H125" s="23"/>
       <c r="I125" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J125" s="22"/>
       <c r="K125" s="34" t="s">
@@ -24076,11 +24111,11 @@
       </c>
       <c r="L125" s="34"/>
       <c r="M125" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N125" s="22"/>
       <c r="O125" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P125" s="22"/>
       <c r="Q125" s="22" t="s">
@@ -24133,7 +24168,7 @@
       </c>
       <c r="H126" s="23"/>
       <c r="I126" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J126" s="22"/>
       <c r="K126" s="34" t="s">
@@ -24141,11 +24176,11 @@
       </c>
       <c r="L126" s="34"/>
       <c r="M126" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N126" s="22"/>
       <c r="O126" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P126" s="22"/>
       <c r="Q126" s="22" t="s">
@@ -24198,7 +24233,7 @@
       </c>
       <c r="H127" s="23"/>
       <c r="I127" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J127" s="22"/>
       <c r="K127" s="34" t="s">
@@ -24206,11 +24241,11 @@
       </c>
       <c r="L127" s="34"/>
       <c r="M127" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N127" s="22"/>
       <c r="O127" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P127" s="22"/>
       <c r="Q127" s="22" t="s">
@@ -24263,7 +24298,7 @@
       </c>
       <c r="H128" s="23"/>
       <c r="I128" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J128" s="22"/>
       <c r="K128" s="34" t="s">
@@ -24271,11 +24306,11 @@
       </c>
       <c r="L128" s="34"/>
       <c r="M128" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N128" s="22"/>
       <c r="O128" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P128" s="22"/>
       <c r="Q128" s="22" t="s">
@@ -24328,7 +24363,7 @@
       </c>
       <c r="H129" s="23"/>
       <c r="I129" s="23" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="J129" s="22"/>
       <c r="K129" s="34" t="s">
@@ -24336,11 +24371,11 @@
       </c>
       <c r="L129" s="34"/>
       <c r="M129" s="34" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="N129" s="22"/>
       <c r="O129" s="34" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="P129" s="22"/>
       <c r="Q129" s="22" t="s">
@@ -24393,7 +24428,7 @@
       </c>
       <c r="H130" s="23"/>
       <c r="I130" s="23" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J130" s="22"/>
       <c r="K130" s="34" t="s">
@@ -24401,11 +24436,11 @@
       </c>
       <c r="L130" s="34"/>
       <c r="M130" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N130" s="22"/>
       <c r="O130" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P130" s="22"/>
       <c r="Q130" s="22" t="s">
@@ -24458,7 +24493,7 @@
       </c>
       <c r="H131" s="26"/>
       <c r="I131" s="26" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="J131" s="22"/>
       <c r="K131" s="34" t="s">
@@ -24466,11 +24501,11 @@
       </c>
       <c r="L131" s="34"/>
       <c r="M131" s="34" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="N131" s="22"/>
       <c r="O131" s="34" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="P131" s="22"/>
       <c r="Q131" s="22" t="s">
@@ -24543,35 +24578,35 @@
     <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:AD131">
-    <cfRule type="containsBlanks" dxfId="6" priority="31">
+    <cfRule type="containsBlanks" dxfId="0" priority="31">
       <formula>LEN(TRIM(C1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B65:B69 B71:B77 B81:B1048576 B52:B63 B1:B31">
-    <cfRule type="duplicateValues" dxfId="5" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q44 Q46:Q76 Q97:Q100 Q78:Q95">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="5" priority="5">
       <formula>LEN(TRIM(Q1))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="4">
       <formula>LEN(TRIM(Q45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q77">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
       <formula>LEN(TRIM(Q77))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q96">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(Q96))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q101">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(Q101))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24585,7 +24620,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9A6243-87D4-4B4E-BEBD-FC9321574941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803AF295-5BDE-4699-9274-31513456A38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4110,9 +4110,6 @@
     <t>{city}健康和可持續的城市指標報告</t>
   </si>
   <si>
-    <t xml:space="preserve">這份簡短的報告概述了{city}在健康和可持續城市選擇的空間和政策指標上的表現。我們的合作研究考察了城市設計和交通特徵的空間分佈，以及城市規劃政策的存在和品質，這些政策為19個國家的25個城市促進健康和可持續性。該研究的更多詳細資訊可在 https://doi.org/INSERT-DOI-HERE。  </t>
-  </si>
-  <si>
     <t>與研究中包括的國際城市的中位數（通常觀察到的值）的比較可用於為城市政策提供資訊。這些地圖顯示了{city}中環境特徵的分佈，可用於確定可以從提供健康和可持續環境的變化中受益最大的區域。</t>
   </si>
   <si>
@@ -4318,13 +4315,16 @@
   </si>
   <si>
     <t xml:space="preserve"> Tóm lược</t>
+  </si>
+  <si>
+    <t>這份簡短的報告概述了{city}在健康和可持續城市選擇的空間和政策指標上的表現。我們的合作研究考察了城市設計和交通特徵的空間分佈，以及城市規劃政策的存在和品質，這些政策為19個國家的25個城市促進健康和可持續性。該研究的更多詳細資訊可在 https://doi.org/INSERT-DOI-HERE。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4504,6 +4504,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans Tamil"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans Tamil"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans Tamil"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4932,7 +4951,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5026,11 +5045,26 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5584,7 +5618,7 @@
   <dimension ref="A1:V187"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -16673,13 +16707,13 @@
   <dimension ref="A1:AD131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T29" sqref="T29"/>
+      <selection pane="bottomRight" activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="30" customWidth="1"/>
@@ -16688,7 +16722,7 @@
     <col min="6" max="16" width="55" style="3" customWidth="1"/>
     <col min="17" max="17" width="67" style="3" customWidth="1"/>
     <col min="18" max="23" width="55" style="3" customWidth="1"/>
-    <col min="24" max="24" width="55" style="31" customWidth="1"/>
+    <col min="24" max="24" width="55" style="35" customWidth="1"/>
     <col min="25" max="26" width="55" style="3" customWidth="1"/>
     <col min="27" max="28" width="43.140625" style="3" customWidth="1"/>
     <col min="29" max="16384" width="9.140625" style="3"/>
@@ -16744,7 +16778,7 @@
         <v>184</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>660</v>
@@ -16764,7 +16798,7 @@
       <c r="W1" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="33" t="s">
         <v>741</v>
       </c>
       <c r="Y1" s="19" t="s">
@@ -16846,7 +16880,7 @@
         <v>671</v>
       </c>
       <c r="W2" s="20"/>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="34" t="s">
         <v>910</v>
       </c>
       <c r="Y2" s="20" t="s">
@@ -16885,15 +16919,15 @@
         <v>1177</v>
       </c>
       <c r="J3" s="22"/>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34" t="s">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37" t="s">
         <v>1255</v>
       </c>
       <c r="N3" s="22"/>
-      <c r="O3" s="34" t="s">
+      <c r="O3" s="37" t="s">
         <v>954</v>
       </c>
       <c r="P3" s="22"/>
@@ -16904,15 +16938,15 @@
         <v>1029</v>
       </c>
       <c r="S3" s="22"/>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="37" t="s">
         <v>1038</v>
       </c>
       <c r="U3" s="22"/>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="37" t="s">
         <v>1038</v>
       </c>
       <c r="W3" s="22"/>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="39" t="s">
         <v>1094</v>
       </c>
       <c r="Y3" s="22"/>
@@ -16949,15 +16983,15 @@
         <v>1178</v>
       </c>
       <c r="J4" s="22"/>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37" t="s">
         <v>1256</v>
       </c>
       <c r="N4" s="22"/>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="37" t="s">
         <v>955</v>
       </c>
       <c r="P4" s="22"/>
@@ -16968,15 +17002,15 @@
         <v>1030</v>
       </c>
       <c r="S4" s="22"/>
-      <c r="T4" s="34" t="s">
+      <c r="T4" s="37" t="s">
         <v>1039</v>
       </c>
       <c r="U4" s="22"/>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="37" t="s">
         <v>1049</v>
       </c>
       <c r="W4" s="22"/>
-      <c r="X4" s="34" t="s">
+      <c r="X4" s="39" t="s">
         <v>1095</v>
       </c>
       <c r="Y4" s="22"/>
@@ -16990,7 +17024,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
     </row>
-    <row r="5" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>197</v>
       </c>
@@ -17013,15 +17047,15 @@
         <v>1179</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34" t="s">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37" t="s">
         <v>1257</v>
       </c>
       <c r="N5" s="22"/>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="37" t="s">
         <v>956</v>
       </c>
       <c r="P5" s="22"/>
@@ -17032,15 +17066,15 @@
         <v>405</v>
       </c>
       <c r="S5" s="22"/>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="37" t="s">
         <v>457</v>
       </c>
       <c r="U5" s="22"/>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="37" t="s">
         <v>501</v>
       </c>
       <c r="W5" s="22"/>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="39" t="s">
         <v>742</v>
       </c>
       <c r="Y5" s="22"/>
@@ -17071,20 +17105,20 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="34"/>
+      <c r="O6" s="37"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
-      <c r="T6" s="34"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="22"/>
-      <c r="V6" s="34"/>
+      <c r="V6" s="37"/>
       <c r="W6" s="22"/>
-      <c r="X6" s="34"/>
+      <c r="X6" s="39"/>
       <c r="Y6" s="22"/>
       <c r="Z6" s="22"/>
       <c r="AA6" s="22"/>
@@ -17109,11 +17143,11 @@
       <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
       <c r="N7" s="22"/>
-      <c r="O7" s="34"/>
+      <c r="O7" s="37"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22" t="s">
         <v>654</v>
@@ -17122,11 +17156,11 @@
         <v>654</v>
       </c>
       <c r="S7" s="22"/>
-      <c r="T7" s="34"/>
+      <c r="T7" s="37"/>
       <c r="U7" s="22"/>
-      <c r="V7" s="34"/>
+      <c r="V7" s="37"/>
       <c r="W7" s="22"/>
-      <c r="X7" s="34"/>
+      <c r="X7" s="39"/>
       <c r="Y7" s="22"/>
       <c r="Z7" s="22"/>
       <c r="AA7" s="22"/>
@@ -17151,20 +17185,20 @@
       <c r="H8" s="23"/>
       <c r="I8" s="23"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="22"/>
-      <c r="O8" s="34"/>
+      <c r="O8" s="37"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
-      <c r="T8" s="34"/>
+      <c r="T8" s="37"/>
       <c r="U8" s="22"/>
-      <c r="V8" s="34"/>
+      <c r="V8" s="37"/>
       <c r="W8" s="22"/>
-      <c r="X8" s="34"/>
+      <c r="X8" s="39"/>
       <c r="Y8" s="22"/>
       <c r="Z8" s="22"/>
       <c r="AA8" s="22"/>
@@ -17189,20 +17223,20 @@
       <c r="H9" s="23"/>
       <c r="I9" s="23"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
       <c r="N9" s="22"/>
-      <c r="O9" s="34"/>
+      <c r="O9" s="37"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
-      <c r="T9" s="34"/>
+      <c r="T9" s="37"/>
       <c r="U9" s="22"/>
-      <c r="V9" s="34"/>
+      <c r="V9" s="37"/>
       <c r="W9" s="22"/>
-      <c r="X9" s="34"/>
+      <c r="X9" s="39"/>
       <c r="Y9" s="22"/>
       <c r="Z9" s="22"/>
       <c r="AA9" s="22"/>
@@ -17227,20 +17261,20 @@
       <c r="H10" s="23"/>
       <c r="I10" s="23"/>
       <c r="J10" s="22"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
       <c r="N10" s="22"/>
-      <c r="O10" s="34"/>
+      <c r="O10" s="37"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
-      <c r="T10" s="34"/>
+      <c r="T10" s="37"/>
       <c r="U10" s="22"/>
-      <c r="V10" s="34"/>
+      <c r="V10" s="37"/>
       <c r="W10" s="22"/>
-      <c r="X10" s="34"/>
+      <c r="X10" s="39"/>
       <c r="Y10" s="22"/>
       <c r="Z10" s="22"/>
       <c r="AA10" s="22"/>
@@ -17265,22 +17299,22 @@
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
       <c r="N11" s="22"/>
-      <c r="O11" s="34"/>
+      <c r="O11" s="37"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
-      <c r="T11" s="34" t="s">
+      <c r="T11" s="37" t="s">
         <v>677</v>
       </c>
       <c r="U11" s="22"/>
-      <c r="V11" s="34"/>
+      <c r="V11" s="37"/>
       <c r="W11" s="22"/>
-      <c r="X11" s="34"/>
+      <c r="X11" s="39"/>
       <c r="Y11" s="22"/>
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
@@ -17307,20 +17341,20 @@
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
       <c r="N12" s="22"/>
-      <c r="O12" s="34"/>
+      <c r="O12" s="37"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
-      <c r="T12" s="34"/>
+      <c r="T12" s="37"/>
       <c r="U12" s="22"/>
-      <c r="V12" s="34"/>
+      <c r="V12" s="37"/>
       <c r="W12" s="22"/>
-      <c r="X12" s="34"/>
+      <c r="X12" s="39"/>
       <c r="Y12" s="22"/>
       <c r="Z12" s="22"/>
       <c r="AA12" s="22"/>
@@ -17345,20 +17379,20 @@
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="22"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
-      <c r="T13" s="34"/>
+      <c r="T13" s="37"/>
       <c r="U13" s="22"/>
-      <c r="V13" s="34"/>
+      <c r="V13" s="37"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="34" t="s">
+      <c r="X13" s="39" t="s">
         <v>743</v>
       </c>
       <c r="Y13" s="22"/>
@@ -17385,20 +17419,20 @@
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
       <c r="N14" s="22"/>
-      <c r="O14" s="34"/>
+      <c r="O14" s="37"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
-      <c r="T14" s="34"/>
+      <c r="T14" s="37"/>
       <c r="U14" s="22"/>
-      <c r="V14" s="34"/>
+      <c r="V14" s="37"/>
       <c r="W14" s="22"/>
-      <c r="X14" s="34"/>
+      <c r="X14" s="39"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22" t="s">
         <v>679</v>
@@ -17425,20 +17459,20 @@
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
       <c r="N15" s="22"/>
-      <c r="O15" s="34"/>
+      <c r="O15" s="37"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
-      <c r="T15" s="34"/>
+      <c r="T15" s="37"/>
       <c r="U15" s="22"/>
-      <c r="V15" s="34"/>
+      <c r="V15" s="37"/>
       <c r="W15" s="22"/>
-      <c r="X15" s="34"/>
+      <c r="X15" s="39"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
@@ -17465,22 +17499,22 @@
       <c r="H16" s="23"/>
       <c r="I16" s="23"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
       <c r="N16" s="22"/>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="37" t="s">
         <v>259</v>
       </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
-      <c r="T16" s="34"/>
+      <c r="T16" s="37"/>
       <c r="U16" s="22"/>
-      <c r="V16" s="34"/>
+      <c r="V16" s="37"/>
       <c r="W16" s="22"/>
-      <c r="X16" s="34"/>
+      <c r="X16" s="39"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="22"/>
       <c r="AA16" s="22"/>
@@ -17505,22 +17539,22 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34" t="s">
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37" t="s">
         <v>938</v>
       </c>
       <c r="N17" s="22"/>
-      <c r="O17" s="34"/>
+      <c r="O17" s="37"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
-      <c r="T17" s="34"/>
+      <c r="T17" s="37"/>
       <c r="U17" s="22"/>
-      <c r="V17" s="34"/>
+      <c r="V17" s="37"/>
       <c r="W17" s="22"/>
-      <c r="X17" s="34"/>
+      <c r="X17" s="39"/>
       <c r="Y17" s="22"/>
       <c r="Z17" s="22"/>
       <c r="AA17" s="22"/>
@@ -17545,22 +17579,22 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="22"/>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="37" t="s">
         <v>261</v>
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-      <c r="T18" s="34"/>
+      <c r="T18" s="37"/>
       <c r="U18" s="22"/>
-      <c r="V18" s="34"/>
+      <c r="V18" s="37"/>
       <c r="W18" s="22"/>
-      <c r="X18" s="34"/>
+      <c r="X18" s="39"/>
       <c r="Y18" s="22"/>
       <c r="Z18" s="22"/>
       <c r="AA18" s="22"/>
@@ -17587,20 +17621,20 @@
         <v>1180</v>
       </c>
       <c r="J19" s="22"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
       <c r="N19" s="22"/>
-      <c r="O19" s="34"/>
+      <c r="O19" s="37"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
-      <c r="T19" s="34"/>
+      <c r="T19" s="37"/>
       <c r="U19" s="22"/>
-      <c r="V19" s="34"/>
+      <c r="V19" s="37"/>
       <c r="W19" s="22"/>
-      <c r="X19" s="34"/>
+      <c r="X19" s="39"/>
       <c r="Y19" s="22"/>
       <c r="Z19" s="22"/>
       <c r="AA19" s="22"/>
@@ -17625,22 +17659,22 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
       <c r="N20" s="22"/>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="37" t="s">
         <v>864</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
-      <c r="T20" s="34"/>
+      <c r="T20" s="37"/>
       <c r="U20" s="22"/>
-      <c r="V20" s="34"/>
+      <c r="V20" s="37"/>
       <c r="W20" s="22"/>
-      <c r="X20" s="34"/>
+      <c r="X20" s="39"/>
       <c r="Y20" s="22"/>
       <c r="Z20" s="22"/>
       <c r="AA20" s="22"/>
@@ -17665,22 +17699,22 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="34" t="s">
+      <c r="K21" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
       <c r="N21" s="22"/>
-      <c r="O21" s="34"/>
+      <c r="O21" s="37"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
-      <c r="T21" s="34"/>
+      <c r="T21" s="37"/>
       <c r="U21" s="22"/>
-      <c r="V21" s="34"/>
+      <c r="V21" s="37"/>
       <c r="W21" s="22"/>
-      <c r="X21" s="34"/>
+      <c r="X21" s="39"/>
       <c r="Y21" s="22"/>
       <c r="Z21" s="22"/>
       <c r="AA21" s="22"/>
@@ -17707,11 +17741,11 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
       <c r="N22" s="22"/>
-      <c r="O22" s="34"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="22"/>
       <c r="Q22" s="22" t="s">
         <v>265</v>
@@ -17720,11 +17754,11 @@
         <v>265</v>
       </c>
       <c r="S22" s="22"/>
-      <c r="T22" s="34"/>
+      <c r="T22" s="37"/>
       <c r="U22" s="22"/>
-      <c r="V22" s="34"/>
+      <c r="V22" s="37"/>
       <c r="W22" s="22"/>
-      <c r="X22" s="34"/>
+      <c r="X22" s="39"/>
       <c r="Y22" s="22"/>
       <c r="Z22" s="22"/>
       <c r="AA22" s="22"/>
@@ -17751,11 +17785,11 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
       <c r="N23" s="22"/>
-      <c r="O23" s="34"/>
+      <c r="O23" s="37"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22" t="s">
         <v>266</v>
@@ -17764,11 +17798,11 @@
         <v>266</v>
       </c>
       <c r="S23" s="22"/>
-      <c r="T23" s="34"/>
+      <c r="T23" s="37"/>
       <c r="U23" s="22"/>
-      <c r="V23" s="34"/>
+      <c r="V23" s="37"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="34"/>
+      <c r="X23" s="39"/>
       <c r="Y23" s="22"/>
       <c r="Z23" s="22"/>
       <c r="AA23" s="22"/>
@@ -17795,11 +17829,11 @@
       <c r="H24" s="23"/>
       <c r="I24" s="23"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
       <c r="N24" s="22"/>
-      <c r="O24" s="34"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="22" t="s">
         <v>267</v>
@@ -17808,11 +17842,11 @@
         <v>267</v>
       </c>
       <c r="S24" s="22"/>
-      <c r="T24" s="34"/>
+      <c r="T24" s="37"/>
       <c r="U24" s="22"/>
-      <c r="V24" s="34"/>
+      <c r="V24" s="37"/>
       <c r="W24" s="22"/>
-      <c r="X24" s="34"/>
+      <c r="X24" s="39"/>
       <c r="Y24" s="22"/>
       <c r="Z24" s="22"/>
       <c r="AA24" s="22"/>
@@ -17837,20 +17871,20 @@
       <c r="H25" s="23"/>
       <c r="I25" s="23"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
       <c r="N25" s="22"/>
-      <c r="O25" s="34"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
-      <c r="T25" s="34"/>
+      <c r="T25" s="37"/>
       <c r="U25" s="22"/>
-      <c r="V25" s="34"/>
+      <c r="V25" s="37"/>
       <c r="W25" s="22"/>
-      <c r="X25" s="34"/>
+      <c r="X25" s="39"/>
       <c r="Y25" s="22"/>
       <c r="Z25" s="22"/>
       <c r="AA25" s="22"/>
@@ -17875,22 +17909,22 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="22"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
       <c r="N26" s="22"/>
-      <c r="O26" s="34"/>
+      <c r="O26" s="37"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
-      <c r="T26" s="34"/>
+      <c r="T26" s="37"/>
       <c r="U26" s="22"/>
-      <c r="V26" s="34" t="s">
+      <c r="V26" s="37" t="s">
         <v>678</v>
       </c>
       <c r="W26" s="22"/>
-      <c r="X26" s="34"/>
+      <c r="X26" s="39"/>
       <c r="Y26" s="22"/>
       <c r="Z26" s="22"/>
       <c r="AA26" s="22"/>
@@ -17915,20 +17949,20 @@
       <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="22"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
       <c r="N27" s="22"/>
-      <c r="O27" s="34"/>
+      <c r="O27" s="37"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
-      <c r="T27" s="34"/>
+      <c r="T27" s="37"/>
       <c r="U27" s="22"/>
-      <c r="V27" s="34"/>
+      <c r="V27" s="37"/>
       <c r="W27" s="22"/>
-      <c r="X27" s="34"/>
+      <c r="X27" s="39"/>
       <c r="Y27" s="22"/>
       <c r="Z27" s="22"/>
       <c r="AA27" s="22"/>
@@ -17953,20 +17987,20 @@
       <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="22"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
       <c r="N28" s="22"/>
-      <c r="O28" s="34"/>
+      <c r="O28" s="37"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="34"/>
+      <c r="T28" s="37"/>
       <c r="U28" s="22"/>
-      <c r="V28" s="34"/>
+      <c r="V28" s="37"/>
       <c r="W28" s="22"/>
-      <c r="X28" s="34"/>
+      <c r="X28" s="39"/>
       <c r="Y28" s="22"/>
       <c r="Z28" s="22"/>
       <c r="AA28" s="22"/>
@@ -17991,20 +18025,20 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="22"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
       <c r="N29" s="22"/>
-      <c r="O29" s="34"/>
+      <c r="O29" s="37"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="34"/>
+      <c r="T29" s="37"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="34"/>
+      <c r="V29" s="37"/>
       <c r="W29" s="22"/>
-      <c r="X29" s="34"/>
+      <c r="X29" s="39"/>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
@@ -18029,20 +18063,20 @@
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
       <c r="J30" s="22"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
       <c r="N30" s="22"/>
-      <c r="O30" s="34"/>
+      <c r="O30" s="37"/>
       <c r="P30" s="22"/>
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="34"/>
+      <c r="T30" s="37"/>
       <c r="U30" s="22"/>
-      <c r="V30" s="34"/>
+      <c r="V30" s="37"/>
       <c r="W30" s="22"/>
-      <c r="X30" s="34"/>
+      <c r="X30" s="39"/>
       <c r="Y30" s="22"/>
       <c r="Z30" s="22"/>
       <c r="AA30" s="22"/>
@@ -18071,15 +18105,15 @@
         <v>1181</v>
       </c>
       <c r="J31" s="20"/>
-      <c r="K31" s="34" t="s">
+      <c r="K31" s="37" t="s">
         <v>337</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34" t="s">
+      <c r="L31" s="37"/>
+      <c r="M31" s="37" t="s">
         <v>1258</v>
       </c>
       <c r="N31" s="20"/>
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="37" t="s">
         <v>957</v>
       </c>
       <c r="P31" s="20"/>
@@ -18090,15 +18124,15 @@
         <v>392</v>
       </c>
       <c r="S31" s="20"/>
-      <c r="T31" s="34" t="s">
+      <c r="T31" s="37" t="s">
         <v>445</v>
       </c>
       <c r="U31" s="20"/>
-      <c r="V31" s="34" t="s">
+      <c r="V31" s="37" t="s">
         <v>496</v>
       </c>
       <c r="W31" s="20"/>
-      <c r="X31" s="34" t="s">
+      <c r="X31" s="39" t="s">
         <v>744</v>
       </c>
       <c r="Y31" s="20"/>
@@ -18135,15 +18169,15 @@
         <v>1182</v>
       </c>
       <c r="J32" s="20"/>
-      <c r="K32" s="34" t="s">
+      <c r="K32" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34" t="s">
+      <c r="L32" s="37"/>
+      <c r="M32" s="37" t="s">
         <v>1259</v>
       </c>
       <c r="N32" s="20"/>
-      <c r="O32" s="34" t="s">
+      <c r="O32" s="37" t="s">
         <v>958</v>
       </c>
       <c r="P32" s="20"/>
@@ -18154,15 +18188,15 @@
         <v>393</v>
       </c>
       <c r="S32" s="20"/>
-      <c r="T32" s="34" t="s">
+      <c r="T32" s="37" t="s">
         <v>446</v>
       </c>
       <c r="U32" s="20"/>
-      <c r="V32" s="34" t="s">
+      <c r="V32" s="37" t="s">
         <v>446</v>
       </c>
       <c r="W32" s="20"/>
-      <c r="X32" s="34" t="s">
+      <c r="X32" s="39" t="s">
         <v>745</v>
       </c>
       <c r="Y32" s="20"/>
@@ -18199,15 +18233,15 @@
         <v>1183</v>
       </c>
       <c r="J33" s="20"/>
-      <c r="K33" s="34" t="s">
+      <c r="K33" s="37" t="s">
         <v>338</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34" t="s">
+      <c r="L33" s="37"/>
+      <c r="M33" s="37" t="s">
         <v>1260</v>
       </c>
       <c r="N33" s="20"/>
-      <c r="O33" s="34" t="s">
+      <c r="O33" s="37" t="s">
         <v>959</v>
       </c>
       <c r="P33" s="20"/>
@@ -18218,15 +18252,15 @@
         <v>394</v>
       </c>
       <c r="S33" s="20"/>
-      <c r="T33" s="34" t="s">
+      <c r="T33" s="37" t="s">
         <v>447</v>
       </c>
       <c r="U33" s="20"/>
-      <c r="V33" s="34" t="s">
+      <c r="V33" s="37" t="s">
         <v>447</v>
       </c>
       <c r="W33" s="20"/>
-      <c r="X33" s="34" t="s">
+      <c r="X33" s="39" t="s">
         <v>746</v>
       </c>
       <c r="Y33" s="20"/>
@@ -18263,15 +18297,15 @@
         <v>1184</v>
       </c>
       <c r="J34" s="20"/>
-      <c r="K34" s="34" t="s">
+      <c r="K34" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34" t="s">
+      <c r="L34" s="37"/>
+      <c r="M34" s="37" t="s">
         <v>1261</v>
       </c>
       <c r="N34" s="20"/>
-      <c r="O34" s="34" t="s">
+      <c r="O34" s="37" t="s">
         <v>960</v>
       </c>
       <c r="P34" s="20"/>
@@ -18282,15 +18316,15 @@
         <v>395</v>
       </c>
       <c r="S34" s="20"/>
-      <c r="T34" s="34" t="s">
+      <c r="T34" s="37" t="s">
         <v>448</v>
       </c>
       <c r="U34" s="20"/>
-      <c r="V34" s="34" t="s">
+      <c r="V34" s="37" t="s">
         <v>448</v>
       </c>
       <c r="W34" s="20"/>
-      <c r="X34" s="34" t="s">
+      <c r="X34" s="39" t="s">
         <v>747</v>
       </c>
       <c r="Y34" s="20"/>
@@ -18327,15 +18361,15 @@
         <v>1185</v>
       </c>
       <c r="J35" s="20"/>
-      <c r="K35" s="34" t="s">
+      <c r="K35" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34" t="s">
+      <c r="L35" s="37"/>
+      <c r="M35" s="37" t="s">
         <v>1262</v>
       </c>
       <c r="N35" s="20"/>
-      <c r="O35" s="34" t="s">
+      <c r="O35" s="37" t="s">
         <v>961</v>
       </c>
       <c r="P35" s="20"/>
@@ -18346,15 +18380,15 @@
         <v>396</v>
       </c>
       <c r="S35" s="20"/>
-      <c r="T35" s="34" t="s">
+      <c r="T35" s="37" t="s">
         <v>449</v>
       </c>
       <c r="U35" s="20"/>
-      <c r="V35" s="34" t="s">
+      <c r="V35" s="37" t="s">
         <v>497</v>
       </c>
       <c r="W35" s="20"/>
-      <c r="X35" s="34" t="s">
+      <c r="X35" s="39" t="s">
         <v>748</v>
       </c>
       <c r="Y35" s="20"/>
@@ -18368,7 +18402,7 @@
       <c r="AC35" s="20"/>
       <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="1:30" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>198</v>
       </c>
@@ -18391,15 +18425,15 @@
         <v>1186</v>
       </c>
       <c r="J36" s="20"/>
-      <c r="K36" s="34" t="s">
+      <c r="K36" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34" t="s">
+      <c r="L36" s="37"/>
+      <c r="M36" s="37" t="s">
         <v>1263</v>
       </c>
       <c r="N36" s="20"/>
-      <c r="O36" s="34" t="s">
+      <c r="O36" s="37" t="s">
         <v>962</v>
       </c>
       <c r="P36" s="20"/>
@@ -18410,15 +18444,15 @@
         <v>397</v>
       </c>
       <c r="S36" s="20"/>
-      <c r="T36" s="34" t="s">
+      <c r="T36" s="37" t="s">
         <v>450</v>
       </c>
       <c r="U36" s="20"/>
-      <c r="V36" s="34" t="s">
+      <c r="V36" s="37" t="s">
         <v>498</v>
       </c>
       <c r="W36" s="20"/>
-      <c r="X36" s="34" t="s">
+      <c r="X36" s="39" t="s">
         <v>749</v>
       </c>
       <c r="Y36" s="20"/>
@@ -18432,7 +18466,7 @@
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="1:30" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>198</v>
       </c>
@@ -18455,15 +18489,15 @@
         <v>1187</v>
       </c>
       <c r="J37" s="20"/>
-      <c r="K37" s="34" t="s">
+      <c r="K37" s="37" t="s">
         <v>342</v>
       </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34" t="s">
+      <c r="L37" s="37"/>
+      <c r="M37" s="37" t="s">
         <v>1264</v>
       </c>
       <c r="N37" s="20"/>
-      <c r="O37" s="34" t="s">
+      <c r="O37" s="37" t="s">
         <v>963</v>
       </c>
       <c r="P37" s="20"/>
@@ -18474,15 +18508,15 @@
         <v>398</v>
       </c>
       <c r="S37" s="20"/>
-      <c r="T37" s="34" t="s">
+      <c r="T37" s="37" t="s">
         <v>451</v>
       </c>
       <c r="U37" s="20"/>
-      <c r="V37" s="34" t="s">
+      <c r="V37" s="37" t="s">
         <v>499</v>
       </c>
       <c r="W37" s="20"/>
-      <c r="X37" s="34" t="s">
+      <c r="X37" s="39" t="s">
         <v>750</v>
       </c>
       <c r="Y37" s="20"/>
@@ -18496,7 +18530,7 @@
       <c r="AC37" s="20"/>
       <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="1:30" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>198</v>
       </c>
@@ -18519,15 +18553,15 @@
         <v>1188</v>
       </c>
       <c r="J38" s="20"/>
-      <c r="K38" s="34" t="s">
+      <c r="K38" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34" t="s">
+      <c r="L38" s="37"/>
+      <c r="M38" s="37" t="s">
         <v>1265</v>
       </c>
       <c r="N38" s="20"/>
-      <c r="O38" s="34" t="s">
+      <c r="O38" s="37" t="s">
         <v>964</v>
       </c>
       <c r="P38" s="20"/>
@@ -18538,15 +18572,15 @@
         <v>399</v>
       </c>
       <c r="S38" s="20"/>
-      <c r="T38" s="34" t="s">
+      <c r="T38" s="37" t="s">
         <v>452</v>
       </c>
       <c r="U38" s="20"/>
-      <c r="V38" s="34" t="s">
+      <c r="V38" s="37" t="s">
         <v>500</v>
       </c>
       <c r="W38" s="20"/>
-      <c r="X38" s="34" t="s">
+      <c r="X38" s="39" t="s">
         <v>751</v>
       </c>
       <c r="Y38" s="20"/>
@@ -18583,15 +18617,15 @@
         <v>1189</v>
       </c>
       <c r="J39" s="20"/>
-      <c r="K39" s="34" t="s">
+      <c r="K39" s="37" t="s">
         <v>344</v>
       </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34" t="s">
+      <c r="L39" s="37"/>
+      <c r="M39" s="37" t="s">
         <v>1266</v>
       </c>
       <c r="N39" s="20"/>
-      <c r="O39" s="34" t="s">
+      <c r="O39" s="37" t="s">
         <v>965</v>
       </c>
       <c r="P39" s="20"/>
@@ -18602,15 +18636,15 @@
         <v>400</v>
       </c>
       <c r="S39" s="20"/>
-      <c r="T39" s="34" t="s">
+      <c r="T39" s="37" t="s">
         <v>453</v>
       </c>
       <c r="U39" s="20"/>
-      <c r="V39" s="34" t="s">
+      <c r="V39" s="37" t="s">
         <v>453</v>
       </c>
       <c r="W39" s="20"/>
-      <c r="X39" s="34" t="s">
+      <c r="X39" s="39" t="s">
         <v>752</v>
       </c>
       <c r="Y39" s="20"/>
@@ -18647,15 +18681,15 @@
         <v>1190</v>
       </c>
       <c r="J40" s="20"/>
-      <c r="K40" s="34" t="s">
+      <c r="K40" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34" t="s">
+      <c r="L40" s="37"/>
+      <c r="M40" s="37" t="s">
         <v>1267</v>
       </c>
       <c r="N40" s="20"/>
-      <c r="O40" s="34" t="s">
+      <c r="O40" s="37" t="s">
         <v>966</v>
       </c>
       <c r="P40" s="20"/>
@@ -18666,15 +18700,15 @@
         <v>401</v>
       </c>
       <c r="S40" s="20"/>
-      <c r="T40" s="34" t="s">
+      <c r="T40" s="37" t="s">
         <v>454</v>
       </c>
       <c r="U40" s="20"/>
-      <c r="V40" s="34" t="s">
+      <c r="V40" s="37" t="s">
         <v>454</v>
       </c>
       <c r="W40" s="20"/>
-      <c r="X40" s="34" t="s">
+      <c r="X40" s="39" t="s">
         <v>753</v>
       </c>
       <c r="Y40" s="20"/>
@@ -18711,15 +18745,15 @@
         <v>1191</v>
       </c>
       <c r="J41" s="20"/>
-      <c r="K41" s="34" t="s">
+      <c r="K41" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34" t="s">
+      <c r="L41" s="37"/>
+      <c r="M41" s="37" t="s">
         <v>1268</v>
       </c>
       <c r="N41" s="20"/>
-      <c r="O41" s="34" t="s">
+      <c r="O41" s="37" t="s">
         <v>967</v>
       </c>
       <c r="P41" s="20"/>
@@ -18730,15 +18764,15 @@
         <v>402</v>
       </c>
       <c r="S41" s="20"/>
-      <c r="T41" s="34" t="s">
+      <c r="T41" s="37" t="s">
         <v>402</v>
       </c>
       <c r="U41" s="20"/>
-      <c r="V41" s="34" t="s">
+      <c r="V41" s="37" t="s">
         <v>402</v>
       </c>
       <c r="W41" s="20"/>
-      <c r="X41" s="34" t="s">
+      <c r="X41" s="39" t="s">
         <v>754</v>
       </c>
       <c r="Y41" s="20"/>
@@ -18752,7 +18786,7 @@
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
     </row>
-    <row r="42" spans="1:30" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>198</v>
       </c>
@@ -18775,15 +18809,15 @@
         <v>1192</v>
       </c>
       <c r="J42" s="20"/>
-      <c r="K42" s="34" t="s">
+      <c r="K42" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34" t="s">
+      <c r="L42" s="37"/>
+      <c r="M42" s="37" t="s">
         <v>1269</v>
       </c>
       <c r="N42" s="20"/>
-      <c r="O42" s="34" t="s">
+      <c r="O42" s="37" t="s">
         <v>968</v>
       </c>
       <c r="P42" s="20"/>
@@ -18794,15 +18828,15 @@
         <v>903</v>
       </c>
       <c r="S42" s="20"/>
-      <c r="T42" s="34" t="s">
+      <c r="T42" s="37" t="s">
         <v>1040</v>
       </c>
       <c r="U42" s="20"/>
-      <c r="V42" s="34" t="s">
+      <c r="V42" s="37" t="s">
         <v>1050</v>
       </c>
       <c r="W42" s="20"/>
-      <c r="X42" s="34" t="s">
+      <c r="X42" s="39" t="s">
         <v>911</v>
       </c>
       <c r="Y42" s="20"/>
@@ -18816,7 +18850,7 @@
       <c r="AC42" s="20"/>
       <c r="AD42" s="20"/>
     </row>
-    <row r="43" spans="1:30" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>198</v>
       </c>
@@ -18839,15 +18873,15 @@
         <v>1193</v>
       </c>
       <c r="J43" s="20"/>
-      <c r="K43" s="34" t="s">
+      <c r="K43" s="37" t="s">
         <v>1154</v>
       </c>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34" t="s">
+      <c r="L43" s="37"/>
+      <c r="M43" s="37" t="s">
         <v>1270</v>
       </c>
       <c r="N43" s="20"/>
-      <c r="O43" s="34" t="s">
+      <c r="O43" s="37" t="s">
         <v>1155</v>
       </c>
       <c r="P43" s="20"/>
@@ -18858,15 +18892,15 @@
         <v>1156</v>
       </c>
       <c r="S43" s="20"/>
-      <c r="T43" s="34" t="s">
+      <c r="T43" s="37" t="s">
         <v>455</v>
       </c>
       <c r="U43" s="20"/>
-      <c r="V43" s="34" t="s">
+      <c r="V43" s="37" t="s">
         <v>1157</v>
       </c>
       <c r="W43" s="20"/>
-      <c r="X43" s="34" t="s">
+      <c r="X43" s="39" t="s">
         <v>1159</v>
       </c>
       <c r="Y43" s="20"/>
@@ -18880,7 +18914,7 @@
       <c r="AC43" s="20"/>
       <c r="AD43" s="20"/>
     </row>
-    <row r="44" spans="1:30" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>198</v>
       </c>
@@ -18903,15 +18937,15 @@
         <v>1194</v>
       </c>
       <c r="J44" s="20"/>
-      <c r="K44" s="34" t="s">
+      <c r="K44" s="37" t="s">
         <v>1164</v>
       </c>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34" t="s">
+      <c r="L44" s="37"/>
+      <c r="M44" s="37" t="s">
         <v>1271</v>
       </c>
       <c r="N44" s="20"/>
-      <c r="O44" s="34" t="s">
+      <c r="O44" s="37" t="s">
         <v>1165</v>
       </c>
       <c r="P44" s="20"/>
@@ -18922,15 +18956,15 @@
         <v>1166</v>
       </c>
       <c r="S44" s="20"/>
-      <c r="T44" s="34" t="s">
+      <c r="T44" s="37" t="s">
         <v>1167</v>
       </c>
       <c r="U44" s="20"/>
-      <c r="V44" s="34" t="s">
+      <c r="V44" s="37" t="s">
         <v>1168</v>
       </c>
       <c r="W44" s="20"/>
-      <c r="X44" s="34" t="s">
+      <c r="X44" s="39" t="s">
         <v>1170</v>
       </c>
       <c r="Y44" s="20"/>
@@ -18944,7 +18978,7 @@
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
     </row>
-    <row r="45" spans="1:30" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>198</v>
       </c>
@@ -18967,15 +19001,15 @@
         <v>1195</v>
       </c>
       <c r="J45" s="20"/>
-      <c r="K45" s="34" t="s">
+      <c r="K45" s="37" t="s">
         <v>941</v>
       </c>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34" t="s">
+      <c r="L45" s="37"/>
+      <c r="M45" s="37" t="s">
         <v>1272</v>
       </c>
       <c r="N45" s="20"/>
-      <c r="O45" s="34" t="s">
+      <c r="O45" s="37" t="s">
         <v>969</v>
       </c>
       <c r="P45" s="20"/>
@@ -18986,15 +19020,15 @@
         <v>1031</v>
       </c>
       <c r="S45" s="20"/>
-      <c r="T45" s="34" t="s">
+      <c r="T45" s="37" t="s">
         <v>1041</v>
       </c>
       <c r="U45" s="20"/>
-      <c r="V45" s="34" t="s">
+      <c r="V45" s="37" t="s">
         <v>1051</v>
       </c>
       <c r="W45" s="20"/>
-      <c r="X45" s="34" t="s">
+      <c r="X45" s="39" t="s">
         <v>912</v>
       </c>
       <c r="Y45" s="20"/>
@@ -19031,15 +19065,15 @@
         <v>1196</v>
       </c>
       <c r="J46" s="20"/>
-      <c r="K46" s="34" t="s">
+      <c r="K46" s="37" t="s">
         <v>347</v>
       </c>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34" t="s">
+      <c r="L46" s="37"/>
+      <c r="M46" s="37" t="s">
         <v>1273</v>
       </c>
       <c r="N46" s="20"/>
-      <c r="O46" s="34" t="s">
+      <c r="O46" s="37" t="s">
         <v>970</v>
       </c>
       <c r="P46" s="20"/>
@@ -19050,15 +19084,15 @@
         <v>403</v>
       </c>
       <c r="S46" s="20"/>
-      <c r="T46" s="34" t="s">
+      <c r="T46" s="37" t="s">
         <v>403</v>
       </c>
       <c r="U46" s="20"/>
-      <c r="V46" s="34" t="s">
+      <c r="V46" s="37" t="s">
         <v>403</v>
       </c>
       <c r="W46" s="20"/>
-      <c r="X46" s="34" t="s">
+      <c r="X46" s="39" t="s">
         <v>755</v>
       </c>
       <c r="Y46" s="20"/>
@@ -19072,7 +19106,7 @@
       <c r="AC46" s="20"/>
       <c r="AD46" s="20"/>
     </row>
-    <row r="47" spans="1:30" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>198</v>
       </c>
@@ -19095,15 +19129,15 @@
         <v>1325</v>
       </c>
       <c r="J47" s="20"/>
-      <c r="K47" s="34" t="s">
+      <c r="K47" s="37" t="s">
         <v>1153</v>
       </c>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34" t="s">
+      <c r="L47" s="37"/>
+      <c r="M47" s="37" t="s">
         <v>1326</v>
       </c>
       <c r="N47" s="20"/>
-      <c r="O47" s="34" t="s">
+      <c r="O47" s="37" t="s">
         <v>1152</v>
       </c>
       <c r="P47" s="20"/>
@@ -19114,15 +19148,15 @@
         <v>1151</v>
       </c>
       <c r="S47" s="20"/>
-      <c r="T47" s="34" t="s">
+      <c r="T47" s="37" t="s">
         <v>1150</v>
       </c>
       <c r="U47" s="20"/>
-      <c r="V47" s="34" t="s">
+      <c r="V47" s="37" t="s">
         <v>1150</v>
       </c>
       <c r="W47" s="20"/>
-      <c r="X47" s="34" t="s">
+      <c r="X47" s="39" t="s">
         <v>1147</v>
       </c>
       <c r="Y47" s="20"/>
@@ -19159,15 +19193,15 @@
         <v>1197</v>
       </c>
       <c r="J48" s="20"/>
-      <c r="K48" s="34" t="s">
+      <c r="K48" s="37" t="s">
         <v>942</v>
       </c>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34" t="s">
+      <c r="L48" s="37"/>
+      <c r="M48" s="37" t="s">
         <v>930</v>
       </c>
       <c r="N48" s="20"/>
-      <c r="O48" s="34" t="s">
+      <c r="O48" s="37" t="s">
         <v>971</v>
       </c>
       <c r="P48" s="20"/>
@@ -19178,15 +19212,15 @@
         <v>1032</v>
       </c>
       <c r="S48" s="20"/>
-      <c r="T48" s="34" t="s">
+      <c r="T48" s="37" t="s">
         <v>1032</v>
       </c>
       <c r="U48" s="20"/>
-      <c r="V48" s="34" t="s">
+      <c r="V48" s="37" t="s">
         <v>1032</v>
       </c>
       <c r="W48" s="20"/>
-      <c r="X48" s="34" t="s">
+      <c r="X48" s="39" t="s">
         <v>1096</v>
       </c>
       <c r="Y48" s="20"/>
@@ -19223,15 +19257,15 @@
         <v>1198</v>
       </c>
       <c r="J49" s="20"/>
-      <c r="K49" s="34" t="s">
+      <c r="K49" s="37" t="s">
         <v>943</v>
       </c>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34" t="s">
+      <c r="L49" s="37"/>
+      <c r="M49" s="37" t="s">
         <v>1274</v>
       </c>
       <c r="N49" s="20"/>
-      <c r="O49" s="34" t="s">
+      <c r="O49" s="37" t="s">
         <v>972</v>
       </c>
       <c r="P49" s="20"/>
@@ -19242,15 +19276,15 @@
         <v>1033</v>
       </c>
       <c r="S49" s="20"/>
-      <c r="T49" s="34" t="s">
+      <c r="T49" s="37" t="s">
         <v>1042</v>
       </c>
       <c r="U49" s="20"/>
-      <c r="V49" s="34" t="s">
+      <c r="V49" s="37" t="s">
         <v>1042</v>
       </c>
       <c r="W49" s="20"/>
-      <c r="X49" s="34" t="s">
+      <c r="X49" s="39" t="s">
         <v>1097</v>
       </c>
       <c r="Y49" s="20"/>
@@ -19287,15 +19321,15 @@
         <v>1199</v>
       </c>
       <c r="J50" s="20"/>
-      <c r="K50" s="34" t="s">
+      <c r="K50" s="37" t="s">
         <v>944</v>
       </c>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34" t="s">
+      <c r="L50" s="37"/>
+      <c r="M50" s="37" t="s">
         <v>1275</v>
       </c>
       <c r="N50" s="20"/>
-      <c r="O50" s="34" t="s">
+      <c r="O50" s="37" t="s">
         <v>973</v>
       </c>
       <c r="P50" s="20"/>
@@ -19306,15 +19340,15 @@
         <v>1034</v>
       </c>
       <c r="S50" s="20"/>
-      <c r="T50" s="34" t="s">
+      <c r="T50" s="37" t="s">
         <v>1043</v>
       </c>
       <c r="U50" s="20"/>
-      <c r="V50" s="34" t="s">
+      <c r="V50" s="37" t="s">
         <v>1052</v>
       </c>
       <c r="W50" s="20"/>
-      <c r="X50" s="34" t="s">
+      <c r="X50" s="39" t="s">
         <v>1098</v>
       </c>
       <c r="Y50" s="20"/>
@@ -19351,15 +19385,15 @@
         <v>1200</v>
       </c>
       <c r="J51" s="20"/>
-      <c r="K51" s="34" t="s">
+      <c r="K51" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34" t="s">
+      <c r="L51" s="37"/>
+      <c r="M51" s="37" t="s">
         <v>1276</v>
       </c>
       <c r="N51" s="20"/>
-      <c r="O51" s="34" t="s">
+      <c r="O51" s="37" t="s">
         <v>974</v>
       </c>
       <c r="P51" s="20"/>
@@ -19370,15 +19404,15 @@
         <v>404</v>
       </c>
       <c r="S51" s="20"/>
-      <c r="T51" s="34" t="s">
+      <c r="T51" s="37" t="s">
         <v>456</v>
       </c>
       <c r="U51" s="20"/>
-      <c r="V51" s="34" t="s">
+      <c r="V51" s="37" t="s">
         <v>456</v>
       </c>
       <c r="W51" s="20"/>
-      <c r="X51" s="34" t="s">
+      <c r="X51" s="39" t="s">
         <v>756</v>
       </c>
       <c r="Y51" s="20"/>
@@ -19415,15 +19449,15 @@
         <v>1201</v>
       </c>
       <c r="J52" s="22"/>
-      <c r="K52" s="34" t="s">
+      <c r="K52" s="37" t="s">
         <v>945</v>
       </c>
-      <c r="L52" s="34"/>
-      <c r="M52" s="34" t="s">
+      <c r="L52" s="37"/>
+      <c r="M52" s="37" t="s">
         <v>1277</v>
       </c>
       <c r="N52" s="22"/>
-      <c r="O52" s="34" t="s">
+      <c r="O52" s="37" t="s">
         <v>975</v>
       </c>
       <c r="P52" s="22"/>
@@ -19434,15 +19468,15 @@
         <v>638</v>
       </c>
       <c r="S52" s="22"/>
-      <c r="T52" s="34" t="s">
+      <c r="T52" s="37" t="s">
         <v>1044</v>
       </c>
       <c r="U52" s="22"/>
-      <c r="V52" s="34" t="s">
+      <c r="V52" s="37" t="s">
         <v>637</v>
       </c>
       <c r="W52" s="22"/>
-      <c r="X52" s="34" t="s">
+      <c r="X52" s="39" t="s">
         <v>1099</v>
       </c>
       <c r="Y52" s="22"/>
@@ -19479,15 +19513,15 @@
         <v>1202</v>
       </c>
       <c r="J53" s="22"/>
-      <c r="K53" s="34" t="s">
+      <c r="K53" s="37" t="s">
         <v>946</v>
       </c>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34" t="s">
+      <c r="L53" s="37"/>
+      <c r="M53" s="37" t="s">
         <v>1278</v>
       </c>
       <c r="N53" s="22"/>
-      <c r="O53" s="34" t="s">
+      <c r="O53" s="37" t="s">
         <v>976</v>
       </c>
       <c r="P53" s="22"/>
@@ -19498,15 +19532,15 @@
         <v>645</v>
       </c>
       <c r="S53" s="22"/>
-      <c r="T53" s="34" t="s">
+      <c r="T53" s="37" t="s">
         <v>644</v>
       </c>
       <c r="U53" s="22"/>
-      <c r="V53" s="34" t="s">
+      <c r="V53" s="37" t="s">
         <v>1053</v>
       </c>
       <c r="W53" s="22"/>
-      <c r="X53" s="34" t="s">
+      <c r="X53" s="39" t="s">
         <v>757</v>
       </c>
       <c r="Y53" s="22"/>
@@ -19543,15 +19577,15 @@
         <v>1203</v>
       </c>
       <c r="J54" s="22"/>
-      <c r="K54" s="34" t="s">
+      <c r="K54" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34" t="s">
+      <c r="L54" s="37"/>
+      <c r="M54" s="37" t="s">
         <v>1279</v>
       </c>
       <c r="N54" s="22"/>
-      <c r="O54" s="34" t="s">
+      <c r="O54" s="37" t="s">
         <v>977</v>
       </c>
       <c r="P54" s="22"/>
@@ -19562,15 +19596,15 @@
         <v>642</v>
       </c>
       <c r="S54" s="22"/>
-      <c r="T54" s="34" t="s">
+      <c r="T54" s="37" t="s">
         <v>641</v>
       </c>
       <c r="U54" s="22"/>
-      <c r="V54" s="34" t="s">
+      <c r="V54" s="37" t="s">
         <v>641</v>
       </c>
       <c r="W54" s="22"/>
-      <c r="X54" s="34" t="s">
+      <c r="X54" s="39" t="s">
         <v>758</v>
       </c>
       <c r="Y54" s="22"/>
@@ -19607,15 +19641,15 @@
         <v>1204</v>
       </c>
       <c r="J55" s="22"/>
-      <c r="K55" s="34" t="s">
+      <c r="K55" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34" t="s">
+      <c r="L55" s="37"/>
+      <c r="M55" s="37" t="s">
         <v>1280</v>
       </c>
       <c r="N55" s="22"/>
-      <c r="O55" s="34" t="s">
+      <c r="O55" s="37" t="s">
         <v>978</v>
       </c>
       <c r="P55" s="22"/>
@@ -19626,15 +19660,15 @@
         <v>406</v>
       </c>
       <c r="S55" s="22"/>
-      <c r="T55" s="34" t="s">
+      <c r="T55" s="37" t="s">
         <v>458</v>
       </c>
       <c r="U55" s="22"/>
-      <c r="V55" s="34" t="s">
+      <c r="V55" s="37" t="s">
         <v>458</v>
       </c>
       <c r="W55" s="22"/>
-      <c r="X55" s="34" t="s">
+      <c r="X55" s="39" t="s">
         <v>759</v>
       </c>
       <c r="Y55" s="22"/>
@@ -19648,7 +19682,7 @@
       <c r="AC55" s="22"/>
       <c r="AD55" s="22"/>
     </row>
-    <row r="56" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>197</v>
       </c>
@@ -19668,42 +19702,42 @@
       </c>
       <c r="H56" s="23"/>
       <c r="I56" s="23" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="J56" s="22"/>
-      <c r="K56" s="34" t="s">
+      <c r="K56" s="37" t="s">
         <v>947</v>
       </c>
-      <c r="L56" s="34"/>
-      <c r="M56" s="34" t="s">
-        <v>1344</v>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37" t="s">
+        <v>1343</v>
       </c>
       <c r="N56" s="22"/>
-      <c r="O56" s="34" t="s">
-        <v>1352</v>
+      <c r="O56" s="37" t="s">
+        <v>1351</v>
       </c>
       <c r="P56" s="22"/>
       <c r="Q56" s="22" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="R56" s="22" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="S56" s="22"/>
-      <c r="T56" s="34" t="s">
-        <v>1367</v>
+      <c r="T56" s="37" t="s">
+        <v>1366</v>
       </c>
       <c r="U56" s="22"/>
-      <c r="V56" s="34" t="s">
-        <v>1367</v>
+      <c r="V56" s="37" t="s">
+        <v>1366</v>
       </c>
       <c r="W56" s="22"/>
-      <c r="X56" s="34" t="s">
-        <v>1374</v>
+      <c r="X56" s="39" t="s">
+        <v>1373</v>
       </c>
       <c r="Y56" s="22"/>
       <c r="Z56" s="22" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="AA56" s="22"/>
       <c r="AB56" s="22" t="s">
@@ -19728,22 +19762,22 @@
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22" t="s">
-        <v>1328</v>
+        <v>1397</v>
       </c>
       <c r="H57" s="23"/>
       <c r="I57" s="23" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="J57" s="22"/>
-      <c r="K57" s="34" t="s">
+      <c r="K57" s="37" t="s">
         <v>948</v>
       </c>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34" t="s">
+      <c r="L57" s="37"/>
+      <c r="M57" s="37" t="s">
         <v>1281</v>
       </c>
       <c r="N57" s="22"/>
-      <c r="O57" s="34" t="s">
+      <c r="O57" s="37" t="s">
         <v>979</v>
       </c>
       <c r="P57" s="22"/>
@@ -19751,19 +19785,19 @@
         <v>899</v>
       </c>
       <c r="R57" s="22" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="S57" s="22"/>
-      <c r="T57" s="34" t="s">
+      <c r="T57" s="37" t="s">
         <v>1045</v>
       </c>
       <c r="U57" s="22"/>
-      <c r="V57" s="34" t="s">
+      <c r="V57" s="37" t="s">
         <v>1054</v>
       </c>
       <c r="W57" s="22"/>
-      <c r="X57" s="34" t="s">
-        <v>1375</v>
+      <c r="X57" s="39" t="s">
+        <v>1374</v>
       </c>
       <c r="Y57" s="22"/>
       <c r="Z57" s="22" t="s">
@@ -19771,7 +19805,7 @@
       </c>
       <c r="AA57" s="22"/>
       <c r="AB57" s="22" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="AC57" s="22"/>
       <c r="AD57" s="22"/>
@@ -19792,42 +19826,42 @@
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="H58" s="23"/>
       <c r="I58" s="23" t="s">
         <v>1205</v>
       </c>
       <c r="J58" s="22"/>
-      <c r="K58" s="34" t="s">
+      <c r="K58" s="37" t="s">
         <v>949</v>
       </c>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34" t="s">
-        <v>1345</v>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37" t="s">
+        <v>1344</v>
       </c>
       <c r="N58" s="22"/>
-      <c r="O58" s="34" t="s">
-        <v>1353</v>
+      <c r="O58" s="37" t="s">
+        <v>1352</v>
       </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22" t="s">
         <v>900</v>
       </c>
       <c r="R58" s="22" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="S58" s="22"/>
-      <c r="T58" s="34" t="s">
-        <v>1368</v>
+      <c r="T58" s="37" t="s">
+        <v>1367</v>
       </c>
       <c r="U58" s="22"/>
-      <c r="V58" s="34" t="s">
+      <c r="V58" s="37" t="s">
         <v>1055</v>
       </c>
       <c r="W58" s="22"/>
-      <c r="X58" s="34" t="s">
-        <v>1376</v>
+      <c r="X58" s="39" t="s">
+        <v>1375</v>
       </c>
       <c r="Y58" s="22"/>
       <c r="Z58" s="22" t="s">
@@ -19835,12 +19869,12 @@
       </c>
       <c r="AA58" s="22"/>
       <c r="AB58" s="22" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="AC58" s="22"/>
       <c r="AD58" s="22"/>
     </row>
-    <row r="59" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>197</v>
       </c>
@@ -19856,41 +19890,41 @@
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H59" s="23"/>
       <c r="I59" s="23" t="s">
         <v>1206</v>
       </c>
       <c r="J59" s="22"/>
-      <c r="K59" s="34" t="s">
+      <c r="K59" s="37" t="s">
         <v>950</v>
       </c>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34" t="s">
-        <v>1346</v>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37" t="s">
+        <v>1345</v>
       </c>
       <c r="N59" s="22"/>
-      <c r="O59" s="34" t="s">
+      <c r="O59" s="37" t="s">
         <v>980</v>
       </c>
       <c r="P59" s="22"/>
       <c r="Q59" s="22" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="R59" s="22" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="S59" s="22"/>
-      <c r="T59" s="34" t="s">
-        <v>1369</v>
+      <c r="T59" s="37" t="s">
+        <v>1368</v>
       </c>
       <c r="U59" s="22"/>
-      <c r="V59" s="34" t="s">
+      <c r="V59" s="37" t="s">
         <v>1056</v>
       </c>
       <c r="W59" s="22"/>
-      <c r="X59" s="34" t="s">
+      <c r="X59" s="39" t="s">
         <v>913</v>
       </c>
       <c r="Y59" s="22"/>
@@ -19899,7 +19933,7 @@
       </c>
       <c r="AA59" s="22"/>
       <c r="AB59" s="22" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="AC59" s="22"/>
       <c r="AD59" s="22"/>
@@ -19927,15 +19961,15 @@
         <v>1207</v>
       </c>
       <c r="J60" s="22"/>
-      <c r="K60" s="34" t="s">
+      <c r="K60" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34" t="s">
+      <c r="L60" s="37"/>
+      <c r="M60" s="37" t="s">
         <v>1282</v>
       </c>
       <c r="N60" s="22"/>
-      <c r="O60" s="34" t="s">
+      <c r="O60" s="37" t="s">
         <v>981</v>
       </c>
       <c r="P60" s="22"/>
@@ -19946,15 +19980,15 @@
         <v>407</v>
       </c>
       <c r="S60" s="22"/>
-      <c r="T60" s="34" t="s">
+      <c r="T60" s="37" t="s">
         <v>459</v>
       </c>
       <c r="U60" s="22"/>
-      <c r="V60" s="34" t="s">
+      <c r="V60" s="37" t="s">
         <v>46</v>
       </c>
       <c r="W60" s="22"/>
-      <c r="X60" s="34" t="s">
+      <c r="X60" s="39" t="s">
         <v>760</v>
       </c>
       <c r="Y60" s="22"/>
@@ -19991,15 +20025,15 @@
         <v>1208</v>
       </c>
       <c r="J61" s="22"/>
-      <c r="K61" s="34" t="s">
+      <c r="K61" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34" t="s">
+      <c r="L61" s="37"/>
+      <c r="M61" s="37" t="s">
         <v>1283</v>
       </c>
       <c r="N61" s="22"/>
-      <c r="O61" s="34" t="s">
+      <c r="O61" s="37" t="s">
         <v>982</v>
       </c>
       <c r="P61" s="22"/>
@@ -20010,15 +20044,15 @@
         <v>408</v>
       </c>
       <c r="S61" s="22"/>
-      <c r="T61" s="34" t="s">
+      <c r="T61" s="37" t="s">
         <v>460</v>
       </c>
       <c r="U61" s="22"/>
-      <c r="V61" s="34" t="s">
+      <c r="V61" s="37" t="s">
         <v>502</v>
       </c>
       <c r="W61" s="22"/>
-      <c r="X61" s="34" t="s">
+      <c r="X61" s="39" t="s">
         <v>761</v>
       </c>
       <c r="Y61" s="22"/>
@@ -20032,7 +20066,7 @@
       <c r="AC61" s="22"/>
       <c r="AD61" s="22"/>
     </row>
-    <row r="62" spans="1:30" ht="210" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" ht="231" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>197</v>
       </c>
@@ -20055,15 +20089,15 @@
         <v>1209</v>
       </c>
       <c r="J62" s="22"/>
-      <c r="K62" s="34" t="s">
+      <c r="K62" s="37" t="s">
         <v>951</v>
       </c>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34" t="s">
+      <c r="L62" s="37"/>
+      <c r="M62" s="37" t="s">
         <v>1284</v>
       </c>
       <c r="N62" s="22"/>
-      <c r="O62" s="34" t="s">
+      <c r="O62" s="37" t="s">
         <v>983</v>
       </c>
       <c r="P62" s="22"/>
@@ -20074,15 +20108,15 @@
         <v>1035</v>
       </c>
       <c r="S62" s="22"/>
-      <c r="T62" s="34" t="s">
+      <c r="T62" s="37" t="s">
         <v>1046</v>
       </c>
       <c r="U62" s="22"/>
-      <c r="V62" s="34" t="s">
+      <c r="V62" s="37" t="s">
         <v>1057</v>
       </c>
       <c r="W62" s="22"/>
-      <c r="X62" s="34" t="s">
+      <c r="X62" s="39" t="s">
         <v>1100</v>
       </c>
       <c r="Y62" s="22"/>
@@ -20112,46 +20146,46 @@
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="H63" s="23"/>
       <c r="I63" s="23" t="s">
         <v>1210</v>
       </c>
       <c r="J63" s="22"/>
-      <c r="K63" s="34" t="s">
-        <v>1339</v>
-      </c>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34" t="s">
-        <v>1347</v>
+      <c r="K63" s="37" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37" t="s">
+        <v>1346</v>
       </c>
       <c r="N63" s="22"/>
-      <c r="O63" s="34" t="s">
+      <c r="O63" s="37" t="s">
         <v>984</v>
       </c>
       <c r="P63" s="22"/>
       <c r="Q63" s="22" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="R63" s="22" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="S63" s="22"/>
-      <c r="T63" s="34" t="s">
+      <c r="T63" s="37" t="s">
         <v>1058</v>
       </c>
       <c r="U63" s="22"/>
-      <c r="V63" s="34" t="s">
+      <c r="V63" s="37" t="s">
         <v>1058</v>
       </c>
       <c r="W63" s="22"/>
-      <c r="X63" s="34" t="s">
-        <v>1377</v>
+      <c r="X63" s="39" t="s">
+        <v>1376</v>
       </c>
       <c r="Y63" s="22"/>
       <c r="Z63" s="22" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="AA63" s="22"/>
       <c r="AB63" s="22" t="s">
@@ -20160,7 +20194,7 @@
       <c r="AC63" s="22"/>
       <c r="AD63" s="22"/>
     </row>
-    <row r="64" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" ht="66" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>197</v>
       </c>
@@ -20183,15 +20217,15 @@
         <v>1211</v>
       </c>
       <c r="J64" s="22"/>
-      <c r="K64" s="34" t="s">
+      <c r="K64" s="37" t="s">
         <v>352</v>
       </c>
-      <c r="L64" s="34"/>
-      <c r="M64" s="34" t="s">
+      <c r="L64" s="37"/>
+      <c r="M64" s="37" t="s">
         <v>1285</v>
       </c>
       <c r="N64" s="22"/>
-      <c r="O64" s="34" t="s">
+      <c r="O64" s="37" t="s">
         <v>985</v>
       </c>
       <c r="P64" s="22"/>
@@ -20202,15 +20236,15 @@
         <v>409</v>
       </c>
       <c r="S64" s="22"/>
-      <c r="T64" s="34" t="s">
+      <c r="T64" s="37" t="s">
         <v>461</v>
       </c>
       <c r="U64" s="22"/>
-      <c r="V64" s="34" t="s">
+      <c r="V64" s="37" t="s">
         <v>503</v>
       </c>
       <c r="W64" s="22"/>
-      <c r="X64" s="34" t="s">
+      <c r="X64" s="39" t="s">
         <v>762</v>
       </c>
       <c r="Y64" s="22"/>
@@ -20240,42 +20274,42 @@
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="H65" s="23"/>
       <c r="I65" s="23" t="s">
         <v>1212</v>
       </c>
       <c r="J65" s="22"/>
-      <c r="K65" s="34" t="s">
-        <v>1340</v>
-      </c>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34" t="s">
-        <v>1348</v>
+      <c r="K65" s="37" t="s">
+        <v>1339</v>
+      </c>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37" t="s">
+        <v>1347</v>
       </c>
       <c r="N65" s="22"/>
-      <c r="O65" s="34" t="s">
+      <c r="O65" s="37" t="s">
         <v>986</v>
       </c>
       <c r="P65" s="22"/>
       <c r="Q65" s="22" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="R65" s="22" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="S65" s="22"/>
-      <c r="T65" s="34" t="s">
-        <v>1370</v>
+      <c r="T65" s="37" t="s">
+        <v>1369</v>
       </c>
       <c r="U65" s="22"/>
-      <c r="V65" s="34" t="s">
+      <c r="V65" s="37" t="s">
         <v>1059</v>
       </c>
       <c r="W65" s="22"/>
-      <c r="X65" s="34" t="s">
-        <v>1379</v>
+      <c r="X65" s="39" t="s">
+        <v>1378</v>
       </c>
       <c r="Y65" s="22"/>
       <c r="Z65" s="22" t="s">
@@ -20288,7 +20322,7 @@
       <c r="AC65" s="22"/>
       <c r="AD65" s="22"/>
     </row>
-    <row r="66" spans="1:30" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" ht="66" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>197</v>
       </c>
@@ -20311,15 +20345,15 @@
         <v>1213</v>
       </c>
       <c r="J66" s="22"/>
-      <c r="K66" s="34" t="s">
+      <c r="K66" s="37" t="s">
         <v>353</v>
       </c>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34" t="s">
+      <c r="L66" s="37"/>
+      <c r="M66" s="37" t="s">
         <v>1286</v>
       </c>
       <c r="N66" s="22"/>
-      <c r="O66" s="34" t="s">
+      <c r="O66" s="37" t="s">
         <v>987</v>
       </c>
       <c r="P66" s="22"/>
@@ -20330,15 +20364,15 @@
         <v>410</v>
       </c>
       <c r="S66" s="22"/>
-      <c r="T66" s="34" t="s">
+      <c r="T66" s="37" t="s">
         <v>462</v>
       </c>
       <c r="U66" s="22"/>
-      <c r="V66" s="34" t="s">
+      <c r="V66" s="37" t="s">
         <v>504</v>
       </c>
       <c r="W66" s="22"/>
-      <c r="X66" s="34" t="s">
+      <c r="X66" s="39" t="s">
         <v>763</v>
       </c>
       <c r="Y66" s="22"/>
@@ -20375,15 +20409,15 @@
         <v>1214</v>
       </c>
       <c r="J67" s="22"/>
-      <c r="K67" s="34" t="s">
+      <c r="K67" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34" t="s">
+      <c r="L67" s="37"/>
+      <c r="M67" s="37" t="s">
         <v>1287</v>
       </c>
       <c r="N67" s="22"/>
-      <c r="O67" s="34" t="s">
+      <c r="O67" s="37" t="s">
         <v>988</v>
       </c>
       <c r="P67" s="22"/>
@@ -20394,15 +20428,15 @@
         <v>411</v>
       </c>
       <c r="S67" s="22"/>
-      <c r="T67" s="34" t="s">
+      <c r="T67" s="37" t="s">
         <v>463</v>
       </c>
       <c r="U67" s="22"/>
-      <c r="V67" s="34" t="s">
+      <c r="V67" s="37" t="s">
         <v>505</v>
       </c>
       <c r="W67" s="22"/>
-      <c r="X67" s="34" t="s">
+      <c r="X67" s="39" t="s">
         <v>764</v>
       </c>
       <c r="Y67" s="22"/>
@@ -20416,7 +20450,7 @@
       <c r="AC67" s="22"/>
       <c r="AD67" s="22"/>
     </row>
-    <row r="68" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>197</v>
       </c>
@@ -20439,15 +20473,15 @@
         <v>1215</v>
       </c>
       <c r="J68" s="22"/>
-      <c r="K68" s="34" t="s">
+      <c r="K68" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="L68" s="34"/>
-      <c r="M68" s="34" t="s">
+      <c r="L68" s="37"/>
+      <c r="M68" s="37" t="s">
         <v>1288</v>
       </c>
       <c r="N68" s="22"/>
-      <c r="O68" s="34" t="s">
+      <c r="O68" s="37" t="s">
         <v>989</v>
       </c>
       <c r="P68" s="22"/>
@@ -20458,15 +20492,15 @@
         <v>1036</v>
       </c>
       <c r="S68" s="22"/>
-      <c r="T68" s="34" t="s">
+      <c r="T68" s="37" t="s">
         <v>1047</v>
       </c>
       <c r="U68" s="22"/>
-      <c r="V68" s="34" t="s">
+      <c r="V68" s="37" t="s">
         <v>1060</v>
       </c>
       <c r="W68" s="22"/>
-      <c r="X68" s="34" t="s">
+      <c r="X68" s="39" t="s">
         <v>1101</v>
       </c>
       <c r="Y68" s="22"/>
@@ -20503,15 +20537,15 @@
         <v>1216</v>
       </c>
       <c r="J69" s="22"/>
-      <c r="K69" s="34" t="s">
+      <c r="K69" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34" t="s">
+      <c r="L69" s="37"/>
+      <c r="M69" s="37" t="s">
         <v>1289</v>
       </c>
       <c r="N69" s="22"/>
-      <c r="O69" s="34" t="s">
+      <c r="O69" s="37" t="s">
         <v>990</v>
       </c>
       <c r="P69" s="22"/>
@@ -20522,15 +20556,15 @@
         <v>412</v>
       </c>
       <c r="S69" s="22"/>
-      <c r="T69" s="34" t="s">
+      <c r="T69" s="37" t="s">
         <v>464</v>
       </c>
       <c r="U69" s="22"/>
-      <c r="V69" s="34" t="s">
+      <c r="V69" s="37" t="s">
         <v>464</v>
       </c>
       <c r="W69" s="22"/>
-      <c r="X69" s="34" t="s">
+      <c r="X69" s="39" t="s">
         <v>765</v>
       </c>
       <c r="Y69" s="22"/>
@@ -20567,15 +20601,15 @@
         <v>1217</v>
       </c>
       <c r="J70" s="22"/>
-      <c r="K70" s="34" t="s">
+      <c r="K70" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34" t="s">
+      <c r="L70" s="37"/>
+      <c r="M70" s="37" t="s">
         <v>1290</v>
       </c>
       <c r="N70" s="22"/>
-      <c r="O70" s="34" t="s">
+      <c r="O70" s="37" t="s">
         <v>991</v>
       </c>
       <c r="P70" s="22"/>
@@ -20586,15 +20620,15 @@
         <v>413</v>
       </c>
       <c r="S70" s="22"/>
-      <c r="T70" s="34" t="s">
+      <c r="T70" s="37" t="s">
         <v>465</v>
       </c>
       <c r="U70" s="22"/>
-      <c r="V70" s="34" t="s">
+      <c r="V70" s="37" t="s">
         <v>413</v>
       </c>
       <c r="W70" s="22"/>
-      <c r="X70" s="34" t="s">
+      <c r="X70" s="39" t="s">
         <v>766</v>
       </c>
       <c r="Y70" s="22"/>
@@ -20608,7 +20642,7 @@
       <c r="AC70" s="22"/>
       <c r="AD70" s="22"/>
     </row>
-    <row r="71" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>197</v>
       </c>
@@ -20631,15 +20665,15 @@
         <v>1218</v>
       </c>
       <c r="J71" s="22"/>
-      <c r="K71" s="34" t="s">
+      <c r="K71" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34" t="s">
+      <c r="L71" s="37"/>
+      <c r="M71" s="37" t="s">
         <v>1291</v>
       </c>
       <c r="N71" s="22"/>
-      <c r="O71" s="34" t="s">
+      <c r="O71" s="37" t="s">
         <v>992</v>
       </c>
       <c r="P71" s="22"/>
@@ -20650,15 +20684,15 @@
         <v>414</v>
       </c>
       <c r="S71" s="22"/>
-      <c r="T71" s="34" t="s">
+      <c r="T71" s="37" t="s">
         <v>466</v>
       </c>
       <c r="U71" s="22"/>
-      <c r="V71" s="34" t="s">
+      <c r="V71" s="37" t="s">
         <v>506</v>
       </c>
       <c r="W71" s="22"/>
-      <c r="X71" s="34" t="s">
+      <c r="X71" s="39" t="s">
         <v>767</v>
       </c>
       <c r="Y71" s="22"/>
@@ -20672,7 +20706,7 @@
       <c r="AC71" s="22"/>
       <c r="AD71" s="22"/>
     </row>
-    <row r="72" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>197</v>
       </c>
@@ -20695,15 +20729,15 @@
         <v>1219</v>
       </c>
       <c r="J72" s="22"/>
-      <c r="K72" s="34" t="s">
+      <c r="K72" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34" t="s">
+      <c r="L72" s="37"/>
+      <c r="M72" s="37" t="s">
         <v>1292</v>
       </c>
       <c r="N72" s="22"/>
-      <c r="O72" s="34" t="s">
+      <c r="O72" s="37" t="s">
         <v>993</v>
       </c>
       <c r="P72" s="22"/>
@@ -20714,15 +20748,15 @@
         <v>415</v>
       </c>
       <c r="S72" s="22"/>
-      <c r="T72" s="34" t="s">
+      <c r="T72" s="37" t="s">
         <v>467</v>
       </c>
       <c r="U72" s="22"/>
-      <c r="V72" s="34" t="s">
+      <c r="V72" s="37" t="s">
         <v>507</v>
       </c>
       <c r="W72" s="22"/>
-      <c r="X72" s="34" t="s">
+      <c r="X72" s="39" t="s">
         <v>768</v>
       </c>
       <c r="Y72" s="22"/>
@@ -20736,7 +20770,7 @@
       <c r="AC72" s="22"/>
       <c r="AD72" s="22"/>
     </row>
-    <row r="73" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>197</v>
       </c>
@@ -20759,15 +20793,15 @@
         <v>1220</v>
       </c>
       <c r="J73" s="22"/>
-      <c r="K73" s="34" t="s">
+      <c r="K73" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34" t="s">
+      <c r="L73" s="37"/>
+      <c r="M73" s="37" t="s">
         <v>1293</v>
       </c>
       <c r="N73" s="22"/>
-      <c r="O73" s="34" t="s">
+      <c r="O73" s="37" t="s">
         <v>994</v>
       </c>
       <c r="P73" s="22"/>
@@ -20778,15 +20812,15 @@
         <v>416</v>
       </c>
       <c r="S73" s="22"/>
-      <c r="T73" s="34" t="s">
+      <c r="T73" s="37" t="s">
         <v>468</v>
       </c>
       <c r="U73" s="22"/>
-      <c r="V73" s="34" t="s">
+      <c r="V73" s="37" t="s">
         <v>508</v>
       </c>
       <c r="W73" s="22"/>
-      <c r="X73" s="34" t="s">
+      <c r="X73" s="39" t="s">
         <v>769</v>
       </c>
       <c r="Y73" s="22"/>
@@ -20800,7 +20834,7 @@
       <c r="AC73" s="22"/>
       <c r="AD73" s="22"/>
     </row>
-    <row r="74" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>197</v>
       </c>
@@ -20823,15 +20857,15 @@
         <v>1221</v>
       </c>
       <c r="J74" s="22"/>
-      <c r="K74" s="34" t="s">
+      <c r="K74" s="37" t="s">
         <v>360</v>
       </c>
-      <c r="L74" s="34"/>
-      <c r="M74" s="34" t="s">
+      <c r="L74" s="37"/>
+      <c r="M74" s="37" t="s">
         <v>1294</v>
       </c>
       <c r="N74" s="22"/>
-      <c r="O74" s="34" t="s">
+      <c r="O74" s="37" t="s">
         <v>995</v>
       </c>
       <c r="P74" s="22"/>
@@ -20842,15 +20876,15 @@
         <v>417</v>
       </c>
       <c r="S74" s="22"/>
-      <c r="T74" s="34" t="s">
+      <c r="T74" s="37" t="s">
         <v>469</v>
       </c>
       <c r="U74" s="22"/>
-      <c r="V74" s="34" t="s">
+      <c r="V74" s="37" t="s">
         <v>509</v>
       </c>
       <c r="W74" s="22"/>
-      <c r="X74" s="34" t="s">
+      <c r="X74" s="39" t="s">
         <v>770</v>
       </c>
       <c r="Y74" s="22"/>
@@ -20864,7 +20898,7 @@
       <c r="AC74" s="22"/>
       <c r="AD74" s="22"/>
     </row>
-    <row r="75" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>197</v>
       </c>
@@ -20887,15 +20921,15 @@
         <v>1222</v>
       </c>
       <c r="J75" s="22"/>
-      <c r="K75" s="34" t="s">
+      <c r="K75" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="L75" s="34"/>
-      <c r="M75" s="34" t="s">
+      <c r="L75" s="37"/>
+      <c r="M75" s="37" t="s">
         <v>1295</v>
       </c>
       <c r="N75" s="22"/>
-      <c r="O75" s="34" t="s">
+      <c r="O75" s="37" t="s">
         <v>996</v>
       </c>
       <c r="P75" s="22"/>
@@ -20906,15 +20940,15 @@
         <v>418</v>
       </c>
       <c r="S75" s="22"/>
-      <c r="T75" s="34" t="s">
+      <c r="T75" s="37" t="s">
         <v>470</v>
       </c>
       <c r="U75" s="22"/>
-      <c r="V75" s="34" t="s">
+      <c r="V75" s="37" t="s">
         <v>510</v>
       </c>
       <c r="W75" s="22"/>
-      <c r="X75" s="34" t="s">
+      <c r="X75" s="39" t="s">
         <v>771</v>
       </c>
       <c r="Y75" s="22"/>
@@ -20928,7 +20962,7 @@
       <c r="AC75" s="22"/>
       <c r="AD75" s="22"/>
     </row>
-    <row r="76" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>197</v>
       </c>
@@ -20951,15 +20985,15 @@
         <v>1223</v>
       </c>
       <c r="J76" s="22"/>
-      <c r="K76" s="34" t="s">
+      <c r="K76" s="37" t="s">
         <v>362</v>
       </c>
-      <c r="L76" s="34"/>
-      <c r="M76" s="34" t="s">
+      <c r="L76" s="37"/>
+      <c r="M76" s="37" t="s">
         <v>1296</v>
       </c>
       <c r="N76" s="22"/>
-      <c r="O76" s="34" t="s">
+      <c r="O76" s="37" t="s">
         <v>997</v>
       </c>
       <c r="P76" s="22"/>
@@ -20970,15 +21004,15 @@
         <v>419</v>
       </c>
       <c r="S76" s="22"/>
-      <c r="T76" s="34" t="s">
+      <c r="T76" s="37" t="s">
         <v>471</v>
       </c>
       <c r="U76" s="22"/>
-      <c r="V76" s="34" t="s">
+      <c r="V76" s="37" t="s">
         <v>511</v>
       </c>
       <c r="W76" s="22"/>
-      <c r="X76" s="34" t="s">
+      <c r="X76" s="39" t="s">
         <v>772</v>
       </c>
       <c r="Y76" s="22"/>
@@ -20992,7 +21026,7 @@
       <c r="AC76" s="22"/>
       <c r="AD76" s="22"/>
     </row>
-    <row r="77" spans="1:30" ht="285" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>197</v>
       </c>
@@ -21015,15 +21049,15 @@
         <v>1224</v>
       </c>
       <c r="J77" s="25"/>
-      <c r="K77" s="34" t="s">
+      <c r="K77" s="37" t="s">
         <v>1134</v>
       </c>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34" t="s">
+      <c r="L77" s="37"/>
+      <c r="M77" s="37" t="s">
         <v>1297</v>
       </c>
       <c r="N77" s="25"/>
-      <c r="O77" s="34" t="s">
+      <c r="O77" s="37" t="s">
         <v>1135</v>
       </c>
       <c r="P77" s="22"/>
@@ -21034,15 +21068,15 @@
         <v>1137</v>
       </c>
       <c r="S77" s="22"/>
-      <c r="T77" s="34" t="s">
+      <c r="T77" s="37" t="s">
         <v>1138</v>
       </c>
       <c r="U77" s="22"/>
-      <c r="V77" s="34" t="s">
+      <c r="V77" s="37" t="s">
         <v>1139</v>
       </c>
       <c r="W77" s="22"/>
-      <c r="X77" s="34" t="s">
+      <c r="X77" s="39" t="s">
         <v>1142</v>
       </c>
       <c r="Y77" s="22"/>
@@ -21072,41 +21106,41 @@
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
         <v>1225</v>
       </c>
       <c r="J78" s="22"/>
-      <c r="K78" s="34" t="s">
-        <v>1341</v>
-      </c>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34" t="s">
-        <v>1349</v>
+      <c r="K78" s="37" t="s">
+        <v>1340</v>
+      </c>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37" t="s">
+        <v>1348</v>
       </c>
       <c r="N78" s="22"/>
-      <c r="O78" s="34" t="s">
+      <c r="O78" s="37" t="s">
         <v>998</v>
       </c>
       <c r="P78" s="22"/>
       <c r="Q78" s="22" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="R78" s="22" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="S78" s="22"/>
-      <c r="T78" s="34" t="s">
+      <c r="T78" s="37" t="s">
         <v>1048</v>
       </c>
       <c r="U78" s="22"/>
-      <c r="V78" s="34" t="s">
+      <c r="V78" s="37" t="s">
         <v>1048</v>
       </c>
       <c r="W78" s="22"/>
-      <c r="X78" s="34" t="s">
+      <c r="X78" s="39" t="s">
         <v>914</v>
       </c>
       <c r="Y78" s="22"/>
@@ -21136,41 +21170,41 @@
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
         <v>1226</v>
       </c>
       <c r="J79" s="22"/>
-      <c r="K79" s="34" t="s">
-        <v>1342</v>
-      </c>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34" t="s">
-        <v>1350</v>
+      <c r="K79" s="37" t="s">
+        <v>1341</v>
+      </c>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37" t="s">
+        <v>1349</v>
       </c>
       <c r="N79" s="22"/>
-      <c r="O79" s="34" t="s">
+      <c r="O79" s="37" t="s">
         <v>999</v>
       </c>
       <c r="P79" s="22"/>
       <c r="Q79" s="22" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="R79" s="22" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="S79" s="22"/>
-      <c r="T79" s="34" t="s">
-        <v>1371</v>
+      <c r="T79" s="37" t="s">
+        <v>1370</v>
       </c>
       <c r="U79" s="22"/>
-      <c r="V79" s="34" t="s">
+      <c r="V79" s="37" t="s">
         <v>1061</v>
       </c>
       <c r="W79" s="22"/>
-      <c r="X79" s="34" t="s">
+      <c r="X79" s="39" t="s">
         <v>915</v>
       </c>
       <c r="Y79" s="22"/>
@@ -21179,12 +21213,12 @@
       </c>
       <c r="AA79" s="22"/>
       <c r="AB79" s="22" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="AC79" s="22"/>
       <c r="AD79" s="22"/>
     </row>
-    <row r="80" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>197</v>
       </c>
@@ -21200,41 +21234,41 @@
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
         <v>1227</v>
       </c>
       <c r="J80" s="22"/>
-      <c r="K80" s="34" t="s">
-        <v>1343</v>
-      </c>
-      <c r="L80" s="34"/>
-      <c r="M80" s="34" t="s">
-        <v>1351</v>
+      <c r="K80" s="37" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37" t="s">
+        <v>1350</v>
       </c>
       <c r="N80" s="22"/>
-      <c r="O80" s="34" t="s">
+      <c r="O80" s="37" t="s">
         <v>1000</v>
       </c>
       <c r="P80" s="22"/>
       <c r="Q80" s="22" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="R80" s="22" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="S80" s="22"/>
-      <c r="T80" s="34" t="s">
-        <v>1372</v>
+      <c r="T80" s="37" t="s">
+        <v>1371</v>
       </c>
       <c r="U80" s="22"/>
-      <c r="V80" s="34" t="s">
+      <c r="V80" s="37" t="s">
         <v>1062</v>
       </c>
       <c r="W80" s="22"/>
-      <c r="X80" s="34" t="s">
+      <c r="X80" s="39" t="s">
         <v>916</v>
       </c>
       <c r="Y80" s="22"/>
@@ -21243,7 +21277,7 @@
       </c>
       <c r="AA80" s="22"/>
       <c r="AB80" s="22" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="AC80" s="22"/>
       <c r="AD80" s="22"/>
@@ -21271,15 +21305,15 @@
         <v>1228</v>
       </c>
       <c r="J81" s="22"/>
-      <c r="K81" s="34" t="s">
+      <c r="K81" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34" t="s">
+      <c r="L81" s="37"/>
+      <c r="M81" s="37" t="s">
         <v>1298</v>
       </c>
       <c r="N81" s="22"/>
-      <c r="O81" s="34" t="s">
+      <c r="O81" s="37" t="s">
         <v>1001</v>
       </c>
       <c r="P81" s="22"/>
@@ -21290,15 +21324,15 @@
         <v>420</v>
       </c>
       <c r="S81" s="22"/>
-      <c r="T81" s="34" t="s">
+      <c r="T81" s="37" t="s">
         <v>420</v>
       </c>
       <c r="U81" s="22"/>
-      <c r="V81" s="34" t="s">
+      <c r="V81" s="37" t="s">
         <v>420</v>
       </c>
       <c r="W81" s="22"/>
-      <c r="X81" s="34" t="s">
+      <c r="X81" s="39" t="s">
         <v>773</v>
       </c>
       <c r="Y81" s="22"/>
@@ -21335,15 +21369,15 @@
         <v>1229</v>
       </c>
       <c r="J82" s="22"/>
-      <c r="K82" s="34" t="s">
+      <c r="K82" s="37" t="s">
         <v>364</v>
       </c>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34" t="s">
+      <c r="L82" s="37"/>
+      <c r="M82" s="37" t="s">
         <v>1299</v>
       </c>
       <c r="N82" s="22"/>
-      <c r="O82" s="34" t="s">
+      <c r="O82" s="37" t="s">
         <v>1002</v>
       </c>
       <c r="P82" s="22"/>
@@ -21354,15 +21388,15 @@
         <v>421</v>
       </c>
       <c r="S82" s="22"/>
-      <c r="T82" s="34" t="s">
+      <c r="T82" s="37" t="s">
         <v>472</v>
       </c>
       <c r="U82" s="22"/>
-      <c r="V82" s="34" t="s">
+      <c r="V82" s="37" t="s">
         <v>512</v>
       </c>
       <c r="W82" s="22"/>
-      <c r="X82" s="34" t="s">
+      <c r="X82" s="39" t="s">
         <v>774</v>
       </c>
       <c r="Y82" s="22"/>
@@ -21399,15 +21433,15 @@
         <v>1230</v>
       </c>
       <c r="J83" s="22"/>
-      <c r="K83" s="34" t="s">
+      <c r="K83" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34" t="s">
+      <c r="L83" s="37"/>
+      <c r="M83" s="37" t="s">
         <v>1300</v>
       </c>
       <c r="N83" s="22"/>
-      <c r="O83" s="34" t="s">
+      <c r="O83" s="37" t="s">
         <v>1003</v>
       </c>
       <c r="P83" s="22"/>
@@ -21418,15 +21452,15 @@
         <v>422</v>
       </c>
       <c r="S83" s="22"/>
-      <c r="T83" s="34" t="s">
+      <c r="T83" s="37" t="s">
         <v>473</v>
       </c>
       <c r="U83" s="22"/>
-      <c r="V83" s="34" t="s">
+      <c r="V83" s="37" t="s">
         <v>473</v>
       </c>
       <c r="W83" s="22"/>
-      <c r="X83" s="34" t="s">
+      <c r="X83" s="39" t="s">
         <v>775</v>
       </c>
       <c r="Y83" s="22"/>
@@ -21463,15 +21497,15 @@
         <v>1231</v>
       </c>
       <c r="J84" s="22"/>
-      <c r="K84" s="34" t="s">
+      <c r="K84" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="L84" s="34"/>
-      <c r="M84" s="34" t="s">
+      <c r="L84" s="37"/>
+      <c r="M84" s="37" t="s">
         <v>1301</v>
       </c>
       <c r="N84" s="22"/>
-      <c r="O84" s="34" t="s">
+      <c r="O84" s="37" t="s">
         <v>1004</v>
       </c>
       <c r="P84" s="22"/>
@@ -21482,15 +21516,15 @@
         <v>423</v>
       </c>
       <c r="S84" s="22"/>
-      <c r="T84" s="34" t="s">
+      <c r="T84" s="37" t="s">
         <v>474</v>
       </c>
       <c r="U84" s="22"/>
-      <c r="V84" s="34" t="s">
+      <c r="V84" s="37" t="s">
         <v>513</v>
       </c>
       <c r="W84" s="22"/>
-      <c r="X84" s="34" t="s">
+      <c r="X84" s="39" t="s">
         <v>776</v>
       </c>
       <c r="Y84" s="22"/>
@@ -21527,15 +21561,15 @@
         <v>1232</v>
       </c>
       <c r="J85" s="22"/>
-      <c r="K85" s="34" t="s">
+      <c r="K85" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34" t="s">
+      <c r="L85" s="37"/>
+      <c r="M85" s="37" t="s">
         <v>1302</v>
       </c>
       <c r="N85" s="22"/>
-      <c r="O85" s="34" t="s">
+      <c r="O85" s="37" t="s">
         <v>1005</v>
       </c>
       <c r="P85" s="22"/>
@@ -21546,15 +21580,15 @@
         <v>424</v>
       </c>
       <c r="S85" s="22"/>
-      <c r="T85" s="34" t="s">
+      <c r="T85" s="37" t="s">
         <v>475</v>
       </c>
       <c r="U85" s="22"/>
-      <c r="V85" s="34" t="s">
+      <c r="V85" s="37" t="s">
         <v>475</v>
       </c>
       <c r="W85" s="22"/>
-      <c r="X85" s="34" t="s">
+      <c r="X85" s="39" t="s">
         <v>777</v>
       </c>
       <c r="Y85" s="22"/>
@@ -21591,15 +21625,15 @@
         <v>1233</v>
       </c>
       <c r="J86" s="22"/>
-      <c r="K86" s="34" t="s">
+      <c r="K86" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34" t="s">
+      <c r="L86" s="37"/>
+      <c r="M86" s="37" t="s">
         <v>1303</v>
       </c>
       <c r="N86" s="22"/>
-      <c r="O86" s="34" t="s">
+      <c r="O86" s="37" t="s">
         <v>1006</v>
       </c>
       <c r="P86" s="22"/>
@@ -21610,15 +21644,15 @@
         <v>425</v>
       </c>
       <c r="S86" s="22"/>
-      <c r="T86" s="34" t="s">
+      <c r="T86" s="37" t="s">
         <v>476</v>
       </c>
       <c r="U86" s="22"/>
-      <c r="V86" s="34" t="s">
+      <c r="V86" s="37" t="s">
         <v>476</v>
       </c>
       <c r="W86" s="22"/>
-      <c r="X86" s="34" t="s">
+      <c r="X86" s="39" t="s">
         <v>778</v>
       </c>
       <c r="Y86" s="22"/>
@@ -21632,7 +21666,7 @@
       <c r="AC86" s="22"/>
       <c r="AD86" s="22"/>
     </row>
-    <row r="87" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>197</v>
       </c>
@@ -21655,15 +21689,15 @@
         <v>1234</v>
       </c>
       <c r="J87" s="22"/>
-      <c r="K87" s="34" t="s">
+      <c r="K87" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34" t="s">
+      <c r="L87" s="37"/>
+      <c r="M87" s="37" t="s">
         <v>1304</v>
       </c>
       <c r="N87" s="22"/>
-      <c r="O87" s="34" t="s">
+      <c r="O87" s="37" t="s">
         <v>1007</v>
       </c>
       <c r="P87" s="22"/>
@@ -21674,15 +21708,15 @@
         <v>426</v>
       </c>
       <c r="S87" s="22"/>
-      <c r="T87" s="34" t="s">
+      <c r="T87" s="37" t="s">
         <v>477</v>
       </c>
       <c r="U87" s="22"/>
-      <c r="V87" s="34" t="s">
+      <c r="V87" s="37" t="s">
         <v>477</v>
       </c>
       <c r="W87" s="22"/>
-      <c r="X87" s="34" t="s">
+      <c r="X87" s="39" t="s">
         <v>779</v>
       </c>
       <c r="Y87" s="22"/>
@@ -21719,15 +21753,15 @@
         <v>1235</v>
       </c>
       <c r="J88" s="22"/>
-      <c r="K88" s="34" t="s">
+      <c r="K88" s="37" t="s">
         <v>370</v>
       </c>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34" t="s">
+      <c r="L88" s="37"/>
+      <c r="M88" s="37" t="s">
         <v>1305</v>
       </c>
       <c r="N88" s="22"/>
-      <c r="O88" s="34" t="s">
+      <c r="O88" s="37" t="s">
         <v>1008</v>
       </c>
       <c r="P88" s="22"/>
@@ -21738,15 +21772,15 @@
         <v>427</v>
       </c>
       <c r="S88" s="22"/>
-      <c r="T88" s="34" t="s">
+      <c r="T88" s="37" t="s">
         <v>478</v>
       </c>
       <c r="U88" s="22"/>
-      <c r="V88" s="34" t="s">
+      <c r="V88" s="37" t="s">
         <v>514</v>
       </c>
       <c r="W88" s="22"/>
-      <c r="X88" s="34" t="s">
+      <c r="X88" s="39" t="s">
         <v>780</v>
       </c>
       <c r="Y88" s="22"/>
@@ -21783,15 +21817,15 @@
         <v>1236</v>
       </c>
       <c r="J89" s="22"/>
-      <c r="K89" s="34" t="s">
+      <c r="K89" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="L89" s="34"/>
-      <c r="M89" s="34" t="s">
+      <c r="L89" s="37"/>
+      <c r="M89" s="37" t="s">
         <v>1306</v>
       </c>
       <c r="N89" s="22"/>
-      <c r="O89" s="34" t="s">
+      <c r="O89" s="37" t="s">
         <v>1009</v>
       </c>
       <c r="P89" s="22"/>
@@ -21802,15 +21836,15 @@
         <v>428</v>
       </c>
       <c r="S89" s="22"/>
-      <c r="T89" s="34" t="s">
+      <c r="T89" s="37" t="s">
         <v>479</v>
       </c>
       <c r="U89" s="22"/>
-      <c r="V89" s="34" t="s">
+      <c r="V89" s="37" t="s">
         <v>515</v>
       </c>
       <c r="W89" s="22"/>
-      <c r="X89" s="34" t="s">
+      <c r="X89" s="39" t="s">
         <v>781</v>
       </c>
       <c r="Y89" s="22"/>
@@ -21847,15 +21881,15 @@
         <v>1237</v>
       </c>
       <c r="J90" s="22"/>
-      <c r="K90" s="34" t="s">
+      <c r="K90" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34" t="s">
+      <c r="L90" s="37"/>
+      <c r="M90" s="37" t="s">
         <v>1307</v>
       </c>
       <c r="N90" s="22"/>
-      <c r="O90" s="34" t="s">
+      <c r="O90" s="37" t="s">
         <v>1010</v>
       </c>
       <c r="P90" s="22"/>
@@ -21866,15 +21900,15 @@
         <v>429</v>
       </c>
       <c r="S90" s="22"/>
-      <c r="T90" s="34" t="s">
+      <c r="T90" s="37" t="s">
         <v>480</v>
       </c>
       <c r="U90" s="22"/>
-      <c r="V90" s="34" t="s">
+      <c r="V90" s="37" t="s">
         <v>516</v>
       </c>
       <c r="W90" s="22"/>
-      <c r="X90" s="34" t="s">
+      <c r="X90" s="39" t="s">
         <v>782</v>
       </c>
       <c r="Y90" s="22"/>
@@ -21911,15 +21945,15 @@
         <v>1238</v>
       </c>
       <c r="J91" s="22"/>
-      <c r="K91" s="34" t="s">
+      <c r="K91" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34" t="s">
+      <c r="L91" s="37"/>
+      <c r="M91" s="37" t="s">
         <v>1308</v>
       </c>
       <c r="N91" s="22"/>
-      <c r="O91" s="34" t="s">
+      <c r="O91" s="37" t="s">
         <v>1011</v>
       </c>
       <c r="P91" s="22"/>
@@ -21930,15 +21964,15 @@
         <v>430</v>
       </c>
       <c r="S91" s="22"/>
-      <c r="T91" s="34" t="s">
+      <c r="T91" s="37" t="s">
         <v>481</v>
       </c>
       <c r="U91" s="22"/>
-      <c r="V91" s="34" t="s">
+      <c r="V91" s="37" t="s">
         <v>517</v>
       </c>
       <c r="W91" s="22"/>
-      <c r="X91" s="34" t="s">
+      <c r="X91" s="39" t="s">
         <v>783</v>
       </c>
       <c r="Y91" s="22"/>
@@ -21975,15 +22009,15 @@
         <v>1239</v>
       </c>
       <c r="J92" s="22"/>
-      <c r="K92" s="34" t="s">
+      <c r="K92" s="37" t="s">
         <v>374</v>
       </c>
-      <c r="L92" s="34"/>
-      <c r="M92" s="34" t="s">
+      <c r="L92" s="37"/>
+      <c r="M92" s="37" t="s">
         <v>1309</v>
       </c>
       <c r="N92" s="22"/>
-      <c r="O92" s="34" t="s">
+      <c r="O92" s="37" t="s">
         <v>1012</v>
       </c>
       <c r="P92" s="22"/>
@@ -21994,15 +22028,15 @@
         <v>431</v>
       </c>
       <c r="S92" s="22"/>
-      <c r="T92" s="34" t="s">
+      <c r="T92" s="37" t="s">
         <v>482</v>
       </c>
       <c r="U92" s="22"/>
-      <c r="V92" s="34" t="s">
+      <c r="V92" s="37" t="s">
         <v>482</v>
       </c>
       <c r="W92" s="22"/>
-      <c r="X92" s="34" t="s">
+      <c r="X92" s="39" t="s">
         <v>784</v>
       </c>
       <c r="Y92" s="22"/>
@@ -22039,15 +22073,15 @@
         <v>1240</v>
       </c>
       <c r="J93" s="22"/>
-      <c r="K93" s="34" t="s">
+      <c r="K93" s="37" t="s">
         <v>375</v>
       </c>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34" t="s">
+      <c r="L93" s="37"/>
+      <c r="M93" s="37" t="s">
         <v>1310</v>
       </c>
       <c r="N93" s="22"/>
-      <c r="O93" s="34" t="s">
+      <c r="O93" s="37" t="s">
         <v>1013</v>
       </c>
       <c r="P93" s="22"/>
@@ -22058,15 +22092,15 @@
         <v>432</v>
       </c>
       <c r="S93" s="22"/>
-      <c r="T93" s="34" t="s">
+      <c r="T93" s="37" t="s">
         <v>483</v>
       </c>
       <c r="U93" s="22"/>
-      <c r="V93" s="34" t="s">
+      <c r="V93" s="37" t="s">
         <v>518</v>
       </c>
       <c r="W93" s="25"/>
-      <c r="X93" s="34" t="s">
+      <c r="X93" s="39" t="s">
         <v>785</v>
       </c>
       <c r="Y93" s="22"/>
@@ -22103,15 +22137,15 @@
         <v>1241</v>
       </c>
       <c r="J94" s="22"/>
-      <c r="K94" s="34" t="s">
+      <c r="K94" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="L94" s="34"/>
-      <c r="M94" s="34" t="s">
+      <c r="L94" s="37"/>
+      <c r="M94" s="37" t="s">
         <v>1311</v>
       </c>
       <c r="N94" s="22"/>
-      <c r="O94" s="34" t="s">
+      <c r="O94" s="37" t="s">
         <v>1014</v>
       </c>
       <c r="P94" s="22"/>
@@ -22122,15 +22156,15 @@
         <v>433</v>
       </c>
       <c r="S94" s="22"/>
-      <c r="T94" s="34" t="s">
+      <c r="T94" s="37" t="s">
         <v>484</v>
       </c>
       <c r="U94" s="22"/>
-      <c r="V94" s="34" t="s">
+      <c r="V94" s="37" t="s">
         <v>519</v>
       </c>
       <c r="W94" s="22"/>
-      <c r="X94" s="34" t="s">
+      <c r="X94" s="39" t="s">
         <v>786</v>
       </c>
       <c r="Y94" s="22"/>
@@ -22167,15 +22201,15 @@
         <v>1242</v>
       </c>
       <c r="J95" s="22"/>
-      <c r="K95" s="34" t="s">
+      <c r="K95" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="L95" s="34"/>
-      <c r="M95" s="34" t="s">
+      <c r="L95" s="37"/>
+      <c r="M95" s="37" t="s">
         <v>1312</v>
       </c>
       <c r="N95" s="22"/>
-      <c r="O95" s="34" t="s">
+      <c r="O95" s="37" t="s">
         <v>1015</v>
       </c>
       <c r="P95" s="22"/>
@@ -22186,15 +22220,15 @@
         <v>434</v>
       </c>
       <c r="S95" s="22"/>
-      <c r="T95" s="34" t="s">
+      <c r="T95" s="37" t="s">
         <v>485</v>
       </c>
       <c r="U95" s="22"/>
-      <c r="V95" s="34" t="s">
+      <c r="V95" s="37" t="s">
         <v>520</v>
       </c>
       <c r="W95" s="22"/>
-      <c r="X95" s="34" t="s">
+      <c r="X95" s="39" t="s">
         <v>787</v>
       </c>
       <c r="Y95" s="22"/>
@@ -22208,7 +22242,7 @@
       <c r="AC95" s="22"/>
       <c r="AD95" s="22"/>
     </row>
-    <row r="96" spans="1:30" ht="285" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" ht="297" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>197</v>
       </c>
@@ -22231,15 +22265,15 @@
         <v>1243</v>
       </c>
       <c r="J96" s="25"/>
-      <c r="K96" s="34" t="s">
+      <c r="K96" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="L96" s="34"/>
-      <c r="M96" s="34" t="s">
+      <c r="L96" s="37"/>
+      <c r="M96" s="37" t="s">
         <v>1313</v>
       </c>
       <c r="N96" s="25"/>
-      <c r="O96" s="34" t="s">
+      <c r="O96" s="37" t="s">
         <v>1016</v>
       </c>
       <c r="P96" s="22"/>
@@ -22250,15 +22284,15 @@
         <v>435</v>
       </c>
       <c r="S96" s="22"/>
-      <c r="T96" s="34" t="s">
+      <c r="T96" s="37" t="s">
         <v>486</v>
       </c>
       <c r="U96" s="22"/>
-      <c r="V96" s="34" t="s">
+      <c r="V96" s="37" t="s">
         <v>521</v>
       </c>
       <c r="W96" s="22"/>
-      <c r="X96" s="34" t="s">
+      <c r="X96" s="39" t="s">
         <v>788</v>
       </c>
       <c r="Y96" s="22"/>
@@ -22272,7 +22306,7 @@
       <c r="AC96" s="22"/>
       <c r="AD96" s="22"/>
     </row>
-    <row r="97" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>197</v>
       </c>
@@ -22295,15 +22329,15 @@
         <v>1244</v>
       </c>
       <c r="J97" s="22"/>
-      <c r="K97" s="34" t="s">
+      <c r="K97" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="L97" s="34"/>
-      <c r="M97" s="34" t="s">
+      <c r="L97" s="37"/>
+      <c r="M97" s="37" t="s">
         <v>1314</v>
       </c>
       <c r="N97" s="22"/>
-      <c r="O97" s="34" t="s">
+      <c r="O97" s="37" t="s">
         <v>1017</v>
       </c>
       <c r="P97" s="22"/>
@@ -22314,15 +22348,15 @@
         <v>436</v>
       </c>
       <c r="S97" s="22"/>
-      <c r="T97" s="34" t="s">
+      <c r="T97" s="37" t="s">
         <v>487</v>
       </c>
       <c r="U97" s="22"/>
-      <c r="V97" s="34" t="s">
+      <c r="V97" s="37" t="s">
         <v>522</v>
       </c>
       <c r="W97" s="22"/>
-      <c r="X97" s="34" t="s">
+      <c r="X97" s="39" t="s">
         <v>789</v>
       </c>
       <c r="Y97" s="22"/>
@@ -22359,15 +22393,15 @@
         <v>1245</v>
       </c>
       <c r="J98" s="22"/>
-      <c r="K98" s="34" t="s">
+      <c r="K98" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34" t="s">
+      <c r="L98" s="37"/>
+      <c r="M98" s="37" t="s">
         <v>1315</v>
       </c>
       <c r="N98" s="22"/>
-      <c r="O98" s="34" t="s">
+      <c r="O98" s="37" t="s">
         <v>1018</v>
       </c>
       <c r="P98" s="22"/>
@@ -22378,15 +22412,15 @@
         <v>437</v>
       </c>
       <c r="S98" s="22"/>
-      <c r="T98" s="34" t="s">
+      <c r="T98" s="37" t="s">
         <v>488</v>
       </c>
       <c r="U98" s="22"/>
-      <c r="V98" s="34" t="s">
+      <c r="V98" s="37" t="s">
         <v>488</v>
       </c>
       <c r="W98" s="22"/>
-      <c r="X98" s="34" t="s">
+      <c r="X98" s="39" t="s">
         <v>790</v>
       </c>
       <c r="Y98" s="22"/>
@@ -22400,7 +22434,7 @@
       <c r="AC98" s="22"/>
       <c r="AD98" s="22"/>
     </row>
-    <row r="99" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>197</v>
       </c>
@@ -22423,15 +22457,15 @@
         <v>1246</v>
       </c>
       <c r="J99" s="22"/>
-      <c r="K99" s="34" t="s">
+      <c r="K99" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34" t="s">
+      <c r="L99" s="37"/>
+      <c r="M99" s="37" t="s">
         <v>1316</v>
       </c>
       <c r="N99" s="22"/>
-      <c r="O99" s="34" t="s">
+      <c r="O99" s="37" t="s">
         <v>1019</v>
       </c>
       <c r="P99" s="22"/>
@@ -22442,15 +22476,15 @@
         <v>438</v>
       </c>
       <c r="S99" s="22"/>
-      <c r="T99" s="34" t="s">
+      <c r="T99" s="37" t="s">
         <v>489</v>
       </c>
       <c r="U99" s="22"/>
-      <c r="V99" s="34" t="s">
+      <c r="V99" s="37" t="s">
         <v>523</v>
       </c>
       <c r="W99" s="25"/>
-      <c r="X99" s="34" t="s">
+      <c r="X99" s="39" t="s">
         <v>791</v>
       </c>
       <c r="Y99" s="22"/>
@@ -22464,7 +22498,7 @@
       <c r="AC99" s="22"/>
       <c r="AD99" s="22"/>
     </row>
-    <row r="100" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>197</v>
       </c>
@@ -22487,15 +22521,15 @@
         <v>1247</v>
       </c>
       <c r="J100" s="22"/>
-      <c r="K100" s="34" t="s">
+      <c r="K100" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34" t="s">
+      <c r="L100" s="37"/>
+      <c r="M100" s="37" t="s">
         <v>1317</v>
       </c>
       <c r="N100" s="22"/>
-      <c r="O100" s="34" t="s">
+      <c r="O100" s="37" t="s">
         <v>1020</v>
       </c>
       <c r="P100" s="22"/>
@@ -22506,15 +22540,15 @@
         <v>439</v>
       </c>
       <c r="S100" s="22"/>
-      <c r="T100" s="34" t="s">
+      <c r="T100" s="37" t="s">
         <v>490</v>
       </c>
       <c r="U100" s="22"/>
-      <c r="V100" s="34" t="s">
+      <c r="V100" s="37" t="s">
         <v>524</v>
       </c>
       <c r="W100" s="22"/>
-      <c r="X100" s="34" t="s">
+      <c r="X100" s="39" t="s">
         <v>792</v>
       </c>
       <c r="Y100" s="22"/>
@@ -22528,7 +22562,7 @@
       <c r="AC100" s="22"/>
       <c r="AD100" s="22"/>
     </row>
-    <row r="101" spans="1:30" ht="240" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" ht="264" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>197</v>
       </c>
@@ -22551,15 +22585,15 @@
         <v>1248</v>
       </c>
       <c r="J101" s="25"/>
-      <c r="K101" s="34" t="s">
+      <c r="K101" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="L101" s="34"/>
-      <c r="M101" s="34" t="s">
+      <c r="L101" s="37"/>
+      <c r="M101" s="37" t="s">
         <v>1318</v>
       </c>
       <c r="N101" s="25"/>
-      <c r="O101" s="34" t="s">
+      <c r="O101" s="37" t="s">
         <v>1021</v>
       </c>
       <c r="P101" s="22"/>
@@ -22570,15 +22604,15 @@
         <v>440</v>
       </c>
       <c r="S101" s="22"/>
-      <c r="T101" s="34" t="s">
+      <c r="T101" s="37" t="s">
         <v>491</v>
       </c>
       <c r="U101" s="22"/>
-      <c r="V101" s="34" t="s">
+      <c r="V101" s="37" t="s">
         <v>525</v>
       </c>
       <c r="W101" s="22"/>
-      <c r="X101" s="34" t="s">
+      <c r="X101" s="39" t="s">
         <v>793</v>
       </c>
       <c r="Y101" s="22"/>
@@ -22592,7 +22626,7 @@
       <c r="AC101" s="22"/>
       <c r="AD101" s="22"/>
     </row>
-    <row r="102" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>197</v>
       </c>
@@ -22615,15 +22649,15 @@
         <v>1249</v>
       </c>
       <c r="J102" s="22"/>
-      <c r="K102" s="34" t="s">
+      <c r="K102" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34" t="s">
+      <c r="L102" s="37"/>
+      <c r="M102" s="37" t="s">
         <v>1319</v>
       </c>
       <c r="N102" s="22"/>
-      <c r="O102" s="34" t="s">
+      <c r="O102" s="37" t="s">
         <v>1022</v>
       </c>
       <c r="P102" s="22"/>
@@ -22634,15 +22668,15 @@
         <v>441</v>
       </c>
       <c r="S102" s="22"/>
-      <c r="T102" s="34" t="s">
+      <c r="T102" s="37" t="s">
         <v>492</v>
       </c>
       <c r="U102" s="22"/>
-      <c r="V102" s="34" t="s">
+      <c r="V102" s="37" t="s">
         <v>526</v>
       </c>
       <c r="W102" s="22"/>
-      <c r="X102" s="34" t="s">
+      <c r="X102" s="39" t="s">
         <v>794</v>
       </c>
       <c r="Y102" s="22"/>
@@ -22656,7 +22690,7 @@
       <c r="AC102" s="22"/>
       <c r="AD102" s="22"/>
     </row>
-    <row r="103" spans="1:30" ht="345" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" ht="396" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>197</v>
       </c>
@@ -22679,15 +22713,15 @@
         <v>1250</v>
       </c>
       <c r="J103" s="22"/>
-      <c r="K103" s="34" t="s">
+      <c r="K103" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="L103" s="34"/>
-      <c r="M103" s="34" t="s">
+      <c r="L103" s="37"/>
+      <c r="M103" s="37" t="s">
         <v>1320</v>
       </c>
       <c r="N103" s="22"/>
-      <c r="O103" s="34" t="s">
+      <c r="O103" s="37" t="s">
         <v>1023</v>
       </c>
       <c r="P103" s="22"/>
@@ -22698,15 +22732,15 @@
         <v>442</v>
       </c>
       <c r="S103" s="22"/>
-      <c r="T103" s="34" t="s">
+      <c r="T103" s="37" t="s">
         <v>493</v>
       </c>
       <c r="U103" s="22"/>
-      <c r="V103" s="34" t="s">
+      <c r="V103" s="37" t="s">
         <v>527</v>
       </c>
       <c r="W103" s="22"/>
-      <c r="X103" s="34" t="s">
+      <c r="X103" s="39" t="s">
         <v>795</v>
       </c>
       <c r="Y103" s="22"/>
@@ -22736,22 +22770,22 @@
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="22" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23" t="s">
         <v>1251</v>
       </c>
       <c r="J104" s="22"/>
-      <c r="K104" s="34" t="s">
+      <c r="K104" s="37" t="s">
         <v>953</v>
       </c>
-      <c r="L104" s="34"/>
-      <c r="M104" s="34" t="s">
+      <c r="L104" s="37"/>
+      <c r="M104" s="37" t="s">
         <v>1321</v>
       </c>
       <c r="N104" s="22"/>
-      <c r="O104" s="34" t="s">
+      <c r="O104" s="37" t="s">
         <v>1024</v>
       </c>
       <c r="P104" s="22"/>
@@ -22762,16 +22796,16 @@
         <v>1037</v>
       </c>
       <c r="S104" s="22"/>
-      <c r="T104" s="34" t="s">
-        <v>1373</v>
+      <c r="T104" s="37" t="s">
+        <v>1372</v>
       </c>
       <c r="U104" s="22"/>
-      <c r="V104" s="34" t="s">
+      <c r="V104" s="37" t="s">
         <v>1063</v>
       </c>
       <c r="W104" s="22"/>
-      <c r="X104" s="34" t="s">
-        <v>1378</v>
+      <c r="X104" s="39" t="s">
+        <v>1377</v>
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="22" t="s">
@@ -22779,7 +22813,7 @@
       </c>
       <c r="AA104" s="22"/>
       <c r="AB104" s="22" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="AC104" s="22"/>
       <c r="AD104" s="22"/>
@@ -22796,54 +22830,54 @@
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="22" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23" t="s">
+        <v>1389</v>
+      </c>
+      <c r="J105" s="22"/>
+      <c r="K105" s="38" t="s">
+        <v>639</v>
+      </c>
+      <c r="L105" s="38"/>
+      <c r="M105" s="38" t="s">
         <v>1390</v>
       </c>
-      <c r="J105" s="22"/>
-      <c r="K105" s="35" t="s">
-        <v>639</v>
-      </c>
-      <c r="L105" s="35"/>
-      <c r="M105" s="35" t="s">
+      <c r="N105" s="22"/>
+      <c r="O105" s="38" t="s">
         <v>1391</v>
-      </c>
-      <c r="N105" s="22"/>
-      <c r="O105" s="35" t="s">
-        <v>1392</v>
       </c>
       <c r="P105" s="22"/>
       <c r="Q105" s="22" t="s">
+        <v>1392</v>
+      </c>
+      <c r="R105" s="22" t="s">
+        <v>1392</v>
+      </c>
+      <c r="S105" s="22"/>
+      <c r="T105" s="38" t="s">
         <v>1393</v>
       </c>
-      <c r="R105" s="22" t="s">
+      <c r="U105" s="22"/>
+      <c r="V105" s="38" t="s">
         <v>1393</v>
       </c>
-      <c r="S105" s="22"/>
-      <c r="T105" s="35" t="s">
+      <c r="W105" s="22"/>
+      <c r="X105" s="40" t="s">
         <v>1394</v>
-      </c>
-      <c r="U105" s="22"/>
-      <c r="V105" s="35" t="s">
-        <v>1394</v>
-      </c>
-      <c r="W105" s="22"/>
-      <c r="X105" s="35" t="s">
-        <v>1395</v>
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="22" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="AA105" s="22"/>
       <c r="AB105" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="AC105" s="22"/>
       <c r="AD105" s="22"/>
@@ -22871,15 +22905,15 @@
         <v>1252</v>
       </c>
       <c r="J106" s="22"/>
-      <c r="K106" s="34" t="s">
+      <c r="K106" s="37" t="s">
         <v>647</v>
       </c>
-      <c r="L106" s="34"/>
-      <c r="M106" s="34" t="s">
+      <c r="L106" s="37"/>
+      <c r="M106" s="37" t="s">
         <v>1322</v>
       </c>
       <c r="N106" s="22"/>
-      <c r="O106" s="34" t="s">
+      <c r="O106" s="37" t="s">
         <v>1025</v>
       </c>
       <c r="P106" s="22"/>
@@ -22890,15 +22924,15 @@
         <v>648</v>
       </c>
       <c r="S106" s="22"/>
-      <c r="T106" s="34" t="s">
+      <c r="T106" s="37" t="s">
         <v>649</v>
       </c>
       <c r="U106" s="22"/>
-      <c r="V106" s="34" t="s">
+      <c r="V106" s="37" t="s">
         <v>650</v>
       </c>
       <c r="W106" s="22"/>
-      <c r="X106" s="34" t="s">
+      <c r="X106" s="39" t="s">
         <v>796</v>
       </c>
       <c r="Y106" s="22"/>
@@ -22912,7 +22946,7 @@
       <c r="AC106" s="22"/>
       <c r="AD106" s="22"/>
     </row>
-    <row r="107" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>197</v>
       </c>
@@ -22936,15 +22970,15 @@
         <v>1253</v>
       </c>
       <c r="J107" s="22"/>
-      <c r="K107" s="34" t="s">
+      <c r="K107" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L107" s="34"/>
-      <c r="M107" s="34" t="s">
+      <c r="L107" s="37"/>
+      <c r="M107" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N107" s="22"/>
-      <c r="O107" s="34" t="s">
+      <c r="O107" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P107" s="22"/>
@@ -22955,15 +22989,15 @@
         <v>443</v>
       </c>
       <c r="S107" s="22"/>
-      <c r="T107" s="34" t="s">
+      <c r="T107" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U107" s="22"/>
-      <c r="V107" s="34" t="s">
+      <c r="V107" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W107" s="22"/>
-      <c r="X107" s="34" t="s">
+      <c r="X107" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y107" s="22"/>
@@ -22977,7 +23011,7 @@
       <c r="AC107" s="22"/>
       <c r="AD107" s="22"/>
     </row>
-    <row r="108" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>197</v>
       </c>
@@ -23001,15 +23035,15 @@
         <v>1253</v>
       </c>
       <c r="J108" s="22"/>
-      <c r="K108" s="34" t="s">
+      <c r="K108" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L108" s="34"/>
-      <c r="M108" s="34" t="s">
+      <c r="L108" s="37"/>
+      <c r="M108" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N108" s="22"/>
-      <c r="O108" s="34" t="s">
+      <c r="O108" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P108" s="22"/>
@@ -23020,15 +23054,15 @@
         <v>443</v>
       </c>
       <c r="S108" s="22"/>
-      <c r="T108" s="34" t="s">
+      <c r="T108" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U108" s="22"/>
-      <c r="V108" s="34" t="s">
+      <c r="V108" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W108" s="22"/>
-      <c r="X108" s="34" t="s">
+      <c r="X108" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y108" s="22"/>
@@ -23042,7 +23076,7 @@
       <c r="AC108" s="22"/>
       <c r="AD108" s="22"/>
     </row>
-    <row r="109" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>197</v>
       </c>
@@ -23066,15 +23100,15 @@
         <v>1253</v>
       </c>
       <c r="J109" s="22"/>
-      <c r="K109" s="34" t="s">
+      <c r="K109" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L109" s="34"/>
-      <c r="M109" s="34" t="s">
+      <c r="L109" s="37"/>
+      <c r="M109" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N109" s="22"/>
-      <c r="O109" s="34" t="s">
+      <c r="O109" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P109" s="22"/>
@@ -23085,15 +23119,15 @@
         <v>443</v>
       </c>
       <c r="S109" s="22"/>
-      <c r="T109" s="34" t="s">
+      <c r="T109" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U109" s="22"/>
-      <c r="V109" s="34" t="s">
+      <c r="V109" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W109" s="22"/>
-      <c r="X109" s="34" t="s">
+      <c r="X109" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y109" s="22"/>
@@ -23107,7 +23141,7 @@
       <c r="AC109" s="22"/>
       <c r="AD109" s="22"/>
     </row>
-    <row r="110" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>197</v>
       </c>
@@ -23131,15 +23165,15 @@
         <v>1253</v>
       </c>
       <c r="J110" s="22"/>
-      <c r="K110" s="34" t="s">
+      <c r="K110" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L110" s="34"/>
-      <c r="M110" s="34" t="s">
+      <c r="L110" s="37"/>
+      <c r="M110" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N110" s="22"/>
-      <c r="O110" s="34" t="s">
+      <c r="O110" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P110" s="22"/>
@@ -23150,15 +23184,15 @@
         <v>443</v>
       </c>
       <c r="S110" s="22"/>
-      <c r="T110" s="34" t="s">
+      <c r="T110" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U110" s="22"/>
-      <c r="V110" s="34" t="s">
+      <c r="V110" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W110" s="22"/>
-      <c r="X110" s="34" t="s">
+      <c r="X110" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y110" s="22"/>
@@ -23172,7 +23206,7 @@
       <c r="AC110" s="22"/>
       <c r="AD110" s="22"/>
     </row>
-    <row r="111" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>197</v>
       </c>
@@ -23196,15 +23230,15 @@
         <v>1253</v>
       </c>
       <c r="J111" s="22"/>
-      <c r="K111" s="34" t="s">
+      <c r="K111" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L111" s="34"/>
-      <c r="M111" s="34" t="s">
+      <c r="L111" s="37"/>
+      <c r="M111" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N111" s="22"/>
-      <c r="O111" s="34" t="s">
+      <c r="O111" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P111" s="22"/>
@@ -23215,15 +23249,15 @@
         <v>443</v>
       </c>
       <c r="S111" s="22"/>
-      <c r="T111" s="34" t="s">
+      <c r="T111" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U111" s="22"/>
-      <c r="V111" s="34" t="s">
+      <c r="V111" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W111" s="22"/>
-      <c r="X111" s="34" t="s">
+      <c r="X111" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y111" s="22"/>
@@ -23237,7 +23271,7 @@
       <c r="AC111" s="22"/>
       <c r="AD111" s="22"/>
     </row>
-    <row r="112" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>197</v>
       </c>
@@ -23261,15 +23295,15 @@
         <v>1253</v>
       </c>
       <c r="J112" s="22"/>
-      <c r="K112" s="34" t="s">
+      <c r="K112" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L112" s="34"/>
-      <c r="M112" s="34" t="s">
+      <c r="L112" s="37"/>
+      <c r="M112" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N112" s="22"/>
-      <c r="O112" s="34" t="s">
+      <c r="O112" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P112" s="22"/>
@@ -23280,15 +23314,15 @@
         <v>443</v>
       </c>
       <c r="S112" s="22"/>
-      <c r="T112" s="34" t="s">
+      <c r="T112" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U112" s="22"/>
-      <c r="V112" s="34" t="s">
+      <c r="V112" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W112" s="22"/>
-      <c r="X112" s="34" t="s">
+      <c r="X112" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y112" s="22"/>
@@ -23302,7 +23336,7 @@
       <c r="AC112" s="22"/>
       <c r="AD112" s="22"/>
     </row>
-    <row r="113" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>197</v>
       </c>
@@ -23326,15 +23360,15 @@
         <v>1253</v>
       </c>
       <c r="J113" s="22"/>
-      <c r="K113" s="34" t="s">
+      <c r="K113" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L113" s="34"/>
-      <c r="M113" s="34" t="s">
+      <c r="L113" s="37"/>
+      <c r="M113" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N113" s="22"/>
-      <c r="O113" s="34" t="s">
+      <c r="O113" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P113" s="22"/>
@@ -23345,15 +23379,15 @@
         <v>443</v>
       </c>
       <c r="S113" s="22"/>
-      <c r="T113" s="34" t="s">
+      <c r="T113" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U113" s="22"/>
-      <c r="V113" s="34" t="s">
+      <c r="V113" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W113" s="22"/>
-      <c r="X113" s="34" t="s">
+      <c r="X113" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y113" s="22"/>
@@ -23367,7 +23401,7 @@
       <c r="AC113" s="22"/>
       <c r="AD113" s="22"/>
     </row>
-    <row r="114" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>197</v>
       </c>
@@ -23391,15 +23425,15 @@
         <v>1253</v>
       </c>
       <c r="J114" s="22"/>
-      <c r="K114" s="34" t="s">
+      <c r="K114" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34" t="s">
+      <c r="L114" s="37"/>
+      <c r="M114" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N114" s="22"/>
-      <c r="O114" s="34" t="s">
+      <c r="O114" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P114" s="22"/>
@@ -23410,15 +23444,15 @@
         <v>443</v>
       </c>
       <c r="S114" s="22"/>
-      <c r="T114" s="34" t="s">
+      <c r="T114" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U114" s="22"/>
-      <c r="V114" s="34" t="s">
+      <c r="V114" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W114" s="22"/>
-      <c r="X114" s="34" t="s">
+      <c r="X114" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y114" s="22"/>
@@ -23432,7 +23466,7 @@
       <c r="AC114" s="22"/>
       <c r="AD114" s="22"/>
     </row>
-    <row r="115" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>197</v>
       </c>
@@ -23456,15 +23490,15 @@
         <v>1253</v>
       </c>
       <c r="J115" s="22"/>
-      <c r="K115" s="34" t="s">
+      <c r="K115" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34" t="s">
+      <c r="L115" s="37"/>
+      <c r="M115" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N115" s="22"/>
-      <c r="O115" s="34" t="s">
+      <c r="O115" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P115" s="22"/>
@@ -23475,15 +23509,15 @@
         <v>443</v>
       </c>
       <c r="S115" s="22"/>
-      <c r="T115" s="34" t="s">
+      <c r="T115" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U115" s="22"/>
-      <c r="V115" s="34" t="s">
+      <c r="V115" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W115" s="22"/>
-      <c r="X115" s="34" t="s">
+      <c r="X115" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y115" s="22"/>
@@ -23497,7 +23531,7 @@
       <c r="AC115" s="22"/>
       <c r="AD115" s="22"/>
     </row>
-    <row r="116" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>197</v>
       </c>
@@ -23521,15 +23555,15 @@
         <v>1253</v>
       </c>
       <c r="J116" s="22"/>
-      <c r="K116" s="34" t="s">
+      <c r="K116" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34" t="s">
+      <c r="L116" s="37"/>
+      <c r="M116" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N116" s="22"/>
-      <c r="O116" s="34" t="s">
+      <c r="O116" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P116" s="22"/>
@@ -23540,15 +23574,15 @@
         <v>443</v>
       </c>
       <c r="S116" s="22"/>
-      <c r="T116" s="34" t="s">
+      <c r="T116" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U116" s="22"/>
-      <c r="V116" s="34" t="s">
+      <c r="V116" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W116" s="22"/>
-      <c r="X116" s="34" t="s">
+      <c r="X116" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y116" s="22"/>
@@ -23562,7 +23596,7 @@
       <c r="AC116" s="22"/>
       <c r="AD116" s="22"/>
     </row>
-    <row r="117" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
         <v>197</v>
       </c>
@@ -23586,15 +23620,15 @@
         <v>1253</v>
       </c>
       <c r="J117" s="22"/>
-      <c r="K117" s="34" t="s">
+      <c r="K117" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L117" s="34"/>
-      <c r="M117" s="34" t="s">
+      <c r="L117" s="37"/>
+      <c r="M117" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N117" s="22"/>
-      <c r="O117" s="34" t="s">
+      <c r="O117" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P117" s="22"/>
@@ -23605,15 +23639,15 @@
         <v>443</v>
       </c>
       <c r="S117" s="22"/>
-      <c r="T117" s="34" t="s">
+      <c r="T117" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U117" s="22"/>
-      <c r="V117" s="34" t="s">
+      <c r="V117" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W117" s="22"/>
-      <c r="X117" s="34" t="s">
+      <c r="X117" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y117" s="22"/>
@@ -23627,7 +23661,7 @@
       <c r="AC117" s="22"/>
       <c r="AD117" s="22"/>
     </row>
-    <row r="118" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>197</v>
       </c>
@@ -23651,15 +23685,15 @@
         <v>1253</v>
       </c>
       <c r="J118" s="22"/>
-      <c r="K118" s="34" t="s">
+      <c r="K118" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L118" s="34"/>
-      <c r="M118" s="34" t="s">
+      <c r="L118" s="37"/>
+      <c r="M118" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N118" s="22"/>
-      <c r="O118" s="34" t="s">
+      <c r="O118" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P118" s="22"/>
@@ -23670,15 +23704,15 @@
         <v>443</v>
       </c>
       <c r="S118" s="22"/>
-      <c r="T118" s="34" t="s">
+      <c r="T118" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U118" s="22"/>
-      <c r="V118" s="34" t="s">
+      <c r="V118" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W118" s="22"/>
-      <c r="X118" s="34" t="s">
+      <c r="X118" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y118" s="22"/>
@@ -23692,7 +23726,7 @@
       <c r="AC118" s="22"/>
       <c r="AD118" s="22"/>
     </row>
-    <row r="119" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
         <v>197</v>
       </c>
@@ -23716,15 +23750,15 @@
         <v>1253</v>
       </c>
       <c r="J119" s="22"/>
-      <c r="K119" s="34" t="s">
+      <c r="K119" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L119" s="34"/>
-      <c r="M119" s="34" t="s">
+      <c r="L119" s="37"/>
+      <c r="M119" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N119" s="22"/>
-      <c r="O119" s="34" t="s">
+      <c r="O119" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P119" s="22"/>
@@ -23735,15 +23769,15 @@
         <v>443</v>
       </c>
       <c r="S119" s="22"/>
-      <c r="T119" s="34" t="s">
+      <c r="T119" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U119" s="22"/>
-      <c r="V119" s="34" t="s">
+      <c r="V119" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W119" s="22"/>
-      <c r="X119" s="34" t="s">
+      <c r="X119" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y119" s="22"/>
@@ -23757,7 +23791,7 @@
       <c r="AC119" s="22"/>
       <c r="AD119" s="22"/>
     </row>
-    <row r="120" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>197</v>
       </c>
@@ -23781,15 +23815,15 @@
         <v>1253</v>
       </c>
       <c r="J120" s="22"/>
-      <c r="K120" s="34" t="s">
+      <c r="K120" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L120" s="34"/>
-      <c r="M120" s="34" t="s">
+      <c r="L120" s="37"/>
+      <c r="M120" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N120" s="22"/>
-      <c r="O120" s="34" t="s">
+      <c r="O120" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P120" s="22"/>
@@ -23800,15 +23834,15 @@
         <v>443</v>
       </c>
       <c r="S120" s="22"/>
-      <c r="T120" s="34" t="s">
+      <c r="T120" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U120" s="22"/>
-      <c r="V120" s="34" t="s">
+      <c r="V120" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W120" s="22"/>
-      <c r="X120" s="34" t="s">
+      <c r="X120" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y120" s="22"/>
@@ -23822,7 +23856,7 @@
       <c r="AC120" s="22"/>
       <c r="AD120" s="22"/>
     </row>
-    <row r="121" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
         <v>197</v>
       </c>
@@ -23846,15 +23880,15 @@
         <v>1253</v>
       </c>
       <c r="J121" s="22"/>
-      <c r="K121" s="34" t="s">
+      <c r="K121" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L121" s="34"/>
-      <c r="M121" s="34" t="s">
+      <c r="L121" s="37"/>
+      <c r="M121" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N121" s="22"/>
-      <c r="O121" s="34" t="s">
+      <c r="O121" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P121" s="22"/>
@@ -23865,15 +23899,15 @@
         <v>443</v>
       </c>
       <c r="S121" s="22"/>
-      <c r="T121" s="34" t="s">
+      <c r="T121" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U121" s="22"/>
-      <c r="V121" s="34" t="s">
+      <c r="V121" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W121" s="22"/>
-      <c r="X121" s="34" t="s">
+      <c r="X121" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y121" s="22"/>
@@ -23887,7 +23921,7 @@
       <c r="AC121" s="22"/>
       <c r="AD121" s="22"/>
     </row>
-    <row r="122" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>197</v>
       </c>
@@ -23911,15 +23945,15 @@
         <v>1253</v>
       </c>
       <c r="J122" s="22"/>
-      <c r="K122" s="34" t="s">
+      <c r="K122" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L122" s="34"/>
-      <c r="M122" s="34" t="s">
+      <c r="L122" s="37"/>
+      <c r="M122" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N122" s="22"/>
-      <c r="O122" s="34" t="s">
+      <c r="O122" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P122" s="22"/>
@@ -23930,15 +23964,15 @@
         <v>443</v>
       </c>
       <c r="S122" s="22"/>
-      <c r="T122" s="34" t="s">
+      <c r="T122" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U122" s="22"/>
-      <c r="V122" s="34" t="s">
+      <c r="V122" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W122" s="22"/>
-      <c r="X122" s="34" t="s">
+      <c r="X122" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y122" s="22"/>
@@ -23952,7 +23986,7 @@
       <c r="AC122" s="22"/>
       <c r="AD122" s="22"/>
     </row>
-    <row r="123" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
         <v>197</v>
       </c>
@@ -23976,15 +24010,15 @@
         <v>1253</v>
       </c>
       <c r="J123" s="22"/>
-      <c r="K123" s="34" t="s">
+      <c r="K123" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L123" s="34"/>
-      <c r="M123" s="34" t="s">
+      <c r="L123" s="37"/>
+      <c r="M123" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N123" s="22"/>
-      <c r="O123" s="34" t="s">
+      <c r="O123" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P123" s="22"/>
@@ -23995,15 +24029,15 @@
         <v>443</v>
       </c>
       <c r="S123" s="22"/>
-      <c r="T123" s="34" t="s">
+      <c r="T123" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U123" s="22"/>
-      <c r="V123" s="34" t="s">
+      <c r="V123" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W123" s="22"/>
-      <c r="X123" s="34" t="s">
+      <c r="X123" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y123" s="22"/>
@@ -24017,7 +24051,7 @@
       <c r="AC123" s="22"/>
       <c r="AD123" s="22"/>
     </row>
-    <row r="124" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>197</v>
       </c>
@@ -24041,15 +24075,15 @@
         <v>1253</v>
       </c>
       <c r="J124" s="22"/>
-      <c r="K124" s="34" t="s">
+      <c r="K124" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L124" s="34"/>
-      <c r="M124" s="34" t="s">
+      <c r="L124" s="37"/>
+      <c r="M124" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N124" s="22"/>
-      <c r="O124" s="34" t="s">
+      <c r="O124" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P124" s="22"/>
@@ -24060,15 +24094,15 @@
         <v>443</v>
       </c>
       <c r="S124" s="22"/>
-      <c r="T124" s="34" t="s">
+      <c r="T124" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U124" s="22"/>
-      <c r="V124" s="34" t="s">
+      <c r="V124" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W124" s="22"/>
-      <c r="X124" s="34" t="s">
+      <c r="X124" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y124" s="22"/>
@@ -24082,7 +24116,7 @@
       <c r="AC124" s="22"/>
       <c r="AD124" s="22"/>
     </row>
-    <row r="125" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>197</v>
       </c>
@@ -24106,15 +24140,15 @@
         <v>1253</v>
       </c>
       <c r="J125" s="22"/>
-      <c r="K125" s="34" t="s">
+      <c r="K125" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L125" s="34"/>
-      <c r="M125" s="34" t="s">
+      <c r="L125" s="37"/>
+      <c r="M125" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N125" s="22"/>
-      <c r="O125" s="34" t="s">
+      <c r="O125" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P125" s="22"/>
@@ -24125,15 +24159,15 @@
         <v>443</v>
       </c>
       <c r="S125" s="22"/>
-      <c r="T125" s="34" t="s">
+      <c r="T125" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U125" s="22"/>
-      <c r="V125" s="34" t="s">
+      <c r="V125" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W125" s="22"/>
-      <c r="X125" s="34" t="s">
+      <c r="X125" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y125" s="22"/>
@@ -24147,7 +24181,7 @@
       <c r="AC125" s="22"/>
       <c r="AD125" s="22"/>
     </row>
-    <row r="126" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>197</v>
       </c>
@@ -24171,15 +24205,15 @@
         <v>1253</v>
       </c>
       <c r="J126" s="22"/>
-      <c r="K126" s="34" t="s">
+      <c r="K126" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L126" s="34"/>
-      <c r="M126" s="34" t="s">
+      <c r="L126" s="37"/>
+      <c r="M126" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N126" s="22"/>
-      <c r="O126" s="34" t="s">
+      <c r="O126" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P126" s="22"/>
@@ -24190,15 +24224,15 @@
         <v>443</v>
       </c>
       <c r="S126" s="22"/>
-      <c r="T126" s="34" t="s">
+      <c r="T126" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U126" s="22"/>
-      <c r="V126" s="34" t="s">
+      <c r="V126" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W126" s="22"/>
-      <c r="X126" s="34" t="s">
+      <c r="X126" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y126" s="22"/>
@@ -24212,7 +24246,7 @@
       <c r="AC126" s="22"/>
       <c r="AD126" s="22"/>
     </row>
-    <row r="127" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
         <v>197</v>
       </c>
@@ -24236,15 +24270,15 @@
         <v>1253</v>
       </c>
       <c r="J127" s="22"/>
-      <c r="K127" s="34" t="s">
+      <c r="K127" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L127" s="34"/>
-      <c r="M127" s="34" t="s">
+      <c r="L127" s="37"/>
+      <c r="M127" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N127" s="22"/>
-      <c r="O127" s="34" t="s">
+      <c r="O127" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P127" s="22"/>
@@ -24255,15 +24289,15 @@
         <v>443</v>
       </c>
       <c r="S127" s="22"/>
-      <c r="T127" s="34" t="s">
+      <c r="T127" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U127" s="22"/>
-      <c r="V127" s="34" t="s">
+      <c r="V127" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W127" s="22"/>
-      <c r="X127" s="34" t="s">
+      <c r="X127" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y127" s="22"/>
@@ -24277,7 +24311,7 @@
       <c r="AC127" s="22"/>
       <c r="AD127" s="22"/>
     </row>
-    <row r="128" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>197</v>
       </c>
@@ -24301,15 +24335,15 @@
         <v>1253</v>
       </c>
       <c r="J128" s="22"/>
-      <c r="K128" s="34" t="s">
+      <c r="K128" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L128" s="34"/>
-      <c r="M128" s="34" t="s">
+      <c r="L128" s="37"/>
+      <c r="M128" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N128" s="22"/>
-      <c r="O128" s="34" t="s">
+      <c r="O128" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P128" s="22"/>
@@ -24320,15 +24354,15 @@
         <v>443</v>
       </c>
       <c r="S128" s="22"/>
-      <c r="T128" s="34" t="s">
+      <c r="T128" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U128" s="22"/>
-      <c r="V128" s="34" t="s">
+      <c r="V128" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W128" s="22"/>
-      <c r="X128" s="34" t="s">
+      <c r="X128" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y128" s="22"/>
@@ -24342,7 +24376,7 @@
       <c r="AC128" s="22"/>
       <c r="AD128" s="22"/>
     </row>
-    <row r="129" spans="1:30" ht="210" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:30" ht="231" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>197</v>
       </c>
@@ -24366,15 +24400,15 @@
         <v>1254</v>
       </c>
       <c r="J129" s="22"/>
-      <c r="K129" s="34" t="s">
+      <c r="K129" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="L129" s="34"/>
-      <c r="M129" s="34" t="s">
+      <c r="L129" s="37"/>
+      <c r="M129" s="37" t="s">
         <v>1324</v>
       </c>
       <c r="N129" s="22"/>
-      <c r="O129" s="34" t="s">
+      <c r="O129" s="37" t="s">
         <v>1027</v>
       </c>
       <c r="P129" s="22"/>
@@ -24385,15 +24419,15 @@
         <v>444</v>
       </c>
       <c r="S129" s="22"/>
-      <c r="T129" s="34" t="s">
+      <c r="T129" s="37" t="s">
         <v>495</v>
       </c>
       <c r="U129" s="22"/>
-      <c r="V129" s="34" t="s">
+      <c r="V129" s="37" t="s">
         <v>529</v>
       </c>
       <c r="W129" s="22"/>
-      <c r="X129" s="34" t="s">
+      <c r="X129" s="39" t="s">
         <v>798</v>
       </c>
       <c r="Y129" s="22"/>
@@ -24407,7 +24441,7 @@
       <c r="AC129" s="22"/>
       <c r="AD129" s="22"/>
     </row>
-    <row r="130" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>197</v>
       </c>
@@ -24431,15 +24465,15 @@
         <v>1253</v>
       </c>
       <c r="J130" s="22"/>
-      <c r="K130" s="34" t="s">
+      <c r="K130" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L130" s="34"/>
-      <c r="M130" s="34" t="s">
+      <c r="L130" s="37"/>
+      <c r="M130" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N130" s="22"/>
-      <c r="O130" s="34" t="s">
+      <c r="O130" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P130" s="22"/>
@@ -24450,15 +24484,15 @@
         <v>443</v>
       </c>
       <c r="S130" s="22"/>
-      <c r="T130" s="34" t="s">
+      <c r="T130" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U130" s="22"/>
-      <c r="V130" s="34" t="s">
+      <c r="V130" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W130" s="22"/>
-      <c r="X130" s="34" t="s">
+      <c r="X130" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y130" s="22"/>
@@ -24472,7 +24506,7 @@
       <c r="AC130" s="22"/>
       <c r="AD130" s="22"/>
     </row>
-    <row r="131" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>197</v>
       </c>
@@ -24496,15 +24530,15 @@
         <v>1253</v>
       </c>
       <c r="J131" s="22"/>
-      <c r="K131" s="34" t="s">
+      <c r="K131" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="L131" s="34"/>
-      <c r="M131" s="34" t="s">
+      <c r="L131" s="37"/>
+      <c r="M131" s="37" t="s">
         <v>1323</v>
       </c>
       <c r="N131" s="22"/>
-      <c r="O131" s="34" t="s">
+      <c r="O131" s="37" t="s">
         <v>1026</v>
       </c>
       <c r="P131" s="22"/>
@@ -24515,15 +24549,15 @@
         <v>443</v>
       </c>
       <c r="S131" s="22"/>
-      <c r="T131" s="34" t="s">
+      <c r="T131" s="37" t="s">
         <v>494</v>
       </c>
       <c r="U131" s="22"/>
-      <c r="V131" s="34" t="s">
+      <c r="V131" s="37" t="s">
         <v>528</v>
       </c>
       <c r="W131" s="22"/>
-      <c r="X131" s="34" t="s">
+      <c r="X131" s="39" t="s">
         <v>797</v>
       </c>
       <c r="Y131" s="22"/>
@@ -24620,7 +24654,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24762,7 +24796,7 @@
       <c r="E7" t="s">
         <v>860</v>
       </c>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="36" t="s">
         <v>861</v>
       </c>
     </row>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB349CB-B914-4824-8A67-7EBDF01A2667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4E877-ADA4-4E97-8E67-A64748736F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="5175" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="1455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1447">
   <si>
     <t>name</t>
   </si>
@@ -1190,9 +1190,6 @@
     <t>*Angiv en oversigt i konfigurationsarket Sprog for denne by*</t>
   </si>
   <si>
-    <t>Melbourne havde relativt god adgang til offentlige transportstop og åbne rum og en række byplanlægningspolitikker, der støttede walkable kvarterer med god adgang til offentlige åbne rum. Men walkability og adgang til hyppig offentlig transport blev uretfærdigt fordelt, til fordel for indre byområder. Kravene til boligtæthed skulle øges for bedre at kunne understøtte walkability.</t>
-  </si>
-  <si>
     <t>Convenience store</t>
   </si>
   <si>
@@ -1361,9 +1358,6 @@
     <t>*Proporcione un resumen ejecutivo en la hoja de configuración de idiomas para esta ciudad*</t>
   </si>
   <si>
-    <t>Melbourne tenía un acceso relativamente bueno a las paradas de transporte público y al espacio abierto, y una serie de políticas de planificación urbana que apoyaban los vecindarios transitables, con un buen acceso al espacio público abierto. Sin embargo, la transitabilidad y el acceso al transporte público frecuente se distribuyeron de manera desigual, favoreciendo las áreas del centro de la ciudad. Era necesario aumentar los requisitos de densidad de viviendas para apoyar mejor la transitabilidad.</t>
-  </si>
-  <si>
     <t>Mercado de alimentos</t>
   </si>
   <si>
@@ -1514,9 +1508,6 @@
     <t>*Por favor, forneça resumo executivo na folha de configuração de idiomas para esta cidade*</t>
   </si>
   <si>
-    <t>Melbourne tinha acesso relativamente bom a paradas de transporte público e espaço aberto, e uma série de políticas de planejamento urbano que apoiavam bairros andáveis, com bom acesso ao espaço público aberto. No entanto, a caminhabilidade e o acesso ao transporte público frequente foram inequivocamente distribuídos, favorecendo as áreas do interior da cidade. Os requisitos de densidade habitacional precisavam ser aumentados para melhor suporte à caminhabilidade.</t>
-  </si>
-  <si>
     <t>Mercado alimentar</t>
   </si>
   <si>
@@ -1616,9 +1607,6 @@
     <t>*Por favor, forneça um resumo executivo na folha de configuração de Línguas para esta cidade*</t>
   </si>
   <si>
-    <t>Melbourne teve relativamente bons acessos a paragens de transportes públicos e espaço aberto, e uma série de políticas de urbanismo de apoio a bairros ambulantes, com bons acessos ao espaço público aberto. No entanto, a walkability e o acesso a transportes públicos frequentes foram distribuídos de forma injusta, favorecendo as zonas do centro da cidade. Os requisitos de densidade habitacional precisavam de ser aumentados para uma melhor capacidade de apoio.</t>
-  </si>
-  <si>
     <t>ตลาดอาหาร</t>
   </si>
   <si>
@@ -1769,9 +1757,6 @@
     <t>*โปรดระบุบทสรุปผู้บริหารในแผ่นการกําหนดค่าภาษาสําหรับเมืองนี้*</t>
   </si>
   <si>
-    <t>เมลเบิร์นสามารถเข้าถึงจุดจอดและพื้นที่เปิดโล่งของการขนส่งสาธารณะได้ค่อนข้างดีและมีนโยบายการวางผังเมืองที่หลากหลายซึ่งสนับสนุนย่านที่เดินได้พร้อมการเข้าถึงพื้นที่เปิดโล่งสาธารณะ อย่างไรก็ตามความสามารถในการเดินและการเข้าถึงระบบขนส่งสาธารณะบ่อยครั้งนั้นกระจายออกไปอย่างหลีกเลี่ยงไม่ได้ซึ่งเป็นประโยชน์ต่อพื้นที่เมืองชั้นใน ความต้องการความหนาแน่นของที่อยู่อาศัยจําเป็นต้องเพิ่มขึ้นเพื่อรองรับการเดินที่ดีขึ้น</t>
-  </si>
-  <si>
     <t>Chinese - Traditional</t>
   </si>
   <si>
@@ -1937,9 +1922,6 @@
     <t>*請在該城市的語言配置表中提供執行摘要*</t>
   </si>
   <si>
-    <t>墨爾本擁有相對良好的公共交通網站和開放空間，以及一系列支援步行社區的城市規劃政策，並享有良好的公共開放空間。然而，步行和頻繁的公共交通分配不均，有利於市中心地區。需要提高住房密度要求，以更好地支援可步行性。</t>
-  </si>
-  <si>
     <t>Por favor, forneça uma "imagem de herói" de alta resolução para esta cidade, idealmente em formato .jpg com dimensões na proporção de 21:10 (por exemplo, 2100px por 1000px)</t>
   </si>
   <si>
@@ -2006,9 +1988,6 @@
     <t>Dansk</t>
   </si>
   <si>
-    <t>Español</t>
-  </si>
-  <si>
     <t>Spanish (Auto-translation)</t>
   </si>
   <si>
@@ -2249,9 +2228,6 @@
     <t>*Vui lòng cung cấp tóm tắt điều hành trong bảng cấu hình Ngôn ngữ cho thành phố này*</t>
   </si>
   <si>
-    <t>Melbourne có quyền truy cập tương đối tốt vào các điểm dừng giao thông công cộng và không gian mở, và một loạt các chính sách quy hoạch thành phố hỗ trợ các khu phố có thể đi bộ, với khả năng tiếp cận tốt với không gian mở công cộng. Tuy nhiên, khả năng đi bộ và tiếp cận với các phương tiện giao thông công cộng thường xuyên đã được phân phối không công bằng, ủng hộ các khu vực nội thành. Yêu cầu mật độ nhà ở cần phải được tăng lên để hỗ trợ khả năng đi bộ tốt hơn.</t>
-  </si>
-  <si>
     <t>Tamil (Auto-translation)</t>
   </si>
   <si>
@@ -2423,9 +2399,6 @@
     <t>* இந்த நகரத்திற்கான மொழிகளின் உள்ளமைவுதாளில் நிர்வாக சுருக்கத்தை வழங்கவும்*</t>
   </si>
   <si>
-    <t>மெல்போர்ன் பொது போக்குவரத்து நிறுத்தங்கள் மற்றும் திறந்த வெளிக்கு ஒப்பீட்டளவில் நல்ல அணுகலைக் கொண்டிருந்தது, மற்றும் நகர திட்டமிடல் கொள்கைகள் பொது திறந்த வெளிக்கு நல்ல அணுகல் கொண்ட நடக்கக்கூடிய சுற்றுப்புறங்களை ஆதரிக்கின்றன. இருப்பினும், நடைபயிற்சி மற்றும் அடிக்கடி பொதுப் போக்குவரத்தை அணுகுதல் ஆகியவை சமமற்ற முறையில் விநியோகிக்கப்பட்டன, இது உள் நகரப் பகுதிகளுக்கு சாதகமாக இருந்தது. சிறந்த ஆதரவு நடைபயிற்சிக்கு வீட்டு அடர்த்தி தேவைகள் அதிகரிக்கப்பட வேண்டும்.</t>
-  </si>
-  <si>
     <t>Catalan</t>
   </si>
   <si>
@@ -2601,9 +2574,6 @@
   </si>
   <si>
     <t>*Proporcioneu el resum executiu en el full de configuració d'idiomes per a aquesta ciutat*</t>
-  </si>
-  <si>
-    <t>Melbourne tenia un accés relativament bo a les parades de transport públic i l'espai obert, i una sèrie de polítiques de planificació urbana que donaven suport als barris transitables, amb un bon accés a l'espai públic obert. No obstant això, la caminabilitat i l'accés al transport públic freqüent es distribuïa de manera desigual, afavorint les zones interiors de la ciutat. Els requisits de densitat d'habitatges s'havien d'augmentar per donar suport a la caminabilitat.</t>
   </si>
   <si>
     <t>noto_sans_hk</t>
@@ -2650,12 +2620,6 @@
 a 500m...</t>
   </si>
   <si>
-    <t xml:space="preserve">Densidad de población por km² en el barrio/colonia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Densidad de intersección de calles por km²  en el barrio/colonia </t>
-  </si>
-  <si>
     <t>Mediana de las 25 ciudades</t>
   </si>
   <si>
@@ -3107,9 +3071,6 @@
     <t>*Bitte geben Sie eine Zusammenfassung im Konfigurationsblatt Sprachen für diese Stadt an*</t>
   </si>
   <si>
-    <t>Melbourne hatte einen relativ guten Zugang zu Haltestellen und Freiflächen für öffentliche Verkehrsmittel sowie eine Reihe von Stadtplanungsmaßnahmen, die begehbare Viertel mit gutem Zugang zu öffentlichen Freiflächen unterstützten. Die Begehbarkeit und der Zugang zu häufigen öffentlichen Verkehrsmitteln waren jedoch ungleich verteilt und begünstigten die Innenstadtbereiche. Die Anforderungen an die Wohndichte mussten erhöht werden, um die Begehbarkeit besser zu unterstützen.</t>
-  </si>
-  <si>
     <t>Deutsch (Automatische Übersetzung)</t>
   </si>
   <si>
@@ -3433,29 +3394,6 @@
   </si>
   <si>
     <t>Begehbare Nachbarschaften bieten Möglichkeiten für einen aktiven, gesunden und nachhaltigen Lebensstil. Begehbare Nachbarschaften haben eine ausreichende, aber nicht übermäßige Dichte an Wohnungen und Bevölkerung, um eine angemessene Bereitstellung lokaler Einrichtungen einschließlich öffentlicher Verkehrsmittel zu unterstützen. Begehbare Viertel haben auch gemischte Landnutzungen und gut angebundene Straßen, um einen unmittelbaren und bequemen Zugang zu Zielen zu gewährleisten. Eine qualitativ hochwertige Fußgängerinfrastruktur und die Verringerung des Verkehrs durch die Steuerung der Nachfrage nach Autonutzung können auch das Gehen für den Transport fördern.</t>
-  </si>
-  <si>
-    <r>
-      <t>Los barrios caminables brindan oportunidades para llevar estilos de vida activos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>, saludables y sostenibles. Estos tienen la suficiente pero no excesiva densidad habitacional y de población para apoyar la provisión adecuada de servicios locales, incluidos los servicios de transporte público. Están compuestos por usos de suelo mixtos y su conectividad garantizan el acceso cercano y conveniente a los destinos. La infraestructura peatonal de alta calidad y la reducción del tráfico a través de la gestión de la demanda de uso del automóvil pueden alentar a la caminata por transporte.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Los vecindarios transitables brindan oportunidades para estilos de vida activos, saludables y sostenibles. Los barrios transitables tienen una densidad suficiente pero no excesiva de viviendas y población para apoyar la provisión adecuada de servicios locales, incluidos los servicios de transporte público. Los barrios transitables también tienen usos mixtos de la tierra y calles bien conectadas, para garantizar un acceso cercano y conveniente a los destinos. La infraestructura peatonal de alta calidad y la reducción del tráfico a través de la gestión de la demanda de uso del automóvil también pueden alentar a caminar para el transporte.
@@ -3855,9 +3793,6 @@
     <t>*Uveďte prosím shrnutí v konfiguračním listu jazyků pro toto město*</t>
   </si>
   <si>
-    <t>Melbourne mělo relativně dobrý přístup k zastávkám veřejné dopravy a otevřenému prostoru a řadu politik městského plánování podporujících pěší čtvrti s dobrým přístupem k veřejnému otevřenému prostoru. Průchodnost a přístup k časté veřejné dopravě však byly nespravedlivě rozděleny, což zvýhodňovalo vnitřní městské oblasti. Požadavky na hustotu bydlení bylo třeba zvýšit, aby se lépe podpořila průchodnost.</t>
-  </si>
-  <si>
     <t>Rapport gezonde en duurzame stadsindicatoren:</t>
   </si>
   <si>
@@ -4063,9 +3998,6 @@
   </si>
   <si>
     <t>*Geef een samenvatting in het configuratieblad Talen voor deze stad*</t>
-  </si>
-  <si>
-    <t>Melbourne had relatief goede toegang tot haltes van het openbaar vervoer en open ruimte, en een reeks stadsplanningsbeleid ter ondersteuning van beloopbare buurten, met goede toegang tot openbare open ruimte. De beloopbaarheid en toegang tot frequent openbaar vervoer was echter onrechtvaardig verdeeld, ten gunste van binnenstedelijke gebieden. De eisen voor woningdichtheid moesten worden verhoogd om de beloopbaarheid beter te ondersteunen.</t>
   </si>
   <si>
     <t>Počet
@@ -4167,9 +4099,6 @@
     <t>Política de espacios públicos abiertos en {city}</t>
   </si>
   <si>
-    <t>Spanish (Reviewed)</t>
-  </si>
-  <si>
     <t>(abajo) Estimaciones por {city} para el porcentaje de población con acceso a servicios dentro de 500 metros (m).</t>
   </si>
   <si>
@@ -4489,13 +4418,40 @@
   </si>
   <si>
     <t>Median score for 25 cities internationally</t>
+  </si>
+  <si>
+    <t>Los barrios caminables brindan oportunidades para llevar estilos de vida activos , saludables y sostenibles. Estos tienen la suficiente pero no excesiva densidad habitacional y de población para apoyar la provisión adecuada de servicios locales, incluidos los servicios de transporte público. Están compuestos por usos de suelo mixtos y su conectividad garantizan el acceso cercano y conveniente a los destinos. La infraestructura peatonal de alta calidad y la reducción del tráfico a través de la gestión de la demanda de uso del automóvil pueden alentar a la caminata por transporte.</t>
+  </si>
+  <si>
+    <t>Spanish - Spain</t>
+  </si>
+  <si>
+    <t>Spanish - Mexico</t>
+  </si>
+  <si>
+    <t>Las colonias caminables brindan oportunidades para llevar estilos de vida activos , saludables y sostenibles. Estos tienen la suficiente pero no excesiva densidad habitacional y de población para apoyar la provisión adecuada de servicios locales, incluidos los servicios de transporte público. Están compuestos por usos de suelo mixtos y su conectividad garantizan el acceso cercano y conveniente a los destinos. La infraestructura peatonal de alta calidad y la reducción del tráfico a través de la gestión de la demanda de uso del automóvil pueden alentar a la caminata por transporte.</t>
+  </si>
+  <si>
+    <t>Caminabilidad de la colonia en relación con las 25 ciudades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densidad de población por km² en la colonia </t>
+  </si>
+  <si>
+    <t>Densidad de población por km² en el barrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densidad de intersección de calles por km²  en la colonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Densidad de intersección de calles por km²  en el barrio </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4664,18 +4620,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -5216,13 +5160,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5232,10 +5176,10 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5923,7 +5867,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5980,7 +5924,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6543,7 +6487,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -6603,7 +6547,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6659,7 +6603,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -16878,10 +16822,10 @@
   <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16910,79 +16854,79 @@
         <v>183</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>302</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1165</v>
+        <v>1151</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>301</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>300</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>1162</v>
+        <v>1148</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>297</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>182</v>
+        <v>1440</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>1347</v>
+        <v>1439</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="S1" s="19" t="s">
         <v>197</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="U1" s="19" t="s">
         <v>198</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>293</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="Y1" s="19" t="s">
         <v>218</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="AA1" s="19" t="s">
         <v>292</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -16992,77 +16936,77 @@
         <v>195</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>183</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1167</v>
+        <v>1153</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>1166</v>
+        <v>1152</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>1164</v>
+        <v>1150</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>1163</v>
+        <v>1149</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="P2" s="20" t="s">
+        <v>849</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>849</v>
+      </c>
+      <c r="R2" s="20" t="s">
         <v>653</v>
       </c>
-      <c r="Q2" s="22" t="s">
-        <v>859</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>660</v>
-      </c>
       <c r="S2" s="20" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="T2" s="20" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="U2" s="20" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="V2" s="20" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="W2" s="20"/>
       <c r="X2" s="34" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
@@ -17072,61 +17016,63 @@
         <v>195</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>918</v>
+        <v>906</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>1107</v>
+        <v>1094</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>1075</v>
+        <v>1062</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>1168</v>
+        <v>1154</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="37" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="37" t="s">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="37" t="s">
-        <v>945</v>
-      </c>
-      <c r="P3" s="22"/>
+        <v>933</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>1007</v>
+      </c>
       <c r="Q3" s="22" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="37" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="39" t="s">
-        <v>1085</v>
+        <v>1072</v>
       </c>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22" t="s">
-        <v>1094</v>
+        <v>1081</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -17136,61 +17082,63 @@
         <v>195</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>1169</v>
+        <v>1155</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="37" t="s">
-        <v>928</v>
+        <v>916</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37" t="s">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="37" t="s">
-        <v>946</v>
-      </c>
-      <c r="P4" s="22"/>
+        <v>934</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>1008</v>
+      </c>
       <c r="Q4" s="22" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="37" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="37" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="39" t="s">
-        <v>1086</v>
+        <v>1073</v>
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22" t="s">
-        <v>1095</v>
+        <v>1082</v>
       </c>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -17207,15 +17155,15 @@
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>1170</v>
+        <v>1156</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="37" t="s">
@@ -17223,38 +17171,40 @@
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
-        <v>1248</v>
+        <v>1233</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="37" t="s">
-        <v>947</v>
-      </c>
-      <c r="P5" s="22"/>
+        <v>935</v>
+      </c>
+      <c r="P5" s="22" t="s">
+        <v>850</v>
+      </c>
       <c r="Q5" s="22" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="37" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="U5" s="22"/>
       <c r="V5" s="37" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="39" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="Y5" s="22"/>
       <c r="Z5" s="22" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -17319,12 +17269,12 @@
       <c r="M7" s="37"/>
       <c r="N7" s="22"/>
       <c r="O7" s="37"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22" t="s">
-        <v>648</v>
-      </c>
+      <c r="P7" s="22" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q7" s="22"/>
       <c r="R7" s="22" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="37"/>
@@ -17461,7 +17411,7 @@
         <v>251</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -17480,7 +17430,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="37" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="U11" s="22"/>
       <c r="V11" s="37"/>
@@ -17507,7 +17457,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -17564,7 +17514,7 @@
       <c r="V13" s="37"/>
       <c r="W13" s="22"/>
       <c r="X13" s="39" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
@@ -17606,7 +17556,7 @@
       <c r="X14" s="39"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
@@ -17648,7 +17598,7 @@
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="AC15" s="22"/>
       <c r="AD15" s="22"/>
@@ -17713,7 +17663,7 @@
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="37"/>
@@ -17789,7 +17739,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>1171</v>
+        <v>1157</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="37"/>
@@ -17835,7 +17785,7 @@
       <c r="M20" s="37"/>
       <c r="N20" s="22"/>
       <c r="O20" s="37" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -17949,7 +17899,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -18092,7 +18042,7 @@
       <c r="T26" s="37"/>
       <c r="U26" s="22"/>
       <c r="V26" s="37" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="W26" s="22"/>
       <c r="X26" s="39"/>
@@ -18260,10 +18210,10 @@
         <v>195</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>1419</v>
+        <v>1402</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1389</v>
+        <v>1372</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -18298,10 +18248,10 @@
         <v>195</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>1420</v>
+        <v>1403</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>1390</v>
+        <v>1373</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -18315,12 +18265,12 @@
       <c r="M32" s="37"/>
       <c r="N32" s="22"/>
       <c r="O32" s="37"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22" t="s">
-        <v>1415</v>
-      </c>
+      <c r="P32" s="22" t="s">
+        <v>1398</v>
+      </c>
+      <c r="Q32" s="22"/>
       <c r="R32" s="22" t="s">
-        <v>1415</v>
+        <v>1398</v>
       </c>
       <c r="S32" s="22"/>
       <c r="T32" s="37"/>
@@ -18340,10 +18290,10 @@
         <v>195</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>1421</v>
+        <v>1404</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -18378,10 +18328,10 @@
         <v>195</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>1422</v>
+        <v>1405</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -18416,10 +18366,10 @@
         <v>195</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>1423</v>
+        <v>1406</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>1391</v>
+        <v>1374</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -18454,10 +18404,10 @@
         <v>195</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>1424</v>
+        <v>1407</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>1392</v>
+        <v>1375</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -18476,7 +18426,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="37" t="s">
-        <v>1416</v>
+        <v>1399</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="37"/>
@@ -18494,16 +18444,16 @@
         <v>195</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1425</v>
+        <v>1408</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>1393</v>
+        <v>1376</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22" t="s">
-        <v>1409</v>
+        <v>1392</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -18534,10 +18484,10 @@
         <v>195</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>1426</v>
+        <v>1409</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1394</v>
+        <v>1377</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -18560,7 +18510,7 @@
       <c r="V38" s="37"/>
       <c r="W38" s="22"/>
       <c r="X38" s="39" t="s">
-        <v>1417</v>
+        <v>1400</v>
       </c>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
@@ -18574,10 +18524,10 @@
         <v>195</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1395</v>
+        <v>1378</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -18602,7 +18552,7 @@
       <c r="X39" s="39"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="22" t="s">
-        <v>1087</v>
+        <v>1074</v>
       </c>
       <c r="AA39" s="22"/>
       <c r="AB39" s="22"/>
@@ -18614,10 +18564,10 @@
         <v>195</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1428</v>
+        <v>1411</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1396</v>
+        <v>1379</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -18644,7 +18594,7 @@
       <c r="Z40" s="22"/>
       <c r="AA40" s="22"/>
       <c r="AB40" s="22" t="s">
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="AC40" s="22"/>
       <c r="AD40" s="22"/>
@@ -18654,10 +18604,10 @@
         <v>195</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1397</v>
+        <v>1380</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -18671,7 +18621,7 @@
       <c r="M41" s="37"/>
       <c r="N41" s="22"/>
       <c r="O41" s="37" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -18694,10 +18644,10 @@
         <v>195</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1430</v>
+        <v>1413</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -18709,7 +18659,7 @@
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37" t="s">
-        <v>1412</v>
+        <v>1395</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="37"/>
@@ -18734,10 +18684,10 @@
         <v>195</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1431</v>
+        <v>1414</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1399</v>
+        <v>1382</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -18751,7 +18701,7 @@
       <c r="M43" s="37"/>
       <c r="N43" s="22"/>
       <c r="O43" s="37" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
@@ -18774,10 +18724,10 @@
         <v>195</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>1432</v>
+        <v>1415</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1400</v>
+        <v>1383</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -18785,7 +18735,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>1410</v>
+        <v>1393</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="37"/>
@@ -18814,10 +18764,10 @@
         <v>195</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1433</v>
+        <v>1416</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1401</v>
+        <v>1384</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -18831,7 +18781,7 @@
       <c r="M45" s="37"/>
       <c r="N45" s="22"/>
       <c r="O45" s="37" t="s">
-        <v>1413</v>
+        <v>1396</v>
       </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
@@ -18854,10 +18804,10 @@
         <v>195</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1434</v>
+        <v>1417</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1402</v>
+        <v>1385</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -18867,7 +18817,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="22"/>
       <c r="K46" s="37" t="s">
-        <v>1411</v>
+        <v>1394</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
@@ -18894,14 +18844,14 @@
         <v>195</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>1435</v>
+        <v>1418</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -18915,10 +18865,10 @@
       <c r="O47" s="37"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="S47" s="22"/>
       <c r="T47" s="37"/>
@@ -18938,14 +18888,14 @@
         <v>195</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1436</v>
+        <v>1419</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -18959,10 +18909,10 @@
       <c r="O48" s="37"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="S48" s="22"/>
       <c r="T48" s="37"/>
@@ -18982,14 +18932,14 @@
         <v>195</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1437</v>
+        <v>1420</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1403</v>
+        <v>1386</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>1408</v>
+        <v>1391</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -19003,10 +18953,10 @@
       <c r="O49" s="37"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="R49" s="22" t="s">
-        <v>1414</v>
+        <v>1397</v>
       </c>
       <c r="S49" s="22"/>
       <c r="T49" s="37"/>
@@ -19026,10 +18976,10 @@
         <v>195</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1438</v>
+        <v>1421</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>1404</v>
+        <v>1387</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -19064,10 +19014,10 @@
         <v>195</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1439</v>
+        <v>1422</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -19088,7 +19038,7 @@
       <c r="T51" s="37"/>
       <c r="U51" s="22"/>
       <c r="V51" s="37" t="s">
-        <v>1405</v>
+        <v>1388</v>
       </c>
       <c r="W51" s="22"/>
       <c r="X51" s="39"/>
@@ -19104,10 +19054,10 @@
         <v>195</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1440</v>
+        <v>1423</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -19142,10 +19092,10 @@
         <v>195</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>1441</v>
+        <v>1424</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -19180,10 +19130,10 @@
         <v>195</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>1406</v>
+        <v>1389</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -19218,10 +19168,10 @@
         <v>195</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1443</v>
+        <v>1426</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>1407</v>
+        <v>1390</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -19263,13 +19213,13 @@
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
-        <v>1172</v>
+        <v>1158</v>
       </c>
       <c r="J56" s="20"/>
       <c r="K56" s="37" t="s">
@@ -19277,38 +19227,40 @@
       </c>
       <c r="L56" s="37"/>
       <c r="M56" s="37" t="s">
-        <v>1249</v>
+        <v>1234</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="37" t="s">
-        <v>948</v>
-      </c>
-      <c r="P56" s="20"/>
+        <v>936</v>
+      </c>
+      <c r="P56" s="20" t="s">
+        <v>851</v>
+      </c>
       <c r="Q56" s="22" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="R56" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S56" s="20"/>
       <c r="T56" s="37" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="U56" s="20"/>
       <c r="V56" s="37" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="W56" s="20"/>
       <c r="X56" s="39" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
@@ -19321,58 +19273,60 @@
         <v>200</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21" t="s">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="J57" s="20"/>
       <c r="K57" s="37" t="s">
-        <v>930</v>
+        <v>918</v>
       </c>
       <c r="L57" s="37"/>
       <c r="M57" s="37" t="s">
-        <v>1250</v>
+        <v>1235</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="37" t="s">
-        <v>949</v>
-      </c>
-      <c r="P57" s="20"/>
+        <v>937</v>
+      </c>
+      <c r="P57" s="20" t="s">
+        <v>852</v>
+      </c>
       <c r="Q57" s="22" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="R57" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S57" s="20"/>
       <c r="T57" s="37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U57" s="20"/>
       <c r="V57" s="37" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="W57" s="20"/>
       <c r="X57" s="39" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
@@ -19389,15 +19343,15 @@
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
-        <v>1174</v>
+        <v>1160</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="37" t="s">
@@ -19405,38 +19359,40 @@
       </c>
       <c r="L58" s="37"/>
       <c r="M58" s="37" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="37" t="s">
-        <v>950</v>
-      </c>
-      <c r="P58" s="20"/>
+        <v>938</v>
+      </c>
+      <c r="P58" s="20" t="s">
+        <v>387</v>
+      </c>
       <c r="Q58" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="R58" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S58" s="20"/>
       <c r="T58" s="37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="U58" s="20"/>
       <c r="V58" s="37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="W58" s="20"/>
       <c r="X58" s="39" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
@@ -19453,15 +19409,15 @@
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21" t="s">
-        <v>1175</v>
+        <v>1161</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="37" t="s">
@@ -19469,38 +19425,40 @@
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="N59" s="20"/>
       <c r="O59" s="37" t="s">
-        <v>951</v>
-      </c>
-      <c r="P59" s="20"/>
+        <v>939</v>
+      </c>
+      <c r="P59" s="20" t="s">
+        <v>853</v>
+      </c>
       <c r="Q59" s="22" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="R59" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S59" s="20"/>
       <c r="T59" s="37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="U59" s="20"/>
       <c r="V59" s="37" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="W59" s="20"/>
       <c r="X59" s="39" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="AC59" s="20"/>
       <c r="AD59" s="20"/>
@@ -19517,15 +19475,15 @@
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21" t="s">
-        <v>1176</v>
+        <v>1162</v>
       </c>
       <c r="J60" s="20"/>
       <c r="K60" s="37" t="s">
@@ -19533,38 +19491,40 @@
       </c>
       <c r="L60" s="37"/>
       <c r="M60" s="37" t="s">
-        <v>1253</v>
+        <v>1238</v>
       </c>
       <c r="N60" s="20"/>
       <c r="O60" s="37" t="s">
-        <v>952</v>
-      </c>
-      <c r="P60" s="20"/>
+        <v>940</v>
+      </c>
+      <c r="P60" s="20" t="s">
+        <v>389</v>
+      </c>
       <c r="Q60" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R60" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S60" s="20"/>
       <c r="T60" s="37" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="U60" s="20"/>
       <c r="V60" s="37" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="W60" s="20"/>
       <c r="X60" s="39" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
@@ -19581,15 +19541,15 @@
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21" t="s">
-        <v>1177</v>
+        <v>1163</v>
       </c>
       <c r="J61" s="20"/>
       <c r="K61" s="37" t="s">
@@ -19597,38 +19557,40 @@
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37" t="s">
-        <v>1254</v>
+        <v>1239</v>
       </c>
       <c r="N61" s="20"/>
       <c r="O61" s="37" t="s">
-        <v>953</v>
-      </c>
-      <c r="P61" s="20"/>
+        <v>941</v>
+      </c>
+      <c r="P61" s="20" t="s">
+        <v>390</v>
+      </c>
       <c r="Q61" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R61" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S61" s="20"/>
       <c r="T61" s="37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="U61" s="20"/>
       <c r="V61" s="37" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="W61" s="20"/>
       <c r="X61" s="39" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="AC61" s="20"/>
       <c r="AD61" s="20"/>
@@ -19645,15 +19607,15 @@
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="20" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
-        <v>1178</v>
+        <v>1164</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="37" t="s">
@@ -19661,38 +19623,40 @@
       </c>
       <c r="L62" s="37"/>
       <c r="M62" s="37" t="s">
-        <v>1255</v>
+        <v>1240</v>
       </c>
       <c r="N62" s="20"/>
       <c r="O62" s="37" t="s">
-        <v>954</v>
-      </c>
-      <c r="P62" s="20"/>
+        <v>942</v>
+      </c>
+      <c r="P62" s="20" t="s">
+        <v>391</v>
+      </c>
       <c r="Q62" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R62" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S62" s="20"/>
       <c r="T62" s="37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="U62" s="20"/>
       <c r="V62" s="37" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="W62" s="20"/>
       <c r="X62" s="39" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
@@ -19705,19 +19669,19 @@
         <v>206</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>1448</v>
+        <v>1431</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21" t="s">
-        <v>1179</v>
+        <v>1165</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="37" t="s">
@@ -19725,38 +19689,40 @@
       </c>
       <c r="L63" s="37"/>
       <c r="M63" s="37" t="s">
-        <v>1256</v>
+        <v>1241</v>
       </c>
       <c r="N63" s="20"/>
       <c r="O63" s="37" t="s">
-        <v>955</v>
-      </c>
-      <c r="P63" s="20"/>
+        <v>943</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>854</v>
+      </c>
       <c r="Q63" s="22" t="s">
-        <v>864</v>
+        <v>1442</v>
       </c>
       <c r="R63" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S63" s="20"/>
       <c r="T63" s="37" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="U63" s="20"/>
       <c r="V63" s="37" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="W63" s="20"/>
       <c r="X63" s="39" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
@@ -19773,15 +19739,15 @@
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
-        <v>1180</v>
+        <v>1166</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="37" t="s">
@@ -19789,38 +19755,40 @@
       </c>
       <c r="L64" s="37"/>
       <c r="M64" s="37" t="s">
-        <v>1257</v>
+        <v>1242</v>
       </c>
       <c r="N64" s="20"/>
       <c r="O64" s="37" t="s">
-        <v>956</v>
-      </c>
-      <c r="P64" s="20"/>
+        <v>944</v>
+      </c>
+      <c r="P64" s="20" t="s">
+        <v>393</v>
+      </c>
       <c r="Q64" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R64" s="20" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S64" s="20"/>
       <c r="T64" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U64" s="20"/>
       <c r="V64" s="37" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="W64" s="20"/>
       <c r="X64" s="39" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
@@ -19837,15 +19805,15 @@
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21" t="s">
-        <v>1181</v>
+        <v>1167</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="37" t="s">
@@ -19853,38 +19821,40 @@
       </c>
       <c r="L65" s="37"/>
       <c r="M65" s="37" t="s">
-        <v>1258</v>
+        <v>1243</v>
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="37" t="s">
-        <v>957</v>
-      </c>
-      <c r="P65" s="20"/>
+        <v>945</v>
+      </c>
+      <c r="P65" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="Q65" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R65" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S65" s="20"/>
       <c r="T65" s="37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="U65" s="20"/>
       <c r="V65" s="37" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="W65" s="20"/>
       <c r="X65" s="39" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
@@ -19901,15 +19871,15 @@
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21" t="s">
-        <v>1182</v>
+        <v>1168</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="37" t="s">
@@ -19917,38 +19887,40 @@
       </c>
       <c r="L66" s="37"/>
       <c r="M66" s="37" t="s">
-        <v>1259</v>
+        <v>1244</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="37" t="s">
-        <v>958</v>
-      </c>
-      <c r="P66" s="20"/>
+        <v>946</v>
+      </c>
+      <c r="P66" s="20" t="s">
+        <v>395</v>
+      </c>
       <c r="Q66" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R66" s="20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S66" s="20"/>
       <c r="T66" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="U66" s="20"/>
       <c r="V66" s="37" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="W66" s="20"/>
       <c r="X66" s="39" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="AC66" s="20"/>
       <c r="AD66" s="20"/>
@@ -19961,58 +19933,60 @@
         <v>210</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20" t="s">
-        <v>1109</v>
+        <v>1096</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21" t="s">
-        <v>1183</v>
+        <v>1169</v>
       </c>
       <c r="J67" s="20"/>
       <c r="K67" s="37" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="L67" s="37"/>
       <c r="M67" s="37" t="s">
-        <v>1260</v>
+        <v>1245</v>
       </c>
       <c r="N67" s="20"/>
       <c r="O67" s="37" t="s">
-        <v>959</v>
-      </c>
-      <c r="P67" s="20"/>
+        <v>947</v>
+      </c>
+      <c r="P67" s="20" t="s">
+        <v>883</v>
+      </c>
       <c r="Q67" s="22" t="s">
-        <v>895</v>
+        <v>883</v>
       </c>
       <c r="R67" s="20" t="s">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="S67" s="20"/>
       <c r="T67" s="37" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="U67" s="20"/>
       <c r="V67" s="37" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="W67" s="20"/>
       <c r="X67" s="39" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20" t="s">
-        <v>1096</v>
+        <v>1083</v>
       </c>
       <c r="AC67" s="20"/>
       <c r="AD67" s="20"/>
@@ -20029,54 +20003,56 @@
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20" t="s">
-        <v>1152</v>
+        <v>1138</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="20" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
-        <v>1184</v>
+        <v>1170</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="37" t="s">
-        <v>1145</v>
+        <v>1131</v>
       </c>
       <c r="L68" s="37"/>
       <c r="M68" s="37" t="s">
-        <v>1261</v>
+        <v>1246</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="37" t="s">
-        <v>1146</v>
-      </c>
-      <c r="P68" s="20"/>
+        <v>1132</v>
+      </c>
+      <c r="P68" s="20" t="s">
+        <v>887</v>
+      </c>
       <c r="Q68" s="22" t="s">
-        <v>899</v>
+        <v>887</v>
       </c>
       <c r="R68" s="20" t="s">
-        <v>1147</v>
+        <v>1133</v>
       </c>
       <c r="S68" s="20"/>
       <c r="T68" s="37" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="U68" s="20"/>
       <c r="V68" s="37" t="s">
-        <v>1148</v>
+        <v>1134</v>
       </c>
       <c r="W68" s="20"/>
       <c r="X68" s="39" t="s">
-        <v>1150</v>
+        <v>1136</v>
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20" t="s">
-        <v>1149</v>
+        <v>1135</v>
       </c>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20" t="s">
-        <v>1151</v>
+        <v>1137</v>
       </c>
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
@@ -20093,54 +20069,56 @@
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20" t="s">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>1185</v>
+        <v>1171</v>
       </c>
       <c r="J69" s="20"/>
       <c r="K69" s="37" t="s">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="37" t="s">
-        <v>1156</v>
-      </c>
-      <c r="P69" s="20"/>
+        <v>1142</v>
+      </c>
+      <c r="P69" s="20" t="s">
+        <v>886</v>
+      </c>
       <c r="Q69" s="22" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="R69" s="20" t="s">
-        <v>1157</v>
+        <v>1143</v>
       </c>
       <c r="S69" s="20"/>
       <c r="T69" s="37" t="s">
-        <v>1158</v>
+        <v>1144</v>
       </c>
       <c r="U69" s="20"/>
       <c r="V69" s="37" t="s">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="W69" s="20"/>
       <c r="X69" s="39" t="s">
-        <v>1161</v>
+        <v>1147</v>
       </c>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20" t="s">
-        <v>1160</v>
+        <v>1146</v>
       </c>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20" t="s">
-        <v>1154</v>
+        <v>1140</v>
       </c>
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
@@ -20150,61 +20128,63 @@
         <v>196</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20" t="s">
-        <v>1110</v>
+        <v>1097</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="20" t="s">
-        <v>1077</v>
+        <v>1064</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>1186</v>
+        <v>1172</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="37" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37" t="s">
-        <v>1263</v>
+        <v>1248</v>
       </c>
       <c r="N70" s="20"/>
       <c r="O70" s="37" t="s">
-        <v>960</v>
-      </c>
-      <c r="P70" s="20"/>
+        <v>948</v>
+      </c>
+      <c r="P70" s="20" t="s">
+        <v>855</v>
+      </c>
       <c r="Q70" s="22" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="R70" s="20" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="S70" s="20"/>
       <c r="T70" s="37" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="U70" s="20"/>
       <c r="V70" s="37" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="W70" s="20"/>
       <c r="X70" s="39" t="s">
-        <v>905</v>
+        <v>893</v>
       </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20" t="s">
-        <v>1097</v>
+        <v>1084</v>
       </c>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
@@ -20221,15 +20201,15 @@
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="20" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21" t="s">
-        <v>1187</v>
+        <v>1173</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="37" t="s">
@@ -20237,38 +20217,40 @@
       </c>
       <c r="L71" s="37"/>
       <c r="M71" s="37" t="s">
-        <v>1264</v>
+        <v>1249</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="37" t="s">
-        <v>961</v>
-      </c>
-      <c r="P71" s="20"/>
+        <v>949</v>
+      </c>
+      <c r="P71" s="20" t="s">
+        <v>396</v>
+      </c>
       <c r="Q71" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R71" s="20" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S71" s="20"/>
       <c r="T71" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="U71" s="20"/>
       <c r="V71" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="W71" s="20"/>
       <c r="X71" s="39" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
@@ -20285,54 +20267,56 @@
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20" t="s">
-        <v>1136</v>
+        <v>1122</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="20" t="s">
-        <v>1139</v>
+        <v>1125</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="37" t="s">
-        <v>1144</v>
+        <v>1130</v>
       </c>
       <c r="L72" s="37"/>
       <c r="M72" s="37" t="s">
-        <v>1317</v>
+        <v>1301</v>
       </c>
       <c r="N72" s="20"/>
       <c r="O72" s="37" t="s">
-        <v>1143</v>
-      </c>
-      <c r="P72" s="20"/>
+        <v>1129</v>
+      </c>
+      <c r="P72" s="20" t="s">
+        <v>856</v>
+      </c>
       <c r="Q72" s="22" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="R72" s="20" t="s">
-        <v>1142</v>
+        <v>1128</v>
       </c>
       <c r="S72" s="20"/>
       <c r="T72" s="37" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="U72" s="20"/>
       <c r="V72" s="37" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="W72" s="20"/>
       <c r="X72" s="39" t="s">
-        <v>1138</v>
+        <v>1124</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20" t="s">
-        <v>1140</v>
+        <v>1126</v>
       </c>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20" t="s">
-        <v>1137</v>
+        <v>1123</v>
       </c>
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
@@ -20342,61 +20326,63 @@
         <v>196</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>920</v>
+        <v>908</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20" t="s">
-        <v>1078</v>
+        <v>1065</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21" t="s">
-        <v>1188</v>
+        <v>1174</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="37" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="L73" s="37"/>
       <c r="M73" s="37" t="s">
-        <v>921</v>
+        <v>909</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="37" t="s">
-        <v>962</v>
-      </c>
-      <c r="P73" s="20"/>
+        <v>950</v>
+      </c>
+      <c r="P73" s="20" t="s">
+        <v>1010</v>
+      </c>
       <c r="Q73" s="20" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="R73" s="20" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="S73" s="20"/>
       <c r="T73" s="37" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="U73" s="20"/>
       <c r="V73" s="37" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="W73" s="20"/>
       <c r="X73" s="39" t="s">
-        <v>1088</v>
+        <v>1075</v>
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20" t="s">
-        <v>1059</v>
+        <v>1046</v>
       </c>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20" t="s">
-        <v>1098</v>
+        <v>1085</v>
       </c>
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
@@ -20409,58 +20395,60 @@
         <v>215</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>922</v>
+        <v>910</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20" t="s">
-        <v>1111</v>
+        <v>1098</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="20" t="s">
-        <v>1079</v>
+        <v>1066</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
-        <v>1189</v>
+        <v>1175</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="37" t="s">
-        <v>934</v>
+        <v>922</v>
       </c>
       <c r="L74" s="37"/>
       <c r="M74" s="37" t="s">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="N74" s="20"/>
       <c r="O74" s="37" t="s">
-        <v>963</v>
-      </c>
-      <c r="P74" s="20"/>
+        <v>951</v>
+      </c>
+      <c r="P74" s="20" t="s">
+        <v>1444</v>
+      </c>
       <c r="Q74" s="22" t="s">
-        <v>867</v>
+        <v>1443</v>
       </c>
       <c r="R74" s="20" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="S74" s="20"/>
       <c r="T74" s="37" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="U74" s="20"/>
       <c r="V74" s="37" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
       <c r="W74" s="20"/>
       <c r="X74" s="39" t="s">
-        <v>1089</v>
+        <v>1076</v>
       </c>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20" t="s">
-        <v>1060</v>
+        <v>1047</v>
       </c>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20" t="s">
-        <v>1099</v>
+        <v>1086</v>
       </c>
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
@@ -20473,58 +20461,60 @@
         <v>216</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="20" t="s">
-        <v>1112</v>
+        <v>1099</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="37" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="L75" s="37"/>
       <c r="M75" s="37" t="s">
-        <v>1266</v>
+        <v>1251</v>
       </c>
       <c r="N75" s="20"/>
       <c r="O75" s="37" t="s">
-        <v>964</v>
-      </c>
-      <c r="P75" s="20"/>
+        <v>952</v>
+      </c>
+      <c r="P75" s="20" t="s">
+        <v>1446</v>
+      </c>
       <c r="Q75" s="22" t="s">
-        <v>868</v>
+        <v>1445</v>
       </c>
       <c r="R75" s="20" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="S75" s="20"/>
       <c r="T75" s="37" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
       <c r="U75" s="20"/>
       <c r="V75" s="37" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="W75" s="20"/>
       <c r="X75" s="39" t="s">
-        <v>1090</v>
+        <v>1077</v>
       </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20" t="s">
-        <v>1061</v>
+        <v>1048</v>
       </c>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20" t="s">
-        <v>1100</v>
+        <v>1087</v>
       </c>
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
@@ -20537,19 +20527,19 @@
         <v>272</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>1454</v>
+        <v>1437</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="20" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="37" t="s">
@@ -20557,38 +20547,40 @@
       </c>
       <c r="L76" s="37"/>
       <c r="M76" s="37" t="s">
-        <v>1267</v>
+        <v>1252</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="37" t="s">
-        <v>965</v>
-      </c>
-      <c r="P76" s="20"/>
+        <v>953</v>
+      </c>
+      <c r="P76" s="20" t="s">
+        <v>857</v>
+      </c>
       <c r="Q76" s="22" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="R76" s="20" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S76" s="20"/>
       <c r="T76" s="37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="U76" s="20"/>
       <c r="V76" s="37" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="W76" s="20"/>
       <c r="X76" s="39" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="AC76" s="20"/>
       <c r="AD76" s="20"/>
@@ -20605,54 +20597,56 @@
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22" t="s">
-        <v>1081</v>
+        <v>1068</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="J77" s="22"/>
       <c r="K77" s="37" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="L77" s="37"/>
       <c r="M77" s="37" t="s">
-        <v>1268</v>
+        <v>1253</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="37" t="s">
-        <v>966</v>
-      </c>
-      <c r="P77" s="22"/>
+        <v>954</v>
+      </c>
+      <c r="P77" s="22" t="s">
+        <v>858</v>
+      </c>
       <c r="Q77" s="22" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="R77" s="22" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="S77" s="22"/>
       <c r="T77" s="37" t="s">
-        <v>1035</v>
+        <v>1022</v>
       </c>
       <c r="U77" s="22"/>
       <c r="V77" s="37" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="W77" s="22"/>
       <c r="X77" s="39" t="s">
-        <v>1091</v>
+        <v>1078</v>
       </c>
       <c r="Y77" s="22"/>
       <c r="Z77" s="22" t="s">
-        <v>1062</v>
+        <v>1049</v>
       </c>
       <c r="AA77" s="22"/>
       <c r="AB77" s="22" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="AC77" s="22"/>
       <c r="AD77" s="22"/>
@@ -20669,54 +20663,56 @@
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
-        <v>1082</v>
+        <v>1069</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="J78" s="22"/>
       <c r="K78" s="37" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="L78" s="37"/>
       <c r="M78" s="37" t="s">
-        <v>1269</v>
+        <v>1254</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="37" t="s">
-        <v>967</v>
-      </c>
-      <c r="P78" s="22"/>
+        <v>955</v>
+      </c>
+      <c r="P78" s="22" t="s">
+        <v>859</v>
+      </c>
       <c r="Q78" s="22" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="R78" s="22" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="S78" s="22"/>
       <c r="T78" s="37" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="U78" s="22"/>
       <c r="V78" s="37" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="W78" s="22"/>
       <c r="X78" s="39" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="Y78" s="22"/>
       <c r="Z78" s="22" t="s">
-        <v>1063</v>
+        <v>1050</v>
       </c>
       <c r="AA78" s="22"/>
       <c r="AB78" s="22" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="AC78" s="22"/>
       <c r="AD78" s="22"/>
@@ -20733,54 +20729,56 @@
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="37" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L79" s="37"/>
       <c r="M79" s="37" t="s">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="37" t="s">
-        <v>968</v>
-      </c>
-      <c r="P79" s="22"/>
+        <v>956</v>
+      </c>
+      <c r="P79" s="22" t="s">
+        <v>630</v>
+      </c>
       <c r="Q79" s="22" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="R79" s="22" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="S79" s="22"/>
       <c r="T79" s="37" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="U79" s="22"/>
       <c r="V79" s="37" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="W79" s="22"/>
       <c r="X79" s="39" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="Y79" s="22"/>
       <c r="Z79" s="22" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="AA79" s="22"/>
       <c r="AB79" s="22" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="AC79" s="22"/>
       <c r="AD79" s="22"/>
@@ -20797,15 +20795,15 @@
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="37" t="s">
@@ -20813,38 +20811,40 @@
       </c>
       <c r="L80" s="37"/>
       <c r="M80" s="37" t="s">
-        <v>1271</v>
+        <v>1256</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="37" t="s">
-        <v>969</v>
-      </c>
-      <c r="P80" s="22"/>
+        <v>957</v>
+      </c>
+      <c r="P80" s="22" t="s">
+        <v>860</v>
+      </c>
       <c r="Q80" s="22" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="R80" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S80" s="22"/>
       <c r="T80" s="37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="U80" s="22"/>
       <c r="V80" s="37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="W80" s="22"/>
       <c r="X80" s="39" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="Y80" s="22"/>
       <c r="Z80" s="22" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="AA80" s="22"/>
       <c r="AB80" s="22" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="AC80" s="22"/>
       <c r="AD80" s="22"/>
@@ -20857,58 +20857,60 @@
         <v>42</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
-        <v>1113</v>
+        <v>1100</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22" t="s">
-        <v>1318</v>
+        <v>1302</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23" t="s">
-        <v>1327</v>
+        <v>1311</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="37" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="L81" s="37"/>
       <c r="M81" s="37" t="s">
-        <v>1334</v>
+        <v>1318</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="37" t="s">
-        <v>1342</v>
-      </c>
-      <c r="P81" s="22"/>
+        <v>1326</v>
+      </c>
+      <c r="P81" s="22" t="s">
+        <v>1332</v>
+      </c>
       <c r="Q81" s="22" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="R81" s="22" t="s">
-        <v>1349</v>
+        <v>1332</v>
       </c>
       <c r="S81" s="22"/>
       <c r="T81" s="37" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="U81" s="22"/>
       <c r="V81" s="37" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="W81" s="22"/>
       <c r="X81" s="39" t="s">
-        <v>1364</v>
+        <v>1347</v>
       </c>
       <c r="Y81" s="22"/>
       <c r="Z81" s="22" t="s">
-        <v>1370</v>
+        <v>1353</v>
       </c>
       <c r="AA81" s="22"/>
       <c r="AB81" s="22" t="s">
-        <v>1101</v>
+        <v>1088</v>
       </c>
       <c r="AC81" s="22"/>
       <c r="AD81" s="22"/>
@@ -20921,58 +20923,60 @@
         <v>242</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1445</v>
+        <v>1428</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="s">
-        <v>1114</v>
+        <v>1101</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="22" t="s">
-        <v>1388</v>
+        <v>1371</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
-        <v>1328</v>
+        <v>1312</v>
       </c>
       <c r="J82" s="22"/>
       <c r="K82" s="37" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="L82" s="37"/>
       <c r="M82" s="37" t="s">
-        <v>1272</v>
+        <v>1257</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="37" t="s">
-        <v>970</v>
-      </c>
-      <c r="P82" s="22"/>
+        <v>958</v>
+      </c>
+      <c r="P82" s="22" t="s">
+        <v>881</v>
+      </c>
       <c r="Q82" s="22" t="s">
-        <v>893</v>
+        <v>881</v>
       </c>
       <c r="R82" s="22" t="s">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="S82" s="22"/>
       <c r="T82" s="37" t="s">
-        <v>1036</v>
+        <v>1023</v>
       </c>
       <c r="U82" s="22"/>
       <c r="V82" s="37" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="W82" s="22"/>
       <c r="X82" s="39" t="s">
-        <v>1365</v>
+        <v>1348</v>
       </c>
       <c r="Y82" s="22"/>
       <c r="Z82" s="22" t="s">
-        <v>1064</v>
+        <v>1051</v>
       </c>
       <c r="AA82" s="22"/>
       <c r="AB82" s="22" t="s">
-        <v>1372</v>
+        <v>1355</v>
       </c>
       <c r="AC82" s="22"/>
       <c r="AD82" s="22"/>
@@ -20982,61 +20986,63 @@
         <v>195</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>1444</v>
+        <v>1427</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22" t="s">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="22" t="s">
-        <v>1319</v>
+        <v>1303</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="J83" s="22"/>
       <c r="K83" s="37" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="L83" s="37"/>
       <c r="M83" s="37" t="s">
-        <v>1335</v>
+        <v>1319</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="37" t="s">
-        <v>1343</v>
-      </c>
-      <c r="P83" s="22"/>
+        <v>1327</v>
+      </c>
+      <c r="P83" s="22" t="s">
+        <v>882</v>
+      </c>
       <c r="Q83" s="22" t="s">
-        <v>894</v>
+        <v>882</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>1351</v>
+        <v>1334</v>
       </c>
       <c r="S83" s="22"/>
       <c r="T83" s="37" t="s">
-        <v>1358</v>
+        <v>1341</v>
       </c>
       <c r="U83" s="22"/>
       <c r="V83" s="37" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="W83" s="22"/>
       <c r="X83" s="39" t="s">
-        <v>1366</v>
+        <v>1349</v>
       </c>
       <c r="Y83" s="22"/>
       <c r="Z83" s="22" t="s">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="AA83" s="22"/>
       <c r="AB83" s="22" t="s">
-        <v>1376</v>
+        <v>1359</v>
       </c>
       <c r="AC83" s="22"/>
       <c r="AD83" s="22"/>
@@ -21049,58 +21055,60 @@
         <v>44</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>1446</v>
+        <v>1429</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22" t="s">
-        <v>1116</v>
+        <v>1103</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="22" t="s">
-        <v>1320</v>
+        <v>1304</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="37" t="s">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="L84" s="37"/>
       <c r="M84" s="37" t="s">
-        <v>1336</v>
+        <v>1320</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="37" t="s">
-        <v>971</v>
-      </c>
-      <c r="P84" s="22"/>
+        <v>959</v>
+      </c>
+      <c r="P84" s="22" t="s">
+        <v>1331</v>
+      </c>
       <c r="Q84" s="22" t="s">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="R84" s="22" t="s">
-        <v>1352</v>
+        <v>1335</v>
       </c>
       <c r="S84" s="22"/>
       <c r="T84" s="37" t="s">
-        <v>1359</v>
+        <v>1342</v>
       </c>
       <c r="U84" s="22"/>
       <c r="V84" s="37" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="W84" s="22"/>
       <c r="X84" s="39" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="Y84" s="22"/>
       <c r="Z84" s="22" t="s">
-        <v>1066</v>
+        <v>1053</v>
       </c>
       <c r="AA84" s="22"/>
       <c r="AB84" s="22" t="s">
-        <v>1375</v>
+        <v>1358</v>
       </c>
       <c r="AC84" s="22"/>
       <c r="AD84" s="22"/>
@@ -21113,19 +21121,19 @@
         <v>45</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>1450</v>
+        <v>1433</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="22" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="37" t="s">
@@ -21133,22 +21141,24 @@
       </c>
       <c r="L85" s="37"/>
       <c r="M85" s="37" t="s">
-        <v>1273</v>
+        <v>1258</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="37" t="s">
-        <v>972</v>
-      </c>
-      <c r="P85" s="22"/>
+        <v>960</v>
+      </c>
+      <c r="P85" s="22" t="s">
+        <v>861</v>
+      </c>
       <c r="Q85" s="22" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="R85" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S85" s="22"/>
       <c r="T85" s="37" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="U85" s="22"/>
       <c r="V85" s="37" t="s">
@@ -21156,15 +21166,15 @@
       </c>
       <c r="W85" s="22"/>
       <c r="X85" s="39" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="Y85" s="22"/>
       <c r="Z85" s="22" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AA85" s="22"/>
       <c r="AB85" s="22" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AC85" s="22"/>
       <c r="AD85" s="22"/>
@@ -21177,19 +21187,19 @@
         <v>48</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>1449</v>
+        <v>1432</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="22" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="37" t="s">
@@ -21197,38 +21207,40 @@
       </c>
       <c r="L86" s="37"/>
       <c r="M86" s="37" t="s">
-        <v>1274</v>
+        <v>1259</v>
       </c>
       <c r="N86" s="22"/>
       <c r="O86" s="37" t="s">
-        <v>973</v>
-      </c>
-      <c r="P86" s="22"/>
+        <v>961</v>
+      </c>
+      <c r="P86" s="22" t="s">
+        <v>401</v>
+      </c>
       <c r="Q86" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="R86" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S86" s="22"/>
       <c r="T86" s="37" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U86" s="22"/>
       <c r="V86" s="37" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="W86" s="22"/>
       <c r="X86" s="39" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="Y86" s="22"/>
       <c r="Z86" s="22" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="AA86" s="22"/>
       <c r="AB86" s="22" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="AC86" s="22"/>
       <c r="AD86" s="22"/>
@@ -21241,58 +21253,60 @@
         <v>314</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>924</v>
+        <v>912</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22" t="s">
-        <v>1117</v>
+        <v>1104</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="22" t="s">
-        <v>1083</v>
+        <v>1070</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
-        <v>1200</v>
+        <v>1186</v>
       </c>
       <c r="J87" s="22"/>
       <c r="K87" s="37" t="s">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="L87" s="37"/>
       <c r="M87" s="37" t="s">
-        <v>1275</v>
+        <v>1260</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="37" t="s">
-        <v>974</v>
-      </c>
-      <c r="P87" s="22"/>
+        <v>962</v>
+      </c>
+      <c r="P87" s="22" t="s">
+        <v>862</v>
+      </c>
       <c r="Q87" s="22" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="R87" s="22" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="S87" s="22"/>
       <c r="T87" s="37" t="s">
-        <v>1037</v>
+        <v>1024</v>
       </c>
       <c r="U87" s="22"/>
       <c r="V87" s="37" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="W87" s="22"/>
       <c r="X87" s="39" t="s">
-        <v>1092</v>
+        <v>1079</v>
       </c>
       <c r="Y87" s="22"/>
       <c r="Z87" s="22" t="s">
-        <v>1067</v>
+        <v>1054</v>
       </c>
       <c r="AA87" s="22"/>
       <c r="AB87" s="22" t="s">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="AC87" s="22"/>
       <c r="AD87" s="22"/>
@@ -21305,58 +21319,60 @@
         <v>51</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="22" t="s">
-        <v>1118</v>
+        <v>1105</v>
       </c>
       <c r="F88" s="22"/>
       <c r="G88" s="22" t="s">
-        <v>1321</v>
+        <v>1305</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23" t="s">
-        <v>1201</v>
+        <v>1187</v>
       </c>
       <c r="J88" s="22"/>
       <c r="K88" s="37" t="s">
-        <v>1329</v>
+        <v>1313</v>
       </c>
       <c r="L88" s="37"/>
       <c r="M88" s="37" t="s">
-        <v>1337</v>
+        <v>1321</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="37" t="s">
-        <v>975</v>
-      </c>
-      <c r="P88" s="22"/>
+        <v>963</v>
+      </c>
+      <c r="P88" s="22" t="s">
+        <v>1336</v>
+      </c>
       <c r="Q88" s="22" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="R88" s="22" t="s">
-        <v>1353</v>
+        <v>1336</v>
       </c>
       <c r="S88" s="22"/>
       <c r="T88" s="37" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="U88" s="22"/>
       <c r="V88" s="37" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="W88" s="22"/>
       <c r="X88" s="39" t="s">
-        <v>1367</v>
+        <v>1350</v>
       </c>
       <c r="Y88" s="22"/>
       <c r="Z88" s="22" t="s">
-        <v>1371</v>
+        <v>1354</v>
       </c>
       <c r="AA88" s="22"/>
       <c r="AB88" s="22" t="s">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="AC88" s="22"/>
       <c r="AD88" s="22"/>
@@ -21373,15 +21389,15 @@
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="22" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="22" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23" t="s">
-        <v>1202</v>
+        <v>1188</v>
       </c>
       <c r="J89" s="22"/>
       <c r="K89" s="37" t="s">
@@ -21389,38 +21405,40 @@
       </c>
       <c r="L89" s="37"/>
       <c r="M89" s="37" t="s">
-        <v>1276</v>
+        <v>1261</v>
       </c>
       <c r="N89" s="22"/>
       <c r="O89" s="37" t="s">
-        <v>976</v>
-      </c>
-      <c r="P89" s="22"/>
+        <v>964</v>
+      </c>
+      <c r="P89" s="22" t="s">
+        <v>863</v>
+      </c>
       <c r="Q89" s="22" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="R89" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S89" s="22"/>
       <c r="T89" s="37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="U89" s="22"/>
       <c r="V89" s="37" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="W89" s="22"/>
       <c r="X89" s="39" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="Y89" s="22"/>
       <c r="Z89" s="22" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA89" s="22"/>
       <c r="AB89" s="22" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="AC89" s="22"/>
       <c r="AD89" s="22"/>
@@ -21433,58 +21451,60 @@
         <v>52</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>1119</v>
+        <v>1106</v>
       </c>
       <c r="F90" s="22"/>
       <c r="G90" s="22" t="s">
-        <v>1322</v>
+        <v>1306</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
-        <v>1203</v>
+        <v>1189</v>
       </c>
       <c r="J90" s="22"/>
       <c r="K90" s="37" t="s">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="L90" s="37"/>
       <c r="M90" s="37" t="s">
-        <v>1338</v>
+        <v>1322</v>
       </c>
       <c r="N90" s="22"/>
       <c r="O90" s="37" t="s">
-        <v>977</v>
-      </c>
-      <c r="P90" s="22"/>
+        <v>965</v>
+      </c>
+      <c r="P90" s="22" t="s">
+        <v>1337</v>
+      </c>
       <c r="Q90" s="22" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="R90" s="22" t="s">
-        <v>1354</v>
+        <v>1337</v>
       </c>
       <c r="S90" s="22"/>
       <c r="T90" s="37" t="s">
-        <v>1360</v>
+        <v>1343</v>
       </c>
       <c r="U90" s="22"/>
       <c r="V90" s="37" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="W90" s="22"/>
       <c r="X90" s="39" t="s">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="Y90" s="22"/>
       <c r="Z90" s="22" t="s">
-        <v>1068</v>
+        <v>1055</v>
       </c>
       <c r="AA90" s="22"/>
       <c r="AB90" s="22" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="AC90" s="22"/>
       <c r="AD90" s="22"/>
@@ -21501,15 +21521,15 @@
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="F91" s="22"/>
       <c r="G91" s="22" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
-        <v>1204</v>
+        <v>1190</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="37" t="s">
@@ -21517,38 +21537,40 @@
       </c>
       <c r="L91" s="37"/>
       <c r="M91" s="37" t="s">
-        <v>1277</v>
+        <v>1262</v>
       </c>
       <c r="N91" s="22"/>
       <c r="O91" s="37" t="s">
-        <v>978</v>
-      </c>
-      <c r="P91" s="22"/>
+        <v>966</v>
+      </c>
+      <c r="P91" s="22" t="s">
+        <v>864</v>
+      </c>
       <c r="Q91" s="22" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="R91" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S91" s="22"/>
       <c r="T91" s="37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="U91" s="22"/>
       <c r="V91" s="37" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="W91" s="22"/>
       <c r="X91" s="39" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="Y91" s="22"/>
       <c r="Z91" s="22" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="AA91" s="22"/>
       <c r="AB91" s="22" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="AC91" s="22"/>
       <c r="AD91" s="22"/>
@@ -21565,15 +21587,15 @@
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="22" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F92" s="22"/>
       <c r="G92" s="22" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="H92" s="23"/>
       <c r="I92" s="23" t="s">
-        <v>1205</v>
+        <v>1191</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="37" t="s">
@@ -21581,38 +21603,40 @@
       </c>
       <c r="L92" s="37"/>
       <c r="M92" s="37" t="s">
-        <v>1278</v>
+        <v>1263</v>
       </c>
       <c r="N92" s="22"/>
       <c r="O92" s="37" t="s">
-        <v>979</v>
-      </c>
-      <c r="P92" s="22"/>
+        <v>967</v>
+      </c>
+      <c r="P92" s="22" t="s">
+        <v>865</v>
+      </c>
       <c r="Q92" s="22" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="R92" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S92" s="22"/>
       <c r="T92" s="37" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="U92" s="22"/>
       <c r="V92" s="37" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="W92" s="22"/>
       <c r="X92" s="39" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="Y92" s="22"/>
       <c r="Z92" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AA92" s="22"/>
       <c r="AB92" s="22" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="AC92" s="22"/>
       <c r="AD92" s="22"/>
@@ -21625,58 +21649,60 @@
         <v>55</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>919</v>
+        <v>907</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="22" t="s">
-        <v>1120</v>
+        <v>1107</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="22" t="s">
-        <v>1084</v>
+        <v>1071</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
-        <v>1206</v>
+        <v>1192</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="37" t="s">
-        <v>943</v>
+        <v>931</v>
       </c>
       <c r="L93" s="37"/>
       <c r="M93" s="37" t="s">
-        <v>1279</v>
+        <v>1264</v>
       </c>
       <c r="N93" s="22"/>
       <c r="O93" s="37" t="s">
-        <v>980</v>
-      </c>
-      <c r="P93" s="22"/>
+        <v>968</v>
+      </c>
+      <c r="P93" s="22" t="s">
+        <v>866</v>
+      </c>
       <c r="Q93" s="22" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
       <c r="R93" s="22" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="S93" s="22"/>
       <c r="T93" s="37" t="s">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="U93" s="22"/>
       <c r="V93" s="37" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="W93" s="22"/>
       <c r="X93" s="39" t="s">
-        <v>1093</v>
+        <v>1080</v>
       </c>
       <c r="Y93" s="22"/>
       <c r="Z93" s="22" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="AA93" s="22"/>
       <c r="AB93" s="22" t="s">
-        <v>1105</v>
+        <v>1092</v>
       </c>
       <c r="AC93" s="22"/>
       <c r="AD93" s="22"/>
@@ -21693,15 +21719,15 @@
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="F94" s="22"/>
       <c r="G94" s="22" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="23" t="s">
-        <v>1207</v>
+        <v>1193</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="37" t="s">
@@ -21709,38 +21735,40 @@
       </c>
       <c r="L94" s="37"/>
       <c r="M94" s="37" t="s">
-        <v>1280</v>
+        <v>1265</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="37" t="s">
-        <v>981</v>
-      </c>
-      <c r="P94" s="22"/>
+        <v>969</v>
+      </c>
+      <c r="P94" s="22" t="s">
+        <v>867</v>
+      </c>
       <c r="Q94" s="22" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="R94" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S94" s="22"/>
       <c r="T94" s="37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="U94" s="22"/>
       <c r="V94" s="37" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="W94" s="22"/>
       <c r="X94" s="39" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="AA94" s="22"/>
       <c r="AB94" s="22" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="AC94" s="22"/>
       <c r="AD94" s="22"/>
@@ -21757,15 +21785,15 @@
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="22" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="22" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>1208</v>
+        <v>1194</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="37" t="s">
@@ -21773,38 +21801,40 @@
       </c>
       <c r="L95" s="37"/>
       <c r="M95" s="37" t="s">
-        <v>1281</v>
+        <v>1266</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="37" t="s">
-        <v>982</v>
-      </c>
-      <c r="P95" s="22"/>
+        <v>970</v>
+      </c>
+      <c r="P95" s="22" t="s">
+        <v>868</v>
+      </c>
       <c r="Q95" s="22" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="R95" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S95" s="22"/>
       <c r="T95" s="37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U95" s="22"/>
       <c r="V95" s="37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="W95" s="22"/>
       <c r="X95" s="39" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="Y95" s="22"/>
       <c r="Z95" s="22" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="AA95" s="22"/>
       <c r="AB95" s="22" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="AC95" s="22"/>
       <c r="AD95" s="22"/>
@@ -21821,15 +21851,15 @@
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="22" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="F96" s="22"/>
       <c r="G96" s="22" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" s="23" t="s">
-        <v>1209</v>
+        <v>1195</v>
       </c>
       <c r="J96" s="22"/>
       <c r="K96" s="37" t="s">
@@ -21837,38 +21867,40 @@
       </c>
       <c r="L96" s="37"/>
       <c r="M96" s="37" t="s">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="N96" s="22"/>
       <c r="O96" s="37" t="s">
-        <v>983</v>
-      </c>
-      <c r="P96" s="22"/>
+        <v>971</v>
+      </c>
+      <c r="P96" s="22" t="s">
+        <v>869</v>
+      </c>
       <c r="Q96" s="22" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="R96" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S96" s="22"/>
       <c r="T96" s="37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="U96" s="22"/>
       <c r="V96" s="37" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="W96" s="22"/>
       <c r="X96" s="39" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="Y96" s="22"/>
       <c r="Z96" s="22" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="AA96" s="22"/>
       <c r="AB96" s="22" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="AC96" s="22"/>
       <c r="AD96" s="22"/>
@@ -21885,15 +21917,15 @@
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="22" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F97" s="22"/>
       <c r="G97" s="22" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>1210</v>
+        <v>1196</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="37" t="s">
@@ -21901,38 +21933,40 @@
       </c>
       <c r="L97" s="37"/>
       <c r="M97" s="37" t="s">
-        <v>1283</v>
+        <v>1268</v>
       </c>
       <c r="N97" s="22"/>
       <c r="O97" s="37" t="s">
-        <v>984</v>
-      </c>
-      <c r="P97" s="22"/>
+        <v>972</v>
+      </c>
+      <c r="P97" s="22" t="s">
+        <v>870</v>
+      </c>
       <c r="Q97" s="22" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="R97" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="S97" s="22"/>
       <c r="T97" s="37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="U97" s="22"/>
       <c r="V97" s="37" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="W97" s="22"/>
       <c r="X97" s="39" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="Y97" s="22"/>
       <c r="Z97" s="22" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="AA97" s="22"/>
       <c r="AB97" s="22" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="AC97" s="22"/>
       <c r="AD97" s="22"/>
@@ -21949,15 +21983,15 @@
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="22" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
-        <v>1211</v>
+        <v>1197</v>
       </c>
       <c r="J98" s="22"/>
       <c r="K98" s="37" t="s">
@@ -21965,38 +21999,40 @@
       </c>
       <c r="L98" s="37"/>
       <c r="M98" s="37" t="s">
-        <v>1284</v>
+        <v>1269</v>
       </c>
       <c r="N98" s="22"/>
       <c r="O98" s="37" t="s">
-        <v>985</v>
-      </c>
-      <c r="P98" s="22"/>
+        <v>973</v>
+      </c>
+      <c r="P98" s="22" t="s">
+        <v>871</v>
+      </c>
       <c r="Q98" s="22" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="R98" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="S98" s="22"/>
       <c r="T98" s="37" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U98" s="22"/>
       <c r="V98" s="37" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="W98" s="22"/>
       <c r="X98" s="39" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="Y98" s="22"/>
       <c r="Z98" s="22" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="AA98" s="22"/>
       <c r="AB98" s="22" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="AC98" s="22"/>
       <c r="AD98" s="22"/>
@@ -22013,15 +22049,15 @@
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="22" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
-        <v>1212</v>
+        <v>1198</v>
       </c>
       <c r="J99" s="22"/>
       <c r="K99" s="37" t="s">
@@ -22029,38 +22065,40 @@
       </c>
       <c r="L99" s="37"/>
       <c r="M99" s="37" t="s">
-        <v>1285</v>
+        <v>1270</v>
       </c>
       <c r="N99" s="22"/>
       <c r="O99" s="37" t="s">
-        <v>986</v>
-      </c>
-      <c r="P99" s="22"/>
+        <v>974</v>
+      </c>
+      <c r="P99" s="22" t="s">
+        <v>410</v>
+      </c>
       <c r="Q99" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R99" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S99" s="22"/>
       <c r="T99" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="U99" s="22"/>
       <c r="V99" s="37" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="W99" s="22"/>
       <c r="X99" s="39" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="Y99" s="22"/>
       <c r="Z99" s="22" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="AA99" s="22"/>
       <c r="AB99" s="22" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="AC99" s="22"/>
       <c r="AD99" s="22"/>
@@ -22077,15 +22115,15 @@
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="F100" s="22"/>
       <c r="G100" s="22" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>1213</v>
+        <v>1199</v>
       </c>
       <c r="J100" s="22"/>
       <c r="K100" s="37" t="s">
@@ -22093,38 +22131,40 @@
       </c>
       <c r="L100" s="37"/>
       <c r="M100" s="37" t="s">
-        <v>1286</v>
+        <v>1271</v>
       </c>
       <c r="N100" s="22"/>
       <c r="O100" s="37" t="s">
-        <v>987</v>
-      </c>
-      <c r="P100" s="22"/>
+        <v>975</v>
+      </c>
+      <c r="P100" s="22" t="s">
+        <v>411</v>
+      </c>
       <c r="Q100" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R100" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S100" s="22"/>
       <c r="T100" s="37" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U100" s="22"/>
       <c r="V100" s="37" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="W100" s="22"/>
       <c r="X100" s="39" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="Y100" s="22"/>
       <c r="Z100" s="22" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="AA100" s="22"/>
       <c r="AB100" s="22" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="AC100" s="22"/>
       <c r="AD100" s="22"/>
@@ -22141,15 +22181,15 @@
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="22" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="22" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="H101" s="23"/>
       <c r="I101" s="23" t="s">
-        <v>1214</v>
+        <v>1200</v>
       </c>
       <c r="J101" s="22"/>
       <c r="K101" s="37" t="s">
@@ -22157,38 +22197,40 @@
       </c>
       <c r="L101" s="37"/>
       <c r="M101" s="37" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="N101" s="22"/>
       <c r="O101" s="37" t="s">
-        <v>988</v>
-      </c>
-      <c r="P101" s="22"/>
+        <v>976</v>
+      </c>
+      <c r="P101" s="22" t="s">
+        <v>412</v>
+      </c>
       <c r="Q101" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R101" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S101" s="22"/>
       <c r="T101" s="37" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="U101" s="22"/>
       <c r="V101" s="37" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="W101" s="22"/>
       <c r="X101" s="39" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="Y101" s="22"/>
       <c r="Z101" s="22" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AA101" s="22"/>
       <c r="AB101" s="22" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="AC101" s="22"/>
       <c r="AD101" s="22"/>
@@ -22201,58 +22243,60 @@
         <v>85</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1447</v>
+        <v>1430</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
-        <v>1135</v>
+        <v>1121</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="22" t="s">
-        <v>1132</v>
+        <v>1118</v>
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24" t="s">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="J102" s="25"/>
       <c r="K102" s="37" t="s">
-        <v>1125</v>
+        <v>1112</v>
       </c>
       <c r="L102" s="37"/>
       <c r="M102" s="37" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="N102" s="25"/>
       <c r="O102" s="37" t="s">
-        <v>1126</v>
-      </c>
-      <c r="P102" s="22"/>
+        <v>1113</v>
+      </c>
+      <c r="P102" s="22" t="s">
+        <v>1438</v>
+      </c>
       <c r="Q102" s="25" t="s">
-        <v>1127</v>
+        <v>1441</v>
       </c>
       <c r="R102" s="22" t="s">
-        <v>1128</v>
+        <v>1114</v>
       </c>
       <c r="S102" s="22"/>
       <c r="T102" s="37" t="s">
-        <v>1129</v>
+        <v>1115</v>
       </c>
       <c r="U102" s="22"/>
       <c r="V102" s="37" t="s">
-        <v>1130</v>
+        <v>1116</v>
       </c>
       <c r="W102" s="22"/>
       <c r="X102" s="39" t="s">
-        <v>1133</v>
+        <v>1119</v>
       </c>
       <c r="Y102" s="22"/>
       <c r="Z102" s="22" t="s">
-        <v>1131</v>
+        <v>1117</v>
       </c>
       <c r="AA102" s="22"/>
       <c r="AB102" s="22" t="s">
-        <v>1134</v>
+        <v>1120</v>
       </c>
       <c r="AC102" s="22"/>
       <c r="AD102" s="22"/>
@@ -22265,58 +22309,60 @@
         <v>232</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="22" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="22" t="s">
-        <v>1323</v>
+        <v>1307</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23" t="s">
-        <v>1216</v>
+        <v>1202</v>
       </c>
       <c r="J103" s="22"/>
       <c r="K103" s="37" t="s">
-        <v>1331</v>
+        <v>1315</v>
       </c>
       <c r="L103" s="37"/>
       <c r="M103" s="37" t="s">
-        <v>1339</v>
+        <v>1323</v>
       </c>
       <c r="N103" s="22"/>
       <c r="O103" s="37" t="s">
-        <v>989</v>
-      </c>
-      <c r="P103" s="22"/>
+        <v>977</v>
+      </c>
+      <c r="P103" s="22" t="s">
+        <v>1328</v>
+      </c>
       <c r="Q103" s="22" t="s">
-        <v>1344</v>
+        <v>1328</v>
       </c>
       <c r="R103" s="22" t="s">
-        <v>1355</v>
+        <v>1338</v>
       </c>
       <c r="S103" s="22"/>
       <c r="T103" s="37" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="U103" s="22"/>
       <c r="V103" s="37" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="W103" s="22"/>
       <c r="X103" s="39" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="Y103" s="22"/>
       <c r="Z103" s="22" t="s">
-        <v>1070</v>
+        <v>1057</v>
       </c>
       <c r="AA103" s="22"/>
       <c r="AB103" s="22" t="s">
-        <v>1106</v>
+        <v>1093</v>
       </c>
       <c r="AC103" s="22"/>
       <c r="AD103" s="22"/>
@@ -22329,58 +22375,60 @@
         <v>235</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="22" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="22" t="s">
-        <v>1324</v>
+        <v>1308</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23" t="s">
-        <v>1217</v>
+        <v>1203</v>
       </c>
       <c r="J104" s="22"/>
       <c r="K104" s="37" t="s">
-        <v>1332</v>
+        <v>1316</v>
       </c>
       <c r="L104" s="37"/>
       <c r="M104" s="37" t="s">
-        <v>1340</v>
+        <v>1324</v>
       </c>
       <c r="N104" s="22"/>
       <c r="O104" s="37" t="s">
-        <v>990</v>
-      </c>
-      <c r="P104" s="22"/>
+        <v>978</v>
+      </c>
+      <c r="P104" s="22" t="s">
+        <v>1329</v>
+      </c>
       <c r="Q104" s="22" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>1345</v>
+        <v>1329</v>
       </c>
       <c r="S104" s="22"/>
       <c r="T104" s="37" t="s">
-        <v>1361</v>
+        <v>1344</v>
       </c>
       <c r="U104" s="22"/>
       <c r="V104" s="37" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="W104" s="22"/>
       <c r="X104" s="39" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="22" t="s">
-        <v>1071</v>
+        <v>1058</v>
       </c>
       <c r="AA104" s="22"/>
       <c r="AB104" s="22" t="s">
-        <v>1373</v>
+        <v>1356</v>
       </c>
       <c r="AC104" s="22"/>
       <c r="AD104" s="22"/>
@@ -22393,58 +22441,60 @@
         <v>236</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>902</v>
+        <v>890</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="22" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22" t="s">
-        <v>1325</v>
+        <v>1309</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23" t="s">
-        <v>1218</v>
+        <v>1204</v>
       </c>
       <c r="J105" s="22"/>
       <c r="K105" s="37" t="s">
-        <v>1333</v>
+        <v>1317</v>
       </c>
       <c r="L105" s="37"/>
       <c r="M105" s="37" t="s">
-        <v>1341</v>
+        <v>1325</v>
       </c>
       <c r="N105" s="22"/>
       <c r="O105" s="37" t="s">
-        <v>991</v>
-      </c>
-      <c r="P105" s="22"/>
+        <v>979</v>
+      </c>
+      <c r="P105" s="22" t="s">
+        <v>1330</v>
+      </c>
       <c r="Q105" s="22" t="s">
-        <v>1346</v>
+        <v>1330</v>
       </c>
       <c r="R105" s="22" t="s">
-        <v>1356</v>
+        <v>1339</v>
       </c>
       <c r="S105" s="22"/>
       <c r="T105" s="37" t="s">
-        <v>1362</v>
+        <v>1345</v>
       </c>
       <c r="U105" s="22"/>
       <c r="V105" s="37" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
       <c r="W105" s="22"/>
       <c r="X105" s="39" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="22" t="s">
-        <v>1072</v>
+        <v>1059</v>
       </c>
       <c r="AA105" s="22"/>
       <c r="AB105" s="22" t="s">
-        <v>1374</v>
+        <v>1357</v>
       </c>
       <c r="AC105" s="22"/>
       <c r="AD105" s="22"/>
@@ -22461,15 +22511,15 @@
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="22" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23" t="s">
-        <v>1219</v>
+        <v>1205</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="37" t="s">
@@ -22477,38 +22527,40 @@
       </c>
       <c r="L106" s="37"/>
       <c r="M106" s="37" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="N106" s="22"/>
       <c r="O106" s="37" t="s">
-        <v>992</v>
-      </c>
-      <c r="P106" s="22"/>
+        <v>980</v>
+      </c>
+      <c r="P106" s="22" t="s">
+        <v>413</v>
+      </c>
       <c r="Q106" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R106" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="S106" s="22"/>
       <c r="T106" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="U106" s="22"/>
       <c r="V106" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="W106" s="22"/>
       <c r="X106" s="39" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="Y106" s="22"/>
       <c r="Z106" s="22" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="AA106" s="22"/>
       <c r="AB106" s="22" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="AC106" s="22"/>
       <c r="AD106" s="22"/>
@@ -22525,15 +22577,15 @@
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="22" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="F107" s="22"/>
       <c r="G107" s="22" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23" t="s">
-        <v>1220</v>
+        <v>1206</v>
       </c>
       <c r="J107" s="22"/>
       <c r="K107" s="37" t="s">
@@ -22541,38 +22593,40 @@
       </c>
       <c r="L107" s="37"/>
       <c r="M107" s="37" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="N107" s="22"/>
       <c r="O107" s="37" t="s">
-        <v>993</v>
-      </c>
-      <c r="P107" s="22"/>
+        <v>981</v>
+      </c>
+      <c r="P107" s="22" t="s">
+        <v>872</v>
+      </c>
       <c r="Q107" s="22" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="R107" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S107" s="22"/>
       <c r="T107" s="37" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="U107" s="22"/>
       <c r="V107" s="37" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="W107" s="22"/>
       <c r="X107" s="39" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="Y107" s="22"/>
       <c r="Z107" s="22" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AA107" s="22"/>
       <c r="AB107" s="22" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="AC107" s="22"/>
       <c r="AD107" s="22"/>
@@ -22589,15 +22643,15 @@
       </c>
       <c r="D108" s="22"/>
       <c r="E108" s="22" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F108" s="22"/>
       <c r="G108" s="22" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23" t="s">
-        <v>1221</v>
+        <v>1207</v>
       </c>
       <c r="J108" s="22"/>
       <c r="K108" s="37" t="s">
@@ -22605,38 +22659,40 @@
       </c>
       <c r="L108" s="37"/>
       <c r="M108" s="37" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="N108" s="22"/>
       <c r="O108" s="37" t="s">
-        <v>994</v>
-      </c>
-      <c r="P108" s="22"/>
+        <v>982</v>
+      </c>
+      <c r="P108" s="22" t="s">
+        <v>415</v>
+      </c>
       <c r="Q108" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R108" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S108" s="22"/>
       <c r="T108" s="37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="U108" s="22"/>
       <c r="V108" s="37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="W108" s="22"/>
       <c r="X108" s="39" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="Y108" s="22"/>
       <c r="Z108" s="22" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="AA108" s="22"/>
       <c r="AB108" s="22" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="AC108" s="22"/>
       <c r="AD108" s="22"/>
@@ -22653,15 +22709,15 @@
       </c>
       <c r="D109" s="22"/>
       <c r="E109" s="22" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="F109" s="22"/>
       <c r="G109" s="22" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23" t="s">
-        <v>1222</v>
+        <v>1208</v>
       </c>
       <c r="J109" s="22"/>
       <c r="K109" s="37" t="s">
@@ -22669,38 +22725,40 @@
       </c>
       <c r="L109" s="37"/>
       <c r="M109" s="37" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="N109" s="22"/>
       <c r="O109" s="37" t="s">
-        <v>995</v>
-      </c>
-      <c r="P109" s="22"/>
+        <v>983</v>
+      </c>
+      <c r="P109" s="22" t="s">
+        <v>416</v>
+      </c>
       <c r="Q109" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R109" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S109" s="22"/>
       <c r="T109" s="37" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U109" s="22"/>
       <c r="V109" s="37" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="W109" s="22"/>
       <c r="X109" s="39" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="Y109" s="22"/>
       <c r="Z109" s="22" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="AA109" s="22"/>
       <c r="AB109" s="22" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="AC109" s="22"/>
       <c r="AD109" s="22"/>
@@ -22717,15 +22775,15 @@
       </c>
       <c r="D110" s="22"/>
       <c r="E110" s="22" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="F110" s="22"/>
       <c r="G110" s="22" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23" t="s">
-        <v>1223</v>
+        <v>1209</v>
       </c>
       <c r="J110" s="22"/>
       <c r="K110" s="37" t="s">
@@ -22733,38 +22791,40 @@
       </c>
       <c r="L110" s="37"/>
       <c r="M110" s="37" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="N110" s="22"/>
       <c r="O110" s="37" t="s">
-        <v>996</v>
-      </c>
-      <c r="P110" s="22"/>
+        <v>984</v>
+      </c>
+      <c r="P110" s="22" t="s">
+        <v>873</v>
+      </c>
       <c r="Q110" s="22" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="R110" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S110" s="22"/>
       <c r="T110" s="37" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="U110" s="22"/>
       <c r="V110" s="37" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="W110" s="22"/>
       <c r="X110" s="39" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="Y110" s="22"/>
       <c r="Z110" s="22" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="AA110" s="22"/>
       <c r="AB110" s="22" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="AC110" s="22"/>
       <c r="AD110" s="22"/>
@@ -22781,15 +22841,15 @@
       </c>
       <c r="D111" s="22"/>
       <c r="E111" s="22" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="F111" s="22"/>
       <c r="G111" s="22" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23" t="s">
-        <v>1224</v>
+        <v>1210</v>
       </c>
       <c r="J111" s="22"/>
       <c r="K111" s="37" t="s">
@@ -22797,38 +22857,40 @@
       </c>
       <c r="L111" s="37"/>
       <c r="M111" s="37" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="N111" s="22"/>
       <c r="O111" s="37" t="s">
-        <v>997</v>
-      </c>
-      <c r="P111" s="22"/>
+        <v>985</v>
+      </c>
+      <c r="P111" s="22" t="s">
+        <v>418</v>
+      </c>
       <c r="Q111" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="R111" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S111" s="22"/>
       <c r="T111" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="U111" s="22"/>
       <c r="V111" s="37" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="W111" s="22"/>
       <c r="X111" s="39" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="Y111" s="22"/>
       <c r="Z111" s="22" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="AA111" s="22"/>
       <c r="AB111" s="22" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="AC111" s="22"/>
       <c r="AD111" s="22"/>
@@ -22845,15 +22907,15 @@
       </c>
       <c r="D112" s="22"/>
       <c r="E112" s="22" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="22" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="H112" s="23"/>
       <c r="I112" s="23" t="s">
-        <v>1225</v>
+        <v>1211</v>
       </c>
       <c r="J112" s="22"/>
       <c r="K112" s="37" t="s">
@@ -22861,38 +22923,40 @@
       </c>
       <c r="L112" s="37"/>
       <c r="M112" s="37" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="N112" s="22"/>
       <c r="O112" s="37" t="s">
-        <v>998</v>
-      </c>
-      <c r="P112" s="22"/>
+        <v>986</v>
+      </c>
+      <c r="P112" s="22" t="s">
+        <v>419</v>
+      </c>
       <c r="Q112" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="R112" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S112" s="22"/>
       <c r="T112" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U112" s="22"/>
       <c r="V112" s="37" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="W112" s="22"/>
       <c r="X112" s="39" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="Y112" s="22"/>
       <c r="Z112" s="22" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AA112" s="22"/>
       <c r="AB112" s="22" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="AC112" s="22"/>
       <c r="AD112" s="22"/>
@@ -22909,15 +22973,15 @@
       </c>
       <c r="D113" s="22"/>
       <c r="E113" s="22" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="22" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H113" s="23"/>
       <c r="I113" s="23" t="s">
-        <v>1226</v>
+        <v>1212</v>
       </c>
       <c r="J113" s="22"/>
       <c r="K113" s="37" t="s">
@@ -22925,38 +22989,40 @@
       </c>
       <c r="L113" s="37"/>
       <c r="M113" s="37" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="N113" s="22"/>
       <c r="O113" s="37" t="s">
-        <v>999</v>
-      </c>
-      <c r="P113" s="22"/>
+        <v>987</v>
+      </c>
+      <c r="P113" s="22" t="s">
+        <v>420</v>
+      </c>
       <c r="Q113" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="R113" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S113" s="22"/>
       <c r="T113" s="37" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="U113" s="22"/>
       <c r="V113" s="37" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="W113" s="22"/>
       <c r="X113" s="39" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="Y113" s="22"/>
       <c r="Z113" s="22" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="AA113" s="22"/>
       <c r="AB113" s="22" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="AC113" s="22"/>
       <c r="AD113" s="22"/>
@@ -22973,15 +23039,15 @@
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="22" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="22" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="H114" s="23"/>
       <c r="I114" s="23" t="s">
-        <v>1227</v>
+        <v>1213</v>
       </c>
       <c r="J114" s="22"/>
       <c r="K114" s="37" t="s">
@@ -22989,38 +23055,40 @@
       </c>
       <c r="L114" s="37"/>
       <c r="M114" s="37" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="N114" s="22"/>
       <c r="O114" s="37" t="s">
-        <v>1000</v>
-      </c>
-      <c r="P114" s="22"/>
+        <v>988</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>421</v>
+      </c>
       <c r="Q114" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R114" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S114" s="22"/>
       <c r="T114" s="37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U114" s="22"/>
       <c r="V114" s="37" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="W114" s="22"/>
       <c r="X114" s="39" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="Y114" s="22"/>
       <c r="Z114" s="22" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="AA114" s="22"/>
       <c r="AB114" s="22" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="AC114" s="22"/>
       <c r="AD114" s="22"/>
@@ -23037,15 +23105,15 @@
       </c>
       <c r="D115" s="22"/>
       <c r="E115" s="22" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="F115" s="22"/>
       <c r="G115" s="22" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H115" s="23"/>
       <c r="I115" s="23" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="J115" s="22"/>
       <c r="K115" s="37" t="s">
@@ -23053,38 +23121,40 @@
       </c>
       <c r="L115" s="37"/>
       <c r="M115" s="37" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="N115" s="22"/>
       <c r="O115" s="37" t="s">
-        <v>1001</v>
-      </c>
-      <c r="P115" s="22"/>
+        <v>989</v>
+      </c>
+      <c r="P115" s="22" t="s">
+        <v>422</v>
+      </c>
       <c r="Q115" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R115" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S115" s="22"/>
       <c r="T115" s="37" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="U115" s="22"/>
       <c r="V115" s="37" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="W115" s="22"/>
       <c r="X115" s="39" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="Y115" s="22"/>
       <c r="Z115" s="22" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="AA115" s="22"/>
       <c r="AB115" s="22" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="AC115" s="22"/>
       <c r="AD115" s="22"/>
@@ -23101,15 +23171,15 @@
       </c>
       <c r="D116" s="22"/>
       <c r="E116" s="22" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="F116" s="22"/>
       <c r="G116" s="22" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="H116" s="23"/>
       <c r="I116" s="23" t="s">
-        <v>1229</v>
+        <v>1215</v>
       </c>
       <c r="J116" s="22"/>
       <c r="K116" s="37" t="s">
@@ -23117,38 +23187,40 @@
       </c>
       <c r="L116" s="37"/>
       <c r="M116" s="37" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="N116" s="22"/>
       <c r="O116" s="37" t="s">
-        <v>1002</v>
-      </c>
-      <c r="P116" s="22"/>
+        <v>990</v>
+      </c>
+      <c r="P116" s="22" t="s">
+        <v>423</v>
+      </c>
       <c r="Q116" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R116" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S116" s="22"/>
       <c r="T116" s="37" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U116" s="22"/>
       <c r="V116" s="37" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="W116" s="22"/>
       <c r="X116" s="39" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="Y116" s="22"/>
       <c r="Z116" s="22" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="AA116" s="22"/>
       <c r="AB116" s="22" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="AC116" s="22"/>
       <c r="AD116" s="22"/>
@@ -23161,19 +23233,19 @@
         <v>79</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>1453</v>
+        <v>1436</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="22" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="F117" s="22"/>
       <c r="G117" s="22" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="H117" s="23"/>
       <c r="I117" s="23" t="s">
-        <v>1230</v>
+        <v>1216</v>
       </c>
       <c r="J117" s="22"/>
       <c r="K117" s="37" t="s">
@@ -23181,38 +23253,40 @@
       </c>
       <c r="L117" s="37"/>
       <c r="M117" s="37" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="N117" s="22"/>
       <c r="O117" s="37" t="s">
-        <v>1003</v>
-      </c>
-      <c r="P117" s="22"/>
+        <v>991</v>
+      </c>
+      <c r="P117" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="Q117" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R117" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="S117" s="22"/>
       <c r="T117" s="37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="U117" s="22"/>
       <c r="V117" s="37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="W117" s="22"/>
       <c r="X117" s="39" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="Y117" s="22"/>
       <c r="Z117" s="22" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AA117" s="22"/>
       <c r="AB117" s="22" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="AC117" s="22"/>
       <c r="AD117" s="22"/>
@@ -23225,19 +23299,19 @@
         <v>81</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>1451</v>
+        <v>1434</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="22" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="F118" s="25"/>
       <c r="G118" s="25" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H118" s="23"/>
       <c r="I118" s="23" t="s">
-        <v>1231</v>
+        <v>1217</v>
       </c>
       <c r="J118" s="22"/>
       <c r="K118" s="37" t="s">
@@ -23245,38 +23319,40 @@
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="N118" s="22"/>
       <c r="O118" s="37" t="s">
-        <v>1004</v>
-      </c>
-      <c r="P118" s="22"/>
+        <v>992</v>
+      </c>
+      <c r="P118" s="22" t="s">
+        <v>874</v>
+      </c>
       <c r="Q118" s="22" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="R118" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S118" s="22"/>
       <c r="T118" s="37" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="U118" s="22"/>
       <c r="V118" s="37" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="W118" s="25"/>
       <c r="X118" s="39" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="Y118" s="22"/>
       <c r="Z118" s="22" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AA118" s="22"/>
       <c r="AB118" s="22" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="AC118" s="22"/>
       <c r="AD118" s="22"/>
@@ -23289,19 +23365,19 @@
         <v>82</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>1452</v>
+        <v>1435</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="22" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="22" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="23" t="s">
-        <v>1232</v>
+        <v>1218</v>
       </c>
       <c r="J119" s="22"/>
       <c r="K119" s="37" t="s">
@@ -23309,38 +23385,40 @@
       </c>
       <c r="L119" s="37"/>
       <c r="M119" s="37" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="N119" s="22"/>
       <c r="O119" s="37" t="s">
-        <v>1005</v>
-      </c>
-      <c r="P119" s="22"/>
+        <v>993</v>
+      </c>
+      <c r="P119" s="22" t="s">
+        <v>875</v>
+      </c>
       <c r="Q119" s="22" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="R119" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S119" s="22"/>
       <c r="T119" s="37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="U119" s="22"/>
       <c r="V119" s="37" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="W119" s="22"/>
       <c r="X119" s="39" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="Y119" s="22"/>
       <c r="Z119" s="22" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AA119" s="22"/>
       <c r="AB119" s="22" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="AC119" s="22"/>
       <c r="AD119" s="22"/>
@@ -23357,15 +23435,15 @@
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="22" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="22" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="23" t="s">
-        <v>1233</v>
+        <v>1219</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="37" t="s">
@@ -23373,38 +23451,40 @@
       </c>
       <c r="L120" s="37"/>
       <c r="M120" s="37" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="N120" s="22"/>
       <c r="O120" s="37" t="s">
-        <v>1006</v>
-      </c>
-      <c r="P120" s="22"/>
+        <v>994</v>
+      </c>
+      <c r="P120" s="22" t="s">
+        <v>427</v>
+      </c>
       <c r="Q120" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R120" s="22" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="S120" s="22"/>
       <c r="T120" s="37" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="U120" s="22"/>
       <c r="V120" s="37" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="W120" s="22"/>
       <c r="X120" s="39" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="Y120" s="22"/>
       <c r="Z120" s="22" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="AA120" s="22"/>
       <c r="AB120" s="22" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="AC120" s="22"/>
       <c r="AD120" s="22"/>
@@ -23421,15 +23501,15 @@
       </c>
       <c r="D121" s="22"/>
       <c r="E121" s="22" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="F121" s="22"/>
       <c r="G121" s="22" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="24" t="s">
-        <v>1234</v>
+        <v>1220</v>
       </c>
       <c r="J121" s="25"/>
       <c r="K121" s="37" t="s">
@@ -23437,38 +23517,40 @@
       </c>
       <c r="L121" s="37"/>
       <c r="M121" s="37" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="N121" s="25"/>
       <c r="O121" s="37" t="s">
-        <v>1007</v>
-      </c>
-      <c r="P121" s="22"/>
+        <v>995</v>
+      </c>
+      <c r="P121" s="22" t="s">
+        <v>876</v>
+      </c>
       <c r="Q121" s="25" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="R121" s="22" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S121" s="22"/>
       <c r="T121" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="U121" s="22"/>
       <c r="V121" s="37" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="W121" s="22"/>
       <c r="X121" s="39" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="Y121" s="22"/>
       <c r="Z121" s="22" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="AA121" s="22"/>
       <c r="AB121" s="22" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="AC121" s="22"/>
       <c r="AD121" s="22"/>
@@ -23485,15 +23567,15 @@
       </c>
       <c r="D122" s="22"/>
       <c r="E122" s="22" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="F122" s="22"/>
       <c r="G122" s="22" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="H122" s="23"/>
       <c r="I122" s="23" t="s">
-        <v>1235</v>
+        <v>1221</v>
       </c>
       <c r="J122" s="22"/>
       <c r="K122" s="37" t="s">
@@ -23501,38 +23583,40 @@
       </c>
       <c r="L122" s="37"/>
       <c r="M122" s="37" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="N122" s="22"/>
       <c r="O122" s="37" t="s">
-        <v>1008</v>
-      </c>
-      <c r="P122" s="22"/>
+        <v>996</v>
+      </c>
+      <c r="P122" s="22" t="s">
+        <v>429</v>
+      </c>
       <c r="Q122" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="R122" s="22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S122" s="22"/>
       <c r="T122" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="U122" s="22"/>
       <c r="V122" s="37" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="W122" s="22"/>
       <c r="X122" s="39" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="Y122" s="22"/>
       <c r="Z122" s="22" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="AA122" s="22"/>
       <c r="AB122" s="22" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="AC122" s="22"/>
       <c r="AD122" s="22"/>
@@ -23549,15 +23633,15 @@
       </c>
       <c r="D123" s="22"/>
       <c r="E123" s="22" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="F123" s="22"/>
       <c r="G123" s="22" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H123" s="23"/>
       <c r="I123" s="23" t="s">
-        <v>1236</v>
+        <v>1222</v>
       </c>
       <c r="J123" s="22"/>
       <c r="K123" s="37" t="s">
@@ -23565,38 +23649,40 @@
       </c>
       <c r="L123" s="37"/>
       <c r="M123" s="37" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="N123" s="22"/>
       <c r="O123" s="37" t="s">
-        <v>1009</v>
-      </c>
-      <c r="P123" s="22"/>
+        <v>997</v>
+      </c>
+      <c r="P123" s="22" t="s">
+        <v>430</v>
+      </c>
       <c r="Q123" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="R123" s="22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S123" s="22"/>
       <c r="T123" s="37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="U123" s="22"/>
       <c r="V123" s="37" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="W123" s="22"/>
       <c r="X123" s="39" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="Y123" s="22"/>
       <c r="Z123" s="22" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="AA123" s="22"/>
       <c r="AB123" s="22" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="AC123" s="22"/>
       <c r="AD123" s="22"/>
@@ -23613,15 +23699,15 @@
       </c>
       <c r="D124" s="22"/>
       <c r="E124" s="22" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F124" s="25"/>
       <c r="G124" s="25" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="H124" s="23"/>
       <c r="I124" s="23" t="s">
-        <v>1237</v>
+        <v>1223</v>
       </c>
       <c r="J124" s="22"/>
       <c r="K124" s="37" t="s">
@@ -23629,38 +23715,40 @@
       </c>
       <c r="L124" s="37"/>
       <c r="M124" s="37" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="N124" s="22"/>
       <c r="O124" s="37" t="s">
-        <v>1010</v>
-      </c>
-      <c r="P124" s="22"/>
+        <v>998</v>
+      </c>
+      <c r="P124" s="22" t="s">
+        <v>431</v>
+      </c>
       <c r="Q124" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R124" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S124" s="22"/>
       <c r="T124" s="37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U124" s="22"/>
       <c r="V124" s="37" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="W124" s="25"/>
       <c r="X124" s="39" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="Y124" s="22"/>
       <c r="Z124" s="22" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="AA124" s="22"/>
       <c r="AB124" s="22" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="AC124" s="22"/>
       <c r="AD124" s="22"/>
@@ -23677,15 +23765,15 @@
       </c>
       <c r="D125" s="22"/>
       <c r="E125" s="22" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="F125" s="22"/>
       <c r="G125" s="22" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H125" s="23"/>
       <c r="I125" s="23" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
       <c r="J125" s="22"/>
       <c r="K125" s="37" t="s">
@@ -23693,38 +23781,40 @@
       </c>
       <c r="L125" s="37"/>
       <c r="M125" s="37" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="N125" s="22"/>
       <c r="O125" s="37" t="s">
-        <v>1011</v>
-      </c>
-      <c r="P125" s="22"/>
+        <v>999</v>
+      </c>
+      <c r="P125" s="22" t="s">
+        <v>432</v>
+      </c>
       <c r="Q125" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R125" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S125" s="22"/>
       <c r="T125" s="37" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="U125" s="22"/>
       <c r="V125" s="37" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="W125" s="22"/>
       <c r="X125" s="39" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="Y125" s="22"/>
       <c r="Z125" s="22" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="AA125" s="22"/>
       <c r="AB125" s="22" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AC125" s="22"/>
       <c r="AD125" s="22"/>
@@ -23741,15 +23831,15 @@
       </c>
       <c r="D126" s="22"/>
       <c r="E126" s="22" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F126" s="22"/>
       <c r="G126" s="22" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="24" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
       <c r="J126" s="25"/>
       <c r="K126" s="37" t="s">
@@ -23757,38 +23847,40 @@
       </c>
       <c r="L126" s="37"/>
       <c r="M126" s="37" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="N126" s="25"/>
       <c r="O126" s="37" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P126" s="22"/>
+        <v>1000</v>
+      </c>
+      <c r="P126" s="22" t="s">
+        <v>877</v>
+      </c>
       <c r="Q126" s="25" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="R126" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S126" s="22"/>
       <c r="T126" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="U126" s="22"/>
       <c r="V126" s="37" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="W126" s="22"/>
       <c r="X126" s="39" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="Y126" s="22"/>
       <c r="Z126" s="22" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="AA126" s="22"/>
       <c r="AB126" s="22" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="AC126" s="22"/>
       <c r="AD126" s="22"/>
@@ -23805,15 +23897,15 @@
       </c>
       <c r="D127" s="22"/>
       <c r="E127" s="22" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F127" s="22"/>
       <c r="G127" s="22" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H127" s="23"/>
       <c r="I127" s="23" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
       <c r="J127" s="22"/>
       <c r="K127" s="37" t="s">
@@ -23821,38 +23913,40 @@
       </c>
       <c r="L127" s="37"/>
       <c r="M127" s="37" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="N127" s="22"/>
       <c r="O127" s="37" t="s">
-        <v>1013</v>
-      </c>
-      <c r="P127" s="22"/>
+        <v>1001</v>
+      </c>
+      <c r="P127" s="22" t="s">
+        <v>878</v>
+      </c>
       <c r="Q127" s="22" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="R127" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S127" s="22"/>
       <c r="T127" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="U127" s="22"/>
       <c r="V127" s="37" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="W127" s="22"/>
       <c r="X127" s="39" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="Y127" s="22"/>
       <c r="Z127" s="22" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="AA127" s="22"/>
       <c r="AB127" s="22" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="AC127" s="22"/>
       <c r="AD127" s="22"/>
@@ -23869,15 +23963,15 @@
       </c>
       <c r="D128" s="22"/>
       <c r="E128" s="22" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F128" s="22"/>
       <c r="G128" s="22" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H128" s="23"/>
       <c r="I128" s="23" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
       <c r="J128" s="22"/>
       <c r="K128" s="37" t="s">
@@ -23885,38 +23979,40 @@
       </c>
       <c r="L128" s="37"/>
       <c r="M128" s="37" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="N128" s="22"/>
       <c r="O128" s="37" t="s">
-        <v>1014</v>
-      </c>
-      <c r="P128" s="22"/>
+        <v>1002</v>
+      </c>
+      <c r="P128" s="22" t="s">
+        <v>879</v>
+      </c>
       <c r="Q128" s="22" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="R128" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S128" s="22"/>
       <c r="T128" s="37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="U128" s="22"/>
       <c r="V128" s="37" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="W128" s="22"/>
       <c r="X128" s="39" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="Y128" s="22"/>
       <c r="Z128" s="22" t="s">
-        <v>1073</v>
+        <v>1060</v>
       </c>
       <c r="AA128" s="22"/>
       <c r="AB128" s="22" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="AC128" s="22"/>
       <c r="AD128" s="22"/>
@@ -23929,58 +24025,60 @@
         <v>177</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="D129" s="22"/>
       <c r="E129" s="22" t="s">
-        <v>1124</v>
+        <v>1111</v>
       </c>
       <c r="F129" s="22"/>
       <c r="G129" s="22" t="s">
-        <v>1326</v>
+        <v>1310</v>
       </c>
       <c r="H129" s="23"/>
       <c r="I129" s="23" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="J129" s="22"/>
       <c r="K129" s="37" t="s">
-        <v>944</v>
+        <v>932</v>
       </c>
       <c r="L129" s="37"/>
       <c r="M129" s="37" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="N129" s="22"/>
       <c r="O129" s="37" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P129" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q129" s="22" t="s">
+        <v>880</v>
+      </c>
+      <c r="R129" s="22" t="s">
         <v>1015</v>
-      </c>
-      <c r="P129" s="22"/>
-      <c r="Q129" s="22" t="s">
-        <v>892</v>
-      </c>
-      <c r="R129" s="22" t="s">
-        <v>1028</v>
       </c>
       <c r="S129" s="22"/>
       <c r="T129" s="37" t="s">
-        <v>1363</v>
+        <v>1346</v>
       </c>
       <c r="U129" s="22"/>
       <c r="V129" s="37" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
       <c r="W129" s="22"/>
       <c r="X129" s="39" t="s">
-        <v>1368</v>
+        <v>1351</v>
       </c>
       <c r="Y129" s="22"/>
       <c r="Z129" s="22" t="s">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="AA129" s="22"/>
       <c r="AB129" s="22" t="s">
-        <v>1377</v>
+        <v>1360</v>
       </c>
       <c r="AC129" s="22"/>
       <c r="AD129" s="22"/>
@@ -23990,61 +24088,63 @@
         <v>195</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="D130" s="22"/>
       <c r="E130" s="22" t="s">
-        <v>1378</v>
+        <v>1361</v>
       </c>
       <c r="F130" s="22"/>
       <c r="G130" s="22" t="s">
-        <v>1379</v>
+        <v>1362</v>
       </c>
       <c r="H130" s="23"/>
       <c r="I130" s="23" t="s">
-        <v>1380</v>
+        <v>1363</v>
       </c>
       <c r="J130" s="22"/>
       <c r="K130" s="38" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38" t="s">
-        <v>1381</v>
+        <v>1364</v>
       </c>
       <c r="N130" s="22"/>
       <c r="O130" s="38" t="s">
-        <v>1382</v>
-      </c>
-      <c r="P130" s="22"/>
+        <v>1365</v>
+      </c>
+      <c r="P130" s="22" t="s">
+        <v>1366</v>
+      </c>
       <c r="Q130" s="22" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="R130" s="22" t="s">
-        <v>1383</v>
+        <v>1366</v>
       </c>
       <c r="S130" s="22"/>
       <c r="T130" s="38" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="U130" s="22"/>
       <c r="V130" s="38" t="s">
-        <v>1384</v>
+        <v>1367</v>
       </c>
       <c r="W130" s="22"/>
       <c r="X130" s="40" t="s">
-        <v>1385</v>
+        <v>1368</v>
       </c>
       <c r="Y130" s="22"/>
       <c r="Z130" s="22" t="s">
-        <v>1386</v>
+        <v>1369</v>
       </c>
       <c r="AA130" s="22"/>
       <c r="AB130" s="22" t="s">
-        <v>1387</v>
+        <v>1370</v>
       </c>
       <c r="AC130" s="22"/>
       <c r="AD130" s="22"/>
@@ -24061,59 +24161,61 @@
       </c>
       <c r="D131" s="22"/>
       <c r="E131" s="22" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="F131" s="22"/>
       <c r="G131" s="22" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H131" s="23"/>
       <c r="I131" s="23" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="J131" s="22"/>
       <c r="K131" s="37" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="L131" s="37"/>
       <c r="M131" s="37" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="N131" s="22"/>
       <c r="O131" s="37" t="s">
-        <v>1016</v>
-      </c>
-      <c r="P131" s="22"/>
+        <v>1004</v>
+      </c>
+      <c r="P131" s="22" t="s">
+        <v>636</v>
+      </c>
       <c r="Q131" s="22" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="R131" s="22" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="S131" s="22"/>
       <c r="T131" s="37" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="U131" s="22"/>
       <c r="V131" s="37" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="W131" s="22"/>
       <c r="X131" s="39" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="Y131" s="22"/>
       <c r="Z131" s="22" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="AA131" s="22"/>
       <c r="AB131" s="22" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="AC131" s="22"/>
       <c r="AD131" s="22"/>
     </row>
-    <row r="132" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>195</v>
       </c>
@@ -24125,60 +24227,34 @@
         <v>270</v>
       </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E132" s="22"/>
       <c r="F132" s="22"/>
-      <c r="G132" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G132" s="22"/>
       <c r="H132" s="23"/>
-      <c r="I132" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I132" s="23"/>
       <c r="J132" s="22"/>
-      <c r="K132" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K132" s="37"/>
       <c r="L132" s="37"/>
-      <c r="M132" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M132" s="37"/>
       <c r="N132" s="22"/>
-      <c r="O132" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O132" s="37"/>
       <c r="P132" s="22"/>
-      <c r="Q132" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R132" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q132" s="22"/>
+      <c r="R132" s="22"/>
       <c r="S132" s="22"/>
-      <c r="T132" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T132" s="37"/>
       <c r="U132" s="22"/>
-      <c r="V132" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V132" s="37"/>
       <c r="W132" s="22"/>
-      <c r="X132" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X132" s="39"/>
       <c r="Y132" s="22"/>
-      <c r="Z132" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z132" s="22"/>
       <c r="AA132" s="22"/>
-      <c r="AB132" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB132" s="22"/>
       <c r="AC132" s="22"/>
       <c r="AD132" s="22"/>
     </row>
-    <row r="133" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>195</v>
       </c>
@@ -24190,60 +24266,38 @@
         <v>270</v>
       </c>
       <c r="D133" s="22"/>
-      <c r="E133" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E133" s="22"/>
       <c r="F133" s="22"/>
-      <c r="G133" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G133" s="22"/>
       <c r="H133" s="23"/>
-      <c r="I133" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I133" s="23"/>
       <c r="J133" s="22"/>
-      <c r="K133" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K133" s="37"/>
       <c r="L133" s="37"/>
-      <c r="M133" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M133" s="37"/>
       <c r="N133" s="22"/>
-      <c r="O133" s="37" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P133" s="22"/>
-      <c r="Q133" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="O133" s="37"/>
+      <c r="P133" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q133" s="22"/>
       <c r="R133" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S133" s="22"/>
-      <c r="T133" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T133" s="37"/>
       <c r="U133" s="22"/>
-      <c r="V133" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V133" s="37"/>
       <c r="W133" s="22"/>
-      <c r="X133" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X133" s="39"/>
       <c r="Y133" s="22"/>
-      <c r="Z133" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z133" s="22"/>
       <c r="AA133" s="22"/>
-      <c r="AB133" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB133" s="22"/>
       <c r="AC133" s="22"/>
       <c r="AD133" s="22"/>
     </row>
-    <row r="134" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>195</v>
       </c>
@@ -24255,60 +24309,34 @@
         <v>270</v>
       </c>
       <c r="D134" s="22"/>
-      <c r="E134" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E134" s="22"/>
       <c r="F134" s="22"/>
-      <c r="G134" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G134" s="22"/>
       <c r="H134" s="23"/>
-      <c r="I134" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I134" s="23"/>
       <c r="J134" s="22"/>
-      <c r="K134" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K134" s="37"/>
       <c r="L134" s="37"/>
-      <c r="M134" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M134" s="37"/>
       <c r="N134" s="22"/>
-      <c r="O134" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O134" s="37"/>
       <c r="P134" s="22"/>
-      <c r="Q134" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R134" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="22"/>
       <c r="S134" s="22"/>
-      <c r="T134" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T134" s="37"/>
       <c r="U134" s="22"/>
-      <c r="V134" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V134" s="37"/>
       <c r="W134" s="22"/>
-      <c r="X134" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X134" s="39"/>
       <c r="Y134" s="22"/>
-      <c r="Z134" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z134" s="22"/>
       <c r="AA134" s="22"/>
-      <c r="AB134" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB134" s="22"/>
       <c r="AC134" s="22"/>
       <c r="AD134" s="22"/>
     </row>
-    <row r="135" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>195</v>
       </c>
@@ -24320,60 +24348,34 @@
         <v>270</v>
       </c>
       <c r="D135" s="22"/>
-      <c r="E135" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E135" s="22"/>
       <c r="F135" s="22"/>
-      <c r="G135" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G135" s="22"/>
       <c r="H135" s="23"/>
-      <c r="I135" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I135" s="23"/>
       <c r="J135" s="22"/>
-      <c r="K135" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K135" s="37"/>
       <c r="L135" s="37"/>
-      <c r="M135" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M135" s="37"/>
       <c r="N135" s="22"/>
-      <c r="O135" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O135" s="37"/>
       <c r="P135" s="22"/>
-      <c r="Q135" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R135" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q135" s="22"/>
+      <c r="R135" s="22"/>
       <c r="S135" s="22"/>
-      <c r="T135" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T135" s="37"/>
       <c r="U135" s="22"/>
-      <c r="V135" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V135" s="37"/>
       <c r="W135" s="22"/>
-      <c r="X135" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X135" s="39"/>
       <c r="Y135" s="22"/>
-      <c r="Z135" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z135" s="22"/>
       <c r="AA135" s="22"/>
-      <c r="AB135" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB135" s="22"/>
       <c r="AC135" s="22"/>
       <c r="AD135" s="22"/>
     </row>
-    <row r="136" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>195</v>
       </c>
@@ -24385,60 +24387,34 @@
         <v>270</v>
       </c>
       <c r="D136" s="22"/>
-      <c r="E136" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E136" s="22"/>
       <c r="F136" s="22"/>
-      <c r="G136" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G136" s="22"/>
       <c r="H136" s="23"/>
-      <c r="I136" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I136" s="23"/>
       <c r="J136" s="22"/>
-      <c r="K136" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K136" s="37"/>
       <c r="L136" s="37"/>
-      <c r="M136" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M136" s="37"/>
       <c r="N136" s="22"/>
-      <c r="O136" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O136" s="37"/>
       <c r="P136" s="22"/>
-      <c r="Q136" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R136" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q136" s="22"/>
+      <c r="R136" s="22"/>
       <c r="S136" s="22"/>
-      <c r="T136" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T136" s="37"/>
       <c r="U136" s="22"/>
-      <c r="V136" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V136" s="37"/>
       <c r="W136" s="22"/>
-      <c r="X136" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X136" s="39"/>
       <c r="Y136" s="22"/>
-      <c r="Z136" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z136" s="22"/>
       <c r="AA136" s="22"/>
-      <c r="AB136" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB136" s="22"/>
       <c r="AC136" s="22"/>
       <c r="AD136" s="22"/>
     </row>
-    <row r="137" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>195</v>
       </c>
@@ -24450,60 +24426,36 @@
         <v>270</v>
       </c>
       <c r="D137" s="22"/>
-      <c r="E137" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E137" s="22"/>
       <c r="F137" s="22"/>
-      <c r="G137" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G137" s="22"/>
       <c r="H137" s="23"/>
-      <c r="I137" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I137" s="23"/>
       <c r="J137" s="22"/>
-      <c r="K137" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K137" s="37"/>
       <c r="L137" s="37"/>
-      <c r="M137" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M137" s="37"/>
       <c r="N137" s="22"/>
-      <c r="O137" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O137" s="37"/>
       <c r="P137" s="22"/>
-      <c r="Q137" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R137" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q137" s="22"/>
+      <c r="R137" s="22"/>
       <c r="S137" s="22"/>
       <c r="T137" s="37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="U137" s="22"/>
-      <c r="V137" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V137" s="37"/>
       <c r="W137" s="22"/>
-      <c r="X137" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X137" s="39"/>
       <c r="Y137" s="22"/>
-      <c r="Z137" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z137" s="22"/>
       <c r="AA137" s="22"/>
-      <c r="AB137" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB137" s="22"/>
       <c r="AC137" s="22"/>
       <c r="AD137" s="22"/>
     </row>
-    <row r="138" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>195</v>
       </c>
@@ -24515,56 +24467,32 @@
         <v>270</v>
       </c>
       <c r="D138" s="22"/>
-      <c r="E138" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E138" s="22"/>
       <c r="F138" s="22"/>
       <c r="G138" s="22" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="H138" s="23"/>
-      <c r="I138" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I138" s="23"/>
       <c r="J138" s="22"/>
-      <c r="K138" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K138" s="37"/>
       <c r="L138" s="37"/>
-      <c r="M138" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M138" s="37"/>
       <c r="N138" s="22"/>
-      <c r="O138" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O138" s="37"/>
       <c r="P138" s="22"/>
-      <c r="Q138" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R138" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q138" s="22"/>
+      <c r="R138" s="22"/>
       <c r="S138" s="22"/>
-      <c r="T138" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T138" s="37"/>
       <c r="U138" s="22"/>
-      <c r="V138" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V138" s="37"/>
       <c r="W138" s="22"/>
-      <c r="X138" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X138" s="39"/>
       <c r="Y138" s="22"/>
-      <c r="Z138" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z138" s="22"/>
       <c r="AA138" s="22"/>
-      <c r="AB138" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB138" s="22"/>
       <c r="AC138" s="22"/>
       <c r="AD138" s="22"/>
     </row>
@@ -24580,60 +24508,36 @@
         <v>270</v>
       </c>
       <c r="D139" s="22"/>
-      <c r="E139" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E139" s="22"/>
       <c r="F139" s="22"/>
-      <c r="G139" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G139" s="22"/>
       <c r="H139" s="23"/>
-      <c r="I139" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I139" s="23"/>
       <c r="J139" s="22"/>
-      <c r="K139" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K139" s="37"/>
       <c r="L139" s="37"/>
-      <c r="M139" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M139" s="37"/>
       <c r="N139" s="22"/>
-      <c r="O139" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O139" s="37"/>
       <c r="P139" s="22"/>
-      <c r="Q139" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R139" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q139" s="22"/>
+      <c r="R139" s="22"/>
       <c r="S139" s="22"/>
-      <c r="T139" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T139" s="37"/>
       <c r="U139" s="22"/>
-      <c r="V139" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V139" s="37"/>
       <c r="W139" s="22"/>
       <c r="X139" s="39" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="Y139" s="22"/>
-      <c r="Z139" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z139" s="22"/>
       <c r="AA139" s="22"/>
-      <c r="AB139" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB139" s="22"/>
       <c r="AC139" s="22"/>
       <c r="AD139" s="22"/>
     </row>
-    <row r="140" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>195</v>
       </c>
@@ -24645,60 +24549,36 @@
         <v>270</v>
       </c>
       <c r="D140" s="22"/>
-      <c r="E140" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E140" s="22"/>
       <c r="F140" s="22"/>
-      <c r="G140" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G140" s="22"/>
       <c r="H140" s="23"/>
-      <c r="I140" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I140" s="23"/>
       <c r="J140" s="22"/>
-      <c r="K140" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K140" s="37"/>
       <c r="L140" s="37"/>
-      <c r="M140" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M140" s="37"/>
       <c r="N140" s="22"/>
-      <c r="O140" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O140" s="37"/>
       <c r="P140" s="22"/>
-      <c r="Q140" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R140" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q140" s="22"/>
+      <c r="R140" s="22"/>
       <c r="S140" s="22"/>
-      <c r="T140" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T140" s="37"/>
       <c r="U140" s="22"/>
-      <c r="V140" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V140" s="37"/>
       <c r="W140" s="22"/>
-      <c r="X140" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X140" s="39"/>
       <c r="Y140" s="22"/>
       <c r="Z140" s="22" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AA140" s="22"/>
-      <c r="AB140" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB140" s="22"/>
       <c r="AC140" s="22"/>
       <c r="AD140" s="22"/>
     </row>
-    <row r="141" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>195</v>
       </c>
@@ -24710,60 +24590,36 @@
         <v>270</v>
       </c>
       <c r="D141" s="22"/>
-      <c r="E141" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E141" s="22"/>
       <c r="F141" s="22"/>
-      <c r="G141" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G141" s="22"/>
       <c r="H141" s="23"/>
-      <c r="I141" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I141" s="23"/>
       <c r="J141" s="22"/>
-      <c r="K141" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K141" s="37"/>
       <c r="L141" s="37"/>
-      <c r="M141" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M141" s="37"/>
       <c r="N141" s="22"/>
-      <c r="O141" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O141" s="37"/>
       <c r="P141" s="22"/>
-      <c r="Q141" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R141" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q141" s="22"/>
+      <c r="R141" s="22"/>
       <c r="S141" s="22"/>
-      <c r="T141" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T141" s="37"/>
       <c r="U141" s="22"/>
-      <c r="V141" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V141" s="37"/>
       <c r="W141" s="22"/>
-      <c r="X141" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X141" s="39"/>
       <c r="Y141" s="22"/>
-      <c r="Z141" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z141" s="22"/>
       <c r="AA141" s="22"/>
       <c r="AB141" s="22" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="AC141" s="22"/>
       <c r="AD141" s="22"/>
     </row>
-    <row r="142" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>195</v>
       </c>
@@ -24775,60 +24631,36 @@
         <v>270</v>
       </c>
       <c r="D142" s="22"/>
-      <c r="E142" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E142" s="22"/>
       <c r="F142" s="22"/>
-      <c r="G142" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G142" s="22"/>
       <c r="H142" s="23"/>
-      <c r="I142" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I142" s="23"/>
       <c r="J142" s="22"/>
-      <c r="K142" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K142" s="37"/>
       <c r="L142" s="37"/>
-      <c r="M142" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M142" s="37"/>
       <c r="N142" s="22"/>
       <c r="O142" s="37" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="P142" s="22"/>
-      <c r="Q142" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R142" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q142" s="22"/>
+      <c r="R142" s="22"/>
       <c r="S142" s="22"/>
-      <c r="T142" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T142" s="37"/>
       <c r="U142" s="22"/>
-      <c r="V142" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V142" s="37"/>
       <c r="W142" s="22"/>
-      <c r="X142" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X142" s="39"/>
       <c r="Y142" s="22"/>
-      <c r="Z142" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z142" s="22"/>
       <c r="AA142" s="22"/>
-      <c r="AB142" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB142" s="22"/>
       <c r="AC142" s="22"/>
       <c r="AD142" s="22"/>
     </row>
-    <row r="143" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>195</v>
       </c>
@@ -24840,60 +24672,36 @@
         <v>270</v>
       </c>
       <c r="D143" s="22"/>
-      <c r="E143" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E143" s="22"/>
       <c r="F143" s="22"/>
-      <c r="G143" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G143" s="22"/>
       <c r="H143" s="23"/>
-      <c r="I143" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I143" s="23"/>
       <c r="J143" s="22"/>
-      <c r="K143" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K143" s="37"/>
       <c r="L143" s="37"/>
       <c r="M143" s="37" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="N143" s="22"/>
-      <c r="O143" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O143" s="37"/>
       <c r="P143" s="22"/>
-      <c r="Q143" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R143" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q143" s="22"/>
+      <c r="R143" s="22"/>
       <c r="S143" s="22"/>
-      <c r="T143" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T143" s="37"/>
       <c r="U143" s="22"/>
-      <c r="V143" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V143" s="37"/>
       <c r="W143" s="22"/>
-      <c r="X143" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X143" s="39"/>
       <c r="Y143" s="22"/>
-      <c r="Z143" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z143" s="22"/>
       <c r="AA143" s="22"/>
-      <c r="AB143" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB143" s="22"/>
       <c r="AC143" s="22"/>
       <c r="AD143" s="22"/>
     </row>
-    <row r="144" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>195</v>
       </c>
@@ -24905,60 +24713,36 @@
         <v>270</v>
       </c>
       <c r="D144" s="22"/>
-      <c r="E144" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E144" s="22"/>
       <c r="F144" s="22"/>
-      <c r="G144" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G144" s="22"/>
       <c r="H144" s="23"/>
-      <c r="I144" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I144" s="23"/>
       <c r="J144" s="22"/>
-      <c r="K144" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K144" s="37"/>
       <c r="L144" s="37"/>
-      <c r="M144" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M144" s="37"/>
       <c r="N144" s="22"/>
       <c r="O144" s="37" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="P144" s="22"/>
-      <c r="Q144" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R144" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q144" s="22"/>
+      <c r="R144" s="22"/>
       <c r="S144" s="22"/>
-      <c r="T144" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T144" s="37"/>
       <c r="U144" s="22"/>
-      <c r="V144" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V144" s="37"/>
       <c r="W144" s="22"/>
-      <c r="X144" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X144" s="39"/>
       <c r="Y144" s="22"/>
-      <c r="Z144" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z144" s="22"/>
       <c r="AA144" s="22"/>
-      <c r="AB144" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB144" s="22"/>
       <c r="AC144" s="22"/>
       <c r="AD144" s="22"/>
     </row>
-    <row r="145" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>195</v>
       </c>
@@ -24970,60 +24754,36 @@
         <v>270</v>
       </c>
       <c r="D145" s="22"/>
-      <c r="E145" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E145" s="22"/>
       <c r="F145" s="22"/>
-      <c r="G145" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G145" s="22"/>
       <c r="H145" s="23"/>
       <c r="I145" s="23" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="J145" s="22"/>
-      <c r="K145" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K145" s="37"/>
       <c r="L145" s="37"/>
-      <c r="M145" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M145" s="37"/>
       <c r="N145" s="22"/>
-      <c r="O145" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O145" s="37"/>
       <c r="P145" s="22"/>
-      <c r="Q145" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R145" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q145" s="22"/>
+      <c r="R145" s="22"/>
       <c r="S145" s="22"/>
-      <c r="T145" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T145" s="37"/>
       <c r="U145" s="22"/>
-      <c r="V145" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V145" s="37"/>
       <c r="W145" s="22"/>
-      <c r="X145" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X145" s="39"/>
       <c r="Y145" s="22"/>
-      <c r="Z145" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z145" s="22"/>
       <c r="AA145" s="22"/>
-      <c r="AB145" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB145" s="22"/>
       <c r="AC145" s="22"/>
       <c r="AD145" s="22"/>
     </row>
-    <row r="146" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>195</v>
       </c>
@@ -25035,60 +24795,36 @@
         <v>270</v>
       </c>
       <c r="D146" s="22"/>
-      <c r="E146" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E146" s="22"/>
       <c r="F146" s="22"/>
-      <c r="G146" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G146" s="22"/>
       <c r="H146" s="23"/>
-      <c r="I146" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I146" s="23"/>
       <c r="J146" s="22"/>
-      <c r="K146" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K146" s="37"/>
       <c r="L146" s="37"/>
-      <c r="M146" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M146" s="37"/>
       <c r="N146" s="22"/>
       <c r="O146" s="37" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="P146" s="22"/>
-      <c r="Q146" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R146" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q146" s="22"/>
+      <c r="R146" s="22"/>
       <c r="S146" s="22"/>
-      <c r="T146" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T146" s="37"/>
       <c r="U146" s="22"/>
-      <c r="V146" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V146" s="37"/>
       <c r="W146" s="22"/>
-      <c r="X146" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X146" s="39"/>
       <c r="Y146" s="22"/>
-      <c r="Z146" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z146" s="22"/>
       <c r="AA146" s="22"/>
-      <c r="AB146" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB146" s="22"/>
       <c r="AC146" s="22"/>
       <c r="AD146" s="22"/>
     </row>
-    <row r="147" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>195</v>
       </c>
@@ -25100,60 +24836,36 @@
         <v>270</v>
       </c>
       <c r="D147" s="22"/>
-      <c r="E147" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E147" s="22"/>
       <c r="F147" s="22"/>
-      <c r="G147" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G147" s="22"/>
       <c r="H147" s="23"/>
-      <c r="I147" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I147" s="23"/>
       <c r="J147" s="22"/>
       <c r="K147" s="37" t="s">
         <v>380</v>
       </c>
       <c r="L147" s="37"/>
-      <c r="M147" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M147" s="37"/>
       <c r="N147" s="22"/>
-      <c r="O147" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O147" s="37"/>
       <c r="P147" s="22"/>
-      <c r="Q147" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R147" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q147" s="22"/>
+      <c r="R147" s="22"/>
       <c r="S147" s="22"/>
-      <c r="T147" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T147" s="37"/>
       <c r="U147" s="22"/>
-      <c r="V147" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V147" s="37"/>
       <c r="W147" s="22"/>
-      <c r="X147" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X147" s="39"/>
       <c r="Y147" s="22"/>
-      <c r="Z147" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z147" s="22"/>
       <c r="AA147" s="22"/>
-      <c r="AB147" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB147" s="22"/>
       <c r="AC147" s="22"/>
       <c r="AD147" s="22"/>
     </row>
-    <row r="148" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
         <v>195</v>
       </c>
@@ -25166,59 +24878,39 @@
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="22" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F148" s="22"/>
-      <c r="G148" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G148" s="22"/>
       <c r="H148" s="23"/>
-      <c r="I148" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I148" s="23"/>
       <c r="J148" s="22"/>
-      <c r="K148" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K148" s="37"/>
       <c r="L148" s="37"/>
-      <c r="M148" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M148" s="37"/>
       <c r="N148" s="22"/>
-      <c r="O148" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O148" s="37"/>
       <c r="P148" s="22"/>
       <c r="Q148" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R148" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S148" s="22"/>
-      <c r="T148" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T148" s="37"/>
       <c r="U148" s="22"/>
-      <c r="V148" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V148" s="37"/>
       <c r="W148" s="22"/>
-      <c r="X148" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X148" s="39"/>
       <c r="Y148" s="22"/>
-      <c r="Z148" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z148" s="22"/>
       <c r="AA148" s="22"/>
-      <c r="AB148" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB148" s="22"/>
       <c r="AC148" s="22"/>
       <c r="AD148" s="22"/>
     </row>
-    <row r="149" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>195</v>
       </c>
@@ -25231,59 +24923,39 @@
       </c>
       <c r="D149" s="22"/>
       <c r="E149" s="22" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F149" s="22"/>
-      <c r="G149" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G149" s="22"/>
       <c r="H149" s="23"/>
-      <c r="I149" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I149" s="23"/>
       <c r="J149" s="22"/>
-      <c r="K149" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K149" s="37"/>
       <c r="L149" s="37"/>
-      <c r="M149" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M149" s="37"/>
       <c r="N149" s="22"/>
-      <c r="O149" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O149" s="37"/>
       <c r="P149" s="22"/>
       <c r="Q149" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R149" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S149" s="22"/>
-      <c r="T149" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T149" s="37"/>
       <c r="U149" s="22"/>
-      <c r="V149" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V149" s="37"/>
       <c r="W149" s="22"/>
-      <c r="X149" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X149" s="39"/>
       <c r="Y149" s="22"/>
-      <c r="Z149" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z149" s="22"/>
       <c r="AA149" s="22"/>
-      <c r="AB149" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB149" s="22"/>
       <c r="AC149" s="22"/>
       <c r="AD149" s="22"/>
     </row>
-    <row r="150" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
         <v>195</v>
       </c>
@@ -25296,59 +24968,39 @@
       </c>
       <c r="D150" s="22"/>
       <c r="E150" s="22" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F150" s="22"/>
-      <c r="G150" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G150" s="22"/>
       <c r="H150" s="23"/>
-      <c r="I150" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I150" s="23"/>
       <c r="J150" s="22"/>
-      <c r="K150" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K150" s="37"/>
       <c r="L150" s="37"/>
-      <c r="M150" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M150" s="37"/>
       <c r="N150" s="22"/>
-      <c r="O150" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O150" s="37"/>
       <c r="P150" s="22"/>
       <c r="Q150" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R150" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S150" s="22"/>
-      <c r="T150" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T150" s="37"/>
       <c r="U150" s="22"/>
-      <c r="V150" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V150" s="37"/>
       <c r="W150" s="22"/>
-      <c r="X150" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X150" s="39"/>
       <c r="Y150" s="22"/>
-      <c r="Z150" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z150" s="22"/>
       <c r="AA150" s="22"/>
-      <c r="AB150" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB150" s="22"/>
       <c r="AC150" s="22"/>
       <c r="AD150" s="22"/>
     </row>
-    <row r="151" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>195</v>
       </c>
@@ -25360,60 +25012,34 @@
         <v>270</v>
       </c>
       <c r="D151" s="22"/>
-      <c r="E151" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E151" s="22"/>
       <c r="F151" s="22"/>
-      <c r="G151" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G151" s="22"/>
       <c r="H151" s="23"/>
-      <c r="I151" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I151" s="23"/>
       <c r="J151" s="22"/>
-      <c r="K151" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K151" s="37"/>
       <c r="L151" s="37"/>
-      <c r="M151" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M151" s="37"/>
       <c r="N151" s="22"/>
-      <c r="O151" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O151" s="37"/>
       <c r="P151" s="22"/>
-      <c r="Q151" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R151" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q151" s="22"/>
+      <c r="R151" s="22"/>
       <c r="S151" s="22"/>
-      <c r="T151" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T151" s="37"/>
       <c r="U151" s="22"/>
-      <c r="V151" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V151" s="37"/>
       <c r="W151" s="22"/>
-      <c r="X151" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X151" s="39"/>
       <c r="Y151" s="22"/>
-      <c r="Z151" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z151" s="22"/>
       <c r="AA151" s="22"/>
-      <c r="AB151" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB151" s="22"/>
       <c r="AC151" s="22"/>
       <c r="AD151" s="22"/>
     </row>
-    <row r="152" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>195</v>
       </c>
@@ -25425,60 +25051,36 @@
         <v>270</v>
       </c>
       <c r="D152" s="22"/>
-      <c r="E152" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E152" s="22"/>
       <c r="F152" s="22"/>
-      <c r="G152" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G152" s="22"/>
       <c r="H152" s="23"/>
-      <c r="I152" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I152" s="23"/>
       <c r="J152" s="22"/>
-      <c r="K152" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K152" s="37"/>
       <c r="L152" s="37"/>
-      <c r="M152" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M152" s="37"/>
       <c r="N152" s="22"/>
-      <c r="O152" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O152" s="37"/>
       <c r="P152" s="22"/>
-      <c r="Q152" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R152" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q152" s="22"/>
+      <c r="R152" s="22"/>
       <c r="S152" s="22"/>
-      <c r="T152" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T152" s="37"/>
       <c r="U152" s="22"/>
       <c r="V152" s="37" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="W152" s="22"/>
-      <c r="X152" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X152" s="39"/>
       <c r="Y152" s="22"/>
-      <c r="Z152" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z152" s="22"/>
       <c r="AA152" s="22"/>
-      <c r="AB152" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB152" s="22"/>
       <c r="AC152" s="22"/>
       <c r="AD152" s="22"/>
     </row>
-    <row r="153" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>195</v>
       </c>
@@ -25490,60 +25092,34 @@
         <v>270</v>
       </c>
       <c r="D153" s="22"/>
-      <c r="E153" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E153" s="22"/>
       <c r="F153" s="22"/>
-      <c r="G153" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G153" s="22"/>
       <c r="H153" s="23"/>
-      <c r="I153" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I153" s="23"/>
       <c r="J153" s="22"/>
-      <c r="K153" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K153" s="37"/>
       <c r="L153" s="37"/>
-      <c r="M153" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M153" s="37"/>
       <c r="N153" s="22"/>
-      <c r="O153" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O153" s="37"/>
       <c r="P153" s="22"/>
-      <c r="Q153" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R153" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q153" s="22"/>
+      <c r="R153" s="22"/>
       <c r="S153" s="22"/>
-      <c r="T153" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T153" s="37"/>
       <c r="U153" s="22"/>
-      <c r="V153" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V153" s="37"/>
       <c r="W153" s="22"/>
-      <c r="X153" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X153" s="39"/>
       <c r="Y153" s="22"/>
-      <c r="Z153" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z153" s="22"/>
       <c r="AA153" s="22"/>
-      <c r="AB153" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB153" s="22"/>
       <c r="AC153" s="22"/>
       <c r="AD153" s="22"/>
     </row>
-    <row r="154" spans="1:30" ht="231" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:30" ht="105" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
         <v>195</v>
       </c>
@@ -25555,60 +25131,34 @@
         <v>305</v>
       </c>
       <c r="D154" s="22"/>
-      <c r="E154" s="22" t="s">
-        <v>852</v>
-      </c>
+      <c r="E154" s="22"/>
       <c r="F154" s="22"/>
-      <c r="G154" s="22" t="s">
-        <v>630</v>
-      </c>
+      <c r="G154" s="22"/>
       <c r="H154" s="23"/>
-      <c r="I154" s="23" t="s">
-        <v>1245</v>
-      </c>
+      <c r="I154" s="23"/>
       <c r="J154" s="22"/>
-      <c r="K154" s="37" t="s">
-        <v>381</v>
-      </c>
+      <c r="K154" s="37"/>
       <c r="L154" s="37"/>
-      <c r="M154" s="37" t="s">
-        <v>1315</v>
-      </c>
+      <c r="M154" s="37"/>
       <c r="N154" s="22"/>
-      <c r="O154" s="37" t="s">
-        <v>1018</v>
-      </c>
+      <c r="O154" s="37"/>
       <c r="P154" s="22"/>
-      <c r="Q154" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="R154" s="22" t="s">
-        <v>438</v>
-      </c>
+      <c r="Q154" s="22"/>
+      <c r="R154" s="22"/>
       <c r="S154" s="22"/>
-      <c r="T154" s="37" t="s">
-        <v>489</v>
-      </c>
+      <c r="T154" s="37"/>
       <c r="U154" s="22"/>
-      <c r="V154" s="37" t="s">
-        <v>523</v>
-      </c>
+      <c r="V154" s="37"/>
       <c r="W154" s="22"/>
-      <c r="X154" s="39" t="s">
-        <v>792</v>
-      </c>
+      <c r="X154" s="39"/>
       <c r="Y154" s="22"/>
-      <c r="Z154" s="22" t="s">
-        <v>574</v>
-      </c>
+      <c r="Z154" s="22"/>
       <c r="AA154" s="22"/>
-      <c r="AB154" s="22" t="s">
-        <v>734</v>
-      </c>
+      <c r="AB154" s="22"/>
       <c r="AC154" s="22"/>
       <c r="AD154" s="22"/>
     </row>
-    <row r="155" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
         <v>195</v>
       </c>
@@ -25620,60 +25170,34 @@
         <v>270</v>
       </c>
       <c r="D155" s="22"/>
-      <c r="E155" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E155" s="22"/>
       <c r="F155" s="22"/>
-      <c r="G155" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G155" s="22"/>
       <c r="H155" s="23"/>
-      <c r="I155" s="23" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I155" s="23"/>
       <c r="J155" s="22"/>
-      <c r="K155" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K155" s="37"/>
       <c r="L155" s="37"/>
-      <c r="M155" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M155" s="37"/>
       <c r="N155" s="22"/>
-      <c r="O155" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O155" s="37"/>
       <c r="P155" s="22"/>
-      <c r="Q155" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R155" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q155" s="22"/>
+      <c r="R155" s="22"/>
       <c r="S155" s="22"/>
-      <c r="T155" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T155" s="37"/>
       <c r="U155" s="22"/>
-      <c r="V155" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V155" s="37"/>
       <c r="W155" s="22"/>
-      <c r="X155" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X155" s="39"/>
       <c r="Y155" s="22"/>
-      <c r="Z155" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z155" s="22"/>
       <c r="AA155" s="22"/>
-      <c r="AB155" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB155" s="22"/>
       <c r="AC155" s="22"/>
       <c r="AD155" s="22"/>
     </row>
-    <row r="156" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
         <v>195</v>
       </c>
@@ -25685,56 +25209,30 @@
         <v>270</v>
       </c>
       <c r="D156" s="22"/>
-      <c r="E156" s="22" t="s">
-        <v>851</v>
-      </c>
+      <c r="E156" s="22"/>
       <c r="F156" s="22"/>
-      <c r="G156" s="22" t="s">
-        <v>629</v>
-      </c>
+      <c r="G156" s="22"/>
       <c r="H156" s="26"/>
-      <c r="I156" s="26" t="s">
-        <v>1244</v>
-      </c>
+      <c r="I156" s="26"/>
       <c r="J156" s="22"/>
-      <c r="K156" s="37" t="s">
-        <v>380</v>
-      </c>
+      <c r="K156" s="37"/>
       <c r="L156" s="37"/>
-      <c r="M156" s="37" t="s">
-        <v>1314</v>
-      </c>
+      <c r="M156" s="37"/>
       <c r="N156" s="22"/>
-      <c r="O156" s="37" t="s">
-        <v>1017</v>
-      </c>
+      <c r="O156" s="37"/>
       <c r="P156" s="22"/>
-      <c r="Q156" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="R156" s="22" t="s">
-        <v>437</v>
-      </c>
+      <c r="Q156" s="22"/>
+      <c r="R156" s="22"/>
       <c r="S156" s="22"/>
-      <c r="T156" s="37" t="s">
-        <v>488</v>
-      </c>
+      <c r="T156" s="37"/>
       <c r="U156" s="22"/>
-      <c r="V156" s="37" t="s">
-        <v>522</v>
-      </c>
+      <c r="V156" s="37"/>
       <c r="W156" s="22"/>
-      <c r="X156" s="39" t="s">
-        <v>791</v>
-      </c>
+      <c r="X156" s="39"/>
       <c r="Y156" s="22"/>
-      <c r="Z156" s="22" t="s">
-        <v>573</v>
-      </c>
+      <c r="Z156" s="22"/>
       <c r="AA156" s="22"/>
-      <c r="AB156" s="22" t="s">
-        <v>733</v>
-      </c>
+      <c r="AB156" s="22"/>
       <c r="AC156" s="22"/>
       <c r="AD156" s="22"/>
     </row>
@@ -25855,7 +25353,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
         <v>226</v>
@@ -25867,12 +25365,12 @@
         <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B3" t="s">
         <v>226</v>
@@ -25887,12 +25385,12 @@
         <v>190</v>
       </c>
       <c r="F3" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B4" t="s">
         <v>226</v>
@@ -25907,12 +25405,12 @@
         <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B5" t="s">
         <v>226</v>
@@ -25927,84 +25425,84 @@
         <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>912</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B6" t="s">
         <v>227</v>
       </c>
       <c r="C6" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="E6" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F6" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
         <v>227</v>
       </c>
       <c r="C7" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D7" t="s">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B8" t="s">
         <v>227</v>
       </c>
       <c r="C8" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F8" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
         <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D9" t="s">
         <v>188</v>
       </c>
       <c r="E9" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F9" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -26092,13 +25590,13 @@
         <v>227</v>
       </c>
       <c r="C14" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="E14" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F14" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -26109,16 +25607,16 @@
         <v>227</v>
       </c>
       <c r="C15" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F15" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -26129,16 +25627,16 @@
         <v>227</v>
       </c>
       <c r="C16" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F16" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -26149,16 +25647,16 @@
         <v>227</v>
       </c>
       <c r="C17" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="D17" t="s">
         <v>188</v>
       </c>
       <c r="E17" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="F17" t="s">
-        <v>913</v>
+        <v>901</v>
       </c>
     </row>
   </sheetData>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC4E877-ADA4-4E97-8E67-A64748736F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F494BB9-BB76-4BF6-8248-798833FD3329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2762,9 +2762,6 @@
     <t>Comparisons with 25 cities internationally</t>
   </si>
   <si>
-    <t>{city} Healthy and Sustainable City Indicators Report</t>
-  </si>
-  <si>
     <t>Policy presence in {city}</t>
   </si>
   <si>
@@ -4445,6 +4442,9 @@
   </si>
   <si>
     <t xml:space="preserve">Densidad de intersección de calles por km²  en el barrio </t>
+  </si>
+  <si>
+    <t>Healthy and Sustainable City Indicators Report: {city}, {country}</t>
   </si>
 </sst>
 </file>
@@ -16822,10 +16822,10 @@
   <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16869,7 +16869,7 @@
         <v>302</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>301</v>
@@ -16881,7 +16881,7 @@
         <v>300</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>297</v>
@@ -16890,10 +16890,10 @@
         <v>847</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>647</v>
@@ -16952,10 +16952,10 @@
         <v>661</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="J2" s="20" t="s">
         <v>646</v>
@@ -16964,14 +16964,14 @@
         <v>654</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="P2" s="20" t="s">
         <v>849</v>
@@ -17019,60 +17019,60 @@
         <v>643</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="37" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="37" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="37" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="37" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="37" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="39" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -17089,56 +17089,56 @@
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="37" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="37" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="37" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="37" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="39" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -17163,7 +17163,7 @@
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="37" t="s">
@@ -17171,11 +17171,11 @@
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="37" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="P5" s="22" t="s">
         <v>850</v>
@@ -17663,7 +17663,7 @@
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="37"/>
@@ -17739,7 +17739,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="37"/>
@@ -18210,10 +18210,10 @@
         <v>195</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -18248,10 +18248,10 @@
         <v>195</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -18266,11 +18266,11 @@
       <c r="N32" s="22"/>
       <c r="O32" s="37"/>
       <c r="P32" s="22" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="22" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="S32" s="22"/>
       <c r="T32" s="37"/>
@@ -18290,10 +18290,10 @@
         <v>195</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -18328,10 +18328,10 @@
         <v>195</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -18366,10 +18366,10 @@
         <v>195</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -18404,10 +18404,10 @@
         <v>195</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -18426,7 +18426,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="37" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="37"/>
@@ -18444,16 +18444,16 @@
         <v>195</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -18484,10 +18484,10 @@
         <v>195</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -18510,7 +18510,7 @@
       <c r="V38" s="37"/>
       <c r="W38" s="22"/>
       <c r="X38" s="39" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
@@ -18524,10 +18524,10 @@
         <v>195</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -18552,7 +18552,7 @@
       <c r="X39" s="39"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="22" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="AA39" s="22"/>
       <c r="AB39" s="22"/>
@@ -18564,10 +18564,10 @@
         <v>195</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -18594,7 +18594,7 @@
       <c r="Z40" s="22"/>
       <c r="AA40" s="22"/>
       <c r="AB40" s="22" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="AC40" s="22"/>
       <c r="AD40" s="22"/>
@@ -18604,10 +18604,10 @@
         <v>195</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -18621,7 +18621,7 @@
       <c r="M41" s="37"/>
       <c r="N41" s="22"/>
       <c r="O41" s="37" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -18644,10 +18644,10 @@
         <v>195</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -18659,7 +18659,7 @@
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="37"/>
@@ -18684,10 +18684,10 @@
         <v>195</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -18701,7 +18701,7 @@
       <c r="M43" s="37"/>
       <c r="N43" s="22"/>
       <c r="O43" s="37" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
@@ -18724,10 +18724,10 @@
         <v>195</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -18735,7 +18735,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="37"/>
@@ -18764,10 +18764,10 @@
         <v>195</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -18781,7 +18781,7 @@
       <c r="M45" s="37"/>
       <c r="N45" s="22"/>
       <c r="O45" s="37" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
@@ -18804,10 +18804,10 @@
         <v>195</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -18817,7 +18817,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="22"/>
       <c r="K46" s="37" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
@@ -18844,14 +18844,14 @@
         <v>195</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -18865,10 +18865,10 @@
       <c r="O47" s="37"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S47" s="22"/>
       <c r="T47" s="37"/>
@@ -18888,14 +18888,14 @@
         <v>195</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -18909,10 +18909,10 @@
       <c r="O48" s="37"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S48" s="22"/>
       <c r="T48" s="37"/>
@@ -18932,14 +18932,14 @@
         <v>195</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -18953,10 +18953,10 @@
       <c r="O49" s="37"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="R49" s="22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="S49" s="22"/>
       <c r="T49" s="37"/>
@@ -18976,10 +18976,10 @@
         <v>195</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -19014,10 +19014,10 @@
         <v>195</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -19038,7 +19038,7 @@
       <c r="T51" s="37"/>
       <c r="U51" s="22"/>
       <c r="V51" s="37" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="W51" s="22"/>
       <c r="X51" s="39"/>
@@ -19054,10 +19054,10 @@
         <v>195</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -19092,10 +19092,10 @@
         <v>195</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -19130,10 +19130,10 @@
         <v>195</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -19168,10 +19168,10 @@
         <v>195</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -19219,7 +19219,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="J56" s="20"/>
       <c r="K56" s="37" t="s">
@@ -19227,11 +19227,11 @@
       </c>
       <c r="L56" s="37"/>
       <c r="M56" s="37" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="37" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="P56" s="20" t="s">
         <v>851</v>
@@ -19285,19 +19285,19 @@
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="J57" s="20"/>
       <c r="K57" s="37" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L57" s="37"/>
       <c r="M57" s="37" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="37" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="P57" s="20" t="s">
         <v>852</v>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="37" t="s">
@@ -19359,11 +19359,11 @@
       </c>
       <c r="L58" s="37"/>
       <c r="M58" s="37" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="37" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="P58" s="20" t="s">
         <v>387</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="37" t="s">
@@ -19425,11 +19425,11 @@
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="N59" s="20"/>
       <c r="O59" s="37" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="P59" s="20" t="s">
         <v>853</v>
@@ -19483,7 +19483,7 @@
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="J60" s="20"/>
       <c r="K60" s="37" t="s">
@@ -19491,11 +19491,11 @@
       </c>
       <c r="L60" s="37"/>
       <c r="M60" s="37" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="N60" s="20"/>
       <c r="O60" s="37" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="P60" s="20" t="s">
         <v>389</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="J61" s="20"/>
       <c r="K61" s="37" t="s">
@@ -19557,11 +19557,11 @@
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="N61" s="20"/>
       <c r="O61" s="37" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="P61" s="20" t="s">
         <v>390</v>
@@ -19615,7 +19615,7 @@
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="37" t="s">
@@ -19623,11 +19623,11 @@
       </c>
       <c r="L62" s="37"/>
       <c r="M62" s="37" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="N62" s="20"/>
       <c r="O62" s="37" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P62" s="20" t="s">
         <v>391</v>
@@ -19669,7 +19669,7 @@
         <v>206</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="s">
@@ -19681,7 +19681,7 @@
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="37" t="s">
@@ -19689,17 +19689,17 @@
       </c>
       <c r="L63" s="37"/>
       <c r="M63" s="37" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="N63" s="20"/>
       <c r="O63" s="37" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="P63" s="20" t="s">
         <v>854</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="R63" s="20" t="s">
         <v>392</v>
@@ -19747,7 +19747,7 @@
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="37" t="s">
@@ -19755,11 +19755,11 @@
       </c>
       <c r="L64" s="37"/>
       <c r="M64" s="37" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="N64" s="20"/>
       <c r="O64" s="37" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P64" s="20" t="s">
         <v>393</v>
@@ -19813,7 +19813,7 @@
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="37" t="s">
@@ -19821,11 +19821,11 @@
       </c>
       <c r="L65" s="37"/>
       <c r="M65" s="37" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="37" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="P65" s="20" t="s">
         <v>394</v>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="37" t="s">
@@ -19887,11 +19887,11 @@
       </c>
       <c r="L66" s="37"/>
       <c r="M66" s="37" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="37" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="P66" s="20" t="s">
         <v>395</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20" t="s">
@@ -19945,19 +19945,19 @@
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="J67" s="20"/>
       <c r="K67" s="37" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L67" s="37"/>
       <c r="M67" s="37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="N67" s="20"/>
       <c r="O67" s="37" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="P67" s="20" t="s">
         <v>883</v>
@@ -19970,11 +19970,11 @@
       </c>
       <c r="S67" s="20"/>
       <c r="T67" s="37" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="U67" s="20"/>
       <c r="V67" s="37" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="W67" s="20"/>
       <c r="X67" s="39" t="s">
@@ -19982,11 +19982,11 @@
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="AC67" s="20"/>
       <c r="AD67" s="20"/>
@@ -20003,7 +20003,7 @@
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="20" t="s">
@@ -20011,19 +20011,19 @@
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="37" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L68" s="37"/>
       <c r="M68" s="37" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="37" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="P68" s="20" t="s">
         <v>887</v>
@@ -20032,7 +20032,7 @@
         <v>887</v>
       </c>
       <c r="R68" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="S68" s="20"/>
       <c r="T68" s="37" t="s">
@@ -20040,19 +20040,19 @@
       </c>
       <c r="U68" s="20"/>
       <c r="V68" s="37" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="W68" s="20"/>
       <c r="X68" s="39" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
@@ -20069,7 +20069,7 @@
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20" t="s">
@@ -20077,19 +20077,19 @@
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="J69" s="20"/>
       <c r="K69" s="37" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="37" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="P69" s="20" t="s">
         <v>886</v>
@@ -20098,27 +20098,27 @@
         <v>886</v>
       </c>
       <c r="R69" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="S69" s="20"/>
       <c r="T69" s="37" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="U69" s="20"/>
       <c r="V69" s="37" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="W69" s="20"/>
       <c r="X69" s="39" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
@@ -20135,27 +20135,27 @@
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="37" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="N70" s="20"/>
       <c r="O70" s="37" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="P70" s="20" t="s">
         <v>855</v>
@@ -20164,15 +20164,15 @@
         <v>855</v>
       </c>
       <c r="R70" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="S70" s="20"/>
       <c r="T70" s="37" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="U70" s="20"/>
       <c r="V70" s="37" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="W70" s="20"/>
       <c r="X70" s="39" t="s">
@@ -20180,11 +20180,11 @@
       </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="37" t="s">
@@ -20217,11 +20217,11 @@
       </c>
       <c r="L71" s="37"/>
       <c r="M71" s="37" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="37" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="P71" s="20" t="s">
         <v>396</v>
@@ -20267,27 +20267,27 @@
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="20" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="37" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L72" s="37"/>
       <c r="M72" s="37" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="N72" s="20"/>
       <c r="O72" s="37" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="P72" s="20" t="s">
         <v>856</v>
@@ -20296,27 +20296,27 @@
         <v>856</v>
       </c>
       <c r="R72" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="S72" s="20"/>
       <c r="T72" s="37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="U72" s="20"/>
       <c r="V72" s="37" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="W72" s="20"/>
       <c r="X72" s="39" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
@@ -20326,63 +20326,63 @@
         <v>196</v>
       </c>
       <c r="B73" s="30" t="s">
+        <v>907</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>908</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>909</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="37" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L73" s="37"/>
       <c r="M73" s="37" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="37" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="P73" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="R73" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="S73" s="20"/>
       <c r="T73" s="37" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="U73" s="20"/>
       <c r="V73" s="37" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="W73" s="20"/>
       <c r="X73" s="39" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
@@ -20395,60 +20395,60 @@
         <v>215</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="37" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L74" s="37"/>
       <c r="M74" s="37" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="N74" s="20"/>
       <c r="O74" s="37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="Q74" s="22" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="R74" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="S74" s="20"/>
       <c r="T74" s="37" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="U74" s="20"/>
       <c r="V74" s="37" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="W74" s="20"/>
       <c r="X74" s="39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
@@ -20461,60 +20461,60 @@
         <v>216</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="37" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L75" s="37"/>
       <c r="M75" s="37" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="N75" s="20"/>
       <c r="O75" s="37" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q75" s="22" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="R75" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="S75" s="20"/>
       <c r="T75" s="37" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="U75" s="20"/>
       <c r="V75" s="37" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="W75" s="20"/>
       <c r="X75" s="39" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
@@ -20527,7 +20527,7 @@
         <v>272</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20" t="s">
@@ -20539,7 +20539,7 @@
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="37" t="s">
@@ -20547,11 +20547,11 @@
       </c>
       <c r="L76" s="37"/>
       <c r="M76" s="37" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="37" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="P76" s="20" t="s">
         <v>857</v>
@@ -20601,23 +20601,23 @@
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="J77" s="22"/>
       <c r="K77" s="37" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L77" s="37"/>
       <c r="M77" s="37" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="37" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="P77" s="22" t="s">
         <v>858</v>
@@ -20630,7 +20630,7 @@
       </c>
       <c r="S77" s="22"/>
       <c r="T77" s="37" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="U77" s="22"/>
       <c r="V77" s="37" t="s">
@@ -20638,11 +20638,11 @@
       </c>
       <c r="W77" s="22"/>
       <c r="X77" s="39" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="Y77" s="22"/>
       <c r="Z77" s="22" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="AA77" s="22"/>
       <c r="AB77" s="22" t="s">
@@ -20667,23 +20667,23 @@
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="J78" s="22"/>
       <c r="K78" s="37" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L78" s="37"/>
       <c r="M78" s="37" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="37" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P78" s="22" t="s">
         <v>859</v>
@@ -20700,7 +20700,7 @@
       </c>
       <c r="U78" s="22"/>
       <c r="V78" s="37" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="W78" s="22"/>
       <c r="X78" s="39" t="s">
@@ -20708,7 +20708,7 @@
       </c>
       <c r="Y78" s="22"/>
       <c r="Z78" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="AA78" s="22"/>
       <c r="AB78" s="22" t="s">
@@ -20737,7 +20737,7 @@
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="37" t="s">
@@ -20745,11 +20745,11 @@
       </c>
       <c r="L79" s="37"/>
       <c r="M79" s="37" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="37" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="P79" s="22" t="s">
         <v>630</v>
@@ -20803,7 +20803,7 @@
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="37" t="s">
@@ -20811,11 +20811,11 @@
       </c>
       <c r="L80" s="37"/>
       <c r="M80" s="37" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="37" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P80" s="22" t="s">
         <v>860</v>
@@ -20857,60 +20857,60 @@
         <v>42</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>903</v>
+        <v>1446</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="37" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L81" s="37"/>
       <c r="M81" s="37" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="37" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="Q81" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="R81" s="22" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="S81" s="22"/>
       <c r="T81" s="37" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="U81" s="22"/>
       <c r="V81" s="37" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="W81" s="22"/>
       <c r="X81" s="39" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="Y81" s="22"/>
       <c r="Z81" s="22" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="AA81" s="22"/>
       <c r="AB81" s="22" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="AC81" s="22"/>
       <c r="AD81" s="22"/>
@@ -20923,31 +20923,31 @@
         <v>242</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="22" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="J82" s="22"/>
       <c r="K82" s="37" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L82" s="37"/>
       <c r="M82" s="37" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="37" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P82" s="22" t="s">
         <v>881</v>
@@ -20956,27 +20956,27 @@
         <v>881</v>
       </c>
       <c r="R82" s="22" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="S82" s="22"/>
       <c r="T82" s="37" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="U82" s="22"/>
       <c r="V82" s="37" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="W82" s="22"/>
       <c r="X82" s="39" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="Y82" s="22"/>
       <c r="Z82" s="22" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="AA82" s="22"/>
       <c r="AB82" s="22" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="AC82" s="22"/>
       <c r="AD82" s="22"/>
@@ -20989,31 +20989,31 @@
         <v>382</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="22" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="J83" s="22"/>
       <c r="K83" s="37" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L83" s="37"/>
       <c r="M83" s="37" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="37" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="P83" s="22" t="s">
         <v>882</v>
@@ -21022,27 +21022,27 @@
         <v>882</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="S83" s="22"/>
       <c r="T83" s="37" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="U83" s="22"/>
       <c r="V83" s="37" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="W83" s="22"/>
       <c r="X83" s="39" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="Y83" s="22"/>
       <c r="Z83" s="22" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="AA83" s="22"/>
       <c r="AB83" s="22" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="AC83" s="22"/>
       <c r="AD83" s="22"/>
@@ -21055,48 +21055,48 @@
         <v>44</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="22" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="37" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L84" s="37"/>
       <c r="M84" s="37" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="37" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P84" s="22" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Q84" s="22" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="R84" s="22" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="S84" s="22"/>
       <c r="T84" s="37" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="U84" s="22"/>
       <c r="V84" s="37" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="W84" s="22"/>
       <c r="X84" s="39" t="s">
@@ -21104,11 +21104,11 @@
       </c>
       <c r="Y84" s="22"/>
       <c r="Z84" s="22" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="AA84" s="22"/>
       <c r="AB84" s="22" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="AC84" s="22"/>
       <c r="AD84" s="22"/>
@@ -21121,7 +21121,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22" t="s">
@@ -21133,7 +21133,7 @@
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="37" t="s">
@@ -21141,11 +21141,11 @@
       </c>
       <c r="L85" s="37"/>
       <c r="M85" s="37" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="37" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P85" s="22" t="s">
         <v>861</v>
@@ -21187,7 +21187,7 @@
         <v>48</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22" t="s">
@@ -21199,7 +21199,7 @@
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="37" t="s">
@@ -21207,11 +21207,11 @@
       </c>
       <c r="L86" s="37"/>
       <c r="M86" s="37" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="N86" s="22"/>
       <c r="O86" s="37" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P86" s="22" t="s">
         <v>401</v>
@@ -21253,31 +21253,31 @@
         <v>314</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="22" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="J87" s="22"/>
       <c r="K87" s="37" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L87" s="37"/>
       <c r="M87" s="37" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="37" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P87" s="22" t="s">
         <v>862</v>
@@ -21286,27 +21286,27 @@
         <v>862</v>
       </c>
       <c r="R87" s="22" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="S87" s="22"/>
       <c r="T87" s="37" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="U87" s="22"/>
       <c r="V87" s="37" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="W87" s="22"/>
       <c r="X87" s="39" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="Y87" s="22"/>
       <c r="Z87" s="22" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="AA87" s="22"/>
       <c r="AB87" s="22" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="AC87" s="22"/>
       <c r="AD87" s="22"/>
@@ -21319,60 +21319,60 @@
         <v>51</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="22" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F88" s="22"/>
       <c r="G88" s="22" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="J88" s="22"/>
       <c r="K88" s="37" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="L88" s="37"/>
       <c r="M88" s="37" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="37" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P88" s="22" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="Q88" s="22" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="R88" s="22" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="S88" s="22"/>
       <c r="T88" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="U88" s="22"/>
       <c r="V88" s="37" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="W88" s="22"/>
       <c r="X88" s="39" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="Y88" s="22"/>
       <c r="Z88" s="22" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="AA88" s="22"/>
       <c r="AB88" s="22" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="AC88" s="22"/>
       <c r="AD88" s="22"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="J89" s="22"/>
       <c r="K89" s="37" t="s">
@@ -21405,11 +21405,11 @@
       </c>
       <c r="L89" s="37"/>
       <c r="M89" s="37" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="N89" s="22"/>
       <c r="O89" s="37" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P89" s="22" t="s">
         <v>863</v>
@@ -21451,60 +21451,60 @@
         <v>52</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F90" s="22"/>
       <c r="G90" s="22" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="J90" s="22"/>
       <c r="K90" s="37" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L90" s="37"/>
       <c r="M90" s="37" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="N90" s="22"/>
       <c r="O90" s="37" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P90" s="22" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="Q90" s="22" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="R90" s="22" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="S90" s="22"/>
       <c r="T90" s="37" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="U90" s="22"/>
       <c r="V90" s="37" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="W90" s="22"/>
       <c r="X90" s="39" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="Y90" s="22"/>
       <c r="Z90" s="22" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="AA90" s="22"/>
       <c r="AB90" s="22" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="AC90" s="22"/>
       <c r="AD90" s="22"/>
@@ -21529,7 +21529,7 @@
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="37" t="s">
@@ -21537,11 +21537,11 @@
       </c>
       <c r="L91" s="37"/>
       <c r="M91" s="37" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="N91" s="22"/>
       <c r="O91" s="37" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P91" s="22" t="s">
         <v>864</v>
@@ -21595,7 +21595,7 @@
       </c>
       <c r="H92" s="23"/>
       <c r="I92" s="23" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="37" t="s">
@@ -21603,11 +21603,11 @@
       </c>
       <c r="L92" s="37"/>
       <c r="M92" s="37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="N92" s="22"/>
       <c r="O92" s="37" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P92" s="22" t="s">
         <v>865</v>
@@ -21649,31 +21649,31 @@
         <v>55</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="22" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="22" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="37" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L93" s="37"/>
       <c r="M93" s="37" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="N93" s="22"/>
       <c r="O93" s="37" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P93" s="22" t="s">
         <v>866</v>
@@ -21682,27 +21682,27 @@
         <v>866</v>
       </c>
       <c r="R93" s="22" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S93" s="22"/>
       <c r="T93" s="37" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="U93" s="22"/>
       <c r="V93" s="37" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="W93" s="22"/>
       <c r="X93" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="Y93" s="22"/>
       <c r="Z93" s="22" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="AA93" s="22"/>
       <c r="AB93" s="22" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="AC93" s="22"/>
       <c r="AD93" s="22"/>
@@ -21727,7 +21727,7 @@
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="23" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="37" t="s">
@@ -21735,11 +21735,11 @@
       </c>
       <c r="L94" s="37"/>
       <c r="M94" s="37" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="37" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P94" s="22" t="s">
         <v>867</v>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="37" t="s">
@@ -21801,11 +21801,11 @@
       </c>
       <c r="L95" s="37"/>
       <c r="M95" s="37" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="37" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P95" s="22" t="s">
         <v>868</v>
@@ -21859,7 +21859,7 @@
       </c>
       <c r="H96" s="23"/>
       <c r="I96" s="23" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="J96" s="22"/>
       <c r="K96" s="37" t="s">
@@ -21867,11 +21867,11 @@
       </c>
       <c r="L96" s="37"/>
       <c r="M96" s="37" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="N96" s="22"/>
       <c r="O96" s="37" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="P96" s="22" t="s">
         <v>869</v>
@@ -21925,7 +21925,7 @@
       </c>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="37" t="s">
@@ -21933,11 +21933,11 @@
       </c>
       <c r="L97" s="37"/>
       <c r="M97" s="37" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="N97" s="22"/>
       <c r="O97" s="37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="P97" s="22" t="s">
         <v>870</v>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="J98" s="22"/>
       <c r="K98" s="37" t="s">
@@ -21999,11 +21999,11 @@
       </c>
       <c r="L98" s="37"/>
       <c r="M98" s="37" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="N98" s="22"/>
       <c r="O98" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="P98" s="22" t="s">
         <v>871</v>
@@ -22057,7 +22057,7 @@
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="J99" s="22"/>
       <c r="K99" s="37" t="s">
@@ -22065,11 +22065,11 @@
       </c>
       <c r="L99" s="37"/>
       <c r="M99" s="37" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="N99" s="22"/>
       <c r="O99" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="P99" s="22" t="s">
         <v>410</v>
@@ -22123,7 +22123,7 @@
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="J100" s="22"/>
       <c r="K100" s="37" t="s">
@@ -22131,11 +22131,11 @@
       </c>
       <c r="L100" s="37"/>
       <c r="M100" s="37" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="N100" s="22"/>
       <c r="O100" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="P100" s="22" t="s">
         <v>411</v>
@@ -22189,7 +22189,7 @@
       </c>
       <c r="H101" s="23"/>
       <c r="I101" s="23" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="J101" s="22"/>
       <c r="K101" s="37" t="s">
@@ -22197,11 +22197,11 @@
       </c>
       <c r="L101" s="37"/>
       <c r="M101" s="37" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="N101" s="22"/>
       <c r="O101" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="P101" s="22" t="s">
         <v>412</v>
@@ -22243,60 +22243,60 @@
         <v>85</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="22" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="J102" s="25"/>
       <c r="K102" s="37" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L102" s="37"/>
       <c r="M102" s="37" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="N102" s="25"/>
       <c r="O102" s="37" t="s">
+        <v>1112</v>
+      </c>
+      <c r="P102" s="22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="Q102" s="25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="R102" s="22" t="s">
         <v>1113</v>
-      </c>
-      <c r="P102" s="22" t="s">
-        <v>1438</v>
-      </c>
-      <c r="Q102" s="25" t="s">
-        <v>1441</v>
-      </c>
-      <c r="R102" s="22" t="s">
-        <v>1114</v>
       </c>
       <c r="S102" s="22"/>
       <c r="T102" s="37" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="U102" s="22"/>
       <c r="V102" s="37" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="W102" s="22"/>
       <c r="X102" s="39" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="Y102" s="22"/>
       <c r="Z102" s="22" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="AA102" s="22"/>
       <c r="AB102" s="22" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="AC102" s="22"/>
       <c r="AD102" s="22"/>
@@ -22313,44 +22313,44 @@
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="22" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="22" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J103" s="22"/>
       <c r="K103" s="37" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="L103" s="37"/>
       <c r="M103" s="37" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="N103" s="22"/>
       <c r="O103" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Q103" s="22" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="R103" s="22" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="S103" s="22"/>
       <c r="T103" s="37" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="U103" s="22"/>
       <c r="V103" s="37" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="W103" s="22"/>
       <c r="X103" s="39" t="s">
@@ -22358,11 +22358,11 @@
       </c>
       <c r="Y103" s="22"/>
       <c r="Z103" s="22" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="AA103" s="22"/>
       <c r="AB103" s="22" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="AC103" s="22"/>
       <c r="AD103" s="22"/>
@@ -22379,44 +22379,44 @@
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="22" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="22" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="J104" s="22"/>
       <c r="K104" s="37" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="L104" s="37"/>
       <c r="M104" s="37" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="N104" s="22"/>
       <c r="O104" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="Q104" s="22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="S104" s="22"/>
       <c r="T104" s="37" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="U104" s="22"/>
       <c r="V104" s="37" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W104" s="22"/>
       <c r="X104" s="39" t="s">
@@ -22424,11 +22424,11 @@
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="22" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="AA104" s="22"/>
       <c r="AB104" s="22" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="AC104" s="22"/>
       <c r="AD104" s="22"/>
@@ -22445,44 +22445,44 @@
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="22" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="J105" s="22"/>
       <c r="K105" s="37" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L105" s="37"/>
       <c r="M105" s="37" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="N105" s="22"/>
       <c r="O105" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="P105" s="22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="Q105" s="22" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="R105" s="22" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="S105" s="22"/>
       <c r="T105" s="37" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="U105" s="22"/>
       <c r="V105" s="37" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="W105" s="22"/>
       <c r="X105" s="39" t="s">
@@ -22490,11 +22490,11 @@
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="22" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="AA105" s="22"/>
       <c r="AB105" s="22" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="AC105" s="22"/>
       <c r="AD105" s="22"/>
@@ -22519,7 +22519,7 @@
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="37" t="s">
@@ -22527,11 +22527,11 @@
       </c>
       <c r="L106" s="37"/>
       <c r="M106" s="37" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="N106" s="22"/>
       <c r="O106" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="P106" s="22" t="s">
         <v>413</v>
@@ -22585,7 +22585,7 @@
       </c>
       <c r="H107" s="23"/>
       <c r="I107" s="23" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="J107" s="22"/>
       <c r="K107" s="37" t="s">
@@ -22593,11 +22593,11 @@
       </c>
       <c r="L107" s="37"/>
       <c r="M107" s="37" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="N107" s="22"/>
       <c r="O107" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="P107" s="22" t="s">
         <v>872</v>
@@ -22651,7 +22651,7 @@
       </c>
       <c r="H108" s="23"/>
       <c r="I108" s="23" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="J108" s="22"/>
       <c r="K108" s="37" t="s">
@@ -22659,11 +22659,11 @@
       </c>
       <c r="L108" s="37"/>
       <c r="M108" s="37" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N108" s="22"/>
       <c r="O108" s="37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="P108" s="22" t="s">
         <v>415</v>
@@ -22717,7 +22717,7 @@
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="J109" s="22"/>
       <c r="K109" s="37" t="s">
@@ -22725,11 +22725,11 @@
       </c>
       <c r="L109" s="37"/>
       <c r="M109" s="37" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="N109" s="22"/>
       <c r="O109" s="37" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="P109" s="22" t="s">
         <v>416</v>
@@ -22783,7 +22783,7 @@
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="J110" s="22"/>
       <c r="K110" s="37" t="s">
@@ -22791,11 +22791,11 @@
       </c>
       <c r="L110" s="37"/>
       <c r="M110" s="37" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="N110" s="22"/>
       <c r="O110" s="37" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="P110" s="22" t="s">
         <v>873</v>
@@ -22849,7 +22849,7 @@
       </c>
       <c r="H111" s="23"/>
       <c r="I111" s="23" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J111" s="22"/>
       <c r="K111" s="37" t="s">
@@ -22857,11 +22857,11 @@
       </c>
       <c r="L111" s="37"/>
       <c r="M111" s="37" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="N111" s="22"/>
       <c r="O111" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="P111" s="22" t="s">
         <v>418</v>
@@ -22915,7 +22915,7 @@
       </c>
       <c r="H112" s="23"/>
       <c r="I112" s="23" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="J112" s="22"/>
       <c r="K112" s="37" t="s">
@@ -22923,11 +22923,11 @@
       </c>
       <c r="L112" s="37"/>
       <c r="M112" s="37" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="N112" s="22"/>
       <c r="O112" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="P112" s="22" t="s">
         <v>419</v>
@@ -22981,7 +22981,7 @@
       </c>
       <c r="H113" s="23"/>
       <c r="I113" s="23" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="J113" s="22"/>
       <c r="K113" s="37" t="s">
@@ -22989,11 +22989,11 @@
       </c>
       <c r="L113" s="37"/>
       <c r="M113" s="37" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="N113" s="22"/>
       <c r="O113" s="37" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="P113" s="22" t="s">
         <v>420</v>
@@ -23047,7 +23047,7 @@
       </c>
       <c r="H114" s="23"/>
       <c r="I114" s="23" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="J114" s="22"/>
       <c r="K114" s="37" t="s">
@@ -23055,11 +23055,11 @@
       </c>
       <c r="L114" s="37"/>
       <c r="M114" s="37" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="N114" s="22"/>
       <c r="O114" s="37" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="P114" s="22" t="s">
         <v>421</v>
@@ -23113,7 +23113,7 @@
       </c>
       <c r="H115" s="23"/>
       <c r="I115" s="23" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="J115" s="22"/>
       <c r="K115" s="37" t="s">
@@ -23121,11 +23121,11 @@
       </c>
       <c r="L115" s="37"/>
       <c r="M115" s="37" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="N115" s="22"/>
       <c r="O115" s="37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="P115" s="22" t="s">
         <v>422</v>
@@ -23179,7 +23179,7 @@
       </c>
       <c r="H116" s="23"/>
       <c r="I116" s="23" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="J116" s="22"/>
       <c r="K116" s="37" t="s">
@@ -23187,11 +23187,11 @@
       </c>
       <c r="L116" s="37"/>
       <c r="M116" s="37" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="N116" s="22"/>
       <c r="O116" s="37" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="P116" s="22" t="s">
         <v>423</v>
@@ -23233,7 +23233,7 @@
         <v>79</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="22" t="s">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="H117" s="23"/>
       <c r="I117" s="23" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="J117" s="22"/>
       <c r="K117" s="37" t="s">
@@ -23253,11 +23253,11 @@
       </c>
       <c r="L117" s="37"/>
       <c r="M117" s="37" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="N117" s="22"/>
       <c r="O117" s="37" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="P117" s="22" t="s">
         <v>424</v>
@@ -23299,7 +23299,7 @@
         <v>81</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="22" t="s">
@@ -23311,7 +23311,7 @@
       </c>
       <c r="H118" s="23"/>
       <c r="I118" s="23" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="J118" s="22"/>
       <c r="K118" s="37" t="s">
@@ -23319,11 +23319,11 @@
       </c>
       <c r="L118" s="37"/>
       <c r="M118" s="37" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="N118" s="22"/>
       <c r="O118" s="37" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P118" s="22" t="s">
         <v>874</v>
@@ -23365,7 +23365,7 @@
         <v>82</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="22" t="s">
@@ -23377,7 +23377,7 @@
       </c>
       <c r="H119" s="23"/>
       <c r="I119" s="23" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="J119" s="22"/>
       <c r="K119" s="37" t="s">
@@ -23385,11 +23385,11 @@
       </c>
       <c r="L119" s="37"/>
       <c r="M119" s="37" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="N119" s="22"/>
       <c r="O119" s="37" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="P119" s="22" t="s">
         <v>875</v>
@@ -23443,7 +23443,7 @@
       </c>
       <c r="H120" s="23"/>
       <c r="I120" s="23" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="37" t="s">
@@ -23451,11 +23451,11 @@
       </c>
       <c r="L120" s="37"/>
       <c r="M120" s="37" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="N120" s="22"/>
       <c r="O120" s="37" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="P120" s="22" t="s">
         <v>427</v>
@@ -23509,7 +23509,7 @@
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="24" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="J121" s="25"/>
       <c r="K121" s="37" t="s">
@@ -23517,11 +23517,11 @@
       </c>
       <c r="L121" s="37"/>
       <c r="M121" s="37" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="N121" s="25"/>
       <c r="O121" s="37" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="P121" s="22" t="s">
         <v>876</v>
@@ -23575,7 +23575,7 @@
       </c>
       <c r="H122" s="23"/>
       <c r="I122" s="23" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="J122" s="22"/>
       <c r="K122" s="37" t="s">
@@ -23583,11 +23583,11 @@
       </c>
       <c r="L122" s="37"/>
       <c r="M122" s="37" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="N122" s="22"/>
       <c r="O122" s="37" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="P122" s="22" t="s">
         <v>429</v>
@@ -23641,7 +23641,7 @@
       </c>
       <c r="H123" s="23"/>
       <c r="I123" s="23" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="J123" s="22"/>
       <c r="K123" s="37" t="s">
@@ -23649,11 +23649,11 @@
       </c>
       <c r="L123" s="37"/>
       <c r="M123" s="37" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="N123" s="22"/>
       <c r="O123" s="37" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="P123" s="22" t="s">
         <v>430</v>
@@ -23707,7 +23707,7 @@
       </c>
       <c r="H124" s="23"/>
       <c r="I124" s="23" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="J124" s="22"/>
       <c r="K124" s="37" t="s">
@@ -23715,11 +23715,11 @@
       </c>
       <c r="L124" s="37"/>
       <c r="M124" s="37" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="N124" s="22"/>
       <c r="O124" s="37" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="P124" s="22" t="s">
         <v>431</v>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="H125" s="23"/>
       <c r="I125" s="23" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="J125" s="22"/>
       <c r="K125" s="37" t="s">
@@ -23781,11 +23781,11 @@
       </c>
       <c r="L125" s="37"/>
       <c r="M125" s="37" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="N125" s="22"/>
       <c r="O125" s="37" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="P125" s="22" t="s">
         <v>432</v>
@@ -23839,7 +23839,7 @@
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="24" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="J126" s="25"/>
       <c r="K126" s="37" t="s">
@@ -23847,11 +23847,11 @@
       </c>
       <c r="L126" s="37"/>
       <c r="M126" s="37" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="N126" s="25"/>
       <c r="O126" s="37" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="P126" s="22" t="s">
         <v>877</v>
@@ -23905,7 +23905,7 @@
       </c>
       <c r="H127" s="23"/>
       <c r="I127" s="23" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="J127" s="22"/>
       <c r="K127" s="37" t="s">
@@ -23913,11 +23913,11 @@
       </c>
       <c r="L127" s="37"/>
       <c r="M127" s="37" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="N127" s="22"/>
       <c r="O127" s="37" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="P127" s="22" t="s">
         <v>878</v>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="H128" s="23"/>
       <c r="I128" s="23" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="J128" s="22"/>
       <c r="K128" s="37" t="s">
@@ -23979,11 +23979,11 @@
       </c>
       <c r="L128" s="37"/>
       <c r="M128" s="37" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="N128" s="22"/>
       <c r="O128" s="37" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="P128" s="22" t="s">
         <v>879</v>
@@ -24008,7 +24008,7 @@
       </c>
       <c r="Y128" s="22"/>
       <c r="Z128" s="22" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="AA128" s="22"/>
       <c r="AB128" s="22" t="s">
@@ -24025,31 +24025,31 @@
         <v>177</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D129" s="22"/>
       <c r="E129" s="22" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F129" s="22"/>
       <c r="G129" s="22" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H129" s="23"/>
       <c r="I129" s="23" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="J129" s="22"/>
       <c r="K129" s="37" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L129" s="37"/>
       <c r="M129" s="37" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="N129" s="22"/>
       <c r="O129" s="37" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="P129" s="22" t="s">
         <v>880</v>
@@ -24058,27 +24058,27 @@
         <v>880</v>
       </c>
       <c r="R129" s="22" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="S129" s="22"/>
       <c r="T129" s="37" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="U129" s="22"/>
       <c r="V129" s="37" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="W129" s="22"/>
       <c r="X129" s="39" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Y129" s="22"/>
       <c r="Z129" s="22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AA129" s="22"/>
       <c r="AB129" s="22" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="AC129" s="22"/>
       <c r="AD129" s="22"/>
@@ -24091,19 +24091,19 @@
         <v>384</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D130" s="22"/>
       <c r="E130" s="22" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="F130" s="22"/>
       <c r="G130" s="22" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="H130" s="23"/>
       <c r="I130" s="23" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="J130" s="22"/>
       <c r="K130" s="38" t="s">
@@ -24111,40 +24111,40 @@
       </c>
       <c r="L130" s="38"/>
       <c r="M130" s="38" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="N130" s="22"/>
       <c r="O130" s="38" t="s">
+        <v>1364</v>
+      </c>
+      <c r="P130" s="22" t="s">
         <v>1365</v>
       </c>
-      <c r="P130" s="22" t="s">
-        <v>1366</v>
-      </c>
       <c r="Q130" s="22" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="R130" s="22" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="S130" s="22"/>
       <c r="T130" s="38" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="U130" s="22"/>
       <c r="V130" s="38" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="W130" s="22"/>
       <c r="X130" s="40" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="Y130" s="22"/>
       <c r="Z130" s="22" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="AA130" s="22"/>
       <c r="AB130" s="22" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="AC130" s="22"/>
       <c r="AD130" s="22"/>
@@ -24169,7 +24169,7 @@
       </c>
       <c r="H131" s="23"/>
       <c r="I131" s="23" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="J131" s="22"/>
       <c r="K131" s="37" t="s">
@@ -24177,11 +24177,11 @@
       </c>
       <c r="L131" s="37"/>
       <c r="M131" s="37" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="N131" s="22"/>
       <c r="O131" s="37" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="P131" s="22" t="s">
         <v>636</v>
@@ -24642,7 +24642,7 @@
       <c r="M142" s="37"/>
       <c r="N142" s="22"/>
       <c r="O142" s="37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P142" s="22"/>
       <c r="Q142" s="22"/>
@@ -24681,7 +24681,7 @@
       <c r="K143" s="37"/>
       <c r="L143" s="37"/>
       <c r="M143" s="37" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="N143" s="22"/>
       <c r="O143" s="37"/>
@@ -24724,7 +24724,7 @@
       <c r="M144" s="37"/>
       <c r="N144" s="22"/>
       <c r="O144" s="37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P144" s="22"/>
       <c r="Q144" s="22"/>
@@ -24759,7 +24759,7 @@
       <c r="G145" s="22"/>
       <c r="H145" s="23"/>
       <c r="I145" s="23" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="J145" s="22"/>
       <c r="K145" s="37"/>
@@ -24806,7 +24806,7 @@
       <c r="M146" s="37"/>
       <c r="N146" s="22"/>
       <c r="O146" s="37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="P146" s="22"/>
       <c r="Q146" s="22"/>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F494BB9-BB76-4BF6-8248-798833FD3329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F6744-6E9C-4D78-8E8A-3135285880EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4396,9 +4396,6 @@
     <t>Walkable neighbourhoods provide opportunities for active,  healthy, and sustainable lifestyles. Walkable neighourhoods have sufficient but not excessive population density to support adequate provision of local amenities including public transport services. Walkable neighbourhoods also have mixed land uses and well-connected streets, to ensure proximate and convenient access to destinations. High-quality pedestrian infrastructure and reducing traffic through managing demand for car use can also encourage walking for transport.</t>
   </si>
   <si>
-    <t>Neighbourhood walkability in {city} relative to 25 cities</t>
-  </si>
-  <si>
     <t>Population density in {city}</t>
   </si>
   <si>
@@ -4445,6 +4442,9 @@
   </si>
   <si>
     <t>Healthy and Sustainable City Indicators Report: {city}, {country}</t>
+  </si>
+  <si>
+    <t>Neighbourhood walkability in relative to 25 cities</t>
   </si>
 </sst>
 </file>
@@ -16822,10 +16822,10 @@
   <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C82" sqref="C82"/>
+      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16890,10 +16890,10 @@
         <v>847</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="R1" s="19" t="s">
         <v>647</v>
@@ -19669,7 +19669,7 @@
         <v>206</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>1430</v>
+        <v>1446</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="s">
@@ -19699,7 +19699,7 @@
         <v>854</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="R63" s="20" t="s">
         <v>392</v>
@@ -20422,10 +20422,10 @@
         <v>950</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q74" s="22" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="R74" s="20" t="s">
         <v>1010</v>
@@ -20488,10 +20488,10 @@
         <v>951</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="Q75" s="22" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="R75" s="20" t="s">
         <v>1011</v>
@@ -20527,7 +20527,7 @@
         <v>272</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20" t="s">
@@ -20857,7 +20857,7 @@
         <v>42</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
@@ -21121,7 +21121,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22" t="s">
@@ -21187,7 +21187,7 @@
         <v>48</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22" t="s">
@@ -22270,10 +22270,10 @@
         <v>1112</v>
       </c>
       <c r="P102" s="22" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="Q102" s="25" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="R102" s="22" t="s">
         <v>1113</v>
@@ -23233,7 +23233,7 @@
         <v>79</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="D117" s="22"/>
       <c r="E117" s="22" t="s">
@@ -23299,7 +23299,7 @@
         <v>81</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="D118" s="22"/>
       <c r="E118" s="22" t="s">
@@ -23365,7 +23365,7 @@
         <v>82</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="D119" s="22"/>
       <c r="E119" s="22" t="s">

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F6744-6E9C-4D78-8E8A-3135285880EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F52905-041B-4B9A-A222-D15F343909EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5227,176 +5227,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -16810,7 +16645,7 @@
   </sheetData>
   <autoFilter ref="A1:T174" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="A118">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16822,10 +16657,10 @@
   <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -25237,76 +25072,12 @@
       <c r="AD156" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H56:J56 C56 N56">
-    <cfRule type="duplicateValues" dxfId="19" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B61">
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:C66 H63:J66 N63:N66">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67:J67 C67 N67">
-    <cfRule type="duplicateValues" dxfId="16" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76:J76 C76 N76">
-    <cfRule type="duplicateValues" dxfId="15" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B60 B62:B76">
-    <cfRule type="duplicateValues" dxfId="14" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C57:C60 H57:J60 H62:J62 C62 C68:C75 H68:J75 N68:N75 N62 N57:N60">
-    <cfRule type="duplicateValues" dxfId="13" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
-    <cfRule type="duplicateValues" dxfId="12" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B104">
-    <cfRule type="duplicateValues" dxfId="11" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B105">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:J61 C61 N61">
-    <cfRule type="duplicateValues" dxfId="9" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B89">
-    <cfRule type="duplicateValues" dxfId="8" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B95">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:AD156">
     <cfRule type="containsBlanks" dxfId="0" priority="31">
       <formula>LEN(TRIM(C1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B90:B94 B96:B102 B106:B1048576 B77:B88 B1:B56">
-    <cfRule type="duplicateValues" dxfId="6" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q71:Q101 Q122:Q125 Q103:Q120 Q1:Q69">
-    <cfRule type="containsBlanks" dxfId="5" priority="5">
-      <formula>LEN(TRIM(Q1))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q70">
-    <cfRule type="containsBlanks" dxfId="4" priority="4">
-      <formula>LEN(TRIM(Q70))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q102">
-    <cfRule type="containsBlanks" dxfId="3" priority="3">
-      <formula>LEN(TRIM(Q102))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q121">
-    <cfRule type="containsBlanks" dxfId="2" priority="2">
-      <formula>LEN(TRIM(Q121))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q126">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(Q126))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\global-indicators\analysis\global_scorecards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C19038-1118-4967-A212-2FBB3DFA2B0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5E39D-D9B9-4855-B07A-D7297F9F222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scorecard_template_elements" sheetId="1" r:id="rId1"/>
@@ -4432,9 +4432,6 @@
     <t>Please provide a high resolution 'hero image' photo showing a convivial, walkable city steet or public space for this city, ideally in .jpg format with dimensions in the ratio of 1:1 (e.g. 1000px by 1000px)</t>
   </si>
   <si>
-    <t>Urban design and transport policies supporting health and sustinability</t>
-  </si>
-  <si>
     <t>Comparisons with the median values for all cities included in this international study could inform changes needed for local city policies. The maps show the distribution of urban design and transport features across {city}, and identify areas that could benefit the most from interventions to create healthy and sustainable environments.</t>
   </si>
   <si>
@@ -4445,13 +4442,16 @@
   </si>
   <si>
     <t>fonts/dejavu-fonts-ttf-2.37/ttf/DejaVuSansCondensed.ttf</t>
+  </si>
+  <si>
+    <t>Urban design and transport policies supporting health and sustainability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5572,13 +5572,13 @@
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="16" max="16" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>639</v>
       </c>
@@ -5757,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>640</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -6038,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>228</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>378</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>379</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>380</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>272</v>
       </c>
@@ -6841,7 +6841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>273</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>275</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>274</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>103</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>56</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>57</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A37,LEN("policy2_text")+1,1),"_middle")</f>
         <v>policy2_text1_middle</v>
@@ -7794,7 +7794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A38,LEN("policy2_text")+1,1),"_upper")</f>
         <v>policy2_text1_upper</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A42,LEN("policy2_text")+1,1),"_middle")</f>
         <v>policy2_text2_middle</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A43,LEN("policy2_text")+1,1),"_upper")</f>
         <v>policy2_text2_upper</v>
@@ -8172,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>63</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A47,LEN("policy2_text")+1,1),"_middle")</f>
         <v>policy2_text3_middle</v>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A48,LEN("policy2_text")+1,1),"_upper")</f>
         <v>policy2_text3_upper</v>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A52,LEN("policy2_text")+1,1),"_middle")</f>
         <v>policy2_text4_middle</v>
@@ -8736,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A53,LEN("policy2_text")+1,1),"_upper")</f>
         <v>policy2_text4_upper</v>
@@ -8800,7 +8800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A57,LEN("policy2_text")+1,1),"_middle")</f>
         <v>policy2_text5_middle</v>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A58,LEN("policy2_text")+1,1),"_upper")</f>
         <v>policy2_text5_upper</v>
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A62,LEN("policy2_text")+1,1),"_middle")</f>
         <v>policy2_text6_middle</v>
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f>_xlfn.CONCAT("policy2_text",MID(A63,LEN("policy2_text")+1,1),"_upper")</f>
         <v>policy2_text6_upper</v>
@@ -9428,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>85</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>47</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>78</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>231</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>97</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>98</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>99</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>100</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -10134,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>108</v>
       </c>
@@ -10308,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>110</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>111</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>112</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>113</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>115</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>116</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>117</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>118</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>119</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>120</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>122</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>123</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>124</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>125</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>126</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>128</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -11568,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>130</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>131</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>132</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>133</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>134</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>135</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>136</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>137</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -12108,7 +12108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>139</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -12228,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>48</v>
       </c>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>49</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>79</v>
       </c>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>312</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:20">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>245</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>81</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>163</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>179</v>
       </c>
@@ -12915,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>172</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>234</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -13094,7 +13094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>98</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:20">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>99</v>
       </c>
@@ -13214,7 +13214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>100</v>
       </c>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>87</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>89</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>103</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>143</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>144</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>146</v>
       </c>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>147</v>
       </c>
@@ -13801,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>148</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>149</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>150</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>151</v>
       </c>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>152</v>
       </c>
@@ -14101,7 +14101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>153</v>
       </c>
@@ -14161,7 +14161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>154</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>155</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>157</v>
       </c>
@@ -14401,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>158</v>
       </c>
@@ -14461,7 +14461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>159</v>
       </c>
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>160</v>
       </c>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>162</v>
       </c>
@@ -14701,7 +14701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>82</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>174</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>83</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>235</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>97</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>98</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>99</v>
       </c>
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>100</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>87</v>
       </c>
@@ -15289,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>88</v>
       </c>
@@ -15346,7 +15346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>89</v>
       </c>
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>103</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>84</v>
       </c>
@@ -15817,7 +15817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>41</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -15928,7 +15928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>319</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:20" ht="60">
+    <row r="176" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>313</v>
       </c>
@@ -16047,7 +16047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>29</v>
       </c>
@@ -16210,7 +16210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>30</v>
       </c>
@@ -16264,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>31</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>33</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>34</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>35</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>36</v>
       </c>
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>37</v>
       </c>
@@ -16656,14 +16656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD156"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D92" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C102" sqref="C102"/>
+      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" style="30" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="30" customWidth="1"/>
@@ -16678,7 +16678,7 @@
     <col min="29" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="29" customFormat="1">
+    <row r="1" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>193</v>
       </c>
@@ -16766,7 +16766,7 @@
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
     </row>
-    <row r="2" spans="1:30" s="31" customFormat="1">
+    <row r="2" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>194</v>
       </c>
@@ -16846,7 +16846,7 @@
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
     </row>
-    <row r="3" spans="1:30" ht="15" customHeight="1">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>194</v>
       </c>
@@ -16912,7 +16912,7 @@
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
     </row>
-    <row r="4" spans="1:30" ht="15" customHeight="1">
+    <row r="4" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>194</v>
       </c>
@@ -16978,7 +16978,7 @@
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
     </row>
-    <row r="5" spans="1:30" ht="30">
+    <row r="5" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>194</v>
       </c>
@@ -17044,7 +17044,7 @@
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>194</v>
       </c>
@@ -17082,7 +17082,7 @@
       <c r="AC6" s="22"/>
       <c r="AD6" s="22"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>194</v>
       </c>
@@ -17124,7 +17124,7 @@
       <c r="AC7" s="22"/>
       <c r="AD7" s="22"/>
     </row>
-    <row r="8" spans="1:30" ht="15" customHeight="1">
+    <row r="8" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>194</v>
       </c>
@@ -17162,7 +17162,7 @@
       <c r="AC8" s="22"/>
       <c r="AD8" s="22"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>194</v>
       </c>
@@ -17200,7 +17200,7 @@
       <c r="AC9" s="22"/>
       <c r="AD9" s="22"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1">
+    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>194</v>
       </c>
@@ -17238,7 +17238,7 @@
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
     </row>
-    <row r="11" spans="1:30" ht="15" customHeight="1">
+    <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>194</v>
       </c>
@@ -17278,7 +17278,7 @@
       <c r="AC11" s="22"/>
       <c r="AD11" s="22"/>
     </row>
-    <row r="12" spans="1:30" ht="15" customHeight="1">
+    <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>194</v>
       </c>
@@ -17318,7 +17318,7 @@
       <c r="AC12" s="22"/>
       <c r="AD12" s="22"/>
     </row>
-    <row r="13" spans="1:30" ht="15" customHeight="1">
+    <row r="13" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>194</v>
       </c>
@@ -17358,7 +17358,7 @@
       <c r="AC13" s="22"/>
       <c r="AD13" s="22"/>
     </row>
-    <row r="14" spans="1:30" ht="15" customHeight="1">
+    <row r="14" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>194</v>
       </c>
@@ -17398,7 +17398,7 @@
       <c r="AC14" s="22"/>
       <c r="AD14" s="22"/>
     </row>
-    <row r="15" spans="1:30" ht="15" customHeight="1">
+    <row r="15" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>194</v>
       </c>
@@ -17438,7 +17438,7 @@
       <c r="AC15" s="22"/>
       <c r="AD15" s="22"/>
     </row>
-    <row r="16" spans="1:30" ht="15" customHeight="1">
+    <row r="16" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>194</v>
       </c>
@@ -17478,7 +17478,7 @@
       <c r="AC16" s="22"/>
       <c r="AD16" s="22"/>
     </row>
-    <row r="17" spans="1:30" ht="15" customHeight="1">
+    <row r="17" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>194</v>
       </c>
@@ -17518,7 +17518,7 @@
       <c r="AC17" s="22"/>
       <c r="AD17" s="22"/>
     </row>
-    <row r="18" spans="1:30" ht="15" customHeight="1">
+    <row r="18" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>194</v>
       </c>
@@ -17558,7 +17558,7 @@
       <c r="AC18" s="22"/>
       <c r="AD18" s="22"/>
     </row>
-    <row r="19" spans="1:30" ht="15" customHeight="1">
+    <row r="19" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>194</v>
       </c>
@@ -17598,7 +17598,7 @@
       <c r="AC19" s="22"/>
       <c r="AD19" s="22"/>
     </row>
-    <row r="20" spans="1:30" ht="15" customHeight="1">
+    <row r="20" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>194</v>
       </c>
@@ -17638,7 +17638,7 @@
       <c r="AC20" s="22"/>
       <c r="AD20" s="22"/>
     </row>
-    <row r="21" spans="1:30" ht="15" customHeight="1">
+    <row r="21" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>194</v>
       </c>
@@ -17678,7 +17678,7 @@
       <c r="AC21" s="22"/>
       <c r="AD21" s="22"/>
     </row>
-    <row r="22" spans="1:30" ht="15" customHeight="1">
+    <row r="22" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>194</v>
       </c>
@@ -17722,7 +17722,7 @@
       <c r="AC22" s="22"/>
       <c r="AD22" s="22"/>
     </row>
-    <row r="23" spans="1:30" ht="15" customHeight="1">
+    <row r="23" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>194</v>
       </c>
@@ -17766,7 +17766,7 @@
       <c r="AC23" s="22"/>
       <c r="AD23" s="22"/>
     </row>
-    <row r="24" spans="1:30" ht="15" customHeight="1">
+    <row r="24" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>194</v>
       </c>
@@ -17810,7 +17810,7 @@
       <c r="AC24" s="22"/>
       <c r="AD24" s="22"/>
     </row>
-    <row r="25" spans="1:30" ht="15" customHeight="1">
+    <row r="25" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>194</v>
       </c>
@@ -17848,7 +17848,7 @@
       <c r="AC25" s="22"/>
       <c r="AD25" s="22"/>
     </row>
-    <row r="26" spans="1:30" ht="15" customHeight="1">
+    <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>194</v>
       </c>
@@ -17888,7 +17888,7 @@
       <c r="AC26" s="22"/>
       <c r="AD26" s="22"/>
     </row>
-    <row r="27" spans="1:30" ht="15" customHeight="1">
+    <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>194</v>
       </c>
@@ -17926,7 +17926,7 @@
       <c r="AC27" s="22"/>
       <c r="AD27" s="22"/>
     </row>
-    <row r="28" spans="1:30" ht="15" customHeight="1">
+    <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>194</v>
       </c>
@@ -17964,7 +17964,7 @@
       <c r="AC28" s="22"/>
       <c r="AD28" s="22"/>
     </row>
-    <row r="29" spans="1:30" ht="15" customHeight="1">
+    <row r="29" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>194</v>
       </c>
@@ -18002,7 +18002,7 @@
       <c r="AC29" s="22"/>
       <c r="AD29" s="22"/>
     </row>
-    <row r="30" spans="1:30" ht="15" customHeight="1">
+    <row r="30" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>194</v>
       </c>
@@ -18040,7 +18040,7 @@
       <c r="AC30" s="22"/>
       <c r="AD30" s="22"/>
     </row>
-    <row r="31" spans="1:30" ht="15" customHeight="1">
+    <row r="31" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>194</v>
       </c>
@@ -18078,7 +18078,7 @@
       <c r="AC31" s="22"/>
       <c r="AD31" s="22"/>
     </row>
-    <row r="32" spans="1:30" ht="15" customHeight="1">
+    <row r="32" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>194</v>
       </c>
@@ -18120,7 +18120,7 @@
       <c r="AC32" s="22"/>
       <c r="AD32" s="22"/>
     </row>
-    <row r="33" spans="1:30" ht="15" customHeight="1">
+    <row r="33" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>194</v>
       </c>
@@ -18158,7 +18158,7 @@
       <c r="AC33" s="22"/>
       <c r="AD33" s="22"/>
     </row>
-    <row r="34" spans="1:30" ht="15" customHeight="1">
+    <row r="34" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>194</v>
       </c>
@@ -18196,7 +18196,7 @@
       <c r="AC34" s="22"/>
       <c r="AD34" s="22"/>
     </row>
-    <row r="35" spans="1:30" ht="15" customHeight="1">
+    <row r="35" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>194</v>
       </c>
@@ -18234,7 +18234,7 @@
       <c r="AC35" s="22"/>
       <c r="AD35" s="22"/>
     </row>
-    <row r="36" spans="1:30" ht="15" customHeight="1">
+    <row r="36" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>194</v>
       </c>
@@ -18274,7 +18274,7 @@
       <c r="AC36" s="22"/>
       <c r="AD36" s="22"/>
     </row>
-    <row r="37" spans="1:30" ht="15" customHeight="1">
+    <row r="37" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>194</v>
       </c>
@@ -18314,7 +18314,7 @@
       <c r="AC37" s="22"/>
       <c r="AD37" s="22"/>
     </row>
-    <row r="38" spans="1:30" ht="15" customHeight="1">
+    <row r="38" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>194</v>
       </c>
@@ -18354,7 +18354,7 @@
       <c r="AC38" s="22"/>
       <c r="AD38" s="22"/>
     </row>
-    <row r="39" spans="1:30" ht="15" customHeight="1">
+    <row r="39" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>194</v>
       </c>
@@ -18394,7 +18394,7 @@
       <c r="AC39" s="22"/>
       <c r="AD39" s="22"/>
     </row>
-    <row r="40" spans="1:30" ht="15" customHeight="1">
+    <row r="40" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>194</v>
       </c>
@@ -18434,7 +18434,7 @@
       <c r="AC40" s="22"/>
       <c r="AD40" s="22"/>
     </row>
-    <row r="41" spans="1:30" ht="15" customHeight="1">
+    <row r="41" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>194</v>
       </c>
@@ -18474,7 +18474,7 @@
       <c r="AC41" s="22"/>
       <c r="AD41" s="22"/>
     </row>
-    <row r="42" spans="1:30" ht="15" customHeight="1">
+    <row r="42" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>194</v>
       </c>
@@ -18514,7 +18514,7 @@
       <c r="AC42" s="22"/>
       <c r="AD42" s="22"/>
     </row>
-    <row r="43" spans="1:30" ht="15" customHeight="1">
+    <row r="43" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>194</v>
       </c>
@@ -18554,7 +18554,7 @@
       <c r="AC43" s="22"/>
       <c r="AD43" s="22"/>
     </row>
-    <row r="44" spans="1:30" ht="15" customHeight="1">
+    <row r="44" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>194</v>
       </c>
@@ -18594,7 +18594,7 @@
       <c r="AC44" s="22"/>
       <c r="AD44" s="22"/>
     </row>
-    <row r="45" spans="1:30" ht="15" customHeight="1">
+    <row r="45" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>194</v>
       </c>
@@ -18634,7 +18634,7 @@
       <c r="AC45" s="22"/>
       <c r="AD45" s="22"/>
     </row>
-    <row r="46" spans="1:30" ht="15" customHeight="1">
+    <row r="46" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>194</v>
       </c>
@@ -18674,7 +18674,7 @@
       <c r="AC46" s="22"/>
       <c r="AD46" s="22"/>
     </row>
-    <row r="47" spans="1:30" ht="15" customHeight="1">
+    <row r="47" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>194</v>
       </c>
@@ -18718,7 +18718,7 @@
       <c r="AC47" s="22"/>
       <c r="AD47" s="22"/>
     </row>
-    <row r="48" spans="1:30" ht="15" customHeight="1">
+    <row r="48" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>194</v>
       </c>
@@ -18762,7 +18762,7 @@
       <c r="AC48" s="22"/>
       <c r="AD48" s="22"/>
     </row>
-    <row r="49" spans="1:30" ht="15" customHeight="1">
+    <row r="49" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>194</v>
       </c>
@@ -18806,7 +18806,7 @@
       <c r="AC49" s="22"/>
       <c r="AD49" s="22"/>
     </row>
-    <row r="50" spans="1:30" ht="15" customHeight="1">
+    <row r="50" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>194</v>
       </c>
@@ -18844,7 +18844,7 @@
       <c r="AC50" s="22"/>
       <c r="AD50" s="22"/>
     </row>
-    <row r="51" spans="1:30" ht="15" customHeight="1">
+    <row r="51" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>194</v>
       </c>
@@ -18884,7 +18884,7 @@
       <c r="AC51" s="22"/>
       <c r="AD51" s="22"/>
     </row>
-    <row r="52" spans="1:30" ht="15" customHeight="1">
+    <row r="52" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>194</v>
       </c>
@@ -18922,7 +18922,7 @@
       <c r="AC52" s="22"/>
       <c r="AD52" s="22"/>
     </row>
-    <row r="53" spans="1:30" ht="15" customHeight="1">
+    <row r="53" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>194</v>
       </c>
@@ -18960,7 +18960,7 @@
       <c r="AC53" s="22"/>
       <c r="AD53" s="22"/>
     </row>
-    <row r="54" spans="1:30" ht="15" customHeight="1">
+    <row r="54" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>194</v>
       </c>
@@ -18998,7 +18998,7 @@
       <c r="AC54" s="22"/>
       <c r="AD54" s="22"/>
     </row>
-    <row r="55" spans="1:30" ht="15" customHeight="1">
+    <row r="55" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>194</v>
       </c>
@@ -19036,7 +19036,7 @@
       <c r="AC55" s="22"/>
       <c r="AD55" s="22"/>
     </row>
-    <row r="56" spans="1:30" s="31" customFormat="1">
+    <row r="56" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>195</v>
       </c>
@@ -19100,7 +19100,7 @@
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
     </row>
-    <row r="57" spans="1:30" s="31" customFormat="1">
+    <row r="57" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>195</v>
       </c>
@@ -19166,7 +19166,7 @@
       <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
     </row>
-    <row r="58" spans="1:30" s="31" customFormat="1">
+    <row r="58" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>195</v>
       </c>
@@ -19232,7 +19232,7 @@
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
     </row>
-    <row r="59" spans="1:30" s="31" customFormat="1">
+    <row r="59" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>195</v>
       </c>
@@ -19298,7 +19298,7 @@
       <c r="AC59" s="20"/>
       <c r="AD59" s="20"/>
     </row>
-    <row r="60" spans="1:30" s="31" customFormat="1">
+    <row r="60" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>195</v>
       </c>
@@ -19364,7 +19364,7 @@
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
     </row>
-    <row r="61" spans="1:30" s="31" customFormat="1" ht="30">
+    <row r="61" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>195</v>
       </c>
@@ -19430,7 +19430,7 @@
       <c r="AC61" s="20"/>
       <c r="AD61" s="20"/>
     </row>
-    <row r="62" spans="1:30" s="31" customFormat="1" ht="42.75">
+    <row r="62" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>195</v>
       </c>
@@ -19496,7 +19496,7 @@
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
     </row>
-    <row r="63" spans="1:30" s="31" customFormat="1" ht="30">
+    <row r="63" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>195</v>
       </c>
@@ -19562,7 +19562,7 @@
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
     </row>
-    <row r="64" spans="1:30" s="31" customFormat="1">
+    <row r="64" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>195</v>
       </c>
@@ -19628,7 +19628,7 @@
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
     </row>
-    <row r="65" spans="1:30" s="31" customFormat="1">
+    <row r="65" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>195</v>
       </c>
@@ -19694,7 +19694,7 @@
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
     </row>
-    <row r="66" spans="1:30" s="31" customFormat="1">
+    <row r="66" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>195</v>
       </c>
@@ -19760,7 +19760,7 @@
       <c r="AC66" s="20"/>
       <c r="AD66" s="20"/>
     </row>
-    <row r="67" spans="1:30" s="31" customFormat="1" ht="30">
+    <row r="67" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>195</v>
       </c>
@@ -19826,7 +19826,7 @@
       <c r="AC67" s="20"/>
       <c r="AD67" s="20"/>
     </row>
-    <row r="68" spans="1:30" s="31" customFormat="1" ht="60">
+    <row r="68" spans="1:30" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>195</v>
       </c>
@@ -19892,7 +19892,7 @@
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
     </row>
-    <row r="69" spans="1:30" s="31" customFormat="1" ht="57">
+    <row r="69" spans="1:30" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>195</v>
       </c>
@@ -19958,7 +19958,7 @@
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
     </row>
-    <row r="70" spans="1:30" s="31" customFormat="1" ht="28.5">
+    <row r="70" spans="1:30" s="31" customFormat="1" ht="33" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>195</v>
       </c>
@@ -20024,7 +20024,7 @@
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
     </row>
-    <row r="71" spans="1:30" s="31" customFormat="1">
+    <row r="71" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>195</v>
       </c>
@@ -20090,7 +20090,7 @@
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
     </row>
-    <row r="72" spans="1:30" s="31" customFormat="1" ht="60">
+    <row r="72" spans="1:30" s="31" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>195</v>
       </c>
@@ -20156,7 +20156,7 @@
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
     </row>
-    <row r="73" spans="1:30" s="31" customFormat="1">
+    <row r="73" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>195</v>
       </c>
@@ -20222,7 +20222,7 @@
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
     </row>
-    <row r="74" spans="1:30" s="31" customFormat="1" ht="30">
+    <row r="74" spans="1:30" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>195</v>
       </c>
@@ -20288,7 +20288,7 @@
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
     </row>
-    <row r="75" spans="1:30" s="31" customFormat="1" ht="30">
+    <row r="75" spans="1:30" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>195</v>
       </c>
@@ -20354,7 +20354,7 @@
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
     </row>
-    <row r="76" spans="1:30" s="31" customFormat="1">
+    <row r="76" spans="1:30" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>195</v>
       </c>
@@ -20420,7 +20420,7 @@
       <c r="AC76" s="20"/>
       <c r="AD76" s="20"/>
     </row>
-    <row r="77" spans="1:30" ht="15" customHeight="1">
+    <row r="77" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>194</v>
       </c>
@@ -20486,7 +20486,7 @@
       <c r="AC77" s="22"/>
       <c r="AD77" s="22"/>
     </row>
-    <row r="78" spans="1:30" ht="15" customHeight="1">
+    <row r="78" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>194</v>
       </c>
@@ -20552,7 +20552,7 @@
       <c r="AC78" s="22"/>
       <c r="AD78" s="22"/>
     </row>
-    <row r="79" spans="1:30" ht="15" customHeight="1">
+    <row r="79" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>194</v>
       </c>
@@ -20618,7 +20618,7 @@
       <c r="AC79" s="22"/>
       <c r="AD79" s="22"/>
     </row>
-    <row r="80" spans="1:30">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>194</v>
       </c>
@@ -20684,7 +20684,7 @@
       <c r="AC80" s="22"/>
       <c r="AD80" s="22"/>
     </row>
-    <row r="81" spans="1:30" ht="30">
+    <row r="81" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>194</v>
       </c>
@@ -20750,7 +20750,7 @@
       <c r="AC81" s="22"/>
       <c r="AD81" s="22"/>
     </row>
-    <row r="82" spans="1:30" ht="238.5" customHeight="1">
+    <row r="82" spans="1:30" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>194</v>
       </c>
@@ -20816,7 +20816,7 @@
       <c r="AC82" s="22"/>
       <c r="AD82" s="22"/>
     </row>
-    <row r="83" spans="1:30" ht="238.5" customHeight="1">
+    <row r="83" spans="1:30" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>194</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>378</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22" t="s">
@@ -20882,7 +20882,7 @@
       <c r="AC83" s="22"/>
       <c r="AD83" s="22"/>
     </row>
-    <row r="84" spans="1:30" ht="45">
+    <row r="84" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>194</v>
       </c>
@@ -20948,7 +20948,7 @@
       <c r="AC84" s="22"/>
       <c r="AD84" s="22"/>
     </row>
-    <row r="85" spans="1:30">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>194</v>
       </c>
@@ -21014,7 +21014,7 @@
       <c r="AC85" s="22"/>
       <c r="AD85" s="22"/>
     </row>
-    <row r="86" spans="1:30">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>194</v>
       </c>
@@ -21080,7 +21080,7 @@
       <c r="AC86" s="22"/>
       <c r="AD86" s="22"/>
     </row>
-    <row r="87" spans="1:30" ht="199.5">
+    <row r="87" spans="1:30" ht="231" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>194</v>
       </c>
@@ -21146,7 +21146,7 @@
       <c r="AC87" s="22"/>
       <c r="AD87" s="22"/>
     </row>
-    <row r="88" spans="1:30">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>194</v>
       </c>
@@ -21212,7 +21212,7 @@
       <c r="AC88" s="22"/>
       <c r="AD88" s="22"/>
     </row>
-    <row r="89" spans="1:30" ht="57">
+    <row r="89" spans="1:30" ht="66" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>194</v>
       </c>
@@ -21220,7 +21220,7 @@
         <v>272</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="22" t="s">
@@ -21278,7 +21278,7 @@
       <c r="AC89" s="22"/>
       <c r="AD89" s="22"/>
     </row>
-    <row r="90" spans="1:30">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>194</v>
       </c>
@@ -21344,7 +21344,7 @@
       <c r="AC90" s="22"/>
       <c r="AD90" s="22"/>
     </row>
-    <row r="91" spans="1:30" ht="60">
+    <row r="91" spans="1:30" ht="66" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>194</v>
       </c>
@@ -21410,7 +21410,7 @@
       <c r="AC91" s="22"/>
       <c r="AD91" s="22"/>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>194</v>
       </c>
@@ -21476,7 +21476,7 @@
       <c r="AC92" s="22"/>
       <c r="AD92" s="22"/>
     </row>
-    <row r="93" spans="1:30" ht="30">
+    <row r="93" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>194</v>
       </c>
@@ -21542,7 +21542,7 @@
       <c r="AC93" s="22"/>
       <c r="AD93" s="22"/>
     </row>
-    <row r="94" spans="1:30" ht="30">
+    <row r="94" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>194</v>
       </c>
@@ -21608,7 +21608,7 @@
       <c r="AC94" s="22"/>
       <c r="AD94" s="22"/>
     </row>
-    <row r="95" spans="1:30" ht="30">
+    <row r="95" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>194</v>
       </c>
@@ -21674,7 +21674,7 @@
       <c r="AC95" s="22"/>
       <c r="AD95" s="22"/>
     </row>
-    <row r="96" spans="1:30" ht="42.75">
+    <row r="96" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>194</v>
       </c>
@@ -21740,7 +21740,7 @@
       <c r="AC96" s="22"/>
       <c r="AD96" s="22"/>
     </row>
-    <row r="97" spans="1:30" ht="42.75">
+    <row r="97" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>194</v>
       </c>
@@ -21806,7 +21806,7 @@
       <c r="AC97" s="22"/>
       <c r="AD97" s="22"/>
     </row>
-    <row r="98" spans="1:30" ht="42.75">
+    <row r="98" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>194</v>
       </c>
@@ -21872,7 +21872,7 @@
       <c r="AC98" s="22"/>
       <c r="AD98" s="22"/>
     </row>
-    <row r="99" spans="1:30" ht="45">
+    <row r="99" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>194</v>
       </c>
@@ -21938,7 +21938,7 @@
       <c r="AC99" s="22"/>
       <c r="AD99" s="22"/>
     </row>
-    <row r="100" spans="1:30" ht="30">
+    <row r="100" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>194</v>
       </c>
@@ -22004,7 +22004,7 @@
       <c r="AC100" s="22"/>
       <c r="AD100" s="22"/>
     </row>
-    <row r="101" spans="1:30" ht="30">
+    <row r="101" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>194</v>
       </c>
@@ -22070,7 +22070,7 @@
       <c r="AC101" s="22"/>
       <c r="AD101" s="22"/>
     </row>
-    <row r="102" spans="1:30" ht="270.75">
+    <row r="102" spans="1:30" ht="280.5" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>194</v>
       </c>
@@ -22078,7 +22078,7 @@
         <v>85</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
@@ -22136,7 +22136,7 @@
       <c r="AC102" s="22"/>
       <c r="AD102" s="22"/>
     </row>
-    <row r="103" spans="1:30">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>194</v>
       </c>
@@ -22202,7 +22202,7 @@
       <c r="AC103" s="22"/>
       <c r="AD103" s="22"/>
     </row>
-    <row r="104" spans="1:30">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>194</v>
       </c>
@@ -22268,7 +22268,7 @@
       <c r="AC104" s="22"/>
       <c r="AD104" s="22"/>
     </row>
-    <row r="105" spans="1:30">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>194</v>
       </c>
@@ -22334,7 +22334,7 @@
       <c r="AC105" s="22"/>
       <c r="AD105" s="22"/>
     </row>
-    <row r="106" spans="1:30">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>194</v>
       </c>
@@ -22400,7 +22400,7 @@
       <c r="AC106" s="22"/>
       <c r="AD106" s="22"/>
     </row>
-    <row r="107" spans="1:30">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>194</v>
       </c>
@@ -22466,7 +22466,7 @@
       <c r="AC107" s="22"/>
       <c r="AD107" s="22"/>
     </row>
-    <row r="108" spans="1:30">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>194</v>
       </c>
@@ -22532,7 +22532,7 @@
       <c r="AC108" s="22"/>
       <c r="AD108" s="22"/>
     </row>
-    <row r="109" spans="1:30">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>194</v>
       </c>
@@ -22598,7 +22598,7 @@
       <c r="AC109" s="22"/>
       <c r="AD109" s="22"/>
     </row>
-    <row r="110" spans="1:30">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>194</v>
       </c>
@@ -22664,7 +22664,7 @@
       <c r="AC110" s="22"/>
       <c r="AD110" s="22"/>
     </row>
-    <row r="111" spans="1:30">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>194</v>
       </c>
@@ -22730,7 +22730,7 @@
       <c r="AC111" s="22"/>
       <c r="AD111" s="22"/>
     </row>
-    <row r="112" spans="1:30" ht="30">
+    <row r="112" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>194</v>
       </c>
@@ -22796,7 +22796,7 @@
       <c r="AC112" s="22"/>
       <c r="AD112" s="22"/>
     </row>
-    <row r="113" spans="1:30">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>194</v>
       </c>
@@ -22862,7 +22862,7 @@
       <c r="AC113" s="22"/>
       <c r="AD113" s="22"/>
     </row>
-    <row r="114" spans="1:30">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>194</v>
       </c>
@@ -22928,7 +22928,7 @@
       <c r="AC114" s="22"/>
       <c r="AD114" s="22"/>
     </row>
-    <row r="115" spans="1:30">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>194</v>
       </c>
@@ -22994,7 +22994,7 @@
       <c r="AC115" s="22"/>
       <c r="AD115" s="22"/>
     </row>
-    <row r="116" spans="1:30">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>194</v>
       </c>
@@ -23060,7 +23060,7 @@
       <c r="AC116" s="22"/>
       <c r="AD116" s="22"/>
     </row>
-    <row r="117" spans="1:30">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
         <v>194</v>
       </c>
@@ -23126,7 +23126,7 @@
       <c r="AC117" s="22"/>
       <c r="AD117" s="22"/>
     </row>
-    <row r="118" spans="1:30">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>194</v>
       </c>
@@ -23192,7 +23192,7 @@
       <c r="AC118" s="22"/>
       <c r="AD118" s="22"/>
     </row>
-    <row r="119" spans="1:30">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
         <v>194</v>
       </c>
@@ -23258,7 +23258,7 @@
       <c r="AC119" s="22"/>
       <c r="AD119" s="22"/>
     </row>
-    <row r="120" spans="1:30">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>194</v>
       </c>
@@ -23324,7 +23324,7 @@
       <c r="AC120" s="22"/>
       <c r="AD120" s="22"/>
     </row>
-    <row r="121" spans="1:30" ht="270.75">
+    <row r="121" spans="1:30" ht="297" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
         <v>194</v>
       </c>
@@ -23390,7 +23390,7 @@
       <c r="AC121" s="22"/>
       <c r="AD121" s="22"/>
     </row>
-    <row r="122" spans="1:30" ht="30">
+    <row r="122" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>194</v>
       </c>
@@ -23456,7 +23456,7 @@
       <c r="AC122" s="22"/>
       <c r="AD122" s="22"/>
     </row>
-    <row r="123" spans="1:30">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
         <v>194</v>
       </c>
@@ -23522,7 +23522,7 @@
       <c r="AC123" s="22"/>
       <c r="AD123" s="22"/>
     </row>
-    <row r="124" spans="1:30" ht="30">
+    <row r="124" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>194</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="AC124" s="22"/>
       <c r="AD124" s="22"/>
     </row>
-    <row r="125" spans="1:30" ht="30">
+    <row r="125" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>194</v>
       </c>
@@ -23654,7 +23654,7 @@
       <c r="AC125" s="22"/>
       <c r="AD125" s="22"/>
     </row>
-    <row r="126" spans="1:30" ht="228">
+    <row r="126" spans="1:30" ht="264" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>194</v>
       </c>
@@ -23720,7 +23720,7 @@
       <c r="AC126" s="22"/>
       <c r="AD126" s="22"/>
     </row>
-    <row r="127" spans="1:30" ht="30">
+    <row r="127" spans="1:30" ht="33" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
         <v>194</v>
       </c>
@@ -23786,7 +23786,7 @@
       <c r="AC127" s="22"/>
       <c r="AD127" s="22"/>
     </row>
-    <row r="128" spans="1:30" ht="327.75">
+    <row r="128" spans="1:30" ht="396" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>194</v>
       </c>
@@ -23852,7 +23852,7 @@
       <c r="AC128" s="22"/>
       <c r="AD128" s="22"/>
     </row>
-    <row r="129" spans="1:30" ht="76.5" customHeight="1">
+    <row r="129" spans="1:30" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>194</v>
       </c>
@@ -23918,7 +23918,7 @@
       <c r="AC129" s="22"/>
       <c r="AD129" s="22"/>
     </row>
-    <row r="130" spans="1:30" ht="238.5" customHeight="1">
+    <row r="130" spans="1:30" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>194</v>
       </c>
@@ -23984,7 +23984,7 @@
       <c r="AC130" s="22"/>
       <c r="AD130" s="22"/>
     </row>
-    <row r="131" spans="1:30" ht="238.5" customHeight="1">
+    <row r="131" spans="1:30" ht="238.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>194</v>
       </c>
@@ -24050,7 +24050,7 @@
       <c r="AC131" s="22"/>
       <c r="AD131" s="22"/>
     </row>
-    <row r="132" spans="1:30" ht="30">
+    <row r="132" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>194</v>
       </c>
@@ -24089,7 +24089,7 @@
       <c r="AC132" s="22"/>
       <c r="AD132" s="22"/>
     </row>
-    <row r="133" spans="1:30" ht="30">
+    <row r="133" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>194</v>
       </c>
@@ -24132,7 +24132,7 @@
       <c r="AC133" s="22"/>
       <c r="AD133" s="22"/>
     </row>
-    <row r="134" spans="1:30" ht="30">
+    <row r="134" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>194</v>
       </c>
@@ -24171,7 +24171,7 @@
       <c r="AC134" s="22"/>
       <c r="AD134" s="22"/>
     </row>
-    <row r="135" spans="1:30" ht="30">
+    <row r="135" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>194</v>
       </c>
@@ -24210,7 +24210,7 @@
       <c r="AC135" s="22"/>
       <c r="AD135" s="22"/>
     </row>
-    <row r="136" spans="1:30" ht="30">
+    <row r="136" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>194</v>
       </c>
@@ -24249,7 +24249,7 @@
       <c r="AC136" s="22"/>
       <c r="AD136" s="22"/>
     </row>
-    <row r="137" spans="1:30" ht="30">
+    <row r="137" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>194</v>
       </c>
@@ -24290,7 +24290,7 @@
       <c r="AC137" s="22"/>
       <c r="AD137" s="22"/>
     </row>
-    <row r="138" spans="1:30" ht="30">
+    <row r="138" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>194</v>
       </c>
@@ -24331,7 +24331,7 @@
       <c r="AC138" s="22"/>
       <c r="AD138" s="22"/>
     </row>
-    <row r="139" spans="1:30" ht="42.75">
+    <row r="139" spans="1:30" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>194</v>
       </c>
@@ -24372,7 +24372,7 @@
       <c r="AC139" s="22"/>
       <c r="AD139" s="22"/>
     </row>
-    <row r="140" spans="1:30" ht="30">
+    <row r="140" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>194</v>
       </c>
@@ -24413,7 +24413,7 @@
       <c r="AC140" s="22"/>
       <c r="AD140" s="22"/>
     </row>
-    <row r="141" spans="1:30" ht="30">
+    <row r="141" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>194</v>
       </c>
@@ -24454,7 +24454,7 @@
       <c r="AC141" s="22"/>
       <c r="AD141" s="22"/>
     </row>
-    <row r="142" spans="1:30" ht="30">
+    <row r="142" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>194</v>
       </c>
@@ -24495,7 +24495,7 @@
       <c r="AC142" s="22"/>
       <c r="AD142" s="22"/>
     </row>
-    <row r="143" spans="1:30" ht="30">
+    <row r="143" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>194</v>
       </c>
@@ -24536,7 +24536,7 @@
       <c r="AC143" s="22"/>
       <c r="AD143" s="22"/>
     </row>
-    <row r="144" spans="1:30" ht="30">
+    <row r="144" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>194</v>
       </c>
@@ -24577,7 +24577,7 @@
       <c r="AC144" s="22"/>
       <c r="AD144" s="22"/>
     </row>
-    <row r="145" spans="1:30" ht="30">
+    <row r="145" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>194</v>
       </c>
@@ -24618,7 +24618,7 @@
       <c r="AC145" s="22"/>
       <c r="AD145" s="22"/>
     </row>
-    <row r="146" spans="1:30" ht="30">
+    <row r="146" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>194</v>
       </c>
@@ -24659,7 +24659,7 @@
       <c r="AC146" s="22"/>
       <c r="AD146" s="22"/>
     </row>
-    <row r="147" spans="1:30" ht="30">
+    <row r="147" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>194</v>
       </c>
@@ -24700,7 +24700,7 @@
       <c r="AC147" s="22"/>
       <c r="AD147" s="22"/>
     </row>
-    <row r="148" spans="1:30" ht="30">
+    <row r="148" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
         <v>194</v>
       </c>
@@ -24745,7 +24745,7 @@
       <c r="AC148" s="22"/>
       <c r="AD148" s="22"/>
     </row>
-    <row r="149" spans="1:30" ht="30">
+    <row r="149" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>194</v>
       </c>
@@ -24790,7 +24790,7 @@
       <c r="AC149" s="22"/>
       <c r="AD149" s="22"/>
     </row>
-    <row r="150" spans="1:30" ht="30">
+    <row r="150" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
         <v>194</v>
       </c>
@@ -24835,7 +24835,7 @@
       <c r="AC150" s="22"/>
       <c r="AD150" s="22"/>
     </row>
-    <row r="151" spans="1:30" ht="30">
+    <row r="151" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>194</v>
       </c>
@@ -24874,7 +24874,7 @@
       <c r="AC151" s="22"/>
       <c r="AD151" s="22"/>
     </row>
-    <row r="152" spans="1:30" ht="30">
+    <row r="152" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>194</v>
       </c>
@@ -24915,7 +24915,7 @@
       <c r="AC152" s="22"/>
       <c r="AD152" s="22"/>
     </row>
-    <row r="153" spans="1:30" ht="30">
+    <row r="153" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>194</v>
       </c>
@@ -24954,7 +24954,7 @@
       <c r="AC153" s="22"/>
       <c r="AD153" s="22"/>
     </row>
-    <row r="154" spans="1:30" ht="105">
+    <row r="154" spans="1:30" ht="105" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
         <v>194</v>
       </c>
@@ -24993,7 +24993,7 @@
       <c r="AC154" s="22"/>
       <c r="AD154" s="22"/>
     </row>
-    <row r="155" spans="1:30" ht="30">
+    <row r="155" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
         <v>194</v>
       </c>
@@ -25032,7 +25032,7 @@
       <c r="AC155" s="22"/>
       <c r="AD155" s="22"/>
     </row>
-    <row r="156" spans="1:30" ht="30">
+    <row r="156" spans="1:30" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
         <v>194</v>
       </c>
@@ -25089,11 +25089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
@@ -25102,7 +25102,7 @@
     <col min="6" max="6" width="78.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>184</v>
       </c>
@@ -25122,7 +25122,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>637</v>
       </c>
@@ -25133,13 +25133,13 @@
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="F2" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>637</v>
       </c>
@@ -25159,7 +25159,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>637</v>
       </c>
@@ -25179,7 +25179,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>637</v>
       </c>
@@ -25199,7 +25199,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>566</v>
       </c>
@@ -25216,7 +25216,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>566</v>
       </c>
@@ -25236,7 +25236,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>566</v>
       </c>
@@ -25256,7 +25256,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>217</v>
       </c>
@@ -25293,7 +25293,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -25313,7 +25313,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>217</v>
       </c>
@@ -25333,7 +25333,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>217</v>
       </c>
@@ -25353,7 +25353,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -25361,7 +25361,7 @@
         <v>226</v>
       </c>
       <c r="C14" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E14" t="s">
         <v>894</v>
@@ -25370,7 +25370,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>291</v>
       </c>
@@ -25378,7 +25378,7 @@
         <v>226</v>
       </c>
       <c r="C15" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
@@ -25390,7 +25390,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>291</v>
       </c>
@@ -25398,7 +25398,7 @@
         <v>226</v>
       </c>
       <c r="C16" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -25410,7 +25410,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -25418,7 +25418,7 @@
         <v>226</v>
       </c>
       <c r="C17" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D17" t="s">
         <v>188</v>
@@ -25444,13 +25444,13 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" customWidth="1"/>
     <col min="2" max="17" width="11.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="45">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="15" t="s">
         <v>302</v>
@@ -25501,7 +25501,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75">
+    <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>247</v>
       </c>
@@ -25524,7 +25524,7 @@
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75">
+    <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>248</v>
       </c>
@@ -25547,7 +25547,7 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75">
+    <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>249</v>
       </c>
@@ -25570,7 +25570,7 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75">
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>265</v>
       </c>
@@ -25593,7 +25593,7 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75">
+    <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>237</v>
       </c>
@@ -25616,7 +25616,7 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75">
+    <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>266</v>
       </c>
@@ -25639,7 +25639,7 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75">
+    <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>267</v>
       </c>
@@ -25664,7 +25664,7 @@
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75">
+    <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>256</v>
       </c>
@@ -25691,7 +25691,7 @@
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75">
+    <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>259</v>
       </c>
@@ -25716,7 +25716,7 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75">
+    <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>254</v>
       </c>
@@ -25741,7 +25741,7 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75">
+    <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>258</v>
       </c>
@@ -25766,7 +25766,7 @@
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75">
+    <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>255</v>
       </c>
@@ -25791,7 +25791,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75">
+    <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>263</v>
       </c>
@@ -25816,7 +25816,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75">
+    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>260</v>
       </c>
@@ -25843,7 +25843,7 @@
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75">
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>261</v>
       </c>
@@ -25870,7 +25870,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
     </row>
-    <row r="17" spans="1:17" ht="15.75">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>262</v>
       </c>
@@ -25895,7 +25895,7 @@
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
     </row>
-    <row r="18" spans="1:17" ht="15.75">
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>264</v>
       </c>
@@ -25920,7 +25920,7 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>257</v>
       </c>
@@ -25947,7 +25947,7 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" ht="15.75">
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>251</v>
       </c>
@@ -25972,7 +25972,7 @@
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:17" ht="15.75">
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>240</v>
       </c>
@@ -25997,7 +25997,7 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:17" ht="15.75">
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>250</v>
       </c>
@@ -26022,7 +26022,7 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:17" ht="15.75">
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>239</v>
       </c>
@@ -26047,7 +26047,7 @@
       </c>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75">
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>253</v>
       </c>
@@ -26072,7 +26072,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15.75">
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>246</v>
       </c>
@@ -26097,7 +26097,7 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17" ht="15.75">
+    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>252</v>
       </c>

--- a/scorecard_template_elements.xlsx
+++ b/scorecard_template_elements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\global-indicators\analysis\global_scorecards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5E39D-D9B9-4855-B07A-D7297F9F222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06134FD6-7394-45E8-9DB1-CE28D28220A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,9 +1013,6 @@
     <t>Street connectivity requirements</t>
   </si>
   <si>
-    <t>Requirements for public transport access to employment/infrastructure</t>
-  </si>
-  <si>
     <t>Specific health-focused actions in metropolitan urban policy</t>
   </si>
   <si>
@@ -2754,9 +2751,6 @@
   </si>
   <si>
     <t>Healthy and Sustainable City Indicators Report:</t>
-  </si>
-  <si>
-    <t>% of 25 cities with requirement met, by income group</t>
   </si>
   <si>
     <t>density_units</t>
@@ -4445,6 +4439,12 @@
   </si>
   <si>
     <t>Urban design and transport policies supporting health and sustainability</t>
+  </si>
+  <si>
+    <t>% of 25 cities with requirement met, by country income</t>
+  </si>
+  <si>
+    <t>Requirements for public transport access to employment and services</t>
   </si>
 </sst>
 </file>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -6382,7 +6382,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -7652,7 +7652,7 @@
         <v>26</v>
       </c>
       <c r="P36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q36">
         <v>3</v>
@@ -7966,7 +7966,7 @@
         <v>26</v>
       </c>
       <c r="P41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8280,7 +8280,7 @@
         <v>26</v>
       </c>
       <c r="P46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -8594,7 +8594,7 @@
         <v>26</v>
       </c>
       <c r="P51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -16657,10 +16657,10 @@
   <dimension ref="A1:AD156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C87" sqref="C87"/>
+      <selection pane="bottomRight" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -16689,79 +16689,79 @@
         <v>183</v>
       </c>
       <c r="D1" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>780</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>781</v>
-      </c>
       <c r="F1" s="19" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>300</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>299</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>298</v>
       </c>
       <c r="M1" s="19" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="N1" s="19" t="s">
         <v>295</v>
       </c>
       <c r="O1" s="19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="P1" s="19" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="Q1" s="19" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="R1" s="19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="S1" s="19" t="s">
         <v>196</v>
       </c>
       <c r="T1" s="19" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="U1" s="19" t="s">
         <v>197</v>
       </c>
       <c r="V1" s="19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="W1" s="19" t="s">
         <v>291</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Y1" s="19" t="s">
         <v>217</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AA1" s="19" t="s">
         <v>290</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -16771,77 +16771,77 @@
         <v>194</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>183</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H2" s="27" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="R2" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="T2" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="T2" s="20" t="s">
+      <c r="U2" s="20" t="s">
         <v>652</v>
       </c>
-      <c r="U2" s="20" t="s">
+      <c r="V2" s="20" t="s">
         <v>653</v>
-      </c>
-      <c r="V2" s="20" t="s">
-        <v>654</v>
       </c>
       <c r="W2" s="20"/>
       <c r="X2" s="34" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AA2" s="20"/>
       <c r="AB2" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AC2" s="20"/>
       <c r="AD2" s="20"/>
@@ -16851,63 +16851,63 @@
         <v>194</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F3" s="22"/>
       <c r="G3" s="22" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="J3" s="22"/>
       <c r="K3" s="37" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="37" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="N3" s="22"/>
       <c r="O3" s="37" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="Q3" s="22" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="37" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="U3" s="22"/>
       <c r="V3" s="37" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="W3" s="22"/>
       <c r="X3" s="39" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="Y3" s="22"/>
       <c r="Z3" s="22" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="AA3" s="22"/>
       <c r="AB3" s="22" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="AC3" s="22"/>
       <c r="AD3" s="22"/>
@@ -16917,63 +16917,63 @@
         <v>194</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="22" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="37" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="L4" s="37"/>
       <c r="M4" s="37" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="N4" s="22"/>
       <c r="O4" s="37" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="37" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="U4" s="22"/>
       <c r="V4" s="37" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="W4" s="22"/>
       <c r="X4" s="39" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="AA4" s="22"/>
       <c r="AB4" s="22" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="AC4" s="22"/>
       <c r="AD4" s="22"/>
@@ -16990,56 +16990,56 @@
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L5" s="37"/>
       <c r="M5" s="37" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="37" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="Q5" s="22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="U5" s="22"/>
       <c r="V5" s="37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="39" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Y5" s="22"/>
       <c r="Z5" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AA5" s="22"/>
       <c r="AB5" s="22" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
@@ -17105,11 +17105,11 @@
       <c r="N7" s="22"/>
       <c r="O7" s="37"/>
       <c r="P7" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="37"/>
@@ -17246,7 +17246,7 @@
         <v>250</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -17265,7 +17265,7 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="U11" s="22"/>
       <c r="V11" s="37"/>
@@ -17292,7 +17292,7 @@
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
@@ -17349,7 +17349,7 @@
       <c r="V13" s="37"/>
       <c r="W13" s="22"/>
       <c r="X13" s="39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Y13" s="22"/>
       <c r="Z13" s="22"/>
@@ -17391,7 +17391,7 @@
       <c r="X14" s="39"/>
       <c r="Y14" s="22"/>
       <c r="Z14" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AA14" s="22"/>
       <c r="AB14" s="22"/>
@@ -17433,7 +17433,7 @@
       <c r="Z15" s="22"/>
       <c r="AA15" s="22"/>
       <c r="AB15" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AC15" s="22"/>
       <c r="AD15" s="22"/>
@@ -17498,7 +17498,7 @@
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
       <c r="M17" s="37" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="37"/>
@@ -17574,7 +17574,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="37"/>
@@ -17620,7 +17620,7 @@
       <c r="M20" s="37"/>
       <c r="N20" s="22"/>
       <c r="O20" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -17877,7 +17877,7 @@
       <c r="T26" s="37"/>
       <c r="U26" s="22"/>
       <c r="V26" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="W26" s="22"/>
       <c r="X26" s="39"/>
@@ -18045,10 +18045,10 @@
         <v>194</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -18083,10 +18083,10 @@
         <v>194</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -18101,11 +18101,11 @@
       <c r="N32" s="22"/>
       <c r="O32" s="37"/>
       <c r="P32" s="22" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="22" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="S32" s="22"/>
       <c r="T32" s="37"/>
@@ -18125,10 +18125,10 @@
         <v>194</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -18163,10 +18163,10 @@
         <v>194</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -18201,10 +18201,10 @@
         <v>194</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -18239,10 +18239,10 @@
         <v>194</v>
       </c>
       <c r="B36" s="30" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -18261,7 +18261,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="37" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="U36" s="22"/>
       <c r="V36" s="37"/>
@@ -18279,16 +18279,16 @@
         <v>194</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
       <c r="G37" s="22" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
@@ -18319,10 +18319,10 @@
         <v>194</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -18345,7 +18345,7 @@
       <c r="V38" s="37"/>
       <c r="W38" s="22"/>
       <c r="X38" s="39" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
@@ -18359,10 +18359,10 @@
         <v>194</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -18387,7 +18387,7 @@
       <c r="X39" s="39"/>
       <c r="Y39" s="22"/>
       <c r="Z39" s="22" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="AA39" s="22"/>
       <c r="AB39" s="22"/>
@@ -18399,10 +18399,10 @@
         <v>194</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -18429,7 +18429,7 @@
       <c r="Z40" s="22"/>
       <c r="AA40" s="22"/>
       <c r="AB40" s="22" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="AC40" s="22"/>
       <c r="AD40" s="22"/>
@@ -18439,10 +18439,10 @@
         <v>194</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -18456,7 +18456,7 @@
       <c r="M41" s="37"/>
       <c r="N41" s="22"/>
       <c r="O41" s="37" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
@@ -18479,10 +18479,10 @@
         <v>194</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
@@ -18494,7 +18494,7 @@
       <c r="K42" s="37"/>
       <c r="L42" s="37"/>
       <c r="M42" s="37" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="N42" s="22"/>
       <c r="O42" s="37"/>
@@ -18519,10 +18519,10 @@
         <v>194</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -18536,7 +18536,7 @@
       <c r="M43" s="37"/>
       <c r="N43" s="22"/>
       <c r="O43" s="37" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="P43" s="22"/>
       <c r="Q43" s="22"/>
@@ -18559,10 +18559,10 @@
         <v>194</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
@@ -18570,7 +18570,7 @@
       <c r="G44" s="22"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="37"/>
@@ -18599,10 +18599,10 @@
         <v>194</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -18616,7 +18616,7 @@
       <c r="M45" s="37"/>
       <c r="N45" s="22"/>
       <c r="O45" s="37" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
@@ -18639,10 +18639,10 @@
         <v>194</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
@@ -18652,7 +18652,7 @@
       <c r="I46" s="23"/>
       <c r="J46" s="22"/>
       <c r="K46" s="37" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
@@ -18679,14 +18679,14 @@
         <v>194</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -18700,10 +18700,10 @@
       <c r="O47" s="37"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="R47" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="S47" s="22"/>
       <c r="T47" s="37"/>
@@ -18723,14 +18723,14 @@
         <v>194</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -18744,10 +18744,10 @@
       <c r="O48" s="37"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="R48" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="S48" s="22"/>
       <c r="T48" s="37"/>
@@ -18767,14 +18767,14 @@
         <v>194</v>
       </c>
       <c r="B49" s="30" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -18788,10 +18788,10 @@
       <c r="O49" s="37"/>
       <c r="P49" s="22"/>
       <c r="Q49" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="R49" s="22" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="S49" s="22"/>
       <c r="T49" s="37"/>
@@ -18811,10 +18811,10 @@
         <v>194</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -18849,10 +18849,10 @@
         <v>194</v>
       </c>
       <c r="B51" s="30" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -18873,7 +18873,7 @@
       <c r="T51" s="37"/>
       <c r="U51" s="22"/>
       <c r="V51" s="37" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="W51" s="22"/>
       <c r="X51" s="39"/>
@@ -18889,10 +18889,10 @@
         <v>194</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -18927,10 +18927,10 @@
         <v>194</v>
       </c>
       <c r="B53" s="30" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -18965,10 +18965,10 @@
         <v>194</v>
       </c>
       <c r="B54" s="30" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -19003,10 +19003,10 @@
         <v>194</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -19048,54 +19048,54 @@
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="21"/>
       <c r="I56" s="21" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="J56" s="20"/>
       <c r="K56" s="37" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L56" s="37"/>
       <c r="M56" s="37" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="N56" s="20"/>
       <c r="O56" s="37" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="Q56" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="R56" s="20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="S56" s="20"/>
       <c r="T56" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U56" s="20"/>
       <c r="V56" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="W56" s="20"/>
       <c r="X56" s="39" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
@@ -19108,60 +19108,60 @@
         <v>199</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H57" s="21"/>
       <c r="I57" s="21" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J57" s="20"/>
       <c r="K57" s="37" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="L57" s="37"/>
       <c r="M57" s="37" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="37" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="Q57" s="22" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="R57" s="20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S57" s="20"/>
       <c r="T57" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U57" s="20"/>
       <c r="V57" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="W57" s="20"/>
       <c r="X57" s="39" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
@@ -19178,56 +19178,56 @@
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="21" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="J58" s="20"/>
       <c r="K58" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L58" s="37"/>
       <c r="M58" s="37" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="N58" s="20"/>
       <c r="O58" s="37" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q58" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="R58" s="20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S58" s="20"/>
       <c r="T58" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="U58" s="20"/>
       <c r="V58" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="W58" s="20"/>
       <c r="X58" s="39" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
@@ -19244,56 +19244,56 @@
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="20" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H59" s="21"/>
       <c r="I59" s="21" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="J59" s="20"/>
       <c r="K59" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L59" s="37"/>
       <c r="M59" s="37" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="N59" s="20"/>
       <c r="O59" s="37" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="Q59" s="22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="R59" s="20" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S59" s="20"/>
       <c r="T59" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="U59" s="20"/>
       <c r="V59" s="37" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="W59" s="20"/>
       <c r="X59" s="39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AC59" s="20"/>
       <c r="AD59" s="20"/>
@@ -19310,56 +19310,56 @@
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="20" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="21" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="J60" s="20"/>
       <c r="K60" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L60" s="37"/>
       <c r="M60" s="37" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="N60" s="20"/>
       <c r="O60" s="37" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="P60" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q60" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="R60" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S60" s="20"/>
       <c r="T60" s="37" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U60" s="20"/>
       <c r="V60" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="W60" s="20"/>
       <c r="X60" s="39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
@@ -19376,56 +19376,56 @@
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H61" s="21"/>
       <c r="I61" s="21" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="J61" s="20"/>
       <c r="K61" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L61" s="37"/>
       <c r="M61" s="37" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="N61" s="20"/>
       <c r="O61" s="37" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="P61" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q61" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R61" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="S61" s="20"/>
       <c r="T61" s="37" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U61" s="20"/>
       <c r="V61" s="37" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="W61" s="20"/>
       <c r="X61" s="39" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AC61" s="20"/>
       <c r="AD61" s="20"/>
@@ -19442,56 +19442,56 @@
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="20" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="20" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H62" s="21"/>
       <c r="I62" s="21" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="J62" s="20"/>
       <c r="K62" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L62" s="37"/>
       <c r="M62" s="37" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="N62" s="20"/>
       <c r="O62" s="37" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="P62" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q62" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="R62" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="S62" s="20"/>
       <c r="T62" s="37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="U62" s="20"/>
       <c r="V62" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="W62" s="20"/>
       <c r="X62" s="39" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
@@ -19504,60 +19504,60 @@
         <v>205</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="20" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H63" s="21"/>
       <c r="I63" s="21" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J63" s="20"/>
       <c r="K63" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L63" s="37"/>
       <c r="M63" s="37" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="N63" s="20"/>
       <c r="O63" s="37" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="P63" s="20" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="Q63" s="22" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="R63" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="S63" s="20"/>
       <c r="T63" s="37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="U63" s="20"/>
       <c r="V63" s="37" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="W63" s="20"/>
       <c r="X63" s="39" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
@@ -19574,56 +19574,56 @@
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="20" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="20" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H64" s="21"/>
       <c r="I64" s="21" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="J64" s="20"/>
       <c r="K64" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L64" s="37"/>
       <c r="M64" s="37" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="N64" s="20"/>
       <c r="O64" s="37" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="P64" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q64" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="R64" s="20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="S64" s="20"/>
       <c r="T64" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="U64" s="20"/>
       <c r="V64" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="W64" s="20"/>
       <c r="X64" s="39" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AC64" s="20"/>
       <c r="AD64" s="20"/>
@@ -19640,56 +19640,56 @@
       </c>
       <c r="D65" s="20"/>
       <c r="E65" s="20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="20" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H65" s="21"/>
       <c r="I65" s="21" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="J65" s="20"/>
       <c r="K65" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L65" s="37"/>
       <c r="M65" s="37" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="N65" s="20"/>
       <c r="O65" s="37" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="P65" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q65" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="R65" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="S65" s="20"/>
       <c r="T65" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U65" s="20"/>
       <c r="V65" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="W65" s="20"/>
       <c r="X65" s="39" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AC65" s="20"/>
       <c r="AD65" s="20"/>
@@ -19706,56 +19706,56 @@
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="20" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="21" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J66" s="20"/>
       <c r="K66" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="L66" s="37"/>
       <c r="M66" s="37" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="N66" s="20"/>
       <c r="O66" s="37" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="P66" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q66" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R66" s="20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S66" s="20"/>
       <c r="T66" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="U66" s="20"/>
       <c r="V66" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="W66" s="20"/>
       <c r="X66" s="39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AC66" s="20"/>
       <c r="AD66" s="20"/>
@@ -19768,60 +19768,60 @@
         <v>209</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="20" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="21" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="J67" s="20"/>
       <c r="K67" s="37" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="L67" s="37"/>
       <c r="M67" s="37" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="N67" s="20"/>
       <c r="O67" s="37" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="P67" s="20" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="Q67" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R67" s="20" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="S67" s="20"/>
       <c r="T67" s="37" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="U67" s="20"/>
       <c r="V67" s="37" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="W67" s="20"/>
       <c r="X67" s="39" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="AC67" s="20"/>
       <c r="AD67" s="20"/>
@@ -19838,56 +19838,56 @@
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="20" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="20" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H68" s="21"/>
       <c r="I68" s="21" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J68" s="20"/>
       <c r="K68" s="37" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="L68" s="37"/>
       <c r="M68" s="37" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="N68" s="20"/>
       <c r="O68" s="37" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="P68" s="20" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="Q68" s="22" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="R68" s="20" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="S68" s="20"/>
       <c r="T68" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="U68" s="20"/>
       <c r="V68" s="37" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="W68" s="20"/>
       <c r="X68" s="39" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AC68" s="20"/>
       <c r="AD68" s="20"/>
@@ -19904,56 +19904,56 @@
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="20" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H69" s="21"/>
       <c r="I69" s="21" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="J69" s="20"/>
       <c r="K69" s="37" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="L69" s="37"/>
       <c r="M69" s="37" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="N69" s="20"/>
       <c r="O69" s="37" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="P69" s="20" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q69" s="22" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R69" s="20" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="S69" s="20"/>
       <c r="T69" s="37" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="U69" s="20"/>
       <c r="V69" s="37" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="W69" s="20"/>
       <c r="X69" s="39" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="AC69" s="20"/>
       <c r="AD69" s="20"/>
@@ -19963,63 +19963,63 @@
         <v>195</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="20" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="20" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H70" s="21"/>
       <c r="I70" s="21" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="J70" s="20"/>
       <c r="K70" s="37" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="L70" s="37"/>
       <c r="M70" s="37" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="N70" s="20"/>
       <c r="O70" s="37" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="P70" s="20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q70" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="R70" s="20" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="S70" s="20"/>
       <c r="T70" s="37" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="U70" s="20"/>
       <c r="V70" s="37" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="W70" s="20"/>
       <c r="X70" s="39" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="AC70" s="20"/>
       <c r="AD70" s="20"/>
@@ -20036,56 +20036,56 @@
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="20" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H71" s="21"/>
       <c r="I71" s="21" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="J71" s="20"/>
       <c r="K71" s="37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L71" s="37"/>
       <c r="M71" s="37" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="N71" s="20"/>
       <c r="O71" s="37" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="P71" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q71" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="R71" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="S71" s="20"/>
       <c r="T71" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="U71" s="20"/>
       <c r="V71" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="W71" s="20"/>
       <c r="X71" s="39" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AC71" s="20"/>
       <c r="AD71" s="20"/>
@@ -20102,56 +20102,56 @@
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="20" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H72" s="21"/>
       <c r="I72" s="21" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="J72" s="20"/>
       <c r="K72" s="37" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L72" s="37"/>
       <c r="M72" s="37" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="N72" s="20"/>
       <c r="O72" s="37" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="P72" s="20" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q72" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="R72" s="20" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="S72" s="20"/>
       <c r="T72" s="37" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="U72" s="20"/>
       <c r="V72" s="37" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="W72" s="20"/>
       <c r="X72" s="39" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="AC72" s="20"/>
       <c r="AD72" s="20"/>
@@ -20161,63 +20161,63 @@
         <v>195</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D73" s="20"/>
       <c r="E73" s="20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="20" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H73" s="21"/>
       <c r="I73" s="21" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="J73" s="20"/>
       <c r="K73" s="37" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="L73" s="37"/>
       <c r="M73" s="37" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="N73" s="20"/>
       <c r="O73" s="37" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="P73" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="R73" s="20" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="S73" s="20"/>
       <c r="T73" s="37" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="U73" s="20"/>
       <c r="V73" s="37" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="W73" s="20"/>
       <c r="X73" s="39" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="AC73" s="20"/>
       <c r="AD73" s="20"/>
@@ -20230,60 +20230,60 @@
         <v>214</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="20" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="J74" s="20"/>
       <c r="K74" s="37" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="L74" s="37"/>
       <c r="M74" s="37" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="N74" s="20"/>
       <c r="O74" s="37" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="Q74" s="22" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="R74" s="20" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="S74" s="20"/>
       <c r="T74" s="37" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="U74" s="20"/>
       <c r="V74" s="37" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="W74" s="20"/>
       <c r="X74" s="39" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="AC74" s="20"/>
       <c r="AD74" s="20"/>
@@ -20296,60 +20296,60 @@
         <v>215</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="20" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="F75" s="20"/>
       <c r="G75" s="20" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H75" s="21"/>
       <c r="I75" s="21" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="J75" s="20"/>
       <c r="K75" s="37" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="L75" s="37"/>
       <c r="M75" s="37" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="N75" s="20"/>
       <c r="O75" s="37" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="Q75" s="22" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="R75" s="20" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="S75" s="20"/>
       <c r="T75" s="37" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="U75" s="20"/>
       <c r="V75" s="37" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="W75" s="20"/>
       <c r="X75" s="39" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="AC75" s="20"/>
       <c r="AD75" s="20"/>
@@ -20362,60 +20362,60 @@
         <v>271</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="20" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="J76" s="20"/>
       <c r="K76" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L76" s="37"/>
       <c r="M76" s="37" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="N76" s="20"/>
       <c r="O76" s="37" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="P76" s="20" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q76" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="R76" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="S76" s="20"/>
       <c r="T76" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="U76" s="20"/>
       <c r="V76" s="37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W76" s="20"/>
       <c r="X76" s="39" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="AC76" s="20"/>
       <c r="AD76" s="20"/>
@@ -20428,60 +20428,60 @@
         <v>107</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D77" s="22"/>
       <c r="E77" s="22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H77" s="23"/>
       <c r="I77" s="23" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="J77" s="22"/>
       <c r="K77" s="37" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="L77" s="37"/>
       <c r="M77" s="37" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="N77" s="22"/>
       <c r="O77" s="37" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="P77" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q77" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="R77" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S77" s="22"/>
       <c r="T77" s="37" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="U77" s="22"/>
       <c r="V77" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="W77" s="22"/>
       <c r="X77" s="39" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="Y77" s="22"/>
       <c r="Z77" s="22" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="AA77" s="22"/>
       <c r="AB77" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AC77" s="22"/>
       <c r="AD77" s="22"/>
@@ -20494,60 +20494,60 @@
         <v>245</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D78" s="22"/>
       <c r="E78" s="22" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F78" s="22"/>
       <c r="G78" s="22" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="J78" s="22"/>
       <c r="K78" s="37" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L78" s="37"/>
       <c r="M78" s="37" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="N78" s="22"/>
       <c r="O78" s="37" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="P78" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q78" s="22" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="R78" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="S78" s="22"/>
       <c r="T78" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="U78" s="22"/>
       <c r="V78" s="37" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="W78" s="22"/>
       <c r="X78" s="39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="Y78" s="22"/>
       <c r="Z78" s="22" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="AA78" s="22"/>
       <c r="AB78" s="22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AC78" s="22"/>
       <c r="AD78" s="22"/>
@@ -20564,56 +20564,56 @@
       </c>
       <c r="D79" s="22"/>
       <c r="E79" s="22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="J79" s="22"/>
       <c r="K79" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L79" s="37"/>
       <c r="M79" s="37" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="N79" s="22"/>
       <c r="O79" s="37" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="P79" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Q79" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R79" s="22" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="S79" s="22"/>
       <c r="T79" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="U79" s="22"/>
       <c r="V79" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="W79" s="22"/>
       <c r="X79" s="39" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Y79" s="22"/>
       <c r="Z79" s="22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AA79" s="22"/>
       <c r="AB79" s="22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AC79" s="22"/>
       <c r="AD79" s="22"/>
@@ -20630,56 +20630,56 @@
       </c>
       <c r="D80" s="22"/>
       <c r="E80" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="J80" s="22"/>
       <c r="K80" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L80" s="37"/>
       <c r="M80" s="37" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="N80" s="22"/>
       <c r="O80" s="37" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="P80" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q80" s="22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="R80" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S80" s="22"/>
       <c r="T80" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="U80" s="22"/>
       <c r="V80" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="W80" s="22"/>
       <c r="X80" s="39" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="Y80" s="22"/>
       <c r="Z80" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA80" s="22"/>
       <c r="AB80" s="22" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AC80" s="22"/>
       <c r="AD80" s="22"/>
@@ -20692,60 +20692,60 @@
         <v>42</v>
       </c>
       <c r="C81" s="23" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="D81" s="22"/>
       <c r="E81" s="22" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F81" s="22"/>
       <c r="G81" s="22" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="H81" s="23"/>
       <c r="I81" s="23" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="J81" s="22"/>
       <c r="K81" s="37" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="L81" s="37"/>
       <c r="M81" s="37" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="N81" s="22"/>
       <c r="O81" s="37" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="P81" s="22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="Q81" s="22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="R81" s="22" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="S81" s="22"/>
       <c r="T81" s="37" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="U81" s="22"/>
       <c r="V81" s="37" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="W81" s="22"/>
       <c r="X81" s="39" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="Y81" s="22"/>
       <c r="Z81" s="22" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="AA81" s="22"/>
       <c r="AB81" s="22" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="AC81" s="22"/>
       <c r="AD81" s="22"/>
@@ -20758,60 +20758,60 @@
         <v>241</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="D82" s="22"/>
       <c r="E82" s="22" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F82" s="22"/>
       <c r="G82" s="22" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="J82" s="22"/>
       <c r="K82" s="37" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="L82" s="37"/>
       <c r="M82" s="37" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="N82" s="22"/>
       <c r="O82" s="37" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="P82" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="Q82" s="22" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R82" s="22" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="S82" s="22"/>
       <c r="T82" s="37" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="U82" s="22"/>
       <c r="V82" s="37" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="W82" s="22"/>
       <c r="X82" s="39" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="Y82" s="22"/>
       <c r="Z82" s="22" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AA82" s="22"/>
       <c r="AB82" s="22" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="AC82" s="22"/>
       <c r="AD82" s="22"/>
@@ -20821,63 +20821,63 @@
         <v>194</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="22" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F83" s="22"/>
       <c r="G83" s="22" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J83" s="22"/>
       <c r="K83" s="37" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="L83" s="37"/>
       <c r="M83" s="37" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="N83" s="22"/>
       <c r="O83" s="37" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="P83" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="Q83" s="22" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R83" s="22" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="S83" s="22"/>
       <c r="T83" s="37" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="U83" s="22"/>
       <c r="V83" s="37" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="W83" s="22"/>
       <c r="X83" s="39" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="Y83" s="22"/>
       <c r="Z83" s="22" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="AA83" s="22"/>
       <c r="AB83" s="22" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="AC83" s="22"/>
       <c r="AD83" s="22"/>
@@ -20890,60 +20890,60 @@
         <v>44</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D84" s="22"/>
       <c r="E84" s="22" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="F84" s="22"/>
       <c r="G84" s="22" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J84" s="22"/>
       <c r="K84" s="37" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="L84" s="37"/>
       <c r="M84" s="37" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="N84" s="22"/>
       <c r="O84" s="37" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="P84" s="22" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="Q84" s="22" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="R84" s="22" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="S84" s="22"/>
       <c r="T84" s="37" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="U84" s="22"/>
       <c r="V84" s="37" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="W84" s="22"/>
       <c r="X84" s="39" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="Y84" s="22"/>
       <c r="Z84" s="22" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="AA84" s="22"/>
       <c r="AB84" s="22" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="AC84" s="22"/>
       <c r="AD84" s="22"/>
@@ -20956,19 +20956,19 @@
         <v>45</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="D85" s="22"/>
       <c r="E85" s="22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F85" s="22"/>
       <c r="G85" s="22" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="J85" s="22"/>
       <c r="K85" s="37" t="s">
@@ -20976,24 +20976,24 @@
       </c>
       <c r="L85" s="37"/>
       <c r="M85" s="37" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="N85" s="22"/>
       <c r="O85" s="37" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="P85" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="Q85" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="R85" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S85" s="22"/>
       <c r="T85" s="37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="U85" s="22"/>
       <c r="V85" s="37" t="s">
@@ -21001,15 +21001,15 @@
       </c>
       <c r="W85" s="22"/>
       <c r="X85" s="39" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="Y85" s="22"/>
       <c r="Z85" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA85" s="22"/>
       <c r="AB85" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AC85" s="22"/>
       <c r="AD85" s="22"/>
@@ -21022,60 +21022,60 @@
         <v>48</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D86" s="22"/>
       <c r="E86" s="22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F86" s="22"/>
       <c r="G86" s="22" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="J86" s="22"/>
       <c r="K86" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L86" s="37"/>
       <c r="M86" s="37" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="N86" s="22"/>
       <c r="O86" s="37" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="P86" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q86" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R86" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S86" s="22"/>
       <c r="T86" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U86" s="22"/>
       <c r="V86" s="37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="W86" s="22"/>
       <c r="X86" s="39" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="Y86" s="22"/>
       <c r="Z86" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AA86" s="22"/>
       <c r="AB86" s="22" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AC86" s="22"/>
       <c r="AD86" s="22"/>
@@ -21088,60 +21088,60 @@
         <v>312</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D87" s="22"/>
       <c r="E87" s="22" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="F87" s="22"/>
       <c r="G87" s="22" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="J87" s="22"/>
       <c r="K87" s="37" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="L87" s="37"/>
       <c r="M87" s="37" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="N87" s="22"/>
       <c r="O87" s="37" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="P87" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="Q87" s="22" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="R87" s="22" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="S87" s="22"/>
       <c r="T87" s="37" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="U87" s="22"/>
       <c r="V87" s="37" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="W87" s="22"/>
       <c r="X87" s="39" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="Y87" s="22"/>
       <c r="Z87" s="22" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="AA87" s="22"/>
       <c r="AB87" s="22" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="AC87" s="22"/>
       <c r="AD87" s="22"/>
@@ -21154,60 +21154,60 @@
         <v>51</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D88" s="22"/>
       <c r="E88" s="22" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="F88" s="22"/>
       <c r="G88" s="22" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="H88" s="23"/>
       <c r="I88" s="23" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="J88" s="22"/>
       <c r="K88" s="37" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="L88" s="37"/>
       <c r="M88" s="37" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="N88" s="22"/>
       <c r="O88" s="37" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="P88" s="22" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="Q88" s="22" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="R88" s="22" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="S88" s="22"/>
       <c r="T88" s="37" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="U88" s="22"/>
       <c r="V88" s="37" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="W88" s="22"/>
       <c r="X88" s="39" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="Y88" s="22"/>
       <c r="Z88" s="22" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="AA88" s="22"/>
       <c r="AB88" s="22" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="AC88" s="22"/>
       <c r="AD88" s="22"/>
@@ -21220,60 +21220,60 @@
         <v>272</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D89" s="22"/>
       <c r="E89" s="22" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F89" s="22"/>
       <c r="G89" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H89" s="23"/>
       <c r="I89" s="23" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="J89" s="22"/>
       <c r="K89" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L89" s="37"/>
       <c r="M89" s="37" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="N89" s="22"/>
       <c r="O89" s="37" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="P89" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="Q89" s="22" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R89" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S89" s="22"/>
       <c r="T89" s="37" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U89" s="22"/>
       <c r="V89" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="W89" s="22"/>
       <c r="X89" s="39" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Y89" s="22"/>
       <c r="Z89" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AA89" s="22"/>
       <c r="AB89" s="22" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AC89" s="22"/>
       <c r="AD89" s="22"/>
@@ -21286,60 +21286,60 @@
         <v>52</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D90" s="22"/>
       <c r="E90" s="22" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="F90" s="22"/>
       <c r="G90" s="22" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="J90" s="22"/>
       <c r="K90" s="37" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="L90" s="37"/>
       <c r="M90" s="37" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="N90" s="22"/>
       <c r="O90" s="37" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="P90" s="22" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="Q90" s="22" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="R90" s="22" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="S90" s="22"/>
       <c r="T90" s="37" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="U90" s="22"/>
       <c r="V90" s="37" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="W90" s="22"/>
       <c r="X90" s="39" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="Y90" s="22"/>
       <c r="Z90" s="22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="AA90" s="22"/>
       <c r="AB90" s="22" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="AC90" s="22"/>
       <c r="AD90" s="22"/>
@@ -21356,56 +21356,56 @@
       </c>
       <c r="D91" s="22"/>
       <c r="E91" s="22" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F91" s="22"/>
       <c r="G91" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="J91" s="22"/>
       <c r="K91" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L91" s="37"/>
       <c r="M91" s="37" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="N91" s="22"/>
       <c r="O91" s="37" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="P91" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="Q91" s="22" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="R91" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S91" s="22"/>
       <c r="T91" s="37" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U91" s="22"/>
       <c r="V91" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="W91" s="22"/>
       <c r="X91" s="39" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="Y91" s="22"/>
       <c r="Z91" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AA91" s="22"/>
       <c r="AB91" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AC91" s="22"/>
       <c r="AD91" s="22"/>
@@ -21422,56 +21422,56 @@
       </c>
       <c r="D92" s="22"/>
       <c r="E92" s="22" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F92" s="22"/>
       <c r="G92" s="22" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H92" s="23"/>
       <c r="I92" s="23" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="J92" s="22"/>
       <c r="K92" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L92" s="37"/>
       <c r="M92" s="37" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="N92" s="22"/>
       <c r="O92" s="37" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="P92" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="Q92" s="22" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="R92" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="S92" s="22"/>
       <c r="T92" s="37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U92" s="22"/>
       <c r="V92" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="W92" s="22"/>
       <c r="X92" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="Y92" s="22"/>
       <c r="Z92" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AA92" s="22"/>
       <c r="AB92" s="22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AC92" s="22"/>
       <c r="AD92" s="22"/>
@@ -21484,60 +21484,60 @@
         <v>55</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>901</v>
+        <v>1445</v>
       </c>
       <c r="D93" s="22"/>
       <c r="E93" s="22" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F93" s="22"/>
       <c r="G93" s="22" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="J93" s="22"/>
       <c r="K93" s="37" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="L93" s="37"/>
       <c r="M93" s="37" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="N93" s="22"/>
       <c r="O93" s="37" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="P93" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="Q93" s="22" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="R93" s="22" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="S93" s="22"/>
       <c r="T93" s="37" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="U93" s="22"/>
       <c r="V93" s="37" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="W93" s="22"/>
       <c r="X93" s="39" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="Y93" s="22"/>
       <c r="Z93" s="22" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="AA93" s="22"/>
       <c r="AB93" s="22" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AC93" s="22"/>
       <c r="AD93" s="22"/>
@@ -21554,56 +21554,56 @@
       </c>
       <c r="D94" s="22"/>
       <c r="E94" s="22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F94" s="22"/>
       <c r="G94" s="22" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H94" s="23"/>
       <c r="I94" s="23" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J94" s="22"/>
       <c r="K94" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L94" s="37"/>
       <c r="M94" s="37" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="N94" s="22"/>
       <c r="O94" s="37" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="P94" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="Q94" s="22" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="R94" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="S94" s="22"/>
       <c r="T94" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U94" s="22"/>
       <c r="V94" s="37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="W94" s="22"/>
       <c r="X94" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="Y94" s="22"/>
       <c r="Z94" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AA94" s="22"/>
       <c r="AB94" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AC94" s="22"/>
       <c r="AD94" s="22"/>
@@ -21620,56 +21620,56 @@
       </c>
       <c r="D95" s="22"/>
       <c r="E95" s="22" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F95" s="22"/>
       <c r="G95" s="22" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="J95" s="22"/>
       <c r="K95" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L95" s="37"/>
       <c r="M95" s="37" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="N95" s="22"/>
       <c r="O95" s="37" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="P95" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="Q95" s="22" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="R95" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="S95" s="22"/>
       <c r="T95" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U95" s="22"/>
       <c r="V95" s="37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="W95" s="22"/>
       <c r="X95" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="Y95" s="22"/>
       <c r="Z95" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA95" s="22"/>
       <c r="AB95" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AC95" s="22"/>
       <c r="AD95" s="22"/>
@@ -21682,60 +21682,60 @@
         <v>56</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D96" s="22"/>
       <c r="E96" s="22" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F96" s="22"/>
       <c r="G96" s="22" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" s="23" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="J96" s="22"/>
       <c r="K96" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L96" s="37"/>
       <c r="M96" s="37" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="N96" s="22"/>
       <c r="O96" s="37" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="P96" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="Q96" s="22" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="R96" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="S96" s="22"/>
       <c r="T96" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U96" s="22"/>
       <c r="V96" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="W96" s="22"/>
       <c r="X96" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="Y96" s="22"/>
       <c r="Z96" s="22" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA96" s="22"/>
       <c r="AB96" s="22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AC96" s="22"/>
       <c r="AD96" s="22"/>
@@ -21748,60 +21748,60 @@
         <v>60</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D97" s="22"/>
       <c r="E97" s="22" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F97" s="22"/>
       <c r="G97" s="22" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="J97" s="22"/>
       <c r="K97" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L97" s="37"/>
       <c r="M97" s="37" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="N97" s="22"/>
       <c r="O97" s="37" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="P97" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="Q97" s="22" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="R97" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S97" s="22"/>
       <c r="T97" s="37" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U97" s="22"/>
       <c r="V97" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="W97" s="22"/>
       <c r="X97" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="Y97" s="22"/>
       <c r="Z97" s="22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AA97" s="22"/>
       <c r="AB97" s="22" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AC97" s="22"/>
       <c r="AD97" s="22"/>
@@ -21814,60 +21814,60 @@
         <v>64</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D98" s="22"/>
       <c r="E98" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F98" s="22"/>
       <c r="G98" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J98" s="22"/>
       <c r="K98" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L98" s="37"/>
       <c r="M98" s="37" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N98" s="22"/>
       <c r="O98" s="37" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="P98" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="Q98" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="R98" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S98" s="22"/>
       <c r="T98" s="37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U98" s="22"/>
       <c r="V98" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W98" s="22"/>
       <c r="X98" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="Y98" s="22"/>
       <c r="Z98" s="22" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AA98" s="22"/>
       <c r="AB98" s="22" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AC98" s="22"/>
       <c r="AD98" s="22"/>
@@ -21880,60 +21880,60 @@
         <v>68</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F99" s="22"/>
       <c r="G99" s="22" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="J99" s="22"/>
       <c r="K99" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L99" s="37"/>
       <c r="M99" s="37" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="N99" s="22"/>
       <c r="O99" s="37" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="P99" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="Q99" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R99" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="S99" s="22"/>
       <c r="T99" s="37" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U99" s="22"/>
       <c r="V99" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="W99" s="22"/>
       <c r="X99" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Y99" s="22"/>
       <c r="Z99" s="22" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AA99" s="22"/>
       <c r="AB99" s="22" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AC99" s="22"/>
       <c r="AD99" s="22"/>
@@ -21950,56 +21950,56 @@
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F100" s="22"/>
       <c r="G100" s="22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="J100" s="22"/>
       <c r="K100" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L100" s="37"/>
       <c r="M100" s="37" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="N100" s="22"/>
       <c r="O100" s="37" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="P100" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="Q100" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R100" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S100" s="22"/>
       <c r="T100" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U100" s="22"/>
       <c r="V100" s="37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="W100" s="22"/>
       <c r="X100" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="Y100" s="22"/>
       <c r="Z100" s="22" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AA100" s="22"/>
       <c r="AB100" s="22" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AC100" s="22"/>
       <c r="AD100" s="22"/>
@@ -22016,56 +22016,56 @@
       </c>
       <c r="D101" s="22"/>
       <c r="E101" s="22" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F101" s="22"/>
       <c r="G101" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H101" s="23"/>
       <c r="I101" s="23" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="J101" s="22"/>
       <c r="K101" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L101" s="37"/>
       <c r="M101" s="37" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="N101" s="22"/>
       <c r="O101" s="37" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="P101" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q101" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R101" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S101" s="22"/>
       <c r="T101" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="U101" s="22"/>
       <c r="V101" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W101" s="22"/>
       <c r="X101" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Y101" s="22"/>
       <c r="Z101" s="22" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AA101" s="22"/>
       <c r="AB101" s="22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AC101" s="22"/>
       <c r="AD101" s="22"/>
@@ -22078,60 +22078,60 @@
         <v>85</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D102" s="22"/>
       <c r="E102" s="22" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="F102" s="22"/>
       <c r="G102" s="22" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="J102" s="25"/>
       <c r="K102" s="37" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L102" s="37"/>
       <c r="M102" s="37" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="N102" s="25"/>
       <c r="O102" s="37" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="P102" s="22" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="Q102" s="25" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="R102" s="22" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="S102" s="22"/>
       <c r="T102" s="37" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="U102" s="22"/>
       <c r="V102" s="37" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="W102" s="22"/>
       <c r="X102" s="39" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="Y102" s="22"/>
       <c r="Z102" s="22" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="AA102" s="22"/>
       <c r="AB102" s="22" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="AC102" s="22"/>
       <c r="AD102" s="22"/>
@@ -22144,60 +22144,60 @@
         <v>231</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D103" s="22"/>
       <c r="E103" s="22" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F103" s="22"/>
       <c r="G103" s="22" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="H103" s="23"/>
       <c r="I103" s="23" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="J103" s="22"/>
       <c r="K103" s="37" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="L103" s="37"/>
       <c r="M103" s="37" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="N103" s="22"/>
       <c r="O103" s="37" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="P103" s="22" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="Q103" s="22" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="R103" s="22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="S103" s="22"/>
       <c r="T103" s="37" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="U103" s="22"/>
       <c r="V103" s="37" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="W103" s="22"/>
       <c r="X103" s="39" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="Y103" s="22"/>
       <c r="Z103" s="22" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AA103" s="22"/>
       <c r="AB103" s="22" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="AC103" s="22"/>
       <c r="AD103" s="22"/>
@@ -22210,60 +22210,60 @@
         <v>234</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="22" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="F104" s="22"/>
       <c r="G104" s="22" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="H104" s="23"/>
       <c r="I104" s="23" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J104" s="22"/>
       <c r="K104" s="37" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="L104" s="37"/>
       <c r="M104" s="37" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="N104" s="22"/>
       <c r="O104" s="37" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="P104" s="22" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="Q104" s="22" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="R104" s="22" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="S104" s="22"/>
       <c r="T104" s="37" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="U104" s="22"/>
       <c r="V104" s="37" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="W104" s="22"/>
       <c r="X104" s="39" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="Y104" s="22"/>
       <c r="Z104" s="22" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="AA104" s="22"/>
       <c r="AB104" s="22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="AC104" s="22"/>
       <c r="AD104" s="22"/>
@@ -22276,60 +22276,60 @@
         <v>235</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D105" s="22"/>
       <c r="E105" s="22" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F105" s="22"/>
       <c r="G105" s="22" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H105" s="23"/>
       <c r="I105" s="23" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="J105" s="22"/>
       <c r="K105" s="37" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="L105" s="37"/>
       <c r="M105" s="37" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="N105" s="22"/>
       <c r="O105" s="37" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="P105" s="22" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="Q105" s="22" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="R105" s="22" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="S105" s="22"/>
       <c r="T105" s="37" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="U105" s="22"/>
       <c r="V105" s="37" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="W105" s="22"/>
       <c r="X105" s="39" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="Y105" s="22"/>
       <c r="Z105" s="22" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="AA105" s="22"/>
       <c r="AB105" s="22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="AC105" s="22"/>
       <c r="AD105" s="22"/>
@@ -22346,56 +22346,56 @@
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F106" s="22"/>
       <c r="G106" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H106" s="23"/>
       <c r="I106" s="23" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L106" s="37"/>
       <c r="M106" s="37" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="N106" s="22"/>
       <c r="O106" s="37" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="P106" s="22" t="s">
-      